--- a/Android/ExcelData/RewardTable.xlsx
+++ b/Android/ExcelData/RewardTable.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CB6B59-3F26-4EDE-9693-0490F048ADD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCEF1F5-E76E-4AF6-912C-D8AD0772C6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42555" yWindow="2355" windowWidth="23460" windowHeight="18420" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
   </bookViews>
   <sheets>
-    <sheet name="first_reward" sheetId="1" r:id="rId1"/>
-    <sheet name="refeat_reward" sheetId="2" r:id="rId2"/>
+    <sheet name="!참조_ENUM" sheetId="3" r:id="rId1"/>
+    <sheet name="first_reward" sheetId="1" r:id="rId2"/>
+    <sheet name="repeat_reward" sheetId="2" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,22 +71,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Refeat_Reward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>First_Reward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지급 수량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>frist_reward_index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>보상 그룹 인덱스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,10 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>repeat_reward_index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>max_count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,6 +132,22 @@
   </si>
   <si>
     <t>#item_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>First_Reward_Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repeat_Reward_Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frist_reward_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeat_reward_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -189,7 +190,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,8 +215,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -236,15 +243,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -272,8 +270,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -299,109 +297,212 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="!Usable"/>
-      <sheetName val="!참조_ENUM"/>
-      <sheetName val="stage_data"/>
-      <sheetName val="wave_data"/>
-      <sheetName val="stage_reward"/>
-      <sheetName val="star_reward"/>
+      <sheetName val="@tribe"/>
+      <sheetName val="@stage"/>
+      <sheetName val="@position"/>
+      <sheetName val="@role"/>
+      <sheetName val="@npc"/>
+      <sheetName val="@target_rule"/>
+      <sheetName val="@character_sort"/>
+      <sheetName val="@stage_common"/>
+      <sheetName val="@second_target_rule"/>
+      <sheetName val="@effect"/>
+      <sheetName val="@stat"/>
+      <sheetName val="@team_type"/>
+      <sheetName val="@touch_body_type"/>
+      <sheetName val="@touch_gesture_type"/>
+      <sheetName val="@target_type"/>
+      <sheetName val="@onetime_effect_type"/>
+      <sheetName val="@duration_effect_type"/>
+      <sheetName val="@persistence_type"/>
+      <sheetName val="@projectile_type"/>
+      <sheetName val="@inequality_type"/>
+      <sheetName val="@skill_type"/>
+      <sheetName val="@item_type"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ITEM_TYPE</v>
+          </cell>
+        </row>
         <row r="3">
-          <cell r="B3">
+          <cell r="A3" t="str">
+            <v>type</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>value</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>comment</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="B4">
             <v>0</v>
           </cell>
-          <cell r="C3" t="str">
+          <cell r="C4" t="str">
             <v>NONE</v>
           </cell>
         </row>
-        <row r="4">
-          <cell r="B4">
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>GOLD</v>
+          </cell>
+          <cell r="B5">
             <v>1</v>
           </cell>
-          <cell r="C4" t="str">
+          <cell r="C5" t="str">
             <v>금화(게임내 사용되는 재화)</v>
           </cell>
         </row>
-        <row r="5">
-          <cell r="B5">
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>DIA</v>
+          </cell>
+          <cell r="B6">
             <v>2</v>
           </cell>
-          <cell r="C5" t="str">
+          <cell r="C6" t="str">
             <v>보석(게임내 사용되는 유료 재화)</v>
           </cell>
         </row>
-        <row r="6">
-          <cell r="B6">
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>DUNGEON_TICKET</v>
+          </cell>
+          <cell r="B7">
             <v>3</v>
           </cell>
-          <cell r="C6" t="str">
+          <cell r="C7" t="str">
             <v>던전 입장 티켓</v>
           </cell>
         </row>
-        <row r="7">
-          <cell r="B7">
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>CHARACTER_PIECE</v>
+          </cell>
+          <cell r="B8">
             <v>4</v>
           </cell>
-          <cell r="C7" t="str">
+          <cell r="C8" t="str">
             <v>캐릭터 조각</v>
           </cell>
         </row>
-        <row r="8">
-          <cell r="B8">
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>EXP_POTION</v>
+          </cell>
+          <cell r="B9">
             <v>5</v>
           </cell>
-          <cell r="C8" t="str">
+          <cell r="C9" t="str">
             <v>경험치 물약</v>
           </cell>
         </row>
-        <row r="9">
-          <cell r="B9">
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>STA_POTION</v>
+          </cell>
+          <cell r="B10">
             <v>6</v>
           </cell>
-          <cell r="C9" t="str">
+          <cell r="C10" t="str">
             <v>스테미나 회복 물약</v>
           </cell>
         </row>
-        <row r="10">
-          <cell r="B10">
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>MEMORIAL_ITEM</v>
+          </cell>
+          <cell r="B11">
             <v>7</v>
           </cell>
-          <cell r="C10" t="str">
+          <cell r="C11" t="str">
             <v>메모리얼에서 사용될 아이템</v>
           </cell>
         </row>
-        <row r="11">
-          <cell r="B11">
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>CHARACTER</v>
+          </cell>
+          <cell r="B12">
             <v>8</v>
           </cell>
-          <cell r="C11" t="str">
+          <cell r="C12" t="str">
             <v>캐릭터 완전체</v>
           </cell>
         </row>
-        <row r="12">
-          <cell r="B12">
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>EXPENDABLE_ITEM</v>
+          </cell>
+          <cell r="B13">
             <v>9</v>
           </cell>
-          <cell r="C12" t="str">
+          <cell r="C13" t="str">
             <v>각종 소모용 아이템</v>
           </cell>
         </row>
-        <row r="13">
-          <cell r="B13">
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>EQUIPMENT_ITEM</v>
+          </cell>
+          <cell r="B14">
             <v>10</v>
           </cell>
-          <cell r="C13" t="str">
+          <cell r="C14" t="str">
             <v>장비</v>
           </cell>
         </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>FAVORITE_ITEM</v>
+          </cell>
+          <cell r="B15">
+            <v>11</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>호감도 아이템</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>STAMINA</v>
+          </cell>
+          <cell r="B16">
+            <v>12</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>스태미나</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -703,10 +804,235 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB92121-343E-422E-B3FA-27D4313C268C}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="str">
+        <f>'[1]@item_type'!$A$1</f>
+        <v>ITEM_TYPE</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="str">
+        <f>'[1]@item_type'!$A3</f>
+        <v>type</v>
+      </c>
+      <c r="B2" s="6" t="str">
+        <f>'[1]@item_type'!$B3</f>
+        <v>value</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>'[1]@item_type'!$C3</f>
+        <v>comment</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="str">
+        <f>'[1]@item_type'!$A4</f>
+        <v>NONE</v>
+      </c>
+      <c r="B3" s="5">
+        <f>'[1]@item_type'!$B4</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <f>'[1]@item_type'!$C4</f>
+        <v>NONE</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="str">
+        <f>'[1]@item_type'!$A5</f>
+        <v>GOLD</v>
+      </c>
+      <c r="B4" s="5">
+        <f>'[1]@item_type'!$B5</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f>'[1]@item_type'!$C5</f>
+        <v>금화(게임내 사용되는 재화)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="str">
+        <f>'[1]@item_type'!$A6</f>
+        <v>DIA</v>
+      </c>
+      <c r="B5" s="5">
+        <f>'[1]@item_type'!$B6</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f>'[1]@item_type'!$C6</f>
+        <v>보석(게임내 사용되는 유료 재화)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="str">
+        <f>'[1]@item_type'!$A7</f>
+        <v>DUNGEON_TICKET</v>
+      </c>
+      <c r="B6" s="5">
+        <f>'[1]@item_type'!$B7</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="str">
+        <f>'[1]@item_type'!$C7</f>
+        <v>던전 입장 티켓</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="str">
+        <f>'[1]@item_type'!$A8</f>
+        <v>CHARACTER_PIECE</v>
+      </c>
+      <c r="B7" s="5">
+        <f>'[1]@item_type'!$B8</f>
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="str">
+        <f>'[1]@item_type'!$C8</f>
+        <v>캐릭터 조각</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="str">
+        <f>'[1]@item_type'!$A9</f>
+        <v>EXP_POTION</v>
+      </c>
+      <c r="B8" s="5">
+        <f>'[1]@item_type'!$B9</f>
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="str">
+        <f>'[1]@item_type'!$C9</f>
+        <v>경험치 물약</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="str">
+        <f>'[1]@item_type'!$A10</f>
+        <v>STA_POTION</v>
+      </c>
+      <c r="B9" s="5">
+        <f>'[1]@item_type'!$B10</f>
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="str">
+        <f>'[1]@item_type'!$C10</f>
+        <v>스테미나 회복 물약</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="str">
+        <f>'[1]@item_type'!$A11</f>
+        <v>MEMORIAL_ITEM</v>
+      </c>
+      <c r="B10" s="5">
+        <f>'[1]@item_type'!$B11</f>
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="str">
+        <f>'[1]@item_type'!$C11</f>
+        <v>메모리얼에서 사용될 아이템</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="str">
+        <f>'[1]@item_type'!$A12</f>
+        <v>CHARACTER</v>
+      </c>
+      <c r="B11" s="5">
+        <f>'[1]@item_type'!$B12</f>
+        <v>8</v>
+      </c>
+      <c r="C11" s="5" t="str">
+        <f>'[1]@item_type'!$C12</f>
+        <v>캐릭터 완전체</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="str">
+        <f>'[1]@item_type'!$A13</f>
+        <v>EXPENDABLE_ITEM</v>
+      </c>
+      <c r="B12" s="5">
+        <f>'[1]@item_type'!$B13</f>
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="str">
+        <f>'[1]@item_type'!$C13</f>
+        <v>각종 소모용 아이템</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="str">
+        <f>'[1]@item_type'!$A14</f>
+        <v>EQUIPMENT_ITEM</v>
+      </c>
+      <c r="B13" s="5">
+        <f>'[1]@item_type'!$B14</f>
+        <v>10</v>
+      </c>
+      <c r="C13" s="5" t="str">
+        <f>'[1]@item_type'!$C14</f>
+        <v>장비</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="str">
+        <f>'[1]@item_type'!$A15</f>
+        <v>FAVORITE_ITEM</v>
+      </c>
+      <c r="B14" s="5">
+        <f>'[1]@item_type'!$B15</f>
+        <v>11</v>
+      </c>
+      <c r="C14" s="5" t="str">
+        <f>'[1]@item_type'!$C15</f>
+        <v>호감도 아이템</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="str">
+        <f>'[1]@item_type'!$A16</f>
+        <v>STAMINA</v>
+      </c>
+      <c r="B15" s="5">
+        <f>'[1]@item_type'!$B16</f>
+        <v>12</v>
+      </c>
+      <c r="C15" s="5" t="str">
+        <f>'[1]@item_type'!$C16</f>
+        <v>스태미나</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF298A1-BFB8-4655-A89A-928C8402A01E}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -720,18 +1046,18 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -740,7 +1066,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -748,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1</v>
@@ -765,22 +1091,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -791,14 +1117,14 @@
         <v>5</v>
       </c>
       <c r="C5" s="5" t="str">
-        <f>INDEX('[1]!참조_ENUM'!$C$3:$C$13,MATCH(B5,'[1]!참조_ENUM'!$B$3:$B$13,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$15,MATCH(B5,'!참조_ENUM'!$B$3:$B$15,0))</f>
         <v>경험치 물약</v>
       </c>
       <c r="D5" s="5">
         <v>50001</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -812,14 +1138,14 @@
         <v>6</v>
       </c>
       <c r="C6" s="5" t="str">
-        <f>INDEX('[1]!참조_ENUM'!$C$3:$C$13,MATCH(B6,'[1]!참조_ENUM'!$B$3:$B$13,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$15,MATCH(B6,'!참조_ENUM'!$B$3:$B$15,0))</f>
         <v>스테미나 회복 물약</v>
       </c>
       <c r="D6" s="5">
         <v>60001</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -828,55 +1154,73 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{087D3EB5-2A31-4909-9A3B-74399BD763E2}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$B$3:$B$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>B5:B6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384A2924-9692-4A94-A417-5B1443989758}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.75" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1</v>
@@ -885,62 +1229,100 @@
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>200001</v>
       </c>
       <c r="B5" s="5">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$15,MATCH(B5,'!참조_ENUM'!$B$3:$B$15,0))</f>
+        <v>각종 소모용 아이템</v>
+      </c>
+      <c r="D5" s="5">
         <v>90001</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="5">
+      <c r="G5" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>200001</v>
       </c>
       <c r="B6" s="5">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$15,MATCH(B6,'!참조_ENUM'!$B$3:$B$15,0))</f>
+        <v>각종 소모용 아이템</v>
+      </c>
+      <c r="D6" s="5">
         <v>90001</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="5">
         <v>1</v>
       </c>
-      <c r="E6" s="5">
+      <c r="G6" s="5">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4B71F79D-04EC-4F69-99BA-8A6DDC6B3A4A}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$B$3:$B$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>B5:B6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Android/ExcelData/RewardTable.xlsx
+++ b/Android/ExcelData/RewardTable.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCEF1F5-E76E-4AF6-912C-D8AD0772C6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDB89A2-FA42-44A8-A689-169EEFFD3C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="3" r:id="rId1"/>
     <sheet name="first_reward" sheetId="1" r:id="rId2"/>
     <sheet name="repeat_reward" sheetId="2" r:id="rId3"/>
+    <sheet name="star_reward" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="37">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>보상 인덱스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기획자 확인용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>보상 그룹 인덱스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스태미나 회복 물약</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,10 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>max_count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,12 +132,61 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>frist_reward_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>repeat_reward_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상 그룹 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상 고유 인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeat_reward_group_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Star_Reward_Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>star_point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별 포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>star_reward_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>star_reward_group_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_reward_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_reward_group_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치 물약</t>
+  </si>
+  <si>
+    <t>스테미나 회복 물약</t>
+  </si>
+  <si>
+    <t>각종 소모용 아이템</t>
   </si>
 </sst>
 </file>
@@ -190,7 +228,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,6 +256,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,7 +295,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -272,6 +316,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1028,56 +1075,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF298A1-BFB8-4655-A89A-928C8402A01E}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>1</v>
@@ -1088,66 +1139,78 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
+        <v>10001</v>
+      </c>
+      <c r="B5" s="5">
         <v>100001</v>
       </c>
-      <c r="B5" s="5">
+      <c r="C5" s="5">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$15,MATCH(D5,'!참조_ENUM'!$C$3:$C$15,0))</f>
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$15,MATCH(B5,'!참조_ENUM'!$B$3:$B$15,0))</f>
-        <v>경험치 물약</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="D5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="5">
         <v>50001</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="F5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
+        <v>10002</v>
+      </c>
+      <c r="B6" s="5">
         <v>100001</v>
       </c>
-      <c r="B6" s="5">
+      <c r="C6" s="5">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$15,MATCH(D6,'!참조_ENUM'!$C$3:$C$15,0))</f>
         <v>6</v>
       </c>
-      <c r="C6" s="5" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$15,MATCH(B6,'!참조_ENUM'!$B$3:$B$15,0))</f>
-        <v>스테미나 회복 물약</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="D6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="5">
         <v>60001</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="F6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1157,11 +1220,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{087D3EB5-2A31-4909-9A3B-74399BD763E2}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5D02E94D-A93C-4153-AF32-D275E27EB9B1}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$B$3:$B$15</xm:f>
+            <xm:f>'!참조_ENUM'!$C$3:$C$15</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:B6</xm:sqref>
+          <xm:sqref>D5:D6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1171,141 +1234,157 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384A2924-9692-4A94-A417-5B1443989758}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.75" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>0</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>20001</v>
+      </c>
+      <c r="B5" s="5">
+        <v>200001</v>
+      </c>
+      <c r="C5" s="5">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$15,MATCH(D5,'!참조_ENUM'!$C$3:$C$15,0))</f>
+        <v>9</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="5">
+        <v>90001</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>20002</v>
+      </c>
+      <c r="B6" s="5">
+        <v>200001</v>
+      </c>
+      <c r="C6" s="5">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$15,MATCH(D6,'!참조_ENUM'!$C$3:$C$15,0))</f>
+        <v>9</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="5">
+        <v>90001</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>200001</v>
-      </c>
-      <c r="B5" s="5">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$15,MATCH(B5,'!참조_ENUM'!$B$3:$B$15,0))</f>
-        <v>각종 소모용 아이템</v>
-      </c>
-      <c r="D5" s="5">
-        <v>90001</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="G6" s="5">
         <v>1</v>
       </c>
-      <c r="G5" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>200001</v>
-      </c>
-      <c r="B6" s="5">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$15,MATCH(B6,'!참조_ENUM'!$B$3:$B$15,0))</f>
-        <v>각종 소모용 아이템</v>
-      </c>
-      <c r="D6" s="5">
-        <v>90001</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="H6" s="5">
         <v>3</v>
       </c>
     </row>
@@ -1315,11 +1394,185 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4B71F79D-04EC-4F69-99BA-8A6DDC6B3A4A}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B4211C5C-8C3C-4E99-AA3E-F28DF2A98CFA}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$B$3:$B$15</xm:f>
+            <xm:f>'!참조_ENUM'!$C$3:$C$15</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:B6</xm:sqref>
+          <xm:sqref>D5:D6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AB3843-EB72-489A-81FD-0084314386F7}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.75" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>30001</v>
+      </c>
+      <c r="B5" s="5">
+        <v>300001</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$15,MATCH(E5,'!참조_ENUM'!$C$3:$C$15,0))</f>
+        <v>9</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="5">
+        <v>90001</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>30002</v>
+      </c>
+      <c r="B6" s="5">
+        <v>300001</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$15,MATCH(E6,'!참조_ENUM'!$C$3:$C$15,0))</f>
+        <v>9</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="5">
+        <v>90001</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="5">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9EF89535-0026-412A-A252-50E2AAB477CC}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$C$3:$C$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>E5:E6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Android/ExcelData/RewardTable.xlsx
+++ b/Android/ExcelData/RewardTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDB89A2-FA42-44A8-A689-169EEFFD3C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BFD8FD-3C47-48E1-BF1D-85CC9DE973C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="3" r:id="rId1"/>
@@ -80,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>item_index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,13 +176,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경험치 물약</t>
-  </si>
-  <si>
-    <t>스테미나 회복 물약</t>
-  </si>
-  <si>
-    <t>각종 소모용 아이템</t>
+    <t>5 경험치 물약</t>
+  </si>
+  <si>
+    <t>6 스테미나 회복 물약</t>
+  </si>
+  <si>
+    <t>9 각종 소모용 아이템</t>
+  </si>
+  <si>
+    <t>item_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -425,7 +425,7 @@
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>금화(게임내 사용되는 재화)</v>
+            <v>1 금화(게임내 사용되는 재화)</v>
           </cell>
         </row>
         <row r="6">
@@ -436,7 +436,7 @@
             <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>보석(게임내 사용되는 유료 재화)</v>
+            <v>2 보석(게임내 사용되는 유료 재화)</v>
           </cell>
         </row>
         <row r="7">
@@ -447,7 +447,7 @@
             <v>3</v>
           </cell>
           <cell r="C7" t="str">
-            <v>던전 입장 티켓</v>
+            <v>3 던전 입장 티켓</v>
           </cell>
         </row>
         <row r="8">
@@ -458,7 +458,7 @@
             <v>4</v>
           </cell>
           <cell r="C8" t="str">
-            <v>캐릭터 조각</v>
+            <v>4 캐릭터 조각</v>
           </cell>
         </row>
         <row r="9">
@@ -469,7 +469,7 @@
             <v>5</v>
           </cell>
           <cell r="C9" t="str">
-            <v>경험치 물약</v>
+            <v>5 경험치 물약</v>
           </cell>
         </row>
         <row r="10">
@@ -480,7 +480,7 @@
             <v>6</v>
           </cell>
           <cell r="C10" t="str">
-            <v>스테미나 회복 물약</v>
+            <v>6 스테미나 회복 물약</v>
           </cell>
         </row>
         <row r="11">
@@ -491,7 +491,7 @@
             <v>7</v>
           </cell>
           <cell r="C11" t="str">
-            <v>메모리얼에서 사용될 아이템</v>
+            <v>7 메모리얼에서 사용될 아이템</v>
           </cell>
         </row>
         <row r="12">
@@ -502,7 +502,7 @@
             <v>8</v>
           </cell>
           <cell r="C12" t="str">
-            <v>캐릭터 완전체</v>
+            <v>8 캐릭터 완전체</v>
           </cell>
         </row>
         <row r="13">
@@ -513,7 +513,7 @@
             <v>9</v>
           </cell>
           <cell r="C13" t="str">
-            <v>각종 소모용 아이템</v>
+            <v>9 각종 소모용 아이템</v>
           </cell>
         </row>
         <row r="14">
@@ -524,7 +524,7 @@
             <v>10</v>
           </cell>
           <cell r="C14" t="str">
-            <v>장비</v>
+            <v>10 장비</v>
           </cell>
         </row>
         <row r="15">
@@ -535,7 +535,7 @@
             <v>11</v>
           </cell>
           <cell r="C15" t="str">
-            <v>호감도 아이템</v>
+            <v>11 호감도 아이템</v>
           </cell>
         </row>
         <row r="16">
@@ -546,7 +546,7 @@
             <v>12</v>
           </cell>
           <cell r="C16" t="str">
-            <v>스태미나</v>
+            <v>12 스태미나</v>
           </cell>
         </row>
       </sheetData>
@@ -910,7 +910,7 @@
       </c>
       <c r="C4" s="5" t="str">
         <f>'[1]@item_type'!$C5</f>
-        <v>금화(게임내 사용되는 재화)</v>
+        <v>1 금화(게임내 사용되는 재화)</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -924,7 +924,7 @@
       </c>
       <c r="C5" s="5" t="str">
         <f>'[1]@item_type'!$C6</f>
-        <v>보석(게임내 사용되는 유료 재화)</v>
+        <v>2 보석(게임내 사용되는 유료 재화)</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -938,7 +938,7 @@
       </c>
       <c r="C6" s="5" t="str">
         <f>'[1]@item_type'!$C7</f>
-        <v>던전 입장 티켓</v>
+        <v>3 던전 입장 티켓</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -952,7 +952,7 @@
       </c>
       <c r="C7" s="5" t="str">
         <f>'[1]@item_type'!$C8</f>
-        <v>캐릭터 조각</v>
+        <v>4 캐릭터 조각</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -966,7 +966,7 @@
       </c>
       <c r="C8" s="5" t="str">
         <f>'[1]@item_type'!$C9</f>
-        <v>경험치 물약</v>
+        <v>5 경험치 물약</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -980,7 +980,7 @@
       </c>
       <c r="C9" s="5" t="str">
         <f>'[1]@item_type'!$C10</f>
-        <v>스테미나 회복 물약</v>
+        <v>6 스테미나 회복 물약</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -994,7 +994,7 @@
       </c>
       <c r="C10" s="5" t="str">
         <f>'[1]@item_type'!$C11</f>
-        <v>메모리얼에서 사용될 아이템</v>
+        <v>7 메모리얼에서 사용될 아이템</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="C11" s="5" t="str">
         <f>'[1]@item_type'!$C12</f>
-        <v>캐릭터 완전체</v>
+        <v>8 캐릭터 완전체</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="C12" s="5" t="str">
         <f>'[1]@item_type'!$C13</f>
-        <v>각종 소모용 아이템</v>
+        <v>9 각종 소모용 아이템</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="C13" s="5" t="str">
         <f>'[1]@item_type'!$C14</f>
-        <v>장비</v>
+        <v>10 장비</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="C14" s="5" t="str">
         <f>'[1]@item_type'!$C15</f>
-        <v>호감도 아이템</v>
+        <v>11 호감도 아이템</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="C15" s="5" t="str">
         <f>'[1]@item_type'!$C16</f>
-        <v>스태미나</v>
+        <v>12 스태미나</v>
       </c>
     </row>
   </sheetData>
@@ -1078,7 +1078,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1094,21 +1094,21 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
@@ -1128,13 +1128,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>1</v>
@@ -1145,25 +1145,25 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="G4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1178,7 +1178,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" s="5">
         <v>50001</v>
@@ -1202,7 +1202,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="5">
         <v>60001</v>
@@ -1237,7 +1237,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1253,21 +1253,21 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>1</v>
@@ -1310,28 +1310,28 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1346,13 +1346,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="5">
         <v>90001</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
@@ -1373,13 +1373,13 @@
         <v>9</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="5">
         <v>90001</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
@@ -1411,7 +1411,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1427,24 +1427,24 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>1</v>
@@ -1484,28 +1484,28 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1523,13 +1523,13 @@
         <v>9</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="5">
         <v>90001</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="5">
         <v>3</v>
@@ -1550,13 +1550,13 @@
         <v>9</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" s="5">
         <v>90001</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="5">
         <v>3</v>

--- a/Android/ExcelData/RewardTable.xlsx
+++ b/Android/ExcelData/RewardTable.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BFD8FD-3C47-48E1-BF1D-85CC9DE973C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE898AB-1820-4980-98AC-36DDEFC3D7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
+    <workbookView xWindow="39750" yWindow="1710" windowWidth="35370" windowHeight="15435" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
   </bookViews>
   <sheets>
-    <sheet name="!참조_ENUM" sheetId="3" r:id="rId1"/>
-    <sheet name="first_reward" sheetId="1" r:id="rId2"/>
-    <sheet name="repeat_reward" sheetId="2" r:id="rId3"/>
-    <sheet name="star_reward" sheetId="4" r:id="rId4"/>
+    <sheet name="!사용 설명" sheetId="6" r:id="rId1"/>
+    <sheet name="!참조_ENUM" sheetId="3" r:id="rId2"/>
+    <sheet name="first_reward" sheetId="1" r:id="rId3"/>
+    <sheet name="repeat_reward" sheetId="2" r:id="rId4"/>
+    <sheet name="star_reward" sheetId="4" r:id="rId5"/>
+    <sheet name="reward_set_v2" sheetId="5" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,8 +43,47 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{59C7BC66-5081-4F53-BFD4-1CDBE0F41E39}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>0: drop_per 칼럼을 해당 행의 보상 출현 성공률로 사용
+1: drop_per 칼럼을 같은 reward_id 내에서 출현 비중으로 사용</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F27" authorId="0" shapeId="0" xr:uid="{C1C1C3C0-7AC2-4125-90DF-F97A74C91689}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>100만 분률</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="143">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,13 +228,333 @@
   <si>
     <t>item_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward_Set_Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 ID</t>
+  </si>
+  <si>
+    <t>보상 타입</t>
+  </si>
+  <si>
+    <t>보상 타입(기획)</t>
+  </si>
+  <si>
+    <t>변수1</t>
+  </si>
+  <si>
+    <t>변수2</t>
+  </si>
+  <si>
+    <t>출현 타입</t>
+  </si>
+  <si>
+    <t>출현확률</t>
+  </si>
+  <si>
+    <t>노출 여부</t>
+  </si>
+  <si>
+    <t>보상 노출 순서</t>
+  </si>
+  <si>
+    <t>보상 노출 순서 규칙</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>ENUM:GOODS_TYPE:NONE</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>reward_id</t>
+  </si>
+  <si>
+    <t>goods_type</t>
+  </si>
+  <si>
+    <t>#goods_type</t>
+  </si>
+  <si>
+    <t>var1</t>
+  </si>
+  <si>
+    <t>var2</t>
+  </si>
+  <si>
+    <t>drop_type</t>
+  </si>
+  <si>
+    <t>drop_per</t>
+  </si>
+  <si>
+    <t>is_use</t>
+  </si>
+  <si>
+    <t>sort_order</t>
+  </si>
+  <si>
+    <t>#info</t>
+  </si>
+  <si>
+    <t>1 금화(게임내 사용되는 재화)</t>
+  </si>
+  <si>
+    <t>스테이지에 적용되는 보상인 경우 왼쪽부터 1번 사용</t>
+  </si>
+  <si>
+    <t>103 호감도 아이템</t>
+  </si>
+  <si>
+    <t>110 장비 조각</t>
+  </si>
+  <si>
+    <t>2 보석(게임내 사용되는 유료 재화)</t>
+  </si>
+  <si>
+    <t>7 캐릭터</t>
+  </si>
+  <si>
+    <t>메일, 미션에 사용하는 보상인 경우 상단 부터 1번 사용</t>
+  </si>
+  <si>
+    <t>GOODS_TYPE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>reward_set 테이블에서 변수 사용 설정</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>GOLD</t>
+  </si>
+  <si>
+    <t>금화(게임내 사용되는 재화)</t>
+  </si>
+  <si>
+    <t>재화 지급 최소 수량</t>
+  </si>
+  <si>
+    <t>재화 지급 최대 수량</t>
+  </si>
+  <si>
+    <t>&gt;&gt; 최소 ~ 최대 사이의 랜덤 수량</t>
+  </si>
+  <si>
+    <t>DIA</t>
+  </si>
+  <si>
+    <t>보석(게임내 사용되는 유료 재화)</t>
+  </si>
+  <si>
+    <t>STAMINA</t>
+  </si>
+  <si>
+    <t>스태미나</t>
+  </si>
+  <si>
+    <t>FAVORITE</t>
+  </si>
+  <si>
+    <t>호감도</t>
+  </si>
+  <si>
+    <t>EXP_PLAYER</t>
+  </si>
+  <si>
+    <t>플레이어 경험치</t>
+  </si>
+  <si>
+    <t>EXP_CHARACTER</t>
+  </si>
+  <si>
+    <t>캐릭터 경험치</t>
+  </si>
+  <si>
+    <t>CHARACTER</t>
+  </si>
+  <si>
+    <t>캐릭터</t>
+  </si>
+  <si>
+    <t>캐릭터 ID</t>
+  </si>
+  <si>
+    <t>비사용</t>
+  </si>
+  <si>
+    <t>&lt;&lt; 캐릭터 ID를 보상으로 지급. 만약, 이미 보유한 캐릭터일 경우 1개의 캐릭터를 만들기 위한 캐릭터 조각 수량으로 치환하여 지급</t>
+  </si>
+  <si>
+    <t>EQUIPMENT</t>
+  </si>
+  <si>
+    <t>장비</t>
+  </si>
+  <si>
+    <t>장비 ID</t>
+  </si>
+  <si>
+    <t>장비 지급수량</t>
+  </si>
+  <si>
+    <t>EXP_POTION</t>
+  </si>
+  <si>
+    <t>경험치 물약</t>
+  </si>
+  <si>
+    <t>아이템 지급 수량</t>
+  </si>
+  <si>
+    <t>STA_POTION</t>
+  </si>
+  <si>
+    <t>스테미나 회복 물약</t>
+  </si>
+  <si>
+    <t>FAVORITE_ITEM</t>
+  </si>
+  <si>
+    <t>호감도 아이템</t>
+  </si>
+  <si>
+    <t>STAGE_SKIP</t>
+  </si>
+  <si>
+    <t>스테이지 스킵 티켓</t>
+  </si>
+  <si>
+    <t>TICKET_DUNGEON</t>
+  </si>
+  <si>
+    <t>던전 입장 티켓</t>
+  </si>
+  <si>
+    <t>EQ_GROWUP</t>
+  </si>
+  <si>
+    <t>정련석(장비 성장)</t>
+  </si>
+  <si>
+    <t>TICKET_REWARD_SELECT</t>
+  </si>
+  <si>
+    <t>보상 선택 티켓(1개를 선택 획득)</t>
+  </si>
+  <si>
+    <t>TICKET_REWARD_RANDOM</t>
+  </si>
+  <si>
+    <t>보상 랜덤 티켓(1개를 확률 획득)</t>
+  </si>
+  <si>
+    <t>TICKET_REWARD_ALL</t>
+  </si>
+  <si>
+    <t>보상 패키지 티켓(모든 보상 획득)</t>
+  </si>
+  <si>
+    <t>PIECE_EQUIPMENT</t>
+  </si>
+  <si>
+    <t>장비 조각</t>
+  </si>
+  <si>
+    <t>아이템 조각(장비) ID</t>
+  </si>
+  <si>
+    <t>조각 지급 수량</t>
+  </si>
+  <si>
+    <t>PIECE_CHARACTER</t>
+  </si>
+  <si>
+    <t>캐릭터 조각</t>
+  </si>
+  <si>
+    <t>아이템 조각(캐릭터) ID</t>
+  </si>
+  <si>
+    <t>reward_set</t>
+  </si>
+  <si>
+    <t>reward info</t>
+  </si>
+  <si>
+    <t>지급 보상</t>
+  </si>
+  <si>
+    <t>지급 수량</t>
+  </si>
+  <si>
+    <t>지급 확률</t>
+  </si>
+  <si>
+    <t>id내 출현 확률 합산</t>
+  </si>
+  <si>
+    <t>골드</t>
+  </si>
+  <si>
+    <t>츄러스</t>
+  </si>
+  <si>
+    <t>단검 조각</t>
+  </si>
+  <si>
+    <t>장검 조각</t>
+  </si>
+  <si>
+    <t>창 조각</t>
+  </si>
+  <si>
+    <t>지팡이 조각</t>
+  </si>
+  <si>
+    <t>활 조각</t>
+  </si>
+  <si>
+    <t>다이아</t>
+  </si>
+  <si>
+    <t>출현 타입이 1이므로, 같은 reward_id 내에서 출현 비중으로 지급 확률이 적용</t>
+  </si>
+  <si>
+    <t>루시아</t>
+  </si>
+  <si>
+    <t>루시아 이격</t>
+  </si>
+  <si>
+    <t>루시아 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,8 +588,86 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="&quot;Malgun Gothic&quot;"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="&quot;Malgun Gothic&quot;"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,8 +704,68 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B083"/>
+        <bgColor rgb="FFF4B083"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor rgb="FFFCE5CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF073763"/>
+        <bgColor rgb="FF073763"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor rgb="FFC9DAF8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D2E9"/>
+        <bgColor rgb="FFD9D2E9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -289,13 +788,122 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -319,6 +927,98 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="11" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="11" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="11" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -366,6 +1066,8 @@
       <sheetName val="@inequality_type"/>
       <sheetName val="@skill_type"/>
       <sheetName val="@item_type"/>
+      <sheetName val="@Limit"/>
+      <sheetName val="@goods_type"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -491,7 +1193,7 @@
             <v>7</v>
           </cell>
           <cell r="C11" t="str">
-            <v>7 메모리얼에서 사용될 아이템</v>
+            <v>7 사용하지 않음</v>
           </cell>
         </row>
         <row r="12">
@@ -547,6 +1249,245 @@
           </cell>
           <cell r="C16" t="str">
             <v>12 스태미나</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>GOODS_TYPE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>type</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>value</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>comment</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>GOLD</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>1 금화(게임내 사용되는 재화)</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>DIA</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>2 보석(게임내 사용되는 유료 재화)</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>STAMINA</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>3 스태미나</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>FAVORITE</v>
+          </cell>
+          <cell r="B8">
+            <v>4</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>4 호감도</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>EXP_PLAYER</v>
+          </cell>
+          <cell r="B9">
+            <v>5</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>5 플레이어 경험치</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>EXP_CHARACTER</v>
+          </cell>
+          <cell r="B10">
+            <v>6</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>6 캐릭터 경험치</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>CHARACTER</v>
+          </cell>
+          <cell r="B11">
+            <v>7</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>7 캐릭터</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>EQUIPMENT</v>
+          </cell>
+          <cell r="B12">
+            <v>8</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>6 장비</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>EXP_POTION</v>
+          </cell>
+          <cell r="B13">
+            <v>101</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>101 경험치 물약</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>STA_POTION</v>
+          </cell>
+          <cell r="B14">
+            <v>102</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>102 스테미나 회복 물약</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>FAVORITE_ITEM</v>
+          </cell>
+          <cell r="B15">
+            <v>103</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>103 호감도 아이템</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>STAGE_SKIP</v>
+          </cell>
+          <cell r="B16">
+            <v>104</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>104 스테이지 스킵 티켓</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>TICKET_DUNGEON</v>
+          </cell>
+          <cell r="B17">
+            <v>105</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>105 던전 입장 티켓</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>EQ_GROWUP</v>
+          </cell>
+          <cell r="B18">
+            <v>106</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>106 정련석(장비 성장)</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>TICKET_REWARD_SELECT</v>
+          </cell>
+          <cell r="B19">
+            <v>107</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>107 보상 선택 티켓(1개를 선택 획득)</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>TICKET_REWARD_RANDOM</v>
+          </cell>
+          <cell r="B20">
+            <v>108</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>108 보상 랜덤 티켓(1개를 확률 획득)</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>TICKET_REWARD_ALL</v>
+          </cell>
+          <cell r="B21">
+            <v>109</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>109 보상 패키지 티켓(모든 보상 획득)</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>PIECE_EQUIPMENT</v>
+          </cell>
+          <cell r="B22">
+            <v>110</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>110 장비 조각</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>PIECE_CHARACTER</v>
+          </cell>
+          <cell r="B23">
+            <v>111</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>111 캐릭터 조각</v>
           </cell>
         </row>
       </sheetData>
@@ -851,27 +1792,1130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6C6356-D67F-4E24-8961-CC2F6C806F55}">
+  <dimension ref="A1:L46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="24.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="9"/>
+    <col min="3" max="3" width="31.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="6.75" style="9" customWidth="1"/>
+    <col min="8" max="9" width="11" style="9"/>
+    <col min="10" max="10" width="8.125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="9" customWidth="1"/>
+    <col min="12" max="13" width="11" style="9"/>
+    <col min="14" max="14" width="15.875" style="9" customWidth="1"/>
+    <col min="15" max="15" width="15.375" style="9" customWidth="1"/>
+    <col min="16" max="16384" width="11" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="16">
+        <v>0</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="16">
+        <v>2</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="16">
+        <v>3</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="16">
+        <v>4</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="16">
+        <v>5</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="16">
+        <v>6</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="22">
+        <v>7</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="22">
+        <v>8</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="16">
+        <v>101</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="16">
+        <v>102</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="16">
+        <v>103</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="16">
+        <v>104</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="16">
+        <v>105</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="16">
+        <v>106</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="16">
+        <v>107</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="16">
+        <v>108</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="16">
+        <v>109</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="16">
+        <v>110</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="16">
+        <v>111</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="14"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="I27" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="J27" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="K27" s="39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="40">
+        <v>1</v>
+      </c>
+      <c r="B28" s="41">
+        <v>1</v>
+      </c>
+      <c r="C28" s="41">
+        <v>1000</v>
+      </c>
+      <c r="D28" s="41">
+        <v>1000</v>
+      </c>
+      <c r="E28" s="41">
+        <v>0</v>
+      </c>
+      <c r="F28" s="41">
+        <v>1000000</v>
+      </c>
+      <c r="H28" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I28" s="42">
+        <f t="shared" ref="I28:I41" si="0">D28</f>
+        <v>1000</v>
+      </c>
+      <c r="J28" s="43" t="str">
+        <f t="shared" ref="J28:J46" si="1">IF(A28=0,0,F28/10000&amp;"%")</f>
+        <v>100%</v>
+      </c>
+      <c r="K28" s="42"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="44">
+        <v>1</v>
+      </c>
+      <c r="B29" s="44">
+        <v>103</v>
+      </c>
+      <c r="C29" s="44">
+        <v>17</v>
+      </c>
+      <c r="D29" s="44">
+        <v>5</v>
+      </c>
+      <c r="E29" s="44">
+        <v>0</v>
+      </c>
+      <c r="F29" s="41">
+        <v>1000000</v>
+      </c>
+      <c r="H29" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="I29" s="42">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J29" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>100%</v>
+      </c>
+      <c r="K29" s="42"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="44">
+        <v>1</v>
+      </c>
+      <c r="B30" s="44">
+        <v>110</v>
+      </c>
+      <c r="C30" s="44">
+        <v>10001</v>
+      </c>
+      <c r="D30" s="44">
+        <v>2</v>
+      </c>
+      <c r="E30" s="44">
+        <v>0</v>
+      </c>
+      <c r="F30" s="44">
+        <v>200000</v>
+      </c>
+      <c r="H30" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="I30" s="42">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J30" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>20%</v>
+      </c>
+      <c r="K30" s="42"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="44">
+        <v>1</v>
+      </c>
+      <c r="B31" s="44">
+        <v>110</v>
+      </c>
+      <c r="C31" s="44">
+        <v>11001</v>
+      </c>
+      <c r="D31" s="44">
+        <v>2</v>
+      </c>
+      <c r="E31" s="44">
+        <v>0</v>
+      </c>
+      <c r="F31" s="44">
+        <v>200000</v>
+      </c>
+      <c r="H31" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="I31" s="42">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J31" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>20%</v>
+      </c>
+      <c r="K31" s="42"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="44">
+        <v>1</v>
+      </c>
+      <c r="B32" s="44">
+        <v>110</v>
+      </c>
+      <c r="C32" s="44">
+        <v>12001</v>
+      </c>
+      <c r="D32" s="44">
+        <v>2</v>
+      </c>
+      <c r="E32" s="44">
+        <v>0</v>
+      </c>
+      <c r="F32" s="44">
+        <v>200000</v>
+      </c>
+      <c r="H32" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="I32" s="42">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J32" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>20%</v>
+      </c>
+      <c r="K32" s="42"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="44">
+        <v>1</v>
+      </c>
+      <c r="B33" s="44">
+        <v>110</v>
+      </c>
+      <c r="C33" s="44">
+        <v>13001</v>
+      </c>
+      <c r="D33" s="44">
+        <v>2</v>
+      </c>
+      <c r="E33" s="44">
+        <v>0</v>
+      </c>
+      <c r="F33" s="44">
+        <v>200000</v>
+      </c>
+      <c r="H33" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="I33" s="42">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J33" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>20%</v>
+      </c>
+      <c r="K33" s="42"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="44">
+        <v>1</v>
+      </c>
+      <c r="B34" s="44">
+        <v>110</v>
+      </c>
+      <c r="C34" s="44">
+        <v>14001</v>
+      </c>
+      <c r="D34" s="44">
+        <v>2</v>
+      </c>
+      <c r="E34" s="44">
+        <v>0</v>
+      </c>
+      <c r="F34" s="44">
+        <v>200000</v>
+      </c>
+      <c r="H34" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="I34" s="42">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J34" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>20%</v>
+      </c>
+      <c r="K34" s="42"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="44">
+        <v>2</v>
+      </c>
+      <c r="B35" s="41">
+        <v>2</v>
+      </c>
+      <c r="C35" s="41">
+        <v>40</v>
+      </c>
+      <c r="D35" s="41">
+        <v>40</v>
+      </c>
+      <c r="E35" s="41">
+        <v>1</v>
+      </c>
+      <c r="F35" s="44">
+        <v>50000</v>
+      </c>
+      <c r="H35" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="I35" s="45">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J35" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>5%</v>
+      </c>
+      <c r="K35" s="47" t="str">
+        <f>SUM(F35:F41)/10000&amp;"%"</f>
+        <v>100%</v>
+      </c>
+      <c r="L35" s="48" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="44">
+        <v>2</v>
+      </c>
+      <c r="B36" s="44">
+        <v>103</v>
+      </c>
+      <c r="C36" s="44">
+        <v>17</v>
+      </c>
+      <c r="D36" s="44">
+        <v>5</v>
+      </c>
+      <c r="E36" s="44">
+        <v>1</v>
+      </c>
+      <c r="F36" s="44">
+        <v>200000</v>
+      </c>
+      <c r="H36" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="I36" s="45">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J36" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>20%</v>
+      </c>
+      <c r="K36" s="49"/>
+      <c r="L36" s="50"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="44">
+        <v>2</v>
+      </c>
+      <c r="B37" s="44">
+        <v>110</v>
+      </c>
+      <c r="C37" s="44">
+        <v>10001</v>
+      </c>
+      <c r="D37" s="44">
+        <v>2</v>
+      </c>
+      <c r="E37" s="44">
+        <v>1</v>
+      </c>
+      <c r="F37" s="44">
+        <v>150000</v>
+      </c>
+      <c r="H37" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="I37" s="45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J37" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>15%</v>
+      </c>
+      <c r="K37" s="49"/>
+      <c r="L37" s="50"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="44">
+        <v>2</v>
+      </c>
+      <c r="B38" s="44">
+        <v>110</v>
+      </c>
+      <c r="C38" s="44">
+        <v>11001</v>
+      </c>
+      <c r="D38" s="44">
+        <v>2</v>
+      </c>
+      <c r="E38" s="44">
+        <v>1</v>
+      </c>
+      <c r="F38" s="44">
+        <v>150000</v>
+      </c>
+      <c r="H38" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="I38" s="45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J38" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>15%</v>
+      </c>
+      <c r="K38" s="49"/>
+      <c r="L38" s="50"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="44">
+        <v>2</v>
+      </c>
+      <c r="B39" s="44">
+        <v>110</v>
+      </c>
+      <c r="C39" s="44">
+        <v>12001</v>
+      </c>
+      <c r="D39" s="44">
+        <v>2</v>
+      </c>
+      <c r="E39" s="44">
+        <v>1</v>
+      </c>
+      <c r="F39" s="44">
+        <v>150000</v>
+      </c>
+      <c r="H39" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="I39" s="45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J39" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>15%</v>
+      </c>
+      <c r="K39" s="49"/>
+      <c r="L39" s="50"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="44">
+        <v>2</v>
+      </c>
+      <c r="B40" s="44">
+        <v>110</v>
+      </c>
+      <c r="C40" s="44">
+        <v>13001</v>
+      </c>
+      <c r="D40" s="44">
+        <v>2</v>
+      </c>
+      <c r="E40" s="44">
+        <v>1</v>
+      </c>
+      <c r="F40" s="44">
+        <v>150000</v>
+      </c>
+      <c r="H40" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="I40" s="45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J40" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>15%</v>
+      </c>
+      <c r="K40" s="49"/>
+      <c r="L40" s="50"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="44">
+        <v>2</v>
+      </c>
+      <c r="B41" s="44">
+        <v>110</v>
+      </c>
+      <c r="C41" s="44">
+        <v>14001</v>
+      </c>
+      <c r="D41" s="44">
+        <v>2</v>
+      </c>
+      <c r="E41" s="44">
+        <v>1</v>
+      </c>
+      <c r="F41" s="44">
+        <v>150000</v>
+      </c>
+      <c r="H41" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="I41" s="45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J41" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>15%</v>
+      </c>
+      <c r="K41" s="51"/>
+      <c r="L41" s="50"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="44">
+        <v>3</v>
+      </c>
+      <c r="B42" s="44">
+        <v>7</v>
+      </c>
+      <c r="C42" s="44">
+        <v>1</v>
+      </c>
+      <c r="D42" s="44">
+        <v>1</v>
+      </c>
+      <c r="E42" s="44">
+        <v>1</v>
+      </c>
+      <c r="F42" s="44">
+        <v>330000</v>
+      </c>
+      <c r="H42" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="I42" s="52">
+        <v>1</v>
+      </c>
+      <c r="J42" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>33%</v>
+      </c>
+      <c r="K42" s="54" t="str">
+        <f>SUM(F42:F44)/10000&amp;"%"</f>
+        <v>100%</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="44">
+        <v>3</v>
+      </c>
+      <c r="B43" s="44">
+        <v>7</v>
+      </c>
+      <c r="C43" s="44">
+        <v>2</v>
+      </c>
+      <c r="D43" s="44">
+        <v>1</v>
+      </c>
+      <c r="E43" s="44">
+        <v>1</v>
+      </c>
+      <c r="F43" s="44">
+        <v>330000</v>
+      </c>
+      <c r="H43" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="I43" s="52">
+        <v>1</v>
+      </c>
+      <c r="J43" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>33%</v>
+      </c>
+      <c r="K43" s="49"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="44">
+        <v>3</v>
+      </c>
+      <c r="B44" s="44">
+        <v>7</v>
+      </c>
+      <c r="C44" s="44">
+        <v>3</v>
+      </c>
+      <c r="D44" s="44">
+        <v>1</v>
+      </c>
+      <c r="E44" s="44">
+        <v>1</v>
+      </c>
+      <c r="F44" s="44">
+        <v>340000</v>
+      </c>
+      <c r="H44" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="I44" s="52">
+        <v>1</v>
+      </c>
+      <c r="J44" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>34%</v>
+      </c>
+      <c r="K44" s="51"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="44"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="44"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="K35:K41"/>
+    <mergeCell ref="L35:L41"/>
+    <mergeCell ref="K42:K44"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB92121-343E-422E-B3FA-27D4313C268C}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="str">
         <f>'[1]@item_type'!$A$1</f>
         <v>ITEM_TYPE</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" t="str">
+        <f>'[1]@goods_type'!$A$1</f>
+        <v>GOODS_TYPE</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="6" t="str">
         <f>'[1]@item_type'!$A3</f>
         <v>type</v>
@@ -884,8 +2928,20 @@
         <f>'[1]@item_type'!$C3</f>
         <v>comment</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2" s="6" t="str">
+        <f>'[1]@goods_type'!$A3</f>
+        <v>type</v>
+      </c>
+      <c r="F2" s="6" t="str">
+        <f>'[1]@goods_type'!$B3</f>
+        <v>value</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f>'[1]@goods_type'!$C3</f>
+        <v>comment</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="5" t="str">
         <f>'[1]@item_type'!$A4</f>
         <v>NONE</v>
@@ -898,8 +2954,20 @@
         <f>'[1]@item_type'!$C4</f>
         <v>NONE</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E3" s="5" t="str">
+        <f>'[1]@goods_type'!$A4</f>
+        <v>NONE</v>
+      </c>
+      <c r="F3" s="5">
+        <f>'[1]@goods_type'!$B4</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="str">
+        <f>'[1]@goods_type'!$C4</f>
+        <v>NONE</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="5" t="str">
         <f>'[1]@item_type'!$A5</f>
         <v>GOLD</v>
@@ -912,8 +2980,20 @@
         <f>'[1]@item_type'!$C5</f>
         <v>1 금화(게임내 사용되는 재화)</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E4" s="5" t="str">
+        <f>'[1]@goods_type'!$A5</f>
+        <v>GOLD</v>
+      </c>
+      <c r="F4" s="5">
+        <f>'[1]@goods_type'!$B5</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="str">
+        <f>'[1]@goods_type'!$C5</f>
+        <v>1 금화(게임내 사용되는 재화)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="5" t="str">
         <f>'[1]@item_type'!$A6</f>
         <v>DIA</v>
@@ -926,8 +3006,20 @@
         <f>'[1]@item_type'!$C6</f>
         <v>2 보석(게임내 사용되는 유료 재화)</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E5" s="5" t="str">
+        <f>'[1]@goods_type'!$A6</f>
+        <v>DIA</v>
+      </c>
+      <c r="F5" s="5">
+        <f>'[1]@goods_type'!$B6</f>
+        <v>2</v>
+      </c>
+      <c r="G5" s="5" t="str">
+        <f>'[1]@goods_type'!$C6</f>
+        <v>2 보석(게임내 사용되는 유료 재화)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="5" t="str">
         <f>'[1]@item_type'!$A7</f>
         <v>DUNGEON_TICKET</v>
@@ -940,8 +3032,20 @@
         <f>'[1]@item_type'!$C7</f>
         <v>3 던전 입장 티켓</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E6" s="5" t="str">
+        <f>'[1]@goods_type'!$A7</f>
+        <v>STAMINA</v>
+      </c>
+      <c r="F6" s="5">
+        <f>'[1]@goods_type'!$B7</f>
+        <v>3</v>
+      </c>
+      <c r="G6" s="5" t="str">
+        <f>'[1]@goods_type'!$C7</f>
+        <v>3 스태미나</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="5" t="str">
         <f>'[1]@item_type'!$A8</f>
         <v>CHARACTER_PIECE</v>
@@ -954,8 +3058,20 @@
         <f>'[1]@item_type'!$C8</f>
         <v>4 캐릭터 조각</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E7" s="5" t="str">
+        <f>'[1]@goods_type'!$A8</f>
+        <v>FAVORITE</v>
+      </c>
+      <c r="F7" s="5">
+        <f>'[1]@goods_type'!$B8</f>
+        <v>4</v>
+      </c>
+      <c r="G7" s="5" t="str">
+        <f>'[1]@goods_type'!$C8</f>
+        <v>4 호감도</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="5" t="str">
         <f>'[1]@item_type'!$A9</f>
         <v>EXP_POTION</v>
@@ -968,8 +3084,20 @@
         <f>'[1]@item_type'!$C9</f>
         <v>5 경험치 물약</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E8" s="5" t="str">
+        <f>'[1]@goods_type'!$A9</f>
+        <v>EXP_PLAYER</v>
+      </c>
+      <c r="F8" s="5">
+        <f>'[1]@goods_type'!$B9</f>
+        <v>5</v>
+      </c>
+      <c r="G8" s="5" t="str">
+        <f>'[1]@goods_type'!$C9</f>
+        <v>5 플레이어 경험치</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="5" t="str">
         <f>'[1]@item_type'!$A10</f>
         <v>STA_POTION</v>
@@ -982,8 +3110,20 @@
         <f>'[1]@item_type'!$C10</f>
         <v>6 스테미나 회복 물약</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E9" s="5" t="str">
+        <f>'[1]@goods_type'!$A10</f>
+        <v>EXP_CHARACTER</v>
+      </c>
+      <c r="F9" s="5">
+        <f>'[1]@goods_type'!$B10</f>
+        <v>6</v>
+      </c>
+      <c r="G9" s="5" t="str">
+        <f>'[1]@goods_type'!$C10</f>
+        <v>6 캐릭터 경험치</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="5" t="str">
         <f>'[1]@item_type'!$A11</f>
         <v>MEMORIAL_ITEM</v>
@@ -994,10 +3134,22 @@
       </c>
       <c r="C10" s="5" t="str">
         <f>'[1]@item_type'!$C11</f>
-        <v>7 메모리얼에서 사용될 아이템</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7 사용하지 않음</v>
+      </c>
+      <c r="E10" s="5" t="str">
+        <f>'[1]@goods_type'!$A11</f>
+        <v>CHARACTER</v>
+      </c>
+      <c r="F10" s="5">
+        <f>'[1]@goods_type'!$B11</f>
+        <v>7</v>
+      </c>
+      <c r="G10" s="5" t="str">
+        <f>'[1]@goods_type'!$C11</f>
+        <v>7 캐릭터</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="5" t="str">
         <f>'[1]@item_type'!$A12</f>
         <v>CHARACTER</v>
@@ -1010,8 +3162,20 @@
         <f>'[1]@item_type'!$C12</f>
         <v>8 캐릭터 완전체</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E11" s="5" t="str">
+        <f>'[1]@goods_type'!$A12</f>
+        <v>EQUIPMENT</v>
+      </c>
+      <c r="F11" s="5">
+        <f>'[1]@goods_type'!$B12</f>
+        <v>8</v>
+      </c>
+      <c r="G11" s="5" t="str">
+        <f>'[1]@goods_type'!$C12</f>
+        <v>6 장비</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="5" t="str">
         <f>'[1]@item_type'!$A13</f>
         <v>EXPENDABLE_ITEM</v>
@@ -1024,8 +3188,20 @@
         <f>'[1]@item_type'!$C13</f>
         <v>9 각종 소모용 아이템</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E12" s="5" t="str">
+        <f>'[1]@goods_type'!$A13</f>
+        <v>EXP_POTION</v>
+      </c>
+      <c r="F12" s="5">
+        <f>'[1]@goods_type'!$B13</f>
+        <v>101</v>
+      </c>
+      <c r="G12" s="5" t="str">
+        <f>'[1]@goods_type'!$C13</f>
+        <v>101 경험치 물약</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="5" t="str">
         <f>'[1]@item_type'!$A14</f>
         <v>EQUIPMENT_ITEM</v>
@@ -1038,8 +3214,20 @@
         <f>'[1]@item_type'!$C14</f>
         <v>10 장비</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E13" s="5" t="str">
+        <f>'[1]@goods_type'!$A14</f>
+        <v>STA_POTION</v>
+      </c>
+      <c r="F13" s="5">
+        <f>'[1]@goods_type'!$B14</f>
+        <v>102</v>
+      </c>
+      <c r="G13" s="5" t="str">
+        <f>'[1]@goods_type'!$C14</f>
+        <v>102 스테미나 회복 물약</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="5" t="str">
         <f>'[1]@item_type'!$A15</f>
         <v>FAVORITE_ITEM</v>
@@ -1052,8 +3240,20 @@
         <f>'[1]@item_type'!$C15</f>
         <v>11 호감도 아이템</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E14" s="5" t="str">
+        <f>'[1]@goods_type'!$A15</f>
+        <v>FAVORITE_ITEM</v>
+      </c>
+      <c r="F14" s="5">
+        <f>'[1]@goods_type'!$B15</f>
+        <v>103</v>
+      </c>
+      <c r="G14" s="5" t="str">
+        <f>'[1]@goods_type'!$C15</f>
+        <v>103 호감도 아이템</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="5" t="str">
         <f>'[1]@item_type'!$A16</f>
         <v>STAMINA</v>
@@ -1065,6 +3265,116 @@
       <c r="C15" s="5" t="str">
         <f>'[1]@item_type'!$C16</f>
         <v>12 스태미나</v>
+      </c>
+      <c r="E15" s="5" t="str">
+        <f>'[1]@goods_type'!$A16</f>
+        <v>STAGE_SKIP</v>
+      </c>
+      <c r="F15" s="5">
+        <f>'[1]@goods_type'!$B16</f>
+        <v>104</v>
+      </c>
+      <c r="G15" s="5" t="str">
+        <f>'[1]@goods_type'!$C16</f>
+        <v>104 스테이지 스킵 티켓</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="E16" s="5" t="str">
+        <f>'[1]@goods_type'!$A17</f>
+        <v>TICKET_DUNGEON</v>
+      </c>
+      <c r="F16" s="5">
+        <f>'[1]@goods_type'!$B17</f>
+        <v>105</v>
+      </c>
+      <c r="G16" s="5" t="str">
+        <f>'[1]@goods_type'!$C17</f>
+        <v>105 던전 입장 티켓</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7">
+      <c r="E17" s="5" t="str">
+        <f>'[1]@goods_type'!$A18</f>
+        <v>EQ_GROWUP</v>
+      </c>
+      <c r="F17" s="5">
+        <f>'[1]@goods_type'!$B18</f>
+        <v>106</v>
+      </c>
+      <c r="G17" s="5" t="str">
+        <f>'[1]@goods_type'!$C18</f>
+        <v>106 정련석(장비 성장)</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7">
+      <c r="E18" s="5" t="str">
+        <f>'[1]@goods_type'!$A19</f>
+        <v>TICKET_REWARD_SELECT</v>
+      </c>
+      <c r="F18" s="5">
+        <f>'[1]@goods_type'!$B19</f>
+        <v>107</v>
+      </c>
+      <c r="G18" s="5" t="str">
+        <f>'[1]@goods_type'!$C19</f>
+        <v>107 보상 선택 티켓(1개를 선택 획득)</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7">
+      <c r="E19" s="5" t="str">
+        <f>'[1]@goods_type'!$A20</f>
+        <v>TICKET_REWARD_RANDOM</v>
+      </c>
+      <c r="F19" s="5">
+        <f>'[1]@goods_type'!$B20</f>
+        <v>108</v>
+      </c>
+      <c r="G19" s="5" t="str">
+        <f>'[1]@goods_type'!$C20</f>
+        <v>108 보상 랜덤 티켓(1개를 확률 획득)</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7">
+      <c r="E20" s="5" t="str">
+        <f>'[1]@goods_type'!$A21</f>
+        <v>TICKET_REWARD_ALL</v>
+      </c>
+      <c r="F20" s="5">
+        <f>'[1]@goods_type'!$B21</f>
+        <v>109</v>
+      </c>
+      <c r="G20" s="5" t="str">
+        <f>'[1]@goods_type'!$C21</f>
+        <v>109 보상 패키지 티켓(모든 보상 획득)</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7">
+      <c r="E21" s="5" t="str">
+        <f>'[1]@goods_type'!$A22</f>
+        <v>PIECE_EQUIPMENT</v>
+      </c>
+      <c r="F21" s="5">
+        <f>'[1]@goods_type'!$B22</f>
+        <v>110</v>
+      </c>
+      <c r="G21" s="5" t="str">
+        <f>'[1]@goods_type'!$C22</f>
+        <v>110 장비 조각</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7">
+      <c r="E22" s="5" t="str">
+        <f>'[1]@goods_type'!$A23</f>
+        <v>PIECE_CHARACTER</v>
+      </c>
+      <c r="F22" s="5">
+        <f>'[1]@goods_type'!$B23</f>
+        <v>111</v>
+      </c>
+      <c r="G22" s="5" t="str">
+        <f>'[1]@goods_type'!$C23</f>
+        <v>111 캐릭터 조각</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +3383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF298A1-BFB8-4655-A89A-928C8402A01E}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -1081,7 +3391,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.75" bestFit="1" customWidth="1"/>
@@ -1092,12 +3402,12 @@
     <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -1120,7 +3430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1143,7 +3453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
         <v>31</v>
       </c>
@@ -1166,7 +3476,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="5">
         <v>10001</v>
       </c>
@@ -1190,7 +3500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="5">
         <v>10002</v>
       </c>
@@ -1232,31 +3542,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384A2924-9692-4A94-A417-5B1443989758}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="20.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="34.25" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -1282,7 +3593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1308,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
@@ -1334,7 +3645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="5">
         <v>20001</v>
       </c>
@@ -1361,7 +3672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="5">
         <v>20002</v>
       </c>
@@ -1406,15 +3717,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AB3843-EB72-489A-81FD-0084314386F7}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="20.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
@@ -1425,12 +3736,12 @@
     <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -1456,7 +3767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1482,7 +3793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
@@ -1508,7 +3819,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="5">
         <v>30001</v>
       </c>
@@ -1535,7 +3846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="5">
         <v>30002</v>
       </c>
@@ -1578,4 +3889,671 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA56BF33-0599-44CF-8176-19546E225369}">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.125" customWidth="1"/>
+    <col min="4" max="9" width="13.25" customWidth="1"/>
+    <col min="10" max="10" width="49.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(C5,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="H5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(C6,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <v>103</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="H6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(C7,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <v>110</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="H7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(C8,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <v>110</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="H8" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(C9,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <v>110</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="H9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(C10,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <v>110</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="H10" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(C11,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <v>110</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="H11" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(C12,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <v>2</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="H12" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(C13,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <v>103</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="H13" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="5">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(C14,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <v>110</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="H14" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="5">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(C15,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <v>110</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="H15" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(C16,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <v>110</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="H16" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="5">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(C17,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <v>110</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="H17" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="5">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(C18,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <v>110</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="H18" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="5">
+        <v>1</v>
+      </c>
+      <c r="B19" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(C19,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <v>7</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="H19" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="5">
+        <v>1</v>
+      </c>
+      <c r="B20" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(C20,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <v>7</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="H20" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="5">
+        <v>1</v>
+      </c>
+      <c r="B21" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(C21,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <v>7</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="H21" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5089D60F-748C-4AF7-9852-57B3BD0B8B84}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$G$3:$G$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>C5:C21</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Android/ExcelData/RewardTable.xlsx
+++ b/Android/ExcelData/RewardTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE898AB-1820-4980-98AC-36DDEFC3D7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9D1987-710C-46AC-A4A6-9298842D7A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39750" yWindow="1710" windowWidth="35370" windowHeight="15435" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
+    <workbookView xWindow="2355" yWindow="1500" windowWidth="35370" windowHeight="15435" activeTab="1" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
   </bookViews>
   <sheets>
     <sheet name="!사용 설명" sheetId="6" r:id="rId1"/>
@@ -939,10 +939,6 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -978,10 +974,6 @@
     <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1001,24 +993,32 @@
     <xf numFmtId="9" fontId="11" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="11" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1051,7 +1051,6 @@
       <sheetName val="@npc"/>
       <sheetName val="@target_rule"/>
       <sheetName val="@character_sort"/>
-      <sheetName val="@stage_common"/>
       <sheetName val="@second_target_rule"/>
       <sheetName val="@effect"/>
       <sheetName val="@stat"/>
@@ -1062,12 +1061,17 @@
       <sheetName val="@onetime_effect_type"/>
       <sheetName val="@duration_effect_type"/>
       <sheetName val="@persistence_type"/>
-      <sheetName val="@projectile_type"/>
       <sheetName val="@inequality_type"/>
       <sheetName val="@skill_type"/>
       <sheetName val="@item_type"/>
       <sheetName val="@Limit"/>
       <sheetName val="@goods_type"/>
+      <sheetName val="@piece_type"/>
+      <sheetName val="@eqipment_type"/>
+      <sheetName val="@drop_type"/>
+      <sheetName val="@repeat_type"/>
+      <sheetName val="@charge_type"/>
+      <sheetName val="@effect_count_type"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1089,12 +1093,172 @@
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
+      <sheetData sheetId="19">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ITEM_TYPE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>type</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>value</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>comment</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>GOLD</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>1 금화(게임내 사용되는 재화)</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>DIA</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>2 보석(게임내 사용되는 유료 재화)</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>DUNGEON_TICKET</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>3 던전 입장 티켓</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>CHARACTER_PIECE</v>
+          </cell>
+          <cell r="B8">
+            <v>4</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>4 캐릭터 조각</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>EXP_POTION</v>
+          </cell>
+          <cell r="B9">
+            <v>5</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>5 경험치 물약</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>STA_POTION</v>
+          </cell>
+          <cell r="B10">
+            <v>6</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>6 스테미나 회복 물약</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>MEMORIAL_ITEM</v>
+          </cell>
+          <cell r="B11">
+            <v>7</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>7 사용하지 않음</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>CHARACTER</v>
+          </cell>
+          <cell r="B12">
+            <v>8</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>8 캐릭터 완전체</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>EXPENDABLE_ITEM</v>
+          </cell>
+          <cell r="B13">
+            <v>9</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>9 각종 소모용 아이템</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>EQUIPMENT_ITEM</v>
+          </cell>
+          <cell r="B14">
+            <v>10</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>10 장비</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>FAVORITE_ITEM</v>
+          </cell>
+          <cell r="B15">
+            <v>11</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>11 호감도 아이템</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>STAMINA</v>
+          </cell>
+          <cell r="B16">
+            <v>12</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>12 스태미나</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="20"/>
       <sheetData sheetId="21">
         <row r="1">
           <cell r="A1" t="str">
-            <v>ITEM_TYPE</v>
+            <v>GOODS_TYPE</v>
           </cell>
         </row>
         <row r="3">
@@ -1143,168 +1307,6 @@
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>DUNGEON_TICKET</v>
-          </cell>
-          <cell r="B7">
-            <v>3</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>3 던전 입장 티켓</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>CHARACTER_PIECE</v>
-          </cell>
-          <cell r="B8">
-            <v>4</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>4 캐릭터 조각</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>EXP_POTION</v>
-          </cell>
-          <cell r="B9">
-            <v>5</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>5 경험치 물약</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>STA_POTION</v>
-          </cell>
-          <cell r="B10">
-            <v>6</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>6 스테미나 회복 물약</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>MEMORIAL_ITEM</v>
-          </cell>
-          <cell r="B11">
-            <v>7</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>7 사용하지 않음</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>CHARACTER</v>
-          </cell>
-          <cell r="B12">
-            <v>8</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>8 캐릭터 완전체</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>EXPENDABLE_ITEM</v>
-          </cell>
-          <cell r="B13">
-            <v>9</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>9 각종 소모용 아이템</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>EQUIPMENT_ITEM</v>
-          </cell>
-          <cell r="B14">
-            <v>10</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>10 장비</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>FAVORITE_ITEM</v>
-          </cell>
-          <cell r="B15">
-            <v>11</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>11 호감도 아이템</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>STAMINA</v>
-          </cell>
-          <cell r="B16">
-            <v>12</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>12 스태미나</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>GOODS_TYPE</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>type</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>value</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>comment</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-          <cell r="B4">
-            <v>0</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>GOLD</v>
-          </cell>
-          <cell r="B5">
-            <v>1</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>1 금화(게임내 사용되는 재화)</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>DIA</v>
-          </cell>
-          <cell r="B6">
-            <v>2</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>2 보석(게임내 사용되는 유료 재화)</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
             <v>STAMINA</v>
           </cell>
           <cell r="B7">
@@ -1371,126 +1373,154 @@
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>EXP_POTION</v>
+            <v>SEND_ESSENCE</v>
           </cell>
           <cell r="B13">
-            <v>101</v>
+            <v>9</v>
           </cell>
           <cell r="C13" t="str">
-            <v>101 경험치 물약</v>
+            <v>근원 전달 횟수(플레이어 보유)</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>STA_POTION</v>
+            <v>GET_ESSENCE</v>
           </cell>
           <cell r="B14">
-            <v>102</v>
+            <v>10</v>
           </cell>
           <cell r="C14" t="str">
-            <v>102 스테미나 회복 물약</v>
+            <v>근원 받을 수 있는 횟수(캐릭터 공용 설정)</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>FAVORITE_ITEM</v>
+            <v>EXP_POTION</v>
           </cell>
           <cell r="B15">
-            <v>103</v>
+            <v>101</v>
           </cell>
           <cell r="C15" t="str">
-            <v>103 호감도 아이템</v>
+            <v>101 경험치 물약</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>STAGE_SKIP</v>
+            <v>STA_POTION</v>
           </cell>
           <cell r="B16">
-            <v>104</v>
+            <v>102</v>
           </cell>
           <cell r="C16" t="str">
-            <v>104 스테이지 스킵 티켓</v>
+            <v>102 스테미나 회복 물약</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>TICKET_DUNGEON</v>
+            <v>FAVORITE_ITEM</v>
           </cell>
           <cell r="B17">
-            <v>105</v>
+            <v>103</v>
           </cell>
           <cell r="C17" t="str">
-            <v>105 던전 입장 티켓</v>
+            <v>103 호감도 아이템</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>EQ_GROWUP</v>
+            <v>STAGE_SKIP</v>
           </cell>
           <cell r="B18">
-            <v>106</v>
+            <v>104</v>
           </cell>
           <cell r="C18" t="str">
-            <v>106 정련석(장비 성장)</v>
+            <v>104 스테이지 스킵 티켓</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>TICKET_REWARD_SELECT</v>
+            <v>TICKET_DUNGEON</v>
           </cell>
           <cell r="B19">
-            <v>107</v>
+            <v>105</v>
           </cell>
           <cell r="C19" t="str">
-            <v>107 보상 선택 티켓(1개를 선택 획득)</v>
+            <v>105 던전 입장 티켓</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>TICKET_REWARD_RANDOM</v>
+            <v>EQ_GROWUP</v>
           </cell>
           <cell r="B20">
-            <v>108</v>
+            <v>106</v>
           </cell>
           <cell r="C20" t="str">
-            <v>108 보상 랜덤 티켓(1개를 확률 획득)</v>
+            <v>106 정련석(장비 성장)</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>TICKET_REWARD_ALL</v>
+            <v>TICKET_REWARD_SELECT</v>
           </cell>
           <cell r="B21">
-            <v>109</v>
+            <v>107</v>
           </cell>
           <cell r="C21" t="str">
-            <v>109 보상 패키지 티켓(모든 보상 획득)</v>
+            <v>107 보상 선택 티켓(1개를 선택 획득)</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>PIECE_EQUIPMENT</v>
+            <v>TICKET_REWARD_RANDOM</v>
           </cell>
           <cell r="B22">
-            <v>110</v>
+            <v>108</v>
           </cell>
           <cell r="C22" t="str">
-            <v>110 장비 조각</v>
+            <v>108 보상 랜덤 티켓(1개를 확률 획득)</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
+            <v>TICKET_REWARD_ALL</v>
+          </cell>
+          <cell r="B23">
+            <v>109</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>109 보상 패키지 티켓(모든 보상 획득)</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>PIECE_EQUIPMENT</v>
+          </cell>
+          <cell r="B24">
+            <v>110</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>110 장비 조각</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
             <v>PIECE_CHARACTER</v>
           </cell>
-          <cell r="B23">
+          <cell r="B25">
             <v>111</v>
           </cell>
-          <cell r="C23" t="str">
+          <cell r="C25" t="str">
             <v>111 캐릭터 조각</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1795,7 +1825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6C6356-D67F-4E24-8961-CC2F6C806F55}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
@@ -1832,1044 +1862,1044 @@
       <c r="C2" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="E2" s="47"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="14">
         <v>0</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="16" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="16">
-        <v>1</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="14">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="18" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="14">
         <v>2</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="18" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="14">
         <v>3</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="18" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="14">
         <v>4</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="18" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="14">
         <v>5</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="18" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <v>6</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="18" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="20">
         <v>7</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="18" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="20">
         <v>8</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="22" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="14">
         <v>101</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="22" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="14">
         <v>102</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="22" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="14">
         <v>103</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="22" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="14">
         <v>104</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="22" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="14">
         <v>105</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="22" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="14">
         <v>106</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="22" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="14">
         <v>107</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="22" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="14">
         <v>108</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="22" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="14">
         <v>109</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="22" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="14">
         <v>110</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="22" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="14">
         <v>111</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="22" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="31" t="s">
+      <c r="F25" s="29" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="H26" s="34" t="s">
+      <c r="H26" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="14"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="47"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="37" t="s">
+      <c r="E27" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="37" t="s">
+      <c r="F27" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="H27" s="38" t="s">
+      <c r="H27" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="I27" s="38" t="s">
+      <c r="I27" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="J27" s="39" t="s">
+      <c r="J27" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="K27" s="39" t="s">
+      <c r="K27" s="35" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="40">
-        <v>1</v>
-      </c>
-      <c r="B28" s="41">
-        <v>1</v>
-      </c>
-      <c r="C28" s="41">
+      <c r="A28" s="36">
+        <v>1</v>
+      </c>
+      <c r="B28" s="37">
+        <v>1</v>
+      </c>
+      <c r="C28" s="37">
         <v>1000</v>
       </c>
-      <c r="D28" s="41">
+      <c r="D28" s="37">
         <v>1000</v>
       </c>
-      <c r="E28" s="41">
+      <c r="E28" s="37">
         <v>0</v>
       </c>
-      <c r="F28" s="41">
+      <c r="F28" s="37">
         <v>1000000</v>
       </c>
-      <c r="H28" s="42" t="s">
+      <c r="H28" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="I28" s="42">
+      <c r="I28" s="38">
         <f t="shared" ref="I28:I41" si="0">D28</f>
         <v>1000</v>
       </c>
-      <c r="J28" s="43" t="str">
+      <c r="J28" s="39" t="str">
         <f t="shared" ref="J28:J46" si="1">IF(A28=0,0,F28/10000&amp;"%")</f>
         <v>100%</v>
       </c>
-      <c r="K28" s="42"/>
+      <c r="K28" s="38"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="44">
-        <v>1</v>
-      </c>
-      <c r="B29" s="44">
+      <c r="A29" s="40">
+        <v>1</v>
+      </c>
+      <c r="B29" s="40">
         <v>103</v>
       </c>
-      <c r="C29" s="44">
+      <c r="C29" s="40">
         <v>17</v>
       </c>
-      <c r="D29" s="44">
+      <c r="D29" s="40">
         <v>5</v>
       </c>
-      <c r="E29" s="44">
+      <c r="E29" s="40">
         <v>0</v>
       </c>
-      <c r="F29" s="41">
+      <c r="F29" s="37">
         <v>1000000</v>
       </c>
-      <c r="H29" s="42" t="s">
+      <c r="H29" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="I29" s="42">
+      <c r="I29" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J29" s="43" t="str">
+      <c r="J29" s="39" t="str">
         <f t="shared" si="1"/>
         <v>100%</v>
       </c>
-      <c r="K29" s="42"/>
+      <c r="K29" s="38"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="44">
-        <v>1</v>
-      </c>
-      <c r="B30" s="44">
+      <c r="A30" s="40">
+        <v>1</v>
+      </c>
+      <c r="B30" s="40">
         <v>110</v>
       </c>
-      <c r="C30" s="44">
+      <c r="C30" s="40">
         <v>10001</v>
       </c>
-      <c r="D30" s="44">
+      <c r="D30" s="40">
         <v>2</v>
       </c>
-      <c r="E30" s="44">
+      <c r="E30" s="40">
         <v>0</v>
       </c>
-      <c r="F30" s="44">
+      <c r="F30" s="40">
         <v>200000</v>
       </c>
-      <c r="H30" s="42" t="s">
+      <c r="H30" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="I30" s="42">
+      <c r="I30" s="38">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J30" s="43" t="str">
+      <c r="J30" s="39" t="str">
         <f t="shared" si="1"/>
         <v>20%</v>
       </c>
-      <c r="K30" s="42"/>
+      <c r="K30" s="38"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="44">
-        <v>1</v>
-      </c>
-      <c r="B31" s="44">
+      <c r="A31" s="40">
+        <v>1</v>
+      </c>
+      <c r="B31" s="40">
         <v>110</v>
       </c>
-      <c r="C31" s="44">
+      <c r="C31" s="40">
         <v>11001</v>
       </c>
-      <c r="D31" s="44">
+      <c r="D31" s="40">
         <v>2</v>
       </c>
-      <c r="E31" s="44">
+      <c r="E31" s="40">
         <v>0</v>
       </c>
-      <c r="F31" s="44">
+      <c r="F31" s="40">
         <v>200000</v>
       </c>
-      <c r="H31" s="42" t="s">
+      <c r="H31" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="I31" s="42">
+      <c r="I31" s="38">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J31" s="43" t="str">
+      <c r="J31" s="39" t="str">
         <f t="shared" si="1"/>
         <v>20%</v>
       </c>
-      <c r="K31" s="42"/>
+      <c r="K31" s="38"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="44">
-        <v>1</v>
-      </c>
-      <c r="B32" s="44">
+      <c r="A32" s="40">
+        <v>1</v>
+      </c>
+      <c r="B32" s="40">
         <v>110</v>
       </c>
-      <c r="C32" s="44">
+      <c r="C32" s="40">
         <v>12001</v>
       </c>
-      <c r="D32" s="44">
+      <c r="D32" s="40">
         <v>2</v>
       </c>
-      <c r="E32" s="44">
+      <c r="E32" s="40">
         <v>0</v>
       </c>
-      <c r="F32" s="44">
+      <c r="F32" s="40">
         <v>200000</v>
       </c>
-      <c r="H32" s="42" t="s">
+      <c r="H32" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="I32" s="42">
+      <c r="I32" s="38">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J32" s="43" t="str">
+      <c r="J32" s="39" t="str">
         <f t="shared" si="1"/>
         <v>20%</v>
       </c>
-      <c r="K32" s="42"/>
+      <c r="K32" s="38"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="44">
-        <v>1</v>
-      </c>
-      <c r="B33" s="44">
+      <c r="A33" s="40">
+        <v>1</v>
+      </c>
+      <c r="B33" s="40">
         <v>110</v>
       </c>
-      <c r="C33" s="44">
+      <c r="C33" s="40">
         <v>13001</v>
       </c>
-      <c r="D33" s="44">
+      <c r="D33" s="40">
         <v>2</v>
       </c>
-      <c r="E33" s="44">
+      <c r="E33" s="40">
         <v>0</v>
       </c>
-      <c r="F33" s="44">
+      <c r="F33" s="40">
         <v>200000</v>
       </c>
-      <c r="H33" s="42" t="s">
+      <c r="H33" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="I33" s="42">
+      <c r="I33" s="38">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J33" s="43" t="str">
+      <c r="J33" s="39" t="str">
         <f t="shared" si="1"/>
         <v>20%</v>
       </c>
-      <c r="K33" s="42"/>
+      <c r="K33" s="38"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="44">
-        <v>1</v>
-      </c>
-      <c r="B34" s="44">
+      <c r="A34" s="40">
+        <v>1</v>
+      </c>
+      <c r="B34" s="40">
         <v>110</v>
       </c>
-      <c r="C34" s="44">
+      <c r="C34" s="40">
         <v>14001</v>
       </c>
-      <c r="D34" s="44">
+      <c r="D34" s="40">
         <v>2</v>
       </c>
-      <c r="E34" s="44">
+      <c r="E34" s="40">
         <v>0</v>
       </c>
-      <c r="F34" s="44">
+      <c r="F34" s="40">
         <v>200000</v>
       </c>
-      <c r="H34" s="42" t="s">
+      <c r="H34" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="I34" s="42">
+      <c r="I34" s="38">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J34" s="43" t="str">
+      <c r="J34" s="39" t="str">
         <f t="shared" si="1"/>
         <v>20%</v>
       </c>
-      <c r="K34" s="42"/>
+      <c r="K34" s="38"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="44">
+      <c r="A35" s="40">
         <v>2</v>
       </c>
-      <c r="B35" s="41">
+      <c r="B35" s="37">
         <v>2</v>
       </c>
-      <c r="C35" s="41">
+      <c r="C35" s="37">
         <v>40</v>
       </c>
-      <c r="D35" s="41">
+      <c r="D35" s="37">
         <v>40</v>
       </c>
-      <c r="E35" s="41">
-        <v>1</v>
-      </c>
-      <c r="F35" s="44">
+      <c r="E35" s="37">
+        <v>1</v>
+      </c>
+      <c r="F35" s="40">
         <v>50000</v>
       </c>
-      <c r="H35" s="45" t="s">
+      <c r="H35" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="I35" s="45">
+      <c r="I35" s="41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="J35" s="46" t="str">
+      <c r="J35" s="42" t="str">
         <f t="shared" si="1"/>
         <v>5%</v>
       </c>
-      <c r="K35" s="47" t="str">
+      <c r="K35" s="50" t="str">
         <f>SUM(F35:F41)/10000&amp;"%"</f>
         <v>100%</v>
       </c>
-      <c r="L35" s="48" t="s">
+      <c r="L35" s="53" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="44">
+      <c r="A36" s="40">
         <v>2</v>
       </c>
-      <c r="B36" s="44">
+      <c r="B36" s="40">
         <v>103</v>
       </c>
-      <c r="C36" s="44">
+      <c r="C36" s="40">
         <v>17</v>
       </c>
-      <c r="D36" s="44">
+      <c r="D36" s="40">
         <v>5</v>
       </c>
-      <c r="E36" s="44">
-        <v>1</v>
-      </c>
-      <c r="F36" s="44">
+      <c r="E36" s="40">
+        <v>1</v>
+      </c>
+      <c r="F36" s="40">
         <v>200000</v>
       </c>
-      <c r="H36" s="45" t="s">
+      <c r="H36" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="I36" s="45">
+      <c r="I36" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J36" s="46" t="str">
+      <c r="J36" s="42" t="str">
         <f t="shared" si="1"/>
         <v>20%</v>
       </c>
-      <c r="K36" s="49"/>
-      <c r="L36" s="50"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="54"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="44">
+      <c r="A37" s="40">
         <v>2</v>
       </c>
-      <c r="B37" s="44">
+      <c r="B37" s="40">
         <v>110</v>
       </c>
-      <c r="C37" s="44">
+      <c r="C37" s="40">
         <v>10001</v>
       </c>
-      <c r="D37" s="44">
+      <c r="D37" s="40">
         <v>2</v>
       </c>
-      <c r="E37" s="44">
-        <v>1</v>
-      </c>
-      <c r="F37" s="44">
+      <c r="E37" s="40">
+        <v>1</v>
+      </c>
+      <c r="F37" s="40">
         <v>150000</v>
       </c>
-      <c r="H37" s="45" t="s">
+      <c r="H37" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="I37" s="45">
+      <c r="I37" s="41">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J37" s="46" t="str">
+      <c r="J37" s="42" t="str">
         <f t="shared" si="1"/>
         <v>15%</v>
       </c>
-      <c r="K37" s="49"/>
-      <c r="L37" s="50"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="54"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="44">
+      <c r="A38" s="40">
         <v>2</v>
       </c>
-      <c r="B38" s="44">
+      <c r="B38" s="40">
         <v>110</v>
       </c>
-      <c r="C38" s="44">
+      <c r="C38" s="40">
         <v>11001</v>
       </c>
-      <c r="D38" s="44">
+      <c r="D38" s="40">
         <v>2</v>
       </c>
-      <c r="E38" s="44">
-        <v>1</v>
-      </c>
-      <c r="F38" s="44">
+      <c r="E38" s="40">
+        <v>1</v>
+      </c>
+      <c r="F38" s="40">
         <v>150000</v>
       </c>
-      <c r="H38" s="45" t="s">
+      <c r="H38" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="I38" s="45">
+      <c r="I38" s="41">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J38" s="46" t="str">
+      <c r="J38" s="42" t="str">
         <f t="shared" si="1"/>
         <v>15%</v>
       </c>
-      <c r="K38" s="49"/>
-      <c r="L38" s="50"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="54"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="44">
+      <c r="A39" s="40">
         <v>2</v>
       </c>
-      <c r="B39" s="44">
+      <c r="B39" s="40">
         <v>110</v>
       </c>
-      <c r="C39" s="44">
+      <c r="C39" s="40">
         <v>12001</v>
       </c>
-      <c r="D39" s="44">
+      <c r="D39" s="40">
         <v>2</v>
       </c>
-      <c r="E39" s="44">
-        <v>1</v>
-      </c>
-      <c r="F39" s="44">
+      <c r="E39" s="40">
+        <v>1</v>
+      </c>
+      <c r="F39" s="40">
         <v>150000</v>
       </c>
-      <c r="H39" s="45" t="s">
+      <c r="H39" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="I39" s="45">
+      <c r="I39" s="41">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J39" s="46" t="str">
+      <c r="J39" s="42" t="str">
         <f t="shared" si="1"/>
         <v>15%</v>
       </c>
-      <c r="K39" s="49"/>
-      <c r="L39" s="50"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="54"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="44">
+      <c r="A40" s="40">
         <v>2</v>
       </c>
-      <c r="B40" s="44">
+      <c r="B40" s="40">
         <v>110</v>
       </c>
-      <c r="C40" s="44">
+      <c r="C40" s="40">
         <v>13001</v>
       </c>
-      <c r="D40" s="44">
+      <c r="D40" s="40">
         <v>2</v>
       </c>
-      <c r="E40" s="44">
-        <v>1</v>
-      </c>
-      <c r="F40" s="44">
+      <c r="E40" s="40">
+        <v>1</v>
+      </c>
+      <c r="F40" s="40">
         <v>150000</v>
       </c>
-      <c r="H40" s="45" t="s">
+      <c r="H40" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="I40" s="45">
+      <c r="I40" s="41">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J40" s="46" t="str">
+      <c r="J40" s="42" t="str">
         <f t="shared" si="1"/>
         <v>15%</v>
       </c>
-      <c r="K40" s="49"/>
-      <c r="L40" s="50"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="54"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="44">
+      <c r="A41" s="40">
         <v>2</v>
       </c>
-      <c r="B41" s="44">
+      <c r="B41" s="40">
         <v>110</v>
       </c>
-      <c r="C41" s="44">
+      <c r="C41" s="40">
         <v>14001</v>
       </c>
-      <c r="D41" s="44">
+      <c r="D41" s="40">
         <v>2</v>
       </c>
-      <c r="E41" s="44">
-        <v>1</v>
-      </c>
-      <c r="F41" s="44">
+      <c r="E41" s="40">
+        <v>1</v>
+      </c>
+      <c r="F41" s="40">
         <v>150000</v>
       </c>
-      <c r="H41" s="45" t="s">
+      <c r="H41" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="I41" s="45">
+      <c r="I41" s="41">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J41" s="46" t="str">
+      <c r="J41" s="42" t="str">
         <f t="shared" si="1"/>
         <v>15%</v>
       </c>
-      <c r="K41" s="51"/>
-      <c r="L41" s="50"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="54"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="44">
+      <c r="A42" s="40">
         <v>3</v>
       </c>
-      <c r="B42" s="44">
+      <c r="B42" s="40">
         <v>7</v>
       </c>
-      <c r="C42" s="44">
-        <v>1</v>
-      </c>
-      <c r="D42" s="44">
-        <v>1</v>
-      </c>
-      <c r="E42" s="44">
-        <v>1</v>
-      </c>
-      <c r="F42" s="44">
+      <c r="C42" s="40">
+        <v>1</v>
+      </c>
+      <c r="D42" s="40">
+        <v>1</v>
+      </c>
+      <c r="E42" s="40">
+        <v>1</v>
+      </c>
+      <c r="F42" s="40">
         <v>330000</v>
       </c>
-      <c r="H42" s="52" t="s">
+      <c r="H42" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="I42" s="52">
-        <v>1</v>
-      </c>
-      <c r="J42" s="53" t="str">
+      <c r="I42" s="43">
+        <v>1</v>
+      </c>
+      <c r="J42" s="44" t="str">
         <f t="shared" si="1"/>
         <v>33%</v>
       </c>
-      <c r="K42" s="54" t="str">
+      <c r="K42" s="55" t="str">
         <f>SUM(F42:F44)/10000&amp;"%"</f>
         <v>100%</v>
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="44">
+      <c r="A43" s="40">
         <v>3</v>
       </c>
-      <c r="B43" s="44">
+      <c r="B43" s="40">
         <v>7</v>
       </c>
-      <c r="C43" s="44">
+      <c r="C43" s="40">
         <v>2</v>
       </c>
-      <c r="D43" s="44">
-        <v>1</v>
-      </c>
-      <c r="E43" s="44">
-        <v>1</v>
-      </c>
-      <c r="F43" s="44">
+      <c r="D43" s="40">
+        <v>1</v>
+      </c>
+      <c r="E43" s="40">
+        <v>1</v>
+      </c>
+      <c r="F43" s="40">
         <v>330000</v>
       </c>
-      <c r="H43" s="52" t="s">
+      <c r="H43" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="I43" s="52">
-        <v>1</v>
-      </c>
-      <c r="J43" s="53" t="str">
+      <c r="I43" s="43">
+        <v>1</v>
+      </c>
+      <c r="J43" s="44" t="str">
         <f t="shared" si="1"/>
         <v>33%</v>
       </c>
-      <c r="K43" s="49"/>
+      <c r="K43" s="51"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="44">
+      <c r="A44" s="40">
         <v>3</v>
       </c>
-      <c r="B44" s="44">
+      <c r="B44" s="40">
         <v>7</v>
       </c>
-      <c r="C44" s="44">
+      <c r="C44" s="40">
         <v>3</v>
       </c>
-      <c r="D44" s="44">
-        <v>1</v>
-      </c>
-      <c r="E44" s="44">
-        <v>1</v>
-      </c>
-      <c r="F44" s="44">
+      <c r="D44" s="40">
+        <v>1</v>
+      </c>
+      <c r="E44" s="40">
+        <v>1</v>
+      </c>
+      <c r="F44" s="40">
         <v>340000</v>
       </c>
-      <c r="H44" s="52" t="s">
+      <c r="H44" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="I44" s="52">
-        <v>1</v>
-      </c>
-      <c r="J44" s="53" t="str">
+      <c r="I44" s="43">
+        <v>1</v>
+      </c>
+      <c r="J44" s="44" t="str">
         <f t="shared" si="1"/>
         <v>34%</v>
       </c>
-      <c r="K44" s="51"/>
+      <c r="K44" s="52"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="44"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="55">
+      <c r="A45" s="40"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="44"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="55">
+      <c r="A46" s="40"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2890,10 +2920,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB92121-343E-422E-B3FA-27D4313C268C}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3190,15 +3220,15 @@
       </c>
       <c r="E12" s="5" t="str">
         <f>'[1]@goods_type'!$A13</f>
-        <v>EXP_POTION</v>
+        <v>SEND_ESSENCE</v>
       </c>
       <c r="F12" s="5">
         <f>'[1]@goods_type'!$B13</f>
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="G12" s="5" t="str">
         <f>'[1]@goods_type'!$C13</f>
-        <v>101 경험치 물약</v>
+        <v>근원 전달 횟수(플레이어 보유)</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3216,15 +3246,15 @@
       </c>
       <c r="E13" s="5" t="str">
         <f>'[1]@goods_type'!$A14</f>
-        <v>STA_POTION</v>
+        <v>GET_ESSENCE</v>
       </c>
       <c r="F13" s="5">
         <f>'[1]@goods_type'!$B14</f>
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="G13" s="5" t="str">
         <f>'[1]@goods_type'!$C14</f>
-        <v>102 스테미나 회복 물약</v>
+        <v>근원 받을 수 있는 횟수(캐릭터 공용 설정)</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3242,15 +3272,15 @@
       </c>
       <c r="E14" s="5" t="str">
         <f>'[1]@goods_type'!$A15</f>
-        <v>FAVORITE_ITEM</v>
+        <v>EXP_POTION</v>
       </c>
       <c r="F14" s="5">
         <f>'[1]@goods_type'!$B15</f>
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G14" s="5" t="str">
         <f>'[1]@goods_type'!$C15</f>
-        <v>103 호감도 아이템</v>
+        <v>101 경험치 물약</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3268,112 +3298,140 @@
       </c>
       <c r="E15" s="5" t="str">
         <f>'[1]@goods_type'!$A16</f>
-        <v>STAGE_SKIP</v>
+        <v>STA_POTION</v>
       </c>
       <c r="F15" s="5">
         <f>'[1]@goods_type'!$B16</f>
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G15" s="5" t="str">
         <f>'[1]@goods_type'!$C16</f>
-        <v>104 스테이지 스킵 티켓</v>
+        <v>102 스테미나 회복 물약</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="E16" s="5" t="str">
         <f>'[1]@goods_type'!$A17</f>
-        <v>TICKET_DUNGEON</v>
+        <v>FAVORITE_ITEM</v>
       </c>
       <c r="F16" s="5">
         <f>'[1]@goods_type'!$B17</f>
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G16" s="5" t="str">
         <f>'[1]@goods_type'!$C17</f>
-        <v>105 던전 입장 티켓</v>
+        <v>103 호감도 아이템</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" s="5" t="str">
         <f>'[1]@goods_type'!$A18</f>
-        <v>EQ_GROWUP</v>
+        <v>STAGE_SKIP</v>
       </c>
       <c r="F17" s="5">
         <f>'[1]@goods_type'!$B18</f>
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G17" s="5" t="str">
         <f>'[1]@goods_type'!$C18</f>
-        <v>106 정련석(장비 성장)</v>
+        <v>104 스테이지 스킵 티켓</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" s="5" t="str">
         <f>'[1]@goods_type'!$A19</f>
-        <v>TICKET_REWARD_SELECT</v>
+        <v>TICKET_DUNGEON</v>
       </c>
       <c r="F18" s="5">
         <f>'[1]@goods_type'!$B19</f>
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G18" s="5" t="str">
         <f>'[1]@goods_type'!$C19</f>
-        <v>107 보상 선택 티켓(1개를 선택 획득)</v>
+        <v>105 던전 입장 티켓</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" s="5" t="str">
         <f>'[1]@goods_type'!$A20</f>
-        <v>TICKET_REWARD_RANDOM</v>
+        <v>EQ_GROWUP</v>
       </c>
       <c r="F19" s="5">
         <f>'[1]@goods_type'!$B20</f>
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G19" s="5" t="str">
         <f>'[1]@goods_type'!$C20</f>
-        <v>108 보상 랜덤 티켓(1개를 확률 획득)</v>
+        <v>106 정련석(장비 성장)</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" s="5" t="str">
         <f>'[1]@goods_type'!$A21</f>
-        <v>TICKET_REWARD_ALL</v>
+        <v>TICKET_REWARD_SELECT</v>
       </c>
       <c r="F20" s="5">
         <f>'[1]@goods_type'!$B21</f>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G20" s="5" t="str">
         <f>'[1]@goods_type'!$C21</f>
-        <v>109 보상 패키지 티켓(모든 보상 획득)</v>
+        <v>107 보상 선택 티켓(1개를 선택 획득)</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" s="5" t="str">
         <f>'[1]@goods_type'!$A22</f>
-        <v>PIECE_EQUIPMENT</v>
+        <v>TICKET_REWARD_RANDOM</v>
       </c>
       <c r="F21" s="5">
         <f>'[1]@goods_type'!$B22</f>
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G21" s="5" t="str">
         <f>'[1]@goods_type'!$C22</f>
-        <v>110 장비 조각</v>
+        <v>108 보상 랜덤 티켓(1개를 확률 획득)</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" s="5" t="str">
         <f>'[1]@goods_type'!$A23</f>
-        <v>PIECE_CHARACTER</v>
+        <v>TICKET_REWARD_ALL</v>
       </c>
       <c r="F22" s="5">
         <f>'[1]@goods_type'!$B23</f>
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G22" s="5" t="str">
         <f>'[1]@goods_type'!$C23</f>
+        <v>109 보상 패키지 티켓(모든 보상 획득)</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7">
+      <c r="E23" s="5" t="str">
+        <f>'[1]@goods_type'!$A24</f>
+        <v>PIECE_EQUIPMENT</v>
+      </c>
+      <c r="F23" s="5">
+        <f>'[1]@goods_type'!$B24</f>
+        <v>110</v>
+      </c>
+      <c r="G23" s="5" t="str">
+        <f>'[1]@goods_type'!$C24</f>
+        <v>110 장비 조각</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7">
+      <c r="E24" s="5" t="str">
+        <f>'[1]@goods_type'!$A25</f>
+        <v>PIECE_CHARACTER</v>
+      </c>
+      <c r="F24" s="5">
+        <f>'[1]@goods_type'!$B25</f>
+        <v>111</v>
+      </c>
+      <c r="G24" s="5" t="str">
+        <f>'[1]@goods_type'!$C25</f>
         <v>111 캐릭터 조각</v>
       </c>
     </row>
@@ -3896,7 +3954,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4014,7 +4072,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(C5,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$24,MATCH(C5,'!참조_ENUM'!$G$3:$G$24,0))</f>
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -4047,7 +4105,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(C6,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$24,MATCH(C6,'!참조_ENUM'!$G$3:$G$24,0))</f>
         <v>103</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -4080,7 +4138,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(C7,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$24,MATCH(C7,'!참조_ENUM'!$G$3:$G$24,0))</f>
         <v>110</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -4111,7 +4169,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(C8,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$24,MATCH(C8,'!참조_ENUM'!$G$3:$G$24,0))</f>
         <v>110</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -4142,7 +4200,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(C9,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$24,MATCH(C9,'!참조_ENUM'!$G$3:$G$24,0))</f>
         <v>110</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -4173,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(C10,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$24,MATCH(C10,'!참조_ENUM'!$G$3:$G$24,0))</f>
         <v>110</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -4204,7 +4262,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(C11,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$24,MATCH(C11,'!참조_ENUM'!$G$3:$G$24,0))</f>
         <v>110</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -4235,7 +4293,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(C12,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$24,MATCH(C12,'!참조_ENUM'!$G$3:$G$24,0))</f>
         <v>2</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -4266,7 +4324,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(C13,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$24,MATCH(C13,'!참조_ENUM'!$G$3:$G$24,0))</f>
         <v>103</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -4297,7 +4355,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(C14,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$24,MATCH(C14,'!참조_ENUM'!$G$3:$G$24,0))</f>
         <v>110</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -4328,7 +4386,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(C15,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$24,MATCH(C15,'!참조_ENUM'!$G$3:$G$24,0))</f>
         <v>110</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -4359,7 +4417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(C16,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$24,MATCH(C16,'!참조_ENUM'!$G$3:$G$24,0))</f>
         <v>110</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -4390,7 +4448,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(C17,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$24,MATCH(C17,'!참조_ENUM'!$G$3:$G$24,0))</f>
         <v>110</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -4421,7 +4479,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(C18,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$24,MATCH(C18,'!참조_ENUM'!$G$3:$G$24,0))</f>
         <v>110</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -4452,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(C19,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$24,MATCH(C19,'!참조_ENUM'!$G$3:$G$24,0))</f>
         <v>7</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -4483,7 +4541,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(C20,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$24,MATCH(C20,'!참조_ENUM'!$G$3:$G$24,0))</f>
         <v>7</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -4514,7 +4572,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(C21,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$24,MATCH(C21,'!참조_ENUM'!$G$3:$G$24,0))</f>
         <v>7</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -4548,7 +4606,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5089D60F-748C-4AF7-9852-57B3BD0B8B84}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$G$3:$G$22</xm:f>
+            <xm:f>'!참조_ENUM'!$G$3:$G$24</xm:f>
           </x14:formula1>
           <xm:sqref>C5:C21</xm:sqref>
         </x14:dataValidation>

--- a/Android/ExcelData/RewardTable.xlsx
+++ b/Android/ExcelData/RewardTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9D1987-710C-46AC-A4A6-9298842D7A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C460B458-099D-4677-AEE9-811F9C3A9842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2355" yWindow="1500" windowWidth="35370" windowHeight="15435" activeTab="1" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
+    <workbookView xWindow="43470" yWindow="2700" windowWidth="29295" windowHeight="16530" activeTab="5" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
   </bookViews>
   <sheets>
     <sheet name="!사용 설명" sheetId="6" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{59C7BC66-5081-4F53-BFD4-1CDBE0F41E39}">
+    <comment ref="E31" authorId="0" shapeId="0" xr:uid="{59C7BC66-5081-4F53-BFD4-1CDBE0F41E39}">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F27" authorId="0" shapeId="0" xr:uid="{C1C1C3C0-7AC2-4125-90DF-F97A74C91689}">
+    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{C1C1C3C0-7AC2-4125-90DF-F97A74C91689}">
       <text>
         <r>
           <rPr>
@@ -82,8 +82,296 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rown</author>
+  </authors>
+  <commentList>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{2863E19D-DF4D-4B12-ADEA-11734CCFD3FF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0: drop_per </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>칼럼을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해당</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>행의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>보상</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출현</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>성공률로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">사용
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1: drop_per </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>칼럼을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>같은</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> reward_id </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>내에서</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출현</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>비중으로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="106">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,9 +555,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>ENUM:GOODS_TYPE:NONE</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -312,46 +597,12 @@
     <t>스테이지에 적용되는 보상인 경우 왼쪽부터 1번 사용</t>
   </si>
   <si>
-    <t>103 호감도 아이템</t>
-  </si>
-  <si>
-    <t>110 장비 조각</t>
-  </si>
-  <si>
-    <t>2 보석(게임내 사용되는 유료 재화)</t>
-  </si>
-  <si>
-    <t>7 캐릭터</t>
-  </si>
-  <si>
     <t>메일, 미션에 사용하는 보상인 경우 상단 부터 1번 사용</t>
   </si>
   <si>
-    <t>GOODS_TYPE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
     <t>reward_set 테이블에서 변수 사용 설정</t>
   </si>
   <si>
-    <t>NONE</t>
-  </si>
-  <si>
-    <t>GOLD</t>
-  </si>
-  <si>
-    <t>금화(게임내 사용되는 재화)</t>
-  </si>
-  <si>
     <t>재화 지급 최소 수량</t>
   </si>
   <si>
@@ -361,200 +612,137 @@
     <t>&gt;&gt; 최소 ~ 최대 사이의 랜덤 수량</t>
   </si>
   <si>
-    <t>DIA</t>
-  </si>
-  <si>
-    <t>보석(게임내 사용되는 유료 재화)</t>
-  </si>
-  <si>
-    <t>STAMINA</t>
-  </si>
-  <si>
-    <t>스태미나</t>
-  </si>
-  <si>
-    <t>FAVORITE</t>
-  </si>
-  <si>
-    <t>호감도</t>
-  </si>
-  <si>
-    <t>EXP_PLAYER</t>
-  </si>
-  <si>
-    <t>플레이어 경험치</t>
-  </si>
-  <si>
-    <t>EXP_CHARACTER</t>
-  </si>
-  <si>
-    <t>캐릭터 경험치</t>
-  </si>
-  <si>
-    <t>CHARACTER</t>
-  </si>
-  <si>
-    <t>캐릭터</t>
-  </si>
-  <si>
-    <t>캐릭터 ID</t>
-  </si>
-  <si>
     <t>비사용</t>
   </si>
   <si>
+    <t>장비 지급수량</t>
+  </si>
+  <si>
+    <t>아이템 지급 수량</t>
+  </si>
+  <si>
+    <t>조각 지급 수량</t>
+  </si>
+  <si>
+    <t>아이템 조각(캐릭터) ID</t>
+  </si>
+  <si>
+    <t>reward_set</t>
+  </si>
+  <si>
+    <t>reward info</t>
+  </si>
+  <si>
+    <t>지급 보상</t>
+  </si>
+  <si>
+    <t>지급 수량</t>
+  </si>
+  <si>
+    <t>지급 확률</t>
+  </si>
+  <si>
+    <t>id내 출현 확률 합산</t>
+  </si>
+  <si>
+    <t>골드</t>
+  </si>
+  <si>
+    <t>츄러스</t>
+  </si>
+  <si>
+    <t>단검 조각</t>
+  </si>
+  <si>
+    <t>장검 조각</t>
+  </si>
+  <si>
+    <t>창 조각</t>
+  </si>
+  <si>
+    <t>지팡이 조각</t>
+  </si>
+  <si>
+    <t>활 조각</t>
+  </si>
+  <si>
+    <t>다이아</t>
+  </si>
+  <si>
+    <t>출현 타입이 1이므로, 같은 reward_id 내에서 출현 비중으로 지급 확률이 적용</t>
+  </si>
+  <si>
+    <t>루시아</t>
+  </si>
+  <si>
+    <t>루시아 이격</t>
+  </si>
+  <si>
+    <t>루시아 2</t>
+  </si>
+  <si>
+    <t>102 캐릭터 경험치 물약</t>
+  </si>
+  <si>
+    <t>112 캐릭터 조각</t>
+  </si>
+  <si>
+    <t>113 스킬 경험치 아이템</t>
+  </si>
+  <si>
+    <t>ENUM:REWARD_TYPE:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt; 장비 ID를 보상으로 지급. 만약, 장비 보유 수치가  max(9999)라면 조각으로 변환하여 지급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 ID(Equipment Table)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 ID (PC Table)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 ID (Item Table)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 조각 ID (Item_Piece Table)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114 아이템 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIECE_ITEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 조각 ID(Item_Piece Table)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt; 최소 ~ 최대 사이의 랜덤 수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;&lt; 캐릭터 ID를 보상으로 지급. 만약, 이미 보유한 캐릭터일 경우 1개의 캐릭터를 만들기 위한 캐릭터 조각 수량으로 치환하여 지급</t>
-  </si>
-  <si>
-    <t>EQUIPMENT</t>
-  </si>
-  <si>
-    <t>장비</t>
-  </si>
-  <si>
-    <t>장비 ID</t>
-  </si>
-  <si>
-    <t>장비 지급수량</t>
-  </si>
-  <si>
-    <t>EXP_POTION</t>
-  </si>
-  <si>
-    <t>경험치 물약</t>
-  </si>
-  <si>
-    <t>아이템 지급 수량</t>
-  </si>
-  <si>
-    <t>STA_POTION</t>
-  </si>
-  <si>
-    <t>스테미나 회복 물약</t>
-  </si>
-  <si>
-    <t>FAVORITE_ITEM</t>
-  </si>
-  <si>
-    <t>호감도 아이템</t>
-  </si>
-  <si>
-    <t>STAGE_SKIP</t>
-  </si>
-  <si>
-    <t>스테이지 스킵 티켓</t>
-  </si>
-  <si>
-    <t>TICKET_DUNGEON</t>
-  </si>
-  <si>
-    <t>던전 입장 티켓</t>
-  </si>
-  <si>
-    <t>EQ_GROWUP</t>
-  </si>
-  <si>
-    <t>정련석(장비 성장)</t>
-  </si>
-  <si>
-    <t>TICKET_REWARD_SELECT</t>
-  </si>
-  <si>
-    <t>보상 선택 티켓(1개를 선택 획득)</t>
-  </si>
-  <si>
-    <t>TICKET_REWARD_RANDOM</t>
-  </si>
-  <si>
-    <t>보상 랜덤 티켓(1개를 확률 획득)</t>
-  </si>
-  <si>
-    <t>TICKET_REWARD_ALL</t>
-  </si>
-  <si>
-    <t>보상 패키지 티켓(모든 보상 획득)</t>
-  </si>
-  <si>
-    <t>PIECE_EQUIPMENT</t>
-  </si>
-  <si>
-    <t>장비 조각</t>
-  </si>
-  <si>
-    <t>아이템 조각(장비) ID</t>
-  </si>
-  <si>
-    <t>조각 지급 수량</t>
-  </si>
-  <si>
-    <t>PIECE_CHARACTER</t>
-  </si>
-  <si>
-    <t>캐릭터 조각</t>
-  </si>
-  <si>
-    <t>아이템 조각(캐릭터) ID</t>
-  </si>
-  <si>
-    <t>reward_set</t>
-  </si>
-  <si>
-    <t>reward info</t>
-  </si>
-  <si>
-    <t>지급 보상</t>
-  </si>
-  <si>
-    <t>지급 수량</t>
-  </si>
-  <si>
-    <t>지급 확률</t>
-  </si>
-  <si>
-    <t>id내 출현 확률 합산</t>
-  </si>
-  <si>
-    <t>골드</t>
-  </si>
-  <si>
-    <t>츄러스</t>
-  </si>
-  <si>
-    <t>단검 조각</t>
-  </si>
-  <si>
-    <t>장검 조각</t>
-  </si>
-  <si>
-    <t>창 조각</t>
-  </si>
-  <si>
-    <t>지팡이 조각</t>
-  </si>
-  <si>
-    <t>활 조각</t>
-  </si>
-  <si>
-    <t>다이아</t>
-  </si>
-  <si>
-    <t>출현 타입이 1이므로, 같은 reward_id 내에서 출현 비중으로 지급 확률이 적용</t>
-  </si>
-  <si>
-    <t>루시아</t>
-  </si>
-  <si>
-    <t>루시아 이격</t>
-  </si>
-  <si>
-    <t>루시아 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -583,13 +771,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -666,8 +847,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -764,8 +960,14 @@
         <bgColor rgb="FFD9D2E9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -897,6 +1099,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -928,98 +1152,98 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="10" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="10" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="10" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="11" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="11" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="11" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1061,6 +1285,7 @@
       <sheetName val="@onetime_effect_type"/>
       <sheetName val="@duration_effect_type"/>
       <sheetName val="@persistence_type"/>
+      <sheetName val="@projectile_type"/>
       <sheetName val="@inequality_type"/>
       <sheetName val="@skill_type"/>
       <sheetName val="@item_type"/>
@@ -1071,6 +1296,7 @@
       <sheetName val="@drop_type"/>
       <sheetName val="@repeat_type"/>
       <sheetName val="@charge_type"/>
+      <sheetName val="@reward_type"/>
       <sheetName val="@effect_count_type"/>
     </sheetNames>
     <sheetDataSet>
@@ -1093,7 +1319,8 @@
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
-      <sheetData sheetId="19">
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20">
         <row r="1">
           <cell r="A1" t="str">
             <v>ITEM_TYPE</v>
@@ -1254,273 +1481,296 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>GOODS_TYPE</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>type</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>value</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>comment</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-          <cell r="B4">
-            <v>0</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>GOLD</v>
-          </cell>
-          <cell r="B5">
-            <v>1</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>1 금화(게임내 사용되는 재화)</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>DIA</v>
-          </cell>
-          <cell r="B6">
-            <v>2</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>2 보석(게임내 사용되는 유료 재화)</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>STAMINA</v>
-          </cell>
-          <cell r="B7">
-            <v>3</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>3 스태미나</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>FAVORITE</v>
-          </cell>
-          <cell r="B8">
-            <v>4</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>4 호감도</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>EXP_PLAYER</v>
-          </cell>
-          <cell r="B9">
-            <v>5</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>5 플레이어 경험치</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>EXP_CHARACTER</v>
-          </cell>
-          <cell r="B10">
-            <v>6</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>6 캐릭터 경험치</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>CHARACTER</v>
-          </cell>
-          <cell r="B11">
-            <v>7</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>7 캐릭터</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>EQUIPMENT</v>
-          </cell>
-          <cell r="B12">
-            <v>8</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>6 장비</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>SEND_ESSENCE</v>
-          </cell>
-          <cell r="B13">
-            <v>9</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>근원 전달 횟수(플레이어 보유)</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>GET_ESSENCE</v>
-          </cell>
-          <cell r="B14">
-            <v>10</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>근원 받을 수 있는 횟수(캐릭터 공용 설정)</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>EXP_POTION</v>
-          </cell>
-          <cell r="B15">
-            <v>101</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>101 경험치 물약</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>STA_POTION</v>
-          </cell>
-          <cell r="B16">
-            <v>102</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>102 스테미나 회복 물약</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>FAVORITE_ITEM</v>
-          </cell>
-          <cell r="B17">
-            <v>103</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>103 호감도 아이템</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>STAGE_SKIP</v>
-          </cell>
-          <cell r="B18">
-            <v>104</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>104 스테이지 스킵 티켓</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>TICKET_DUNGEON</v>
-          </cell>
-          <cell r="B19">
-            <v>105</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>105 던전 입장 티켓</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>EQ_GROWUP</v>
-          </cell>
-          <cell r="B20">
-            <v>106</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>106 정련석(장비 성장)</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>TICKET_REWARD_SELECT</v>
-          </cell>
-          <cell r="B21">
-            <v>107</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>107 보상 선택 티켓(1개를 선택 획득)</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>TICKET_REWARD_RANDOM</v>
-          </cell>
-          <cell r="B22">
-            <v>108</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>108 보상 랜덤 티켓(1개를 확률 획득)</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>TICKET_REWARD_ALL</v>
-          </cell>
-          <cell r="B23">
-            <v>109</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>109 보상 패키지 티켓(모든 보상 획득)</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>PIECE_EQUIPMENT</v>
-          </cell>
-          <cell r="B24">
-            <v>110</v>
-          </cell>
-          <cell r="C24" t="str">
-            <v>110 장비 조각</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>PIECE_CHARACTER</v>
-          </cell>
-          <cell r="B25">
-            <v>111</v>
-          </cell>
-          <cell r="C25" t="str">
-            <v>111 캐릭터 조각</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
       <sheetData sheetId="25"/>
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
+      <sheetData sheetId="28">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>REWARD_TYPE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>type</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>value</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>comment</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>GOLD</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>1 금화(게임내 사용되는 재화)</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>DIA</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>2 보석(게임내 사용되는 유료 재화)</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>STAMINA</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>3 스태미나</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>FAVORITE</v>
+          </cell>
+          <cell r="B8">
+            <v>4</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>4 호감도</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>EXP_PLAYER</v>
+          </cell>
+          <cell r="B9">
+            <v>5</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>5 플레이어 경험치</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>EXP_CHARACTER</v>
+          </cell>
+          <cell r="B10">
+            <v>6</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>6 캐릭터 경험치</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>CHARACTER</v>
+          </cell>
+          <cell r="B11">
+            <v>7</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>7 캐릭터</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>EQUIPMENT</v>
+          </cell>
+          <cell r="B12">
+            <v>8</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>6 장비</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>SEND_ESSENCE</v>
+          </cell>
+          <cell r="B13">
+            <v>9</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>근원 전달 횟수(플레이어 보유)</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>GET_ESSENCE</v>
+          </cell>
+          <cell r="B14">
+            <v>10</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>근원 받을 수 있는 횟수(캐릭터 공용 설정)</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>EXP_POTION_P</v>
+          </cell>
+          <cell r="B15">
+            <v>101</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>101 플레이어 경험치 물약</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>EXP_POTION_C</v>
+          </cell>
+          <cell r="B16">
+            <v>102</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>102 캐릭터 경험치 물약</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>STA_POTION</v>
+          </cell>
+          <cell r="B17">
+            <v>103</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>103 스테미나 회복 물약</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>FAVORITE_ITEM</v>
+          </cell>
+          <cell r="B18">
+            <v>104</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>104 호감도 아이템</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>STAGE_SKIP</v>
+          </cell>
+          <cell r="B19">
+            <v>105</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>105 스테이지 스킵 티켓</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>TICKET_DUNGEON</v>
+          </cell>
+          <cell r="B20">
+            <v>106</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>106 던전 입장 티켓</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>EQ_GROWUP</v>
+          </cell>
+          <cell r="B21">
+            <v>107</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>107 정련석(장비 성장)</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>TICKET_REWARD_SELECT</v>
+          </cell>
+          <cell r="B22">
+            <v>108</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>109 보상 선택 티켓(1개를 선택 획득)</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>TICKET_REWARD_RANDOM</v>
+          </cell>
+          <cell r="B23">
+            <v>109</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>100 보상 랜덤 티켓(1개를 확률 획득)</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>TICKET_REWARD_ALL</v>
+          </cell>
+          <cell r="B24">
+            <v>110</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>110 보상 패키지 티켓(모든 보상 획득)</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>PIECE_EQUIPMENT</v>
+          </cell>
+          <cell r="B25">
+            <v>111</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>111 장비 조각</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>PIECE_CHARACTER</v>
+          </cell>
+          <cell r="B26">
+            <v>112</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>112 캐릭터 조각</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>EXP_SKILL</v>
+          </cell>
+          <cell r="B27">
+            <v>113</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>113 스킬 경험치 아이템</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="29"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1823,1083 +2073,1522 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6C6356-D67F-4E24-8961-CC2F6C806F55}">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="24.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="9"/>
-    <col min="3" max="3" width="31.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="6.75" style="9" customWidth="1"/>
-    <col min="8" max="9" width="11" style="9"/>
-    <col min="10" max="10" width="8.125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="9" customWidth="1"/>
-    <col min="12" max="13" width="11" style="9"/>
-    <col min="14" max="14" width="15.875" style="9" customWidth="1"/>
-    <col min="15" max="15" width="15.375" style="9" customWidth="1"/>
-    <col min="16" max="16384" width="11" style="9"/>
+    <col min="1" max="1" width="24.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="8"/>
+    <col min="3" max="3" width="31.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="6.75" style="8" customWidth="1"/>
+    <col min="8" max="9" width="11" style="8"/>
+    <col min="10" max="10" width="8.125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="8" customWidth="1"/>
+    <col min="12" max="13" width="11" style="8"/>
+    <col min="14" max="14" width="15.875" style="8" customWidth="1"/>
+    <col min="15" max="15" width="15.375" style="8" customWidth="1"/>
+    <col min="16" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="55" t="str">
+        <f>'!참조_ENUM'!E1</f>
+        <v>REWARD_TYPE</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="41" t="str">
+        <f>'!참조_ENUM'!E2</f>
+        <v>type</v>
+      </c>
+      <c r="B2" s="42" t="str">
+        <f>'!참조_ENUM'!F2</f>
+        <v>value</v>
+      </c>
+      <c r="C2" s="43" t="str">
+        <f>'!참조_ENUM'!G2</f>
+        <v>comment</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="38" t="str">
+        <f>'!참조_ENUM'!E3</f>
+        <v>NONE</v>
+      </c>
+      <c r="B3" s="39">
+        <f>'!참조_ENUM'!F3</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="38" t="str">
+        <f>'!참조_ENUM'!G3</f>
+        <v>NONE</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="38" t="str">
+        <f>'!참조_ENUM'!E4</f>
+        <v>GOLD</v>
+      </c>
+      <c r="B4" s="39">
+        <f>'!참조_ENUM'!F4</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="38" t="str">
+        <f>'!참조_ENUM'!G4</f>
+        <v>1 금화(게임내 사용되는 재화)</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="38" t="str">
+        <f>'!참조_ENUM'!E5</f>
+        <v>DIA</v>
+      </c>
+      <c r="B5" s="39">
+        <f>'!참조_ENUM'!F5</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="38" t="str">
+        <f>'!참조_ENUM'!G5</f>
+        <v>2 보석(게임내 사용되는 유료 재화)</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="38" t="str">
+        <f>'!참조_ENUM'!E6</f>
+        <v>STAMINA</v>
+      </c>
+      <c r="B6" s="39">
+        <f>'!참조_ENUM'!F6</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="38" t="str">
+        <f>'!참조_ENUM'!G6</f>
+        <v>3 스태미나</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="38" t="str">
+        <f>'!참조_ENUM'!E7</f>
+        <v>FAVORITE</v>
+      </c>
+      <c r="B7" s="39">
+        <f>'!참조_ENUM'!F7</f>
+        <v>4</v>
+      </c>
+      <c r="C7" s="38" t="str">
+        <f>'!참조_ENUM'!G7</f>
+        <v>4 호감도</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="38" t="str">
+        <f>'!참조_ENUM'!E8</f>
+        <v>EXP_PLAYER</v>
+      </c>
+      <c r="B8" s="39">
+        <f>'!참조_ENUM'!F8</f>
+        <v>5</v>
+      </c>
+      <c r="C8" s="38" t="str">
+        <f>'!참조_ENUM'!G8</f>
+        <v>5 플레이어 경험치</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="38" t="str">
+        <f>'!참조_ENUM'!E9</f>
+        <v>EXP_CHARACTER</v>
+      </c>
+      <c r="B9" s="39">
+        <f>'!참조_ENUM'!F9</f>
+        <v>6</v>
+      </c>
+      <c r="C9" s="38" t="str">
+        <f>'!참조_ENUM'!G9</f>
+        <v>6 캐릭터 경험치</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="48" t="str">
+        <f>'!참조_ENUM'!E10</f>
+        <v>CHARACTER</v>
+      </c>
+      <c r="B10" s="49">
+        <f>'!참조_ENUM'!F10</f>
+        <v>7</v>
+      </c>
+      <c r="C10" s="48" t="str">
+        <f>'!참조_ENUM'!G10</f>
+        <v>7 캐릭터</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="48" t="str">
+        <f>'!참조_ENUM'!E11</f>
+        <v>EQUIPMENT</v>
+      </c>
+      <c r="B11" s="49">
+        <f>'!참조_ENUM'!F11</f>
+        <v>8</v>
+      </c>
+      <c r="C11" s="48" t="str">
+        <f>'!참조_ENUM'!G11</f>
+        <v>6 장비</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="40" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
+      <c r="F11" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="38" t="str">
+        <f>'!참조_ENUM'!E12</f>
+        <v>SEND_ESSENCE</v>
+      </c>
+      <c r="B12" s="39">
+        <f>'!참조_ENUM'!F12</f>
+        <v>9</v>
+      </c>
+      <c r="C12" s="38" t="str">
+        <f>'!참조_ENUM'!G12</f>
+        <v>근원 전달 횟수(플레이어 보유)</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="38" t="str">
+        <f>'!참조_ENUM'!E13</f>
+        <v>GET_ESSENCE</v>
+      </c>
+      <c r="B13" s="39">
+        <f>'!참조_ENUM'!F13</f>
+        <v>10</v>
+      </c>
+      <c r="C13" s="38" t="str">
+        <f>'!참조_ENUM'!G13</f>
+        <v>근원 받을 수 있는 횟수(캐릭터 공용 설정)</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="38" t="str">
+        <f>'!참조_ENUM'!E14</f>
+        <v>EXP_POTION_P</v>
+      </c>
+      <c r="B14" s="39">
+        <f>'!참조_ENUM'!F14</f>
+        <v>101</v>
+      </c>
+      <c r="C14" s="38" t="str">
+        <f>'!참조_ENUM'!G14</f>
+        <v>101 플레이어 경험치 물약</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="38" t="str">
+        <f>'!참조_ENUM'!E15</f>
+        <v>EXP_POTION_C</v>
+      </c>
+      <c r="B15" s="39">
+        <f>'!참조_ENUM'!F15</f>
+        <v>102</v>
+      </c>
+      <c r="C15" s="38" t="str">
+        <f>'!참조_ENUM'!G15</f>
+        <v>102 캐릭터 경험치 물약</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="38" t="str">
+        <f>'!참조_ENUM'!E16</f>
+        <v>STA_POTION</v>
+      </c>
+      <c r="B16" s="39">
+        <f>'!참조_ENUM'!F16</f>
+        <v>103</v>
+      </c>
+      <c r="C16" s="38" t="str">
+        <f>'!참조_ENUM'!G16</f>
+        <v>103 스테미나 회복 물약</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="38" t="str">
+        <f>'!참조_ENUM'!E17</f>
+        <v>FAVORITE_ITEM</v>
+      </c>
+      <c r="B17" s="39">
+        <f>'!참조_ENUM'!F17</f>
+        <v>104</v>
+      </c>
+      <c r="C17" s="38" t="str">
+        <f>'!참조_ENUM'!G17</f>
+        <v>104 호감도 아이템</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="51" t="str">
+        <f>'!참조_ENUM'!E18</f>
+        <v>STAGE_SKIP</v>
+      </c>
+      <c r="B18" s="39">
+        <f>'!참조_ENUM'!F18</f>
+        <v>105</v>
+      </c>
+      <c r="C18" s="48" t="str">
+        <f>'!참조_ENUM'!G18</f>
+        <v>105 스테이지 스킵 티켓</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="51" t="str">
+        <f>'!참조_ENUM'!E19</f>
+        <v>TICKET_DUNGEON</v>
+      </c>
+      <c r="B19" s="39">
+        <f>'!참조_ENUM'!F19</f>
+        <v>106</v>
+      </c>
+      <c r="C19" s="48" t="str">
+        <f>'!참조_ENUM'!G19</f>
+        <v>106 던전 입장 티켓</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="51" t="str">
+        <f>'!참조_ENUM'!E20</f>
+        <v>EQ_GROWUP</v>
+      </c>
+      <c r="B20" s="39">
+        <f>'!참조_ENUM'!F20</f>
+        <v>107</v>
+      </c>
+      <c r="C20" s="48" t="str">
+        <f>'!참조_ENUM'!G20</f>
+        <v>107 정련석(장비 성장)</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="38" t="str">
+        <f>'!참조_ENUM'!E21</f>
+        <v>TICKET_REWARD_SELECT</v>
+      </c>
+      <c r="B21" s="39">
+        <f>'!참조_ENUM'!F21</f>
+        <v>108</v>
+      </c>
+      <c r="C21" s="38" t="str">
+        <f>'!참조_ENUM'!G21</f>
+        <v>109 보상 선택 티켓(1개를 선택 획득)</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="38" t="str">
+        <f>'!참조_ENUM'!E22</f>
+        <v>TICKET_REWARD_RANDOM</v>
+      </c>
+      <c r="B22" s="39">
+        <f>'!참조_ENUM'!F22</f>
+        <v>109</v>
+      </c>
+      <c r="C22" s="38" t="str">
+        <f>'!참조_ENUM'!G22</f>
+        <v>100 보상 랜덤 티켓(1개를 확률 획득)</v>
+      </c>
+      <c r="D22" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="E22" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="38" t="str">
+        <f>'!참조_ENUM'!E23</f>
+        <v>TICKET_REWARD_ALL</v>
+      </c>
+      <c r="B23" s="39">
+        <f>'!참조_ENUM'!F23</f>
+        <v>110</v>
+      </c>
+      <c r="C23" s="38" t="str">
+        <f>'!참조_ENUM'!G23</f>
+        <v>110 보상 패키지 티켓(모든 보상 획득)</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="38" t="str">
+        <f>'!참조_ENUM'!E24</f>
+        <v>PIECE_EQUIPMENT</v>
+      </c>
+      <c r="B24" s="39">
+        <f>'!참조_ENUM'!F24</f>
+        <v>111</v>
+      </c>
+      <c r="C24" s="38" t="str">
+        <f>'!참조_ENUM'!G24</f>
+        <v>111 장비 조각</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="38" t="str">
+        <f>'!참조_ENUM'!E25</f>
+        <v>PIECE_CHARACTER</v>
+      </c>
+      <c r="B25" s="39">
+        <f>'!참조_ENUM'!F25</f>
+        <v>112</v>
+      </c>
+      <c r="C25" s="38" t="str">
+        <f>'!참조_ENUM'!G25</f>
+        <v>112 캐릭터 조각</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="38" t="str">
+        <f>'!참조_ENUM'!E26</f>
+        <v>EXP_SKILL</v>
+      </c>
+      <c r="B26" s="39">
+        <f>'!참조_ENUM'!F26</f>
+        <v>113</v>
+      </c>
+      <c r="C26" s="38" t="str">
+        <f>'!참조_ENUM'!G26</f>
+        <v>113 스킬 경험치 아이템</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="47"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="13" t="s">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="14">
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="29"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="K32" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="19">
+        <v>1</v>
+      </c>
+      <c r="B33" s="20">
+        <v>1</v>
+      </c>
+      <c r="C33" s="20">
+        <v>1000</v>
+      </c>
+      <c r="D33" s="20">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="20">
         <v>0</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="14">
-        <v>1</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="18" t="s">
+      <c r="F33" s="20">
+        <v>1000000</v>
+      </c>
+      <c r="H33" s="21" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="13" t="s">
+      <c r="I33" s="21">
+        <f t="shared" ref="I33:I46" si="0">D33</f>
+        <v>1000</v>
+      </c>
+      <c r="J33" s="22" t="str">
+        <f t="shared" ref="J33:J51" si="1">IF(A33=0,0,F33/10000&amp;"%")</f>
+        <v>100%</v>
+      </c>
+      <c r="K33" s="21"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="23">
+        <v>1</v>
+      </c>
+      <c r="B34" s="23">
+        <v>103</v>
+      </c>
+      <c r="C34" s="23">
+        <v>17</v>
+      </c>
+      <c r="D34" s="23">
+        <v>5</v>
+      </c>
+      <c r="E34" s="23">
+        <v>0</v>
+      </c>
+      <c r="F34" s="20">
+        <v>1000000</v>
+      </c>
+      <c r="H34" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="14">
-        <v>2</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="14">
-        <v>3</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="14">
-        <v>4</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="14">
-        <v>5</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="14">
-        <v>6</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="20">
-        <v>7</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="20">
-        <v>8</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="14">
-        <v>101</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="14">
-        <v>102</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="14">
-        <v>103</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="14">
-        <v>104</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="14">
-        <v>105</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B17" s="14">
-        <v>106</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" s="14">
-        <v>107</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="B19" s="14">
-        <v>108</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="B20" s="14">
-        <v>109</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B21" s="14">
-        <v>110</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="14">
-        <v>111</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="47"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="I27" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="J27" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="K27" s="35" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="36">
-        <v>1</v>
-      </c>
-      <c r="B28" s="37">
-        <v>1</v>
-      </c>
-      <c r="C28" s="37">
-        <v>1000</v>
-      </c>
-      <c r="D28" s="37">
-        <v>1000</v>
-      </c>
-      <c r="E28" s="37">
-        <v>0</v>
-      </c>
-      <c r="F28" s="37">
-        <v>1000000</v>
-      </c>
-      <c r="H28" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="I28" s="38">
-        <f t="shared" ref="I28:I41" si="0">D28</f>
-        <v>1000</v>
-      </c>
-      <c r="J28" s="39" t="str">
-        <f t="shared" ref="J28:J46" si="1">IF(A28=0,0,F28/10000&amp;"%")</f>
-        <v>100%</v>
-      </c>
-      <c r="K28" s="38"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="40">
-        <v>1</v>
-      </c>
-      <c r="B29" s="40">
-        <v>103</v>
-      </c>
-      <c r="C29" s="40">
-        <v>17</v>
-      </c>
-      <c r="D29" s="40">
-        <v>5</v>
-      </c>
-      <c r="E29" s="40">
-        <v>0</v>
-      </c>
-      <c r="F29" s="37">
-        <v>1000000</v>
-      </c>
-      <c r="H29" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="I29" s="38">
+      <c r="I34" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J29" s="39" t="str">
+      <c r="J34" s="22" t="str">
         <f t="shared" si="1"/>
         <v>100%</v>
       </c>
-      <c r="K29" s="38"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="40">
-        <v>1</v>
-      </c>
-      <c r="B30" s="40">
+      <c r="K34" s="21"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="23">
+        <v>1</v>
+      </c>
+      <c r="B35" s="23">
         <v>110</v>
       </c>
-      <c r="C30" s="40">
+      <c r="C35" s="23">
         <v>10001</v>
       </c>
-      <c r="D30" s="40">
+      <c r="D35" s="23">
         <v>2</v>
       </c>
-      <c r="E30" s="40">
+      <c r="E35" s="23">
         <v>0</v>
       </c>
-      <c r="F30" s="40">
+      <c r="F35" s="23">
         <v>200000</v>
       </c>
-      <c r="H30" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="I30" s="38">
+      <c r="H35" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="I35" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J30" s="39" t="str">
+      <c r="J35" s="22" t="str">
         <f t="shared" si="1"/>
         <v>20%</v>
       </c>
-      <c r="K30" s="38"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="40">
-        <v>1</v>
-      </c>
-      <c r="B31" s="40">
+      <c r="K35" s="21"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="23">
+        <v>1</v>
+      </c>
+      <c r="B36" s="23">
         <v>110</v>
       </c>
-      <c r="C31" s="40">
+      <c r="C36" s="23">
         <v>11001</v>
       </c>
-      <c r="D31" s="40">
+      <c r="D36" s="23">
         <v>2</v>
       </c>
-      <c r="E31" s="40">
+      <c r="E36" s="23">
         <v>0</v>
       </c>
-      <c r="F31" s="40">
+      <c r="F36" s="23">
         <v>200000</v>
       </c>
-      <c r="H31" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="I31" s="38">
+      <c r="H36" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I36" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J31" s="39" t="str">
+      <c r="J36" s="22" t="str">
         <f t="shared" si="1"/>
         <v>20%</v>
       </c>
-      <c r="K31" s="38"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="40">
-        <v>1</v>
-      </c>
-      <c r="B32" s="40">
+      <c r="K36" s="21"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="23">
+        <v>1</v>
+      </c>
+      <c r="B37" s="23">
         <v>110</v>
       </c>
-      <c r="C32" s="40">
+      <c r="C37" s="23">
         <v>12001</v>
       </c>
-      <c r="D32" s="40">
+      <c r="D37" s="23">
         <v>2</v>
       </c>
-      <c r="E32" s="40">
+      <c r="E37" s="23">
         <v>0</v>
       </c>
-      <c r="F32" s="40">
+      <c r="F37" s="23">
         <v>200000</v>
       </c>
-      <c r="H32" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="I32" s="38">
+      <c r="H37" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I37" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J32" s="39" t="str">
+      <c r="J37" s="22" t="str">
         <f t="shared" si="1"/>
         <v>20%</v>
       </c>
-      <c r="K32" s="38"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="40">
-        <v>1</v>
-      </c>
-      <c r="B33" s="40">
+      <c r="K37" s="21"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="23">
+        <v>1</v>
+      </c>
+      <c r="B38" s="23">
         <v>110</v>
       </c>
-      <c r="C33" s="40">
+      <c r="C38" s="23">
         <v>13001</v>
       </c>
-      <c r="D33" s="40">
+      <c r="D38" s="23">
         <v>2</v>
       </c>
-      <c r="E33" s="40">
+      <c r="E38" s="23">
         <v>0</v>
       </c>
-      <c r="F33" s="40">
+      <c r="F38" s="23">
         <v>200000</v>
       </c>
-      <c r="H33" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="I33" s="38">
+      <c r="H38" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="I38" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J33" s="39" t="str">
+      <c r="J38" s="22" t="str">
         <f t="shared" si="1"/>
         <v>20%</v>
       </c>
-      <c r="K33" s="38"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="40">
-        <v>1</v>
-      </c>
-      <c r="B34" s="40">
+      <c r="K38" s="21"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="23">
+        <v>1</v>
+      </c>
+      <c r="B39" s="23">
         <v>110</v>
       </c>
-      <c r="C34" s="40">
+      <c r="C39" s="23">
         <v>14001</v>
       </c>
-      <c r="D34" s="40">
+      <c r="D39" s="23">
         <v>2</v>
       </c>
-      <c r="E34" s="40">
+      <c r="E39" s="23">
         <v>0</v>
       </c>
-      <c r="F34" s="40">
+      <c r="F39" s="23">
         <v>200000</v>
       </c>
-      <c r="H34" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="I34" s="38">
+      <c r="H39" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I39" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J34" s="39" t="str">
+      <c r="J39" s="22" t="str">
         <f t="shared" si="1"/>
         <v>20%</v>
       </c>
-      <c r="K34" s="38"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="40">
+      <c r="K39" s="21"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="23">
         <v>2</v>
       </c>
-      <c r="B35" s="37">
+      <c r="B40" s="20">
         <v>2</v>
       </c>
-      <c r="C35" s="37">
+      <c r="C40" s="20">
         <v>40</v>
       </c>
-      <c r="D35" s="37">
+      <c r="D40" s="20">
         <v>40</v>
       </c>
-      <c r="E35" s="37">
-        <v>1</v>
-      </c>
-      <c r="F35" s="40">
+      <c r="E40" s="20">
+        <v>1</v>
+      </c>
+      <c r="F40" s="23">
         <v>50000</v>
       </c>
-      <c r="H35" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="I35" s="41">
+      <c r="H40" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I40" s="24">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="J35" s="42" t="str">
+      <c r="J40" s="25" t="str">
         <f t="shared" si="1"/>
         <v>5%</v>
       </c>
-      <c r="K35" s="50" t="str">
-        <f>SUM(F35:F41)/10000&amp;"%"</f>
+      <c r="K40" s="32" t="str">
+        <f>SUM(F40:F46)/10000&amp;"%"</f>
         <v>100%</v>
       </c>
-      <c r="L35" s="53" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="40">
+      <c r="L40" s="35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="23">
         <v>2</v>
       </c>
-      <c r="B36" s="40">
+      <c r="B41" s="23">
         <v>103</v>
       </c>
-      <c r="C36" s="40">
+      <c r="C41" s="23">
         <v>17</v>
       </c>
-      <c r="D36" s="40">
+      <c r="D41" s="23">
         <v>5</v>
       </c>
-      <c r="E36" s="40">
-        <v>1</v>
-      </c>
-      <c r="F36" s="40">
+      <c r="E41" s="23">
+        <v>1</v>
+      </c>
+      <c r="F41" s="23">
         <v>200000</v>
       </c>
-      <c r="H36" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="I36" s="41">
+      <c r="H41" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I41" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J36" s="42" t="str">
+      <c r="J41" s="25" t="str">
         <f t="shared" si="1"/>
         <v>20%</v>
       </c>
-      <c r="K36" s="51"/>
-      <c r="L36" s="54"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="40">
+      <c r="K41" s="33"/>
+      <c r="L41" s="36"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="23">
         <v>2</v>
       </c>
-      <c r="B37" s="40">
+      <c r="B42" s="23">
         <v>110</v>
       </c>
-      <c r="C37" s="40">
+      <c r="C42" s="23">
         <v>10001</v>
       </c>
-      <c r="D37" s="40">
+      <c r="D42" s="23">
         <v>2</v>
       </c>
-      <c r="E37" s="40">
-        <v>1</v>
-      </c>
-      <c r="F37" s="40">
+      <c r="E42" s="23">
+        <v>1</v>
+      </c>
+      <c r="F42" s="23">
         <v>150000</v>
       </c>
-      <c r="H37" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="I37" s="41">
+      <c r="H42" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I42" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J37" s="42" t="str">
+      <c r="J42" s="25" t="str">
         <f t="shared" si="1"/>
         <v>15%</v>
       </c>
-      <c r="K37" s="51"/>
-      <c r="L37" s="54"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="40">
+      <c r="K42" s="33"/>
+      <c r="L42" s="36"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="23">
         <v>2</v>
       </c>
-      <c r="B38" s="40">
+      <c r="B43" s="23">
         <v>110</v>
       </c>
-      <c r="C38" s="40">
+      <c r="C43" s="23">
         <v>11001</v>
       </c>
-      <c r="D38" s="40">
+      <c r="D43" s="23">
         <v>2</v>
       </c>
-      <c r="E38" s="40">
-        <v>1</v>
-      </c>
-      <c r="F38" s="40">
+      <c r="E43" s="23">
+        <v>1</v>
+      </c>
+      <c r="F43" s="23">
         <v>150000</v>
       </c>
-      <c r="H38" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="I38" s="41">
+      <c r="H43" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I43" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J38" s="42" t="str">
+      <c r="J43" s="25" t="str">
         <f t="shared" si="1"/>
         <v>15%</v>
       </c>
-      <c r="K38" s="51"/>
-      <c r="L38" s="54"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="40">
+      <c r="K43" s="33"/>
+      <c r="L43" s="36"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="23">
         <v>2</v>
       </c>
-      <c r="B39" s="40">
+      <c r="B44" s="23">
         <v>110</v>
       </c>
-      <c r="C39" s="40">
+      <c r="C44" s="23">
         <v>12001</v>
       </c>
-      <c r="D39" s="40">
+      <c r="D44" s="23">
         <v>2</v>
       </c>
-      <c r="E39" s="40">
-        <v>1</v>
-      </c>
-      <c r="F39" s="40">
+      <c r="E44" s="23">
+        <v>1</v>
+      </c>
+      <c r="F44" s="23">
         <v>150000</v>
       </c>
-      <c r="H39" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="I39" s="41">
+      <c r="H44" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="I44" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J39" s="42" t="str">
+      <c r="J44" s="25" t="str">
         <f t="shared" si="1"/>
         <v>15%</v>
       </c>
-      <c r="K39" s="51"/>
-      <c r="L39" s="54"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="40">
+      <c r="K44" s="33"/>
+      <c r="L44" s="36"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="23">
         <v>2</v>
       </c>
-      <c r="B40" s="40">
+      <c r="B45" s="23">
         <v>110</v>
       </c>
-      <c r="C40" s="40">
+      <c r="C45" s="23">
         <v>13001</v>
       </c>
-      <c r="D40" s="40">
+      <c r="D45" s="23">
         <v>2</v>
       </c>
-      <c r="E40" s="40">
-        <v>1</v>
-      </c>
-      <c r="F40" s="40">
+      <c r="E45" s="23">
+        <v>1</v>
+      </c>
+      <c r="F45" s="23">
         <v>150000</v>
       </c>
-      <c r="H40" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="I40" s="41">
+      <c r="H45" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="I45" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J40" s="42" t="str">
+      <c r="J45" s="25" t="str">
         <f t="shared" si="1"/>
         <v>15%</v>
       </c>
-      <c r="K40" s="51"/>
-      <c r="L40" s="54"/>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="40">
+      <c r="K45" s="33"/>
+      <c r="L45" s="36"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="23">
         <v>2</v>
       </c>
-      <c r="B41" s="40">
+      <c r="B46" s="23">
         <v>110</v>
       </c>
-      <c r="C41" s="40">
+      <c r="C46" s="23">
         <v>14001</v>
       </c>
-      <c r="D41" s="40">
+      <c r="D46" s="23">
         <v>2</v>
       </c>
-      <c r="E41" s="40">
-        <v>1</v>
-      </c>
-      <c r="F41" s="40">
+      <c r="E46" s="23">
+        <v>1</v>
+      </c>
+      <c r="F46" s="23">
         <v>150000</v>
       </c>
-      <c r="H41" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="I41" s="41">
+      <c r="H46" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I46" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J41" s="42" t="str">
+      <c r="J46" s="25" t="str">
         <f t="shared" si="1"/>
         <v>15%</v>
       </c>
-      <c r="K41" s="52"/>
-      <c r="L41" s="54"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="40">
+      <c r="K46" s="34"/>
+      <c r="L46" s="36"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="23">
         <v>3</v>
       </c>
-      <c r="B42" s="40">
+      <c r="B47" s="23">
         <v>7</v>
       </c>
-      <c r="C42" s="40">
-        <v>1</v>
-      </c>
-      <c r="D42" s="40">
-        <v>1</v>
-      </c>
-      <c r="E42" s="40">
-        <v>1</v>
-      </c>
-      <c r="F42" s="40">
+      <c r="C47" s="23">
+        <v>1</v>
+      </c>
+      <c r="D47" s="23">
+        <v>1</v>
+      </c>
+      <c r="E47" s="23">
+        <v>1</v>
+      </c>
+      <c r="F47" s="23">
         <v>330000</v>
       </c>
-      <c r="H42" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="I42" s="43">
-        <v>1</v>
-      </c>
-      <c r="J42" s="44" t="str">
+      <c r="H47" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="I47" s="26">
+        <v>1</v>
+      </c>
+      <c r="J47" s="27" t="str">
         <f t="shared" si="1"/>
         <v>33%</v>
       </c>
-      <c r="K42" s="55" t="str">
-        <f>SUM(F42:F44)/10000&amp;"%"</f>
+      <c r="K47" s="37" t="str">
+        <f>SUM(F47:F49)/10000&amp;"%"</f>
         <v>100%</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="40">
+    <row r="48" spans="1:12">
+      <c r="A48" s="23">
         <v>3</v>
       </c>
-      <c r="B43" s="40">
+      <c r="B48" s="23">
         <v>7</v>
       </c>
-      <c r="C43" s="40">
+      <c r="C48" s="23">
         <v>2</v>
       </c>
-      <c r="D43" s="40">
-        <v>1</v>
-      </c>
-      <c r="E43" s="40">
-        <v>1</v>
-      </c>
-      <c r="F43" s="40">
+      <c r="D48" s="23">
+        <v>1</v>
+      </c>
+      <c r="E48" s="23">
+        <v>1</v>
+      </c>
+      <c r="F48" s="23">
         <v>330000</v>
       </c>
-      <c r="H43" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="I43" s="43">
-        <v>1</v>
-      </c>
-      <c r="J43" s="44" t="str">
+      <c r="H48" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="I48" s="26">
+        <v>1</v>
+      </c>
+      <c r="J48" s="27" t="str">
         <f t="shared" si="1"/>
         <v>33%</v>
       </c>
-      <c r="K43" s="51"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="40">
+      <c r="K48" s="33"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="23">
         <v>3</v>
       </c>
-      <c r="B44" s="40">
+      <c r="B49" s="23">
         <v>7</v>
       </c>
-      <c r="C44" s="40">
+      <c r="C49" s="23">
         <v>3</v>
       </c>
-      <c r="D44" s="40">
-        <v>1</v>
-      </c>
-      <c r="E44" s="40">
-        <v>1</v>
-      </c>
-      <c r="F44" s="40">
+      <c r="D49" s="23">
+        <v>1</v>
+      </c>
+      <c r="E49" s="23">
+        <v>1</v>
+      </c>
+      <c r="F49" s="23">
         <v>340000</v>
       </c>
-      <c r="H44" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="I44" s="43">
-        <v>1</v>
-      </c>
-      <c r="J44" s="44" t="str">
+      <c r="H49" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="I49" s="26">
+        <v>1</v>
+      </c>
+      <c r="J49" s="27" t="str">
         <f t="shared" si="1"/>
         <v>34%</v>
       </c>
-      <c r="K44" s="52"/>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="40"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="45">
+      <c r="K49" s="34"/>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="23"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="40"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="45">
+    <row r="51" spans="1:11">
+      <c r="A51" s="23"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2907,10 +3596,10 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="K35:K41"/>
-    <mergeCell ref="L35:L41"/>
-    <mergeCell ref="K42:K44"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="K40:K46"/>
+    <mergeCell ref="L40:L46"/>
+    <mergeCell ref="K47:K49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2920,10 +3609,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB92121-343E-422E-B3FA-27D4313C268C}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2941,8 +3630,8 @@
         <v>ITEM_TYPE</v>
       </c>
       <c r="E1" t="str">
-        <f>'[1]@goods_type'!$A$1</f>
-        <v>GOODS_TYPE</v>
+        <f>'[1]@reward_type'!$A$1</f>
+        <v>REWARD_TYPE</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2959,15 +3648,15 @@
         <v>comment</v>
       </c>
       <c r="E2" s="6" t="str">
-        <f>'[1]@goods_type'!$A3</f>
+        <f>'[1]@reward_type'!A3</f>
         <v>type</v>
       </c>
       <c r="F2" s="6" t="str">
-        <f>'[1]@goods_type'!$B3</f>
+        <f>'[1]@reward_type'!B3</f>
         <v>value</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f>'[1]@goods_type'!$C3</f>
+        <f>'[1]@reward_type'!C3</f>
         <v>comment</v>
       </c>
     </row>
@@ -2985,15 +3674,15 @@
         <v>NONE</v>
       </c>
       <c r="E3" s="5" t="str">
-        <f>'[1]@goods_type'!$A4</f>
+        <f>'[1]@reward_type'!A4</f>
         <v>NONE</v>
       </c>
       <c r="F3" s="5">
-        <f>'[1]@goods_type'!$B4</f>
+        <f>'[1]@reward_type'!B4</f>
         <v>0</v>
       </c>
       <c r="G3" s="5" t="str">
-        <f>'[1]@goods_type'!$C4</f>
+        <f>'[1]@reward_type'!C4</f>
         <v>NONE</v>
       </c>
     </row>
@@ -3011,15 +3700,15 @@
         <v>1 금화(게임내 사용되는 재화)</v>
       </c>
       <c r="E4" s="5" t="str">
-        <f>'[1]@goods_type'!$A5</f>
+        <f>'[1]@reward_type'!A5</f>
         <v>GOLD</v>
       </c>
       <c r="F4" s="5">
-        <f>'[1]@goods_type'!$B5</f>
+        <f>'[1]@reward_type'!B5</f>
         <v>1</v>
       </c>
       <c r="G4" s="5" t="str">
-        <f>'[1]@goods_type'!$C5</f>
+        <f>'[1]@reward_type'!C5</f>
         <v>1 금화(게임내 사용되는 재화)</v>
       </c>
     </row>
@@ -3037,15 +3726,15 @@
         <v>2 보석(게임내 사용되는 유료 재화)</v>
       </c>
       <c r="E5" s="5" t="str">
-        <f>'[1]@goods_type'!$A6</f>
+        <f>'[1]@reward_type'!A6</f>
         <v>DIA</v>
       </c>
       <c r="F5" s="5">
-        <f>'[1]@goods_type'!$B6</f>
+        <f>'[1]@reward_type'!B6</f>
         <v>2</v>
       </c>
       <c r="G5" s="5" t="str">
-        <f>'[1]@goods_type'!$C6</f>
+        <f>'[1]@reward_type'!C6</f>
         <v>2 보석(게임내 사용되는 유료 재화)</v>
       </c>
     </row>
@@ -3063,15 +3752,15 @@
         <v>3 던전 입장 티켓</v>
       </c>
       <c r="E6" s="5" t="str">
-        <f>'[1]@goods_type'!$A7</f>
+        <f>'[1]@reward_type'!A7</f>
         <v>STAMINA</v>
       </c>
       <c r="F6" s="5">
-        <f>'[1]@goods_type'!$B7</f>
+        <f>'[1]@reward_type'!B7</f>
         <v>3</v>
       </c>
       <c r="G6" s="5" t="str">
-        <f>'[1]@goods_type'!$C7</f>
+        <f>'[1]@reward_type'!C7</f>
         <v>3 스태미나</v>
       </c>
     </row>
@@ -3089,15 +3778,15 @@
         <v>4 캐릭터 조각</v>
       </c>
       <c r="E7" s="5" t="str">
-        <f>'[1]@goods_type'!$A8</f>
+        <f>'[1]@reward_type'!A8</f>
         <v>FAVORITE</v>
       </c>
       <c r="F7" s="5">
-        <f>'[1]@goods_type'!$B8</f>
+        <f>'[1]@reward_type'!B8</f>
         <v>4</v>
       </c>
       <c r="G7" s="5" t="str">
-        <f>'[1]@goods_type'!$C8</f>
+        <f>'[1]@reward_type'!C8</f>
         <v>4 호감도</v>
       </c>
     </row>
@@ -3115,15 +3804,15 @@
         <v>5 경험치 물약</v>
       </c>
       <c r="E8" s="5" t="str">
-        <f>'[1]@goods_type'!$A9</f>
+        <f>'[1]@reward_type'!A9</f>
         <v>EXP_PLAYER</v>
       </c>
       <c r="F8" s="5">
-        <f>'[1]@goods_type'!$B9</f>
+        <f>'[1]@reward_type'!B9</f>
         <v>5</v>
       </c>
       <c r="G8" s="5" t="str">
-        <f>'[1]@goods_type'!$C9</f>
+        <f>'[1]@reward_type'!C9</f>
         <v>5 플레이어 경험치</v>
       </c>
     </row>
@@ -3141,15 +3830,15 @@
         <v>6 스테미나 회복 물약</v>
       </c>
       <c r="E9" s="5" t="str">
-        <f>'[1]@goods_type'!$A10</f>
+        <f>'[1]@reward_type'!A10</f>
         <v>EXP_CHARACTER</v>
       </c>
       <c r="F9" s="5">
-        <f>'[1]@goods_type'!$B10</f>
+        <f>'[1]@reward_type'!B10</f>
         <v>6</v>
       </c>
       <c r="G9" s="5" t="str">
-        <f>'[1]@goods_type'!$C10</f>
+        <f>'[1]@reward_type'!C10</f>
         <v>6 캐릭터 경험치</v>
       </c>
     </row>
@@ -3167,15 +3856,15 @@
         <v>7 사용하지 않음</v>
       </c>
       <c r="E10" s="5" t="str">
-        <f>'[1]@goods_type'!$A11</f>
+        <f>'[1]@reward_type'!A11</f>
         <v>CHARACTER</v>
       </c>
       <c r="F10" s="5">
-        <f>'[1]@goods_type'!$B11</f>
+        <f>'[1]@reward_type'!B11</f>
         <v>7</v>
       </c>
       <c r="G10" s="5" t="str">
-        <f>'[1]@goods_type'!$C11</f>
+        <f>'[1]@reward_type'!C11</f>
         <v>7 캐릭터</v>
       </c>
     </row>
@@ -3193,15 +3882,15 @@
         <v>8 캐릭터 완전체</v>
       </c>
       <c r="E11" s="5" t="str">
-        <f>'[1]@goods_type'!$A12</f>
+        <f>'[1]@reward_type'!A12</f>
         <v>EQUIPMENT</v>
       </c>
       <c r="F11" s="5">
-        <f>'[1]@goods_type'!$B12</f>
+        <f>'[1]@reward_type'!B12</f>
         <v>8</v>
       </c>
       <c r="G11" s="5" t="str">
-        <f>'[1]@goods_type'!$C12</f>
+        <f>'[1]@reward_type'!C12</f>
         <v>6 장비</v>
       </c>
     </row>
@@ -3219,15 +3908,15 @@
         <v>9 각종 소모용 아이템</v>
       </c>
       <c r="E12" s="5" t="str">
-        <f>'[1]@goods_type'!$A13</f>
+        <f>'[1]@reward_type'!A13</f>
         <v>SEND_ESSENCE</v>
       </c>
       <c r="F12" s="5">
-        <f>'[1]@goods_type'!$B13</f>
+        <f>'[1]@reward_type'!B13</f>
         <v>9</v>
       </c>
       <c r="G12" s="5" t="str">
-        <f>'[1]@goods_type'!$C13</f>
+        <f>'[1]@reward_type'!C13</f>
         <v>근원 전달 횟수(플레이어 보유)</v>
       </c>
     </row>
@@ -3245,15 +3934,15 @@
         <v>10 장비</v>
       </c>
       <c r="E13" s="5" t="str">
-        <f>'[1]@goods_type'!$A14</f>
+        <f>'[1]@reward_type'!A14</f>
         <v>GET_ESSENCE</v>
       </c>
       <c r="F13" s="5">
-        <f>'[1]@goods_type'!$B14</f>
+        <f>'[1]@reward_type'!B14</f>
         <v>10</v>
       </c>
       <c r="G13" s="5" t="str">
-        <f>'[1]@goods_type'!$C14</f>
+        <f>'[1]@reward_type'!C14</f>
         <v>근원 받을 수 있는 횟수(캐릭터 공용 설정)</v>
       </c>
     </row>
@@ -3271,16 +3960,16 @@
         <v>11 호감도 아이템</v>
       </c>
       <c r="E14" s="5" t="str">
-        <f>'[1]@goods_type'!$A15</f>
-        <v>EXP_POTION</v>
+        <f>'[1]@reward_type'!A15</f>
+        <v>EXP_POTION_P</v>
       </c>
       <c r="F14" s="5">
-        <f>'[1]@goods_type'!$B15</f>
+        <f>'[1]@reward_type'!B15</f>
         <v>101</v>
       </c>
       <c r="G14" s="5" t="str">
-        <f>'[1]@goods_type'!$C15</f>
-        <v>101 경험치 물약</v>
+        <f>'[1]@reward_type'!C15</f>
+        <v>101 플레이어 경험치 물약</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3297,142 +3986,170 @@
         <v>12 스태미나</v>
       </c>
       <c r="E15" s="5" t="str">
-        <f>'[1]@goods_type'!$A16</f>
-        <v>STA_POTION</v>
+        <f>'[1]@reward_type'!A16</f>
+        <v>EXP_POTION_C</v>
       </c>
       <c r="F15" s="5">
-        <f>'[1]@goods_type'!$B16</f>
+        <f>'[1]@reward_type'!B16</f>
         <v>102</v>
       </c>
       <c r="G15" s="5" t="str">
-        <f>'[1]@goods_type'!$C16</f>
-        <v>102 스테미나 회복 물약</v>
+        <f>'[1]@reward_type'!C16</f>
+        <v>102 캐릭터 경험치 물약</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="E16" s="5" t="str">
-        <f>'[1]@goods_type'!$A17</f>
-        <v>FAVORITE_ITEM</v>
+        <f>'[1]@reward_type'!A17</f>
+        <v>STA_POTION</v>
       </c>
       <c r="F16" s="5">
-        <f>'[1]@goods_type'!$B17</f>
+        <f>'[1]@reward_type'!B17</f>
         <v>103</v>
       </c>
       <c r="G16" s="5" t="str">
-        <f>'[1]@goods_type'!$C17</f>
-        <v>103 호감도 아이템</v>
+        <f>'[1]@reward_type'!C17</f>
+        <v>103 스테미나 회복 물약</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" s="5" t="str">
-        <f>'[1]@goods_type'!$A18</f>
-        <v>STAGE_SKIP</v>
+        <f>'[1]@reward_type'!A18</f>
+        <v>FAVORITE_ITEM</v>
       </c>
       <c r="F17" s="5">
-        <f>'[1]@goods_type'!$B18</f>
+        <f>'[1]@reward_type'!B18</f>
         <v>104</v>
       </c>
       <c r="G17" s="5" t="str">
-        <f>'[1]@goods_type'!$C18</f>
-        <v>104 스테이지 스킵 티켓</v>
+        <f>'[1]@reward_type'!C18</f>
+        <v>104 호감도 아이템</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" s="5" t="str">
-        <f>'[1]@goods_type'!$A19</f>
-        <v>TICKET_DUNGEON</v>
+        <f>'[1]@reward_type'!A19</f>
+        <v>STAGE_SKIP</v>
       </c>
       <c r="F18" s="5">
-        <f>'[1]@goods_type'!$B19</f>
+        <f>'[1]@reward_type'!B19</f>
         <v>105</v>
       </c>
       <c r="G18" s="5" t="str">
-        <f>'[1]@goods_type'!$C19</f>
-        <v>105 던전 입장 티켓</v>
+        <f>'[1]@reward_type'!C19</f>
+        <v>105 스테이지 스킵 티켓</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" s="5" t="str">
-        <f>'[1]@goods_type'!$A20</f>
-        <v>EQ_GROWUP</v>
+        <f>'[1]@reward_type'!A20</f>
+        <v>TICKET_DUNGEON</v>
       </c>
       <c r="F19" s="5">
-        <f>'[1]@goods_type'!$B20</f>
+        <f>'[1]@reward_type'!B20</f>
         <v>106</v>
       </c>
       <c r="G19" s="5" t="str">
-        <f>'[1]@goods_type'!$C20</f>
-        <v>106 정련석(장비 성장)</v>
+        <f>'[1]@reward_type'!C20</f>
+        <v>106 던전 입장 티켓</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" s="5" t="str">
-        <f>'[1]@goods_type'!$A21</f>
-        <v>TICKET_REWARD_SELECT</v>
+        <f>'[1]@reward_type'!A21</f>
+        <v>EQ_GROWUP</v>
       </c>
       <c r="F20" s="5">
-        <f>'[1]@goods_type'!$B21</f>
+        <f>'[1]@reward_type'!B21</f>
         <v>107</v>
       </c>
       <c r="G20" s="5" t="str">
-        <f>'[1]@goods_type'!$C21</f>
-        <v>107 보상 선택 티켓(1개를 선택 획득)</v>
+        <f>'[1]@reward_type'!C21</f>
+        <v>107 정련석(장비 성장)</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" s="5" t="str">
-        <f>'[1]@goods_type'!$A22</f>
-        <v>TICKET_REWARD_RANDOM</v>
+        <f>'[1]@reward_type'!A22</f>
+        <v>TICKET_REWARD_SELECT</v>
       </c>
       <c r="F21" s="5">
-        <f>'[1]@goods_type'!$B22</f>
+        <f>'[1]@reward_type'!B22</f>
         <v>108</v>
       </c>
       <c r="G21" s="5" t="str">
-        <f>'[1]@goods_type'!$C22</f>
-        <v>108 보상 랜덤 티켓(1개를 확률 획득)</v>
+        <f>'[1]@reward_type'!C22</f>
+        <v>109 보상 선택 티켓(1개를 선택 획득)</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" s="5" t="str">
-        <f>'[1]@goods_type'!$A23</f>
-        <v>TICKET_REWARD_ALL</v>
+        <f>'[1]@reward_type'!A23</f>
+        <v>TICKET_REWARD_RANDOM</v>
       </c>
       <c r="F22" s="5">
-        <f>'[1]@goods_type'!$B23</f>
+        <f>'[1]@reward_type'!B23</f>
         <v>109</v>
       </c>
       <c r="G22" s="5" t="str">
-        <f>'[1]@goods_type'!$C23</f>
-        <v>109 보상 패키지 티켓(모든 보상 획득)</v>
+        <f>'[1]@reward_type'!C23</f>
+        <v>100 보상 랜덤 티켓(1개를 확률 획득)</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" s="5" t="str">
-        <f>'[1]@goods_type'!$A24</f>
-        <v>PIECE_EQUIPMENT</v>
+        <f>'[1]@reward_type'!A24</f>
+        <v>TICKET_REWARD_ALL</v>
       </c>
       <c r="F23" s="5">
-        <f>'[1]@goods_type'!$B24</f>
+        <f>'[1]@reward_type'!B24</f>
         <v>110</v>
       </c>
       <c r="G23" s="5" t="str">
-        <f>'[1]@goods_type'!$C24</f>
-        <v>110 장비 조각</v>
+        <f>'[1]@reward_type'!C24</f>
+        <v>110 보상 패키지 티켓(모든 보상 획득)</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" s="5" t="str">
-        <f>'[1]@goods_type'!$A25</f>
+        <f>'[1]@reward_type'!A25</f>
+        <v>PIECE_EQUIPMENT</v>
+      </c>
+      <c r="F24" s="5">
+        <f>'[1]@reward_type'!B25</f>
+        <v>111</v>
+      </c>
+      <c r="G24" s="5" t="str">
+        <f>'[1]@reward_type'!C25</f>
+        <v>111 장비 조각</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7">
+      <c r="E25" s="5" t="str">
+        <f>'[1]@reward_type'!A26</f>
         <v>PIECE_CHARACTER</v>
       </c>
-      <c r="F24" s="5">
-        <f>'[1]@goods_type'!$B25</f>
-        <v>111</v>
-      </c>
-      <c r="G24" s="5" t="str">
-        <f>'[1]@goods_type'!$C25</f>
-        <v>111 캐릭터 조각</v>
+      <c r="F25" s="5">
+        <f>'[1]@reward_type'!B26</f>
+        <v>112</v>
+      </c>
+      <c r="G25" s="5" t="str">
+        <f>'[1]@reward_type'!C26</f>
+        <v>112 캐릭터 조각</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7">
+      <c r="E26" s="5" t="str">
+        <f>'[1]@reward_type'!A27</f>
+        <v>EXP_SKILL</v>
+      </c>
+      <c r="F26" s="5">
+        <f>'[1]@reward_type'!B27</f>
+        <v>113</v>
+      </c>
+      <c r="G26" s="5" t="str">
+        <f>'[1]@reward_type'!C27</f>
+        <v>113 스킬 경험치 아이템</v>
       </c>
     </row>
   </sheetData>
@@ -3443,10 +4160,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF298A1-BFB8-4655-A89A-928C8402A01E}">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3602,10 +4322,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384A2924-9692-4A94-A417-5B1443989758}">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3777,10 +4500,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AB3843-EB72-489A-81FD-0084314386F7}">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3950,11 +4676,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA56BF33-0599-44CF-8176-19546E225369}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA56BF33-0599-44CF-8176-19546E225369}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4008,10 +4734,10 @@
         <v>48</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>48</v>
@@ -4026,45 +4752,45 @@
         <v>48</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>48</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4072,17 +4798,17 @@
         <v>1</v>
       </c>
       <c r="B5" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$24,MATCH(C5,'!참조_ENUM'!$G$3:$G$24,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(C5,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="5">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E5" s="5">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
@@ -4091,13 +4817,14 @@
         <v>1000000</v>
       </c>
       <c r="H5" s="5" t="b">
+        <f>IF(I5&gt;0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="I5" s="5">
         <v>1</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4105,17 +4832,17 @@
         <v>1</v>
       </c>
       <c r="B6" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$24,MATCH(C6,'!참조_ENUM'!$G$3:$G$24,0))</f>
-        <v>103</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(C6,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>113</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="D6" s="5">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="E6" s="5">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="F6" s="5">
         <v>0</v>
@@ -4124,13 +4851,14 @@
         <v>1000000</v>
       </c>
       <c r="H6" s="5" t="b">
-        <v>1</v>
+        <f t="shared" ref="H6:H8" si="0">IF(I6&gt;0,TRUE,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="I6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4138,29 +4866,30 @@
         <v>1</v>
       </c>
       <c r="B7" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$24,MATCH(C7,'!참조_ENUM'!$G$3:$G$24,0))</f>
-        <v>110</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(C7,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>102</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="D7" s="5">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="E7" s="5">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="F7" s="5">
         <v>0</v>
       </c>
       <c r="G7" s="5">
-        <v>1000000</v>
+        <v>200000</v>
       </c>
       <c r="H7" s="5" t="b">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I7" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="5"/>
     </row>
@@ -4169,48 +4898,49 @@
         <v>1</v>
       </c>
       <c r="B8" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$24,MATCH(C8,'!참조_ENUM'!$G$3:$G$24,0))</f>
-        <v>110</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(C8,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>112</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="D8" s="5">
-        <v>1000</v>
+        <v>11001</v>
       </c>
       <c r="E8" s="5">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
       </c>
       <c r="G8" s="5">
-        <v>1000000</v>
+        <v>200000</v>
       </c>
       <c r="H8" s="5" t="b">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I8" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$24,MATCH(C9,'!참조_ENUM'!$G$3:$G$24,0))</f>
-        <v>110</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(C9,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D9" s="5">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E9" s="5">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F9" s="5">
         <v>0</v>
@@ -4219,6 +4949,7 @@
         <v>1000000</v>
       </c>
       <c r="H9" s="5" t="b">
+        <f>IF(I9&gt;0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="I9" s="5">
@@ -4228,20 +4959,20 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$24,MATCH(C10,'!참조_ENUM'!$G$3:$G$24,0))</f>
-        <v>110</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(C10,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>113</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D10" s="5">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="E10" s="5">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="F10" s="5">
         <v>0</v>
@@ -4250,363 +4981,196 @@
         <v>1000000</v>
       </c>
       <c r="H10" s="5" t="b">
-        <v>1</v>
+        <f t="shared" ref="H10:H12" si="1">IF(I10&gt;0,TRUE,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="I10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$24,MATCH(C11,'!참조_ENUM'!$G$3:$G$24,0))</f>
-        <v>110</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(C11,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>102</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="D11" s="5">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="E11" s="5">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="F11" s="5">
         <v>0</v>
       </c>
       <c r="G11" s="5">
-        <v>1000000</v>
+        <v>200000</v>
       </c>
       <c r="H11" s="5" t="b">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I11" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$24,MATCH(C12,'!참조_ENUM'!$G$3:$G$24,0))</f>
-        <v>2</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(C12,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>112</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="D12" s="5">
-        <v>1000</v>
+        <v>11002</v>
       </c>
       <c r="E12" s="5">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F12" s="5">
         <v>0</v>
       </c>
       <c r="G12" s="5">
-        <v>1000000</v>
+        <v>200000</v>
       </c>
       <c r="H12" s="5" t="b">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="5">
-        <v>1</v>
-      </c>
-      <c r="B13" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$24,MATCH(C13,'!참조_ENUM'!$G$3:$G$24,0))</f>
-        <v>103</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1000</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="H13" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="5">
-        <v>1</v>
-      </c>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="5">
-        <v>1</v>
-      </c>
-      <c r="B14" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$24,MATCH(C14,'!참조_ENUM'!$G$3:$G$24,0))</f>
-        <v>110</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1000</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="H14" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" s="5">
-        <v>1</v>
-      </c>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="5">
-        <v>1</v>
-      </c>
-      <c r="B15" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$24,MATCH(C15,'!참조_ENUM'!$G$3:$G$24,0))</f>
-        <v>110</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1000</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="H15" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="5">
-        <v>1</v>
-      </c>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="5">
-        <v>1</v>
-      </c>
-      <c r="B16" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$24,MATCH(C16,'!참조_ENUM'!$G$3:$G$24,0))</f>
-        <v>110</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1000</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="H16" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" s="5">
-        <v>1</v>
-      </c>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="5">
-        <v>1</v>
-      </c>
-      <c r="B17" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$24,MATCH(C17,'!참조_ENUM'!$G$3:$G$24,0))</f>
-        <v>110</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1000</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="H17" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="5">
-        <v>1</v>
-      </c>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="5">
-        <v>1</v>
-      </c>
-      <c r="B18" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$24,MATCH(C18,'!참조_ENUM'!$G$3:$G$24,0))</f>
-        <v>110</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1000</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0</v>
-      </c>
-      <c r="G18" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="H18" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="5">
-        <v>1</v>
-      </c>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="5">
-        <v>1</v>
-      </c>
-      <c r="B19" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$24,MATCH(C19,'!참조_ENUM'!$G$3:$G$24,0))</f>
-        <v>7</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1000</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="H19" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="5">
-        <v>1</v>
-      </c>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="5">
-        <v>1</v>
-      </c>
-      <c r="B20" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$24,MATCH(C20,'!참조_ENUM'!$G$3:$G$24,0))</f>
-        <v>7</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E20" s="5">
-        <v>1000</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="H20" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="5">
-        <v>1</v>
-      </c>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="5">
-        <v>1</v>
-      </c>
-      <c r="B21" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$24,MATCH(C21,'!참조_ENUM'!$G$3:$G$24,0))</f>
-        <v>7</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E21" s="5">
-        <v>1000</v>
-      </c>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-      <c r="G21" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="H21" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="5">
-        <v>1</v>
-      </c>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5089D60F-748C-4AF7-9852-57B3BD0B8B84}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BEC3969E-03AC-433B-B57B-D65FFD6FE8AA}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$G$3:$G$24</xm:f>
+            <xm:f>'!참조_ENUM'!$G$3:$G$50</xm:f>
           </x14:formula1>
           <xm:sqref>C5:C21</xm:sqref>
         </x14:dataValidation>

--- a/Android/ExcelData/RewardTable.xlsx
+++ b/Android/ExcelData/RewardTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C460B458-099D-4677-AEE9-811F9C3A9842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB08840-DB94-4E93-BC41-546B662173E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43470" yWindow="2700" windowWidth="29295" windowHeight="16530" activeTab="5" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
+    <workbookView xWindow="43845" yWindow="360" windowWidth="32580" windowHeight="19980" activeTab="5" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
   </bookViews>
   <sheets>
     <sheet name="!사용 설명" sheetId="6" r:id="rId1"/>
@@ -85,10 +85,24 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={E653A725-FF22-4016-B316-63AE3A695378}</author>
     <author>Rown</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{2863E19D-DF4D-4B12-ADEA-11734CCFD3FF}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{E653A725-FF22-4016-B316-63AE3A695378}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    1010010 으로 사용
+컨텐츠 : 1 (스테이지 : 1, 이벤트 2, 보스 3 등)
+보상 타입 : 10 (0 : 통상, 1 : 초회, 2 : 별 달성)
+존 : 10001 (001번~999번)
+난이도 : 100010 ( 0: 노말/ 1 : 하드/ 2 : 베리하드)
+스테이지 번호 : 10001001(01~99)</t>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="1" shapeId="0" xr:uid="{2863E19D-DF4D-4B12-ADEA-11734CCFD3FF}">
       <text>
         <r>
           <rPr>
@@ -371,7 +385,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="107">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -528,9 +542,6 @@
     <t>보상 타입</t>
   </si>
   <si>
-    <t>보상 타입(기획)</t>
-  </si>
-  <si>
     <t>변수1</t>
   </si>
   <si>
@@ -589,15 +600,6 @@
   </si>
   <si>
     <t>#info</t>
-  </si>
-  <si>
-    <t>1 금화(게임내 사용되는 재화)</t>
-  </si>
-  <si>
-    <t>스테이지에 적용되는 보상인 경우 왼쪽부터 1번 사용</t>
-  </si>
-  <si>
-    <t>메일, 미션에 사용하는 보상인 경우 상단 부터 1번 사용</t>
   </si>
   <si>
     <t>reward_set 테이블에서 변수 사용 설정</t>
@@ -684,9 +686,6 @@
     <t>102 캐릭터 경험치 물약</t>
   </si>
   <si>
-    <t>112 캐릭터 조각</t>
-  </si>
-  <si>
     <t>113 스킬 경험치 아이템</t>
   </si>
   <si>
@@ -737,12 +736,34 @@
     <t>&lt;&lt; 캐릭터 ID를 보상으로 지급. 만약, 이미 보유한 캐릭터일 경우 1개의 캐릭터를 만들기 위한 캐릭터 조각 수량으로 치환하여 지급</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>6 장비</t>
+  </si>
+  <si>
+    <t>2 보석(게임내 사용되는 유료 재화)</t>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상 타입(기획)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상 지급 위치(기획)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상 타입 요약(기획)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -862,8 +883,14 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -963,6 +990,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1127,7 +1166,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1189,23 +1228,6 @@
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1222,10 +1244,6 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1244,6 +1262,39 @@
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1290,6 +1341,7 @@
       <sheetName val="@skill_type"/>
       <sheetName val="@item_type"/>
       <sheetName val="@Limit"/>
+      <sheetName val="@item_type_v2"/>
       <sheetName val="@goods_type"/>
       <sheetName val="@piece_type"/>
       <sheetName val="@eqipment_type"/>
@@ -1298,6 +1350,8 @@
       <sheetName val="@charge_type"/>
       <sheetName val="@reward_type"/>
       <sheetName val="@effect_count_type"/>
+      <sheetName val="@sd_body_type"/>
+      <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1481,14 +1535,45 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
+      <sheetData sheetId="21">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>LIMIT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="22">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ITEM_TYPE_V2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="23">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>GOODS_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="24">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="25">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
-      <sheetData sheetId="28">
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29">
         <row r="1">
           <cell r="A1" t="str">
             <v>REWARD_TYPE</v>
@@ -1770,10 +1855,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="예림 김" id="{A4FEC70C-EDE5-4E2F-9C4C-FEA4AEB32830}" userId="e5ea80ba949d36f3" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2071,12 +2164,25 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A2" dT="2024-01-18T05:32:16.49" personId="{A4FEC70C-EDE5-4E2F-9C4C-FEA4AEB32830}" id="{E653A725-FF22-4016-B316-63AE3A695378}">
+    <text>1010010 으로 사용
+컨텐츠 : 1 (스테이지 : 1, 이벤트 2, 보스 3 등)
+보상 타입 : 10 (0 : 통상, 1 : 초회, 2 : 별 달성)
+존 : 10001 (001번~999번)
+난이도 : 100010 ( 0: 노말/ 1 : 하드/ 2 : 베리하드)
+스테이지 번호 : 10001001(01~99)</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6C6356-D67F-4E24-8961-CC2F6C806F55}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -2098,834 +2204,834 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="55" t="str">
+      <c r="A1" s="44" t="str">
         <f>'!참조_ENUM'!E1</f>
         <v>REWARD_TYPE</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="41" t="str">
+      <c r="A2" s="32" t="str">
         <f>'!참조_ENUM'!E2</f>
         <v>type</v>
       </c>
-      <c r="B2" s="42" t="str">
+      <c r="B2" s="33" t="str">
         <f>'!참조_ENUM'!F2</f>
         <v>value</v>
       </c>
-      <c r="C2" s="43" t="str">
+      <c r="C2" s="34" t="str">
         <f>'!참조_ENUM'!G2</f>
         <v>comment</v>
       </c>
-      <c r="D2" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
+      <c r="D2" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="38" t="str">
+      <c r="A3" s="29" t="str">
         <f>'!참조_ENUM'!E3</f>
         <v>NONE</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="30">
         <f>'!참조_ENUM'!F3</f>
         <v>0</v>
       </c>
-      <c r="C3" s="38" t="str">
+      <c r="C3" s="29" t="str">
         <f>'!참조_ENUM'!G3</f>
         <v>NONE</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="38" t="str">
+      <c r="A4" s="29" t="str">
         <f>'!참조_ENUM'!E4</f>
         <v>GOLD</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="30">
         <f>'!참조_ENUM'!F4</f>
         <v>1</v>
       </c>
-      <c r="C4" s="38" t="str">
+      <c r="C4" s="29" t="str">
         <f>'!참조_ENUM'!G4</f>
         <v>1 금화(게임내 사용되는 재화)</v>
       </c>
-      <c r="D4" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
+      <c r="D4" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="38" t="str">
+      <c r="A5" s="29" t="str">
         <f>'!참조_ENUM'!E5</f>
         <v>DIA</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="30">
         <f>'!참조_ENUM'!F5</f>
         <v>2</v>
       </c>
-      <c r="C5" s="38" t="str">
+      <c r="C5" s="29" t="str">
         <f>'!참조_ENUM'!G5</f>
         <v>2 보석(게임내 사용되는 유료 재화)</v>
       </c>
-      <c r="D5" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
+      <c r="D5" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="38" t="str">
+      <c r="A6" s="29" t="str">
         <f>'!참조_ENUM'!E6</f>
         <v>STAMINA</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="30">
         <f>'!참조_ENUM'!F6</f>
         <v>3</v>
       </c>
-      <c r="C6" s="38" t="str">
+      <c r="C6" s="29" t="str">
         <f>'!참조_ENUM'!G6</f>
         <v>3 스태미나</v>
       </c>
-      <c r="D6" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
+      <c r="D6" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="38" t="str">
+      <c r="A7" s="29" t="str">
         <f>'!참조_ENUM'!E7</f>
         <v>FAVORITE</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="30">
         <f>'!참조_ENUM'!F7</f>
         <v>4</v>
       </c>
-      <c r="C7" s="38" t="str">
+      <c r="C7" s="29" t="str">
         <f>'!참조_ENUM'!G7</f>
         <v>4 호감도</v>
       </c>
-      <c r="D7" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
+      <c r="D7" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="38" t="str">
+      <c r="A8" s="29" t="str">
         <f>'!참조_ENUM'!E8</f>
         <v>EXP_PLAYER</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="30">
         <f>'!참조_ENUM'!F8</f>
         <v>5</v>
       </c>
-      <c r="C8" s="38" t="str">
+      <c r="C8" s="29" t="str">
         <f>'!참조_ENUM'!G8</f>
         <v>5 플레이어 경험치</v>
       </c>
-      <c r="D8" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
+      <c r="D8" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="38" t="str">
+      <c r="A9" s="29" t="str">
         <f>'!참조_ENUM'!E9</f>
         <v>EXP_CHARACTER</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="30">
         <f>'!참조_ENUM'!F9</f>
         <v>6</v>
       </c>
-      <c r="C9" s="38" t="str">
+      <c r="C9" s="29" t="str">
         <f>'!참조_ENUM'!G9</f>
         <v>6 캐릭터 경험치</v>
       </c>
-      <c r="D9" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
+      <c r="D9" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="48" t="str">
+      <c r="A10" s="37" t="str">
         <f>'!참조_ENUM'!E10</f>
         <v>CHARACTER</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B10" s="38">
         <f>'!참조_ENUM'!F10</f>
         <v>7</v>
       </c>
-      <c r="C10" s="48" t="str">
+      <c r="C10" s="37" t="str">
         <f>'!참조_ENUM'!G10</f>
         <v>7 캐릭터</v>
       </c>
-      <c r="D10" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
+      <c r="D10" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="48" t="str">
+      <c r="A11" s="37" t="str">
         <f>'!참조_ENUM'!E11</f>
         <v>EQUIPMENT</v>
       </c>
-      <c r="B11" s="49">
+      <c r="B11" s="38">
         <f>'!참조_ENUM'!F11</f>
         <v>8</v>
       </c>
-      <c r="C11" s="48" t="str">
+      <c r="C11" s="37" t="str">
         <f>'!참조_ENUM'!G11</f>
         <v>6 장비</v>
       </c>
-      <c r="D11" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
+      <c r="D11" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="38" t="str">
+      <c r="A12" s="29" t="str">
         <f>'!참조_ENUM'!E12</f>
         <v>SEND_ESSENCE</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="30">
         <f>'!참조_ENUM'!F12</f>
         <v>9</v>
       </c>
-      <c r="C12" s="38" t="str">
+      <c r="C12" s="29" t="str">
         <f>'!참조_ENUM'!G12</f>
         <v>근원 전달 횟수(플레이어 보유)</v>
       </c>
-      <c r="D12" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
+      <c r="D12" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="38" t="str">
+      <c r="A13" s="29" t="str">
         <f>'!참조_ENUM'!E13</f>
         <v>GET_ESSENCE</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="30">
         <f>'!참조_ENUM'!F13</f>
         <v>10</v>
       </c>
-      <c r="C13" s="38" t="str">
+      <c r="C13" s="29" t="str">
         <f>'!참조_ENUM'!G13</f>
         <v>근원 받을 수 있는 횟수(캐릭터 공용 설정)</v>
       </c>
-      <c r="D13" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
+      <c r="D13" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="38" t="str">
+      <c r="A14" s="29" t="str">
         <f>'!참조_ENUM'!E14</f>
         <v>EXP_POTION_P</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="30">
         <f>'!참조_ENUM'!F14</f>
         <v>101</v>
       </c>
-      <c r="C14" s="38" t="str">
+      <c r="C14" s="29" t="str">
         <f>'!참조_ENUM'!G14</f>
         <v>101 플레이어 경험치 물약</v>
       </c>
-      <c r="D14" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
+      <c r="D14" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="38" t="str">
+      <c r="A15" s="29" t="str">
         <f>'!참조_ENUM'!E15</f>
         <v>EXP_POTION_C</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="30">
         <f>'!참조_ENUM'!F15</f>
         <v>102</v>
       </c>
-      <c r="C15" s="38" t="str">
+      <c r="C15" s="29" t="str">
         <f>'!참조_ENUM'!G15</f>
         <v>102 캐릭터 경험치 물약</v>
       </c>
-      <c r="D15" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
+      <c r="D15" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="38" t="str">
+      <c r="A16" s="29" t="str">
         <f>'!참조_ENUM'!E16</f>
         <v>STA_POTION</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B16" s="30">
         <f>'!참조_ENUM'!F16</f>
         <v>103</v>
       </c>
-      <c r="C16" s="38" t="str">
+      <c r="C16" s="29" t="str">
         <f>'!참조_ENUM'!G16</f>
         <v>103 스테미나 회복 물약</v>
       </c>
-      <c r="D16" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
+      <c r="D16" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="38" t="str">
+      <c r="A17" s="29" t="str">
         <f>'!참조_ENUM'!E17</f>
         <v>FAVORITE_ITEM</v>
       </c>
-      <c r="B17" s="39">
+      <c r="B17" s="30">
         <f>'!참조_ENUM'!F17</f>
         <v>104</v>
       </c>
-      <c r="C17" s="38" t="str">
+      <c r="C17" s="29" t="str">
         <f>'!참조_ENUM'!G17</f>
         <v>104 호감도 아이템</v>
       </c>
-      <c r="D17" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
+      <c r="D17" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="51" t="str">
+      <c r="A18" s="40" t="str">
         <f>'!참조_ENUM'!E18</f>
         <v>STAGE_SKIP</v>
       </c>
-      <c r="B18" s="39">
+      <c r="B18" s="30">
         <f>'!참조_ENUM'!F18</f>
         <v>105</v>
       </c>
-      <c r="C18" s="48" t="str">
+      <c r="C18" s="37" t="str">
         <f>'!참조_ENUM'!G18</f>
         <v>105 스테이지 스킵 티켓</v>
       </c>
-      <c r="D18" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
+      <c r="D18" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="51" t="str">
+      <c r="A19" s="40" t="str">
         <f>'!참조_ENUM'!E19</f>
         <v>TICKET_DUNGEON</v>
       </c>
-      <c r="B19" s="39">
+      <c r="B19" s="30">
         <f>'!참조_ENUM'!F19</f>
         <v>106</v>
       </c>
-      <c r="C19" s="48" t="str">
+      <c r="C19" s="37" t="str">
         <f>'!참조_ENUM'!G19</f>
         <v>106 던전 입장 티켓</v>
       </c>
-      <c r="D19" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
+      <c r="D19" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="51" t="str">
+      <c r="A20" s="40" t="str">
         <f>'!참조_ENUM'!E20</f>
         <v>EQ_GROWUP</v>
       </c>
-      <c r="B20" s="39">
+      <c r="B20" s="30">
         <f>'!참조_ENUM'!F20</f>
         <v>107</v>
       </c>
-      <c r="C20" s="48" t="str">
+      <c r="C20" s="37" t="str">
         <f>'!참조_ENUM'!G20</f>
         <v>107 정련석(장비 성장)</v>
       </c>
-      <c r="D20" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
+      <c r="D20" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="38" t="str">
+      <c r="A21" s="29" t="str">
         <f>'!참조_ENUM'!E21</f>
         <v>TICKET_REWARD_SELECT</v>
       </c>
-      <c r="B21" s="39">
+      <c r="B21" s="30">
         <f>'!참조_ENUM'!F21</f>
         <v>108</v>
       </c>
-      <c r="C21" s="38" t="str">
+      <c r="C21" s="29" t="str">
         <f>'!참조_ENUM'!G21</f>
         <v>109 보상 선택 티켓(1개를 선택 획득)</v>
       </c>
-      <c r="D21" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
+      <c r="D21" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="38" t="str">
+      <c r="A22" s="29" t="str">
         <f>'!참조_ENUM'!E22</f>
         <v>TICKET_REWARD_RANDOM</v>
       </c>
-      <c r="B22" s="39">
+      <c r="B22" s="30">
         <f>'!참조_ENUM'!F22</f>
         <v>109</v>
       </c>
-      <c r="C22" s="38" t="str">
+      <c r="C22" s="29" t="str">
         <f>'!참조_ENUM'!G22</f>
         <v>100 보상 랜덤 티켓(1개를 확률 획득)</v>
       </c>
-      <c r="D22" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
+      <c r="D22" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="38" t="str">
+      <c r="A23" s="29" t="str">
         <f>'!참조_ENUM'!E23</f>
         <v>TICKET_REWARD_ALL</v>
       </c>
-      <c r="B23" s="39">
+      <c r="B23" s="30">
         <f>'!참조_ENUM'!F23</f>
         <v>110</v>
       </c>
-      <c r="C23" s="38" t="str">
+      <c r="C23" s="29" t="str">
         <f>'!참조_ENUM'!G23</f>
         <v>110 보상 패키지 티켓(모든 보상 획득)</v>
       </c>
-      <c r="D23" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
+      <c r="D23" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="38" t="str">
+      <c r="A24" s="29" t="str">
         <f>'!참조_ENUM'!E24</f>
         <v>PIECE_EQUIPMENT</v>
       </c>
-      <c r="B24" s="39">
+      <c r="B24" s="30">
         <f>'!참조_ENUM'!F24</f>
         <v>111</v>
       </c>
-      <c r="C24" s="38" t="str">
+      <c r="C24" s="29" t="str">
         <f>'!참조_ENUM'!G24</f>
         <v>111 장비 조각</v>
       </c>
-      <c r="D24" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
+      <c r="D24" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="38" t="str">
+      <c r="A25" s="29" t="str">
         <f>'!참조_ENUM'!E25</f>
         <v>PIECE_CHARACTER</v>
       </c>
-      <c r="B25" s="39">
+      <c r="B25" s="30">
         <f>'!참조_ENUM'!F25</f>
         <v>112</v>
       </c>
-      <c r="C25" s="38" t="str">
+      <c r="C25" s="29" t="str">
         <f>'!참조_ENUM'!G25</f>
         <v>112 캐릭터 조각</v>
       </c>
-      <c r="D25" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
+      <c r="D25" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="38" t="str">
+      <c r="A26" s="29" t="str">
         <f>'!참조_ENUM'!E26</f>
         <v>EXP_SKILL</v>
       </c>
-      <c r="B26" s="39">
+      <c r="B26" s="30">
         <f>'!참조_ENUM'!F26</f>
         <v>113</v>
       </c>
-      <c r="C26" s="38" t="str">
+      <c r="C26" s="29" t="str">
         <f>'!참조_ENUM'!G26</f>
         <v>113 스킬 경험치 아이템</v>
       </c>
-      <c r="D26" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
+      <c r="D26" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
+      <c r="A27" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="30"/>
+      <c r="C27" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -2933,22 +3039,22 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2959,54 +3065,54 @@
         <v>39</v>
       </c>
       <c r="C31" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="E31" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="F31" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H31" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="29"/>
+      <c r="H31" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="49"/>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="16" t="s">
-        <v>52</v>
-      </c>
       <c r="C32" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="E32" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="F32" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="16" t="s">
-        <v>57</v>
-      </c>
       <c r="H32" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I32" s="17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3029,7 +3135,7 @@
         <v>1000000</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I33" s="21">
         <f t="shared" ref="I33:I46" si="0">D33</f>
@@ -3061,7 +3167,7 @@
         <v>1000000</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I34" s="21">
         <f t="shared" si="0"/>
@@ -3093,7 +3199,7 @@
         <v>200000</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I35" s="21">
         <f t="shared" si="0"/>
@@ -3125,7 +3231,7 @@
         <v>200000</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I36" s="21">
         <f t="shared" si="0"/>
@@ -3157,7 +3263,7 @@
         <v>200000</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I37" s="21">
         <f t="shared" si="0"/>
@@ -3189,7 +3295,7 @@
         <v>200000</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I38" s="21">
         <f t="shared" si="0"/>
@@ -3221,7 +3327,7 @@
         <v>200000</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I39" s="21">
         <f t="shared" si="0"/>
@@ -3253,7 +3359,7 @@
         <v>50000</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I40" s="24">
         <f t="shared" si="0"/>
@@ -3263,12 +3369,12 @@
         <f t="shared" si="1"/>
         <v>5%</v>
       </c>
-      <c r="K40" s="32" t="str">
+      <c r="K40" s="50" t="str">
         <f>SUM(F40:F46)/10000&amp;"%"</f>
         <v>100%</v>
       </c>
-      <c r="L40" s="35" t="s">
-        <v>87</v>
+      <c r="L40" s="53" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3291,7 +3397,7 @@
         <v>200000</v>
       </c>
       <c r="H41" s="24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I41" s="24">
         <f t="shared" si="0"/>
@@ -3301,8 +3407,8 @@
         <f t="shared" si="1"/>
         <v>20%</v>
       </c>
-      <c r="K41" s="33"/>
-      <c r="L41" s="36"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="54"/>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="23">
@@ -3324,7 +3430,7 @@
         <v>150000</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I42" s="24">
         <f t="shared" si="0"/>
@@ -3334,8 +3440,8 @@
         <f t="shared" si="1"/>
         <v>15%</v>
       </c>
-      <c r="K42" s="33"/>
-      <c r="L42" s="36"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="54"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="23">
@@ -3357,7 +3463,7 @@
         <v>150000</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I43" s="24">
         <f t="shared" si="0"/>
@@ -3367,8 +3473,8 @@
         <f t="shared" si="1"/>
         <v>15%</v>
       </c>
-      <c r="K43" s="33"/>
-      <c r="L43" s="36"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="54"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="23">
@@ -3390,7 +3496,7 @@
         <v>150000</v>
       </c>
       <c r="H44" s="24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I44" s="24">
         <f t="shared" si="0"/>
@@ -3400,8 +3506,8 @@
         <f t="shared" si="1"/>
         <v>15%</v>
       </c>
-      <c r="K44" s="33"/>
-      <c r="L44" s="36"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="54"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="23">
@@ -3423,7 +3529,7 @@
         <v>150000</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I45" s="24">
         <f t="shared" si="0"/>
@@ -3433,8 +3539,8 @@
         <f t="shared" si="1"/>
         <v>15%</v>
       </c>
-      <c r="K45" s="33"/>
-      <c r="L45" s="36"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="54"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="23">
@@ -3456,7 +3562,7 @@
         <v>150000</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I46" s="24">
         <f t="shared" si="0"/>
@@ -3466,8 +3572,8 @@
         <f t="shared" si="1"/>
         <v>15%</v>
       </c>
-      <c r="K46" s="34"/>
-      <c r="L46" s="36"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="54"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="23">
@@ -3489,7 +3595,7 @@
         <v>330000</v>
       </c>
       <c r="H47" s="26" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I47" s="26">
         <v>1</v>
@@ -3498,7 +3604,7 @@
         <f t="shared" si="1"/>
         <v>33%</v>
       </c>
-      <c r="K47" s="37" t="str">
+      <c r="K47" s="55" t="str">
         <f>SUM(F47:F49)/10000&amp;"%"</f>
         <v>100%</v>
       </c>
@@ -3523,7 +3629,7 @@
         <v>330000</v>
       </c>
       <c r="H48" s="26" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I48" s="26">
         <v>1</v>
@@ -3532,7 +3638,7 @@
         <f t="shared" si="1"/>
         <v>33%</v>
       </c>
-      <c r="K48" s="33"/>
+      <c r="K48" s="51"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="23">
@@ -3554,7 +3660,7 @@
         <v>340000</v>
       </c>
       <c r="H49" s="26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I49" s="26">
         <v>1</v>
@@ -3563,7 +3669,7 @@
         <f t="shared" si="1"/>
         <v>34%</v>
       </c>
-      <c r="K49" s="34"/>
+      <c r="K49" s="52"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="23"/>
@@ -4677,489 +4783,6743 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA56BF33-0599-44CF-8176-19546E225369}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:L169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.125" customWidth="1"/>
-    <col min="4" max="9" width="13.25" customWidth="1"/>
-    <col min="10" max="10" width="49.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="5" max="5" width="32.125" customWidth="1"/>
+    <col min="6" max="11" width="13.25" customWidth="1"/>
+    <col min="12" max="12" width="49.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(C5,'!참조_ENUM'!$G$3:$G$50,0))</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="5">
-        <v>500</v>
-      </c>
-      <c r="E5" s="5">
-        <v>600</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
+    </row>
+    <row r="5" spans="1:12" s="57" customFormat="1">
+      <c r="A5" s="56">
+        <v>10001001</v>
+      </c>
+      <c r="B5" s="56" t="str">
+        <f t="shared" ref="B5:B68" si="0">IF(MID(A5, 1, 1) = "1", "메인 스테이지", IF(MID(A5, 1, 1) = "2", "일일던전", IF(MID(A5, 1, 1) = "3", "보스전", "다른 경우")))</f>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C5" s="56" t="str">
+        <f t="shared" ref="C5:C68" si="1">IF(MID(A5, 2, 1) = "0", "통상", IF(MID(A5, 2, 1) = "1", "초회", IF(MID(A5, 2, 1) = "2", "별 보상", "다른 경우")))</f>
+        <v>통상</v>
+      </c>
+      <c r="D5" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E5,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>113</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="56">
+        <v>16</v>
+      </c>
+      <c r="G5" s="56">
+        <v>5</v>
+      </c>
+      <c r="H5" s="56">
+        <v>0</v>
+      </c>
+      <c r="I5" s="56">
         <v>1000000</v>
       </c>
-      <c r="H5" s="5" t="b">
-        <f>IF(I5&gt;0,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="I5" s="5">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="5">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(C6,'!참조_ENUM'!$G$3:$G$50,0))</f>
+      <c r="J5" s="56" t="b">
+        <f t="shared" ref="J5:J7" si="2">IF(K5&gt;0,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="56">
+        <v>0</v>
+      </c>
+      <c r="L5" s="56"/>
+    </row>
+    <row r="6" spans="1:12" s="57" customFormat="1">
+      <c r="A6" s="56">
+        <v>10001001</v>
+      </c>
+      <c r="B6" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C6" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>통상</v>
+      </c>
+      <c r="D6" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E6,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>102</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="56">
+        <v>6</v>
+      </c>
+      <c r="G6" s="56">
+        <v>10</v>
+      </c>
+      <c r="H6" s="56">
+        <v>0</v>
+      </c>
+      <c r="I6" s="56">
+        <v>1000000</v>
+      </c>
+      <c r="J6" s="56" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="56">
+        <v>0</v>
+      </c>
+      <c r="L6" s="56"/>
+    </row>
+    <row r="7" spans="1:12" s="57" customFormat="1">
+      <c r="A7" s="56">
+        <v>10001001</v>
+      </c>
+      <c r="B7" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C7" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>통상</v>
+      </c>
+      <c r="D7" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E7,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="56">
+        <v>1</v>
+      </c>
+      <c r="G7" s="56">
+        <v>1</v>
+      </c>
+      <c r="H7" s="56">
+        <v>0</v>
+      </c>
+      <c r="I7" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J7" s="56" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K7" s="56">
+        <v>1</v>
+      </c>
+      <c r="L7" s="56"/>
+    </row>
+    <row r="8" spans="1:12" s="57" customFormat="1">
+      <c r="A8" s="56">
+        <v>10001001</v>
+      </c>
+      <c r="B8" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C8" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>통상</v>
+      </c>
+      <c r="D8" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E8,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="56">
+        <v>2</v>
+      </c>
+      <c r="G8" s="56">
+        <v>1</v>
+      </c>
+      <c r="H8" s="56">
+        <v>0</v>
+      </c>
+      <c r="I8" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J8" s="56" t="b">
+        <f>IF(K8&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K8" s="56">
+        <v>2</v>
+      </c>
+      <c r="L8" s="56"/>
+    </row>
+    <row r="9" spans="1:12" s="57" customFormat="1">
+      <c r="A9" s="56">
+        <v>10001001</v>
+      </c>
+      <c r="B9" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C9" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>통상</v>
+      </c>
+      <c r="D9" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E9,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="56">
+        <v>11</v>
+      </c>
+      <c r="G9" s="56">
+        <v>1</v>
+      </c>
+      <c r="H9" s="56">
+        <v>0</v>
+      </c>
+      <c r="I9" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J9" s="56" t="b">
+        <f t="shared" ref="J9:J18" si="3">IF(K9&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K9" s="56">
+        <v>3</v>
+      </c>
+      <c r="L9" s="56"/>
+    </row>
+    <row r="10" spans="1:12" s="57" customFormat="1">
+      <c r="A10" s="56">
+        <v>10001001</v>
+      </c>
+      <c r="B10" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C10" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>통상</v>
+      </c>
+      <c r="D10" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E10,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="56">
+        <v>12</v>
+      </c>
+      <c r="G10" s="56">
+        <v>1</v>
+      </c>
+      <c r="H10" s="56">
+        <v>0</v>
+      </c>
+      <c r="I10" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J10" s="56" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="56">
+        <v>0</v>
+      </c>
+      <c r="L10" s="56"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="5">
+        <v>11001001</v>
+      </c>
+      <c r="B11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>초회</v>
+      </c>
+      <c r="D11" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E11,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="5">
+        <v>15</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J11" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="5">
+        <v>11001001</v>
+      </c>
+      <c r="B12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>초회</v>
+      </c>
+      <c r="D12" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E12,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="5">
+        <v>19</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J12" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="5">
+        <v>2</v>
+      </c>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="5">
+        <v>11001001</v>
+      </c>
+      <c r="B13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>초회</v>
+      </c>
+      <c r="D13" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E13,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="5">
+        <v>22</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J13" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="5">
+        <v>11001001</v>
+      </c>
+      <c r="B14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>초회</v>
+      </c>
+      <c r="D14" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E14,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="5">
+        <v>24</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J14" s="5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" s="59" customFormat="1">
+      <c r="A15" s="58">
+        <v>12001001</v>
+      </c>
+      <c r="B15" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C15" s="58" t="str">
+        <f t="shared" si="1"/>
+        <v>별 보상</v>
+      </c>
+      <c r="D15" s="58">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E15,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>2</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="58">
+        <v>30</v>
+      </c>
+      <c r="G15" s="58">
+        <v>30</v>
+      </c>
+      <c r="H15" s="58">
+        <v>0</v>
+      </c>
+      <c r="I15" s="58">
+        <v>1000000</v>
+      </c>
+      <c r="J15" s="58" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K15" s="58">
+        <v>1</v>
+      </c>
+      <c r="L15" s="58"/>
+    </row>
+    <row r="16" spans="1:12" s="57" customFormat="1">
+      <c r="A16" s="56">
+        <v>10001002</v>
+      </c>
+      <c r="B16" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C16" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>통상</v>
+      </c>
+      <c r="D16" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E16,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>113</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="E16" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="56">
         <v>16</v>
       </c>
-      <c r="E6" s="5">
+      <c r="G16" s="56">
         <v>5</v>
       </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="H16" s="56">
+        <v>0</v>
+      </c>
+      <c r="I16" s="56">
         <v>1000000</v>
       </c>
-      <c r="H6" s="5" t="b">
-        <f t="shared" ref="H6:H8" si="0">IF(I6&gt;0,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="5">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(C7,'!참조_ENUM'!$G$3:$G$50,0))</f>
+      <c r="J16" s="56" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="56">
+        <v>0</v>
+      </c>
+      <c r="L16" s="56"/>
+    </row>
+    <row r="17" spans="1:12" s="57" customFormat="1">
+      <c r="A17" s="56">
+        <v>10001002</v>
+      </c>
+      <c r="B17" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C17" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>통상</v>
+      </c>
+      <c r="D17" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E17,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>102</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="E17" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="56">
         <v>6</v>
       </c>
-      <c r="E7" s="5">
+      <c r="G17" s="56">
         <v>10</v>
       </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>200000</v>
-      </c>
-      <c r="H7" s="5" t="b">
+      <c r="H17" s="56">
+        <v>0</v>
+      </c>
+      <c r="I17" s="56">
+        <v>1000000</v>
+      </c>
+      <c r="J17" s="56" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="56">
+        <v>0</v>
+      </c>
+      <c r="L17" s="56"/>
+    </row>
+    <row r="18" spans="1:12" s="57" customFormat="1">
+      <c r="A18" s="56">
+        <v>10001002</v>
+      </c>
+      <c r="B18" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="5">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(C8,'!참조_ENUM'!$G$3:$G$50,0))</f>
-        <v>112</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="5">
-        <v>11001</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>200000</v>
-      </c>
-      <c r="H8" s="5" t="b">
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C18" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>통상</v>
+      </c>
+      <c r="D18" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E18,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E18" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="56">
+        <v>1</v>
+      </c>
+      <c r="G18" s="56">
+        <v>1</v>
+      </c>
+      <c r="H18" s="56">
+        <v>0</v>
+      </c>
+      <c r="I18" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J18" s="56" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K18" s="56">
+        <v>1</v>
+      </c>
+      <c r="L18" s="56"/>
+    </row>
+    <row r="19" spans="1:12" s="57" customFormat="1">
+      <c r="A19" s="56">
+        <v>10001002</v>
+      </c>
+      <c r="B19" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I8" s="5">
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C19" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>통상</v>
+      </c>
+      <c r="D19" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E19,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E19" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="56">
         <v>2</v>
       </c>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="5">
+      <c r="G19" s="56">
+        <v>1</v>
+      </c>
+      <c r="H19" s="56">
+        <v>0</v>
+      </c>
+      <c r="I19" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J19" s="56" t="b">
+        <f>IF(K19&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K19" s="56">
         <v>2</v>
       </c>
-      <c r="B9" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(C9,'!참조_ENUM'!$G$3:$G$50,0))</f>
-        <v>1</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="5">
-        <v>600</v>
-      </c>
-      <c r="E9" s="5">
-        <v>700</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="L19" s="56"/>
+    </row>
+    <row r="20" spans="1:12" s="57" customFormat="1">
+      <c r="A20" s="56">
+        <v>10001002</v>
+      </c>
+      <c r="B20" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C20" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>통상</v>
+      </c>
+      <c r="D20" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E20,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E20" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="56">
+        <v>11</v>
+      </c>
+      <c r="G20" s="56">
+        <v>1</v>
+      </c>
+      <c r="H20" s="56">
+        <v>0</v>
+      </c>
+      <c r="I20" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J20" s="56" t="b">
+        <f t="shared" ref="J20:J29" si="4">IF(K20&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K20" s="56">
+        <v>3</v>
+      </c>
+      <c r="L20" s="56"/>
+    </row>
+    <row r="21" spans="1:12" s="57" customFormat="1">
+      <c r="A21" s="56">
+        <v>10001002</v>
+      </c>
+      <c r="B21" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C21" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>통상</v>
+      </c>
+      <c r="D21" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E21,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E21" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="56">
+        <v>12</v>
+      </c>
+      <c r="G21" s="56">
+        <v>1</v>
+      </c>
+      <c r="H21" s="56">
+        <v>0</v>
+      </c>
+      <c r="I21" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J21" s="56" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="56">
+        <v>0</v>
+      </c>
+      <c r="L21" s="56"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="5">
+        <v>11001002</v>
+      </c>
+      <c r="B22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>초회</v>
+      </c>
+      <c r="D22" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E22,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="5">
+        <v>15</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J22" s="5" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K22" s="5">
+        <v>1</v>
+      </c>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="5">
+        <v>11001002</v>
+      </c>
+      <c r="B23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C23" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>초회</v>
+      </c>
+      <c r="D23" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E23,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="5">
+        <v>19</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J23" s="5" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K23" s="5">
+        <v>2</v>
+      </c>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="5">
+        <v>11001002</v>
+      </c>
+      <c r="B24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>초회</v>
+      </c>
+      <c r="D24" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E24,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="5">
+        <v>22</v>
+      </c>
+      <c r="G24" s="5">
+        <v>1</v>
+      </c>
+      <c r="H24" s="5">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J24" s="5" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0</v>
+      </c>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="5">
+        <v>11001002</v>
+      </c>
+      <c r="B25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C25" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>초회</v>
+      </c>
+      <c r="D25" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E25,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="5">
+        <v>24</v>
+      </c>
+      <c r="G25" s="5">
+        <v>1</v>
+      </c>
+      <c r="H25" s="5">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J25" s="5" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0</v>
+      </c>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:12" s="59" customFormat="1">
+      <c r="A26" s="58">
+        <v>12001002</v>
+      </c>
+      <c r="B26" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C26" s="58" t="str">
+        <f t="shared" si="1"/>
+        <v>별 보상</v>
+      </c>
+      <c r="D26" s="58">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E26,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>2</v>
+      </c>
+      <c r="E26" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="58">
+        <v>30</v>
+      </c>
+      <c r="G26" s="58">
+        <v>30</v>
+      </c>
+      <c r="H26" s="58">
+        <v>0</v>
+      </c>
+      <c r="I26" s="58">
         <v>1000000</v>
       </c>
-      <c r="H9" s="5" t="b">
-        <f>IF(I9&gt;0,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="I9" s="5">
-        <v>1</v>
-      </c>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="5">
+      <c r="J26" s="58" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K26" s="58">
+        <v>1</v>
+      </c>
+      <c r="L26" s="58"/>
+    </row>
+    <row r="27" spans="1:12" s="57" customFormat="1">
+      <c r="A27" s="56">
+        <v>10001003</v>
+      </c>
+      <c r="B27" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C27" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>통상</v>
+      </c>
+      <c r="D27" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E27,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>113</v>
+      </c>
+      <c r="E27" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="56">
+        <v>16</v>
+      </c>
+      <c r="G27" s="56">
+        <v>5</v>
+      </c>
+      <c r="H27" s="56">
+        <v>0</v>
+      </c>
+      <c r="I27" s="56">
+        <v>1000000</v>
+      </c>
+      <c r="J27" s="56" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="56">
+        <v>0</v>
+      </c>
+      <c r="L27" s="56"/>
+    </row>
+    <row r="28" spans="1:12" s="57" customFormat="1">
+      <c r="A28" s="56">
+        <v>10001003</v>
+      </c>
+      <c r="B28" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C28" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>통상</v>
+      </c>
+      <c r="D28" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E28,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>102</v>
+      </c>
+      <c r="E28" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="56">
+        <v>6</v>
+      </c>
+      <c r="G28" s="56">
+        <v>10</v>
+      </c>
+      <c r="H28" s="56">
+        <v>0</v>
+      </c>
+      <c r="I28" s="56">
+        <v>1000000</v>
+      </c>
+      <c r="J28" s="56" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="56">
+        <v>0</v>
+      </c>
+      <c r="L28" s="56"/>
+    </row>
+    <row r="29" spans="1:12" s="57" customFormat="1">
+      <c r="A29" s="56">
+        <v>10001003</v>
+      </c>
+      <c r="B29" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C29" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>통상</v>
+      </c>
+      <c r="D29" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E29,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E29" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" s="56">
+        <v>1</v>
+      </c>
+      <c r="G29" s="56">
+        <v>1</v>
+      </c>
+      <c r="H29" s="56">
+        <v>0</v>
+      </c>
+      <c r="I29" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J29" s="56" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K29" s="56">
+        <v>1</v>
+      </c>
+      <c r="L29" s="56"/>
+    </row>
+    <row r="30" spans="1:12" s="57" customFormat="1">
+      <c r="A30" s="56">
+        <v>10001003</v>
+      </c>
+      <c r="B30" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C30" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>통상</v>
+      </c>
+      <c r="D30" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E30,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E30" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" s="56">
         <v>2</v>
       </c>
-      <c r="B10" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(C10,'!참조_ENUM'!$G$3:$G$50,0))</f>
+      <c r="G30" s="56">
+        <v>1</v>
+      </c>
+      <c r="H30" s="56">
+        <v>0</v>
+      </c>
+      <c r="I30" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J30" s="56" t="b">
+        <f>IF(K30&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K30" s="56">
+        <v>2</v>
+      </c>
+      <c r="L30" s="56"/>
+    </row>
+    <row r="31" spans="1:12" s="57" customFormat="1">
+      <c r="A31" s="56">
+        <v>10001003</v>
+      </c>
+      <c r="B31" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C31" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>통상</v>
+      </c>
+      <c r="D31" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E31,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E31" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="56">
+        <v>11</v>
+      </c>
+      <c r="G31" s="56">
+        <v>1</v>
+      </c>
+      <c r="H31" s="56">
+        <v>0</v>
+      </c>
+      <c r="I31" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J31" s="56" t="b">
+        <f t="shared" ref="J31:J40" si="5">IF(K31&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K31" s="56">
+        <v>3</v>
+      </c>
+      <c r="L31" s="56"/>
+    </row>
+    <row r="32" spans="1:12" s="57" customFormat="1">
+      <c r="A32" s="56">
+        <v>10001003</v>
+      </c>
+      <c r="B32" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C32" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>통상</v>
+      </c>
+      <c r="D32" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E32,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E32" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F32" s="56">
+        <v>12</v>
+      </c>
+      <c r="G32" s="56">
+        <v>1</v>
+      </c>
+      <c r="H32" s="56">
+        <v>0</v>
+      </c>
+      <c r="I32" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J32" s="56" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="56">
+        <v>0</v>
+      </c>
+      <c r="L32" s="56"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="5">
+        <v>11001003</v>
+      </c>
+      <c r="B33" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C33" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>초회</v>
+      </c>
+      <c r="D33" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E33,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F33" s="5">
+        <v>15</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1</v>
+      </c>
+      <c r="H33" s="5">
+        <v>1</v>
+      </c>
+      <c r="I33" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J33" s="5" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K33" s="5">
+        <v>1</v>
+      </c>
+      <c r="L33" s="5"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="5">
+        <v>11001003</v>
+      </c>
+      <c r="B34" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C34" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>초회</v>
+      </c>
+      <c r="D34" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E34,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" s="5">
+        <v>19</v>
+      </c>
+      <c r="G34" s="5">
+        <v>1</v>
+      </c>
+      <c r="H34" s="5">
+        <v>1</v>
+      </c>
+      <c r="I34" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J34" s="5" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K34" s="5">
+        <v>2</v>
+      </c>
+      <c r="L34" s="5"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="5">
+        <v>11001003</v>
+      </c>
+      <c r="B35" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C35" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>초회</v>
+      </c>
+      <c r="D35" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E35,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" s="5">
+        <v>22</v>
+      </c>
+      <c r="G35" s="5">
+        <v>1</v>
+      </c>
+      <c r="H35" s="5">
+        <v>1</v>
+      </c>
+      <c r="I35" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J35" s="5" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="5">
+        <v>0</v>
+      </c>
+      <c r="L35" s="5"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="5">
+        <v>11001003</v>
+      </c>
+      <c r="B36" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C36" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>초회</v>
+      </c>
+      <c r="D36" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E36,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" s="5">
+        <v>24</v>
+      </c>
+      <c r="G36" s="5">
+        <v>1</v>
+      </c>
+      <c r="H36" s="5">
+        <v>1</v>
+      </c>
+      <c r="I36" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J36" s="5" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="5">
+        <v>0</v>
+      </c>
+      <c r="L36" s="5"/>
+    </row>
+    <row r="37" spans="1:12" s="59" customFormat="1">
+      <c r="A37" s="58">
+        <v>12001003</v>
+      </c>
+      <c r="B37" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C37" s="58" t="str">
+        <f t="shared" si="1"/>
+        <v>별 보상</v>
+      </c>
+      <c r="D37" s="58">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E37,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>2</v>
+      </c>
+      <c r="E37" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37" s="58">
+        <v>30</v>
+      </c>
+      <c r="G37" s="58">
+        <v>30</v>
+      </c>
+      <c r="H37" s="58">
+        <v>0</v>
+      </c>
+      <c r="I37" s="58">
+        <v>1000000</v>
+      </c>
+      <c r="J37" s="58" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K37" s="58">
+        <v>1</v>
+      </c>
+      <c r="L37" s="58"/>
+    </row>
+    <row r="38" spans="1:12" s="57" customFormat="1">
+      <c r="A38" s="56">
+        <v>10001004</v>
+      </c>
+      <c r="B38" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C38" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>통상</v>
+      </c>
+      <c r="D38" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E38,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>113</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="E38" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" s="56">
         <v>16</v>
       </c>
-      <c r="E10" s="5">
+      <c r="G38" s="56">
+        <v>5</v>
+      </c>
+      <c r="H38" s="56">
+        <v>0</v>
+      </c>
+      <c r="I38" s="56">
+        <v>1000000</v>
+      </c>
+      <c r="J38" s="56" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="56">
+        <v>0</v>
+      </c>
+      <c r="L38" s="56"/>
+    </row>
+    <row r="39" spans="1:12" s="57" customFormat="1">
+      <c r="A39" s="56">
+        <v>10001004</v>
+      </c>
+      <c r="B39" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C39" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>통상</v>
+      </c>
+      <c r="D39" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E39,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>102</v>
+      </c>
+      <c r="E39" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" s="56">
         <v>6</v>
       </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="G39" s="56">
+        <v>10</v>
+      </c>
+      <c r="H39" s="56">
+        <v>0</v>
+      </c>
+      <c r="I39" s="56">
         <v>1000000</v>
       </c>
-      <c r="H10" s="5" t="b">
-        <f t="shared" ref="H10:H12" si="1">IF(I10&gt;0,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="5">
+      <c r="J39" s="56" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="56">
+        <v>0</v>
+      </c>
+      <c r="L39" s="56"/>
+    </row>
+    <row r="40" spans="1:12" s="57" customFormat="1">
+      <c r="A40" s="56">
+        <v>10001004</v>
+      </c>
+      <c r="B40" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C40" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>통상</v>
+      </c>
+      <c r="D40" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E40,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E40" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40" s="56">
+        <v>1</v>
+      </c>
+      <c r="G40" s="56">
+        <v>1</v>
+      </c>
+      <c r="H40" s="56">
+        <v>0</v>
+      </c>
+      <c r="I40" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J40" s="56" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K40" s="56">
+        <v>1</v>
+      </c>
+      <c r="L40" s="56"/>
+    </row>
+    <row r="41" spans="1:12" s="57" customFormat="1">
+      <c r="A41" s="56">
+        <v>10001004</v>
+      </c>
+      <c r="B41" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C41" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>통상</v>
+      </c>
+      <c r="D41" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E41,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E41" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F41" s="56">
         <v>2</v>
       </c>
-      <c r="B11" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(C11,'!참조_ENUM'!$G$3:$G$50,0))</f>
+      <c r="G41" s="56">
+        <v>1</v>
+      </c>
+      <c r="H41" s="56">
+        <v>0</v>
+      </c>
+      <c r="I41" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J41" s="56" t="b">
+        <f>IF(K41&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K41" s="56">
+        <v>2</v>
+      </c>
+      <c r="L41" s="56"/>
+    </row>
+    <row r="42" spans="1:12" s="57" customFormat="1">
+      <c r="A42" s="56">
+        <v>10001004</v>
+      </c>
+      <c r="B42" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C42" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>통상</v>
+      </c>
+      <c r="D42" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E42,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E42" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" s="56">
+        <v>11</v>
+      </c>
+      <c r="G42" s="56">
+        <v>1</v>
+      </c>
+      <c r="H42" s="56">
+        <v>0</v>
+      </c>
+      <c r="I42" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J42" s="56" t="b">
+        <f t="shared" ref="J42:J51" si="6">IF(K42&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K42" s="56">
+        <v>3</v>
+      </c>
+      <c r="L42" s="56"/>
+    </row>
+    <row r="43" spans="1:12" s="57" customFormat="1">
+      <c r="A43" s="56">
+        <v>10001004</v>
+      </c>
+      <c r="B43" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C43" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>통상</v>
+      </c>
+      <c r="D43" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E43,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E43" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F43" s="56">
+        <v>12</v>
+      </c>
+      <c r="G43" s="56">
+        <v>1</v>
+      </c>
+      <c r="H43" s="56">
+        <v>0</v>
+      </c>
+      <c r="I43" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J43" s="56" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="56">
+        <v>0</v>
+      </c>
+      <c r="L43" s="56"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="5">
+        <v>11001004</v>
+      </c>
+      <c r="B44" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C44" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>초회</v>
+      </c>
+      <c r="D44" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E44,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F44" s="5">
+        <v>15</v>
+      </c>
+      <c r="G44" s="5">
+        <v>1</v>
+      </c>
+      <c r="H44" s="5">
+        <v>1</v>
+      </c>
+      <c r="I44" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J44" s="5" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K44" s="5">
+        <v>1</v>
+      </c>
+      <c r="L44" s="5"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="5">
+        <v>11001004</v>
+      </c>
+      <c r="B45" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C45" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>초회</v>
+      </c>
+      <c r="D45" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E45,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F45" s="5">
+        <v>19</v>
+      </c>
+      <c r="G45" s="5">
+        <v>1</v>
+      </c>
+      <c r="H45" s="5">
+        <v>1</v>
+      </c>
+      <c r="I45" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J45" s="5" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K45" s="5">
+        <v>2</v>
+      </c>
+      <c r="L45" s="5"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="5">
+        <v>11001004</v>
+      </c>
+      <c r="B46" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C46" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>초회</v>
+      </c>
+      <c r="D46" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E46,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F46" s="5">
+        <v>22</v>
+      </c>
+      <c r="G46" s="5">
+        <v>1</v>
+      </c>
+      <c r="H46" s="5">
+        <v>1</v>
+      </c>
+      <c r="I46" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J46" s="5" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="5">
+        <v>0</v>
+      </c>
+      <c r="L46" s="5"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="5">
+        <v>11001004</v>
+      </c>
+      <c r="B47" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C47" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>초회</v>
+      </c>
+      <c r="D47" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E47,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" s="5">
+        <v>24</v>
+      </c>
+      <c r="G47" s="5">
+        <v>1</v>
+      </c>
+      <c r="H47" s="5">
+        <v>1</v>
+      </c>
+      <c r="I47" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J47" s="5" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="5">
+        <v>0</v>
+      </c>
+      <c r="L47" s="5"/>
+    </row>
+    <row r="48" spans="1:12" s="59" customFormat="1">
+      <c r="A48" s="58">
+        <v>12001004</v>
+      </c>
+      <c r="B48" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C48" s="58" t="str">
+        <f t="shared" si="1"/>
+        <v>별 보상</v>
+      </c>
+      <c r="D48" s="58">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E48,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>2</v>
+      </c>
+      <c r="E48" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="F48" s="58">
+        <v>30</v>
+      </c>
+      <c r="G48" s="58">
+        <v>30</v>
+      </c>
+      <c r="H48" s="58">
+        <v>0</v>
+      </c>
+      <c r="I48" s="58">
+        <v>1000000</v>
+      </c>
+      <c r="J48" s="58" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K48" s="58">
+        <v>1</v>
+      </c>
+      <c r="L48" s="58"/>
+    </row>
+    <row r="49" spans="1:12" s="57" customFormat="1">
+      <c r="A49" s="56">
+        <v>10001005</v>
+      </c>
+      <c r="B49" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C49" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>통상</v>
+      </c>
+      <c r="D49" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E49,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>113</v>
+      </c>
+      <c r="E49" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" s="56">
+        <v>16</v>
+      </c>
+      <c r="G49" s="56">
+        <v>5</v>
+      </c>
+      <c r="H49" s="56">
+        <v>0</v>
+      </c>
+      <c r="I49" s="56">
+        <v>1000000</v>
+      </c>
+      <c r="J49" s="56" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="56">
+        <v>0</v>
+      </c>
+      <c r="L49" s="56"/>
+    </row>
+    <row r="50" spans="1:12" s="57" customFormat="1">
+      <c r="A50" s="56">
+        <v>10001005</v>
+      </c>
+      <c r="B50" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C50" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>통상</v>
+      </c>
+      <c r="D50" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E50,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>102</v>
+      </c>
+      <c r="E50" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="F50" s="56">
         <v>6</v>
       </c>
-      <c r="E11" s="5">
+      <c r="G50" s="56">
+        <v>10</v>
+      </c>
+      <c r="H50" s="56">
+        <v>0</v>
+      </c>
+      <c r="I50" s="56">
+        <v>1000000</v>
+      </c>
+      <c r="J50" s="56" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="56">
+        <v>0</v>
+      </c>
+      <c r="L50" s="56"/>
+    </row>
+    <row r="51" spans="1:12" s="57" customFormat="1">
+      <c r="A51" s="56">
+        <v>10001005</v>
+      </c>
+      <c r="B51" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C51" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>통상</v>
+      </c>
+      <c r="D51" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E51,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E51" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F51" s="56">
+        <v>1</v>
+      </c>
+      <c r="G51" s="56">
+        <v>1</v>
+      </c>
+      <c r="H51" s="56">
+        <v>0</v>
+      </c>
+      <c r="I51" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J51" s="56" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K51" s="56">
+        <v>1</v>
+      </c>
+      <c r="L51" s="56"/>
+    </row>
+    <row r="52" spans="1:12" s="57" customFormat="1">
+      <c r="A52" s="56">
+        <v>10001005</v>
+      </c>
+      <c r="B52" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C52" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>통상</v>
+      </c>
+      <c r="D52" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E52,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E52" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F52" s="56">
+        <v>2</v>
+      </c>
+      <c r="G52" s="56">
+        <v>1</v>
+      </c>
+      <c r="H52" s="56">
+        <v>0</v>
+      </c>
+      <c r="I52" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J52" s="56" t="b">
+        <f>IF(K52&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K52" s="56">
+        <v>2</v>
+      </c>
+      <c r="L52" s="56"/>
+    </row>
+    <row r="53" spans="1:12" s="57" customFormat="1">
+      <c r="A53" s="56">
+        <v>10001005</v>
+      </c>
+      <c r="B53" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C53" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>통상</v>
+      </c>
+      <c r="D53" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E53,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E53" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F53" s="56">
         <v>11</v>
       </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>200000</v>
-      </c>
-      <c r="H11" s="5" t="b">
+      <c r="G53" s="56">
+        <v>1</v>
+      </c>
+      <c r="H53" s="56">
+        <v>0</v>
+      </c>
+      <c r="I53" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J53" s="56" t="b">
+        <f t="shared" ref="J53:J62" si="7">IF(K53&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K53" s="56">
+        <v>3</v>
+      </c>
+      <c r="L53" s="56"/>
+    </row>
+    <row r="54" spans="1:12" s="57" customFormat="1">
+      <c r="A54" s="56">
+        <v>10001005</v>
+      </c>
+      <c r="B54" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C54" s="56" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="5">
+        <v>통상</v>
+      </c>
+      <c r="D54" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E54,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E54" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F54" s="56">
+        <v>12</v>
+      </c>
+      <c r="G54" s="56">
+        <v>1</v>
+      </c>
+      <c r="H54" s="56">
+        <v>0</v>
+      </c>
+      <c r="I54" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J54" s="56" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="56">
+        <v>0</v>
+      </c>
+      <c r="L54" s="56"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="5">
+        <v>11001005</v>
+      </c>
+      <c r="B55" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C55" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>초회</v>
+      </c>
+      <c r="D55" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E55,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F55" s="5">
+        <v>15</v>
+      </c>
+      <c r="G55" s="5">
+        <v>1</v>
+      </c>
+      <c r="H55" s="5">
+        <v>1</v>
+      </c>
+      <c r="I55" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J55" s="5" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K55" s="5">
+        <v>1</v>
+      </c>
+      <c r="L55" s="5"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="5">
+        <v>11001005</v>
+      </c>
+      <c r="B56" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C56" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>초회</v>
+      </c>
+      <c r="D56" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E56,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F56" s="5">
+        <v>19</v>
+      </c>
+      <c r="G56" s="5">
+        <v>1</v>
+      </c>
+      <c r="H56" s="5">
+        <v>1</v>
+      </c>
+      <c r="I56" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J56" s="5" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K56" s="5">
         <v>2</v>
       </c>
-      <c r="B12" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(C12,'!참조_ENUM'!$G$3:$G$50,0))</f>
-        <v>112</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="5">
-        <v>11002</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>200000</v>
-      </c>
-      <c r="H12" s="5" t="b">
+      <c r="L56" s="5"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="5">
+        <v>11001005</v>
+      </c>
+      <c r="B57" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C57" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I12" s="5">
+        <v>초회</v>
+      </c>
+      <c r="D57" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E57,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F57" s="5">
+        <v>22</v>
+      </c>
+      <c r="G57" s="5">
+        <v>1</v>
+      </c>
+      <c r="H57" s="5">
+        <v>1</v>
+      </c>
+      <c r="I57" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J57" s="5" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="5">
+        <v>0</v>
+      </c>
+      <c r="L57" s="5"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="5">
+        <v>11001005</v>
+      </c>
+      <c r="B58" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C58" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>초회</v>
+      </c>
+      <c r="D58" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E58,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F58" s="5">
+        <v>24</v>
+      </c>
+      <c r="G58" s="5">
+        <v>1</v>
+      </c>
+      <c r="H58" s="5">
+        <v>1</v>
+      </c>
+      <c r="I58" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J58" s="5" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="5">
+        <v>0</v>
+      </c>
+      <c r="L58" s="5"/>
+    </row>
+    <row r="59" spans="1:12" s="59" customFormat="1">
+      <c r="A59" s="58">
+        <v>12001005</v>
+      </c>
+      <c r="B59" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C59" s="58" t="str">
+        <f t="shared" si="1"/>
+        <v>별 보상</v>
+      </c>
+      <c r="D59" s="58">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E59,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>2</v>
       </c>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="E59" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="F59" s="58">
+        <v>30</v>
+      </c>
+      <c r="G59" s="58">
+        <v>30</v>
+      </c>
+      <c r="H59" s="58">
+        <v>0</v>
+      </c>
+      <c r="I59" s="58">
+        <v>1000000</v>
+      </c>
+      <c r="J59" s="58" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K59" s="58">
+        <v>1</v>
+      </c>
+      <c r="L59" s="58"/>
+    </row>
+    <row r="60" spans="1:12" s="57" customFormat="1">
+      <c r="A60" s="56">
+        <v>10001006</v>
+      </c>
+      <c r="B60" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C60" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>통상</v>
+      </c>
+      <c r="D60" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E60,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>113</v>
+      </c>
+      <c r="E60" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="F60" s="56">
+        <v>16</v>
+      </c>
+      <c r="G60" s="56">
+        <v>5</v>
+      </c>
+      <c r="H60" s="56">
+        <v>0</v>
+      </c>
+      <c r="I60" s="56">
+        <v>1000000</v>
+      </c>
+      <c r="J60" s="56" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="56">
+        <v>0</v>
+      </c>
+      <c r="L60" s="56"/>
+    </row>
+    <row r="61" spans="1:12" s="57" customFormat="1">
+      <c r="A61" s="56">
+        <v>10001006</v>
+      </c>
+      <c r="B61" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C61" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>통상</v>
+      </c>
+      <c r="D61" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E61,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>102</v>
+      </c>
+      <c r="E61" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="F61" s="56">
+        <v>6</v>
+      </c>
+      <c r="G61" s="56">
+        <v>10</v>
+      </c>
+      <c r="H61" s="56">
+        <v>0</v>
+      </c>
+      <c r="I61" s="56">
+        <v>1000000</v>
+      </c>
+      <c r="J61" s="56" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="56">
+        <v>0</v>
+      </c>
+      <c r="L61" s="56"/>
+    </row>
+    <row r="62" spans="1:12" s="57" customFormat="1">
+      <c r="A62" s="56">
+        <v>10001006</v>
+      </c>
+      <c r="B62" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C62" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>통상</v>
+      </c>
+      <c r="D62" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E62,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E62" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F62" s="56">
+        <v>1</v>
+      </c>
+      <c r="G62" s="56">
+        <v>1</v>
+      </c>
+      <c r="H62" s="56">
+        <v>0</v>
+      </c>
+      <c r="I62" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J62" s="56" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K62" s="56">
+        <v>1</v>
+      </c>
+      <c r="L62" s="56"/>
+    </row>
+    <row r="63" spans="1:12" s="57" customFormat="1">
+      <c r="A63" s="56">
+        <v>10001006</v>
+      </c>
+      <c r="B63" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C63" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>통상</v>
+      </c>
+      <c r="D63" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E63,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E63" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F63" s="56">
+        <v>2</v>
+      </c>
+      <c r="G63" s="56">
+        <v>1</v>
+      </c>
+      <c r="H63" s="56">
+        <v>0</v>
+      </c>
+      <c r="I63" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J63" s="56" t="b">
+        <f>IF(K63&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K63" s="56">
+        <v>2</v>
+      </c>
+      <c r="L63" s="56"/>
+    </row>
+    <row r="64" spans="1:12" s="57" customFormat="1">
+      <c r="A64" s="56">
+        <v>10001006</v>
+      </c>
+      <c r="B64" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C64" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>통상</v>
+      </c>
+      <c r="D64" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E64,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E64" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F64" s="56">
+        <v>11</v>
+      </c>
+      <c r="G64" s="56">
+        <v>1</v>
+      </c>
+      <c r="H64" s="56">
+        <v>0</v>
+      </c>
+      <c r="I64" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J64" s="56" t="b">
+        <f t="shared" ref="J64:J73" si="8">IF(K64&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K64" s="56">
+        <v>3</v>
+      </c>
+      <c r="L64" s="56"/>
+    </row>
+    <row r="65" spans="1:12" s="57" customFormat="1">
+      <c r="A65" s="56">
+        <v>10001006</v>
+      </c>
+      <c r="B65" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C65" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>통상</v>
+      </c>
+      <c r="D65" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E65,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E65" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F65" s="56">
+        <v>12</v>
+      </c>
+      <c r="G65" s="56">
+        <v>1</v>
+      </c>
+      <c r="H65" s="56">
+        <v>0</v>
+      </c>
+      <c r="I65" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J65" s="56" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="56">
+        <v>0</v>
+      </c>
+      <c r="L65" s="56"/>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="5">
+        <v>11001006</v>
+      </c>
+      <c r="B66" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C66" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>초회</v>
+      </c>
+      <c r="D66" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E66,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F66" s="5">
+        <v>15</v>
+      </c>
+      <c r="G66" s="5">
+        <v>1</v>
+      </c>
+      <c r="H66" s="5">
+        <v>1</v>
+      </c>
+      <c r="I66" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J66" s="5" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K66" s="5">
+        <v>1</v>
+      </c>
+      <c r="L66" s="5"/>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="5">
+        <v>11001006</v>
+      </c>
+      <c r="B67" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C67" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>초회</v>
+      </c>
+      <c r="D67" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E67,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F67" s="5">
+        <v>19</v>
+      </c>
+      <c r="G67" s="5">
+        <v>1</v>
+      </c>
+      <c r="H67" s="5">
+        <v>1</v>
+      </c>
+      <c r="I67" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J67" s="5" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K67" s="5">
+        <v>2</v>
+      </c>
+      <c r="L67" s="5"/>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="5">
+        <v>11001006</v>
+      </c>
+      <c r="B68" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C68" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>초회</v>
+      </c>
+      <c r="D68" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E68,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F68" s="5">
+        <v>22</v>
+      </c>
+      <c r="G68" s="5">
+        <v>1</v>
+      </c>
+      <c r="H68" s="5">
+        <v>1</v>
+      </c>
+      <c r="I68" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J68" s="5" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K68" s="5">
+        <v>0</v>
+      </c>
+      <c r="L68" s="5"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="5">
+        <v>11001006</v>
+      </c>
+      <c r="B69" s="5" t="str">
+        <f t="shared" ref="B69:B165" si="9">IF(MID(A69, 1, 1) = "1", "메인 스테이지", IF(MID(A69, 1, 1) = "2", "일일던전", IF(MID(A69, 1, 1) = "3", "보스전", "다른 경우")))</f>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C69" s="5" t="str">
+        <f t="shared" ref="C69:C165" si="10">IF(MID(A69, 2, 1) = "0", "통상", IF(MID(A69, 2, 1) = "1", "초회", IF(MID(A69, 2, 1) = "2", "별 보상", "다른 경우")))</f>
+        <v>초회</v>
+      </c>
+      <c r="D69" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E69,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F69" s="5">
+        <v>24</v>
+      </c>
+      <c r="G69" s="5">
+        <v>1</v>
+      </c>
+      <c r="H69" s="5">
+        <v>1</v>
+      </c>
+      <c r="I69" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J69" s="5" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K69" s="5">
+        <v>0</v>
+      </c>
+      <c r="L69" s="5"/>
+    </row>
+    <row r="70" spans="1:12" s="59" customFormat="1">
+      <c r="A70" s="58">
+        <v>12001006</v>
+      </c>
+      <c r="B70" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C70" s="58" t="str">
+        <f t="shared" si="10"/>
+        <v>별 보상</v>
+      </c>
+      <c r="D70" s="58">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E70,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>2</v>
+      </c>
+      <c r="E70" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="F70" s="58">
+        <v>30</v>
+      </c>
+      <c r="G70" s="58">
+        <v>30</v>
+      </c>
+      <c r="H70" s="58">
+        <v>0</v>
+      </c>
+      <c r="I70" s="58">
+        <v>1000000</v>
+      </c>
+      <c r="J70" s="58" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K70" s="58">
+        <v>1</v>
+      </c>
+      <c r="L70" s="58"/>
+    </row>
+    <row r="71" spans="1:12" s="57" customFormat="1">
+      <c r="A71" s="56">
+        <v>10001007</v>
+      </c>
+      <c r="B71" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C71" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D71" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E71,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>113</v>
+      </c>
+      <c r="E71" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="F71" s="56">
+        <v>16</v>
+      </c>
+      <c r="G71" s="56">
+        <v>5</v>
+      </c>
+      <c r="H71" s="56">
+        <v>0</v>
+      </c>
+      <c r="I71" s="56">
+        <v>1000000</v>
+      </c>
+      <c r="J71" s="56" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K71" s="56">
+        <v>0</v>
+      </c>
+      <c r="L71" s="56"/>
+    </row>
+    <row r="72" spans="1:12" s="57" customFormat="1">
+      <c r="A72" s="56">
+        <v>10001007</v>
+      </c>
+      <c r="B72" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C72" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D72" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E72,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>102</v>
+      </c>
+      <c r="E72" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="F72" s="56">
+        <v>6</v>
+      </c>
+      <c r="G72" s="56">
+        <v>10</v>
+      </c>
+      <c r="H72" s="56">
+        <v>0</v>
+      </c>
+      <c r="I72" s="56">
+        <v>1000000</v>
+      </c>
+      <c r="J72" s="56" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="56">
+        <v>0</v>
+      </c>
+      <c r="L72" s="56"/>
+    </row>
+    <row r="73" spans="1:12" s="57" customFormat="1">
+      <c r="A73" s="56">
+        <v>10001007</v>
+      </c>
+      <c r="B73" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C73" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D73" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E73,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E73" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F73" s="56">
+        <v>1</v>
+      </c>
+      <c r="G73" s="56">
+        <v>1</v>
+      </c>
+      <c r="H73" s="56">
+        <v>0</v>
+      </c>
+      <c r="I73" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J73" s="56" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K73" s="56">
+        <v>1</v>
+      </c>
+      <c r="L73" s="56"/>
+    </row>
+    <row r="74" spans="1:12" s="57" customFormat="1">
+      <c r="A74" s="56">
+        <v>10001007</v>
+      </c>
+      <c r="B74" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C74" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D74" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E74,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E74" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F74" s="56">
+        <v>2</v>
+      </c>
+      <c r="G74" s="56">
+        <v>1</v>
+      </c>
+      <c r="H74" s="56">
+        <v>0</v>
+      </c>
+      <c r="I74" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J74" s="56" t="b">
+        <f>IF(K74&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K74" s="56">
+        <v>2</v>
+      </c>
+      <c r="L74" s="56"/>
+    </row>
+    <row r="75" spans="1:12" s="57" customFormat="1">
+      <c r="A75" s="56">
+        <v>10001007</v>
+      </c>
+      <c r="B75" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C75" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D75" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E75,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E75" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F75" s="56">
+        <v>11</v>
+      </c>
+      <c r="G75" s="56">
+        <v>1</v>
+      </c>
+      <c r="H75" s="56">
+        <v>0</v>
+      </c>
+      <c r="I75" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J75" s="56" t="b">
+        <f t="shared" ref="J75:J84" si="11">IF(K75&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K75" s="56">
+        <v>3</v>
+      </c>
+      <c r="L75" s="56"/>
+    </row>
+    <row r="76" spans="1:12" s="57" customFormat="1">
+      <c r="A76" s="56">
+        <v>10001007</v>
+      </c>
+      <c r="B76" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C76" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D76" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E76,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E76" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F76" s="56">
+        <v>12</v>
+      </c>
+      <c r="G76" s="56">
+        <v>1</v>
+      </c>
+      <c r="H76" s="56">
+        <v>0</v>
+      </c>
+      <c r="I76" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J76" s="56" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K76" s="56">
+        <v>0</v>
+      </c>
+      <c r="L76" s="56"/>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="5">
+        <v>11001007</v>
+      </c>
+      <c r="B77" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C77" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>초회</v>
+      </c>
+      <c r="D77" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E77,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F77" s="5">
+        <v>15</v>
+      </c>
+      <c r="G77" s="5">
+        <v>1</v>
+      </c>
+      <c r="H77" s="5">
+        <v>1</v>
+      </c>
+      <c r="I77" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J77" s="5" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="K77" s="5">
+        <v>1</v>
+      </c>
+      <c r="L77" s="5"/>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="5">
+        <v>11001007</v>
+      </c>
+      <c r="B78" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C78" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>초회</v>
+      </c>
+      <c r="D78" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E78,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F78" s="5">
+        <v>19</v>
+      </c>
+      <c r="G78" s="5">
+        <v>1</v>
+      </c>
+      <c r="H78" s="5">
+        <v>1</v>
+      </c>
+      <c r="I78" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J78" s="5" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="K78" s="5">
+        <v>2</v>
+      </c>
+      <c r="L78" s="5"/>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="5">
+        <v>11001007</v>
+      </c>
+      <c r="B79" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C79" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>초회</v>
+      </c>
+      <c r="D79" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E79,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F79" s="5">
+        <v>22</v>
+      </c>
+      <c r="G79" s="5">
+        <v>1</v>
+      </c>
+      <c r="H79" s="5">
+        <v>1</v>
+      </c>
+      <c r="I79" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J79" s="5" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K79" s="5">
+        <v>0</v>
+      </c>
+      <c r="L79" s="5"/>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="5">
+        <v>11001007</v>
+      </c>
+      <c r="B80" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C80" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>초회</v>
+      </c>
+      <c r="D80" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E80,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F80" s="5">
+        <v>24</v>
+      </c>
+      <c r="G80" s="5">
+        <v>1</v>
+      </c>
+      <c r="H80" s="5">
+        <v>1</v>
+      </c>
+      <c r="I80" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J80" s="5" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K80" s="5">
+        <v>0</v>
+      </c>
+      <c r="L80" s="5"/>
+    </row>
+    <row r="81" spans="1:12" s="59" customFormat="1">
+      <c r="A81" s="58">
+        <v>12001007</v>
+      </c>
+      <c r="B81" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C81" s="58" t="str">
+        <f t="shared" si="10"/>
+        <v>별 보상</v>
+      </c>
+      <c r="D81" s="58">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E81,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>2</v>
+      </c>
+      <c r="E81" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="F81" s="58">
+        <v>30</v>
+      </c>
+      <c r="G81" s="58">
+        <v>30</v>
+      </c>
+      <c r="H81" s="58">
+        <v>0</v>
+      </c>
+      <c r="I81" s="58">
+        <v>1000000</v>
+      </c>
+      <c r="J81" s="58" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="K81" s="58">
+        <v>1</v>
+      </c>
+      <c r="L81" s="58"/>
+    </row>
+    <row r="82" spans="1:12" s="57" customFormat="1">
+      <c r="A82" s="56">
+        <v>10001008</v>
+      </c>
+      <c r="B82" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C82" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D82" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E82,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>113</v>
+      </c>
+      <c r="E82" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="F82" s="56">
+        <v>16</v>
+      </c>
+      <c r="G82" s="56">
+        <v>5</v>
+      </c>
+      <c r="H82" s="56">
+        <v>0</v>
+      </c>
+      <c r="I82" s="56">
+        <v>1000000</v>
+      </c>
+      <c r="J82" s="56" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K82" s="56">
+        <v>0</v>
+      </c>
+      <c r="L82" s="56"/>
+    </row>
+    <row r="83" spans="1:12" s="57" customFormat="1">
+      <c r="A83" s="56">
+        <v>10001008</v>
+      </c>
+      <c r="B83" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C83" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D83" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E83,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>102</v>
+      </c>
+      <c r="E83" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="F83" s="56">
+        <v>6</v>
+      </c>
+      <c r="G83" s="56">
+        <v>10</v>
+      </c>
+      <c r="H83" s="56">
+        <v>0</v>
+      </c>
+      <c r="I83" s="56">
+        <v>1000000</v>
+      </c>
+      <c r="J83" s="56" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K83" s="56">
+        <v>0</v>
+      </c>
+      <c r="L83" s="56"/>
+    </row>
+    <row r="84" spans="1:12" s="57" customFormat="1">
+      <c r="A84" s="56">
+        <v>10001008</v>
+      </c>
+      <c r="B84" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C84" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D84" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E84,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E84" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F84" s="56">
+        <v>1</v>
+      </c>
+      <c r="G84" s="56">
+        <v>1</v>
+      </c>
+      <c r="H84" s="56">
+        <v>0</v>
+      </c>
+      <c r="I84" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J84" s="56" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="K84" s="56">
+        <v>1</v>
+      </c>
+      <c r="L84" s="56"/>
+    </row>
+    <row r="85" spans="1:12" s="57" customFormat="1">
+      <c r="A85" s="56">
+        <v>10001008</v>
+      </c>
+      <c r="B85" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C85" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D85" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E85,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E85" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F85" s="56">
+        <v>2</v>
+      </c>
+      <c r="G85" s="56">
+        <v>1</v>
+      </c>
+      <c r="H85" s="56">
+        <v>0</v>
+      </c>
+      <c r="I85" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J85" s="56" t="b">
+        <f>IF(K85&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K85" s="56">
+        <v>2</v>
+      </c>
+      <c r="L85" s="56"/>
+    </row>
+    <row r="86" spans="1:12" s="57" customFormat="1">
+      <c r="A86" s="56">
+        <v>10001008</v>
+      </c>
+      <c r="B86" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C86" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D86" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E86,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E86" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F86" s="56">
+        <v>11</v>
+      </c>
+      <c r="G86" s="56">
+        <v>1</v>
+      </c>
+      <c r="H86" s="56">
+        <v>0</v>
+      </c>
+      <c r="I86" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J86" s="56" t="b">
+        <f t="shared" ref="J86:J95" si="12">IF(K86&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K86" s="56">
+        <v>3</v>
+      </c>
+      <c r="L86" s="56"/>
+    </row>
+    <row r="87" spans="1:12" s="57" customFormat="1">
+      <c r="A87" s="56">
+        <v>10001008</v>
+      </c>
+      <c r="B87" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C87" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D87" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E87,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E87" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F87" s="56">
+        <v>12</v>
+      </c>
+      <c r="G87" s="56">
+        <v>1</v>
+      </c>
+      <c r="H87" s="56">
+        <v>0</v>
+      </c>
+      <c r="I87" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J87" s="56" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K87" s="56">
+        <v>0</v>
+      </c>
+      <c r="L87" s="56"/>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="5">
+        <v>11001008</v>
+      </c>
+      <c r="B88" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C88" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>초회</v>
+      </c>
+      <c r="D88" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E88,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F88" s="5">
+        <v>15</v>
+      </c>
+      <c r="G88" s="5">
+        <v>1</v>
+      </c>
+      <c r="H88" s="5">
+        <v>1</v>
+      </c>
+      <c r="I88" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J88" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="K88" s="5">
+        <v>1</v>
+      </c>
+      <c r="L88" s="5"/>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="5">
+        <v>11001008</v>
+      </c>
+      <c r="B89" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C89" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>초회</v>
+      </c>
+      <c r="D89" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E89,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F89" s="5">
+        <v>19</v>
+      </c>
+      <c r="G89" s="5">
+        <v>1</v>
+      </c>
+      <c r="H89" s="5">
+        <v>1</v>
+      </c>
+      <c r="I89" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J89" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="K89" s="5">
+        <v>2</v>
+      </c>
+      <c r="L89" s="5"/>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="5">
+        <v>11001008</v>
+      </c>
+      <c r="B90" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C90" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>초회</v>
+      </c>
+      <c r="D90" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E90,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F90" s="5">
+        <v>22</v>
+      </c>
+      <c r="G90" s="5">
+        <v>1</v>
+      </c>
+      <c r="H90" s="5">
+        <v>1</v>
+      </c>
+      <c r="I90" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J90" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K90" s="5">
+        <v>0</v>
+      </c>
+      <c r="L90" s="5"/>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="5">
+        <v>11001008</v>
+      </c>
+      <c r="B91" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C91" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>초회</v>
+      </c>
+      <c r="D91" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E91,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F91" s="5">
+        <v>24</v>
+      </c>
+      <c r="G91" s="5">
+        <v>1</v>
+      </c>
+      <c r="H91" s="5">
+        <v>1</v>
+      </c>
+      <c r="I91" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J91" s="5" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K91" s="5">
+        <v>0</v>
+      </c>
+      <c r="L91" s="5"/>
+    </row>
+    <row r="92" spans="1:12" s="59" customFormat="1">
+      <c r="A92" s="58">
+        <v>12001008</v>
+      </c>
+      <c r="B92" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C92" s="58" t="str">
+        <f t="shared" si="10"/>
+        <v>별 보상</v>
+      </c>
+      <c r="D92" s="58">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E92,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>2</v>
+      </c>
+      <c r="E92" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="F92" s="58">
+        <v>30</v>
+      </c>
+      <c r="G92" s="58">
+        <v>30</v>
+      </c>
+      <c r="H92" s="58">
+        <v>0</v>
+      </c>
+      <c r="I92" s="58">
+        <v>1000000</v>
+      </c>
+      <c r="J92" s="58" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="K92" s="58">
+        <v>1</v>
+      </c>
+      <c r="L92" s="58"/>
+    </row>
+    <row r="93" spans="1:12" s="57" customFormat="1">
+      <c r="A93" s="56">
+        <v>10001009</v>
+      </c>
+      <c r="B93" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C93" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D93" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E93,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>113</v>
+      </c>
+      <c r="E93" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="F93" s="56">
+        <v>16</v>
+      </c>
+      <c r="G93" s="56">
+        <v>5</v>
+      </c>
+      <c r="H93" s="56">
+        <v>0</v>
+      </c>
+      <c r="I93" s="56">
+        <v>1000000</v>
+      </c>
+      <c r="J93" s="56" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K93" s="56">
+        <v>0</v>
+      </c>
+      <c r="L93" s="56"/>
+    </row>
+    <row r="94" spans="1:12" s="57" customFormat="1">
+      <c r="A94" s="56">
+        <v>10001009</v>
+      </c>
+      <c r="B94" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C94" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D94" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E94,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>102</v>
+      </c>
+      <c r="E94" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="F94" s="56">
+        <v>6</v>
+      </c>
+      <c r="G94" s="56">
+        <v>10</v>
+      </c>
+      <c r="H94" s="56">
+        <v>0</v>
+      </c>
+      <c r="I94" s="56">
+        <v>1000000</v>
+      </c>
+      <c r="J94" s="56" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K94" s="56">
+        <v>0</v>
+      </c>
+      <c r="L94" s="56"/>
+    </row>
+    <row r="95" spans="1:12" s="57" customFormat="1">
+      <c r="A95" s="56">
+        <v>10001009</v>
+      </c>
+      <c r="B95" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C95" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D95" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E95,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E95" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F95" s="56">
+        <v>1</v>
+      </c>
+      <c r="G95" s="56">
+        <v>1</v>
+      </c>
+      <c r="H95" s="56">
+        <v>0</v>
+      </c>
+      <c r="I95" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J95" s="56" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="K95" s="56">
+        <v>1</v>
+      </c>
+      <c r="L95" s="56"/>
+    </row>
+    <row r="96" spans="1:12" s="57" customFormat="1">
+      <c r="A96" s="56">
+        <v>10001009</v>
+      </c>
+      <c r="B96" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C96" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D96" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E96,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E96" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F96" s="56">
+        <v>2</v>
+      </c>
+      <c r="G96" s="56">
+        <v>1</v>
+      </c>
+      <c r="H96" s="56">
+        <v>0</v>
+      </c>
+      <c r="I96" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J96" s="56" t="b">
+        <f>IF(K96&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K96" s="56">
+        <v>2</v>
+      </c>
+      <c r="L96" s="56"/>
+    </row>
+    <row r="97" spans="1:12" s="57" customFormat="1">
+      <c r="A97" s="56">
+        <v>10001009</v>
+      </c>
+      <c r="B97" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C97" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D97" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E97,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E97" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F97" s="56">
+        <v>11</v>
+      </c>
+      <c r="G97" s="56">
+        <v>1</v>
+      </c>
+      <c r="H97" s="56">
+        <v>0</v>
+      </c>
+      <c r="I97" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J97" s="56" t="b">
+        <f t="shared" ref="J97:J106" si="13">IF(K97&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K97" s="56">
+        <v>3</v>
+      </c>
+      <c r="L97" s="56"/>
+    </row>
+    <row r="98" spans="1:12" s="57" customFormat="1">
+      <c r="A98" s="56">
+        <v>10001009</v>
+      </c>
+      <c r="B98" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C98" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D98" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E98,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E98" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F98" s="56">
+        <v>12</v>
+      </c>
+      <c r="G98" s="56">
+        <v>1</v>
+      </c>
+      <c r="H98" s="56">
+        <v>0</v>
+      </c>
+      <c r="I98" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J98" s="56" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K98" s="56">
+        <v>0</v>
+      </c>
+      <c r="L98" s="56"/>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="5">
+        <v>11001009</v>
+      </c>
+      <c r="B99" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C99" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>초회</v>
+      </c>
+      <c r="D99" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E99,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F99" s="5">
+        <v>15</v>
+      </c>
+      <c r="G99" s="5">
+        <v>1</v>
+      </c>
+      <c r="H99" s="5">
+        <v>1</v>
+      </c>
+      <c r="I99" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J99" s="5" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="K99" s="5">
+        <v>1</v>
+      </c>
+      <c r="L99" s="5"/>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" s="5">
+        <v>11001009</v>
+      </c>
+      <c r="B100" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C100" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>초회</v>
+      </c>
+      <c r="D100" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E100,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F100" s="5">
+        <v>19</v>
+      </c>
+      <c r="G100" s="5">
+        <v>1</v>
+      </c>
+      <c r="H100" s="5">
+        <v>1</v>
+      </c>
+      <c r="I100" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J100" s="5" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="K100" s="5">
+        <v>2</v>
+      </c>
+      <c r="L100" s="5"/>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="5">
+        <v>11001009</v>
+      </c>
+      <c r="B101" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C101" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>초회</v>
+      </c>
+      <c r="D101" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E101,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F101" s="5">
+        <v>22</v>
+      </c>
+      <c r="G101" s="5">
+        <v>1</v>
+      </c>
+      <c r="H101" s="5">
+        <v>1</v>
+      </c>
+      <c r="I101" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J101" s="5" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K101" s="5">
+        <v>0</v>
+      </c>
+      <c r="L101" s="5"/>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" s="5">
+        <v>11001009</v>
+      </c>
+      <c r="B102" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C102" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>초회</v>
+      </c>
+      <c r="D102" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E102,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F102" s="5">
+        <v>24</v>
+      </c>
+      <c r="G102" s="5">
+        <v>1</v>
+      </c>
+      <c r="H102" s="5">
+        <v>1</v>
+      </c>
+      <c r="I102" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J102" s="5" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K102" s="5">
+        <v>0</v>
+      </c>
+      <c r="L102" s="5"/>
+    </row>
+    <row r="103" spans="1:12" s="59" customFormat="1">
+      <c r="A103" s="58">
+        <v>12001009</v>
+      </c>
+      <c r="B103" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C103" s="58" t="str">
+        <f t="shared" si="10"/>
+        <v>별 보상</v>
+      </c>
+      <c r="D103" s="58">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E103,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>2</v>
+      </c>
+      <c r="E103" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="F103" s="58">
+        <v>30</v>
+      </c>
+      <c r="G103" s="58">
+        <v>30</v>
+      </c>
+      <c r="H103" s="58">
+        <v>0</v>
+      </c>
+      <c r="I103" s="58">
+        <v>1000000</v>
+      </c>
+      <c r="J103" s="58" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="K103" s="58">
+        <v>1</v>
+      </c>
+      <c r="L103" s="58"/>
+    </row>
+    <row r="104" spans="1:12" s="57" customFormat="1">
+      <c r="A104" s="56">
+        <v>10001010</v>
+      </c>
+      <c r="B104" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C104" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D104" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E104,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>113</v>
+      </c>
+      <c r="E104" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="F104" s="56">
+        <v>16</v>
+      </c>
+      <c r="G104" s="56">
+        <v>5</v>
+      </c>
+      <c r="H104" s="56">
+        <v>0</v>
+      </c>
+      <c r="I104" s="56">
+        <v>1000000</v>
+      </c>
+      <c r="J104" s="56" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K104" s="56">
+        <v>0</v>
+      </c>
+      <c r="L104" s="56"/>
+    </row>
+    <row r="105" spans="1:12" s="57" customFormat="1">
+      <c r="A105" s="56">
+        <v>10001010</v>
+      </c>
+      <c r="B105" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C105" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D105" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E105,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>102</v>
+      </c>
+      <c r="E105" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="F105" s="56">
+        <v>6</v>
+      </c>
+      <c r="G105" s="56">
+        <v>10</v>
+      </c>
+      <c r="H105" s="56">
+        <v>0</v>
+      </c>
+      <c r="I105" s="56">
+        <v>1000000</v>
+      </c>
+      <c r="J105" s="56" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K105" s="56">
+        <v>0</v>
+      </c>
+      <c r="L105" s="56"/>
+    </row>
+    <row r="106" spans="1:12" s="57" customFormat="1">
+      <c r="A106" s="56">
+        <v>10001010</v>
+      </c>
+      <c r="B106" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C106" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D106" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E106,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E106" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F106" s="56">
+        <v>1</v>
+      </c>
+      <c r="G106" s="56">
+        <v>1</v>
+      </c>
+      <c r="H106" s="56">
+        <v>0</v>
+      </c>
+      <c r="I106" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J106" s="56" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="K106" s="56">
+        <v>1</v>
+      </c>
+      <c r="L106" s="56"/>
+    </row>
+    <row r="107" spans="1:12" s="57" customFormat="1">
+      <c r="A107" s="56">
+        <v>10001010</v>
+      </c>
+      <c r="B107" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C107" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D107" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E107,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E107" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F107" s="56">
+        <v>2</v>
+      </c>
+      <c r="G107" s="56">
+        <v>1</v>
+      </c>
+      <c r="H107" s="56">
+        <v>0</v>
+      </c>
+      <c r="I107" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J107" s="56" t="b">
+        <f>IF(K107&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K107" s="56">
+        <v>2</v>
+      </c>
+      <c r="L107" s="56"/>
+    </row>
+    <row r="108" spans="1:12" s="57" customFormat="1">
+      <c r="A108" s="56">
+        <v>10001010</v>
+      </c>
+      <c r="B108" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C108" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D108" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E108,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E108" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F108" s="56">
+        <v>11</v>
+      </c>
+      <c r="G108" s="56">
+        <v>1</v>
+      </c>
+      <c r="H108" s="56">
+        <v>0</v>
+      </c>
+      <c r="I108" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J108" s="56" t="b">
+        <f t="shared" ref="J108:J117" si="14">IF(K108&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K108" s="56">
+        <v>3</v>
+      </c>
+      <c r="L108" s="56"/>
+    </row>
+    <row r="109" spans="1:12" s="57" customFormat="1">
+      <c r="A109" s="56">
+        <v>10001010</v>
+      </c>
+      <c r="B109" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C109" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D109" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E109,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E109" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F109" s="56">
+        <v>12</v>
+      </c>
+      <c r="G109" s="56">
+        <v>1</v>
+      </c>
+      <c r="H109" s="56">
+        <v>0</v>
+      </c>
+      <c r="I109" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J109" s="56" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K109" s="56">
+        <v>0</v>
+      </c>
+      <c r="L109" s="56"/>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110" s="5">
+        <v>11001010</v>
+      </c>
+      <c r="B110" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C110" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>초회</v>
+      </c>
+      <c r="D110" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E110,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F110" s="5">
+        <v>15</v>
+      </c>
+      <c r="G110" s="5">
+        <v>1</v>
+      </c>
+      <c r="H110" s="5">
+        <v>1</v>
+      </c>
+      <c r="I110" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J110" s="5" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="K110" s="5">
+        <v>1</v>
+      </c>
+      <c r="L110" s="5"/>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111" s="5">
+        <v>11001010</v>
+      </c>
+      <c r="B111" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C111" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>초회</v>
+      </c>
+      <c r="D111" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E111,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F111" s="5">
+        <v>19</v>
+      </c>
+      <c r="G111" s="5">
+        <v>1</v>
+      </c>
+      <c r="H111" s="5">
+        <v>1</v>
+      </c>
+      <c r="I111" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J111" s="5" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="K111" s="5">
+        <v>2</v>
+      </c>
+      <c r="L111" s="5"/>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112" s="5">
+        <v>11001010</v>
+      </c>
+      <c r="B112" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C112" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>초회</v>
+      </c>
+      <c r="D112" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E112,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F112" s="5">
+        <v>22</v>
+      </c>
+      <c r="G112" s="5">
+        <v>1</v>
+      </c>
+      <c r="H112" s="5">
+        <v>1</v>
+      </c>
+      <c r="I112" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J112" s="5" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K112" s="5">
+        <v>0</v>
+      </c>
+      <c r="L112" s="5"/>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113" s="5">
+        <v>11001010</v>
+      </c>
+      <c r="B113" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C113" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>초회</v>
+      </c>
+      <c r="D113" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E113,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F113" s="5">
+        <v>24</v>
+      </c>
+      <c r="G113" s="5">
+        <v>1</v>
+      </c>
+      <c r="H113" s="5">
+        <v>1</v>
+      </c>
+      <c r="I113" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J113" s="5" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K113" s="5">
+        <v>0</v>
+      </c>
+      <c r="L113" s="5"/>
+    </row>
+    <row r="114" spans="1:12" s="59" customFormat="1">
+      <c r="A114" s="58">
+        <v>12001010</v>
+      </c>
+      <c r="B114" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C114" s="58" t="str">
+        <f t="shared" si="10"/>
+        <v>별 보상</v>
+      </c>
+      <c r="D114" s="58">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E114,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>2</v>
+      </c>
+      <c r="E114" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="F114" s="58">
+        <v>30</v>
+      </c>
+      <c r="G114" s="58">
+        <v>30</v>
+      </c>
+      <c r="H114" s="58">
+        <v>0</v>
+      </c>
+      <c r="I114" s="58">
+        <v>1000000</v>
+      </c>
+      <c r="J114" s="58" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="K114" s="58">
+        <v>1</v>
+      </c>
+      <c r="L114" s="58"/>
+    </row>
+    <row r="115" spans="1:12" s="57" customFormat="1">
+      <c r="A115" s="56">
+        <v>10001011</v>
+      </c>
+      <c r="B115" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C115" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D115" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E115,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>113</v>
+      </c>
+      <c r="E115" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="F115" s="56">
+        <v>16</v>
+      </c>
+      <c r="G115" s="56">
+        <v>5</v>
+      </c>
+      <c r="H115" s="56">
+        <v>0</v>
+      </c>
+      <c r="I115" s="56">
+        <v>1000000</v>
+      </c>
+      <c r="J115" s="56" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K115" s="56">
+        <v>0</v>
+      </c>
+      <c r="L115" s="56"/>
+    </row>
+    <row r="116" spans="1:12" s="57" customFormat="1">
+      <c r="A116" s="56">
+        <v>10001011</v>
+      </c>
+      <c r="B116" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C116" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D116" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E116,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>102</v>
+      </c>
+      <c r="E116" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="F116" s="56">
+        <v>6</v>
+      </c>
+      <c r="G116" s="56">
+        <v>10</v>
+      </c>
+      <c r="H116" s="56">
+        <v>0</v>
+      </c>
+      <c r="I116" s="56">
+        <v>1000000</v>
+      </c>
+      <c r="J116" s="56" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K116" s="56">
+        <v>0</v>
+      </c>
+      <c r="L116" s="56"/>
+    </row>
+    <row r="117" spans="1:12" s="57" customFormat="1">
+      <c r="A117" s="56">
+        <v>10001011</v>
+      </c>
+      <c r="B117" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C117" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D117" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E117,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E117" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F117" s="56">
+        <v>1</v>
+      </c>
+      <c r="G117" s="56">
+        <v>1</v>
+      </c>
+      <c r="H117" s="56">
+        <v>0</v>
+      </c>
+      <c r="I117" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J117" s="56" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="K117" s="56">
+        <v>1</v>
+      </c>
+      <c r="L117" s="56"/>
+    </row>
+    <row r="118" spans="1:12" s="57" customFormat="1">
+      <c r="A118" s="56">
+        <v>10001011</v>
+      </c>
+      <c r="B118" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C118" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D118" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E118,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E118" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F118" s="56">
+        <v>2</v>
+      </c>
+      <c r="G118" s="56">
+        <v>1</v>
+      </c>
+      <c r="H118" s="56">
+        <v>0</v>
+      </c>
+      <c r="I118" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J118" s="56" t="b">
+        <f>IF(K118&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K118" s="56">
+        <v>2</v>
+      </c>
+      <c r="L118" s="56"/>
+    </row>
+    <row r="119" spans="1:12" s="57" customFormat="1">
+      <c r="A119" s="56">
+        <v>10001011</v>
+      </c>
+      <c r="B119" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C119" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D119" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E119,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E119" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F119" s="56">
+        <v>11</v>
+      </c>
+      <c r="G119" s="56">
+        <v>1</v>
+      </c>
+      <c r="H119" s="56">
+        <v>0</v>
+      </c>
+      <c r="I119" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J119" s="56" t="b">
+        <f t="shared" ref="J119:J161" si="15">IF(K119&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K119" s="56">
+        <v>3</v>
+      </c>
+      <c r="L119" s="56"/>
+    </row>
+    <row r="120" spans="1:12" s="57" customFormat="1">
+      <c r="A120" s="56">
+        <v>10001011</v>
+      </c>
+      <c r="B120" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C120" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D120" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E120,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E120" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F120" s="56">
+        <v>12</v>
+      </c>
+      <c r="G120" s="56">
+        <v>1</v>
+      </c>
+      <c r="H120" s="56">
+        <v>0</v>
+      </c>
+      <c r="I120" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J120" s="56" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K120" s="56">
+        <v>0</v>
+      </c>
+      <c r="L120" s="56"/>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121" s="5">
+        <v>11001011</v>
+      </c>
+      <c r="B121" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C121" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>초회</v>
+      </c>
+      <c r="D121" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E121,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F121" s="5">
+        <v>15</v>
+      </c>
+      <c r="G121" s="5">
+        <v>1</v>
+      </c>
+      <c r="H121" s="5">
+        <v>1</v>
+      </c>
+      <c r="I121" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J121" s="5" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="K121" s="5">
+        <v>1</v>
+      </c>
+      <c r="L121" s="5"/>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122" s="5">
+        <v>11001011</v>
+      </c>
+      <c r="B122" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C122" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>초회</v>
+      </c>
+      <c r="D122" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E122,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F122" s="5">
+        <v>19</v>
+      </c>
+      <c r="G122" s="5">
+        <v>1</v>
+      </c>
+      <c r="H122" s="5">
+        <v>1</v>
+      </c>
+      <c r="I122" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J122" s="5" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="K122" s="5">
+        <v>2</v>
+      </c>
+      <c r="L122" s="5"/>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123" s="5">
+        <v>11001011</v>
+      </c>
+      <c r="B123" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C123" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>초회</v>
+      </c>
+      <c r="D123" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E123,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F123" s="5">
+        <v>22</v>
+      </c>
+      <c r="G123" s="5">
+        <v>1</v>
+      </c>
+      <c r="H123" s="5">
+        <v>1</v>
+      </c>
+      <c r="I123" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J123" s="5" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K123" s="5">
+        <v>0</v>
+      </c>
+      <c r="L123" s="5"/>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124" s="5">
+        <v>11001011</v>
+      </c>
+      <c r="B124" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C124" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>초회</v>
+      </c>
+      <c r="D124" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E124,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F124" s="5">
+        <v>24</v>
+      </c>
+      <c r="G124" s="5">
+        <v>1</v>
+      </c>
+      <c r="H124" s="5">
+        <v>1</v>
+      </c>
+      <c r="I124" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J124" s="5" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K124" s="5">
+        <v>0</v>
+      </c>
+      <c r="L124" s="5"/>
+    </row>
+    <row r="125" spans="1:12" s="59" customFormat="1">
+      <c r="A125" s="58">
+        <v>12001011</v>
+      </c>
+      <c r="B125" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C125" s="58" t="str">
+        <f t="shared" si="10"/>
+        <v>별 보상</v>
+      </c>
+      <c r="D125" s="58">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E125,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>2</v>
+      </c>
+      <c r="E125" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="F125" s="58">
+        <v>30</v>
+      </c>
+      <c r="G125" s="58">
+        <v>30</v>
+      </c>
+      <c r="H125" s="58">
+        <v>0</v>
+      </c>
+      <c r="I125" s="58">
+        <v>1000000</v>
+      </c>
+      <c r="J125" s="58" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="K125" s="58">
+        <v>1</v>
+      </c>
+      <c r="L125" s="58"/>
+    </row>
+    <row r="126" spans="1:12" s="57" customFormat="1">
+      <c r="A126" s="56">
+        <v>10001012</v>
+      </c>
+      <c r="B126" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C126" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D126" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E126,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>113</v>
+      </c>
+      <c r="E126" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="F126" s="56">
+        <v>16</v>
+      </c>
+      <c r="G126" s="56">
+        <v>5</v>
+      </c>
+      <c r="H126" s="56">
+        <v>0</v>
+      </c>
+      <c r="I126" s="56">
+        <v>1000000</v>
+      </c>
+      <c r="J126" s="56" t="b">
+        <f t="shared" ref="J126:J136" si="16">IF(K126&gt;0,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K126" s="56">
+        <v>0</v>
+      </c>
+      <c r="L126" s="56"/>
+    </row>
+    <row r="127" spans="1:12" s="57" customFormat="1">
+      <c r="A127" s="56">
+        <v>10001012</v>
+      </c>
+      <c r="B127" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C127" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D127" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E127,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>102</v>
+      </c>
+      <c r="E127" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="F127" s="56">
+        <v>6</v>
+      </c>
+      <c r="G127" s="56">
+        <v>10</v>
+      </c>
+      <c r="H127" s="56">
+        <v>0</v>
+      </c>
+      <c r="I127" s="56">
+        <v>1000000</v>
+      </c>
+      <c r="J127" s="56" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K127" s="56">
+        <v>0</v>
+      </c>
+      <c r="L127" s="56"/>
+    </row>
+    <row r="128" spans="1:12" s="57" customFormat="1">
+      <c r="A128" s="56">
+        <v>10001012</v>
+      </c>
+      <c r="B128" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C128" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D128" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E128,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E128" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F128" s="56">
+        <v>1</v>
+      </c>
+      <c r="G128" s="56">
+        <v>1</v>
+      </c>
+      <c r="H128" s="56">
+        <v>0</v>
+      </c>
+      <c r="I128" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J128" s="56" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="K128" s="56">
+        <v>1</v>
+      </c>
+      <c r="L128" s="56"/>
+    </row>
+    <row r="129" spans="1:12" s="57" customFormat="1">
+      <c r="A129" s="56">
+        <v>10001012</v>
+      </c>
+      <c r="B129" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C129" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D129" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E129,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E129" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F129" s="56">
+        <v>2</v>
+      </c>
+      <c r="G129" s="56">
+        <v>1</v>
+      </c>
+      <c r="H129" s="56">
+        <v>0</v>
+      </c>
+      <c r="I129" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J129" s="56" t="b">
+        <f>IF(K129&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K129" s="56">
+        <v>2</v>
+      </c>
+      <c r="L129" s="56"/>
+    </row>
+    <row r="130" spans="1:12" s="57" customFormat="1">
+      <c r="A130" s="56">
+        <v>10001012</v>
+      </c>
+      <c r="B130" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C130" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D130" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E130,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E130" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F130" s="56">
+        <v>11</v>
+      </c>
+      <c r="G130" s="56">
+        <v>1</v>
+      </c>
+      <c r="H130" s="56">
+        <v>0</v>
+      </c>
+      <c r="I130" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J130" s="56" t="b">
+        <f t="shared" ref="J130:J139" si="17">IF(K130&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K130" s="56">
+        <v>3</v>
+      </c>
+      <c r="L130" s="56"/>
+    </row>
+    <row r="131" spans="1:12" s="57" customFormat="1">
+      <c r="A131" s="56">
+        <v>10001012</v>
+      </c>
+      <c r="B131" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C131" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D131" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E131,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E131" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F131" s="56">
+        <v>12</v>
+      </c>
+      <c r="G131" s="56">
+        <v>1</v>
+      </c>
+      <c r="H131" s="56">
+        <v>0</v>
+      </c>
+      <c r="I131" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J131" s="56" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K131" s="56">
+        <v>0</v>
+      </c>
+      <c r="L131" s="56"/>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132" s="5">
+        <v>11001012</v>
+      </c>
+      <c r="B132" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C132" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>초회</v>
+      </c>
+      <c r="D132" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E132,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F132" s="5">
+        <v>15</v>
+      </c>
+      <c r="G132" s="5">
+        <v>1</v>
+      </c>
+      <c r="H132" s="5">
+        <v>1</v>
+      </c>
+      <c r="I132" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J132" s="5" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="K132" s="5">
+        <v>1</v>
+      </c>
+      <c r="L132" s="5"/>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133" s="5">
+        <v>11001012</v>
+      </c>
+      <c r="B133" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C133" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>초회</v>
+      </c>
+      <c r="D133" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E133,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F133" s="5">
+        <v>19</v>
+      </c>
+      <c r="G133" s="5">
+        <v>1</v>
+      </c>
+      <c r="H133" s="5">
+        <v>1</v>
+      </c>
+      <c r="I133" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J133" s="5" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="K133" s="5">
+        <v>2</v>
+      </c>
+      <c r="L133" s="5"/>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134" s="5">
+        <v>11001012</v>
+      </c>
+      <c r="B134" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C134" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>초회</v>
+      </c>
+      <c r="D134" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E134,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F134" s="5">
+        <v>22</v>
+      </c>
+      <c r="G134" s="5">
+        <v>1</v>
+      </c>
+      <c r="H134" s="5">
+        <v>1</v>
+      </c>
+      <c r="I134" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J134" s="5" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K134" s="5">
+        <v>0</v>
+      </c>
+      <c r="L134" s="5"/>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135" s="5">
+        <v>11001012</v>
+      </c>
+      <c r="B135" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C135" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>초회</v>
+      </c>
+      <c r="D135" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E135,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F135" s="5">
+        <v>24</v>
+      </c>
+      <c r="G135" s="5">
+        <v>1</v>
+      </c>
+      <c r="H135" s="5">
+        <v>1</v>
+      </c>
+      <c r="I135" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J135" s="5" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K135" s="5">
+        <v>0</v>
+      </c>
+      <c r="L135" s="5"/>
+    </row>
+    <row r="136" spans="1:12" s="59" customFormat="1">
+      <c r="A136" s="58">
+        <v>12001012</v>
+      </c>
+      <c r="B136" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C136" s="58" t="str">
+        <f t="shared" si="10"/>
+        <v>별 보상</v>
+      </c>
+      <c r="D136" s="58">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E136,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>2</v>
+      </c>
+      <c r="E136" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="F136" s="58">
+        <v>30</v>
+      </c>
+      <c r="G136" s="58">
+        <v>30</v>
+      </c>
+      <c r="H136" s="58">
+        <v>0</v>
+      </c>
+      <c r="I136" s="58">
+        <v>1000000</v>
+      </c>
+      <c r="J136" s="58" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="K136" s="58">
+        <v>1</v>
+      </c>
+      <c r="L136" s="58"/>
+    </row>
+    <row r="137" spans="1:12" s="57" customFormat="1">
+      <c r="A137" s="56">
+        <v>10001013</v>
+      </c>
+      <c r="B137" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C137" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D137" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E137,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>113</v>
+      </c>
+      <c r="E137" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="F137" s="56">
+        <v>16</v>
+      </c>
+      <c r="G137" s="56">
+        <v>5</v>
+      </c>
+      <c r="H137" s="56">
+        <v>0</v>
+      </c>
+      <c r="I137" s="56">
+        <v>1000000</v>
+      </c>
+      <c r="J137" s="56" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K137" s="56">
+        <v>0</v>
+      </c>
+      <c r="L137" s="56"/>
+    </row>
+    <row r="138" spans="1:12" s="57" customFormat="1">
+      <c r="A138" s="56">
+        <v>10001013</v>
+      </c>
+      <c r="B138" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C138" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D138" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E138,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>102</v>
+      </c>
+      <c r="E138" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="F138" s="56">
+        <v>6</v>
+      </c>
+      <c r="G138" s="56">
+        <v>10</v>
+      </c>
+      <c r="H138" s="56">
+        <v>0</v>
+      </c>
+      <c r="I138" s="56">
+        <v>1000000</v>
+      </c>
+      <c r="J138" s="56" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K138" s="56">
+        <v>0</v>
+      </c>
+      <c r="L138" s="56"/>
+    </row>
+    <row r="139" spans="1:12" s="57" customFormat="1">
+      <c r="A139" s="56">
+        <v>10001013</v>
+      </c>
+      <c r="B139" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C139" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D139" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E139,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E139" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F139" s="56">
+        <v>1</v>
+      </c>
+      <c r="G139" s="56">
+        <v>1</v>
+      </c>
+      <c r="H139" s="56">
+        <v>0</v>
+      </c>
+      <c r="I139" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J139" s="56" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="K139" s="56">
+        <v>1</v>
+      </c>
+      <c r="L139" s="56"/>
+    </row>
+    <row r="140" spans="1:12" s="57" customFormat="1">
+      <c r="A140" s="56">
+        <v>10001013</v>
+      </c>
+      <c r="B140" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C140" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D140" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E140,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E140" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F140" s="56">
+        <v>2</v>
+      </c>
+      <c r="G140" s="56">
+        <v>1</v>
+      </c>
+      <c r="H140" s="56">
+        <v>0</v>
+      </c>
+      <c r="I140" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J140" s="56" t="b">
+        <f>IF(K140&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K140" s="56">
+        <v>2</v>
+      </c>
+      <c r="L140" s="56"/>
+    </row>
+    <row r="141" spans="1:12" s="57" customFormat="1">
+      <c r="A141" s="56">
+        <v>10001013</v>
+      </c>
+      <c r="B141" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C141" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D141" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E141,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E141" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F141" s="56">
+        <v>11</v>
+      </c>
+      <c r="G141" s="56">
+        <v>1</v>
+      </c>
+      <c r="H141" s="56">
+        <v>0</v>
+      </c>
+      <c r="I141" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J141" s="56" t="b">
+        <f t="shared" ref="J141:J150" si="18">IF(K141&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K141" s="56">
+        <v>3</v>
+      </c>
+      <c r="L141" s="56"/>
+    </row>
+    <row r="142" spans="1:12" s="57" customFormat="1">
+      <c r="A142" s="56">
+        <v>10001013</v>
+      </c>
+      <c r="B142" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C142" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D142" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E142,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E142" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F142" s="56">
+        <v>12</v>
+      </c>
+      <c r="G142" s="56">
+        <v>1</v>
+      </c>
+      <c r="H142" s="56">
+        <v>0</v>
+      </c>
+      <c r="I142" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J142" s="56" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K142" s="56">
+        <v>0</v>
+      </c>
+      <c r="L142" s="56"/>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143" s="5">
+        <v>11001013</v>
+      </c>
+      <c r="B143" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C143" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>초회</v>
+      </c>
+      <c r="D143" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E143,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F143" s="5">
+        <v>15</v>
+      </c>
+      <c r="G143" s="5">
+        <v>1</v>
+      </c>
+      <c r="H143" s="5">
+        <v>1</v>
+      </c>
+      <c r="I143" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J143" s="5" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="K143" s="5">
+        <v>1</v>
+      </c>
+      <c r="L143" s="5"/>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144" s="5">
+        <v>11001013</v>
+      </c>
+      <c r="B144" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C144" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>초회</v>
+      </c>
+      <c r="D144" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E144,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F144" s="5">
+        <v>19</v>
+      </c>
+      <c r="G144" s="5">
+        <v>1</v>
+      </c>
+      <c r="H144" s="5">
+        <v>1</v>
+      </c>
+      <c r="I144" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J144" s="5" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="K144" s="5">
+        <v>2</v>
+      </c>
+      <c r="L144" s="5"/>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145" s="5">
+        <v>11001013</v>
+      </c>
+      <c r="B145" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C145" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>초회</v>
+      </c>
+      <c r="D145" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E145,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F145" s="5">
+        <v>22</v>
+      </c>
+      <c r="G145" s="5">
+        <v>1</v>
+      </c>
+      <c r="H145" s="5">
+        <v>1</v>
+      </c>
+      <c r="I145" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J145" s="5" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K145" s="5">
+        <v>0</v>
+      </c>
+      <c r="L145" s="5"/>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146" s="5">
+        <v>11001013</v>
+      </c>
+      <c r="B146" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C146" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>초회</v>
+      </c>
+      <c r="D146" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E146,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F146" s="5">
+        <v>24</v>
+      </c>
+      <c r="G146" s="5">
+        <v>1</v>
+      </c>
+      <c r="H146" s="5">
+        <v>1</v>
+      </c>
+      <c r="I146" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J146" s="5" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K146" s="5">
+        <v>0</v>
+      </c>
+      <c r="L146" s="5"/>
+    </row>
+    <row r="147" spans="1:12" s="59" customFormat="1">
+      <c r="A147" s="58">
+        <v>12001013</v>
+      </c>
+      <c r="B147" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C147" s="58" t="str">
+        <f t="shared" si="10"/>
+        <v>별 보상</v>
+      </c>
+      <c r="D147" s="58">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E147,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>2</v>
+      </c>
+      <c r="E147" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="F147" s="58">
+        <v>30</v>
+      </c>
+      <c r="G147" s="58">
+        <v>30</v>
+      </c>
+      <c r="H147" s="58">
+        <v>0</v>
+      </c>
+      <c r="I147" s="58">
+        <v>1000000</v>
+      </c>
+      <c r="J147" s="58" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="K147" s="58">
+        <v>1</v>
+      </c>
+      <c r="L147" s="58"/>
+    </row>
+    <row r="148" spans="1:12" s="57" customFormat="1">
+      <c r="A148" s="56">
+        <v>10001014</v>
+      </c>
+      <c r="B148" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C148" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D148" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E148,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>113</v>
+      </c>
+      <c r="E148" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="F148" s="56">
+        <v>16</v>
+      </c>
+      <c r="G148" s="56">
+        <v>5</v>
+      </c>
+      <c r="H148" s="56">
+        <v>0</v>
+      </c>
+      <c r="I148" s="56">
+        <v>1000000</v>
+      </c>
+      <c r="J148" s="56" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K148" s="56">
+        <v>0</v>
+      </c>
+      <c r="L148" s="56"/>
+    </row>
+    <row r="149" spans="1:12" s="57" customFormat="1">
+      <c r="A149" s="56">
+        <v>10001014</v>
+      </c>
+      <c r="B149" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C149" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D149" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E149,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>102</v>
+      </c>
+      <c r="E149" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="F149" s="56">
+        <v>6</v>
+      </c>
+      <c r="G149" s="56">
+        <v>10</v>
+      </c>
+      <c r="H149" s="56">
+        <v>0</v>
+      </c>
+      <c r="I149" s="56">
+        <v>1000000</v>
+      </c>
+      <c r="J149" s="56" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K149" s="56">
+        <v>0</v>
+      </c>
+      <c r="L149" s="56"/>
+    </row>
+    <row r="150" spans="1:12" s="57" customFormat="1">
+      <c r="A150" s="56">
+        <v>10001014</v>
+      </c>
+      <c r="B150" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C150" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D150" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E150,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E150" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F150" s="56">
+        <v>1</v>
+      </c>
+      <c r="G150" s="56">
+        <v>1</v>
+      </c>
+      <c r="H150" s="56">
+        <v>0</v>
+      </c>
+      <c r="I150" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J150" s="56" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="K150" s="56">
+        <v>1</v>
+      </c>
+      <c r="L150" s="56"/>
+    </row>
+    <row r="151" spans="1:12" s="57" customFormat="1">
+      <c r="A151" s="56">
+        <v>10001014</v>
+      </c>
+      <c r="B151" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C151" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D151" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E151,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E151" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F151" s="56">
+        <v>2</v>
+      </c>
+      <c r="G151" s="56">
+        <v>1</v>
+      </c>
+      <c r="H151" s="56">
+        <v>0</v>
+      </c>
+      <c r="I151" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J151" s="56" t="b">
+        <f>IF(K151&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K151" s="56">
+        <v>2</v>
+      </c>
+      <c r="L151" s="56"/>
+    </row>
+    <row r="152" spans="1:12" s="57" customFormat="1">
+      <c r="A152" s="56">
+        <v>10001014</v>
+      </c>
+      <c r="B152" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C152" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D152" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E152,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E152" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F152" s="56">
+        <v>11</v>
+      </c>
+      <c r="G152" s="56">
+        <v>1</v>
+      </c>
+      <c r="H152" s="56">
+        <v>0</v>
+      </c>
+      <c r="I152" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J152" s="56" t="b">
+        <f t="shared" ref="J152:J158" si="19">IF(K152&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K152" s="56">
+        <v>3</v>
+      </c>
+      <c r="L152" s="56"/>
+    </row>
+    <row r="153" spans="1:12" s="57" customFormat="1">
+      <c r="A153" s="56">
+        <v>10001014</v>
+      </c>
+      <c r="B153" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C153" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D153" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E153,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E153" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F153" s="56">
+        <v>12</v>
+      </c>
+      <c r="G153" s="56">
+        <v>1</v>
+      </c>
+      <c r="H153" s="56">
+        <v>0</v>
+      </c>
+      <c r="I153" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J153" s="56" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K153" s="56">
+        <v>0</v>
+      </c>
+      <c r="L153" s="56"/>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154" s="5">
+        <v>11001014</v>
+      </c>
+      <c r="B154" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C154" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>초회</v>
+      </c>
+      <c r="D154" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E154,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F154" s="5">
+        <v>15</v>
+      </c>
+      <c r="G154" s="5">
+        <v>1</v>
+      </c>
+      <c r="H154" s="5">
+        <v>1</v>
+      </c>
+      <c r="I154" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J154" s="5" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="K154" s="5">
+        <v>1</v>
+      </c>
+      <c r="L154" s="5"/>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155" s="5">
+        <v>11001014</v>
+      </c>
+      <c r="B155" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C155" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>초회</v>
+      </c>
+      <c r="D155" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E155,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F155" s="5">
+        <v>19</v>
+      </c>
+      <c r="G155" s="5">
+        <v>1</v>
+      </c>
+      <c r="H155" s="5">
+        <v>1</v>
+      </c>
+      <c r="I155" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J155" s="5" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="K155" s="5">
+        <v>2</v>
+      </c>
+      <c r="L155" s="5"/>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156" s="5">
+        <v>11001014</v>
+      </c>
+      <c r="B156" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C156" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>초회</v>
+      </c>
+      <c r="D156" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E156,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F156" s="5">
+        <v>22</v>
+      </c>
+      <c r="G156" s="5">
+        <v>1</v>
+      </c>
+      <c r="H156" s="5">
+        <v>1</v>
+      </c>
+      <c r="I156" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J156" s="5" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K156" s="5">
+        <v>0</v>
+      </c>
+      <c r="L156" s="5"/>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157" s="5">
+        <v>11001014</v>
+      </c>
+      <c r="B157" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C157" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>초회</v>
+      </c>
+      <c r="D157" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E157,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F157" s="5">
+        <v>24</v>
+      </c>
+      <c r="G157" s="5">
+        <v>1</v>
+      </c>
+      <c r="H157" s="5">
+        <v>1</v>
+      </c>
+      <c r="I157" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J157" s="5" t="b">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K157" s="5">
+        <v>0</v>
+      </c>
+      <c r="L157" s="5"/>
+    </row>
+    <row r="158" spans="1:12" s="59" customFormat="1">
+      <c r="A158" s="58">
+        <v>12001014</v>
+      </c>
+      <c r="B158" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C158" s="58" t="str">
+        <f t="shared" si="10"/>
+        <v>별 보상</v>
+      </c>
+      <c r="D158" s="58">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E158,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>2</v>
+      </c>
+      <c r="E158" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="F158" s="58">
+        <v>30</v>
+      </c>
+      <c r="G158" s="58">
+        <v>30</v>
+      </c>
+      <c r="H158" s="58">
+        <v>0</v>
+      </c>
+      <c r="I158" s="58">
+        <v>1000000</v>
+      </c>
+      <c r="J158" s="58" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="K158" s="58">
+        <v>1</v>
+      </c>
+      <c r="L158" s="58"/>
+    </row>
+    <row r="159" spans="1:12" s="57" customFormat="1">
+      <c r="A159" s="56">
+        <v>10001015</v>
+      </c>
+      <c r="B159" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C159" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D159" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E159,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>113</v>
+      </c>
+      <c r="E159" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="F159" s="56">
+        <v>16</v>
+      </c>
+      <c r="G159" s="56">
+        <v>5</v>
+      </c>
+      <c r="H159" s="56">
+        <v>0</v>
+      </c>
+      <c r="I159" s="56">
+        <v>1000000</v>
+      </c>
+      <c r="J159" s="56" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K159" s="56">
+        <v>0</v>
+      </c>
+      <c r="L159" s="56"/>
+    </row>
+    <row r="160" spans="1:12" s="57" customFormat="1">
+      <c r="A160" s="56">
+        <v>10001015</v>
+      </c>
+      <c r="B160" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C160" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D160" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E160,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>102</v>
+      </c>
+      <c r="E160" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="F160" s="56">
+        <v>6</v>
+      </c>
+      <c r="G160" s="56">
+        <v>10</v>
+      </c>
+      <c r="H160" s="56">
+        <v>0</v>
+      </c>
+      <c r="I160" s="56">
+        <v>1000000</v>
+      </c>
+      <c r="J160" s="56" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K160" s="56">
+        <v>0</v>
+      </c>
+      <c r="L160" s="56"/>
+    </row>
+    <row r="161" spans="1:12" s="57" customFormat="1">
+      <c r="A161" s="56">
+        <v>10001015</v>
+      </c>
+      <c r="B161" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C161" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D161" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E161,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E161" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F161" s="56">
+        <v>1</v>
+      </c>
+      <c r="G161" s="56">
+        <v>1</v>
+      </c>
+      <c r="H161" s="56">
+        <v>0</v>
+      </c>
+      <c r="I161" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J161" s="56" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="K161" s="56">
+        <v>1</v>
+      </c>
+      <c r="L161" s="56"/>
+    </row>
+    <row r="162" spans="1:12" s="57" customFormat="1">
+      <c r="A162" s="56">
+        <v>10001015</v>
+      </c>
+      <c r="B162" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C162" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D162" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E162,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E162" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F162" s="56">
+        <v>2</v>
+      </c>
+      <c r="G162" s="56">
+        <v>1</v>
+      </c>
+      <c r="H162" s="56">
+        <v>0</v>
+      </c>
+      <c r="I162" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J162" s="56" t="b">
+        <f>IF(K162&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K162" s="56">
+        <v>2</v>
+      </c>
+      <c r="L162" s="56"/>
+    </row>
+    <row r="163" spans="1:12" s="57" customFormat="1">
+      <c r="A163" s="56">
+        <v>10001015</v>
+      </c>
+      <c r="B163" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C163" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D163" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E163,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E163" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F163" s="56">
+        <v>11</v>
+      </c>
+      <c r="G163" s="56">
+        <v>1</v>
+      </c>
+      <c r="H163" s="56">
+        <v>0</v>
+      </c>
+      <c r="I163" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J163" s="56" t="b">
+        <f t="shared" ref="J163:J169" si="20">IF(K163&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K163" s="56">
+        <v>3</v>
+      </c>
+      <c r="L163" s="56"/>
+    </row>
+    <row r="164" spans="1:12" s="57" customFormat="1">
+      <c r="A164" s="56">
+        <v>10001015</v>
+      </c>
+      <c r="B164" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C164" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>통상</v>
+      </c>
+      <c r="D164" s="56">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E164,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E164" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F164" s="56">
+        <v>12</v>
+      </c>
+      <c r="G164" s="56">
+        <v>1</v>
+      </c>
+      <c r="H164" s="56">
+        <v>0</v>
+      </c>
+      <c r="I164" s="56">
+        <v>250000</v>
+      </c>
+      <c r="J164" s="56" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K164" s="56">
+        <v>0</v>
+      </c>
+      <c r="L164" s="56"/>
+    </row>
+    <row r="165" spans="1:12">
+      <c r="A165" s="5">
+        <v>11001015</v>
+      </c>
+      <c r="B165" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C165" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>초회</v>
+      </c>
+      <c r="D165" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E165,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F165" s="5">
+        <v>15</v>
+      </c>
+      <c r="G165" s="5">
+        <v>1</v>
+      </c>
+      <c r="H165" s="5">
+        <v>1</v>
+      </c>
+      <c r="I165" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J165" s="5" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="K165" s="5">
+        <v>1</v>
+      </c>
+      <c r="L165" s="5"/>
+    </row>
+    <row r="166" spans="1:12">
+      <c r="A166" s="5">
+        <v>11001015</v>
+      </c>
+      <c r="B166" s="5" t="str">
+        <f t="shared" ref="B166:B169" si="21">IF(MID(A166, 1, 1) = "1", "메인 스테이지", IF(MID(A166, 1, 1) = "2", "일일던전", IF(MID(A166, 1, 1) = "3", "보스전", "다른 경우")))</f>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C166" s="5" t="str">
+        <f t="shared" ref="C166:C169" si="22">IF(MID(A166, 2, 1) = "0", "통상", IF(MID(A166, 2, 1) = "1", "초회", IF(MID(A166, 2, 1) = "2", "별 보상", "다른 경우")))</f>
+        <v>초회</v>
+      </c>
+      <c r="D166" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E166,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F166" s="5">
+        <v>19</v>
+      </c>
+      <c r="G166" s="5">
+        <v>1</v>
+      </c>
+      <c r="H166" s="5">
+        <v>1</v>
+      </c>
+      <c r="I166" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J166" s="5" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="K166" s="5">
+        <v>2</v>
+      </c>
+      <c r="L166" s="5"/>
+    </row>
+    <row r="167" spans="1:12">
+      <c r="A167" s="5">
+        <v>11001015</v>
+      </c>
+      <c r="B167" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C167" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v>초회</v>
+      </c>
+      <c r="D167" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E167,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F167" s="5">
+        <v>22</v>
+      </c>
+      <c r="G167" s="5">
+        <v>1</v>
+      </c>
+      <c r="H167" s="5">
+        <v>1</v>
+      </c>
+      <c r="I167" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J167" s="5" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K167" s="5">
+        <v>0</v>
+      </c>
+      <c r="L167" s="5"/>
+    </row>
+    <row r="168" spans="1:12">
+      <c r="A168" s="5">
+        <v>11001015</v>
+      </c>
+      <c r="B168" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C168" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v>초회</v>
+      </c>
+      <c r="D168" s="5">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E168,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>8</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F168" s="5">
+        <v>24</v>
+      </c>
+      <c r="G168" s="5">
+        <v>1</v>
+      </c>
+      <c r="H168" s="5">
+        <v>1</v>
+      </c>
+      <c r="I168" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J168" s="5" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K168" s="5">
+        <v>0</v>
+      </c>
+      <c r="L168" s="5"/>
+    </row>
+    <row r="169" spans="1:12" s="59" customFormat="1">
+      <c r="A169" s="58">
+        <v>12001015</v>
+      </c>
+      <c r="B169" s="58" t="str">
+        <f t="shared" si="21"/>
+        <v>메인 스테이지</v>
+      </c>
+      <c r="C169" s="58" t="str">
+        <f t="shared" si="22"/>
+        <v>별 보상</v>
+      </c>
+      <c r="D169" s="58">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E169,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <v>2</v>
+      </c>
+      <c r="E169" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="F169" s="58">
+        <v>100</v>
+      </c>
+      <c r="G169" s="58">
+        <v>100</v>
+      </c>
+      <c r="H169" s="58">
+        <v>0</v>
+      </c>
+      <c r="I169" s="58">
+        <v>1000000</v>
+      </c>
+      <c r="J169" s="58" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="K169" s="58">
+        <v>1</v>
+      </c>
+      <c r="L169" s="58"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5172,7 +11532,7 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$G$3:$G$50</xm:f>
           </x14:formula1>
-          <xm:sqref>C5:C21</xm:sqref>
+          <xm:sqref>E5:E169</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Android/ExcelData/RewardTable.xlsx
+++ b/Android/ExcelData/RewardTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB08840-DB94-4E93-BC41-546B662173E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DCA0A8-A6A5-445A-BBD9-F2C9D9EB9C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43845" yWindow="360" windowWidth="32580" windowHeight="19980" activeTab="5" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
+    <workbookView xWindow="3165" yWindow="660" windowWidth="32580" windowHeight="19980" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
   </bookViews>
   <sheets>
     <sheet name="!사용 설명" sheetId="6" r:id="rId1"/>
@@ -46,10 +46,22 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={F20F80B3-29AC-4B35-89A9-7770528F2CE2}</author>
     <author/>
   </authors>
   <commentList>
-    <comment ref="E31" authorId="0" shapeId="0" xr:uid="{59C7BC66-5081-4F53-BFD4-1CDBE0F41E39}">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{F20F80B3-29AC-4B35-89A9-7770528F2CE2}">
+      <text>
+        <t xml:space="preserve">[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    서버에서만 적용하는 데이터 (4번)
+운영툴에서 지급 시에만 동작합니다.
+클라이언트는 무시하는 데이터입니다.
+</t>
+      </text>
+    </comment>
+    <comment ref="E31" authorId="1" shapeId="0" xr:uid="{59C7BC66-5081-4F53-BFD4-1CDBE0F41E39}">
       <text>
         <r>
           <rPr>
@@ -64,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{C1C1C3C0-7AC2-4125-90DF-F97A74C91689}">
+    <comment ref="F32" authorId="1" shapeId="0" xr:uid="{C1C1C3C0-7AC2-4125-90DF-F97A74C91689}">
       <text>
         <r>
           <rPr>
@@ -737,9 +749,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6 장비</t>
-  </si>
-  <si>
     <t>2 보석(게임내 사용되는 유료 재화)</t>
   </si>
   <si>
@@ -757,6 +766,9 @@
   <si>
     <t>보상 타입 요약(기획)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 장비</t>
   </si>
 </sst>
 </file>
@@ -890,7 +902,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1002,6 +1014,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1166,7 +1184,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1262,6 +1280,24 @@
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1282,18 +1318,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1350,8 +1374,6 @@
       <sheetName val="@charge_type"/>
       <sheetName val="@reward_type"/>
       <sheetName val="@effect_count_type"/>
-      <sheetName val="@sd_body_type"/>
-      <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1535,41 +1557,11 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="21">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>LIMIT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="22">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ITEM_TYPE_V2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="23">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>GOODS_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="24">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="25">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
@@ -1686,7 +1678,7 @@
             <v>8</v>
           </cell>
           <cell r="C12" t="str">
-            <v>6 장비</v>
+            <v>8 장비</v>
           </cell>
         </row>
         <row r="13">
@@ -1697,7 +1689,7 @@
             <v>9</v>
           </cell>
           <cell r="C13" t="str">
-            <v>근원 전달 횟수(플레이어 보유)</v>
+            <v>9 근원 전달 횟수(플레이어 보유)</v>
           </cell>
         </row>
         <row r="14">
@@ -1708,7 +1700,7 @@
             <v>10</v>
           </cell>
           <cell r="C14" t="str">
-            <v>근원 받을 수 있는 횟수(캐릭터 공용 설정)</v>
+            <v>10 근원 받을 수 있는 횟수(캐릭터 공용 설정)</v>
           </cell>
         </row>
         <row r="15">
@@ -1856,8 +1848,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="30"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2166,6 +2156,17 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C7" dT="2024-01-18T09:58:49.46" personId="{A4FEC70C-EDE5-4E2F-9C4C-FEA4AEB32830}" id="{F20F80B3-29AC-4B35-89A9-7770528F2CE2}">
+    <text xml:space="preserve">서버에서만 적용하는 데이터 (4번)
+운영툴에서 지급 시에만 동작합니다.
+클라이언트는 무시하는 데이터입니다.
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A2" dT="2024-01-18T05:32:16.49" personId="{A4FEC70C-EDE5-4E2F-9C4C-FEA4AEB32830}" id="{E653A725-FF22-4016-B316-63AE3A695378}">
     <text>1010010 으로 사용
 컨텐츠 : 1 (스테이지 : 1, 이벤트 2, 보스 3 등)
@@ -2181,8 +2182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6C6356-D67F-4E24-8961-CC2F6C806F55}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -2236,10 +2237,10 @@
         <f>'!참조_ENUM'!G2</f>
         <v>comment</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="46"/>
+      <c r="E2" s="52"/>
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
       <c r="H2" s="41"/>
@@ -2516,7 +2517,7 @@
       </c>
       <c r="C11" s="37" t="str">
         <f>'!참조_ENUM'!G11</f>
-        <v>6 장비</v>
+        <v>8 장비</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>92</v>
@@ -2548,7 +2549,7 @@
       </c>
       <c r="C12" s="29" t="str">
         <f>'!참조_ENUM'!G12</f>
-        <v>근원 전달 횟수(플레이어 보유)</v>
+        <v>9 근원 전달 횟수(플레이어 보유)</v>
       </c>
       <c r="D12" s="31" t="s">
         <v>94</v>
@@ -2578,7 +2579,7 @@
       </c>
       <c r="C13" s="29" t="str">
         <f>'!참조_ENUM'!G13</f>
-        <v>근원 받을 수 있는 횟수(캐릭터 공용 설정)</v>
+        <v>10 근원 받을 수 있는 횟수(캐릭터 공용 설정)</v>
       </c>
       <c r="D13" s="31" t="s">
         <v>94</v>
@@ -3076,12 +3077,12 @@
       <c r="F31" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H31" s="47" t="s">
+      <c r="H31" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="49"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="55"/>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="15" t="s">
@@ -3369,11 +3370,11 @@
         <f t="shared" si="1"/>
         <v>5%</v>
       </c>
-      <c r="K40" s="50" t="str">
+      <c r="K40" s="56" t="str">
         <f>SUM(F40:F46)/10000&amp;"%"</f>
         <v>100%</v>
       </c>
-      <c r="L40" s="53" t="s">
+      <c r="L40" s="59" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3407,8 +3408,8 @@
         <f t="shared" si="1"/>
         <v>20%</v>
       </c>
-      <c r="K41" s="51"/>
-      <c r="L41" s="54"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="60"/>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="23">
@@ -3440,8 +3441,8 @@
         <f t="shared" si="1"/>
         <v>15%</v>
       </c>
-      <c r="K42" s="51"/>
-      <c r="L42" s="54"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="60"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="23">
@@ -3473,8 +3474,8 @@
         <f t="shared" si="1"/>
         <v>15%</v>
       </c>
-      <c r="K43" s="51"/>
-      <c r="L43" s="54"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="60"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="23">
@@ -3506,8 +3507,8 @@
         <f t="shared" si="1"/>
         <v>15%</v>
       </c>
-      <c r="K44" s="51"/>
-      <c r="L44" s="54"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="60"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="23">
@@ -3539,8 +3540,8 @@
         <f t="shared" si="1"/>
         <v>15%</v>
       </c>
-      <c r="K45" s="51"/>
-      <c r="L45" s="54"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="60"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="23">
@@ -3572,8 +3573,8 @@
         <f t="shared" si="1"/>
         <v>15%</v>
       </c>
-      <c r="K46" s="52"/>
-      <c r="L46" s="54"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="60"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="23">
@@ -3604,7 +3605,7 @@
         <f t="shared" si="1"/>
         <v>33%</v>
       </c>
-      <c r="K47" s="55" t="str">
+      <c r="K47" s="61" t="str">
         <f>SUM(F47:F49)/10000&amp;"%"</f>
         <v>100%</v>
       </c>
@@ -3638,7 +3639,7 @@
         <f t="shared" si="1"/>
         <v>33%</v>
       </c>
-      <c r="K48" s="51"/>
+      <c r="K48" s="57"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="23">
@@ -3669,7 +3670,7 @@
         <f t="shared" si="1"/>
         <v>34%</v>
       </c>
-      <c r="K49" s="52"/>
+      <c r="K49" s="58"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="23"/>
@@ -3718,7 +3719,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3909,7 +3910,7 @@
         <f>'[1]@item_type'!$C9</f>
         <v>5 경험치 물약</v>
       </c>
-      <c r="E8" s="5" t="str">
+      <c r="E8" s="49" t="str">
         <f>'[1]@reward_type'!A9</f>
         <v>EXP_PLAYER</v>
       </c>
@@ -3935,7 +3936,7 @@
         <f>'[1]@item_type'!$C10</f>
         <v>6 스테미나 회복 물약</v>
       </c>
-      <c r="E9" s="5" t="str">
+      <c r="E9" s="49" t="str">
         <f>'[1]@reward_type'!A10</f>
         <v>EXP_CHARACTER</v>
       </c>
@@ -3997,7 +3998,7 @@
       </c>
       <c r="G11" s="5" t="str">
         <f>'[1]@reward_type'!C12</f>
-        <v>6 장비</v>
+        <v>8 장비</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4013,7 +4014,7 @@
         <f>'[1]@item_type'!$C13</f>
         <v>9 각종 소모용 아이템</v>
       </c>
-      <c r="E12" s="5" t="str">
+      <c r="E12" s="50" t="str">
         <f>'[1]@reward_type'!A13</f>
         <v>SEND_ESSENCE</v>
       </c>
@@ -4023,7 +4024,7 @@
       </c>
       <c r="G12" s="5" t="str">
         <f>'[1]@reward_type'!C13</f>
-        <v>근원 전달 횟수(플레이어 보유)</v>
+        <v>9 근원 전달 횟수(플레이어 보유)</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4039,7 +4040,7 @@
         <f>'[1]@item_type'!$C14</f>
         <v>10 장비</v>
       </c>
-      <c r="E13" s="5" t="str">
+      <c r="E13" s="50" t="str">
         <f>'[1]@reward_type'!A14</f>
         <v>GET_ESSENCE</v>
       </c>
@@ -4049,7 +4050,7 @@
       </c>
       <c r="G13" s="5" t="str">
         <f>'[1]@reward_type'!C14</f>
-        <v>근원 받을 수 있는 횟수(캐릭터 공용 설정)</v>
+        <v>10 근원 받을 수 있는 횟수(캐릭터 공용 설정)</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4245,7 +4246,7 @@
       </c>
     </row>
     <row r="26" spans="5:7">
-      <c r="E26" s="5" t="str">
+      <c r="E26" s="49" t="str">
         <f>'[1]@reward_type'!A27</f>
         <v>EXP_SKILL</v>
       </c>
@@ -4785,18 +4786,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA56BF33-0599-44CF-8176-19546E225369}">
   <dimension ref="A1:L169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="32.125" customWidth="1"/>
     <col min="6" max="11" width="13.25" customWidth="1"/>
     <col min="12" max="12" width="49.5" bestFit="1" customWidth="1"/>
@@ -4812,16 +4813,16 @@
         <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>40</v>
@@ -4888,10 +4889,10 @@
         <v>50</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>90</v>
@@ -4921,245 +4922,245 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="57" customFormat="1">
-      <c r="A5" s="56">
+    <row r="5" spans="1:12" s="46" customFormat="1">
+      <c r="A5" s="45">
         <v>10001001</v>
       </c>
-      <c r="B5" s="56" t="str">
+      <c r="B5" s="45" t="str">
         <f t="shared" ref="B5:B68" si="0">IF(MID(A5, 1, 1) = "1", "메인 스테이지", IF(MID(A5, 1, 1) = "2", "일일던전", IF(MID(A5, 1, 1) = "3", "보스전", "다른 경우")))</f>
         <v>메인 스테이지</v>
       </c>
-      <c r="C5" s="56" t="str">
+      <c r="C5" s="45" t="str">
         <f t="shared" ref="C5:C68" si="1">IF(MID(A5, 2, 1) = "0", "통상", IF(MID(A5, 2, 1) = "1", "초회", IF(MID(A5, 2, 1) = "2", "별 보상", "다른 경우")))</f>
         <v>통상</v>
       </c>
-      <c r="D5" s="56">
+      <c r="D5" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E5,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>113</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="56">
+      <c r="F5" s="45">
         <v>16</v>
       </c>
-      <c r="G5" s="56">
+      <c r="G5" s="45">
         <v>5</v>
       </c>
-      <c r="H5" s="56">
-        <v>0</v>
-      </c>
-      <c r="I5" s="56">
+      <c r="H5" s="45">
+        <v>0</v>
+      </c>
+      <c r="I5" s="45">
         <v>1000000</v>
       </c>
-      <c r="J5" s="56" t="b">
+      <c r="J5" s="45" t="b">
         <f t="shared" ref="J5:J7" si="2">IF(K5&gt;0,TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="56">
-        <v>0</v>
-      </c>
-      <c r="L5" s="56"/>
-    </row>
-    <row r="6" spans="1:12" s="57" customFormat="1">
-      <c r="A6" s="56">
+      <c r="K5" s="45">
+        <v>0</v>
+      </c>
+      <c r="L5" s="45"/>
+    </row>
+    <row r="6" spans="1:12" s="46" customFormat="1">
+      <c r="A6" s="45">
         <v>10001001</v>
       </c>
-      <c r="B6" s="56" t="str">
+      <c r="B6" s="45" t="str">
         <f t="shared" si="0"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C6" s="56" t="str">
+      <c r="C6" s="45" t="str">
         <f t="shared" si="1"/>
         <v>통상</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E6,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>102</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="56">
+      <c r="F6" s="45">
         <v>6</v>
       </c>
-      <c r="G6" s="56">
+      <c r="G6" s="45">
         <v>10</v>
       </c>
-      <c r="H6" s="56">
-        <v>0</v>
-      </c>
-      <c r="I6" s="56">
+      <c r="H6" s="45">
+        <v>0</v>
+      </c>
+      <c r="I6" s="45">
         <v>1000000</v>
       </c>
-      <c r="J6" s="56" t="b">
+      <c r="J6" s="45" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="56">
-        <v>0</v>
-      </c>
-      <c r="L6" s="56"/>
-    </row>
-    <row r="7" spans="1:12" s="57" customFormat="1">
-      <c r="A7" s="56">
+      <c r="K6" s="45">
+        <v>0</v>
+      </c>
+      <c r="L6" s="45"/>
+    </row>
+    <row r="7" spans="1:12" s="46" customFormat="1">
+      <c r="A7" s="45">
         <v>10001001</v>
       </c>
-      <c r="B7" s="56" t="str">
+      <c r="B7" s="45" t="str">
         <f t="shared" si="0"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C7" s="56" t="str">
+      <c r="C7" s="45" t="str">
         <f t="shared" si="1"/>
         <v>통상</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E7,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E7" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="56">
-        <v>1</v>
-      </c>
-      <c r="G7" s="56">
-        <v>1</v>
-      </c>
-      <c r="H7" s="56">
-        <v>0</v>
-      </c>
-      <c r="I7" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J7" s="56" t="b">
+      <c r="E7" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="45">
+        <v>1</v>
+      </c>
+      <c r="G7" s="45">
+        <v>1</v>
+      </c>
+      <c r="H7" s="45">
+        <v>0</v>
+      </c>
+      <c r="I7" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J7" s="45" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K7" s="56">
-        <v>1</v>
-      </c>
-      <c r="L7" s="56"/>
-    </row>
-    <row r="8" spans="1:12" s="57" customFormat="1">
-      <c r="A8" s="56">
+      <c r="K7" s="45">
+        <v>1</v>
+      </c>
+      <c r="L7" s="45"/>
+    </row>
+    <row r="8" spans="1:12" s="46" customFormat="1">
+      <c r="A8" s="45">
         <v>10001001</v>
       </c>
-      <c r="B8" s="56" t="str">
+      <c r="B8" s="45" t="str">
         <f t="shared" si="0"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C8" s="56" t="str">
+      <c r="C8" s="45" t="str">
         <f t="shared" si="1"/>
         <v>통상</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E8,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E8" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" s="56">
+      <c r="E8" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="45">
         <v>2</v>
       </c>
-      <c r="G8" s="56">
-        <v>1</v>
-      </c>
-      <c r="H8" s="56">
-        <v>0</v>
-      </c>
-      <c r="I8" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J8" s="56" t="b">
+      <c r="G8" s="45">
+        <v>1</v>
+      </c>
+      <c r="H8" s="45">
+        <v>0</v>
+      </c>
+      <c r="I8" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J8" s="45" t="b">
         <f>IF(K8&gt;0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K8" s="56">
+      <c r="K8" s="45">
         <v>2</v>
       </c>
-      <c r="L8" s="56"/>
-    </row>
-    <row r="9" spans="1:12" s="57" customFormat="1">
-      <c r="A9" s="56">
+      <c r="L8" s="45"/>
+    </row>
+    <row r="9" spans="1:12" s="46" customFormat="1">
+      <c r="A9" s="45">
         <v>10001001</v>
       </c>
-      <c r="B9" s="56" t="str">
+      <c r="B9" s="45" t="str">
         <f t="shared" si="0"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C9" s="56" t="str">
+      <c r="C9" s="45" t="str">
         <f t="shared" si="1"/>
         <v>통상</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E9,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E9" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="56">
+      <c r="E9" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="45">
         <v>11</v>
       </c>
-      <c r="G9" s="56">
-        <v>1</v>
-      </c>
-      <c r="H9" s="56">
-        <v>0</v>
-      </c>
-      <c r="I9" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J9" s="56" t="b">
+      <c r="G9" s="45">
+        <v>1</v>
+      </c>
+      <c r="H9" s="45">
+        <v>0</v>
+      </c>
+      <c r="I9" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J9" s="45" t="b">
         <f t="shared" ref="J9:J18" si="3">IF(K9&gt;0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K9" s="56">
+      <c r="K9" s="45">
         <v>3</v>
       </c>
-      <c r="L9" s="56"/>
-    </row>
-    <row r="10" spans="1:12" s="57" customFormat="1">
-      <c r="A10" s="56">
+      <c r="L9" s="45"/>
+    </row>
+    <row r="10" spans="1:12" s="46" customFormat="1">
+      <c r="A10" s="45">
         <v>10001001</v>
       </c>
-      <c r="B10" s="56" t="str">
+      <c r="B10" s="45" t="str">
         <f t="shared" si="0"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C10" s="56" t="str">
+      <c r="C10" s="45" t="str">
         <f t="shared" si="1"/>
         <v>통상</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E10,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E10" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="56">
+      <c r="E10" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="45">
         <v>12</v>
       </c>
-      <c r="G10" s="56">
-        <v>1</v>
-      </c>
-      <c r="H10" s="56">
-        <v>0</v>
-      </c>
-      <c r="I10" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J10" s="56" t="b">
+      <c r="G10" s="45">
+        <v>1</v>
+      </c>
+      <c r="H10" s="45">
+        <v>0</v>
+      </c>
+      <c r="I10" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J10" s="45" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K10" s="56">
-        <v>0</v>
-      </c>
-      <c r="L10" s="56"/>
+      <c r="K10" s="45">
+        <v>0</v>
+      </c>
+      <c r="L10" s="45"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="5">
@@ -5178,7 +5179,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F11" s="5">
         <v>15</v>
@@ -5218,7 +5219,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F12" s="5">
         <v>19</v>
@@ -5258,7 +5259,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F13" s="5">
         <v>22</v>
@@ -5298,7 +5299,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F14" s="5">
         <v>24</v>
@@ -5321,285 +5322,285 @@
       </c>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12" s="59" customFormat="1">
-      <c r="A15" s="58">
+    <row r="15" spans="1:12" s="48" customFormat="1">
+      <c r="A15" s="47">
         <v>12001001</v>
       </c>
-      <c r="B15" s="58" t="str">
+      <c r="B15" s="47" t="str">
         <f t="shared" si="0"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C15" s="58" t="str">
+      <c r="C15" s="47" t="str">
         <f t="shared" si="1"/>
         <v>별 보상</v>
       </c>
-      <c r="D15" s="58">
+      <c r="D15" s="47">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E15,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>2</v>
       </c>
-      <c r="E15" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="F15" s="58">
+      <c r="E15" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="47">
         <v>30</v>
       </c>
-      <c r="G15" s="58">
+      <c r="G15" s="47">
         <v>30</v>
       </c>
-      <c r="H15" s="58">
-        <v>0</v>
-      </c>
-      <c r="I15" s="58">
+      <c r="H15" s="47">
+        <v>0</v>
+      </c>
+      <c r="I15" s="47">
         <v>1000000</v>
       </c>
-      <c r="J15" s="58" t="b">
+      <c r="J15" s="47" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K15" s="58">
-        <v>1</v>
-      </c>
-      <c r="L15" s="58"/>
-    </row>
-    <row r="16" spans="1:12" s="57" customFormat="1">
-      <c r="A16" s="56">
+      <c r="K15" s="47">
+        <v>1</v>
+      </c>
+      <c r="L15" s="47"/>
+    </row>
+    <row r="16" spans="1:12" s="46" customFormat="1">
+      <c r="A16" s="45">
         <v>10001002</v>
       </c>
-      <c r="B16" s="56" t="str">
+      <c r="B16" s="45" t="str">
         <f t="shared" si="0"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C16" s="56" t="str">
+      <c r="C16" s="45" t="str">
         <f t="shared" si="1"/>
         <v>통상</v>
       </c>
-      <c r="D16" s="56">
+      <c r="D16" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E16,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>113</v>
       </c>
-      <c r="E16" s="56" t="s">
+      <c r="E16" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="56">
+      <c r="F16" s="45">
         <v>16</v>
       </c>
-      <c r="G16" s="56">
+      <c r="G16" s="45">
         <v>5</v>
       </c>
-      <c r="H16" s="56">
-        <v>0</v>
-      </c>
-      <c r="I16" s="56">
+      <c r="H16" s="45">
+        <v>0</v>
+      </c>
+      <c r="I16" s="45">
         <v>1000000</v>
       </c>
-      <c r="J16" s="56" t="b">
+      <c r="J16" s="45" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K16" s="56">
-        <v>0</v>
-      </c>
-      <c r="L16" s="56"/>
-    </row>
-    <row r="17" spans="1:12" s="57" customFormat="1">
-      <c r="A17" s="56">
+      <c r="K16" s="45">
+        <v>0</v>
+      </c>
+      <c r="L16" s="45"/>
+    </row>
+    <row r="17" spans="1:12" s="46" customFormat="1">
+      <c r="A17" s="45">
         <v>10001002</v>
       </c>
-      <c r="B17" s="56" t="str">
+      <c r="B17" s="45" t="str">
         <f t="shared" si="0"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C17" s="56" t="str">
+      <c r="C17" s="45" t="str">
         <f t="shared" si="1"/>
         <v>통상</v>
       </c>
-      <c r="D17" s="56">
+      <c r="D17" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E17,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>102</v>
       </c>
-      <c r="E17" s="56" t="s">
+      <c r="E17" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="56">
+      <c r="F17" s="45">
         <v>6</v>
       </c>
-      <c r="G17" s="56">
+      <c r="G17" s="45">
         <v>10</v>
       </c>
-      <c r="H17" s="56">
-        <v>0</v>
-      </c>
-      <c r="I17" s="56">
+      <c r="H17" s="45">
+        <v>0</v>
+      </c>
+      <c r="I17" s="45">
         <v>1000000</v>
       </c>
-      <c r="J17" s="56" t="b">
+      <c r="J17" s="45" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K17" s="56">
-        <v>0</v>
-      </c>
-      <c r="L17" s="56"/>
-    </row>
-    <row r="18" spans="1:12" s="57" customFormat="1">
-      <c r="A18" s="56">
+      <c r="K17" s="45">
+        <v>0</v>
+      </c>
+      <c r="L17" s="45"/>
+    </row>
+    <row r="18" spans="1:12" s="46" customFormat="1">
+      <c r="A18" s="45">
         <v>10001002</v>
       </c>
-      <c r="B18" s="56" t="str">
+      <c r="B18" s="45" t="str">
         <f t="shared" si="0"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C18" s="56" t="str">
+      <c r="C18" s="45" t="str">
         <f t="shared" si="1"/>
         <v>통상</v>
       </c>
-      <c r="D18" s="56">
+      <c r="D18" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E18,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E18" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="56">
-        <v>1</v>
-      </c>
-      <c r="G18" s="56">
-        <v>1</v>
-      </c>
-      <c r="H18" s="56">
-        <v>0</v>
-      </c>
-      <c r="I18" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J18" s="56" t="b">
+      <c r="E18" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="45">
+        <v>1</v>
+      </c>
+      <c r="G18" s="45">
+        <v>1</v>
+      </c>
+      <c r="H18" s="45">
+        <v>0</v>
+      </c>
+      <c r="I18" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J18" s="45" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K18" s="56">
-        <v>1</v>
-      </c>
-      <c r="L18" s="56"/>
-    </row>
-    <row r="19" spans="1:12" s="57" customFormat="1">
-      <c r="A19" s="56">
+      <c r="K18" s="45">
+        <v>1</v>
+      </c>
+      <c r="L18" s="45"/>
+    </row>
+    <row r="19" spans="1:12" s="46" customFormat="1">
+      <c r="A19" s="45">
         <v>10001002</v>
       </c>
-      <c r="B19" s="56" t="str">
+      <c r="B19" s="45" t="str">
         <f t="shared" si="0"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C19" s="56" t="str">
+      <c r="C19" s="45" t="str">
         <f t="shared" si="1"/>
         <v>통상</v>
       </c>
-      <c r="D19" s="56">
+      <c r="D19" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E19,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E19" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="56">
+      <c r="E19" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="45">
         <v>2</v>
       </c>
-      <c r="G19" s="56">
-        <v>1</v>
-      </c>
-      <c r="H19" s="56">
-        <v>0</v>
-      </c>
-      <c r="I19" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J19" s="56" t="b">
+      <c r="G19" s="45">
+        <v>1</v>
+      </c>
+      <c r="H19" s="45">
+        <v>0</v>
+      </c>
+      <c r="I19" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J19" s="45" t="b">
         <f>IF(K19&gt;0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K19" s="56">
+      <c r="K19" s="45">
         <v>2</v>
       </c>
-      <c r="L19" s="56"/>
-    </row>
-    <row r="20" spans="1:12" s="57" customFormat="1">
-      <c r="A20" s="56">
+      <c r="L19" s="45"/>
+    </row>
+    <row r="20" spans="1:12" s="46" customFormat="1">
+      <c r="A20" s="45">
         <v>10001002</v>
       </c>
-      <c r="B20" s="56" t="str">
+      <c r="B20" s="45" t="str">
         <f t="shared" si="0"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C20" s="56" t="str">
+      <c r="C20" s="45" t="str">
         <f t="shared" si="1"/>
         <v>통상</v>
       </c>
-      <c r="D20" s="56">
+      <c r="D20" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E20,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E20" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="56">
+      <c r="E20" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="45">
         <v>11</v>
       </c>
-      <c r="G20" s="56">
-        <v>1</v>
-      </c>
-      <c r="H20" s="56">
-        <v>0</v>
-      </c>
-      <c r="I20" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J20" s="56" t="b">
+      <c r="G20" s="45">
+        <v>1</v>
+      </c>
+      <c r="H20" s="45">
+        <v>0</v>
+      </c>
+      <c r="I20" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J20" s="45" t="b">
         <f t="shared" ref="J20:J29" si="4">IF(K20&gt;0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K20" s="56">
+      <c r="K20" s="45">
         <v>3</v>
       </c>
-      <c r="L20" s="56"/>
-    </row>
-    <row r="21" spans="1:12" s="57" customFormat="1">
-      <c r="A21" s="56">
+      <c r="L20" s="45"/>
+    </row>
+    <row r="21" spans="1:12" s="46" customFormat="1">
+      <c r="A21" s="45">
         <v>10001002</v>
       </c>
-      <c r="B21" s="56" t="str">
+      <c r="B21" s="45" t="str">
         <f t="shared" si="0"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C21" s="56" t="str">
+      <c r="C21" s="45" t="str">
         <f t="shared" si="1"/>
         <v>통상</v>
       </c>
-      <c r="D21" s="56">
+      <c r="D21" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E21,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E21" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="56">
+      <c r="E21" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="45">
         <v>12</v>
       </c>
-      <c r="G21" s="56">
-        <v>1</v>
-      </c>
-      <c r="H21" s="56">
-        <v>0</v>
-      </c>
-      <c r="I21" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J21" s="56" t="b">
+      <c r="G21" s="45">
+        <v>1</v>
+      </c>
+      <c r="H21" s="45">
+        <v>0</v>
+      </c>
+      <c r="I21" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J21" s="45" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K21" s="56">
-        <v>0</v>
-      </c>
-      <c r="L21" s="56"/>
+      <c r="K21" s="45">
+        <v>0</v>
+      </c>
+      <c r="L21" s="45"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="5">
@@ -5618,7 +5619,7 @@
         <v>8</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F22" s="5">
         <v>15</v>
@@ -5658,7 +5659,7 @@
         <v>8</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F23" s="5">
         <v>19</v>
@@ -5698,7 +5699,7 @@
         <v>8</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F24" s="5">
         <v>22</v>
@@ -5738,7 +5739,7 @@
         <v>8</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F25" s="5">
         <v>24</v>
@@ -5761,285 +5762,285 @@
       </c>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" s="59" customFormat="1">
-      <c r="A26" s="58">
+    <row r="26" spans="1:12" s="48" customFormat="1">
+      <c r="A26" s="47">
         <v>12001002</v>
       </c>
-      <c r="B26" s="58" t="str">
+      <c r="B26" s="47" t="str">
         <f t="shared" si="0"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C26" s="58" t="str">
+      <c r="C26" s="47" t="str">
         <f t="shared" si="1"/>
         <v>별 보상</v>
       </c>
-      <c r="D26" s="58">
+      <c r="D26" s="47">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E26,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>2</v>
       </c>
-      <c r="E26" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="F26" s="58">
+      <c r="E26" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="47">
         <v>30</v>
       </c>
-      <c r="G26" s="58">
+      <c r="G26" s="47">
         <v>30</v>
       </c>
-      <c r="H26" s="58">
-        <v>0</v>
-      </c>
-      <c r="I26" s="58">
+      <c r="H26" s="47">
+        <v>0</v>
+      </c>
+      <c r="I26" s="47">
         <v>1000000</v>
       </c>
-      <c r="J26" s="58" t="b">
+      <c r="J26" s="47" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K26" s="58">
-        <v>1</v>
-      </c>
-      <c r="L26" s="58"/>
-    </row>
-    <row r="27" spans="1:12" s="57" customFormat="1">
-      <c r="A27" s="56">
+      <c r="K26" s="47">
+        <v>1</v>
+      </c>
+      <c r="L26" s="47"/>
+    </row>
+    <row r="27" spans="1:12" s="46" customFormat="1">
+      <c r="A27" s="45">
         <v>10001003</v>
       </c>
-      <c r="B27" s="56" t="str">
+      <c r="B27" s="45" t="str">
         <f t="shared" si="0"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C27" s="56" t="str">
+      <c r="C27" s="45" t="str">
         <f t="shared" si="1"/>
         <v>통상</v>
       </c>
-      <c r="D27" s="56">
+      <c r="D27" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E27,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>113</v>
       </c>
-      <c r="E27" s="56" t="s">
+      <c r="E27" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="F27" s="56">
+      <c r="F27" s="45">
         <v>16</v>
       </c>
-      <c r="G27" s="56">
+      <c r="G27" s="45">
         <v>5</v>
       </c>
-      <c r="H27" s="56">
-        <v>0</v>
-      </c>
-      <c r="I27" s="56">
+      <c r="H27" s="45">
+        <v>0</v>
+      </c>
+      <c r="I27" s="45">
         <v>1000000</v>
       </c>
-      <c r="J27" s="56" t="b">
+      <c r="J27" s="45" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K27" s="56">
-        <v>0</v>
-      </c>
-      <c r="L27" s="56"/>
-    </row>
-    <row r="28" spans="1:12" s="57" customFormat="1">
-      <c r="A28" s="56">
+      <c r="K27" s="45">
+        <v>0</v>
+      </c>
+      <c r="L27" s="45"/>
+    </row>
+    <row r="28" spans="1:12" s="46" customFormat="1">
+      <c r="A28" s="45">
         <v>10001003</v>
       </c>
-      <c r="B28" s="56" t="str">
+      <c r="B28" s="45" t="str">
         <f t="shared" si="0"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C28" s="56" t="str">
+      <c r="C28" s="45" t="str">
         <f t="shared" si="1"/>
         <v>통상</v>
       </c>
-      <c r="D28" s="56">
+      <c r="D28" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E28,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>102</v>
       </c>
-      <c r="E28" s="56" t="s">
+      <c r="E28" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="F28" s="56">
+      <c r="F28" s="45">
         <v>6</v>
       </c>
-      <c r="G28" s="56">
+      <c r="G28" s="45">
         <v>10</v>
       </c>
-      <c r="H28" s="56">
-        <v>0</v>
-      </c>
-      <c r="I28" s="56">
+      <c r="H28" s="45">
+        <v>0</v>
+      </c>
+      <c r="I28" s="45">
         <v>1000000</v>
       </c>
-      <c r="J28" s="56" t="b">
+      <c r="J28" s="45" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K28" s="56">
-        <v>0</v>
-      </c>
-      <c r="L28" s="56"/>
-    </row>
-    <row r="29" spans="1:12" s="57" customFormat="1">
-      <c r="A29" s="56">
+      <c r="K28" s="45">
+        <v>0</v>
+      </c>
+      <c r="L28" s="45"/>
+    </row>
+    <row r="29" spans="1:12" s="46" customFormat="1">
+      <c r="A29" s="45">
         <v>10001003</v>
       </c>
-      <c r="B29" s="56" t="str">
+      <c r="B29" s="45" t="str">
         <f t="shared" si="0"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C29" s="56" t="str">
+      <c r="C29" s="45" t="str">
         <f t="shared" si="1"/>
         <v>통상</v>
       </c>
-      <c r="D29" s="56">
+      <c r="D29" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E29,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E29" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F29" s="56">
-        <v>1</v>
-      </c>
-      <c r="G29" s="56">
-        <v>1</v>
-      </c>
-      <c r="H29" s="56">
-        <v>0</v>
-      </c>
-      <c r="I29" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J29" s="56" t="b">
+      <c r="E29" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="45">
+        <v>1</v>
+      </c>
+      <c r="G29" s="45">
+        <v>1</v>
+      </c>
+      <c r="H29" s="45">
+        <v>0</v>
+      </c>
+      <c r="I29" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J29" s="45" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K29" s="56">
-        <v>1</v>
-      </c>
-      <c r="L29" s="56"/>
-    </row>
-    <row r="30" spans="1:12" s="57" customFormat="1">
-      <c r="A30" s="56">
+      <c r="K29" s="45">
+        <v>1</v>
+      </c>
+      <c r="L29" s="45"/>
+    </row>
+    <row r="30" spans="1:12" s="46" customFormat="1">
+      <c r="A30" s="45">
         <v>10001003</v>
       </c>
-      <c r="B30" s="56" t="str">
+      <c r="B30" s="45" t="str">
         <f t="shared" si="0"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C30" s="56" t="str">
+      <c r="C30" s="45" t="str">
         <f t="shared" si="1"/>
         <v>통상</v>
       </c>
-      <c r="D30" s="56">
+      <c r="D30" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E30,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E30" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F30" s="56">
+      <c r="E30" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="45">
         <v>2</v>
       </c>
-      <c r="G30" s="56">
-        <v>1</v>
-      </c>
-      <c r="H30" s="56">
-        <v>0</v>
-      </c>
-      <c r="I30" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J30" s="56" t="b">
+      <c r="G30" s="45">
+        <v>1</v>
+      </c>
+      <c r="H30" s="45">
+        <v>0</v>
+      </c>
+      <c r="I30" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J30" s="45" t="b">
         <f>IF(K30&gt;0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K30" s="56">
+      <c r="K30" s="45">
         <v>2</v>
       </c>
-      <c r="L30" s="56"/>
-    </row>
-    <row r="31" spans="1:12" s="57" customFormat="1">
-      <c r="A31" s="56">
+      <c r="L30" s="45"/>
+    </row>
+    <row r="31" spans="1:12" s="46" customFormat="1">
+      <c r="A31" s="45">
         <v>10001003</v>
       </c>
-      <c r="B31" s="56" t="str">
+      <c r="B31" s="45" t="str">
         <f t="shared" si="0"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C31" s="56" t="str">
+      <c r="C31" s="45" t="str">
         <f t="shared" si="1"/>
         <v>통상</v>
       </c>
-      <c r="D31" s="56">
+      <c r="D31" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E31,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E31" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F31" s="56">
+      <c r="E31" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="45">
         <v>11</v>
       </c>
-      <c r="G31" s="56">
-        <v>1</v>
-      </c>
-      <c r="H31" s="56">
-        <v>0</v>
-      </c>
-      <c r="I31" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J31" s="56" t="b">
+      <c r="G31" s="45">
+        <v>1</v>
+      </c>
+      <c r="H31" s="45">
+        <v>0</v>
+      </c>
+      <c r="I31" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J31" s="45" t="b">
         <f t="shared" ref="J31:J40" si="5">IF(K31&gt;0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K31" s="56">
+      <c r="K31" s="45">
         <v>3</v>
       </c>
-      <c r="L31" s="56"/>
-    </row>
-    <row r="32" spans="1:12" s="57" customFormat="1">
-      <c r="A32" s="56">
+      <c r="L31" s="45"/>
+    </row>
+    <row r="32" spans="1:12" s="46" customFormat="1">
+      <c r="A32" s="45">
         <v>10001003</v>
       </c>
-      <c r="B32" s="56" t="str">
+      <c r="B32" s="45" t="str">
         <f t="shared" si="0"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C32" s="56" t="str">
+      <c r="C32" s="45" t="str">
         <f t="shared" si="1"/>
         <v>통상</v>
       </c>
-      <c r="D32" s="56">
+      <c r="D32" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E32,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E32" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F32" s="56">
+      <c r="E32" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="45">
         <v>12</v>
       </c>
-      <c r="G32" s="56">
-        <v>1</v>
-      </c>
-      <c r="H32" s="56">
-        <v>0</v>
-      </c>
-      <c r="I32" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J32" s="56" t="b">
+      <c r="G32" s="45">
+        <v>1</v>
+      </c>
+      <c r="H32" s="45">
+        <v>0</v>
+      </c>
+      <c r="I32" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J32" s="45" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K32" s="56">
-        <v>0</v>
-      </c>
-      <c r="L32" s="56"/>
+      <c r="K32" s="45">
+        <v>0</v>
+      </c>
+      <c r="L32" s="45"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="5">
@@ -6058,7 +6059,7 @@
         <v>8</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F33" s="5">
         <v>15</v>
@@ -6098,7 +6099,7 @@
         <v>8</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F34" s="5">
         <v>19</v>
@@ -6138,7 +6139,7 @@
         <v>8</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F35" s="5">
         <v>22</v>
@@ -6178,7 +6179,7 @@
         <v>8</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F36" s="5">
         <v>24</v>
@@ -6201,285 +6202,285 @@
       </c>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12" s="59" customFormat="1">
-      <c r="A37" s="58">
+    <row r="37" spans="1:12" s="48" customFormat="1">
+      <c r="A37" s="47">
         <v>12001003</v>
       </c>
-      <c r="B37" s="58" t="str">
+      <c r="B37" s="47" t="str">
         <f t="shared" si="0"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C37" s="58" t="str">
+      <c r="C37" s="47" t="str">
         <f t="shared" si="1"/>
         <v>별 보상</v>
       </c>
-      <c r="D37" s="58">
+      <c r="D37" s="47">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E37,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>2</v>
       </c>
-      <c r="E37" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="F37" s="58">
+      <c r="E37" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37" s="47">
         <v>30</v>
       </c>
-      <c r="G37" s="58">
+      <c r="G37" s="47">
         <v>30</v>
       </c>
-      <c r="H37" s="58">
-        <v>0</v>
-      </c>
-      <c r="I37" s="58">
+      <c r="H37" s="47">
+        <v>0</v>
+      </c>
+      <c r="I37" s="47">
         <v>1000000</v>
       </c>
-      <c r="J37" s="58" t="b">
+      <c r="J37" s="47" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="K37" s="58">
-        <v>1</v>
-      </c>
-      <c r="L37" s="58"/>
-    </row>
-    <row r="38" spans="1:12" s="57" customFormat="1">
-      <c r="A38" s="56">
+      <c r="K37" s="47">
+        <v>1</v>
+      </c>
+      <c r="L37" s="47"/>
+    </row>
+    <row r="38" spans="1:12" s="46" customFormat="1">
+      <c r="A38" s="45">
         <v>10001004</v>
       </c>
-      <c r="B38" s="56" t="str">
+      <c r="B38" s="45" t="str">
         <f t="shared" si="0"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C38" s="56" t="str">
+      <c r="C38" s="45" t="str">
         <f t="shared" si="1"/>
         <v>통상</v>
       </c>
-      <c r="D38" s="56">
+      <c r="D38" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E38,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>113</v>
       </c>
-      <c r="E38" s="56" t="s">
+      <c r="E38" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="F38" s="56">
+      <c r="F38" s="45">
         <v>16</v>
       </c>
-      <c r="G38" s="56">
+      <c r="G38" s="45">
         <v>5</v>
       </c>
-      <c r="H38" s="56">
-        <v>0</v>
-      </c>
-      <c r="I38" s="56">
+      <c r="H38" s="45">
+        <v>0</v>
+      </c>
+      <c r="I38" s="45">
         <v>1000000</v>
       </c>
-      <c r="J38" s="56" t="b">
+      <c r="J38" s="45" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K38" s="56">
-        <v>0</v>
-      </c>
-      <c r="L38" s="56"/>
-    </row>
-    <row r="39" spans="1:12" s="57" customFormat="1">
-      <c r="A39" s="56">
+      <c r="K38" s="45">
+        <v>0</v>
+      </c>
+      <c r="L38" s="45"/>
+    </row>
+    <row r="39" spans="1:12" s="46" customFormat="1">
+      <c r="A39" s="45">
         <v>10001004</v>
       </c>
-      <c r="B39" s="56" t="str">
+      <c r="B39" s="45" t="str">
         <f t="shared" si="0"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C39" s="56" t="str">
+      <c r="C39" s="45" t="str">
         <f t="shared" si="1"/>
         <v>통상</v>
       </c>
-      <c r="D39" s="56">
+      <c r="D39" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E39,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>102</v>
       </c>
-      <c r="E39" s="56" t="s">
+      <c r="E39" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="F39" s="56">
+      <c r="F39" s="45">
         <v>6</v>
       </c>
-      <c r="G39" s="56">
+      <c r="G39" s="45">
         <v>10</v>
       </c>
-      <c r="H39" s="56">
-        <v>0</v>
-      </c>
-      <c r="I39" s="56">
+      <c r="H39" s="45">
+        <v>0</v>
+      </c>
+      <c r="I39" s="45">
         <v>1000000</v>
       </c>
-      <c r="J39" s="56" t="b">
+      <c r="J39" s="45" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K39" s="56">
-        <v>0</v>
-      </c>
-      <c r="L39" s="56"/>
-    </row>
-    <row r="40" spans="1:12" s="57" customFormat="1">
-      <c r="A40" s="56">
+      <c r="K39" s="45">
+        <v>0</v>
+      </c>
+      <c r="L39" s="45"/>
+    </row>
+    <row r="40" spans="1:12" s="46" customFormat="1">
+      <c r="A40" s="45">
         <v>10001004</v>
       </c>
-      <c r="B40" s="56" t="str">
+      <c r="B40" s="45" t="str">
         <f t="shared" si="0"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C40" s="56" t="str">
+      <c r="C40" s="45" t="str">
         <f t="shared" si="1"/>
         <v>통상</v>
       </c>
-      <c r="D40" s="56">
+      <c r="D40" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E40,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E40" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F40" s="56">
-        <v>1</v>
-      </c>
-      <c r="G40" s="56">
-        <v>1</v>
-      </c>
-      <c r="H40" s="56">
-        <v>0</v>
-      </c>
-      <c r="I40" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J40" s="56" t="b">
+      <c r="E40" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F40" s="45">
+        <v>1</v>
+      </c>
+      <c r="G40" s="45">
+        <v>1</v>
+      </c>
+      <c r="H40" s="45">
+        <v>0</v>
+      </c>
+      <c r="I40" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J40" s="45" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="K40" s="56">
-        <v>1</v>
-      </c>
-      <c r="L40" s="56"/>
-    </row>
-    <row r="41" spans="1:12" s="57" customFormat="1">
-      <c r="A41" s="56">
+      <c r="K40" s="45">
+        <v>1</v>
+      </c>
+      <c r="L40" s="45"/>
+    </row>
+    <row r="41" spans="1:12" s="46" customFormat="1">
+      <c r="A41" s="45">
         <v>10001004</v>
       </c>
-      <c r="B41" s="56" t="str">
+      <c r="B41" s="45" t="str">
         <f t="shared" si="0"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C41" s="56" t="str">
+      <c r="C41" s="45" t="str">
         <f t="shared" si="1"/>
         <v>통상</v>
       </c>
-      <c r="D41" s="56">
+      <c r="D41" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E41,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E41" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F41" s="56">
+      <c r="E41" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F41" s="45">
         <v>2</v>
       </c>
-      <c r="G41" s="56">
-        <v>1</v>
-      </c>
-      <c r="H41" s="56">
-        <v>0</v>
-      </c>
-      <c r="I41" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J41" s="56" t="b">
+      <c r="G41" s="45">
+        <v>1</v>
+      </c>
+      <c r="H41" s="45">
+        <v>0</v>
+      </c>
+      <c r="I41" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J41" s="45" t="b">
         <f>IF(K41&gt;0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K41" s="56">
+      <c r="K41" s="45">
         <v>2</v>
       </c>
-      <c r="L41" s="56"/>
-    </row>
-    <row r="42" spans="1:12" s="57" customFormat="1">
-      <c r="A42" s="56">
+      <c r="L41" s="45"/>
+    </row>
+    <row r="42" spans="1:12" s="46" customFormat="1">
+      <c r="A42" s="45">
         <v>10001004</v>
       </c>
-      <c r="B42" s="56" t="str">
+      <c r="B42" s="45" t="str">
         <f t="shared" si="0"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C42" s="56" t="str">
+      <c r="C42" s="45" t="str">
         <f t="shared" si="1"/>
         <v>통상</v>
       </c>
-      <c r="D42" s="56">
+      <c r="D42" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E42,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E42" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F42" s="56">
+      <c r="E42" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F42" s="45">
         <v>11</v>
       </c>
-      <c r="G42" s="56">
-        <v>1</v>
-      </c>
-      <c r="H42" s="56">
-        <v>0</v>
-      </c>
-      <c r="I42" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J42" s="56" t="b">
+      <c r="G42" s="45">
+        <v>1</v>
+      </c>
+      <c r="H42" s="45">
+        <v>0</v>
+      </c>
+      <c r="I42" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J42" s="45" t="b">
         <f t="shared" ref="J42:J51" si="6">IF(K42&gt;0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K42" s="56">
+      <c r="K42" s="45">
         <v>3</v>
       </c>
-      <c r="L42" s="56"/>
-    </row>
-    <row r="43" spans="1:12" s="57" customFormat="1">
-      <c r="A43" s="56">
+      <c r="L42" s="45"/>
+    </row>
+    <row r="43" spans="1:12" s="46" customFormat="1">
+      <c r="A43" s="45">
         <v>10001004</v>
       </c>
-      <c r="B43" s="56" t="str">
+      <c r="B43" s="45" t="str">
         <f t="shared" si="0"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C43" s="56" t="str">
+      <c r="C43" s="45" t="str">
         <f t="shared" si="1"/>
         <v>통상</v>
       </c>
-      <c r="D43" s="56">
+      <c r="D43" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E43,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E43" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F43" s="56">
+      <c r="E43" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" s="45">
         <v>12</v>
       </c>
-      <c r="G43" s="56">
-        <v>1</v>
-      </c>
-      <c r="H43" s="56">
-        <v>0</v>
-      </c>
-      <c r="I43" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J43" s="56" t="b">
+      <c r="G43" s="45">
+        <v>1</v>
+      </c>
+      <c r="H43" s="45">
+        <v>0</v>
+      </c>
+      <c r="I43" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J43" s="45" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K43" s="56">
-        <v>0</v>
-      </c>
-      <c r="L43" s="56"/>
+      <c r="K43" s="45">
+        <v>0</v>
+      </c>
+      <c r="L43" s="45"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="5">
@@ -6498,7 +6499,7 @@
         <v>8</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F44" s="5">
         <v>15</v>
@@ -6538,7 +6539,7 @@
         <v>8</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F45" s="5">
         <v>19</v>
@@ -6578,7 +6579,7 @@
         <v>8</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F46" s="5">
         <v>22</v>
@@ -6618,7 +6619,7 @@
         <v>8</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F47" s="5">
         <v>24</v>
@@ -6641,285 +6642,285 @@
       </c>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:12" s="59" customFormat="1">
-      <c r="A48" s="58">
+    <row r="48" spans="1:12" s="48" customFormat="1">
+      <c r="A48" s="47">
         <v>12001004</v>
       </c>
-      <c r="B48" s="58" t="str">
+      <c r="B48" s="47" t="str">
         <f t="shared" si="0"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C48" s="58" t="str">
+      <c r="C48" s="47" t="str">
         <f t="shared" si="1"/>
         <v>별 보상</v>
       </c>
-      <c r="D48" s="58">
+      <c r="D48" s="47">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E48,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>2</v>
       </c>
-      <c r="E48" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="F48" s="58">
+      <c r="E48" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="F48" s="47">
         <v>30</v>
       </c>
-      <c r="G48" s="58">
+      <c r="G48" s="47">
         <v>30</v>
       </c>
-      <c r="H48" s="58">
-        <v>0</v>
-      </c>
-      <c r="I48" s="58">
+      <c r="H48" s="47">
+        <v>0</v>
+      </c>
+      <c r="I48" s="47">
         <v>1000000</v>
       </c>
-      <c r="J48" s="58" t="b">
+      <c r="J48" s="47" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K48" s="58">
-        <v>1</v>
-      </c>
-      <c r="L48" s="58"/>
-    </row>
-    <row r="49" spans="1:12" s="57" customFormat="1">
-      <c r="A49" s="56">
+      <c r="K48" s="47">
+        <v>1</v>
+      </c>
+      <c r="L48" s="47"/>
+    </row>
+    <row r="49" spans="1:12" s="46" customFormat="1">
+      <c r="A49" s="45">
         <v>10001005</v>
       </c>
-      <c r="B49" s="56" t="str">
+      <c r="B49" s="45" t="str">
         <f t="shared" si="0"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C49" s="56" t="str">
+      <c r="C49" s="45" t="str">
         <f t="shared" si="1"/>
         <v>통상</v>
       </c>
-      <c r="D49" s="56">
+      <c r="D49" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E49,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>113</v>
       </c>
-      <c r="E49" s="56" t="s">
+      <c r="E49" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="F49" s="56">
+      <c r="F49" s="45">
         <v>16</v>
       </c>
-      <c r="G49" s="56">
+      <c r="G49" s="45">
         <v>5</v>
       </c>
-      <c r="H49" s="56">
-        <v>0</v>
-      </c>
-      <c r="I49" s="56">
+      <c r="H49" s="45">
+        <v>0</v>
+      </c>
+      <c r="I49" s="45">
         <v>1000000</v>
       </c>
-      <c r="J49" s="56" t="b">
+      <c r="J49" s="45" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K49" s="56">
-        <v>0</v>
-      </c>
-      <c r="L49" s="56"/>
-    </row>
-    <row r="50" spans="1:12" s="57" customFormat="1">
-      <c r="A50" s="56">
+      <c r="K49" s="45">
+        <v>0</v>
+      </c>
+      <c r="L49" s="45"/>
+    </row>
+    <row r="50" spans="1:12" s="46" customFormat="1">
+      <c r="A50" s="45">
         <v>10001005</v>
       </c>
-      <c r="B50" s="56" t="str">
+      <c r="B50" s="45" t="str">
         <f t="shared" si="0"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C50" s="56" t="str">
+      <c r="C50" s="45" t="str">
         <f t="shared" si="1"/>
         <v>통상</v>
       </c>
-      <c r="D50" s="56">
+      <c r="D50" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E50,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>102</v>
       </c>
-      <c r="E50" s="56" t="s">
+      <c r="E50" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="F50" s="56">
+      <c r="F50" s="45">
         <v>6</v>
       </c>
-      <c r="G50" s="56">
+      <c r="G50" s="45">
         <v>10</v>
       </c>
-      <c r="H50" s="56">
-        <v>0</v>
-      </c>
-      <c r="I50" s="56">
+      <c r="H50" s="45">
+        <v>0</v>
+      </c>
+      <c r="I50" s="45">
         <v>1000000</v>
       </c>
-      <c r="J50" s="56" t="b">
+      <c r="J50" s="45" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K50" s="56">
-        <v>0</v>
-      </c>
-      <c r="L50" s="56"/>
-    </row>
-    <row r="51" spans="1:12" s="57" customFormat="1">
-      <c r="A51" s="56">
+      <c r="K50" s="45">
+        <v>0</v>
+      </c>
+      <c r="L50" s="45"/>
+    </row>
+    <row r="51" spans="1:12" s="46" customFormat="1">
+      <c r="A51" s="45">
         <v>10001005</v>
       </c>
-      <c r="B51" s="56" t="str">
+      <c r="B51" s="45" t="str">
         <f t="shared" si="0"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C51" s="56" t="str">
+      <c r="C51" s="45" t="str">
         <f t="shared" si="1"/>
         <v>통상</v>
       </c>
-      <c r="D51" s="56">
+      <c r="D51" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E51,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E51" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F51" s="56">
-        <v>1</v>
-      </c>
-      <c r="G51" s="56">
-        <v>1</v>
-      </c>
-      <c r="H51" s="56">
-        <v>0</v>
-      </c>
-      <c r="I51" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J51" s="56" t="b">
+      <c r="E51" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F51" s="45">
+        <v>1</v>
+      </c>
+      <c r="G51" s="45">
+        <v>1</v>
+      </c>
+      <c r="H51" s="45">
+        <v>0</v>
+      </c>
+      <c r="I51" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J51" s="45" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K51" s="56">
-        <v>1</v>
-      </c>
-      <c r="L51" s="56"/>
-    </row>
-    <row r="52" spans="1:12" s="57" customFormat="1">
-      <c r="A52" s="56">
+      <c r="K51" s="45">
+        <v>1</v>
+      </c>
+      <c r="L51" s="45"/>
+    </row>
+    <row r="52" spans="1:12" s="46" customFormat="1">
+      <c r="A52" s="45">
         <v>10001005</v>
       </c>
-      <c r="B52" s="56" t="str">
+      <c r="B52" s="45" t="str">
         <f t="shared" si="0"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C52" s="56" t="str">
+      <c r="C52" s="45" t="str">
         <f t="shared" si="1"/>
         <v>통상</v>
       </c>
-      <c r="D52" s="56">
+      <c r="D52" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E52,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E52" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F52" s="56">
+      <c r="E52" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F52" s="45">
         <v>2</v>
       </c>
-      <c r="G52" s="56">
-        <v>1</v>
-      </c>
-      <c r="H52" s="56">
-        <v>0</v>
-      </c>
-      <c r="I52" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J52" s="56" t="b">
+      <c r="G52" s="45">
+        <v>1</v>
+      </c>
+      <c r="H52" s="45">
+        <v>0</v>
+      </c>
+      <c r="I52" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J52" s="45" t="b">
         <f>IF(K52&gt;0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K52" s="56">
+      <c r="K52" s="45">
         <v>2</v>
       </c>
-      <c r="L52" s="56"/>
-    </row>
-    <row r="53" spans="1:12" s="57" customFormat="1">
-      <c r="A53" s="56">
+      <c r="L52" s="45"/>
+    </row>
+    <row r="53" spans="1:12" s="46" customFormat="1">
+      <c r="A53" s="45">
         <v>10001005</v>
       </c>
-      <c r="B53" s="56" t="str">
+      <c r="B53" s="45" t="str">
         <f t="shared" si="0"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C53" s="56" t="str">
+      <c r="C53" s="45" t="str">
         <f t="shared" si="1"/>
         <v>통상</v>
       </c>
-      <c r="D53" s="56">
+      <c r="D53" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E53,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E53" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F53" s="56">
+      <c r="E53" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F53" s="45">
         <v>11</v>
       </c>
-      <c r="G53" s="56">
-        <v>1</v>
-      </c>
-      <c r="H53" s="56">
-        <v>0</v>
-      </c>
-      <c r="I53" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J53" s="56" t="b">
+      <c r="G53" s="45">
+        <v>1</v>
+      </c>
+      <c r="H53" s="45">
+        <v>0</v>
+      </c>
+      <c r="I53" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J53" s="45" t="b">
         <f t="shared" ref="J53:J62" si="7">IF(K53&gt;0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K53" s="56">
+      <c r="K53" s="45">
         <v>3</v>
       </c>
-      <c r="L53" s="56"/>
-    </row>
-    <row r="54" spans="1:12" s="57" customFormat="1">
-      <c r="A54" s="56">
+      <c r="L53" s="45"/>
+    </row>
+    <row r="54" spans="1:12" s="46" customFormat="1">
+      <c r="A54" s="45">
         <v>10001005</v>
       </c>
-      <c r="B54" s="56" t="str">
+      <c r="B54" s="45" t="str">
         <f t="shared" si="0"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C54" s="56" t="str">
+      <c r="C54" s="45" t="str">
         <f t="shared" si="1"/>
         <v>통상</v>
       </c>
-      <c r="D54" s="56">
+      <c r="D54" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E54,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E54" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F54" s="56">
+      <c r="E54" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" s="45">
         <v>12</v>
       </c>
-      <c r="G54" s="56">
-        <v>1</v>
-      </c>
-      <c r="H54" s="56">
-        <v>0</v>
-      </c>
-      <c r="I54" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J54" s="56" t="b">
+      <c r="G54" s="45">
+        <v>1</v>
+      </c>
+      <c r="H54" s="45">
+        <v>0</v>
+      </c>
+      <c r="I54" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J54" s="45" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K54" s="56">
-        <v>0</v>
-      </c>
-      <c r="L54" s="56"/>
+      <c r="K54" s="45">
+        <v>0</v>
+      </c>
+      <c r="L54" s="45"/>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="5">
@@ -6938,7 +6939,7 @@
         <v>8</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F55" s="5">
         <v>15</v>
@@ -6978,7 +6979,7 @@
         <v>8</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F56" s="5">
         <v>19</v>
@@ -7018,7 +7019,7 @@
         <v>8</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F57" s="5">
         <v>22</v>
@@ -7058,7 +7059,7 @@
         <v>8</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F58" s="5">
         <v>24</v>
@@ -7081,285 +7082,285 @@
       </c>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="1:12" s="59" customFormat="1">
-      <c r="A59" s="58">
+    <row r="59" spans="1:12" s="48" customFormat="1">
+      <c r="A59" s="47">
         <v>12001005</v>
       </c>
-      <c r="B59" s="58" t="str">
+      <c r="B59" s="47" t="str">
         <f t="shared" si="0"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C59" s="58" t="str">
+      <c r="C59" s="47" t="str">
         <f t="shared" si="1"/>
         <v>별 보상</v>
       </c>
-      <c r="D59" s="58">
+      <c r="D59" s="47">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E59,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>2</v>
       </c>
-      <c r="E59" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="F59" s="58">
+      <c r="E59" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="F59" s="47">
         <v>30</v>
       </c>
-      <c r="G59" s="58">
+      <c r="G59" s="47">
         <v>30</v>
       </c>
-      <c r="H59" s="58">
-        <v>0</v>
-      </c>
-      <c r="I59" s="58">
+      <c r="H59" s="47">
+        <v>0</v>
+      </c>
+      <c r="I59" s="47">
         <v>1000000</v>
       </c>
-      <c r="J59" s="58" t="b">
+      <c r="J59" s="47" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="K59" s="58">
-        <v>1</v>
-      </c>
-      <c r="L59" s="58"/>
-    </row>
-    <row r="60" spans="1:12" s="57" customFormat="1">
-      <c r="A60" s="56">
+      <c r="K59" s="47">
+        <v>1</v>
+      </c>
+      <c r="L59" s="47"/>
+    </row>
+    <row r="60" spans="1:12" s="46" customFormat="1">
+      <c r="A60" s="45">
         <v>10001006</v>
       </c>
-      <c r="B60" s="56" t="str">
+      <c r="B60" s="45" t="str">
         <f t="shared" si="0"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C60" s="56" t="str">
+      <c r="C60" s="45" t="str">
         <f t="shared" si="1"/>
         <v>통상</v>
       </c>
-      <c r="D60" s="56">
+      <c r="D60" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E60,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>113</v>
       </c>
-      <c r="E60" s="56" t="s">
+      <c r="E60" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="F60" s="56">
+      <c r="F60" s="45">
         <v>16</v>
       </c>
-      <c r="G60" s="56">
+      <c r="G60" s="45">
         <v>5</v>
       </c>
-      <c r="H60" s="56">
-        <v>0</v>
-      </c>
-      <c r="I60" s="56">
+      <c r="H60" s="45">
+        <v>0</v>
+      </c>
+      <c r="I60" s="45">
         <v>1000000</v>
       </c>
-      <c r="J60" s="56" t="b">
+      <c r="J60" s="45" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K60" s="56">
-        <v>0</v>
-      </c>
-      <c r="L60" s="56"/>
-    </row>
-    <row r="61" spans="1:12" s="57" customFormat="1">
-      <c r="A61" s="56">
+      <c r="K60" s="45">
+        <v>0</v>
+      </c>
+      <c r="L60" s="45"/>
+    </row>
+    <row r="61" spans="1:12" s="46" customFormat="1">
+      <c r="A61" s="45">
         <v>10001006</v>
       </c>
-      <c r="B61" s="56" t="str">
+      <c r="B61" s="45" t="str">
         <f t="shared" si="0"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C61" s="56" t="str">
+      <c r="C61" s="45" t="str">
         <f t="shared" si="1"/>
         <v>통상</v>
       </c>
-      <c r="D61" s="56">
+      <c r="D61" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E61,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>102</v>
       </c>
-      <c r="E61" s="56" t="s">
+      <c r="E61" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="F61" s="56">
+      <c r="F61" s="45">
         <v>6</v>
       </c>
-      <c r="G61" s="56">
+      <c r="G61" s="45">
         <v>10</v>
       </c>
-      <c r="H61" s="56">
-        <v>0</v>
-      </c>
-      <c r="I61" s="56">
+      <c r="H61" s="45">
+        <v>0</v>
+      </c>
+      <c r="I61" s="45">
         <v>1000000</v>
       </c>
-      <c r="J61" s="56" t="b">
+      <c r="J61" s="45" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K61" s="56">
-        <v>0</v>
-      </c>
-      <c r="L61" s="56"/>
-    </row>
-    <row r="62" spans="1:12" s="57" customFormat="1">
-      <c r="A62" s="56">
+      <c r="K61" s="45">
+        <v>0</v>
+      </c>
+      <c r="L61" s="45"/>
+    </row>
+    <row r="62" spans="1:12" s="46" customFormat="1">
+      <c r="A62" s="45">
         <v>10001006</v>
       </c>
-      <c r="B62" s="56" t="str">
+      <c r="B62" s="45" t="str">
         <f t="shared" si="0"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C62" s="56" t="str">
+      <c r="C62" s="45" t="str">
         <f t="shared" si="1"/>
         <v>통상</v>
       </c>
-      <c r="D62" s="56">
+      <c r="D62" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E62,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E62" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F62" s="56">
-        <v>1</v>
-      </c>
-      <c r="G62" s="56">
-        <v>1</v>
-      </c>
-      <c r="H62" s="56">
-        <v>0</v>
-      </c>
-      <c r="I62" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J62" s="56" t="b">
+      <c r="E62" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F62" s="45">
+        <v>1</v>
+      </c>
+      <c r="G62" s="45">
+        <v>1</v>
+      </c>
+      <c r="H62" s="45">
+        <v>0</v>
+      </c>
+      <c r="I62" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J62" s="45" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="K62" s="56">
-        <v>1</v>
-      </c>
-      <c r="L62" s="56"/>
-    </row>
-    <row r="63" spans="1:12" s="57" customFormat="1">
-      <c r="A63" s="56">
+      <c r="K62" s="45">
+        <v>1</v>
+      </c>
+      <c r="L62" s="45"/>
+    </row>
+    <row r="63" spans="1:12" s="46" customFormat="1">
+      <c r="A63" s="45">
         <v>10001006</v>
       </c>
-      <c r="B63" s="56" t="str">
+      <c r="B63" s="45" t="str">
         <f t="shared" si="0"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C63" s="56" t="str">
+      <c r="C63" s="45" t="str">
         <f t="shared" si="1"/>
         <v>통상</v>
       </c>
-      <c r="D63" s="56">
+      <c r="D63" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E63,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E63" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F63" s="56">
+      <c r="E63" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F63" s="45">
         <v>2</v>
       </c>
-      <c r="G63" s="56">
-        <v>1</v>
-      </c>
-      <c r="H63" s="56">
-        <v>0</v>
-      </c>
-      <c r="I63" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J63" s="56" t="b">
+      <c r="G63" s="45">
+        <v>1</v>
+      </c>
+      <c r="H63" s="45">
+        <v>0</v>
+      </c>
+      <c r="I63" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J63" s="45" t="b">
         <f>IF(K63&gt;0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K63" s="56">
+      <c r="K63" s="45">
         <v>2</v>
       </c>
-      <c r="L63" s="56"/>
-    </row>
-    <row r="64" spans="1:12" s="57" customFormat="1">
-      <c r="A64" s="56">
+      <c r="L63" s="45"/>
+    </row>
+    <row r="64" spans="1:12" s="46" customFormat="1">
+      <c r="A64" s="45">
         <v>10001006</v>
       </c>
-      <c r="B64" s="56" t="str">
+      <c r="B64" s="45" t="str">
         <f t="shared" si="0"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C64" s="56" t="str">
+      <c r="C64" s="45" t="str">
         <f t="shared" si="1"/>
         <v>통상</v>
       </c>
-      <c r="D64" s="56">
+      <c r="D64" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E64,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E64" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F64" s="56">
+      <c r="E64" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F64" s="45">
         <v>11</v>
       </c>
-      <c r="G64" s="56">
-        <v>1</v>
-      </c>
-      <c r="H64" s="56">
-        <v>0</v>
-      </c>
-      <c r="I64" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J64" s="56" t="b">
+      <c r="G64" s="45">
+        <v>1</v>
+      </c>
+      <c r="H64" s="45">
+        <v>0</v>
+      </c>
+      <c r="I64" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J64" s="45" t="b">
         <f t="shared" ref="J64:J73" si="8">IF(K64&gt;0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K64" s="56">
+      <c r="K64" s="45">
         <v>3</v>
       </c>
-      <c r="L64" s="56"/>
-    </row>
-    <row r="65" spans="1:12" s="57" customFormat="1">
-      <c r="A65" s="56">
+      <c r="L64" s="45"/>
+    </row>
+    <row r="65" spans="1:12" s="46" customFormat="1">
+      <c r="A65" s="45">
         <v>10001006</v>
       </c>
-      <c r="B65" s="56" t="str">
+      <c r="B65" s="45" t="str">
         <f t="shared" si="0"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C65" s="56" t="str">
+      <c r="C65" s="45" t="str">
         <f t="shared" si="1"/>
         <v>통상</v>
       </c>
-      <c r="D65" s="56">
+      <c r="D65" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E65,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E65" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F65" s="56">
+      <c r="E65" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F65" s="45">
         <v>12</v>
       </c>
-      <c r="G65" s="56">
-        <v>1</v>
-      </c>
-      <c r="H65" s="56">
-        <v>0</v>
-      </c>
-      <c r="I65" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J65" s="56" t="b">
+      <c r="G65" s="45">
+        <v>1</v>
+      </c>
+      <c r="H65" s="45">
+        <v>0</v>
+      </c>
+      <c r="I65" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J65" s="45" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K65" s="56">
-        <v>0</v>
-      </c>
-      <c r="L65" s="56"/>
+      <c r="K65" s="45">
+        <v>0</v>
+      </c>
+      <c r="L65" s="45"/>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="5">
@@ -7378,7 +7379,7 @@
         <v>8</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F66" s="5">
         <v>15</v>
@@ -7418,7 +7419,7 @@
         <v>8</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F67" s="5">
         <v>19</v>
@@ -7458,7 +7459,7 @@
         <v>8</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F68" s="5">
         <v>22</v>
@@ -7498,7 +7499,7 @@
         <v>8</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F69" s="5">
         <v>24</v>
@@ -7521,285 +7522,285 @@
       </c>
       <c r="L69" s="5"/>
     </row>
-    <row r="70" spans="1:12" s="59" customFormat="1">
-      <c r="A70" s="58">
+    <row r="70" spans="1:12" s="48" customFormat="1">
+      <c r="A70" s="47">
         <v>12001006</v>
       </c>
-      <c r="B70" s="58" t="str">
+      <c r="B70" s="47" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C70" s="58" t="str">
+      <c r="C70" s="47" t="str">
         <f t="shared" si="10"/>
         <v>별 보상</v>
       </c>
-      <c r="D70" s="58">
+      <c r="D70" s="47">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E70,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>2</v>
       </c>
-      <c r="E70" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="F70" s="58">
+      <c r="E70" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="F70" s="47">
         <v>30</v>
       </c>
-      <c r="G70" s="58">
+      <c r="G70" s="47">
         <v>30</v>
       </c>
-      <c r="H70" s="58">
-        <v>0</v>
-      </c>
-      <c r="I70" s="58">
+      <c r="H70" s="47">
+        <v>0</v>
+      </c>
+      <c r="I70" s="47">
         <v>1000000</v>
       </c>
-      <c r="J70" s="58" t="b">
+      <c r="J70" s="47" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="K70" s="58">
-        <v>1</v>
-      </c>
-      <c r="L70" s="58"/>
-    </row>
-    <row r="71" spans="1:12" s="57" customFormat="1">
-      <c r="A71" s="56">
+      <c r="K70" s="47">
+        <v>1</v>
+      </c>
+      <c r="L70" s="47"/>
+    </row>
+    <row r="71" spans="1:12" s="46" customFormat="1">
+      <c r="A71" s="45">
         <v>10001007</v>
       </c>
-      <c r="B71" s="56" t="str">
+      <c r="B71" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C71" s="56" t="str">
+      <c r="C71" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D71" s="56">
+      <c r="D71" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E71,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>113</v>
       </c>
-      <c r="E71" s="56" t="s">
+      <c r="E71" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="F71" s="56">
+      <c r="F71" s="45">
         <v>16</v>
       </c>
-      <c r="G71" s="56">
+      <c r="G71" s="45">
         <v>5</v>
       </c>
-      <c r="H71" s="56">
-        <v>0</v>
-      </c>
-      <c r="I71" s="56">
+      <c r="H71" s="45">
+        <v>0</v>
+      </c>
+      <c r="I71" s="45">
         <v>1000000</v>
       </c>
-      <c r="J71" s="56" t="b">
+      <c r="J71" s="45" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K71" s="56">
-        <v>0</v>
-      </c>
-      <c r="L71" s="56"/>
-    </row>
-    <row r="72" spans="1:12" s="57" customFormat="1">
-      <c r="A72" s="56">
+      <c r="K71" s="45">
+        <v>0</v>
+      </c>
+      <c r="L71" s="45"/>
+    </row>
+    <row r="72" spans="1:12" s="46" customFormat="1">
+      <c r="A72" s="45">
         <v>10001007</v>
       </c>
-      <c r="B72" s="56" t="str">
+      <c r="B72" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C72" s="56" t="str">
+      <c r="C72" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D72" s="56">
+      <c r="D72" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E72,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>102</v>
       </c>
-      <c r="E72" s="56" t="s">
+      <c r="E72" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="F72" s="56">
+      <c r="F72" s="45">
         <v>6</v>
       </c>
-      <c r="G72" s="56">
+      <c r="G72" s="45">
         <v>10</v>
       </c>
-      <c r="H72" s="56">
-        <v>0</v>
-      </c>
-      <c r="I72" s="56">
+      <c r="H72" s="45">
+        <v>0</v>
+      </c>
+      <c r="I72" s="45">
         <v>1000000</v>
       </c>
-      <c r="J72" s="56" t="b">
+      <c r="J72" s="45" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K72" s="56">
-        <v>0</v>
-      </c>
-      <c r="L72" s="56"/>
-    </row>
-    <row r="73" spans="1:12" s="57" customFormat="1">
-      <c r="A73" s="56">
+      <c r="K72" s="45">
+        <v>0</v>
+      </c>
+      <c r="L72" s="45"/>
+    </row>
+    <row r="73" spans="1:12" s="46" customFormat="1">
+      <c r="A73" s="45">
         <v>10001007</v>
       </c>
-      <c r="B73" s="56" t="str">
+      <c r="B73" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C73" s="56" t="str">
+      <c r="C73" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D73" s="56">
+      <c r="D73" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E73,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E73" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="56">
-        <v>1</v>
-      </c>
-      <c r="G73" s="56">
-        <v>1</v>
-      </c>
-      <c r="H73" s="56">
-        <v>0</v>
-      </c>
-      <c r="I73" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J73" s="56" t="b">
+      <c r="E73" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F73" s="45">
+        <v>1</v>
+      </c>
+      <c r="G73" s="45">
+        <v>1</v>
+      </c>
+      <c r="H73" s="45">
+        <v>0</v>
+      </c>
+      <c r="I73" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J73" s="45" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="K73" s="56">
-        <v>1</v>
-      </c>
-      <c r="L73" s="56"/>
-    </row>
-    <row r="74" spans="1:12" s="57" customFormat="1">
-      <c r="A74" s="56">
+      <c r="K73" s="45">
+        <v>1</v>
+      </c>
+      <c r="L73" s="45"/>
+    </row>
+    <row r="74" spans="1:12" s="46" customFormat="1">
+      <c r="A74" s="45">
         <v>10001007</v>
       </c>
-      <c r="B74" s="56" t="str">
+      <c r="B74" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C74" s="56" t="str">
+      <c r="C74" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D74" s="56">
+      <c r="D74" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E74,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E74" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F74" s="56">
+      <c r="E74" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F74" s="45">
         <v>2</v>
       </c>
-      <c r="G74" s="56">
-        <v>1</v>
-      </c>
-      <c r="H74" s="56">
-        <v>0</v>
-      </c>
-      <c r="I74" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J74" s="56" t="b">
+      <c r="G74" s="45">
+        <v>1</v>
+      </c>
+      <c r="H74" s="45">
+        <v>0</v>
+      </c>
+      <c r="I74" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J74" s="45" t="b">
         <f>IF(K74&gt;0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K74" s="56">
+      <c r="K74" s="45">
         <v>2</v>
       </c>
-      <c r="L74" s="56"/>
-    </row>
-    <row r="75" spans="1:12" s="57" customFormat="1">
-      <c r="A75" s="56">
+      <c r="L74" s="45"/>
+    </row>
+    <row r="75" spans="1:12" s="46" customFormat="1">
+      <c r="A75" s="45">
         <v>10001007</v>
       </c>
-      <c r="B75" s="56" t="str">
+      <c r="B75" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C75" s="56" t="str">
+      <c r="C75" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D75" s="56">
+      <c r="D75" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E75,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E75" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F75" s="56">
+      <c r="E75" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F75" s="45">
         <v>11</v>
       </c>
-      <c r="G75" s="56">
-        <v>1</v>
-      </c>
-      <c r="H75" s="56">
-        <v>0</v>
-      </c>
-      <c r="I75" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J75" s="56" t="b">
+      <c r="G75" s="45">
+        <v>1</v>
+      </c>
+      <c r="H75" s="45">
+        <v>0</v>
+      </c>
+      <c r="I75" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J75" s="45" t="b">
         <f t="shared" ref="J75:J84" si="11">IF(K75&gt;0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K75" s="56">
+      <c r="K75" s="45">
         <v>3</v>
       </c>
-      <c r="L75" s="56"/>
-    </row>
-    <row r="76" spans="1:12" s="57" customFormat="1">
-      <c r="A76" s="56">
+      <c r="L75" s="45"/>
+    </row>
+    <row r="76" spans="1:12" s="46" customFormat="1">
+      <c r="A76" s="45">
         <v>10001007</v>
       </c>
-      <c r="B76" s="56" t="str">
+      <c r="B76" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C76" s="56" t="str">
+      <c r="C76" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D76" s="56">
+      <c r="D76" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E76,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E76" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F76" s="56">
+      <c r="E76" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F76" s="45">
         <v>12</v>
       </c>
-      <c r="G76" s="56">
-        <v>1</v>
-      </c>
-      <c r="H76" s="56">
-        <v>0</v>
-      </c>
-      <c r="I76" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J76" s="56" t="b">
+      <c r="G76" s="45">
+        <v>1</v>
+      </c>
+      <c r="H76" s="45">
+        <v>0</v>
+      </c>
+      <c r="I76" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J76" s="45" t="b">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K76" s="56">
-        <v>0</v>
-      </c>
-      <c r="L76" s="56"/>
+      <c r="K76" s="45">
+        <v>0</v>
+      </c>
+      <c r="L76" s="45"/>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="5">
@@ -7818,7 +7819,7 @@
         <v>8</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F77" s="5">
         <v>15</v>
@@ -7858,7 +7859,7 @@
         <v>8</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F78" s="5">
         <v>19</v>
@@ -7898,7 +7899,7 @@
         <v>8</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F79" s="5">
         <v>22</v>
@@ -7938,7 +7939,7 @@
         <v>8</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F80" s="5">
         <v>24</v>
@@ -7961,285 +7962,285 @@
       </c>
       <c r="L80" s="5"/>
     </row>
-    <row r="81" spans="1:12" s="59" customFormat="1">
-      <c r="A81" s="58">
+    <row r="81" spans="1:12" s="48" customFormat="1">
+      <c r="A81" s="47">
         <v>12001007</v>
       </c>
-      <c r="B81" s="58" t="str">
+      <c r="B81" s="47" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C81" s="58" t="str">
+      <c r="C81" s="47" t="str">
         <f t="shared" si="10"/>
         <v>별 보상</v>
       </c>
-      <c r="D81" s="58">
+      <c r="D81" s="47">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E81,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>2</v>
       </c>
-      <c r="E81" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="F81" s="58">
+      <c r="E81" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="F81" s="47">
         <v>30</v>
       </c>
-      <c r="G81" s="58">
+      <c r="G81" s="47">
         <v>30</v>
       </c>
-      <c r="H81" s="58">
-        <v>0</v>
-      </c>
-      <c r="I81" s="58">
+      <c r="H81" s="47">
+        <v>0</v>
+      </c>
+      <c r="I81" s="47">
         <v>1000000</v>
       </c>
-      <c r="J81" s="58" t="b">
+      <c r="J81" s="47" t="b">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="K81" s="58">
-        <v>1</v>
-      </c>
-      <c r="L81" s="58"/>
-    </row>
-    <row r="82" spans="1:12" s="57" customFormat="1">
-      <c r="A82" s="56">
+      <c r="K81" s="47">
+        <v>1</v>
+      </c>
+      <c r="L81" s="47"/>
+    </row>
+    <row r="82" spans="1:12" s="46" customFormat="1">
+      <c r="A82" s="45">
         <v>10001008</v>
       </c>
-      <c r="B82" s="56" t="str">
+      <c r="B82" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C82" s="56" t="str">
+      <c r="C82" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D82" s="56">
+      <c r="D82" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E82,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>113</v>
       </c>
-      <c r="E82" s="56" t="s">
+      <c r="E82" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="F82" s="56">
+      <c r="F82" s="45">
         <v>16</v>
       </c>
-      <c r="G82" s="56">
+      <c r="G82" s="45">
         <v>5</v>
       </c>
-      <c r="H82" s="56">
-        <v>0</v>
-      </c>
-      <c r="I82" s="56">
+      <c r="H82" s="45">
+        <v>0</v>
+      </c>
+      <c r="I82" s="45">
         <v>1000000</v>
       </c>
-      <c r="J82" s="56" t="b">
+      <c r="J82" s="45" t="b">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K82" s="56">
-        <v>0</v>
-      </c>
-      <c r="L82" s="56"/>
-    </row>
-    <row r="83" spans="1:12" s="57" customFormat="1">
-      <c r="A83" s="56">
+      <c r="K82" s="45">
+        <v>0</v>
+      </c>
+      <c r="L82" s="45"/>
+    </row>
+    <row r="83" spans="1:12" s="46" customFormat="1">
+      <c r="A83" s="45">
         <v>10001008</v>
       </c>
-      <c r="B83" s="56" t="str">
+      <c r="B83" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C83" s="56" t="str">
+      <c r="C83" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D83" s="56">
+      <c r="D83" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E83,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>102</v>
       </c>
-      <c r="E83" s="56" t="s">
+      <c r="E83" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="F83" s="56">
+      <c r="F83" s="45">
         <v>6</v>
       </c>
-      <c r="G83" s="56">
+      <c r="G83" s="45">
         <v>10</v>
       </c>
-      <c r="H83" s="56">
-        <v>0</v>
-      </c>
-      <c r="I83" s="56">
+      <c r="H83" s="45">
+        <v>0</v>
+      </c>
+      <c r="I83" s="45">
         <v>1000000</v>
       </c>
-      <c r="J83" s="56" t="b">
+      <c r="J83" s="45" t="b">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K83" s="56">
-        <v>0</v>
-      </c>
-      <c r="L83" s="56"/>
-    </row>
-    <row r="84" spans="1:12" s="57" customFormat="1">
-      <c r="A84" s="56">
+      <c r="K83" s="45">
+        <v>0</v>
+      </c>
+      <c r="L83" s="45"/>
+    </row>
+    <row r="84" spans="1:12" s="46" customFormat="1">
+      <c r="A84" s="45">
         <v>10001008</v>
       </c>
-      <c r="B84" s="56" t="str">
+      <c r="B84" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C84" s="56" t="str">
+      <c r="C84" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D84" s="56">
+      <c r="D84" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E84,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E84" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F84" s="56">
-        <v>1</v>
-      </c>
-      <c r="G84" s="56">
-        <v>1</v>
-      </c>
-      <c r="H84" s="56">
-        <v>0</v>
-      </c>
-      <c r="I84" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J84" s="56" t="b">
+      <c r="E84" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F84" s="45">
+        <v>1</v>
+      </c>
+      <c r="G84" s="45">
+        <v>1</v>
+      </c>
+      <c r="H84" s="45">
+        <v>0</v>
+      </c>
+      <c r="I84" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J84" s="45" t="b">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="K84" s="56">
-        <v>1</v>
-      </c>
-      <c r="L84" s="56"/>
-    </row>
-    <row r="85" spans="1:12" s="57" customFormat="1">
-      <c r="A85" s="56">
+      <c r="K84" s="45">
+        <v>1</v>
+      </c>
+      <c r="L84" s="45"/>
+    </row>
+    <row r="85" spans="1:12" s="46" customFormat="1">
+      <c r="A85" s="45">
         <v>10001008</v>
       </c>
-      <c r="B85" s="56" t="str">
+      <c r="B85" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C85" s="56" t="str">
+      <c r="C85" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D85" s="56">
+      <c r="D85" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E85,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E85" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F85" s="56">
+      <c r="E85" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F85" s="45">
         <v>2</v>
       </c>
-      <c r="G85" s="56">
-        <v>1</v>
-      </c>
-      <c r="H85" s="56">
-        <v>0</v>
-      </c>
-      <c r="I85" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J85" s="56" t="b">
+      <c r="G85" s="45">
+        <v>1</v>
+      </c>
+      <c r="H85" s="45">
+        <v>0</v>
+      </c>
+      <c r="I85" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J85" s="45" t="b">
         <f>IF(K85&gt;0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K85" s="56">
+      <c r="K85" s="45">
         <v>2</v>
       </c>
-      <c r="L85" s="56"/>
-    </row>
-    <row r="86" spans="1:12" s="57" customFormat="1">
-      <c r="A86" s="56">
+      <c r="L85" s="45"/>
+    </row>
+    <row r="86" spans="1:12" s="46" customFormat="1">
+      <c r="A86" s="45">
         <v>10001008</v>
       </c>
-      <c r="B86" s="56" t="str">
+      <c r="B86" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C86" s="56" t="str">
+      <c r="C86" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D86" s="56">
+      <c r="D86" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E86,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E86" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F86" s="56">
+      <c r="E86" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F86" s="45">
         <v>11</v>
       </c>
-      <c r="G86" s="56">
-        <v>1</v>
-      </c>
-      <c r="H86" s="56">
-        <v>0</v>
-      </c>
-      <c r="I86" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J86" s="56" t="b">
+      <c r="G86" s="45">
+        <v>1</v>
+      </c>
+      <c r="H86" s="45">
+        <v>0</v>
+      </c>
+      <c r="I86" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J86" s="45" t="b">
         <f t="shared" ref="J86:J95" si="12">IF(K86&gt;0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K86" s="56">
+      <c r="K86" s="45">
         <v>3</v>
       </c>
-      <c r="L86" s="56"/>
-    </row>
-    <row r="87" spans="1:12" s="57" customFormat="1">
-      <c r="A87" s="56">
+      <c r="L86" s="45"/>
+    </row>
+    <row r="87" spans="1:12" s="46" customFormat="1">
+      <c r="A87" s="45">
         <v>10001008</v>
       </c>
-      <c r="B87" s="56" t="str">
+      <c r="B87" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C87" s="56" t="str">
+      <c r="C87" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D87" s="56">
+      <c r="D87" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E87,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E87" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F87" s="56">
+      <c r="E87" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F87" s="45">
         <v>12</v>
       </c>
-      <c r="G87" s="56">
-        <v>1</v>
-      </c>
-      <c r="H87" s="56">
-        <v>0</v>
-      </c>
-      <c r="I87" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J87" s="56" t="b">
+      <c r="G87" s="45">
+        <v>1</v>
+      </c>
+      <c r="H87" s="45">
+        <v>0</v>
+      </c>
+      <c r="I87" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J87" s="45" t="b">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K87" s="56">
-        <v>0</v>
-      </c>
-      <c r="L87" s="56"/>
+      <c r="K87" s="45">
+        <v>0</v>
+      </c>
+      <c r="L87" s="45"/>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="5">
@@ -8258,7 +8259,7 @@
         <v>8</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F88" s="5">
         <v>15</v>
@@ -8298,7 +8299,7 @@
         <v>8</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F89" s="5">
         <v>19</v>
@@ -8338,7 +8339,7 @@
         <v>8</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F90" s="5">
         <v>22</v>
@@ -8378,7 +8379,7 @@
         <v>8</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F91" s="5">
         <v>24</v>
@@ -8401,285 +8402,285 @@
       </c>
       <c r="L91" s="5"/>
     </row>
-    <row r="92" spans="1:12" s="59" customFormat="1">
-      <c r="A92" s="58">
+    <row r="92" spans="1:12" s="48" customFormat="1">
+      <c r="A92" s="47">
         <v>12001008</v>
       </c>
-      <c r="B92" s="58" t="str">
+      <c r="B92" s="47" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C92" s="58" t="str">
+      <c r="C92" s="47" t="str">
         <f t="shared" si="10"/>
         <v>별 보상</v>
       </c>
-      <c r="D92" s="58">
+      <c r="D92" s="47">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E92,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>2</v>
       </c>
-      <c r="E92" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="F92" s="58">
+      <c r="E92" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="F92" s="47">
         <v>30</v>
       </c>
-      <c r="G92" s="58">
+      <c r="G92" s="47">
         <v>30</v>
       </c>
-      <c r="H92" s="58">
-        <v>0</v>
-      </c>
-      <c r="I92" s="58">
+      <c r="H92" s="47">
+        <v>0</v>
+      </c>
+      <c r="I92" s="47">
         <v>1000000</v>
       </c>
-      <c r="J92" s="58" t="b">
+      <c r="J92" s="47" t="b">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="K92" s="58">
-        <v>1</v>
-      </c>
-      <c r="L92" s="58"/>
-    </row>
-    <row r="93" spans="1:12" s="57" customFormat="1">
-      <c r="A93" s="56">
+      <c r="K92" s="47">
+        <v>1</v>
+      </c>
+      <c r="L92" s="47"/>
+    </row>
+    <row r="93" spans="1:12" s="46" customFormat="1">
+      <c r="A93" s="45">
         <v>10001009</v>
       </c>
-      <c r="B93" s="56" t="str">
+      <c r="B93" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C93" s="56" t="str">
+      <c r="C93" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D93" s="56">
+      <c r="D93" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E93,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>113</v>
       </c>
-      <c r="E93" s="56" t="s">
+      <c r="E93" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="F93" s="56">
+      <c r="F93" s="45">
         <v>16</v>
       </c>
-      <c r="G93" s="56">
+      <c r="G93" s="45">
         <v>5</v>
       </c>
-      <c r="H93" s="56">
-        <v>0</v>
-      </c>
-      <c r="I93" s="56">
+      <c r="H93" s="45">
+        <v>0</v>
+      </c>
+      <c r="I93" s="45">
         <v>1000000</v>
       </c>
-      <c r="J93" s="56" t="b">
+      <c r="J93" s="45" t="b">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K93" s="56">
-        <v>0</v>
-      </c>
-      <c r="L93" s="56"/>
-    </row>
-    <row r="94" spans="1:12" s="57" customFormat="1">
-      <c r="A94" s="56">
+      <c r="K93" s="45">
+        <v>0</v>
+      </c>
+      <c r="L93" s="45"/>
+    </row>
+    <row r="94" spans="1:12" s="46" customFormat="1">
+      <c r="A94" s="45">
         <v>10001009</v>
       </c>
-      <c r="B94" s="56" t="str">
+      <c r="B94" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C94" s="56" t="str">
+      <c r="C94" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D94" s="56">
+      <c r="D94" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E94,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>102</v>
       </c>
-      <c r="E94" s="56" t="s">
+      <c r="E94" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="F94" s="56">
+      <c r="F94" s="45">
         <v>6</v>
       </c>
-      <c r="G94" s="56">
+      <c r="G94" s="45">
         <v>10</v>
       </c>
-      <c r="H94" s="56">
-        <v>0</v>
-      </c>
-      <c r="I94" s="56">
+      <c r="H94" s="45">
+        <v>0</v>
+      </c>
+      <c r="I94" s="45">
         <v>1000000</v>
       </c>
-      <c r="J94" s="56" t="b">
+      <c r="J94" s="45" t="b">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K94" s="56">
-        <v>0</v>
-      </c>
-      <c r="L94" s="56"/>
-    </row>
-    <row r="95" spans="1:12" s="57" customFormat="1">
-      <c r="A95" s="56">
+      <c r="K94" s="45">
+        <v>0</v>
+      </c>
+      <c r="L94" s="45"/>
+    </row>
+    <row r="95" spans="1:12" s="46" customFormat="1">
+      <c r="A95" s="45">
         <v>10001009</v>
       </c>
-      <c r="B95" s="56" t="str">
+      <c r="B95" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C95" s="56" t="str">
+      <c r="C95" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D95" s="56">
+      <c r="D95" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E95,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E95" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F95" s="56">
-        <v>1</v>
-      </c>
-      <c r="G95" s="56">
-        <v>1</v>
-      </c>
-      <c r="H95" s="56">
-        <v>0</v>
-      </c>
-      <c r="I95" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J95" s="56" t="b">
+      <c r="E95" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F95" s="45">
+        <v>1</v>
+      </c>
+      <c r="G95" s="45">
+        <v>1</v>
+      </c>
+      <c r="H95" s="45">
+        <v>0</v>
+      </c>
+      <c r="I95" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J95" s="45" t="b">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="K95" s="56">
-        <v>1</v>
-      </c>
-      <c r="L95" s="56"/>
-    </row>
-    <row r="96" spans="1:12" s="57" customFormat="1">
-      <c r="A96" s="56">
+      <c r="K95" s="45">
+        <v>1</v>
+      </c>
+      <c r="L95" s="45"/>
+    </row>
+    <row r="96" spans="1:12" s="46" customFormat="1">
+      <c r="A96" s="45">
         <v>10001009</v>
       </c>
-      <c r="B96" s="56" t="str">
+      <c r="B96" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C96" s="56" t="str">
+      <c r="C96" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D96" s="56">
+      <c r="D96" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E96,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E96" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F96" s="56">
+      <c r="E96" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F96" s="45">
         <v>2</v>
       </c>
-      <c r="G96" s="56">
-        <v>1</v>
-      </c>
-      <c r="H96" s="56">
-        <v>0</v>
-      </c>
-      <c r="I96" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J96" s="56" t="b">
+      <c r="G96" s="45">
+        <v>1</v>
+      </c>
+      <c r="H96" s="45">
+        <v>0</v>
+      </c>
+      <c r="I96" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J96" s="45" t="b">
         <f>IF(K96&gt;0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K96" s="56">
+      <c r="K96" s="45">
         <v>2</v>
       </c>
-      <c r="L96" s="56"/>
-    </row>
-    <row r="97" spans="1:12" s="57" customFormat="1">
-      <c r="A97" s="56">
+      <c r="L96" s="45"/>
+    </row>
+    <row r="97" spans="1:12" s="46" customFormat="1">
+      <c r="A97" s="45">
         <v>10001009</v>
       </c>
-      <c r="B97" s="56" t="str">
+      <c r="B97" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C97" s="56" t="str">
+      <c r="C97" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D97" s="56">
+      <c r="D97" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E97,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E97" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F97" s="56">
+      <c r="E97" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F97" s="45">
         <v>11</v>
       </c>
-      <c r="G97" s="56">
-        <v>1</v>
-      </c>
-      <c r="H97" s="56">
-        <v>0</v>
-      </c>
-      <c r="I97" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J97" s="56" t="b">
+      <c r="G97" s="45">
+        <v>1</v>
+      </c>
+      <c r="H97" s="45">
+        <v>0</v>
+      </c>
+      <c r="I97" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J97" s="45" t="b">
         <f t="shared" ref="J97:J106" si="13">IF(K97&gt;0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K97" s="56">
+      <c r="K97" s="45">
         <v>3</v>
       </c>
-      <c r="L97" s="56"/>
-    </row>
-    <row r="98" spans="1:12" s="57" customFormat="1">
-      <c r="A98" s="56">
+      <c r="L97" s="45"/>
+    </row>
+    <row r="98" spans="1:12" s="46" customFormat="1">
+      <c r="A98" s="45">
         <v>10001009</v>
       </c>
-      <c r="B98" s="56" t="str">
+      <c r="B98" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C98" s="56" t="str">
+      <c r="C98" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D98" s="56">
+      <c r="D98" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E98,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E98" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F98" s="56">
+      <c r="E98" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F98" s="45">
         <v>12</v>
       </c>
-      <c r="G98" s="56">
-        <v>1</v>
-      </c>
-      <c r="H98" s="56">
-        <v>0</v>
-      </c>
-      <c r="I98" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J98" s="56" t="b">
+      <c r="G98" s="45">
+        <v>1</v>
+      </c>
+      <c r="H98" s="45">
+        <v>0</v>
+      </c>
+      <c r="I98" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J98" s="45" t="b">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="K98" s="56">
-        <v>0</v>
-      </c>
-      <c r="L98" s="56"/>
+      <c r="K98" s="45">
+        <v>0</v>
+      </c>
+      <c r="L98" s="45"/>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="5">
@@ -8698,7 +8699,7 @@
         <v>8</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F99" s="5">
         <v>15</v>
@@ -8738,7 +8739,7 @@
         <v>8</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F100" s="5">
         <v>19</v>
@@ -8778,7 +8779,7 @@
         <v>8</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F101" s="5">
         <v>22</v>
@@ -8818,7 +8819,7 @@
         <v>8</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F102" s="5">
         <v>24</v>
@@ -8841,285 +8842,285 @@
       </c>
       <c r="L102" s="5"/>
     </row>
-    <row r="103" spans="1:12" s="59" customFormat="1">
-      <c r="A103" s="58">
+    <row r="103" spans="1:12" s="48" customFormat="1">
+      <c r="A103" s="47">
         <v>12001009</v>
       </c>
-      <c r="B103" s="58" t="str">
+      <c r="B103" s="47" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C103" s="58" t="str">
+      <c r="C103" s="47" t="str">
         <f t="shared" si="10"/>
         <v>별 보상</v>
       </c>
-      <c r="D103" s="58">
+      <c r="D103" s="47">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E103,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>2</v>
       </c>
-      <c r="E103" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="F103" s="58">
+      <c r="E103" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="F103" s="47">
         <v>30</v>
       </c>
-      <c r="G103" s="58">
+      <c r="G103" s="47">
         <v>30</v>
       </c>
-      <c r="H103" s="58">
-        <v>0</v>
-      </c>
-      <c r="I103" s="58">
+      <c r="H103" s="47">
+        <v>0</v>
+      </c>
+      <c r="I103" s="47">
         <v>1000000</v>
       </c>
-      <c r="J103" s="58" t="b">
+      <c r="J103" s="47" t="b">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="K103" s="58">
-        <v>1</v>
-      </c>
-      <c r="L103" s="58"/>
-    </row>
-    <row r="104" spans="1:12" s="57" customFormat="1">
-      <c r="A104" s="56">
+      <c r="K103" s="47">
+        <v>1</v>
+      </c>
+      <c r="L103" s="47"/>
+    </row>
+    <row r="104" spans="1:12" s="46" customFormat="1">
+      <c r="A104" s="45">
         <v>10001010</v>
       </c>
-      <c r="B104" s="56" t="str">
+      <c r="B104" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C104" s="56" t="str">
+      <c r="C104" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D104" s="56">
+      <c r="D104" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E104,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>113</v>
       </c>
-      <c r="E104" s="56" t="s">
+      <c r="E104" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="F104" s="56">
+      <c r="F104" s="45">
         <v>16</v>
       </c>
-      <c r="G104" s="56">
+      <c r="G104" s="45">
         <v>5</v>
       </c>
-      <c r="H104" s="56">
-        <v>0</v>
-      </c>
-      <c r="I104" s="56">
+      <c r="H104" s="45">
+        <v>0</v>
+      </c>
+      <c r="I104" s="45">
         <v>1000000</v>
       </c>
-      <c r="J104" s="56" t="b">
+      <c r="J104" s="45" t="b">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="K104" s="56">
-        <v>0</v>
-      </c>
-      <c r="L104" s="56"/>
-    </row>
-    <row r="105" spans="1:12" s="57" customFormat="1">
-      <c r="A105" s="56">
+      <c r="K104" s="45">
+        <v>0</v>
+      </c>
+      <c r="L104" s="45"/>
+    </row>
+    <row r="105" spans="1:12" s="46" customFormat="1">
+      <c r="A105" s="45">
         <v>10001010</v>
       </c>
-      <c r="B105" s="56" t="str">
+      <c r="B105" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C105" s="56" t="str">
+      <c r="C105" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D105" s="56">
+      <c r="D105" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E105,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>102</v>
       </c>
-      <c r="E105" s="56" t="s">
+      <c r="E105" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="F105" s="56">
+      <c r="F105" s="45">
         <v>6</v>
       </c>
-      <c r="G105" s="56">
+      <c r="G105" s="45">
         <v>10</v>
       </c>
-      <c r="H105" s="56">
-        <v>0</v>
-      </c>
-      <c r="I105" s="56">
+      <c r="H105" s="45">
+        <v>0</v>
+      </c>
+      <c r="I105" s="45">
         <v>1000000</v>
       </c>
-      <c r="J105" s="56" t="b">
+      <c r="J105" s="45" t="b">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="K105" s="56">
-        <v>0</v>
-      </c>
-      <c r="L105" s="56"/>
-    </row>
-    <row r="106" spans="1:12" s="57" customFormat="1">
-      <c r="A106" s="56">
+      <c r="K105" s="45">
+        <v>0</v>
+      </c>
+      <c r="L105" s="45"/>
+    </row>
+    <row r="106" spans="1:12" s="46" customFormat="1">
+      <c r="A106" s="45">
         <v>10001010</v>
       </c>
-      <c r="B106" s="56" t="str">
+      <c r="B106" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C106" s="56" t="str">
+      <c r="C106" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D106" s="56">
+      <c r="D106" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E106,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E106" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F106" s="56">
-        <v>1</v>
-      </c>
-      <c r="G106" s="56">
-        <v>1</v>
-      </c>
-      <c r="H106" s="56">
-        <v>0</v>
-      </c>
-      <c r="I106" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J106" s="56" t="b">
+      <c r="E106" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F106" s="45">
+        <v>1</v>
+      </c>
+      <c r="G106" s="45">
+        <v>1</v>
+      </c>
+      <c r="H106" s="45">
+        <v>0</v>
+      </c>
+      <c r="I106" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J106" s="45" t="b">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="K106" s="56">
-        <v>1</v>
-      </c>
-      <c r="L106" s="56"/>
-    </row>
-    <row r="107" spans="1:12" s="57" customFormat="1">
-      <c r="A107" s="56">
+      <c r="K106" s="45">
+        <v>1</v>
+      </c>
+      <c r="L106" s="45"/>
+    </row>
+    <row r="107" spans="1:12" s="46" customFormat="1">
+      <c r="A107" s="45">
         <v>10001010</v>
       </c>
-      <c r="B107" s="56" t="str">
+      <c r="B107" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C107" s="56" t="str">
+      <c r="C107" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D107" s="56">
+      <c r="D107" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E107,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E107" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F107" s="56">
+      <c r="E107" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F107" s="45">
         <v>2</v>
       </c>
-      <c r="G107" s="56">
-        <v>1</v>
-      </c>
-      <c r="H107" s="56">
-        <v>0</v>
-      </c>
-      <c r="I107" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J107" s="56" t="b">
+      <c r="G107" s="45">
+        <v>1</v>
+      </c>
+      <c r="H107" s="45">
+        <v>0</v>
+      </c>
+      <c r="I107" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J107" s="45" t="b">
         <f>IF(K107&gt;0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K107" s="56">
+      <c r="K107" s="45">
         <v>2</v>
       </c>
-      <c r="L107" s="56"/>
-    </row>
-    <row r="108" spans="1:12" s="57" customFormat="1">
-      <c r="A108" s="56">
+      <c r="L107" s="45"/>
+    </row>
+    <row r="108" spans="1:12" s="46" customFormat="1">
+      <c r="A108" s="45">
         <v>10001010</v>
       </c>
-      <c r="B108" s="56" t="str">
+      <c r="B108" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C108" s="56" t="str">
+      <c r="C108" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D108" s="56">
+      <c r="D108" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E108,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E108" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F108" s="56">
+      <c r="E108" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F108" s="45">
         <v>11</v>
       </c>
-      <c r="G108" s="56">
-        <v>1</v>
-      </c>
-      <c r="H108" s="56">
-        <v>0</v>
-      </c>
-      <c r="I108" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J108" s="56" t="b">
+      <c r="G108" s="45">
+        <v>1</v>
+      </c>
+      <c r="H108" s="45">
+        <v>0</v>
+      </c>
+      <c r="I108" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J108" s="45" t="b">
         <f t="shared" ref="J108:J117" si="14">IF(K108&gt;0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K108" s="56">
+      <c r="K108" s="45">
         <v>3</v>
       </c>
-      <c r="L108" s="56"/>
-    </row>
-    <row r="109" spans="1:12" s="57" customFormat="1">
-      <c r="A109" s="56">
+      <c r="L108" s="45"/>
+    </row>
+    <row r="109" spans="1:12" s="46" customFormat="1">
+      <c r="A109" s="45">
         <v>10001010</v>
       </c>
-      <c r="B109" s="56" t="str">
+      <c r="B109" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C109" s="56" t="str">
+      <c r="C109" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D109" s="56">
+      <c r="D109" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E109,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E109" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F109" s="56">
+      <c r="E109" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F109" s="45">
         <v>12</v>
       </c>
-      <c r="G109" s="56">
-        <v>1</v>
-      </c>
-      <c r="H109" s="56">
-        <v>0</v>
-      </c>
-      <c r="I109" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J109" s="56" t="b">
+      <c r="G109" s="45">
+        <v>1</v>
+      </c>
+      <c r="H109" s="45">
+        <v>0</v>
+      </c>
+      <c r="I109" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J109" s="45" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K109" s="56">
-        <v>0</v>
-      </c>
-      <c r="L109" s="56"/>
+      <c r="K109" s="45">
+        <v>0</v>
+      </c>
+      <c r="L109" s="45"/>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="5">
@@ -9138,7 +9139,7 @@
         <v>8</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F110" s="5">
         <v>15</v>
@@ -9178,7 +9179,7 @@
         <v>8</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F111" s="5">
         <v>19</v>
@@ -9218,7 +9219,7 @@
         <v>8</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F112" s="5">
         <v>22</v>
@@ -9258,7 +9259,7 @@
         <v>8</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F113" s="5">
         <v>24</v>
@@ -9281,285 +9282,285 @@
       </c>
       <c r="L113" s="5"/>
     </row>
-    <row r="114" spans="1:12" s="59" customFormat="1">
-      <c r="A114" s="58">
+    <row r="114" spans="1:12" s="48" customFormat="1">
+      <c r="A114" s="47">
         <v>12001010</v>
       </c>
-      <c r="B114" s="58" t="str">
+      <c r="B114" s="47" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C114" s="58" t="str">
+      <c r="C114" s="47" t="str">
         <f t="shared" si="10"/>
         <v>별 보상</v>
       </c>
-      <c r="D114" s="58">
+      <c r="D114" s="47">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E114,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>2</v>
       </c>
-      <c r="E114" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="F114" s="58">
+      <c r="E114" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="F114" s="47">
         <v>30</v>
       </c>
-      <c r="G114" s="58">
+      <c r="G114" s="47">
         <v>30</v>
       </c>
-      <c r="H114" s="58">
-        <v>0</v>
-      </c>
-      <c r="I114" s="58">
+      <c r="H114" s="47">
+        <v>0</v>
+      </c>
+      <c r="I114" s="47">
         <v>1000000</v>
       </c>
-      <c r="J114" s="58" t="b">
+      <c r="J114" s="47" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K114" s="58">
-        <v>1</v>
-      </c>
-      <c r="L114" s="58"/>
-    </row>
-    <row r="115" spans="1:12" s="57" customFormat="1">
-      <c r="A115" s="56">
+      <c r="K114" s="47">
+        <v>1</v>
+      </c>
+      <c r="L114" s="47"/>
+    </row>
+    <row r="115" spans="1:12" s="46" customFormat="1">
+      <c r="A115" s="45">
         <v>10001011</v>
       </c>
-      <c r="B115" s="56" t="str">
+      <c r="B115" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C115" s="56" t="str">
+      <c r="C115" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D115" s="56">
+      <c r="D115" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E115,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>113</v>
       </c>
-      <c r="E115" s="56" t="s">
+      <c r="E115" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="F115" s="56">
+      <c r="F115" s="45">
         <v>16</v>
       </c>
-      <c r="G115" s="56">
+      <c r="G115" s="45">
         <v>5</v>
       </c>
-      <c r="H115" s="56">
-        <v>0</v>
-      </c>
-      <c r="I115" s="56">
+      <c r="H115" s="45">
+        <v>0</v>
+      </c>
+      <c r="I115" s="45">
         <v>1000000</v>
       </c>
-      <c r="J115" s="56" t="b">
+      <c r="J115" s="45" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K115" s="56">
-        <v>0</v>
-      </c>
-      <c r="L115" s="56"/>
-    </row>
-    <row r="116" spans="1:12" s="57" customFormat="1">
-      <c r="A116" s="56">
+      <c r="K115" s="45">
+        <v>0</v>
+      </c>
+      <c r="L115" s="45"/>
+    </row>
+    <row r="116" spans="1:12" s="46" customFormat="1">
+      <c r="A116" s="45">
         <v>10001011</v>
       </c>
-      <c r="B116" s="56" t="str">
+      <c r="B116" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C116" s="56" t="str">
+      <c r="C116" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D116" s="56">
+      <c r="D116" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E116,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>102</v>
       </c>
-      <c r="E116" s="56" t="s">
+      <c r="E116" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="F116" s="56">
+      <c r="F116" s="45">
         <v>6</v>
       </c>
-      <c r="G116" s="56">
+      <c r="G116" s="45">
         <v>10</v>
       </c>
-      <c r="H116" s="56">
-        <v>0</v>
-      </c>
-      <c r="I116" s="56">
+      <c r="H116" s="45">
+        <v>0</v>
+      </c>
+      <c r="I116" s="45">
         <v>1000000</v>
       </c>
-      <c r="J116" s="56" t="b">
+      <c r="J116" s="45" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K116" s="56">
-        <v>0</v>
-      </c>
-      <c r="L116" s="56"/>
-    </row>
-    <row r="117" spans="1:12" s="57" customFormat="1">
-      <c r="A117" s="56">
+      <c r="K116" s="45">
+        <v>0</v>
+      </c>
+      <c r="L116" s="45"/>
+    </row>
+    <row r="117" spans="1:12" s="46" customFormat="1">
+      <c r="A117" s="45">
         <v>10001011</v>
       </c>
-      <c r="B117" s="56" t="str">
+      <c r="B117" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C117" s="56" t="str">
+      <c r="C117" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D117" s="56">
+      <c r="D117" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E117,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E117" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F117" s="56">
-        <v>1</v>
-      </c>
-      <c r="G117" s="56">
-        <v>1</v>
-      </c>
-      <c r="H117" s="56">
-        <v>0</v>
-      </c>
-      <c r="I117" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J117" s="56" t="b">
+      <c r="E117" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F117" s="45">
+        <v>1</v>
+      </c>
+      <c r="G117" s="45">
+        <v>1</v>
+      </c>
+      <c r="H117" s="45">
+        <v>0</v>
+      </c>
+      <c r="I117" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J117" s="45" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K117" s="56">
-        <v>1</v>
-      </c>
-      <c r="L117" s="56"/>
-    </row>
-    <row r="118" spans="1:12" s="57" customFormat="1">
-      <c r="A118" s="56">
+      <c r="K117" s="45">
+        <v>1</v>
+      </c>
+      <c r="L117" s="45"/>
+    </row>
+    <row r="118" spans="1:12" s="46" customFormat="1">
+      <c r="A118" s="45">
         <v>10001011</v>
       </c>
-      <c r="B118" s="56" t="str">
+      <c r="B118" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C118" s="56" t="str">
+      <c r="C118" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D118" s="56">
+      <c r="D118" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E118,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E118" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F118" s="56">
+      <c r="E118" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F118" s="45">
         <v>2</v>
       </c>
-      <c r="G118" s="56">
-        <v>1</v>
-      </c>
-      <c r="H118" s="56">
-        <v>0</v>
-      </c>
-      <c r="I118" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J118" s="56" t="b">
+      <c r="G118" s="45">
+        <v>1</v>
+      </c>
+      <c r="H118" s="45">
+        <v>0</v>
+      </c>
+      <c r="I118" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J118" s="45" t="b">
         <f>IF(K118&gt;0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K118" s="56">
+      <c r="K118" s="45">
         <v>2</v>
       </c>
-      <c r="L118" s="56"/>
-    </row>
-    <row r="119" spans="1:12" s="57" customFormat="1">
-      <c r="A119" s="56">
+      <c r="L118" s="45"/>
+    </row>
+    <row r="119" spans="1:12" s="46" customFormat="1">
+      <c r="A119" s="45">
         <v>10001011</v>
       </c>
-      <c r="B119" s="56" t="str">
+      <c r="B119" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C119" s="56" t="str">
+      <c r="C119" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D119" s="56">
+      <c r="D119" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E119,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E119" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F119" s="56">
+      <c r="E119" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F119" s="45">
         <v>11</v>
       </c>
-      <c r="G119" s="56">
-        <v>1</v>
-      </c>
-      <c r="H119" s="56">
-        <v>0</v>
-      </c>
-      <c r="I119" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J119" s="56" t="b">
+      <c r="G119" s="45">
+        <v>1</v>
+      </c>
+      <c r="H119" s="45">
+        <v>0</v>
+      </c>
+      <c r="I119" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J119" s="45" t="b">
         <f t="shared" ref="J119:J161" si="15">IF(K119&gt;0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K119" s="56">
+      <c r="K119" s="45">
         <v>3</v>
       </c>
-      <c r="L119" s="56"/>
-    </row>
-    <row r="120" spans="1:12" s="57" customFormat="1">
-      <c r="A120" s="56">
+      <c r="L119" s="45"/>
+    </row>
+    <row r="120" spans="1:12" s="46" customFormat="1">
+      <c r="A120" s="45">
         <v>10001011</v>
       </c>
-      <c r="B120" s="56" t="str">
+      <c r="B120" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C120" s="56" t="str">
+      <c r="C120" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D120" s="56">
+      <c r="D120" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E120,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E120" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F120" s="56">
+      <c r="E120" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F120" s="45">
         <v>12</v>
       </c>
-      <c r="G120" s="56">
-        <v>1</v>
-      </c>
-      <c r="H120" s="56">
-        <v>0</v>
-      </c>
-      <c r="I120" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J120" s="56" t="b">
+      <c r="G120" s="45">
+        <v>1</v>
+      </c>
+      <c r="H120" s="45">
+        <v>0</v>
+      </c>
+      <c r="I120" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J120" s="45" t="b">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K120" s="56">
-        <v>0</v>
-      </c>
-      <c r="L120" s="56"/>
+      <c r="K120" s="45">
+        <v>0</v>
+      </c>
+      <c r="L120" s="45"/>
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="5">
@@ -9578,7 +9579,7 @@
         <v>8</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F121" s="5">
         <v>15</v>
@@ -9618,7 +9619,7 @@
         <v>8</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F122" s="5">
         <v>19</v>
@@ -9658,7 +9659,7 @@
         <v>8</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F123" s="5">
         <v>22</v>
@@ -9698,7 +9699,7 @@
         <v>8</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F124" s="5">
         <v>24</v>
@@ -9721,285 +9722,285 @@
       </c>
       <c r="L124" s="5"/>
     </row>
-    <row r="125" spans="1:12" s="59" customFormat="1">
-      <c r="A125" s="58">
+    <row r="125" spans="1:12" s="48" customFormat="1">
+      <c r="A125" s="47">
         <v>12001011</v>
       </c>
-      <c r="B125" s="58" t="str">
+      <c r="B125" s="47" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C125" s="58" t="str">
+      <c r="C125" s="47" t="str">
         <f t="shared" si="10"/>
         <v>별 보상</v>
       </c>
-      <c r="D125" s="58">
+      <c r="D125" s="47">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E125,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>2</v>
       </c>
-      <c r="E125" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="F125" s="58">
+      <c r="E125" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="F125" s="47">
         <v>30</v>
       </c>
-      <c r="G125" s="58">
+      <c r="G125" s="47">
         <v>30</v>
       </c>
-      <c r="H125" s="58">
-        <v>0</v>
-      </c>
-      <c r="I125" s="58">
+      <c r="H125" s="47">
+        <v>0</v>
+      </c>
+      <c r="I125" s="47">
         <v>1000000</v>
       </c>
-      <c r="J125" s="58" t="b">
+      <c r="J125" s="47" t="b">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="K125" s="58">
-        <v>1</v>
-      </c>
-      <c r="L125" s="58"/>
-    </row>
-    <row r="126" spans="1:12" s="57" customFormat="1">
-      <c r="A126" s="56">
+      <c r="K125" s="47">
+        <v>1</v>
+      </c>
+      <c r="L125" s="47"/>
+    </row>
+    <row r="126" spans="1:12" s="46" customFormat="1">
+      <c r="A126" s="45">
         <v>10001012</v>
       </c>
-      <c r="B126" s="56" t="str">
+      <c r="B126" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C126" s="56" t="str">
+      <c r="C126" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D126" s="56">
+      <c r="D126" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E126,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>113</v>
       </c>
-      <c r="E126" s="56" t="s">
+      <c r="E126" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="F126" s="56">
+      <c r="F126" s="45">
         <v>16</v>
       </c>
-      <c r="G126" s="56">
+      <c r="G126" s="45">
         <v>5</v>
       </c>
-      <c r="H126" s="56">
-        <v>0</v>
-      </c>
-      <c r="I126" s="56">
+      <c r="H126" s="45">
+        <v>0</v>
+      </c>
+      <c r="I126" s="45">
         <v>1000000</v>
       </c>
-      <c r="J126" s="56" t="b">
-        <f t="shared" ref="J126:J136" si="16">IF(K126&gt;0,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K126" s="56">
-        <v>0</v>
-      </c>
-      <c r="L126" s="56"/>
-    </row>
-    <row r="127" spans="1:12" s="57" customFormat="1">
-      <c r="A127" s="56">
+      <c r="J126" s="45" t="b">
+        <f t="shared" ref="J126:J128" si="16">IF(K126&gt;0,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K126" s="45">
+        <v>0</v>
+      </c>
+      <c r="L126" s="45"/>
+    </row>
+    <row r="127" spans="1:12" s="46" customFormat="1">
+      <c r="A127" s="45">
         <v>10001012</v>
       </c>
-      <c r="B127" s="56" t="str">
+      <c r="B127" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C127" s="56" t="str">
+      <c r="C127" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D127" s="56">
+      <c r="D127" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E127,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>102</v>
       </c>
-      <c r="E127" s="56" t="s">
+      <c r="E127" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="F127" s="56">
+      <c r="F127" s="45">
         <v>6</v>
       </c>
-      <c r="G127" s="56">
+      <c r="G127" s="45">
         <v>10</v>
       </c>
-      <c r="H127" s="56">
-        <v>0</v>
-      </c>
-      <c r="I127" s="56">
+      <c r="H127" s="45">
+        <v>0</v>
+      </c>
+      <c r="I127" s="45">
         <v>1000000</v>
       </c>
-      <c r="J127" s="56" t="b">
+      <c r="J127" s="45" t="b">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="K127" s="56">
-        <v>0</v>
-      </c>
-      <c r="L127" s="56"/>
-    </row>
-    <row r="128" spans="1:12" s="57" customFormat="1">
-      <c r="A128" s="56">
+      <c r="K127" s="45">
+        <v>0</v>
+      </c>
+      <c r="L127" s="45"/>
+    </row>
+    <row r="128" spans="1:12" s="46" customFormat="1">
+      <c r="A128" s="45">
         <v>10001012</v>
       </c>
-      <c r="B128" s="56" t="str">
+      <c r="B128" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C128" s="56" t="str">
+      <c r="C128" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D128" s="56">
+      <c r="D128" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E128,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E128" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F128" s="56">
-        <v>1</v>
-      </c>
-      <c r="G128" s="56">
-        <v>1</v>
-      </c>
-      <c r="H128" s="56">
-        <v>0</v>
-      </c>
-      <c r="I128" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J128" s="56" t="b">
+      <c r="E128" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F128" s="45">
+        <v>1</v>
+      </c>
+      <c r="G128" s="45">
+        <v>1</v>
+      </c>
+      <c r="H128" s="45">
+        <v>0</v>
+      </c>
+      <c r="I128" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J128" s="45" t="b">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="K128" s="56">
-        <v>1</v>
-      </c>
-      <c r="L128" s="56"/>
-    </row>
-    <row r="129" spans="1:12" s="57" customFormat="1">
-      <c r="A129" s="56">
+      <c r="K128" s="45">
+        <v>1</v>
+      </c>
+      <c r="L128" s="45"/>
+    </row>
+    <row r="129" spans="1:12" s="46" customFormat="1">
+      <c r="A129" s="45">
         <v>10001012</v>
       </c>
-      <c r="B129" s="56" t="str">
+      <c r="B129" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C129" s="56" t="str">
+      <c r="C129" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D129" s="56">
+      <c r="D129" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E129,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E129" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F129" s="56">
+      <c r="E129" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F129" s="45">
         <v>2</v>
       </c>
-      <c r="G129" s="56">
-        <v>1</v>
-      </c>
-      <c r="H129" s="56">
-        <v>0</v>
-      </c>
-      <c r="I129" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J129" s="56" t="b">
+      <c r="G129" s="45">
+        <v>1</v>
+      </c>
+      <c r="H129" s="45">
+        <v>0</v>
+      </c>
+      <c r="I129" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J129" s="45" t="b">
         <f>IF(K129&gt;0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K129" s="56">
+      <c r="K129" s="45">
         <v>2</v>
       </c>
-      <c r="L129" s="56"/>
-    </row>
-    <row r="130" spans="1:12" s="57" customFormat="1">
-      <c r="A130" s="56">
+      <c r="L129" s="45"/>
+    </row>
+    <row r="130" spans="1:12" s="46" customFormat="1">
+      <c r="A130" s="45">
         <v>10001012</v>
       </c>
-      <c r="B130" s="56" t="str">
+      <c r="B130" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C130" s="56" t="str">
+      <c r="C130" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D130" s="56">
+      <c r="D130" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E130,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E130" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F130" s="56">
+      <c r="E130" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F130" s="45">
         <v>11</v>
       </c>
-      <c r="G130" s="56">
-        <v>1</v>
-      </c>
-      <c r="H130" s="56">
-        <v>0</v>
-      </c>
-      <c r="I130" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J130" s="56" t="b">
+      <c r="G130" s="45">
+        <v>1</v>
+      </c>
+      <c r="H130" s="45">
+        <v>0</v>
+      </c>
+      <c r="I130" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J130" s="45" t="b">
         <f t="shared" ref="J130:J139" si="17">IF(K130&gt;0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K130" s="56">
+      <c r="K130" s="45">
         <v>3</v>
       </c>
-      <c r="L130" s="56"/>
-    </row>
-    <row r="131" spans="1:12" s="57" customFormat="1">
-      <c r="A131" s="56">
+      <c r="L130" s="45"/>
+    </row>
+    <row r="131" spans="1:12" s="46" customFormat="1">
+      <c r="A131" s="45">
         <v>10001012</v>
       </c>
-      <c r="B131" s="56" t="str">
+      <c r="B131" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C131" s="56" t="str">
+      <c r="C131" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D131" s="56">
+      <c r="D131" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E131,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E131" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F131" s="56">
+      <c r="E131" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F131" s="45">
         <v>12</v>
       </c>
-      <c r="G131" s="56">
-        <v>1</v>
-      </c>
-      <c r="H131" s="56">
-        <v>0</v>
-      </c>
-      <c r="I131" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J131" s="56" t="b">
+      <c r="G131" s="45">
+        <v>1</v>
+      </c>
+      <c r="H131" s="45">
+        <v>0</v>
+      </c>
+      <c r="I131" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J131" s="45" t="b">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K131" s="56">
-        <v>0</v>
-      </c>
-      <c r="L131" s="56"/>
+      <c r="K131" s="45">
+        <v>0</v>
+      </c>
+      <c r="L131" s="45"/>
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="5">
@@ -10018,7 +10019,7 @@
         <v>8</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F132" s="5">
         <v>15</v>
@@ -10058,7 +10059,7 @@
         <v>8</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F133" s="5">
         <v>19</v>
@@ -10098,7 +10099,7 @@
         <v>8</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F134" s="5">
         <v>22</v>
@@ -10138,7 +10139,7 @@
         <v>8</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F135" s="5">
         <v>24</v>
@@ -10161,285 +10162,285 @@
       </c>
       <c r="L135" s="5"/>
     </row>
-    <row r="136" spans="1:12" s="59" customFormat="1">
-      <c r="A136" s="58">
+    <row r="136" spans="1:12" s="48" customFormat="1">
+      <c r="A136" s="47">
         <v>12001012</v>
       </c>
-      <c r="B136" s="58" t="str">
+      <c r="B136" s="47" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C136" s="58" t="str">
+      <c r="C136" s="47" t="str">
         <f t="shared" si="10"/>
         <v>별 보상</v>
       </c>
-      <c r="D136" s="58">
+      <c r="D136" s="47">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E136,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>2</v>
       </c>
-      <c r="E136" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="F136" s="58">
+      <c r="E136" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="F136" s="47">
         <v>30</v>
       </c>
-      <c r="G136" s="58">
+      <c r="G136" s="47">
         <v>30</v>
       </c>
-      <c r="H136" s="58">
-        <v>0</v>
-      </c>
-      <c r="I136" s="58">
+      <c r="H136" s="47">
+        <v>0</v>
+      </c>
+      <c r="I136" s="47">
         <v>1000000</v>
       </c>
-      <c r="J136" s="58" t="b">
+      <c r="J136" s="47" t="b">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="K136" s="58">
-        <v>1</v>
-      </c>
-      <c r="L136" s="58"/>
-    </row>
-    <row r="137" spans="1:12" s="57" customFormat="1">
-      <c r="A137" s="56">
+      <c r="K136" s="47">
+        <v>1</v>
+      </c>
+      <c r="L136" s="47"/>
+    </row>
+    <row r="137" spans="1:12" s="46" customFormat="1">
+      <c r="A137" s="45">
         <v>10001013</v>
       </c>
-      <c r="B137" s="56" t="str">
+      <c r="B137" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C137" s="56" t="str">
+      <c r="C137" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D137" s="56">
+      <c r="D137" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E137,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>113</v>
       </c>
-      <c r="E137" s="56" t="s">
+      <c r="E137" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="F137" s="56">
+      <c r="F137" s="45">
         <v>16</v>
       </c>
-      <c r="G137" s="56">
+      <c r="G137" s="45">
         <v>5</v>
       </c>
-      <c r="H137" s="56">
-        <v>0</v>
-      </c>
-      <c r="I137" s="56">
+      <c r="H137" s="45">
+        <v>0</v>
+      </c>
+      <c r="I137" s="45">
         <v>1000000</v>
       </c>
-      <c r="J137" s="56" t="b">
+      <c r="J137" s="45" t="b">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K137" s="56">
-        <v>0</v>
-      </c>
-      <c r="L137" s="56"/>
-    </row>
-    <row r="138" spans="1:12" s="57" customFormat="1">
-      <c r="A138" s="56">
+      <c r="K137" s="45">
+        <v>0</v>
+      </c>
+      <c r="L137" s="45"/>
+    </row>
+    <row r="138" spans="1:12" s="46" customFormat="1">
+      <c r="A138" s="45">
         <v>10001013</v>
       </c>
-      <c r="B138" s="56" t="str">
+      <c r="B138" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C138" s="56" t="str">
+      <c r="C138" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D138" s="56">
+      <c r="D138" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E138,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>102</v>
       </c>
-      <c r="E138" s="56" t="s">
+      <c r="E138" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="F138" s="56">
+      <c r="F138" s="45">
         <v>6</v>
       </c>
-      <c r="G138" s="56">
+      <c r="G138" s="45">
         <v>10</v>
       </c>
-      <c r="H138" s="56">
-        <v>0</v>
-      </c>
-      <c r="I138" s="56">
+      <c r="H138" s="45">
+        <v>0</v>
+      </c>
+      <c r="I138" s="45">
         <v>1000000</v>
       </c>
-      <c r="J138" s="56" t="b">
+      <c r="J138" s="45" t="b">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K138" s="56">
-        <v>0</v>
-      </c>
-      <c r="L138" s="56"/>
-    </row>
-    <row r="139" spans="1:12" s="57" customFormat="1">
-      <c r="A139" s="56">
+      <c r="K138" s="45">
+        <v>0</v>
+      </c>
+      <c r="L138" s="45"/>
+    </row>
+    <row r="139" spans="1:12" s="46" customFormat="1">
+      <c r="A139" s="45">
         <v>10001013</v>
       </c>
-      <c r="B139" s="56" t="str">
+      <c r="B139" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C139" s="56" t="str">
+      <c r="C139" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D139" s="56">
+      <c r="D139" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E139,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E139" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F139" s="56">
-        <v>1</v>
-      </c>
-      <c r="G139" s="56">
-        <v>1</v>
-      </c>
-      <c r="H139" s="56">
-        <v>0</v>
-      </c>
-      <c r="I139" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J139" s="56" t="b">
+      <c r="E139" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F139" s="45">
+        <v>1</v>
+      </c>
+      <c r="G139" s="45">
+        <v>1</v>
+      </c>
+      <c r="H139" s="45">
+        <v>0</v>
+      </c>
+      <c r="I139" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J139" s="45" t="b">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="K139" s="56">
-        <v>1</v>
-      </c>
-      <c r="L139" s="56"/>
-    </row>
-    <row r="140" spans="1:12" s="57" customFormat="1">
-      <c r="A140" s="56">
+      <c r="K139" s="45">
+        <v>1</v>
+      </c>
+      <c r="L139" s="45"/>
+    </row>
+    <row r="140" spans="1:12" s="46" customFormat="1">
+      <c r="A140" s="45">
         <v>10001013</v>
       </c>
-      <c r="B140" s="56" t="str">
+      <c r="B140" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C140" s="56" t="str">
+      <c r="C140" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D140" s="56">
+      <c r="D140" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E140,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E140" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F140" s="56">
+      <c r="E140" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F140" s="45">
         <v>2</v>
       </c>
-      <c r="G140" s="56">
-        <v>1</v>
-      </c>
-      <c r="H140" s="56">
-        <v>0</v>
-      </c>
-      <c r="I140" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J140" s="56" t="b">
+      <c r="G140" s="45">
+        <v>1</v>
+      </c>
+      <c r="H140" s="45">
+        <v>0</v>
+      </c>
+      <c r="I140" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J140" s="45" t="b">
         <f>IF(K140&gt;0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K140" s="56">
+      <c r="K140" s="45">
         <v>2</v>
       </c>
-      <c r="L140" s="56"/>
-    </row>
-    <row r="141" spans="1:12" s="57" customFormat="1">
-      <c r="A141" s="56">
+      <c r="L140" s="45"/>
+    </row>
+    <row r="141" spans="1:12" s="46" customFormat="1">
+      <c r="A141" s="45">
         <v>10001013</v>
       </c>
-      <c r="B141" s="56" t="str">
+      <c r="B141" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C141" s="56" t="str">
+      <c r="C141" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D141" s="56">
+      <c r="D141" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E141,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E141" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F141" s="56">
+      <c r="E141" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F141" s="45">
         <v>11</v>
       </c>
-      <c r="G141" s="56">
-        <v>1</v>
-      </c>
-      <c r="H141" s="56">
-        <v>0</v>
-      </c>
-      <c r="I141" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J141" s="56" t="b">
+      <c r="G141" s="45">
+        <v>1</v>
+      </c>
+      <c r="H141" s="45">
+        <v>0</v>
+      </c>
+      <c r="I141" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J141" s="45" t="b">
         <f t="shared" ref="J141:J150" si="18">IF(K141&gt;0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K141" s="56">
+      <c r="K141" s="45">
         <v>3</v>
       </c>
-      <c r="L141" s="56"/>
-    </row>
-    <row r="142" spans="1:12" s="57" customFormat="1">
-      <c r="A142" s="56">
+      <c r="L141" s="45"/>
+    </row>
+    <row r="142" spans="1:12" s="46" customFormat="1">
+      <c r="A142" s="45">
         <v>10001013</v>
       </c>
-      <c r="B142" s="56" t="str">
+      <c r="B142" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C142" s="56" t="str">
+      <c r="C142" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D142" s="56">
+      <c r="D142" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E142,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E142" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F142" s="56">
+      <c r="E142" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F142" s="45">
         <v>12</v>
       </c>
-      <c r="G142" s="56">
-        <v>1</v>
-      </c>
-      <c r="H142" s="56">
-        <v>0</v>
-      </c>
-      <c r="I142" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J142" s="56" t="b">
+      <c r="G142" s="45">
+        <v>1</v>
+      </c>
+      <c r="H142" s="45">
+        <v>0</v>
+      </c>
+      <c r="I142" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J142" s="45" t="b">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="K142" s="56">
-        <v>0</v>
-      </c>
-      <c r="L142" s="56"/>
+      <c r="K142" s="45">
+        <v>0</v>
+      </c>
+      <c r="L142" s="45"/>
     </row>
     <row r="143" spans="1:12">
       <c r="A143" s="5">
@@ -10458,7 +10459,7 @@
         <v>8</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F143" s="5">
         <v>15</v>
@@ -10498,7 +10499,7 @@
         <v>8</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F144" s="5">
         <v>19</v>
@@ -10538,7 +10539,7 @@
         <v>8</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F145" s="5">
         <v>22</v>
@@ -10578,7 +10579,7 @@
         <v>8</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F146" s="5">
         <v>24</v>
@@ -10601,285 +10602,285 @@
       </c>
       <c r="L146" s="5"/>
     </row>
-    <row r="147" spans="1:12" s="59" customFormat="1">
-      <c r="A147" s="58">
+    <row r="147" spans="1:12" s="48" customFormat="1">
+      <c r="A147" s="47">
         <v>12001013</v>
       </c>
-      <c r="B147" s="58" t="str">
+      <c r="B147" s="47" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C147" s="58" t="str">
+      <c r="C147" s="47" t="str">
         <f t="shared" si="10"/>
         <v>별 보상</v>
       </c>
-      <c r="D147" s="58">
+      <c r="D147" s="47">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E147,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>2</v>
       </c>
-      <c r="E147" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="F147" s="58">
+      <c r="E147" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="F147" s="47">
         <v>30</v>
       </c>
-      <c r="G147" s="58">
+      <c r="G147" s="47">
         <v>30</v>
       </c>
-      <c r="H147" s="58">
-        <v>0</v>
-      </c>
-      <c r="I147" s="58">
+      <c r="H147" s="47">
+        <v>0</v>
+      </c>
+      <c r="I147" s="47">
         <v>1000000</v>
       </c>
-      <c r="J147" s="58" t="b">
+      <c r="J147" s="47" t="b">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="K147" s="58">
-        <v>1</v>
-      </c>
-      <c r="L147" s="58"/>
-    </row>
-    <row r="148" spans="1:12" s="57" customFormat="1">
-      <c r="A148" s="56">
+      <c r="K147" s="47">
+        <v>1</v>
+      </c>
+      <c r="L147" s="47"/>
+    </row>
+    <row r="148" spans="1:12" s="46" customFormat="1">
+      <c r="A148" s="45">
         <v>10001014</v>
       </c>
-      <c r="B148" s="56" t="str">
+      <c r="B148" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C148" s="56" t="str">
+      <c r="C148" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D148" s="56">
+      <c r="D148" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E148,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>113</v>
       </c>
-      <c r="E148" s="56" t="s">
+      <c r="E148" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="F148" s="56">
+      <c r="F148" s="45">
         <v>16</v>
       </c>
-      <c r="G148" s="56">
+      <c r="G148" s="45">
         <v>5</v>
       </c>
-      <c r="H148" s="56">
-        <v>0</v>
-      </c>
-      <c r="I148" s="56">
+      <c r="H148" s="45">
+        <v>0</v>
+      </c>
+      <c r="I148" s="45">
         <v>1000000</v>
       </c>
-      <c r="J148" s="56" t="b">
+      <c r="J148" s="45" t="b">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="K148" s="56">
-        <v>0</v>
-      </c>
-      <c r="L148" s="56"/>
-    </row>
-    <row r="149" spans="1:12" s="57" customFormat="1">
-      <c r="A149" s="56">
+      <c r="K148" s="45">
+        <v>0</v>
+      </c>
+      <c r="L148" s="45"/>
+    </row>
+    <row r="149" spans="1:12" s="46" customFormat="1">
+      <c r="A149" s="45">
         <v>10001014</v>
       </c>
-      <c r="B149" s="56" t="str">
+      <c r="B149" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C149" s="56" t="str">
+      <c r="C149" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D149" s="56">
+      <c r="D149" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E149,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>102</v>
       </c>
-      <c r="E149" s="56" t="s">
+      <c r="E149" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="F149" s="56">
+      <c r="F149" s="45">
         <v>6</v>
       </c>
-      <c r="G149" s="56">
+      <c r="G149" s="45">
         <v>10</v>
       </c>
-      <c r="H149" s="56">
-        <v>0</v>
-      </c>
-      <c r="I149" s="56">
+      <c r="H149" s="45">
+        <v>0</v>
+      </c>
+      <c r="I149" s="45">
         <v>1000000</v>
       </c>
-      <c r="J149" s="56" t="b">
+      <c r="J149" s="45" t="b">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="K149" s="56">
-        <v>0</v>
-      </c>
-      <c r="L149" s="56"/>
-    </row>
-    <row r="150" spans="1:12" s="57" customFormat="1">
-      <c r="A150" s="56">
+      <c r="K149" s="45">
+        <v>0</v>
+      </c>
+      <c r="L149" s="45"/>
+    </row>
+    <row r="150" spans="1:12" s="46" customFormat="1">
+      <c r="A150" s="45">
         <v>10001014</v>
       </c>
-      <c r="B150" s="56" t="str">
+      <c r="B150" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C150" s="56" t="str">
+      <c r="C150" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D150" s="56">
+      <c r="D150" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E150,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E150" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F150" s="56">
-        <v>1</v>
-      </c>
-      <c r="G150" s="56">
-        <v>1</v>
-      </c>
-      <c r="H150" s="56">
-        <v>0</v>
-      </c>
-      <c r="I150" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J150" s="56" t="b">
+      <c r="E150" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F150" s="45">
+        <v>1</v>
+      </c>
+      <c r="G150" s="45">
+        <v>1</v>
+      </c>
+      <c r="H150" s="45">
+        <v>0</v>
+      </c>
+      <c r="I150" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J150" s="45" t="b">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="K150" s="56">
-        <v>1</v>
-      </c>
-      <c r="L150" s="56"/>
-    </row>
-    <row r="151" spans="1:12" s="57" customFormat="1">
-      <c r="A151" s="56">
+      <c r="K150" s="45">
+        <v>1</v>
+      </c>
+      <c r="L150" s="45"/>
+    </row>
+    <row r="151" spans="1:12" s="46" customFormat="1">
+      <c r="A151" s="45">
         <v>10001014</v>
       </c>
-      <c r="B151" s="56" t="str">
+      <c r="B151" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C151" s="56" t="str">
+      <c r="C151" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D151" s="56">
+      <c r="D151" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E151,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E151" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F151" s="56">
+      <c r="E151" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F151" s="45">
         <v>2</v>
       </c>
-      <c r="G151" s="56">
-        <v>1</v>
-      </c>
-      <c r="H151" s="56">
-        <v>0</v>
-      </c>
-      <c r="I151" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J151" s="56" t="b">
+      <c r="G151" s="45">
+        <v>1</v>
+      </c>
+      <c r="H151" s="45">
+        <v>0</v>
+      </c>
+      <c r="I151" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J151" s="45" t="b">
         <f>IF(K151&gt;0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K151" s="56">
+      <c r="K151" s="45">
         <v>2</v>
       </c>
-      <c r="L151" s="56"/>
-    </row>
-    <row r="152" spans="1:12" s="57" customFormat="1">
-      <c r="A152" s="56">
+      <c r="L151" s="45"/>
+    </row>
+    <row r="152" spans="1:12" s="46" customFormat="1">
+      <c r="A152" s="45">
         <v>10001014</v>
       </c>
-      <c r="B152" s="56" t="str">
+      <c r="B152" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C152" s="56" t="str">
+      <c r="C152" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D152" s="56">
+      <c r="D152" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E152,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E152" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F152" s="56">
+      <c r="E152" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F152" s="45">
         <v>11</v>
       </c>
-      <c r="G152" s="56">
-        <v>1</v>
-      </c>
-      <c r="H152" s="56">
-        <v>0</v>
-      </c>
-      <c r="I152" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J152" s="56" t="b">
+      <c r="G152" s="45">
+        <v>1</v>
+      </c>
+      <c r="H152" s="45">
+        <v>0</v>
+      </c>
+      <c r="I152" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J152" s="45" t="b">
         <f t="shared" ref="J152:J158" si="19">IF(K152&gt;0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K152" s="56">
+      <c r="K152" s="45">
         <v>3</v>
       </c>
-      <c r="L152" s="56"/>
-    </row>
-    <row r="153" spans="1:12" s="57" customFormat="1">
-      <c r="A153" s="56">
+      <c r="L152" s="45"/>
+    </row>
+    <row r="153" spans="1:12" s="46" customFormat="1">
+      <c r="A153" s="45">
         <v>10001014</v>
       </c>
-      <c r="B153" s="56" t="str">
+      <c r="B153" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C153" s="56" t="str">
+      <c r="C153" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D153" s="56">
+      <c r="D153" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E153,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E153" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F153" s="56">
+      <c r="E153" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F153" s="45">
         <v>12</v>
       </c>
-      <c r="G153" s="56">
-        <v>1</v>
-      </c>
-      <c r="H153" s="56">
-        <v>0</v>
-      </c>
-      <c r="I153" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J153" s="56" t="b">
+      <c r="G153" s="45">
+        <v>1</v>
+      </c>
+      <c r="H153" s="45">
+        <v>0</v>
+      </c>
+      <c r="I153" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J153" s="45" t="b">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="K153" s="56">
-        <v>0</v>
-      </c>
-      <c r="L153" s="56"/>
+      <c r="K153" s="45">
+        <v>0</v>
+      </c>
+      <c r="L153" s="45"/>
     </row>
     <row r="154" spans="1:12">
       <c r="A154" s="5">
@@ -10898,7 +10899,7 @@
         <v>8</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F154" s="5">
         <v>15</v>
@@ -10938,7 +10939,7 @@
         <v>8</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F155" s="5">
         <v>19</v>
@@ -10978,7 +10979,7 @@
         <v>8</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F156" s="5">
         <v>22</v>
@@ -11018,7 +11019,7 @@
         <v>8</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F157" s="5">
         <v>24</v>
@@ -11041,285 +11042,285 @@
       </c>
       <c r="L157" s="5"/>
     </row>
-    <row r="158" spans="1:12" s="59" customFormat="1">
-      <c r="A158" s="58">
+    <row r="158" spans="1:12" s="48" customFormat="1">
+      <c r="A158" s="47">
         <v>12001014</v>
       </c>
-      <c r="B158" s="58" t="str">
+      <c r="B158" s="47" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C158" s="58" t="str">
+      <c r="C158" s="47" t="str">
         <f t="shared" si="10"/>
         <v>별 보상</v>
       </c>
-      <c r="D158" s="58">
+      <c r="D158" s="47">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E158,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>2</v>
       </c>
-      <c r="E158" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="F158" s="58">
+      <c r="E158" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="F158" s="47">
         <v>30</v>
       </c>
-      <c r="G158" s="58">
+      <c r="G158" s="47">
         <v>30</v>
       </c>
-      <c r="H158" s="58">
-        <v>0</v>
-      </c>
-      <c r="I158" s="58">
+      <c r="H158" s="47">
+        <v>0</v>
+      </c>
+      <c r="I158" s="47">
         <v>1000000</v>
       </c>
-      <c r="J158" s="58" t="b">
+      <c r="J158" s="47" t="b">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="K158" s="58">
-        <v>1</v>
-      </c>
-      <c r="L158" s="58"/>
-    </row>
-    <row r="159" spans="1:12" s="57" customFormat="1">
-      <c r="A159" s="56">
+      <c r="K158" s="47">
+        <v>1</v>
+      </c>
+      <c r="L158" s="47"/>
+    </row>
+    <row r="159" spans="1:12" s="46" customFormat="1">
+      <c r="A159" s="45">
         <v>10001015</v>
       </c>
-      <c r="B159" s="56" t="str">
+      <c r="B159" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C159" s="56" t="str">
+      <c r="C159" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D159" s="56">
+      <c r="D159" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E159,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>113</v>
       </c>
-      <c r="E159" s="56" t="s">
+      <c r="E159" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="F159" s="56">
+      <c r="F159" s="45">
         <v>16</v>
       </c>
-      <c r="G159" s="56">
+      <c r="G159" s="45">
         <v>5</v>
       </c>
-      <c r="H159" s="56">
-        <v>0</v>
-      </c>
-      <c r="I159" s="56">
+      <c r="H159" s="45">
+        <v>0</v>
+      </c>
+      <c r="I159" s="45">
         <v>1000000</v>
       </c>
-      <c r="J159" s="56" t="b">
+      <c r="J159" s="45" t="b">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K159" s="56">
-        <v>0</v>
-      </c>
-      <c r="L159" s="56"/>
-    </row>
-    <row r="160" spans="1:12" s="57" customFormat="1">
-      <c r="A160" s="56">
+      <c r="K159" s="45">
+        <v>0</v>
+      </c>
+      <c r="L159" s="45"/>
+    </row>
+    <row r="160" spans="1:12" s="46" customFormat="1">
+      <c r="A160" s="45">
         <v>10001015</v>
       </c>
-      <c r="B160" s="56" t="str">
+      <c r="B160" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C160" s="56" t="str">
+      <c r="C160" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D160" s="56">
+      <c r="D160" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E160,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>102</v>
       </c>
-      <c r="E160" s="56" t="s">
+      <c r="E160" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="F160" s="56">
+      <c r="F160" s="45">
         <v>6</v>
       </c>
-      <c r="G160" s="56">
+      <c r="G160" s="45">
         <v>10</v>
       </c>
-      <c r="H160" s="56">
-        <v>0</v>
-      </c>
-      <c r="I160" s="56">
+      <c r="H160" s="45">
+        <v>0</v>
+      </c>
+      <c r="I160" s="45">
         <v>1000000</v>
       </c>
-      <c r="J160" s="56" t="b">
+      <c r="J160" s="45" t="b">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K160" s="56">
-        <v>0</v>
-      </c>
-      <c r="L160" s="56"/>
-    </row>
-    <row r="161" spans="1:12" s="57" customFormat="1">
-      <c r="A161" s="56">
+      <c r="K160" s="45">
+        <v>0</v>
+      </c>
+      <c r="L160" s="45"/>
+    </row>
+    <row r="161" spans="1:12" s="46" customFormat="1">
+      <c r="A161" s="45">
         <v>10001015</v>
       </c>
-      <c r="B161" s="56" t="str">
+      <c r="B161" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C161" s="56" t="str">
+      <c r="C161" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D161" s="56">
+      <c r="D161" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E161,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E161" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F161" s="56">
-        <v>1</v>
-      </c>
-      <c r="G161" s="56">
-        <v>1</v>
-      </c>
-      <c r="H161" s="56">
-        <v>0</v>
-      </c>
-      <c r="I161" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J161" s="56" t="b">
+      <c r="E161" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F161" s="45">
+        <v>1</v>
+      </c>
+      <c r="G161" s="45">
+        <v>1</v>
+      </c>
+      <c r="H161" s="45">
+        <v>0</v>
+      </c>
+      <c r="I161" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J161" s="45" t="b">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="K161" s="56">
-        <v>1</v>
-      </c>
-      <c r="L161" s="56"/>
-    </row>
-    <row r="162" spans="1:12" s="57" customFormat="1">
-      <c r="A162" s="56">
+      <c r="K161" s="45">
+        <v>1</v>
+      </c>
+      <c r="L161" s="45"/>
+    </row>
+    <row r="162" spans="1:12" s="46" customFormat="1">
+      <c r="A162" s="45">
         <v>10001015</v>
       </c>
-      <c r="B162" s="56" t="str">
+      <c r="B162" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C162" s="56" t="str">
+      <c r="C162" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D162" s="56">
+      <c r="D162" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E162,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E162" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F162" s="56">
+      <c r="E162" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F162" s="45">
         <v>2</v>
       </c>
-      <c r="G162" s="56">
-        <v>1</v>
-      </c>
-      <c r="H162" s="56">
-        <v>0</v>
-      </c>
-      <c r="I162" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J162" s="56" t="b">
+      <c r="G162" s="45">
+        <v>1</v>
+      </c>
+      <c r="H162" s="45">
+        <v>0</v>
+      </c>
+      <c r="I162" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J162" s="45" t="b">
         <f>IF(K162&gt;0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K162" s="56">
+      <c r="K162" s="45">
         <v>2</v>
       </c>
-      <c r="L162" s="56"/>
-    </row>
-    <row r="163" spans="1:12" s="57" customFormat="1">
-      <c r="A163" s="56">
+      <c r="L162" s="45"/>
+    </row>
+    <row r="163" spans="1:12" s="46" customFormat="1">
+      <c r="A163" s="45">
         <v>10001015</v>
       </c>
-      <c r="B163" s="56" t="str">
+      <c r="B163" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C163" s="56" t="str">
+      <c r="C163" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D163" s="56">
+      <c r="D163" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E163,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E163" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F163" s="56">
+      <c r="E163" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F163" s="45">
         <v>11</v>
       </c>
-      <c r="G163" s="56">
-        <v>1</v>
-      </c>
-      <c r="H163" s="56">
-        <v>0</v>
-      </c>
-      <c r="I163" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J163" s="56" t="b">
+      <c r="G163" s="45">
+        <v>1</v>
+      </c>
+      <c r="H163" s="45">
+        <v>0</v>
+      </c>
+      <c r="I163" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J163" s="45" t="b">
         <f t="shared" ref="J163:J169" si="20">IF(K163&gt;0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K163" s="56">
+      <c r="K163" s="45">
         <v>3</v>
       </c>
-      <c r="L163" s="56"/>
-    </row>
-    <row r="164" spans="1:12" s="57" customFormat="1">
-      <c r="A164" s="56">
+      <c r="L163" s="45"/>
+    </row>
+    <row r="164" spans="1:12" s="46" customFormat="1">
+      <c r="A164" s="45">
         <v>10001015</v>
       </c>
-      <c r="B164" s="56" t="str">
+      <c r="B164" s="45" t="str">
         <f t="shared" si="9"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C164" s="56" t="str">
+      <c r="C164" s="45" t="str">
         <f t="shared" si="10"/>
         <v>통상</v>
       </c>
-      <c r="D164" s="56">
+      <c r="D164" s="45">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E164,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>8</v>
       </c>
-      <c r="E164" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F164" s="56">
+      <c r="E164" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F164" s="45">
         <v>12</v>
       </c>
-      <c r="G164" s="56">
-        <v>1</v>
-      </c>
-      <c r="H164" s="56">
-        <v>0</v>
-      </c>
-      <c r="I164" s="56">
-        <v>250000</v>
-      </c>
-      <c r="J164" s="56" t="b">
+      <c r="G164" s="45">
+        <v>1</v>
+      </c>
+      <c r="H164" s="45">
+        <v>0</v>
+      </c>
+      <c r="I164" s="45">
+        <v>250000</v>
+      </c>
+      <c r="J164" s="45" t="b">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="K164" s="56">
-        <v>0</v>
-      </c>
-      <c r="L164" s="56"/>
+      <c r="K164" s="45">
+        <v>0</v>
+      </c>
+      <c r="L164" s="45"/>
     </row>
     <row r="165" spans="1:12">
       <c r="A165" s="5">
@@ -11338,7 +11339,7 @@
         <v>8</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F165" s="5">
         <v>15</v>
@@ -11378,7 +11379,7 @@
         <v>8</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F166" s="5">
         <v>19</v>
@@ -11418,7 +11419,7 @@
         <v>8</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F167" s="5">
         <v>22</v>
@@ -11458,7 +11459,7 @@
         <v>8</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F168" s="5">
         <v>24</v>
@@ -11481,45 +11482,45 @@
       </c>
       <c r="L168" s="5"/>
     </row>
-    <row r="169" spans="1:12" s="59" customFormat="1">
-      <c r="A169" s="58">
+    <row r="169" spans="1:12" s="48" customFormat="1">
+      <c r="A169" s="47">
         <v>12001015</v>
       </c>
-      <c r="B169" s="58" t="str">
+      <c r="B169" s="47" t="str">
         <f t="shared" si="21"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="C169" s="58" t="str">
+      <c r="C169" s="47" t="str">
         <f t="shared" si="22"/>
         <v>별 보상</v>
       </c>
-      <c r="D169" s="58">
+      <c r="D169" s="47">
         <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E169,'!참조_ENUM'!$G$3:$G$50,0))</f>
         <v>2</v>
       </c>
-      <c r="E169" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="F169" s="58">
+      <c r="E169" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="F169" s="47">
         <v>100</v>
       </c>
-      <c r="G169" s="58">
+      <c r="G169" s="47">
         <v>100</v>
       </c>
-      <c r="H169" s="58">
-        <v>0</v>
-      </c>
-      <c r="I169" s="58">
+      <c r="H169" s="47">
+        <v>0</v>
+      </c>
+      <c r="I169" s="47">
         <v>1000000</v>
       </c>
-      <c r="J169" s="58" t="b">
+      <c r="J169" s="47" t="b">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="K169" s="58">
-        <v>1</v>
-      </c>
-      <c r="L169" s="58"/>
+      <c r="K169" s="47">
+        <v>1</v>
+      </c>
+      <c r="L169" s="47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Android/ExcelData/RewardTable.xlsx
+++ b/Android/ExcelData/RewardTable.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DCA0A8-A6A5-445A-BBD9-F2C9D9EB9C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C39D5F9-51DE-4CF9-A1A4-88C9D92067D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="660" windowWidth="32580" windowHeight="19980" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
+    <workbookView xWindow="40365" yWindow="2280" windowWidth="35370" windowHeight="15435" activeTab="5" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
   </bookViews>
   <sheets>
     <sheet name="!사용 설명" sheetId="6" r:id="rId1"/>
     <sheet name="!참조_ENUM" sheetId="3" r:id="rId2"/>
-    <sheet name="first_reward" sheetId="1" r:id="rId3"/>
-    <sheet name="repeat_reward" sheetId="2" r:id="rId4"/>
-    <sheet name="star_reward" sheetId="4" r:id="rId5"/>
+    <sheet name="!first_reward" sheetId="1" r:id="rId3"/>
+    <sheet name="!repeat_reward" sheetId="2" r:id="rId4"/>
+    <sheet name="!star_reward" sheetId="4" r:id="rId5"/>
     <sheet name="reward_set_v2" sheetId="5" r:id="rId6"/>
   </sheets>
   <externalReferences>
@@ -698,9 +698,6 @@
     <t>102 캐릭터 경험치 물약</t>
   </si>
   <si>
-    <t>113 스킬 경험치 아이템</t>
-  </si>
-  <si>
     <t>ENUM:REWARD_TYPE:NONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -770,12 +767,15 @@
   <si>
     <t>8 장비</t>
   </si>
+  <si>
+    <t>114 스킬 경험치 아이템</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -895,14 +895,8 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="21">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1014,12 +1008,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1184,7 +1172,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1292,12 +1280,6 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1374,6 +1356,7 @@
       <sheetName val="@charge_type"/>
       <sheetName val="@reward_type"/>
       <sheetName val="@effect_count_type"/>
+      <sheetName val="@love_level_type"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1837,17 +1820,29 @@
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>EXP_SKILL</v>
+            <v>PIECE_ITEM</v>
           </cell>
           <cell r="B27">
             <v>113</v>
           </cell>
           <cell r="C27" t="str">
-            <v>113 스킬 경험치 아이템</v>
+            <v>113 아이템 조각</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>EXP_SKILL</v>
+          </cell>
+          <cell r="B28">
+            <v>114</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>114 스킬 경험치 아이템</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2182,7 +2177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6C6356-D67F-4E24-8961-CC2F6C806F55}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -2237,10 +2232,10 @@
         <f>'!참조_ENUM'!G2</f>
         <v>comment</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="52"/>
+      <c r="E2" s="50"/>
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
       <c r="H2" s="41"/>
@@ -2302,7 +2297,7 @@
         <v>62</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
@@ -2488,13 +2483,13 @@
         <v>7 캐릭터</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E10" s="39" t="s">
         <v>64</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
@@ -2520,13 +2515,13 @@
         <v>8 장비</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>65</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11" s="41"/>
       <c r="H11" s="41"/>
@@ -2552,7 +2547,7 @@
         <v>9 근원 전달 횟수(플레이어 보유)</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>66</v>
@@ -2582,7 +2577,7 @@
         <v>10 근원 받을 수 있는 횟수(캐릭터 공용 설정)</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>66</v>
@@ -2612,7 +2607,7 @@
         <v>101 플레이어 경험치 물약</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" s="31" t="s">
         <v>66</v>
@@ -2642,7 +2637,7 @@
         <v>102 캐릭터 경험치 물약</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" s="31" t="s">
         <v>66</v>
@@ -2672,7 +2667,7 @@
         <v>103 스테미나 회복 물약</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" s="31" t="s">
         <v>66</v>
@@ -2702,7 +2697,7 @@
         <v>104 호감도 아이템</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E17" s="31" t="s">
         <v>66</v>
@@ -2732,7 +2727,7 @@
         <v>105 스테이지 스킵 티켓</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E18" s="31" t="s">
         <v>66</v>
@@ -2762,7 +2757,7 @@
         <v>106 던전 입장 티켓</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E19" s="31" t="s">
         <v>66</v>
@@ -2792,7 +2787,7 @@
         <v>107 정련석(장비 성장)</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E20" s="31" t="s">
         <v>66</v>
@@ -2822,7 +2817,7 @@
         <v>109 보상 선택 티켓(1개를 선택 획득)</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E21" s="31" t="s">
         <v>67</v>
@@ -2960,16 +2955,16 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="29" t="str">
-        <f>'!참조_ENUM'!E26</f>
+        <f>'!참조_ENUM'!E27</f>
         <v>EXP_SKILL</v>
       </c>
       <c r="B26" s="30">
-        <f>'!참조_ENUM'!F26</f>
-        <v>113</v>
+        <f>'!참조_ENUM'!F27</f>
+        <v>114</v>
       </c>
       <c r="C26" s="29" t="str">
-        <f>'!참조_ENUM'!G26</f>
-        <v>113 스킬 경험치 아이템</v>
+        <f>'!참조_ENUM'!G27</f>
+        <v>114 스킬 경험치 아이템</v>
       </c>
       <c r="D26" s="31" t="s">
         <v>68</v>
@@ -2990,14 +2985,14 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E27" s="31" t="s">
         <v>67</v>
@@ -3077,12 +3072,12 @@
       <c r="F31" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H31" s="53" t="s">
+      <c r="H31" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="55"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="53"/>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="15" t="s">
@@ -3370,11 +3365,11 @@
         <f t="shared" si="1"/>
         <v>5%</v>
       </c>
-      <c r="K40" s="56" t="str">
+      <c r="K40" s="54" t="str">
         <f>SUM(F40:F46)/10000&amp;"%"</f>
         <v>100%</v>
       </c>
-      <c r="L40" s="59" t="s">
+      <c r="L40" s="57" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3408,8 +3403,8 @@
         <f t="shared" si="1"/>
         <v>20%</v>
       </c>
-      <c r="K41" s="57"/>
-      <c r="L41" s="60"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="58"/>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="23">
@@ -3441,8 +3436,8 @@
         <f t="shared" si="1"/>
         <v>15%</v>
       </c>
-      <c r="K42" s="57"/>
-      <c r="L42" s="60"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="58"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="23">
@@ -3474,8 +3469,8 @@
         <f t="shared" si="1"/>
         <v>15%</v>
       </c>
-      <c r="K43" s="57"/>
-      <c r="L43" s="60"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="58"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="23">
@@ -3507,8 +3502,8 @@
         <f t="shared" si="1"/>
         <v>15%</v>
       </c>
-      <c r="K44" s="57"/>
-      <c r="L44" s="60"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="58"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="23">
@@ -3540,8 +3535,8 @@
         <f t="shared" si="1"/>
         <v>15%</v>
       </c>
-      <c r="K45" s="57"/>
-      <c r="L45" s="60"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="58"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="23">
@@ -3573,8 +3568,8 @@
         <f t="shared" si="1"/>
         <v>15%</v>
       </c>
-      <c r="K46" s="58"/>
-      <c r="L46" s="60"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="58"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="23">
@@ -3605,7 +3600,7 @@
         <f t="shared" si="1"/>
         <v>33%</v>
       </c>
-      <c r="K47" s="61" t="str">
+      <c r="K47" s="59" t="str">
         <f>SUM(F47:F49)/10000&amp;"%"</f>
         <v>100%</v>
       </c>
@@ -3639,7 +3634,7 @@
         <f t="shared" si="1"/>
         <v>33%</v>
       </c>
-      <c r="K48" s="57"/>
+      <c r="K48" s="55"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="23">
@@ -3670,7 +3665,7 @@
         <f t="shared" si="1"/>
         <v>34%</v>
       </c>
-      <c r="K49" s="58"/>
+      <c r="K49" s="56"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="23"/>
@@ -3716,10 +3711,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB92121-343E-422E-B3FA-27D4313C268C}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3910,7 +3905,7 @@
         <f>'[1]@item_type'!$C9</f>
         <v>5 경험치 물약</v>
       </c>
-      <c r="E8" s="49" t="str">
+      <c r="E8" s="5" t="str">
         <f>'[1]@reward_type'!A9</f>
         <v>EXP_PLAYER</v>
       </c>
@@ -3936,7 +3931,7 @@
         <f>'[1]@item_type'!$C10</f>
         <v>6 스테미나 회복 물약</v>
       </c>
-      <c r="E9" s="49" t="str">
+      <c r="E9" s="5" t="str">
         <f>'[1]@reward_type'!A10</f>
         <v>EXP_CHARACTER</v>
       </c>
@@ -4014,7 +4009,7 @@
         <f>'[1]@item_type'!$C13</f>
         <v>9 각종 소모용 아이템</v>
       </c>
-      <c r="E12" s="50" t="str">
+      <c r="E12" s="5" t="str">
         <f>'[1]@reward_type'!A13</f>
         <v>SEND_ESSENCE</v>
       </c>
@@ -4040,7 +4035,7 @@
         <f>'[1]@item_type'!$C14</f>
         <v>10 장비</v>
       </c>
-      <c r="E13" s="50" t="str">
+      <c r="E13" s="5" t="str">
         <f>'[1]@reward_type'!A14</f>
         <v>GET_ESSENCE</v>
       </c>
@@ -4246,9 +4241,9 @@
       </c>
     </row>
     <row r="26" spans="5:7">
-      <c r="E26" s="49" t="str">
+      <c r="E26" s="5" t="str">
         <f>'[1]@reward_type'!A27</f>
-        <v>EXP_SKILL</v>
+        <v>PIECE_ITEM</v>
       </c>
       <c r="F26" s="5">
         <f>'[1]@reward_type'!B27</f>
@@ -4256,7 +4251,21 @@
       </c>
       <c r="G26" s="5" t="str">
         <f>'[1]@reward_type'!C27</f>
-        <v>113 스킬 경험치 아이템</v>
+        <v>113 아이템 조각</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7">
+      <c r="E27" s="5" t="str">
+        <f>'[1]@reward_type'!A28</f>
+        <v>EXP_SKILL</v>
+      </c>
+      <c r="F27" s="5">
+        <f>'[1]@reward_type'!B28</f>
+        <v>114</v>
+      </c>
+      <c r="G27" s="5" t="str">
+        <f>'[1]@reward_type'!C28</f>
+        <v>114 스킬 경험치 아이템</v>
       </c>
     </row>
   </sheetData>
@@ -4786,11 +4795,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA56BF33-0599-44CF-8176-19546E225369}">
   <dimension ref="A1:L169"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4813,16 +4822,16 @@
         <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>40</v>
@@ -4857,7 +4866,7 @@
         <v>48</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>48</v>
@@ -4889,13 +4898,13 @@
         <v>50</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>52</v>
@@ -4935,11 +4944,11 @@
         <v>통상</v>
       </c>
       <c r="D5" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E5,'!참조_ENUM'!$G$3:$G$50,0))</f>
-        <v>113</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E5,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <v>114</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F5" s="45">
         <v>16</v>
@@ -4975,7 +4984,7 @@
         <v>통상</v>
       </c>
       <c r="D6" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E6,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E6,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>102</v>
       </c>
       <c r="E6" s="45" t="s">
@@ -5015,11 +5024,11 @@
         <v>통상</v>
       </c>
       <c r="D7" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E7,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E7,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F7" s="45">
         <v>1</v>
@@ -5055,11 +5064,11 @@
         <v>통상</v>
       </c>
       <c r="D8" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E8,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E8,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" s="45">
         <v>2</v>
@@ -5095,11 +5104,11 @@
         <v>통상</v>
       </c>
       <c r="D9" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E9,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E9,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F9" s="45">
         <v>11</v>
@@ -5135,11 +5144,11 @@
         <v>통상</v>
       </c>
       <c r="D10" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E10,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E10,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F10" s="45">
         <v>12</v>
@@ -5175,11 +5184,11 @@
         <v>초회</v>
       </c>
       <c r="D11" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E11,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E11,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F11" s="5">
         <v>15</v>
@@ -5215,11 +5224,11 @@
         <v>초회</v>
       </c>
       <c r="D12" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E12,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E12,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F12" s="5">
         <v>19</v>
@@ -5255,11 +5264,11 @@
         <v>초회</v>
       </c>
       <c r="D13" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E13,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E13,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F13" s="5">
         <v>22</v>
@@ -5295,11 +5304,11 @@
         <v>초회</v>
       </c>
       <c r="D14" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E14,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E14,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F14" s="5">
         <v>24</v>
@@ -5335,11 +5344,11 @@
         <v>별 보상</v>
       </c>
       <c r="D15" s="47">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E15,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E15,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>2</v>
       </c>
       <c r="E15" s="47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F15" s="47">
         <v>30</v>
@@ -5375,11 +5384,11 @@
         <v>통상</v>
       </c>
       <c r="D16" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E16,'!참조_ENUM'!$G$3:$G$50,0))</f>
-        <v>113</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E16,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <v>114</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F16" s="45">
         <v>16</v>
@@ -5415,7 +5424,7 @@
         <v>통상</v>
       </c>
       <c r="D17" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E17,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E17,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>102</v>
       </c>
       <c r="E17" s="45" t="s">
@@ -5455,11 +5464,11 @@
         <v>통상</v>
       </c>
       <c r="D18" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E18,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E18,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E18" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F18" s="45">
         <v>1</v>
@@ -5495,11 +5504,11 @@
         <v>통상</v>
       </c>
       <c r="D19" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E19,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E19,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F19" s="45">
         <v>2</v>
@@ -5535,11 +5544,11 @@
         <v>통상</v>
       </c>
       <c r="D20" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E20,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E20,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E20" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F20" s="45">
         <v>11</v>
@@ -5575,11 +5584,11 @@
         <v>통상</v>
       </c>
       <c r="D21" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E21,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E21,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E21" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F21" s="45">
         <v>12</v>
@@ -5615,11 +5624,11 @@
         <v>초회</v>
       </c>
       <c r="D22" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E22,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E22,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F22" s="5">
         <v>15</v>
@@ -5655,11 +5664,11 @@
         <v>초회</v>
       </c>
       <c r="D23" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E23,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E23,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F23" s="5">
         <v>19</v>
@@ -5695,11 +5704,11 @@
         <v>초회</v>
       </c>
       <c r="D24" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E24,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E24,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F24" s="5">
         <v>22</v>
@@ -5735,11 +5744,11 @@
         <v>초회</v>
       </c>
       <c r="D25" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E25,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E25,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F25" s="5">
         <v>24</v>
@@ -5775,11 +5784,11 @@
         <v>별 보상</v>
       </c>
       <c r="D26" s="47">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E26,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E26,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>2</v>
       </c>
       <c r="E26" s="47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F26" s="47">
         <v>30</v>
@@ -5815,11 +5824,11 @@
         <v>통상</v>
       </c>
       <c r="D27" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E27,'!참조_ENUM'!$G$3:$G$50,0))</f>
-        <v>113</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E27,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <v>114</v>
       </c>
       <c r="E27" s="45" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F27" s="45">
         <v>16</v>
@@ -5855,7 +5864,7 @@
         <v>통상</v>
       </c>
       <c r="D28" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E28,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E28,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>102</v>
       </c>
       <c r="E28" s="45" t="s">
@@ -5895,11 +5904,11 @@
         <v>통상</v>
       </c>
       <c r="D29" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E29,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E29,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E29" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F29" s="45">
         <v>1</v>
@@ -5935,11 +5944,11 @@
         <v>통상</v>
       </c>
       <c r="D30" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E30,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E30,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E30" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F30" s="45">
         <v>2</v>
@@ -5975,11 +5984,11 @@
         <v>통상</v>
       </c>
       <c r="D31" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E31,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E31,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E31" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F31" s="45">
         <v>11</v>
@@ -6015,11 +6024,11 @@
         <v>통상</v>
       </c>
       <c r="D32" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E32,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E32,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E32" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F32" s="45">
         <v>12</v>
@@ -6055,11 +6064,11 @@
         <v>초회</v>
       </c>
       <c r="D33" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E33,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E33,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F33" s="5">
         <v>15</v>
@@ -6095,11 +6104,11 @@
         <v>초회</v>
       </c>
       <c r="D34" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E34,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E34,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F34" s="5">
         <v>19</v>
@@ -6135,11 +6144,11 @@
         <v>초회</v>
       </c>
       <c r="D35" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E35,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E35,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F35" s="5">
         <v>22</v>
@@ -6175,11 +6184,11 @@
         <v>초회</v>
       </c>
       <c r="D36" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E36,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E36,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F36" s="5">
         <v>24</v>
@@ -6215,11 +6224,11 @@
         <v>별 보상</v>
       </c>
       <c r="D37" s="47">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E37,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E37,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>2</v>
       </c>
       <c r="E37" s="47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F37" s="47">
         <v>30</v>
@@ -6255,11 +6264,11 @@
         <v>통상</v>
       </c>
       <c r="D38" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E38,'!참조_ENUM'!$G$3:$G$50,0))</f>
-        <v>113</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E38,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <v>114</v>
       </c>
       <c r="E38" s="45" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F38" s="45">
         <v>16</v>
@@ -6295,7 +6304,7 @@
         <v>통상</v>
       </c>
       <c r="D39" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E39,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E39,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>102</v>
       </c>
       <c r="E39" s="45" t="s">
@@ -6335,11 +6344,11 @@
         <v>통상</v>
       </c>
       <c r="D40" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E40,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E40,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E40" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F40" s="45">
         <v>1</v>
@@ -6375,11 +6384,11 @@
         <v>통상</v>
       </c>
       <c r="D41" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E41,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E41,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E41" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F41" s="45">
         <v>2</v>
@@ -6415,11 +6424,11 @@
         <v>통상</v>
       </c>
       <c r="D42" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E42,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E42,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E42" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F42" s="45">
         <v>11</v>
@@ -6455,11 +6464,11 @@
         <v>통상</v>
       </c>
       <c r="D43" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E43,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E43,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E43" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F43" s="45">
         <v>12</v>
@@ -6495,11 +6504,11 @@
         <v>초회</v>
       </c>
       <c r="D44" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E44,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E44,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F44" s="5">
         <v>15</v>
@@ -6535,11 +6544,11 @@
         <v>초회</v>
       </c>
       <c r="D45" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E45,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E45,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F45" s="5">
         <v>19</v>
@@ -6575,11 +6584,11 @@
         <v>초회</v>
       </c>
       <c r="D46" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E46,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E46,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F46" s="5">
         <v>22</v>
@@ -6615,11 +6624,11 @@
         <v>초회</v>
       </c>
       <c r="D47" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E47,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E47,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F47" s="5">
         <v>24</v>
@@ -6655,11 +6664,11 @@
         <v>별 보상</v>
       </c>
       <c r="D48" s="47">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E48,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E48,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>2</v>
       </c>
       <c r="E48" s="47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F48" s="47">
         <v>30</v>
@@ -6695,11 +6704,11 @@
         <v>통상</v>
       </c>
       <c r="D49" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E49,'!참조_ENUM'!$G$3:$G$50,0))</f>
-        <v>113</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E49,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <v>114</v>
       </c>
       <c r="E49" s="45" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F49" s="45">
         <v>16</v>
@@ -6735,7 +6744,7 @@
         <v>통상</v>
       </c>
       <c r="D50" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E50,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E50,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>102</v>
       </c>
       <c r="E50" s="45" t="s">
@@ -6775,11 +6784,11 @@
         <v>통상</v>
       </c>
       <c r="D51" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E51,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E51,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E51" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F51" s="45">
         <v>1</v>
@@ -6815,11 +6824,11 @@
         <v>통상</v>
       </c>
       <c r="D52" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E52,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E52,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E52" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F52" s="45">
         <v>2</v>
@@ -6855,11 +6864,11 @@
         <v>통상</v>
       </c>
       <c r="D53" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E53,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E53,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E53" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F53" s="45">
         <v>11</v>
@@ -6895,11 +6904,11 @@
         <v>통상</v>
       </c>
       <c r="D54" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E54,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E54,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E54" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F54" s="45">
         <v>12</v>
@@ -6935,11 +6944,11 @@
         <v>초회</v>
       </c>
       <c r="D55" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E55,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E55,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F55" s="5">
         <v>15</v>
@@ -6975,11 +6984,11 @@
         <v>초회</v>
       </c>
       <c r="D56" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E56,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E56,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F56" s="5">
         <v>19</v>
@@ -7015,11 +7024,11 @@
         <v>초회</v>
       </c>
       <c r="D57" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E57,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E57,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F57" s="5">
         <v>22</v>
@@ -7055,11 +7064,11 @@
         <v>초회</v>
       </c>
       <c r="D58" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E58,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E58,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F58" s="5">
         <v>24</v>
@@ -7095,11 +7104,11 @@
         <v>별 보상</v>
       </c>
       <c r="D59" s="47">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E59,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E59,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>2</v>
       </c>
       <c r="E59" s="47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F59" s="47">
         <v>30</v>
@@ -7135,11 +7144,11 @@
         <v>통상</v>
       </c>
       <c r="D60" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E60,'!참조_ENUM'!$G$3:$G$50,0))</f>
-        <v>113</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E60,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <v>114</v>
       </c>
       <c r="E60" s="45" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F60" s="45">
         <v>16</v>
@@ -7175,7 +7184,7 @@
         <v>통상</v>
       </c>
       <c r="D61" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E61,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E61,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>102</v>
       </c>
       <c r="E61" s="45" t="s">
@@ -7215,11 +7224,11 @@
         <v>통상</v>
       </c>
       <c r="D62" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E62,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E62,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E62" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F62" s="45">
         <v>1</v>
@@ -7255,11 +7264,11 @@
         <v>통상</v>
       </c>
       <c r="D63" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E63,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E63,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E63" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F63" s="45">
         <v>2</v>
@@ -7295,11 +7304,11 @@
         <v>통상</v>
       </c>
       <c r="D64" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E64,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E64,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E64" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F64" s="45">
         <v>11</v>
@@ -7335,11 +7344,11 @@
         <v>통상</v>
       </c>
       <c r="D65" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E65,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E65,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E65" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F65" s="45">
         <v>12</v>
@@ -7375,11 +7384,11 @@
         <v>초회</v>
       </c>
       <c r="D66" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E66,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E66,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F66" s="5">
         <v>15</v>
@@ -7415,11 +7424,11 @@
         <v>초회</v>
       </c>
       <c r="D67" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E67,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E67,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F67" s="5">
         <v>19</v>
@@ -7455,11 +7464,11 @@
         <v>초회</v>
       </c>
       <c r="D68" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E68,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E68,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F68" s="5">
         <v>22</v>
@@ -7495,11 +7504,11 @@
         <v>초회</v>
       </c>
       <c r="D69" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E69,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E69,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F69" s="5">
         <v>24</v>
@@ -7535,11 +7544,11 @@
         <v>별 보상</v>
       </c>
       <c r="D70" s="47">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E70,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E70,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>2</v>
       </c>
       <c r="E70" s="47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F70" s="47">
         <v>30</v>
@@ -7575,11 +7584,11 @@
         <v>통상</v>
       </c>
       <c r="D71" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E71,'!참조_ENUM'!$G$3:$G$50,0))</f>
-        <v>113</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E71,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <v>114</v>
       </c>
       <c r="E71" s="45" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F71" s="45">
         <v>16</v>
@@ -7615,7 +7624,7 @@
         <v>통상</v>
       </c>
       <c r="D72" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E72,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E72,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>102</v>
       </c>
       <c r="E72" s="45" t="s">
@@ -7655,11 +7664,11 @@
         <v>통상</v>
       </c>
       <c r="D73" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E73,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E73,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E73" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F73" s="45">
         <v>1</v>
@@ -7695,11 +7704,11 @@
         <v>통상</v>
       </c>
       <c r="D74" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E74,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E74,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E74" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F74" s="45">
         <v>2</v>
@@ -7735,11 +7744,11 @@
         <v>통상</v>
       </c>
       <c r="D75" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E75,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E75,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E75" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F75" s="45">
         <v>11</v>
@@ -7775,11 +7784,11 @@
         <v>통상</v>
       </c>
       <c r="D76" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E76,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E76,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E76" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F76" s="45">
         <v>12</v>
@@ -7815,11 +7824,11 @@
         <v>초회</v>
       </c>
       <c r="D77" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E77,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E77,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F77" s="5">
         <v>15</v>
@@ -7855,11 +7864,11 @@
         <v>초회</v>
       </c>
       <c r="D78" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E78,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E78,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F78" s="5">
         <v>19</v>
@@ -7895,11 +7904,11 @@
         <v>초회</v>
       </c>
       <c r="D79" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E79,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E79,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F79" s="5">
         <v>22</v>
@@ -7935,11 +7944,11 @@
         <v>초회</v>
       </c>
       <c r="D80" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E80,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E80,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F80" s="5">
         <v>24</v>
@@ -7975,11 +7984,11 @@
         <v>별 보상</v>
       </c>
       <c r="D81" s="47">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E81,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E81,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>2</v>
       </c>
       <c r="E81" s="47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F81" s="47">
         <v>30</v>
@@ -8015,11 +8024,11 @@
         <v>통상</v>
       </c>
       <c r="D82" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E82,'!참조_ENUM'!$G$3:$G$50,0))</f>
-        <v>113</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E82,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <v>114</v>
       </c>
       <c r="E82" s="45" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F82" s="45">
         <v>16</v>
@@ -8055,7 +8064,7 @@
         <v>통상</v>
       </c>
       <c r="D83" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E83,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E83,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>102</v>
       </c>
       <c r="E83" s="45" t="s">
@@ -8095,11 +8104,11 @@
         <v>통상</v>
       </c>
       <c r="D84" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E84,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E84,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E84" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F84" s="45">
         <v>1</v>
@@ -8135,11 +8144,11 @@
         <v>통상</v>
       </c>
       <c r="D85" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E85,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E85,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E85" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F85" s="45">
         <v>2</v>
@@ -8175,11 +8184,11 @@
         <v>통상</v>
       </c>
       <c r="D86" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E86,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E86,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E86" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F86" s="45">
         <v>11</v>
@@ -8215,11 +8224,11 @@
         <v>통상</v>
       </c>
       <c r="D87" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E87,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E87,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E87" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F87" s="45">
         <v>12</v>
@@ -8255,11 +8264,11 @@
         <v>초회</v>
       </c>
       <c r="D88" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E88,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E88,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F88" s="5">
         <v>15</v>
@@ -8295,11 +8304,11 @@
         <v>초회</v>
       </c>
       <c r="D89" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E89,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E89,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F89" s="5">
         <v>19</v>
@@ -8335,11 +8344,11 @@
         <v>초회</v>
       </c>
       <c r="D90" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E90,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E90,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F90" s="5">
         <v>22</v>
@@ -8375,11 +8384,11 @@
         <v>초회</v>
       </c>
       <c r="D91" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E91,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E91,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F91" s="5">
         <v>24</v>
@@ -8415,11 +8424,11 @@
         <v>별 보상</v>
       </c>
       <c r="D92" s="47">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E92,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E92,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>2</v>
       </c>
       <c r="E92" s="47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F92" s="47">
         <v>30</v>
@@ -8455,11 +8464,11 @@
         <v>통상</v>
       </c>
       <c r="D93" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E93,'!참조_ENUM'!$G$3:$G$50,0))</f>
-        <v>113</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E93,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <v>114</v>
       </c>
       <c r="E93" s="45" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F93" s="45">
         <v>16</v>
@@ -8495,7 +8504,7 @@
         <v>통상</v>
       </c>
       <c r="D94" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E94,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E94,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>102</v>
       </c>
       <c r="E94" s="45" t="s">
@@ -8535,11 +8544,11 @@
         <v>통상</v>
       </c>
       <c r="D95" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E95,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E95,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E95" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F95" s="45">
         <v>1</v>
@@ -8575,11 +8584,11 @@
         <v>통상</v>
       </c>
       <c r="D96" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E96,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E96,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E96" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F96" s="45">
         <v>2</v>
@@ -8615,11 +8624,11 @@
         <v>통상</v>
       </c>
       <c r="D97" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E97,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E97,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E97" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F97" s="45">
         <v>11</v>
@@ -8655,11 +8664,11 @@
         <v>통상</v>
       </c>
       <c r="D98" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E98,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E98,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E98" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F98" s="45">
         <v>12</v>
@@ -8695,11 +8704,11 @@
         <v>초회</v>
       </c>
       <c r="D99" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E99,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E99,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F99" s="5">
         <v>15</v>
@@ -8735,11 +8744,11 @@
         <v>초회</v>
       </c>
       <c r="D100" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E100,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E100,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F100" s="5">
         <v>19</v>
@@ -8775,11 +8784,11 @@
         <v>초회</v>
       </c>
       <c r="D101" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E101,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E101,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F101" s="5">
         <v>22</v>
@@ -8815,11 +8824,11 @@
         <v>초회</v>
       </c>
       <c r="D102" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E102,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E102,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F102" s="5">
         <v>24</v>
@@ -8855,11 +8864,11 @@
         <v>별 보상</v>
       </c>
       <c r="D103" s="47">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E103,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E103,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>2</v>
       </c>
       <c r="E103" s="47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F103" s="47">
         <v>30</v>
@@ -8895,11 +8904,11 @@
         <v>통상</v>
       </c>
       <c r="D104" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E104,'!참조_ENUM'!$G$3:$G$50,0))</f>
-        <v>113</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E104,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <v>114</v>
       </c>
       <c r="E104" s="45" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F104" s="45">
         <v>16</v>
@@ -8935,7 +8944,7 @@
         <v>통상</v>
       </c>
       <c r="D105" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E105,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E105,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>102</v>
       </c>
       <c r="E105" s="45" t="s">
@@ -8975,11 +8984,11 @@
         <v>통상</v>
       </c>
       <c r="D106" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E106,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E106,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E106" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F106" s="45">
         <v>1</v>
@@ -9015,11 +9024,11 @@
         <v>통상</v>
       </c>
       <c r="D107" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E107,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E107,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E107" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F107" s="45">
         <v>2</v>
@@ -9055,11 +9064,11 @@
         <v>통상</v>
       </c>
       <c r="D108" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E108,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E108,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E108" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F108" s="45">
         <v>11</v>
@@ -9095,11 +9104,11 @@
         <v>통상</v>
       </c>
       <c r="D109" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E109,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E109,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E109" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F109" s="45">
         <v>12</v>
@@ -9135,11 +9144,11 @@
         <v>초회</v>
       </c>
       <c r="D110" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E110,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E110,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F110" s="5">
         <v>15</v>
@@ -9175,11 +9184,11 @@
         <v>초회</v>
       </c>
       <c r="D111" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E111,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E111,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F111" s="5">
         <v>19</v>
@@ -9215,11 +9224,11 @@
         <v>초회</v>
       </c>
       <c r="D112" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E112,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E112,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F112" s="5">
         <v>22</v>
@@ -9255,11 +9264,11 @@
         <v>초회</v>
       </c>
       <c r="D113" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E113,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E113,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F113" s="5">
         <v>24</v>
@@ -9295,11 +9304,11 @@
         <v>별 보상</v>
       </c>
       <c r="D114" s="47">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E114,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E114,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>2</v>
       </c>
       <c r="E114" s="47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F114" s="47">
         <v>30</v>
@@ -9335,11 +9344,11 @@
         <v>통상</v>
       </c>
       <c r="D115" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E115,'!참조_ENUM'!$G$3:$G$50,0))</f>
-        <v>113</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E115,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <v>114</v>
       </c>
       <c r="E115" s="45" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F115" s="45">
         <v>16</v>
@@ -9375,7 +9384,7 @@
         <v>통상</v>
       </c>
       <c r="D116" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E116,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E116,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>102</v>
       </c>
       <c r="E116" s="45" t="s">
@@ -9415,11 +9424,11 @@
         <v>통상</v>
       </c>
       <c r="D117" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E117,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E117,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E117" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F117" s="45">
         <v>1</v>
@@ -9455,11 +9464,11 @@
         <v>통상</v>
       </c>
       <c r="D118" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E118,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E118,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E118" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F118" s="45">
         <v>2</v>
@@ -9495,11 +9504,11 @@
         <v>통상</v>
       </c>
       <c r="D119" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E119,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E119,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E119" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F119" s="45">
         <v>11</v>
@@ -9535,11 +9544,11 @@
         <v>통상</v>
       </c>
       <c r="D120" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E120,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E120,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E120" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F120" s="45">
         <v>12</v>
@@ -9575,11 +9584,11 @@
         <v>초회</v>
       </c>
       <c r="D121" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E121,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E121,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F121" s="5">
         <v>15</v>
@@ -9615,11 +9624,11 @@
         <v>초회</v>
       </c>
       <c r="D122" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E122,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E122,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F122" s="5">
         <v>19</v>
@@ -9655,11 +9664,11 @@
         <v>초회</v>
       </c>
       <c r="D123" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E123,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E123,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F123" s="5">
         <v>22</v>
@@ -9695,11 +9704,11 @@
         <v>초회</v>
       </c>
       <c r="D124" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E124,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E124,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F124" s="5">
         <v>24</v>
@@ -9735,11 +9744,11 @@
         <v>별 보상</v>
       </c>
       <c r="D125" s="47">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E125,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E125,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>2</v>
       </c>
       <c r="E125" s="47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F125" s="47">
         <v>30</v>
@@ -9775,11 +9784,11 @@
         <v>통상</v>
       </c>
       <c r="D126" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E126,'!참조_ENUM'!$G$3:$G$50,0))</f>
-        <v>113</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E126,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <v>114</v>
       </c>
       <c r="E126" s="45" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F126" s="45">
         <v>16</v>
@@ -9815,7 +9824,7 @@
         <v>통상</v>
       </c>
       <c r="D127" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E127,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E127,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>102</v>
       </c>
       <c r="E127" s="45" t="s">
@@ -9855,11 +9864,11 @@
         <v>통상</v>
       </c>
       <c r="D128" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E128,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E128,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E128" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F128" s="45">
         <v>1</v>
@@ -9895,11 +9904,11 @@
         <v>통상</v>
       </c>
       <c r="D129" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E129,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E129,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E129" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F129" s="45">
         <v>2</v>
@@ -9935,11 +9944,11 @@
         <v>통상</v>
       </c>
       <c r="D130" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E130,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E130,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E130" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F130" s="45">
         <v>11</v>
@@ -9975,11 +9984,11 @@
         <v>통상</v>
       </c>
       <c r="D131" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E131,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E131,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E131" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F131" s="45">
         <v>12</v>
@@ -10015,11 +10024,11 @@
         <v>초회</v>
       </c>
       <c r="D132" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E132,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E132,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F132" s="5">
         <v>15</v>
@@ -10055,11 +10064,11 @@
         <v>초회</v>
       </c>
       <c r="D133" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E133,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E133,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F133" s="5">
         <v>19</v>
@@ -10095,11 +10104,11 @@
         <v>초회</v>
       </c>
       <c r="D134" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E134,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E134,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F134" s="5">
         <v>22</v>
@@ -10135,11 +10144,11 @@
         <v>초회</v>
       </c>
       <c r="D135" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E135,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E135,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F135" s="5">
         <v>24</v>
@@ -10175,11 +10184,11 @@
         <v>별 보상</v>
       </c>
       <c r="D136" s="47">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E136,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E136,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>2</v>
       </c>
       <c r="E136" s="47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F136" s="47">
         <v>30</v>
@@ -10215,11 +10224,11 @@
         <v>통상</v>
       </c>
       <c r="D137" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E137,'!참조_ENUM'!$G$3:$G$50,0))</f>
-        <v>113</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E137,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <v>114</v>
       </c>
       <c r="E137" s="45" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F137" s="45">
         <v>16</v>
@@ -10255,7 +10264,7 @@
         <v>통상</v>
       </c>
       <c r="D138" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E138,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E138,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>102</v>
       </c>
       <c r="E138" s="45" t="s">
@@ -10295,11 +10304,11 @@
         <v>통상</v>
       </c>
       <c r="D139" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E139,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E139,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E139" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F139" s="45">
         <v>1</v>
@@ -10335,11 +10344,11 @@
         <v>통상</v>
       </c>
       <c r="D140" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E140,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E140,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E140" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F140" s="45">
         <v>2</v>
@@ -10375,11 +10384,11 @@
         <v>통상</v>
       </c>
       <c r="D141" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E141,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E141,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E141" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F141" s="45">
         <v>11</v>
@@ -10415,11 +10424,11 @@
         <v>통상</v>
       </c>
       <c r="D142" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E142,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E142,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E142" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F142" s="45">
         <v>12</v>
@@ -10455,11 +10464,11 @@
         <v>초회</v>
       </c>
       <c r="D143" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E143,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E143,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F143" s="5">
         <v>15</v>
@@ -10495,11 +10504,11 @@
         <v>초회</v>
       </c>
       <c r="D144" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E144,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E144,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F144" s="5">
         <v>19</v>
@@ -10535,11 +10544,11 @@
         <v>초회</v>
       </c>
       <c r="D145" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E145,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E145,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F145" s="5">
         <v>22</v>
@@ -10575,11 +10584,11 @@
         <v>초회</v>
       </c>
       <c r="D146" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E146,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E146,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F146" s="5">
         <v>24</v>
@@ -10615,11 +10624,11 @@
         <v>별 보상</v>
       </c>
       <c r="D147" s="47">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E147,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E147,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>2</v>
       </c>
       <c r="E147" s="47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F147" s="47">
         <v>30</v>
@@ -10655,11 +10664,11 @@
         <v>통상</v>
       </c>
       <c r="D148" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E148,'!참조_ENUM'!$G$3:$G$50,0))</f>
-        <v>113</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E148,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <v>114</v>
       </c>
       <c r="E148" s="45" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F148" s="45">
         <v>16</v>
@@ -10695,7 +10704,7 @@
         <v>통상</v>
       </c>
       <c r="D149" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E149,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E149,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>102</v>
       </c>
       <c r="E149" s="45" t="s">
@@ -10735,11 +10744,11 @@
         <v>통상</v>
       </c>
       <c r="D150" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E150,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E150,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E150" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F150" s="45">
         <v>1</v>
@@ -10775,11 +10784,11 @@
         <v>통상</v>
       </c>
       <c r="D151" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E151,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E151,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E151" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F151" s="45">
         <v>2</v>
@@ -10815,11 +10824,11 @@
         <v>통상</v>
       </c>
       <c r="D152" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E152,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E152,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E152" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F152" s="45">
         <v>11</v>
@@ -10855,11 +10864,11 @@
         <v>통상</v>
       </c>
       <c r="D153" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E153,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E153,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E153" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F153" s="45">
         <v>12</v>
@@ -10895,11 +10904,11 @@
         <v>초회</v>
       </c>
       <c r="D154" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E154,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E154,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F154" s="5">
         <v>15</v>
@@ -10935,11 +10944,11 @@
         <v>초회</v>
       </c>
       <c r="D155" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E155,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E155,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F155" s="5">
         <v>19</v>
@@ -10975,11 +10984,11 @@
         <v>초회</v>
       </c>
       <c r="D156" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E156,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E156,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F156" s="5">
         <v>22</v>
@@ -11015,11 +11024,11 @@
         <v>초회</v>
       </c>
       <c r="D157" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E157,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E157,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F157" s="5">
         <v>24</v>
@@ -11055,11 +11064,11 @@
         <v>별 보상</v>
       </c>
       <c r="D158" s="47">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E158,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E158,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>2</v>
       </c>
       <c r="E158" s="47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F158" s="47">
         <v>30</v>
@@ -11095,11 +11104,11 @@
         <v>통상</v>
       </c>
       <c r="D159" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E159,'!참조_ENUM'!$G$3:$G$50,0))</f>
-        <v>113</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E159,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <v>114</v>
       </c>
       <c r="E159" s="45" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F159" s="45">
         <v>16</v>
@@ -11135,7 +11144,7 @@
         <v>통상</v>
       </c>
       <c r="D160" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E160,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E160,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>102</v>
       </c>
       <c r="E160" s="45" t="s">
@@ -11175,11 +11184,11 @@
         <v>통상</v>
       </c>
       <c r="D161" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E161,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E161,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E161" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F161" s="45">
         <v>1</v>
@@ -11215,11 +11224,11 @@
         <v>통상</v>
       </c>
       <c r="D162" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E162,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E162,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E162" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F162" s="45">
         <v>2</v>
@@ -11255,11 +11264,11 @@
         <v>통상</v>
       </c>
       <c r="D163" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E163,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E163,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E163" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F163" s="45">
         <v>11</v>
@@ -11295,11 +11304,11 @@
         <v>통상</v>
       </c>
       <c r="D164" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E164,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E164,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E164" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F164" s="45">
         <v>12</v>
@@ -11335,11 +11344,11 @@
         <v>초회</v>
       </c>
       <c r="D165" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E165,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E165,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F165" s="5">
         <v>15</v>
@@ -11375,11 +11384,11 @@
         <v>초회</v>
       </c>
       <c r="D166" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E166,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E166,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F166" s="5">
         <v>19</v>
@@ -11415,11 +11424,11 @@
         <v>초회</v>
       </c>
       <c r="D167" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E167,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E167,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F167" s="5">
         <v>22</v>
@@ -11455,11 +11464,11 @@
         <v>초회</v>
       </c>
       <c r="D168" s="5">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E168,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E168,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>8</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F168" s="5">
         <v>24</v>
@@ -11495,11 +11504,11 @@
         <v>별 보상</v>
       </c>
       <c r="D169" s="47">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$50,MATCH(E169,'!참조_ENUM'!$G$3:$G$50,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E169,'!참조_ENUM'!$G$3:$G$51,0))</f>
         <v>2</v>
       </c>
       <c r="E169" s="47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F169" s="47">
         <v>100</v>
@@ -11531,7 +11540,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BEC3969E-03AC-433B-B57B-D65FFD6FE8AA}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$G$3:$G$50</xm:f>
+            <xm:f>'!참조_ENUM'!$G$3:$G$51</xm:f>
           </x14:formula1>
           <xm:sqref>E5:E169</xm:sqref>
         </x14:dataValidation>

--- a/Android/ExcelData/RewardTable.xlsx
+++ b/Android/ExcelData/RewardTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDB2CD4-9FC9-4843-B6D8-D2418FF0452C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71ED77C7-C9A8-408B-8B89-94ACC3FEF751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
+    <workbookView xWindow="41160" yWindow="1110" windowWidth="27975" windowHeight="19770" activeTab="2" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
   </bookViews>
   <sheets>
     <sheet name="!사용 설명" sheetId="6" r:id="rId1"/>
@@ -617,10 +617,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8 장비</t>
+    <t>114 스킬 경험치 아이템</t>
   </si>
   <si>
-    <t>114 스킬 경험치 아이템</t>
+    <t>112 캐릭터 조각</t>
   </si>
 </sst>
 </file>
@@ -1201,11 +1201,35 @@
       <sheetName val="@love_level_type"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TRIBE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>POSITION_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ROLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>NPC_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
@@ -1221,7 +1245,7 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20">
+      <sheetData sheetId="20" refreshError="1">
         <row r="1">
           <cell r="A1" t="str">
             <v>ITEM_TYPE</v>
@@ -4132,7 +4156,7 @@
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L25" sqref="L25"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4281,7 +4305,7 @@
         <v>114</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" s="43">
         <v>16</v>
@@ -4358,16 +4382,16 @@
       </c>
       <c r="D7" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E7,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F7" s="43">
-        <v>1</v>
+        <v>100001</v>
       </c>
       <c r="G7" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="43">
         <v>0</v>
@@ -4398,16 +4422,16 @@
       </c>
       <c r="D8" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E8,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F8" s="43">
-        <v>2</v>
+        <v>100002</v>
       </c>
       <c r="G8" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="43">
         <v>0</v>
@@ -4438,16 +4462,16 @@
       </c>
       <c r="D9" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E9,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F9" s="43">
-        <v>11</v>
+        <v>100003</v>
       </c>
       <c r="G9" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="43">
         <v>0</v>
@@ -4478,16 +4502,16 @@
       </c>
       <c r="D10" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E10,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F10" s="43">
-        <v>12</v>
+        <v>100004</v>
       </c>
       <c r="G10" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="43">
         <v>0</v>
@@ -4518,16 +4542,16 @@
       </c>
       <c r="D11" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E11,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F11" s="4">
-        <v>15</v>
+        <v>100003</v>
       </c>
       <c r="G11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="4">
         <v>1</v>
@@ -4558,16 +4582,16 @@
       </c>
       <c r="D12" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E12,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F12" s="4">
-        <v>19</v>
+        <v>100004</v>
       </c>
       <c r="G12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="4">
         <v>1</v>
@@ -4598,16 +4622,16 @@
       </c>
       <c r="D13" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E13,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F13" s="4">
-        <v>22</v>
+        <v>100005</v>
       </c>
       <c r="G13" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="4">
         <v>1</v>
@@ -4638,16 +4662,16 @@
       </c>
       <c r="D14" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E14,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F14" s="4">
-        <v>24</v>
+        <v>100006</v>
       </c>
       <c r="G14" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="4">
         <v>1</v>
@@ -4721,7 +4745,7 @@
         <v>114</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F16" s="43">
         <v>16</v>
@@ -4798,16 +4822,16 @@
       </c>
       <c r="D18" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E18,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F18" s="43">
-        <v>1</v>
+        <v>100001</v>
       </c>
       <c r="G18" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="43">
         <v>0</v>
@@ -4838,16 +4862,16 @@
       </c>
       <c r="D19" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E19,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F19" s="43">
-        <v>2</v>
+        <v>100002</v>
       </c>
       <c r="G19" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="43">
         <v>0</v>
@@ -4878,16 +4902,16 @@
       </c>
       <c r="D20" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E20,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F20" s="43">
-        <v>11</v>
+        <v>100003</v>
       </c>
       <c r="G20" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="43">
         <v>0</v>
@@ -4918,16 +4942,16 @@
       </c>
       <c r="D21" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E21,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F21" s="43">
-        <v>12</v>
+        <v>100004</v>
       </c>
       <c r="G21" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="43">
         <v>0</v>
@@ -4958,16 +4982,16 @@
       </c>
       <c r="D22" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E22,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F22" s="4">
-        <v>15</v>
+        <v>100003</v>
       </c>
       <c r="G22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="4">
         <v>1</v>
@@ -4998,16 +5022,16 @@
       </c>
       <c r="D23" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E23,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F23" s="4">
-        <v>19</v>
+        <v>100004</v>
       </c>
       <c r="G23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="4">
         <v>1</v>
@@ -5038,16 +5062,16 @@
       </c>
       <c r="D24" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E24,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F24" s="4">
-        <v>22</v>
+        <v>100005</v>
       </c>
       <c r="G24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="4">
         <v>1</v>
@@ -5078,16 +5102,16 @@
       </c>
       <c r="D25" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E25,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F25" s="4">
-        <v>24</v>
+        <v>100006</v>
       </c>
       <c r="G25" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="4">
         <v>1</v>
@@ -5161,7 +5185,7 @@
         <v>114</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F27" s="43">
         <v>16</v>
@@ -5238,16 +5262,16 @@
       </c>
       <c r="D29" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E29,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F29" s="43">
-        <v>1</v>
+        <v>100001</v>
       </c>
       <c r="G29" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="43">
         <v>0</v>
@@ -5278,16 +5302,16 @@
       </c>
       <c r="D30" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E30,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F30" s="43">
-        <v>2</v>
+        <v>100002</v>
       </c>
       <c r="G30" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="43">
         <v>0</v>
@@ -5318,16 +5342,16 @@
       </c>
       <c r="D31" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E31,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E31" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F31" s="43">
-        <v>11</v>
+        <v>100003</v>
       </c>
       <c r="G31" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="43">
         <v>0</v>
@@ -5358,16 +5382,16 @@
       </c>
       <c r="D32" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E32,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F32" s="43">
-        <v>12</v>
+        <v>100004</v>
       </c>
       <c r="G32" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="43">
         <v>0</v>
@@ -5398,16 +5422,16 @@
       </c>
       <c r="D33" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E33,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F33" s="4">
-        <v>15</v>
+        <v>100003</v>
       </c>
       <c r="G33" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" s="4">
         <v>1</v>
@@ -5438,16 +5462,16 @@
       </c>
       <c r="D34" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E34,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F34" s="4">
-        <v>19</v>
+        <v>100004</v>
       </c>
       <c r="G34" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="4">
         <v>1</v>
@@ -5478,16 +5502,16 @@
       </c>
       <c r="D35" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E35,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F35" s="4">
-        <v>22</v>
+        <v>100005</v>
       </c>
       <c r="G35" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="4">
         <v>1</v>
@@ -5518,16 +5542,16 @@
       </c>
       <c r="D36" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E36,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F36" s="4">
-        <v>24</v>
+        <v>100006</v>
       </c>
       <c r="G36" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" s="4">
         <v>1</v>
@@ -5601,7 +5625,7 @@
         <v>114</v>
       </c>
       <c r="E38" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F38" s="43">
         <v>16</v>
@@ -5678,16 +5702,16 @@
       </c>
       <c r="D40" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E40,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E40" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F40" s="43">
-        <v>1</v>
+        <v>100001</v>
       </c>
       <c r="G40" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="43">
         <v>0</v>
@@ -5718,16 +5742,16 @@
       </c>
       <c r="D41" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E41,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F41" s="43">
-        <v>2</v>
+        <v>100002</v>
       </c>
       <c r="G41" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="43">
         <v>0</v>
@@ -5758,16 +5782,16 @@
       </c>
       <c r="D42" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E42,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E42" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F42" s="43">
-        <v>11</v>
+        <v>100003</v>
       </c>
       <c r="G42" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="43">
         <v>0</v>
@@ -5798,16 +5822,16 @@
       </c>
       <c r="D43" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E43,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F43" s="43">
-        <v>12</v>
+        <v>100004</v>
       </c>
       <c r="G43" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="43">
         <v>0</v>
@@ -5838,16 +5862,16 @@
       </c>
       <c r="D44" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E44,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F44" s="4">
-        <v>15</v>
+        <v>100003</v>
       </c>
       <c r="G44" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" s="4">
         <v>1</v>
@@ -5878,16 +5902,16 @@
       </c>
       <c r="D45" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E45,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F45" s="4">
-        <v>19</v>
+        <v>100004</v>
       </c>
       <c r="G45" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" s="4">
         <v>1</v>
@@ -5918,16 +5942,16 @@
       </c>
       <c r="D46" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E46,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F46" s="4">
-        <v>22</v>
+        <v>100005</v>
       </c>
       <c r="G46" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" s="4">
         <v>1</v>
@@ -5958,16 +5982,16 @@
       </c>
       <c r="D47" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E47,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F47" s="4">
-        <v>24</v>
+        <v>100006</v>
       </c>
       <c r="G47" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" s="4">
         <v>1</v>
@@ -6041,7 +6065,7 @@
         <v>114</v>
       </c>
       <c r="E49" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F49" s="43">
         <v>16</v>
@@ -6118,16 +6142,16 @@
       </c>
       <c r="D51" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E51,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E51" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F51" s="43">
-        <v>1</v>
+        <v>100001</v>
       </c>
       <c r="G51" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="43">
         <v>0</v>
@@ -6158,16 +6182,16 @@
       </c>
       <c r="D52" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E52,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E52" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F52" s="43">
-        <v>2</v>
+        <v>100002</v>
       </c>
       <c r="G52" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" s="43">
         <v>0</v>
@@ -6198,16 +6222,16 @@
       </c>
       <c r="D53" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E53,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E53" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F53" s="43">
-        <v>11</v>
+        <v>100003</v>
       </c>
       <c r="G53" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="43">
         <v>0</v>
@@ -6238,16 +6262,16 @@
       </c>
       <c r="D54" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E54,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E54" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F54" s="43">
-        <v>12</v>
+        <v>100004</v>
       </c>
       <c r="G54" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="43">
         <v>0</v>
@@ -6278,16 +6302,16 @@
       </c>
       <c r="D55" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E55,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F55" s="4">
-        <v>15</v>
+        <v>100003</v>
       </c>
       <c r="G55" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" s="4">
         <v>1</v>
@@ -6318,16 +6342,16 @@
       </c>
       <c r="D56" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E56,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F56" s="4">
-        <v>19</v>
+        <v>100004</v>
       </c>
       <c r="G56" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" s="4">
         <v>1</v>
@@ -6358,16 +6382,16 @@
       </c>
       <c r="D57" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E57,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F57" s="4">
-        <v>22</v>
+        <v>100005</v>
       </c>
       <c r="G57" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="4">
         <v>1</v>
@@ -6398,16 +6422,16 @@
       </c>
       <c r="D58" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E58,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F58" s="4">
-        <v>24</v>
+        <v>100006</v>
       </c>
       <c r="G58" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" s="4">
         <v>1</v>
@@ -6481,7 +6505,7 @@
         <v>114</v>
       </c>
       <c r="E60" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F60" s="43">
         <v>16</v>
@@ -6558,16 +6582,16 @@
       </c>
       <c r="D62" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E62,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E62" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F62" s="43">
-        <v>1</v>
+        <v>100001</v>
       </c>
       <c r="G62" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" s="43">
         <v>0</v>
@@ -6598,16 +6622,16 @@
       </c>
       <c r="D63" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E63,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E63" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F63" s="43">
-        <v>2</v>
+        <v>100002</v>
       </c>
       <c r="G63" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" s="43">
         <v>0</v>
@@ -6638,16 +6662,16 @@
       </c>
       <c r="D64" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E64,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E64" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F64" s="43">
-        <v>11</v>
+        <v>100003</v>
       </c>
       <c r="G64" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" s="43">
         <v>0</v>
@@ -6678,16 +6702,16 @@
       </c>
       <c r="D65" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E65,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E65" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F65" s="43">
-        <v>12</v>
+        <v>100004</v>
       </c>
       <c r="G65" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" s="43">
         <v>0</v>
@@ -6718,16 +6742,16 @@
       </c>
       <c r="D66" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E66,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F66" s="4">
-        <v>15</v>
+        <v>100003</v>
       </c>
       <c r="G66" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" s="4">
         <v>1</v>
@@ -6758,16 +6782,16 @@
       </c>
       <c r="D67" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E67,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F67" s="4">
-        <v>19</v>
+        <v>100004</v>
       </c>
       <c r="G67" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" s="4">
         <v>1</v>
@@ -6798,16 +6822,16 @@
       </c>
       <c r="D68" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E68,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F68" s="4">
-        <v>22</v>
+        <v>100005</v>
       </c>
       <c r="G68" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" s="4">
         <v>1</v>
@@ -6838,16 +6862,16 @@
       </c>
       <c r="D69" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E69,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F69" s="4">
-        <v>24</v>
+        <v>100006</v>
       </c>
       <c r="G69" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" s="4">
         <v>1</v>
@@ -6921,7 +6945,7 @@
         <v>114</v>
       </c>
       <c r="E71" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F71" s="43">
         <v>16</v>
@@ -6998,16 +7022,16 @@
       </c>
       <c r="D73" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E73,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E73" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F73" s="43">
-        <v>1</v>
+        <v>100001</v>
       </c>
       <c r="G73" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" s="43">
         <v>0</v>
@@ -7038,16 +7062,16 @@
       </c>
       <c r="D74" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E74,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E74" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F74" s="43">
-        <v>2</v>
+        <v>100002</v>
       </c>
       <c r="G74" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" s="43">
         <v>0</v>
@@ -7078,16 +7102,16 @@
       </c>
       <c r="D75" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E75,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E75" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F75" s="43">
-        <v>11</v>
+        <v>100003</v>
       </c>
       <c r="G75" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" s="43">
         <v>0</v>
@@ -7118,16 +7142,16 @@
       </c>
       <c r="D76" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E76,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E76" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F76" s="43">
-        <v>12</v>
+        <v>100004</v>
       </c>
       <c r="G76" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" s="43">
         <v>0</v>
@@ -7158,16 +7182,16 @@
       </c>
       <c r="D77" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E77,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F77" s="4">
-        <v>15</v>
+        <v>100003</v>
       </c>
       <c r="G77" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" s="4">
         <v>1</v>
@@ -7198,16 +7222,16 @@
       </c>
       <c r="D78" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E78,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F78" s="4">
-        <v>19</v>
+        <v>100004</v>
       </c>
       <c r="G78" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" s="4">
         <v>1</v>
@@ -7238,16 +7262,16 @@
       </c>
       <c r="D79" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E79,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F79" s="4">
-        <v>22</v>
+        <v>100005</v>
       </c>
       <c r="G79" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" s="4">
         <v>1</v>
@@ -7278,16 +7302,16 @@
       </c>
       <c r="D80" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E80,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F80" s="4">
-        <v>24</v>
+        <v>100006</v>
       </c>
       <c r="G80" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" s="4">
         <v>1</v>
@@ -7361,7 +7385,7 @@
         <v>114</v>
       </c>
       <c r="E82" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F82" s="43">
         <v>16</v>
@@ -7438,16 +7462,16 @@
       </c>
       <c r="D84" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E84,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E84" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F84" s="43">
-        <v>1</v>
+        <v>100001</v>
       </c>
       <c r="G84" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" s="43">
         <v>0</v>
@@ -7478,16 +7502,16 @@
       </c>
       <c r="D85" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E85,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E85" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F85" s="43">
-        <v>2</v>
+        <v>100002</v>
       </c>
       <c r="G85" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" s="43">
         <v>0</v>
@@ -7518,16 +7542,16 @@
       </c>
       <c r="D86" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E86,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E86" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F86" s="43">
-        <v>11</v>
+        <v>100003</v>
       </c>
       <c r="G86" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" s="43">
         <v>0</v>
@@ -7558,16 +7582,16 @@
       </c>
       <c r="D87" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E87,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E87" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F87" s="43">
-        <v>12</v>
+        <v>100004</v>
       </c>
       <c r="G87" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" s="43">
         <v>0</v>
@@ -7598,16 +7622,16 @@
       </c>
       <c r="D88" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E88,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F88" s="4">
-        <v>15</v>
+        <v>100003</v>
       </c>
       <c r="G88" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" s="4">
         <v>1</v>
@@ -7638,16 +7662,16 @@
       </c>
       <c r="D89" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E89,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F89" s="4">
-        <v>19</v>
+        <v>100004</v>
       </c>
       <c r="G89" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" s="4">
         <v>1</v>
@@ -7678,16 +7702,16 @@
       </c>
       <c r="D90" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E90,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F90" s="4">
-        <v>22</v>
+        <v>100005</v>
       </c>
       <c r="G90" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" s="4">
         <v>1</v>
@@ -7718,16 +7742,16 @@
       </c>
       <c r="D91" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E91,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F91" s="4">
-        <v>24</v>
+        <v>100006</v>
       </c>
       <c r="G91" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" s="4">
         <v>1</v>
@@ -7801,7 +7825,7 @@
         <v>114</v>
       </c>
       <c r="E93" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F93" s="43">
         <v>16</v>
@@ -7878,16 +7902,16 @@
       </c>
       <c r="D95" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E95,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E95" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F95" s="43">
-        <v>1</v>
+        <v>100001</v>
       </c>
       <c r="G95" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" s="43">
         <v>0</v>
@@ -7918,16 +7942,16 @@
       </c>
       <c r="D96" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E96,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E96" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F96" s="43">
-        <v>2</v>
+        <v>100002</v>
       </c>
       <c r="G96" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" s="43">
         <v>0</v>
@@ -7958,16 +7982,16 @@
       </c>
       <c r="D97" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E97,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E97" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F97" s="43">
-        <v>11</v>
+        <v>100003</v>
       </c>
       <c r="G97" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" s="43">
         <v>0</v>
@@ -7998,16 +8022,16 @@
       </c>
       <c r="D98" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E98,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E98" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F98" s="43">
-        <v>12</v>
+        <v>100004</v>
       </c>
       <c r="G98" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" s="43">
         <v>0</v>
@@ -8038,16 +8062,16 @@
       </c>
       <c r="D99" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E99,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F99" s="4">
-        <v>15</v>
+        <v>100003</v>
       </c>
       <c r="G99" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" s="4">
         <v>1</v>
@@ -8078,16 +8102,16 @@
       </c>
       <c r="D100" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E100,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F100" s="4">
-        <v>19</v>
+        <v>100004</v>
       </c>
       <c r="G100" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" s="4">
         <v>1</v>
@@ -8118,16 +8142,16 @@
       </c>
       <c r="D101" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E101,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F101" s="4">
-        <v>22</v>
+        <v>100005</v>
       </c>
       <c r="G101" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" s="4">
         <v>1</v>
@@ -8158,16 +8182,16 @@
       </c>
       <c r="D102" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E102,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F102" s="4">
-        <v>24</v>
+        <v>100006</v>
       </c>
       <c r="G102" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102" s="4">
         <v>1</v>
@@ -8241,7 +8265,7 @@
         <v>114</v>
       </c>
       <c r="E104" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F104" s="43">
         <v>16</v>
@@ -8318,16 +8342,16 @@
       </c>
       <c r="D106" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E106,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E106" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F106" s="43">
-        <v>1</v>
+        <v>100001</v>
       </c>
       <c r="G106" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106" s="43">
         <v>0</v>
@@ -8358,16 +8382,16 @@
       </c>
       <c r="D107" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E107,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E107" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F107" s="43">
-        <v>2</v>
+        <v>100002</v>
       </c>
       <c r="G107" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107" s="43">
         <v>0</v>
@@ -8398,16 +8422,16 @@
       </c>
       <c r="D108" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E108,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E108" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F108" s="43">
-        <v>11</v>
+        <v>100003</v>
       </c>
       <c r="G108" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108" s="43">
         <v>0</v>
@@ -8438,16 +8462,16 @@
       </c>
       <c r="D109" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E109,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E109" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F109" s="43">
-        <v>12</v>
+        <v>100004</v>
       </c>
       <c r="G109" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109" s="43">
         <v>0</v>
@@ -8478,16 +8502,16 @@
       </c>
       <c r="D110" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E110,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F110" s="4">
-        <v>15</v>
+        <v>100003</v>
       </c>
       <c r="G110" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110" s="4">
         <v>1</v>
@@ -8518,16 +8542,16 @@
       </c>
       <c r="D111" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E111,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F111" s="4">
-        <v>19</v>
+        <v>100004</v>
       </c>
       <c r="G111" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111" s="4">
         <v>1</v>
@@ -8558,16 +8582,16 @@
       </c>
       <c r="D112" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E112,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F112" s="4">
-        <v>22</v>
+        <v>100005</v>
       </c>
       <c r="G112" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112" s="4">
         <v>1</v>
@@ -8598,16 +8622,16 @@
       </c>
       <c r="D113" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E113,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F113" s="4">
-        <v>24</v>
+        <v>100006</v>
       </c>
       <c r="G113" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113" s="4">
         <v>1</v>
@@ -8681,7 +8705,7 @@
         <v>114</v>
       </c>
       <c r="E115" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F115" s="43">
         <v>16</v>
@@ -8758,16 +8782,16 @@
       </c>
       <c r="D117" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E117,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E117" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F117" s="43">
-        <v>1</v>
+        <v>100001</v>
       </c>
       <c r="G117" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117" s="43">
         <v>0</v>
@@ -8798,16 +8822,16 @@
       </c>
       <c r="D118" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E118,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E118" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F118" s="43">
-        <v>2</v>
+        <v>100002</v>
       </c>
       <c r="G118" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118" s="43">
         <v>0</v>
@@ -8838,16 +8862,16 @@
       </c>
       <c r="D119" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E119,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E119" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F119" s="43">
-        <v>11</v>
+        <v>100003</v>
       </c>
       <c r="G119" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119" s="43">
         <v>0</v>
@@ -8878,16 +8902,16 @@
       </c>
       <c r="D120" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E120,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E120" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F120" s="43">
-        <v>12</v>
+        <v>100004</v>
       </c>
       <c r="G120" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120" s="43">
         <v>0</v>
@@ -8918,16 +8942,16 @@
       </c>
       <c r="D121" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E121,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F121" s="4">
-        <v>15</v>
+        <v>100003</v>
       </c>
       <c r="G121" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121" s="4">
         <v>1</v>
@@ -8958,16 +8982,16 @@
       </c>
       <c r="D122" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E122,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F122" s="4">
-        <v>19</v>
+        <v>100004</v>
       </c>
       <c r="G122" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122" s="4">
         <v>1</v>
@@ -8998,16 +9022,16 @@
       </c>
       <c r="D123" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E123,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F123" s="4">
-        <v>22</v>
+        <v>100005</v>
       </c>
       <c r="G123" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123" s="4">
         <v>1</v>
@@ -9038,16 +9062,16 @@
       </c>
       <c r="D124" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E124,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F124" s="4">
-        <v>24</v>
+        <v>100006</v>
       </c>
       <c r="G124" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124" s="4">
         <v>1</v>
@@ -9121,7 +9145,7 @@
         <v>114</v>
       </c>
       <c r="E126" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F126" s="43">
         <v>16</v>
@@ -9198,16 +9222,16 @@
       </c>
       <c r="D128" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E128,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E128" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F128" s="43">
-        <v>1</v>
+        <v>100001</v>
       </c>
       <c r="G128" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128" s="43">
         <v>0</v>
@@ -9238,16 +9262,16 @@
       </c>
       <c r="D129" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E129,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E129" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F129" s="43">
-        <v>2</v>
+        <v>100002</v>
       </c>
       <c r="G129" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129" s="43">
         <v>0</v>
@@ -9278,16 +9302,16 @@
       </c>
       <c r="D130" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E130,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E130" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F130" s="43">
-        <v>11</v>
+        <v>100003</v>
       </c>
       <c r="G130" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130" s="43">
         <v>0</v>
@@ -9318,16 +9342,16 @@
       </c>
       <c r="D131" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E131,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E131" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F131" s="43">
-        <v>12</v>
+        <v>100004</v>
       </c>
       <c r="G131" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131" s="43">
         <v>0</v>
@@ -9358,16 +9382,16 @@
       </c>
       <c r="D132" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E132,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F132" s="4">
-        <v>15</v>
+        <v>100003</v>
       </c>
       <c r="G132" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132" s="4">
         <v>1</v>
@@ -9398,16 +9422,16 @@
       </c>
       <c r="D133" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E133,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F133" s="4">
-        <v>19</v>
+        <v>100004</v>
       </c>
       <c r="G133" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133" s="4">
         <v>1</v>
@@ -9438,16 +9462,16 @@
       </c>
       <c r="D134" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E134,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F134" s="4">
-        <v>22</v>
+        <v>100005</v>
       </c>
       <c r="G134" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134" s="4">
         <v>1</v>
@@ -9478,16 +9502,16 @@
       </c>
       <c r="D135" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E135,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F135" s="4">
-        <v>24</v>
+        <v>100006</v>
       </c>
       <c r="G135" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135" s="4">
         <v>1</v>
@@ -9561,7 +9585,7 @@
         <v>114</v>
       </c>
       <c r="E137" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F137" s="43">
         <v>16</v>
@@ -9638,16 +9662,16 @@
       </c>
       <c r="D139" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E139,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E139" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F139" s="43">
-        <v>1</v>
+        <v>100001</v>
       </c>
       <c r="G139" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139" s="43">
         <v>0</v>
@@ -9678,16 +9702,16 @@
       </c>
       <c r="D140" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E140,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E140" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F140" s="43">
-        <v>2</v>
+        <v>100002</v>
       </c>
       <c r="G140" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140" s="43">
         <v>0</v>
@@ -9718,16 +9742,16 @@
       </c>
       <c r="D141" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E141,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E141" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F141" s="43">
-        <v>11</v>
+        <v>100003</v>
       </c>
       <c r="G141" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141" s="43">
         <v>0</v>
@@ -9758,16 +9782,16 @@
       </c>
       <c r="D142" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E142,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E142" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F142" s="43">
-        <v>12</v>
+        <v>100004</v>
       </c>
       <c r="G142" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142" s="43">
         <v>0</v>
@@ -9798,16 +9822,16 @@
       </c>
       <c r="D143" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E143,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F143" s="4">
-        <v>15</v>
+        <v>100003</v>
       </c>
       <c r="G143" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143" s="4">
         <v>1</v>
@@ -9838,16 +9862,16 @@
       </c>
       <c r="D144" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E144,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F144" s="4">
-        <v>19</v>
+        <v>100004</v>
       </c>
       <c r="G144" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144" s="4">
         <v>1</v>
@@ -9878,16 +9902,16 @@
       </c>
       <c r="D145" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E145,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F145" s="4">
-        <v>22</v>
+        <v>100005</v>
       </c>
       <c r="G145" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H145" s="4">
         <v>1</v>
@@ -9918,16 +9942,16 @@
       </c>
       <c r="D146" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E146,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F146" s="4">
-        <v>24</v>
+        <v>100006</v>
       </c>
       <c r="G146" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146" s="4">
         <v>1</v>
@@ -10001,7 +10025,7 @@
         <v>114</v>
       </c>
       <c r="E148" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F148" s="43">
         <v>16</v>
@@ -10078,16 +10102,16 @@
       </c>
       <c r="D150" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E150,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E150" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F150" s="43">
-        <v>1</v>
+        <v>100001</v>
       </c>
       <c r="G150" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150" s="43">
         <v>0</v>
@@ -10118,16 +10142,16 @@
       </c>
       <c r="D151" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E151,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E151" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F151" s="43">
-        <v>2</v>
+        <v>100002</v>
       </c>
       <c r="G151" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151" s="43">
         <v>0</v>
@@ -10158,16 +10182,16 @@
       </c>
       <c r="D152" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E152,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E152" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F152" s="43">
-        <v>11</v>
+        <v>100003</v>
       </c>
       <c r="G152" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H152" s="43">
         <v>0</v>
@@ -10198,16 +10222,16 @@
       </c>
       <c r="D153" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E153,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E153" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F153" s="43">
-        <v>12</v>
+        <v>100004</v>
       </c>
       <c r="G153" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H153" s="43">
         <v>0</v>
@@ -10238,16 +10262,16 @@
       </c>
       <c r="D154" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E154,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F154" s="4">
-        <v>15</v>
+        <v>100003</v>
       </c>
       <c r="G154" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154" s="4">
         <v>1</v>
@@ -10278,16 +10302,16 @@
       </c>
       <c r="D155" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E155,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F155" s="4">
-        <v>19</v>
+        <v>100004</v>
       </c>
       <c r="G155" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155" s="4">
         <v>1</v>
@@ -10318,16 +10342,16 @@
       </c>
       <c r="D156" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E156,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F156" s="4">
-        <v>22</v>
+        <v>100005</v>
       </c>
       <c r="G156" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156" s="4">
         <v>1</v>
@@ -10358,16 +10382,16 @@
       </c>
       <c r="D157" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E157,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F157" s="4">
-        <v>24</v>
+        <v>100006</v>
       </c>
       <c r="G157" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157" s="4">
         <v>1</v>
@@ -10441,7 +10465,7 @@
         <v>114</v>
       </c>
       <c r="E159" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F159" s="43">
         <v>16</v>
@@ -10518,16 +10542,16 @@
       </c>
       <c r="D161" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E161,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E161" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F161" s="43">
-        <v>1</v>
+        <v>100001</v>
       </c>
       <c r="G161" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161" s="43">
         <v>0</v>
@@ -10558,16 +10582,16 @@
       </c>
       <c r="D162" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E162,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E162" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F162" s="43">
-        <v>2</v>
+        <v>100002</v>
       </c>
       <c r="G162" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162" s="43">
         <v>0</v>
@@ -10598,16 +10622,16 @@
       </c>
       <c r="D163" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E163,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E163" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F163" s="43">
-        <v>11</v>
+        <v>100003</v>
       </c>
       <c r="G163" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163" s="43">
         <v>0</v>
@@ -10638,16 +10662,16 @@
       </c>
       <c r="D164" s="43">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E164,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E164" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F164" s="43">
-        <v>12</v>
+        <v>100004</v>
       </c>
       <c r="G164" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164" s="43">
         <v>0</v>
@@ -10678,16 +10702,16 @@
       </c>
       <c r="D165" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E165,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F165" s="4">
-        <v>15</v>
+        <v>100003</v>
       </c>
       <c r="G165" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165" s="4">
         <v>1</v>
@@ -10718,16 +10742,16 @@
       </c>
       <c r="D166" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E166,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F166" s="4">
-        <v>19</v>
+        <v>100004</v>
       </c>
       <c r="G166" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H166" s="4">
         <v>1</v>
@@ -10758,16 +10782,16 @@
       </c>
       <c r="D167" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E167,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F167" s="4">
-        <v>22</v>
+        <v>100005</v>
       </c>
       <c r="G167" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167" s="4">
         <v>1</v>
@@ -10798,16 +10822,16 @@
       </c>
       <c r="D168" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(E168,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F168" s="4">
-        <v>24</v>
+        <v>100006</v>
       </c>
       <c r="G168" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168" s="4">
         <v>1</v>

--- a/Android/ExcelData/RewardTable.xlsx
+++ b/Android/ExcelData/RewardTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71ED77C7-C9A8-408B-8B89-94ACC3FEF751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B976C2A-C7A3-4BE0-B4A3-E1299016A689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41160" yWindow="1110" windowWidth="27975" windowHeight="19770" activeTab="2" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="24135" windowHeight="19770" activeTab="2" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
   </bookViews>
   <sheets>
     <sheet name="!사용 설명" sheetId="6" r:id="rId1"/>
@@ -394,7 +394,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="71">
   <si>
     <t>Reward_Set_Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -621,6 +621,10 @@
   </si>
   <si>
     <t>112 캐릭터 조각</t>
+  </si>
+  <si>
+    <t>key_1:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4156,7 +4160,7 @@
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4214,7 +4218,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>

--- a/Android/ExcelData/RewardTable.xlsx
+++ b/Android/ExcelData/RewardTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806C31A1-5D56-40A4-A08C-5B43CC37DFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1147F20B-8F36-4E29-B9FA-5C07D104A77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="1635" windowWidth="31080" windowHeight="19770" activeTab="2" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
+    <workbookView xWindow="660" yWindow="1635" windowWidth="36255" windowHeight="18660" activeTab="1" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
   </bookViews>
   <sheets>
     <sheet name="!사용 설명" sheetId="6" r:id="rId1"/>
@@ -781,7 +781,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -887,6 +887,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,7 +1057,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1174,6 +1180,9 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1214,6 +1223,7 @@
       <sheetName val="@target_type"/>
       <sheetName val="@onetime_effect_type"/>
       <sheetName val="@duration_effect_type"/>
+      <sheetName val="@game_type"/>
       <sheetName val="@persistence_type"/>
       <sheetName val="@projectile_type"/>
       <sheetName val="@inequality_type"/>
@@ -1229,6 +1239,7 @@
       <sheetName val="@reward_type"/>
       <sheetName val="@effect_count_type"/>
       <sheetName val="@love_level_type"/>
+      <sheetName val="@attribute_type"/>
       <sheetName val="@item_type"/>
       <sheetName val="@sd_body_type"/>
       <sheetName val="@stage_common"/>
@@ -1330,25 +1341,97 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>POSITION_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ROLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>NPC_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SECOND_TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>STAT_MULTIPLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
+      <sheetData sheetId="13">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ONETIME_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DURATION_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
+      <sheetData sheetId="17">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PERSISTENCE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
+      <sheetData sheetId="20">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SKILL_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
@@ -1356,7 +1439,8 @@
       <sheetData sheetId="25"/>
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
-      <sheetData sheetId="28">
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29">
         <row r="1">
           <cell r="A1" t="str">
             <v>REWARD_TYPE</v>
@@ -1551,13 +1635,13 @@
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>TICKET_DUNGEON</v>
+            <v>BOSS_DUNGEON_TICKET</v>
           </cell>
           <cell r="B20">
             <v>106</v>
           </cell>
           <cell r="C20" t="str">
-            <v>106 던전 입장 티켓</v>
+            <v>106 보스전 입장 횟수</v>
           </cell>
         </row>
         <row r="21">
@@ -1649,11 +1733,24 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="30">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_COUNT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ATTRIBUTE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1666,9 +1763,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1706,7 +1803,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1812,7 +1909,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1954,7 +2051,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2565,7 +2662,7 @@
     <row r="19" spans="1:15">
       <c r="A19" s="38" t="str">
         <f>'!참조_ENUM'!E19</f>
-        <v>TICKET_DUNGEON</v>
+        <v>BOSS_DUNGEON_TICKET</v>
       </c>
       <c r="B19" s="28">
         <f>'!참조_ENUM'!F19</f>
@@ -2573,7 +2670,7 @@
       </c>
       <c r="C19" s="35" t="str">
         <f>'!참조_ENUM'!G19</f>
-        <v>106 던전 입장 티켓</v>
+        <v>106 보스전 입장 횟수</v>
       </c>
       <c r="D19" s="29" t="s">
         <v>56</v>
@@ -3532,7 +3629,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB92121-343E-422E-B3FA-27D4313C268C}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -3878,15 +3977,15 @@
         <f>'[1]@tribe'!$C15</f>
         <v>0</v>
       </c>
-      <c r="E14" s="4" t="str">
+      <c r="E14" s="58" t="str">
         <f>'[1]@reward_type'!A15</f>
         <v>EXP_POTION_P</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="58">
         <f>'[1]@reward_type'!B15</f>
         <v>101</v>
       </c>
-      <c r="G14" s="4" t="str">
+      <c r="G14" s="58" t="str">
         <f>'[1]@reward_type'!C15</f>
         <v>101 플레이어 경험치 물약</v>
       </c>
@@ -3904,57 +4003,57 @@
         <f>'[1]@tribe'!$C16</f>
         <v>0</v>
       </c>
-      <c r="E15" s="4" t="str">
+      <c r="E15" s="58" t="str">
         <f>'[1]@reward_type'!A16</f>
         <v>EXP_POTION_C</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="58">
         <f>'[1]@reward_type'!B16</f>
         <v>102</v>
       </c>
-      <c r="G15" s="4" t="str">
+      <c r="G15" s="58" t="str">
         <f>'[1]@reward_type'!C16</f>
         <v>102 캐릭터 경험치 물약</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="E16" s="4" t="str">
+      <c r="E16" s="58" t="str">
         <f>'[1]@reward_type'!A17</f>
         <v>STA_POTION</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="58">
         <f>'[1]@reward_type'!B17</f>
         <v>103</v>
       </c>
-      <c r="G16" s="4" t="str">
+      <c r="G16" s="58" t="str">
         <f>'[1]@reward_type'!C17</f>
         <v>103 스테미나 회복 물약</v>
       </c>
     </row>
     <row r="17" spans="5:7">
-      <c r="E17" s="4" t="str">
+      <c r="E17" s="58" t="str">
         <f>'[1]@reward_type'!A18</f>
         <v>FAVORITE_ITEM</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="58">
         <f>'[1]@reward_type'!B18</f>
         <v>104</v>
       </c>
-      <c r="G17" s="4" t="str">
+      <c r="G17" s="58" t="str">
         <f>'[1]@reward_type'!C18</f>
         <v>104 호감도 아이템</v>
       </c>
     </row>
     <row r="18" spans="5:7">
-      <c r="E18" s="4" t="str">
+      <c r="E18" s="58" t="str">
         <f>'[1]@reward_type'!A19</f>
         <v>STAGE_SKIP</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="58">
         <f>'[1]@reward_type'!B19</f>
         <v>105</v>
       </c>
-      <c r="G18" s="4" t="str">
+      <c r="G18" s="58" t="str">
         <f>'[1]@reward_type'!C19</f>
         <v>105 스테이지 스킵 티켓</v>
       </c>
@@ -3962,7 +4061,7 @@
     <row r="19" spans="5:7">
       <c r="E19" s="4" t="str">
         <f>'[1]@reward_type'!A20</f>
-        <v>TICKET_DUNGEON</v>
+        <v>BOSS_DUNGEON_TICKET</v>
       </c>
       <c r="F19" s="4">
         <f>'[1]@reward_type'!B20</f>
@@ -3970,61 +4069,61 @@
       </c>
       <c r="G19" s="4" t="str">
         <f>'[1]@reward_type'!C20</f>
-        <v>106 던전 입장 티켓</v>
+        <v>106 보스전 입장 횟수</v>
       </c>
     </row>
     <row r="20" spans="5:7">
-      <c r="E20" s="4" t="str">
+      <c r="E20" s="58" t="str">
         <f>'[1]@reward_type'!A21</f>
         <v>EQ_GROWUP</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="58">
         <f>'[1]@reward_type'!B21</f>
         <v>107</v>
       </c>
-      <c r="G20" s="4" t="str">
+      <c r="G20" s="58" t="str">
         <f>'[1]@reward_type'!C21</f>
         <v>107 정련석(장비 성장)</v>
       </c>
     </row>
     <row r="21" spans="5:7">
-      <c r="E21" s="4" t="str">
+      <c r="E21" s="58" t="str">
         <f>'[1]@reward_type'!A22</f>
         <v>TICKET_REWARD_SELECT</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="58">
         <f>'[1]@reward_type'!B22</f>
         <v>108</v>
       </c>
-      <c r="G21" s="4" t="str">
+      <c r="G21" s="58" t="str">
         <f>'[1]@reward_type'!C22</f>
         <v>109 보상 선택 티켓(1개를 선택 획득)</v>
       </c>
     </row>
     <row r="22" spans="5:7">
-      <c r="E22" s="4" t="str">
+      <c r="E22" s="58" t="str">
         <f>'[1]@reward_type'!A23</f>
         <v>TICKET_REWARD_RANDOM</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="58">
         <f>'[1]@reward_type'!B23</f>
         <v>109</v>
       </c>
-      <c r="G22" s="4" t="str">
+      <c r="G22" s="58" t="str">
         <f>'[1]@reward_type'!C23</f>
         <v>100 보상 랜덤 티켓(1개를 확률 획득)</v>
       </c>
     </row>
     <row r="23" spans="5:7">
-      <c r="E23" s="4" t="str">
+      <c r="E23" s="58" t="str">
         <f>'[1]@reward_type'!A24</f>
         <v>TICKET_REWARD_ALL</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="58">
         <f>'[1]@reward_type'!B24</f>
         <v>110</v>
       </c>
-      <c r="G23" s="4" t="str">
+      <c r="G23" s="58" t="str">
         <f>'[1]@reward_type'!C24</f>
         <v>110 보상 패키지 티켓(모든 보상 획득)</v>
       </c>
@@ -4072,15 +4171,15 @@
       </c>
     </row>
     <row r="27" spans="5:7">
-      <c r="E27" s="4" t="str">
+      <c r="E27" s="58" t="str">
         <f>'[1]@reward_type'!A28</f>
         <v>EXP_SKILL</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="58">
         <f>'[1]@reward_type'!B28</f>
         <v>114</v>
       </c>
-      <c r="G27" s="4" t="str">
+      <c r="G27" s="58" t="str">
         <f>'[1]@reward_type'!C28</f>
         <v>114 스킬 경험치 아이템</v>
       </c>
@@ -4095,11 +4194,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA56BF33-0599-44CF-8176-19546E225369}">
   <dimension ref="A1:M169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G137" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="6" ySplit="4" topLeftCell="G125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D152" sqref="D152"/>
+      <selection pane="bottomRight" activeCell="H137" sqref="H137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/Android/ExcelData/RewardTable.xlsx
+++ b/Android/ExcelData/RewardTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1147F20B-8F36-4E29-B9FA-5C07D104A77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D0ABB9-FE62-4D31-A4EB-DE523EC7D5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="1635" windowWidth="36255" windowHeight="18660" activeTab="1" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
   </bookViews>
   <sheets>
     <sheet name="!사용 설명" sheetId="6" r:id="rId1"/>
@@ -564,9 +564,6 @@
     <t>루시아 2</t>
   </si>
   <si>
-    <t>102 캐릭터 경험치 물약</t>
-  </si>
-  <si>
     <t>ENUM:REWARD_TYPE:NONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -634,9 +631,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>114 스킬 경험치 아이템</t>
-  </si>
-  <si>
     <t>112 캐릭터 조각</t>
   </si>
   <si>
@@ -653,6 +647,13 @@
   </si>
   <si>
     <t>아이템 그룹 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000 아이템</t>
+  </si>
+  <si>
+    <t>1000 아이템</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -781,7 +782,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -887,12 +888,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,7 +1052,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1180,9 +1175,6 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1240,9 +1232,6 @@
       <sheetName val="@effect_count_type"/>
       <sheetName val="@love_level_type"/>
       <sheetName val="@attribute_type"/>
-      <sheetName val="@item_type"/>
-      <sheetName val="@sd_body_type"/>
-      <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1341,97 +1330,25 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>POSITION_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ROLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>NPC_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SECOND_TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>STAT_MULTIPLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ONETIME_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="15">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>DURATION_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PERSISTENCE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SKILL_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
@@ -1580,177 +1497,63 @@
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>EXP_POTION_P</v>
+            <v>BOSS_DUNGEON_TICKET</v>
           </cell>
           <cell r="B15">
-            <v>101</v>
+            <v>106</v>
           </cell>
           <cell r="C15" t="str">
-            <v>101 플레이어 경험치 물약</v>
+            <v>106 보스전 입장 횟수</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>EXP_POTION_C</v>
+            <v>PIECE_EQUIPMENT</v>
           </cell>
           <cell r="B16">
-            <v>102</v>
+            <v>111</v>
           </cell>
           <cell r="C16" t="str">
-            <v>102 캐릭터 경험치 물약</v>
+            <v>111 장비 조각</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>STA_POTION</v>
+            <v>PIECE_CHARACTER</v>
           </cell>
           <cell r="B17">
-            <v>103</v>
+            <v>112</v>
           </cell>
           <cell r="C17" t="str">
-            <v>103 스테미나 회복 물약</v>
+            <v>112 캐릭터 조각</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>FAVORITE_ITEM</v>
+            <v>PIECE_ITEM</v>
           </cell>
           <cell r="B18">
-            <v>104</v>
+            <v>113</v>
           </cell>
           <cell r="C18" t="str">
-            <v>104 호감도 아이템</v>
+            <v>113 아이템 조각</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>STAGE_SKIP</v>
+            <v>ITEM</v>
           </cell>
           <cell r="B19">
-            <v>105</v>
+            <v>1000</v>
           </cell>
           <cell r="C19" t="str">
-            <v>105 스테이지 스킵 티켓</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>BOSS_DUNGEON_TICKET</v>
-          </cell>
-          <cell r="B20">
-            <v>106</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>106 보스전 입장 횟수</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>EQ_GROWUP</v>
-          </cell>
-          <cell r="B21">
-            <v>107</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>107 정련석(장비 성장)</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>TICKET_REWARD_SELECT</v>
-          </cell>
-          <cell r="B22">
-            <v>108</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>109 보상 선택 티켓(1개를 선택 획득)</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>TICKET_REWARD_RANDOM</v>
-          </cell>
-          <cell r="B23">
-            <v>109</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>100 보상 랜덤 티켓(1개를 확률 획득)</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>TICKET_REWARD_ALL</v>
-          </cell>
-          <cell r="B24">
-            <v>110</v>
-          </cell>
-          <cell r="C24" t="str">
-            <v>110 보상 패키지 티켓(모든 보상 획득)</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>PIECE_EQUIPMENT</v>
-          </cell>
-          <cell r="B25">
-            <v>111</v>
-          </cell>
-          <cell r="C25" t="str">
-            <v>111 장비 조각</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>PIECE_CHARACTER</v>
-          </cell>
-          <cell r="B26">
-            <v>112</v>
-          </cell>
-          <cell r="C26" t="str">
-            <v>112 캐릭터 조각</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>PIECE_ITEM</v>
-          </cell>
-          <cell r="B27">
-            <v>113</v>
-          </cell>
-          <cell r="C27" t="str">
-            <v>113 아이템 조각</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>EXP_SKILL</v>
-          </cell>
-          <cell r="B28">
-            <v>114</v>
-          </cell>
-          <cell r="C28" t="str">
-            <v>114 스킬 경험치 아이템</v>
+            <v>1000 아이템</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="30">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_COUNT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="30"/>
       <sheetData sheetId="31"/>
-      <sheetData sheetId="32">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ATTRIBUTE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="32"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2213,7 +2016,7 @@
         <v>25</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
@@ -2399,13 +2202,13 @@
         <v>7 캐릭터</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" s="37" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G10" s="39"/>
       <c r="H10" s="39"/>
@@ -2431,13 +2234,13 @@
         <v>8 장비</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
@@ -2463,7 +2266,7 @@
         <v>9 근원 전달 횟수(플레이어 보유)</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>29</v>
@@ -2493,7 +2296,7 @@
         <v>10 근원 받을 수 있는 횟수(캐릭터 공용 설정)</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="29" t="s">
         <v>29</v>
@@ -2512,18 +2315,18 @@
     <row r="14" spans="1:15">
       <c r="A14" s="27" t="str">
         <f>'!참조_ENUM'!E14</f>
-        <v>EXP_POTION_P</v>
+        <v>BOSS_DUNGEON_TICKET</v>
       </c>
       <c r="B14" s="28">
         <f>'!참조_ENUM'!F14</f>
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C14" s="27" t="str">
         <f>'!참조_ENUM'!G14</f>
-        <v>101 플레이어 경험치 물약</v>
+        <v>106 보스전 입장 횟수</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="29" t="s">
         <v>29</v>
@@ -2542,18 +2345,18 @@
     <row r="15" spans="1:15">
       <c r="A15" s="27" t="str">
         <f>'!참조_ENUM'!E15</f>
-        <v>EXP_POTION_C</v>
+        <v>PIECE_EQUIPMENT</v>
       </c>
       <c r="B15" s="28">
         <f>'!참조_ENUM'!F15</f>
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C15" s="27" t="str">
         <f>'!참조_ENUM'!G15</f>
-        <v>102 캐릭터 경험치 물약</v>
+        <v>111 장비 조각</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="29" t="s">
         <v>29</v>
@@ -2572,18 +2375,18 @@
     <row r="16" spans="1:15">
       <c r="A16" s="27" t="str">
         <f>'!참조_ENUM'!E16</f>
-        <v>STA_POTION</v>
+        <v>PIECE_CHARACTER</v>
       </c>
       <c r="B16" s="28">
         <f>'!참조_ENUM'!F16</f>
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C16" s="27" t="str">
         <f>'!참조_ENUM'!G16</f>
-        <v>103 스테미나 회복 물약</v>
+        <v>112 캐릭터 조각</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" s="29" t="s">
         <v>29</v>
@@ -2601,19 +2404,19 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="27" t="str">
-        <f>'!참조_ENUM'!E17</f>
-        <v>FAVORITE_ITEM</v>
+        <f>'!참조_ENUM'!E18</f>
+        <v>ITEM</v>
       </c>
       <c r="B17" s="28">
-        <f>'!참조_ENUM'!F17</f>
-        <v>104</v>
+        <f>'!참조_ENUM'!F18</f>
+        <v>1000</v>
       </c>
       <c r="C17" s="27" t="str">
-        <f>'!참조_ENUM'!G17</f>
-        <v>104 호감도 아이템</v>
+        <f>'!참조_ENUM'!G18</f>
+        <v>1000 아이템</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" s="29" t="s">
         <v>29</v>
@@ -2630,20 +2433,20 @@
       <c r="O17" s="39"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="38" t="str">
-        <f>'!참조_ENUM'!E18</f>
-        <v>STAGE_SKIP</v>
-      </c>
-      <c r="B18" s="28">
-        <f>'!참조_ENUM'!F18</f>
-        <v>105</v>
-      </c>
-      <c r="C18" s="35" t="str">
-        <f>'!참조_ENUM'!G18</f>
-        <v>105 스테이지 스킵 티켓</v>
+      <c r="A18" s="38" t="e">
+        <f>'!참조_ENUM'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B18" s="28" t="e">
+        <f>'!참조_ENUM'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C18" s="35" t="e">
+        <f>'!참조_ENUM'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" s="29" t="s">
         <v>29</v>
@@ -2660,20 +2463,20 @@
       <c r="O18" s="39"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="38" t="str">
-        <f>'!참조_ENUM'!E19</f>
-        <v>BOSS_DUNGEON_TICKET</v>
-      </c>
-      <c r="B19" s="28">
-        <f>'!참조_ENUM'!F19</f>
-        <v>106</v>
-      </c>
-      <c r="C19" s="35" t="str">
-        <f>'!참조_ENUM'!G19</f>
-        <v>106 보스전 입장 횟수</v>
+      <c r="A19" s="38" t="e">
+        <f>'!참조_ENUM'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B19" s="28" t="e">
+        <f>'!참조_ENUM'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C19" s="35" t="e">
+        <f>'!참조_ENUM'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" s="29" t="s">
         <v>29</v>
@@ -2690,20 +2493,20 @@
       <c r="O19" s="39"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="38" t="str">
-        <f>'!참조_ENUM'!E20</f>
-        <v>EQ_GROWUP</v>
-      </c>
-      <c r="B20" s="28">
-        <f>'!참조_ENUM'!F20</f>
-        <v>107</v>
-      </c>
-      <c r="C20" s="35" t="str">
-        <f>'!참조_ENUM'!G20</f>
-        <v>107 정련석(장비 성장)</v>
+      <c r="A20" s="38" t="e">
+        <f>'!참조_ENUM'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B20" s="28" t="e">
+        <f>'!참조_ENUM'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C20" s="35" t="e">
+        <f>'!참조_ENUM'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" s="29" t="s">
         <v>29</v>
@@ -2720,20 +2523,20 @@
       <c r="O20" s="39"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="27" t="str">
-        <f>'!참조_ENUM'!E21</f>
-        <v>TICKET_REWARD_SELECT</v>
-      </c>
-      <c r="B21" s="28">
-        <f>'!참조_ENUM'!F21</f>
-        <v>108</v>
-      </c>
-      <c r="C21" s="27" t="str">
-        <f>'!참조_ENUM'!G21</f>
-        <v>109 보상 선택 티켓(1개를 선택 획득)</v>
+      <c r="A21" s="27" t="e">
+        <f>'!참조_ENUM'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B21" s="28" t="e">
+        <f>'!참조_ENUM'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C21" s="27" t="e">
+        <f>'!참조_ENUM'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" s="29" t="s">
         <v>30</v>
@@ -2750,17 +2553,17 @@
       <c r="O21" s="39"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="27" t="str">
-        <f>'!참조_ENUM'!E22</f>
-        <v>TICKET_REWARD_RANDOM</v>
-      </c>
-      <c r="B22" s="28">
-        <f>'!참조_ENUM'!F22</f>
-        <v>109</v>
-      </c>
-      <c r="C22" s="27" t="str">
-        <f>'!참조_ENUM'!G22</f>
-        <v>100 보상 랜덤 티켓(1개를 확률 획득)</v>
+      <c r="A22" s="27" t="e">
+        <f>'!참조_ENUM'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B22" s="28" t="e">
+        <f>'!참조_ENUM'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C22" s="27" t="e">
+        <f>'!참조_ENUM'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="D22" s="29" t="s">
         <v>31</v>
@@ -2780,17 +2583,17 @@
       <c r="O22" s="39"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="27" t="str">
-        <f>'!참조_ENUM'!E23</f>
-        <v>TICKET_REWARD_ALL</v>
-      </c>
-      <c r="B23" s="28">
-        <f>'!참조_ENUM'!F23</f>
-        <v>110</v>
-      </c>
-      <c r="C23" s="27" t="str">
-        <f>'!참조_ENUM'!G23</f>
-        <v>110 보상 패키지 티켓(모든 보상 획득)</v>
+      <c r="A23" s="27" t="e">
+        <f>'!참조_ENUM'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B23" s="28" t="e">
+        <f>'!참조_ENUM'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C23" s="27" t="e">
+        <f>'!참조_ENUM'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="D23" s="29" t="s">
         <v>31</v>
@@ -2810,17 +2613,17 @@
       <c r="O23" s="39"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="27" t="str">
-        <f>'!참조_ENUM'!E24</f>
-        <v>PIECE_EQUIPMENT</v>
-      </c>
-      <c r="B24" s="28">
-        <f>'!참조_ENUM'!F24</f>
-        <v>111</v>
-      </c>
-      <c r="C24" s="27" t="str">
-        <f>'!참조_ENUM'!G24</f>
-        <v>111 장비 조각</v>
+      <c r="A24" s="27" t="e">
+        <f>'!참조_ENUM'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B24" s="28" t="e">
+        <f>'!참조_ENUM'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C24" s="27" t="e">
+        <f>'!참조_ENUM'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="D24" s="29" t="s">
         <v>31</v>
@@ -2840,17 +2643,17 @@
       <c r="O24" s="39"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="27" t="str">
-        <f>'!참조_ENUM'!E25</f>
-        <v>PIECE_CHARACTER</v>
-      </c>
-      <c r="B25" s="28">
-        <f>'!참조_ENUM'!F25</f>
-        <v>112</v>
-      </c>
-      <c r="C25" s="27" t="str">
-        <f>'!참조_ENUM'!G25</f>
-        <v>112 캐릭터 조각</v>
+      <c r="A25" s="27" t="e">
+        <f>'!참조_ENUM'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B25" s="28" t="e">
+        <f>'!참조_ENUM'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C25" s="27" t="e">
+        <f>'!참조_ENUM'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="D25" s="29" t="s">
         <v>31</v>
@@ -2870,17 +2673,17 @@
       <c r="O25" s="39"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="27" t="str">
-        <f>'!참조_ENUM'!E27</f>
-        <v>EXP_SKILL</v>
-      </c>
-      <c r="B26" s="28">
-        <f>'!참조_ENUM'!F27</f>
-        <v>114</v>
-      </c>
-      <c r="C26" s="27" t="str">
-        <f>'!참조_ENUM'!G27</f>
-        <v>114 스킬 경험치 아이템</v>
+      <c r="A26" s="27" t="e">
+        <f>'!참조_ENUM'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B26" s="28" t="e">
+        <f>'!참조_ENUM'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C26" s="27" t="e">
+        <f>'!참조_ENUM'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="D26" s="29" t="s">
         <v>31</v>
@@ -2901,14 +2704,14 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B27" s="28"/>
       <c r="C27" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" s="29" t="s">
         <v>30</v>
@@ -3627,10 +3430,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB92121-343E-422E-B3FA-27D4313C268C}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3977,17 +3780,17 @@
         <f>'[1]@tribe'!$C15</f>
         <v>0</v>
       </c>
-      <c r="E14" s="58" t="str">
+      <c r="E14" s="4" t="str">
         <f>'[1]@reward_type'!A15</f>
-        <v>EXP_POTION_P</v>
-      </c>
-      <c r="F14" s="58">
+        <v>BOSS_DUNGEON_TICKET</v>
+      </c>
+      <c r="F14" s="4">
         <f>'[1]@reward_type'!B15</f>
-        <v>101</v>
-      </c>
-      <c r="G14" s="58" t="str">
+        <v>106</v>
+      </c>
+      <c r="G14" s="4" t="str">
         <f>'[1]@reward_type'!C15</f>
-        <v>101 플레이어 경험치 물약</v>
+        <v>106 보스전 입장 횟수</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4003,185 +3806,59 @@
         <f>'[1]@tribe'!$C16</f>
         <v>0</v>
       </c>
-      <c r="E15" s="58" t="str">
+      <c r="E15" s="4" t="str">
         <f>'[1]@reward_type'!A16</f>
-        <v>EXP_POTION_C</v>
-      </c>
-      <c r="F15" s="58">
+        <v>PIECE_EQUIPMENT</v>
+      </c>
+      <c r="F15" s="4">
         <f>'[1]@reward_type'!B16</f>
-        <v>102</v>
-      </c>
-      <c r="G15" s="58" t="str">
+        <v>111</v>
+      </c>
+      <c r="G15" s="4" t="str">
         <f>'[1]@reward_type'!C16</f>
-        <v>102 캐릭터 경험치 물약</v>
+        <v>111 장비 조각</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="E16" s="58" t="str">
+      <c r="E16" s="4" t="str">
         <f>'[1]@reward_type'!A17</f>
-        <v>STA_POTION</v>
-      </c>
-      <c r="F16" s="58">
+        <v>PIECE_CHARACTER</v>
+      </c>
+      <c r="F16" s="4">
         <f>'[1]@reward_type'!B17</f>
-        <v>103</v>
-      </c>
-      <c r="G16" s="58" t="str">
+        <v>112</v>
+      </c>
+      <c r="G16" s="4" t="str">
         <f>'[1]@reward_type'!C17</f>
-        <v>103 스테미나 회복 물약</v>
+        <v>112 캐릭터 조각</v>
       </c>
     </row>
     <row r="17" spans="5:7">
-      <c r="E17" s="58" t="str">
+      <c r="E17" s="4" t="str">
         <f>'[1]@reward_type'!A18</f>
-        <v>FAVORITE_ITEM</v>
-      </c>
-      <c r="F17" s="58">
+        <v>PIECE_ITEM</v>
+      </c>
+      <c r="F17" s="4">
         <f>'[1]@reward_type'!B18</f>
-        <v>104</v>
-      </c>
-      <c r="G17" s="58" t="str">
+        <v>113</v>
+      </c>
+      <c r="G17" s="4" t="str">
         <f>'[1]@reward_type'!C18</f>
-        <v>104 호감도 아이템</v>
+        <v>113 아이템 조각</v>
       </c>
     </row>
     <row r="18" spans="5:7">
-      <c r="E18" s="58" t="str">
+      <c r="E18" s="4" t="str">
         <f>'[1]@reward_type'!A19</f>
-        <v>STAGE_SKIP</v>
-      </c>
-      <c r="F18" s="58">
+        <v>ITEM</v>
+      </c>
+      <c r="F18" s="4">
         <f>'[1]@reward_type'!B19</f>
-        <v>105</v>
-      </c>
-      <c r="G18" s="58" t="str">
+        <v>1000</v>
+      </c>
+      <c r="G18" s="4" t="str">
         <f>'[1]@reward_type'!C19</f>
-        <v>105 스테이지 스킵 티켓</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7">
-      <c r="E19" s="4" t="str">
-        <f>'[1]@reward_type'!A20</f>
-        <v>BOSS_DUNGEON_TICKET</v>
-      </c>
-      <c r="F19" s="4">
-        <f>'[1]@reward_type'!B20</f>
-        <v>106</v>
-      </c>
-      <c r="G19" s="4" t="str">
-        <f>'[1]@reward_type'!C20</f>
-        <v>106 보스전 입장 횟수</v>
-      </c>
-    </row>
-    <row r="20" spans="5:7">
-      <c r="E20" s="58" t="str">
-        <f>'[1]@reward_type'!A21</f>
-        <v>EQ_GROWUP</v>
-      </c>
-      <c r="F20" s="58">
-        <f>'[1]@reward_type'!B21</f>
-        <v>107</v>
-      </c>
-      <c r="G20" s="58" t="str">
-        <f>'[1]@reward_type'!C21</f>
-        <v>107 정련석(장비 성장)</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7">
-      <c r="E21" s="58" t="str">
-        <f>'[1]@reward_type'!A22</f>
-        <v>TICKET_REWARD_SELECT</v>
-      </c>
-      <c r="F21" s="58">
-        <f>'[1]@reward_type'!B22</f>
-        <v>108</v>
-      </c>
-      <c r="G21" s="58" t="str">
-        <f>'[1]@reward_type'!C22</f>
-        <v>109 보상 선택 티켓(1개를 선택 획득)</v>
-      </c>
-    </row>
-    <row r="22" spans="5:7">
-      <c r="E22" s="58" t="str">
-        <f>'[1]@reward_type'!A23</f>
-        <v>TICKET_REWARD_RANDOM</v>
-      </c>
-      <c r="F22" s="58">
-        <f>'[1]@reward_type'!B23</f>
-        <v>109</v>
-      </c>
-      <c r="G22" s="58" t="str">
-        <f>'[1]@reward_type'!C23</f>
-        <v>100 보상 랜덤 티켓(1개를 확률 획득)</v>
-      </c>
-    </row>
-    <row r="23" spans="5:7">
-      <c r="E23" s="58" t="str">
-        <f>'[1]@reward_type'!A24</f>
-        <v>TICKET_REWARD_ALL</v>
-      </c>
-      <c r="F23" s="58">
-        <f>'[1]@reward_type'!B24</f>
-        <v>110</v>
-      </c>
-      <c r="G23" s="58" t="str">
-        <f>'[1]@reward_type'!C24</f>
-        <v>110 보상 패키지 티켓(모든 보상 획득)</v>
-      </c>
-    </row>
-    <row r="24" spans="5:7">
-      <c r="E24" s="4" t="str">
-        <f>'[1]@reward_type'!A25</f>
-        <v>PIECE_EQUIPMENT</v>
-      </c>
-      <c r="F24" s="4">
-        <f>'[1]@reward_type'!B25</f>
-        <v>111</v>
-      </c>
-      <c r="G24" s="4" t="str">
-        <f>'[1]@reward_type'!C25</f>
-        <v>111 장비 조각</v>
-      </c>
-    </row>
-    <row r="25" spans="5:7">
-      <c r="E25" s="4" t="str">
-        <f>'[1]@reward_type'!A26</f>
-        <v>PIECE_CHARACTER</v>
-      </c>
-      <c r="F25" s="4">
-        <f>'[1]@reward_type'!B26</f>
-        <v>112</v>
-      </c>
-      <c r="G25" s="4" t="str">
-        <f>'[1]@reward_type'!C26</f>
-        <v>112 캐릭터 조각</v>
-      </c>
-    </row>
-    <row r="26" spans="5:7">
-      <c r="E26" s="4" t="str">
-        <f>'[1]@reward_type'!A27</f>
-        <v>PIECE_ITEM</v>
-      </c>
-      <c r="F26" s="4">
-        <f>'[1]@reward_type'!B27</f>
-        <v>113</v>
-      </c>
-      <c r="G26" s="4" t="str">
-        <f>'[1]@reward_type'!C27</f>
-        <v>113 아이템 조각</v>
-      </c>
-    </row>
-    <row r="27" spans="5:7">
-      <c r="E27" s="58" t="str">
-        <f>'[1]@reward_type'!A28</f>
-        <v>EXP_SKILL</v>
-      </c>
-      <c r="F27" s="58">
-        <f>'[1]@reward_type'!B28</f>
-        <v>114</v>
-      </c>
-      <c r="G27" s="58" t="str">
-        <f>'[1]@reward_type'!C28</f>
-        <v>114 스킬 경험치 아이템</v>
+        <v>1000 아이템</v>
       </c>
     </row>
   </sheetData>
@@ -4194,11 +3871,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA56BF33-0599-44CF-8176-19546E225369}">
   <dimension ref="A1:M169"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G125" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="4" topLeftCell="G101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H137" sqref="H137"/>
+      <selection pane="bottomRight" activeCell="F132" sqref="F132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4222,19 +3899,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>3</v>
@@ -4260,10 +3937,10 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -4272,7 +3949,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
@@ -4304,16 +3981,16 @@
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
@@ -4356,11 +4033,11 @@
         <v>통상</v>
       </c>
       <c r="E5" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F5,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>114</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F5,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1000</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" s="43">
         <v>16</v>
@@ -4399,11 +4076,11 @@
         <v>통상</v>
       </c>
       <c r="E6" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F6,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>102</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F6,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1000</v>
       </c>
       <c r="F6" s="43" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G6" s="43">
         <v>6</v>
@@ -4442,11 +4119,11 @@
         <v>통상</v>
       </c>
       <c r="E7" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F7,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F7,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G7" s="43">
         <v>100001</v>
@@ -4485,11 +4162,11 @@
         <v>통상</v>
       </c>
       <c r="E8" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F8,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F8,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G8" s="43">
         <v>100002</v>
@@ -4528,11 +4205,11 @@
         <v>통상</v>
       </c>
       <c r="E9" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F9,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F9,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G9" s="43">
         <v>100003</v>
@@ -4571,11 +4248,11 @@
         <v>통상</v>
       </c>
       <c r="E10" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F10,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F10,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G10" s="43">
         <v>100004</v>
@@ -4614,11 +4291,11 @@
         <v>초회</v>
       </c>
       <c r="E11" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F11,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F11,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G11" s="4">
         <v>100003</v>
@@ -4657,11 +4334,11 @@
         <v>초회</v>
       </c>
       <c r="E12" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F12,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F12,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G12" s="4">
         <v>100004</v>
@@ -4700,11 +4377,11 @@
         <v>초회</v>
       </c>
       <c r="E13" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F13,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F13,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G13" s="4">
         <v>100005</v>
@@ -4743,11 +4420,11 @@
         <v>초회</v>
       </c>
       <c r="E14" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F14,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F14,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G14" s="4">
         <v>100006</v>
@@ -4786,11 +4463,11 @@
         <v>별 보상</v>
       </c>
       <c r="E15" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F15,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F15,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>2</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" s="45">
         <v>30</v>
@@ -4829,11 +4506,11 @@
         <v>통상</v>
       </c>
       <c r="E16" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F16,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>114</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F16,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1000</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G16" s="43">
         <v>16</v>
@@ -4872,11 +4549,11 @@
         <v>통상</v>
       </c>
       <c r="E17" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F17,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>102</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F17,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1000</v>
       </c>
       <c r="F17" s="43" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G17" s="43">
         <v>6</v>
@@ -4915,11 +4592,11 @@
         <v>통상</v>
       </c>
       <c r="E18" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F18,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F18,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G18" s="43">
         <v>100001</v>
@@ -4958,11 +4635,11 @@
         <v>통상</v>
       </c>
       <c r="E19" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F19,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F19,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G19" s="43">
         <v>100002</v>
@@ -5001,11 +4678,11 @@
         <v>통상</v>
       </c>
       <c r="E20" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F20,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F20,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G20" s="43">
         <v>100003</v>
@@ -5044,11 +4721,11 @@
         <v>통상</v>
       </c>
       <c r="E21" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F21,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F21,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F21" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G21" s="43">
         <v>100004</v>
@@ -5087,11 +4764,11 @@
         <v>초회</v>
       </c>
       <c r="E22" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F22,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F22,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G22" s="4">
         <v>100003</v>
@@ -5130,11 +4807,11 @@
         <v>초회</v>
       </c>
       <c r="E23" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F23,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F23,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G23" s="4">
         <v>100004</v>
@@ -5173,11 +4850,11 @@
         <v>초회</v>
       </c>
       <c r="E24" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F24,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F24,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G24" s="4">
         <v>100005</v>
@@ -5216,11 +4893,11 @@
         <v>초회</v>
       </c>
       <c r="E25" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F25,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F25,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G25" s="4">
         <v>100006</v>
@@ -5259,11 +4936,11 @@
         <v>별 보상</v>
       </c>
       <c r="E26" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F26,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F26,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>2</v>
       </c>
       <c r="F26" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G26" s="45">
         <v>30</v>
@@ -5302,11 +4979,11 @@
         <v>통상</v>
       </c>
       <c r="E27" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F27,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>114</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F27,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1000</v>
       </c>
       <c r="F27" s="43" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G27" s="43">
         <v>16</v>
@@ -5345,11 +5022,11 @@
         <v>통상</v>
       </c>
       <c r="E28" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F28,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>102</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F28,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1000</v>
       </c>
       <c r="F28" s="43" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G28" s="43">
         <v>6</v>
@@ -5388,11 +5065,11 @@
         <v>통상</v>
       </c>
       <c r="E29" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F29,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F29,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F29" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G29" s="43">
         <v>100001</v>
@@ -5431,11 +5108,11 @@
         <v>통상</v>
       </c>
       <c r="E30" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F30,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F30,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F30" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G30" s="43">
         <v>100002</v>
@@ -5474,11 +5151,11 @@
         <v>통상</v>
       </c>
       <c r="E31" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F31,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F31,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F31" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G31" s="43">
         <v>100003</v>
@@ -5517,11 +5194,11 @@
         <v>통상</v>
       </c>
       <c r="E32" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F32,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F32,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F32" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G32" s="43">
         <v>100004</v>
@@ -5560,11 +5237,11 @@
         <v>초회</v>
       </c>
       <c r="E33" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F33,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F33,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G33" s="4">
         <v>100003</v>
@@ -5603,11 +5280,11 @@
         <v>초회</v>
       </c>
       <c r="E34" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F34,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F34,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G34" s="4">
         <v>100004</v>
@@ -5646,11 +5323,11 @@
         <v>초회</v>
       </c>
       <c r="E35" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F35,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F35,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G35" s="4">
         <v>100005</v>
@@ -5689,11 +5366,11 @@
         <v>초회</v>
       </c>
       <c r="E36" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F36,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F36,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G36" s="4">
         <v>100006</v>
@@ -5732,11 +5409,11 @@
         <v>별 보상</v>
       </c>
       <c r="E37" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F37,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F37,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>2</v>
       </c>
       <c r="F37" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G37" s="45">
         <v>30</v>
@@ -5775,11 +5452,11 @@
         <v>통상</v>
       </c>
       <c r="E38" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F38,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>114</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F38,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1000</v>
       </c>
       <c r="F38" s="43" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G38" s="43">
         <v>16</v>
@@ -5818,11 +5495,11 @@
         <v>통상</v>
       </c>
       <c r="E39" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F39,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>102</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F39,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1000</v>
       </c>
       <c r="F39" s="43" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G39" s="43">
         <v>6</v>
@@ -5861,11 +5538,11 @@
         <v>통상</v>
       </c>
       <c r="E40" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F40,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F40,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F40" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G40" s="43">
         <v>100001</v>
@@ -5904,11 +5581,11 @@
         <v>통상</v>
       </c>
       <c r="E41" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F41,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F41,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F41" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G41" s="43">
         <v>100002</v>
@@ -5947,11 +5624,11 @@
         <v>통상</v>
       </c>
       <c r="E42" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F42,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F42,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F42" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G42" s="43">
         <v>100003</v>
@@ -5990,11 +5667,11 @@
         <v>통상</v>
       </c>
       <c r="E43" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F43,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F43,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F43" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G43" s="43">
         <v>100004</v>
@@ -6033,11 +5710,11 @@
         <v>초회</v>
       </c>
       <c r="E44" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F44,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F44,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G44" s="4">
         <v>100003</v>
@@ -6076,11 +5753,11 @@
         <v>초회</v>
       </c>
       <c r="E45" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F45,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F45,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G45" s="4">
         <v>100004</v>
@@ -6119,11 +5796,11 @@
         <v>초회</v>
       </c>
       <c r="E46" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F46,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F46,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G46" s="4">
         <v>100005</v>
@@ -6162,11 +5839,11 @@
         <v>초회</v>
       </c>
       <c r="E47" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F47,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F47,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G47" s="4">
         <v>100006</v>
@@ -6205,11 +5882,11 @@
         <v>별 보상</v>
       </c>
       <c r="E48" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F48,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F48,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>2</v>
       </c>
       <c r="F48" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G48" s="45">
         <v>30</v>
@@ -6248,11 +5925,11 @@
         <v>통상</v>
       </c>
       <c r="E49" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F49,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>114</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F49,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1000</v>
       </c>
       <c r="F49" s="43" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G49" s="43">
         <v>16</v>
@@ -6291,11 +5968,11 @@
         <v>통상</v>
       </c>
       <c r="E50" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F50,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>102</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F50,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1000</v>
       </c>
       <c r="F50" s="43" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G50" s="43">
         <v>6</v>
@@ -6334,11 +6011,11 @@
         <v>통상</v>
       </c>
       <c r="E51" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F51,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F51,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F51" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G51" s="43">
         <v>100001</v>
@@ -6377,11 +6054,11 @@
         <v>통상</v>
       </c>
       <c r="E52" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F52,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F52,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F52" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G52" s="43">
         <v>100002</v>
@@ -6420,11 +6097,11 @@
         <v>통상</v>
       </c>
       <c r="E53" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F53,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F53,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F53" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G53" s="43">
         <v>100003</v>
@@ -6463,11 +6140,11 @@
         <v>통상</v>
       </c>
       <c r="E54" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F54,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F54,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F54" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G54" s="43">
         <v>100004</v>
@@ -6506,11 +6183,11 @@
         <v>초회</v>
       </c>
       <c r="E55" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F55,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F55,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G55" s="4">
         <v>100003</v>
@@ -6549,11 +6226,11 @@
         <v>초회</v>
       </c>
       <c r="E56" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F56,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F56,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G56" s="4">
         <v>100004</v>
@@ -6592,11 +6269,11 @@
         <v>초회</v>
       </c>
       <c r="E57" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F57,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F57,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G57" s="4">
         <v>100005</v>
@@ -6635,11 +6312,11 @@
         <v>초회</v>
       </c>
       <c r="E58" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F58,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F58,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G58" s="4">
         <v>100006</v>
@@ -6678,11 +6355,11 @@
         <v>별 보상</v>
       </c>
       <c r="E59" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F59,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F59,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>2</v>
       </c>
       <c r="F59" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G59" s="45">
         <v>30</v>
@@ -6721,11 +6398,11 @@
         <v>통상</v>
       </c>
       <c r="E60" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F60,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>114</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F60,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1000</v>
       </c>
       <c r="F60" s="43" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G60" s="43">
         <v>16</v>
@@ -6764,11 +6441,11 @@
         <v>통상</v>
       </c>
       <c r="E61" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F61,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>102</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F61,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1000</v>
       </c>
       <c r="F61" s="43" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G61" s="43">
         <v>6</v>
@@ -6807,11 +6484,11 @@
         <v>통상</v>
       </c>
       <c r="E62" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F62,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F62,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F62" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G62" s="43">
         <v>100001</v>
@@ -6850,11 +6527,11 @@
         <v>통상</v>
       </c>
       <c r="E63" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F63,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F63,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F63" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G63" s="43">
         <v>100002</v>
@@ -6893,11 +6570,11 @@
         <v>통상</v>
       </c>
       <c r="E64" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F64,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F64,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F64" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G64" s="43">
         <v>100003</v>
@@ -6936,11 +6613,11 @@
         <v>통상</v>
       </c>
       <c r="E65" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F65,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F65,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F65" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G65" s="43">
         <v>100004</v>
@@ -6979,11 +6656,11 @@
         <v>초회</v>
       </c>
       <c r="E66" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F66,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F66,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G66" s="4">
         <v>100003</v>
@@ -7022,11 +6699,11 @@
         <v>초회</v>
       </c>
       <c r="E67" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F67,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F67,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G67" s="4">
         <v>100004</v>
@@ -7065,11 +6742,11 @@
         <v>초회</v>
       </c>
       <c r="E68" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F68,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F68,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G68" s="4">
         <v>100005</v>
@@ -7108,11 +6785,11 @@
         <v>초회</v>
       </c>
       <c r="E69" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F69,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F69,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G69" s="4">
         <v>100006</v>
@@ -7151,11 +6828,11 @@
         <v>별 보상</v>
       </c>
       <c r="E70" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F70,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F70,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>2</v>
       </c>
       <c r="F70" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G70" s="45">
         <v>30</v>
@@ -7194,11 +6871,11 @@
         <v>통상</v>
       </c>
       <c r="E71" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F71,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>114</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F71,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1000</v>
       </c>
       <c r="F71" s="43" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G71" s="43">
         <v>16</v>
@@ -7237,11 +6914,11 @@
         <v>통상</v>
       </c>
       <c r="E72" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F72,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>102</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F72,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1000</v>
       </c>
       <c r="F72" s="43" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G72" s="43">
         <v>6</v>
@@ -7280,11 +6957,11 @@
         <v>통상</v>
       </c>
       <c r="E73" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F73,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F73,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F73" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G73" s="43">
         <v>100001</v>
@@ -7323,11 +7000,11 @@
         <v>통상</v>
       </c>
       <c r="E74" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F74,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F74,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F74" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G74" s="43">
         <v>100002</v>
@@ -7366,11 +7043,11 @@
         <v>통상</v>
       </c>
       <c r="E75" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F75,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F75,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F75" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G75" s="43">
         <v>100003</v>
@@ -7409,11 +7086,11 @@
         <v>통상</v>
       </c>
       <c r="E76" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F76,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F76,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F76" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G76" s="43">
         <v>100004</v>
@@ -7452,11 +7129,11 @@
         <v>초회</v>
       </c>
       <c r="E77" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F77,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F77,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G77" s="4">
         <v>100003</v>
@@ -7495,11 +7172,11 @@
         <v>초회</v>
       </c>
       <c r="E78" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F78,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F78,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G78" s="4">
         <v>100004</v>
@@ -7538,11 +7215,11 @@
         <v>초회</v>
       </c>
       <c r="E79" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F79,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F79,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G79" s="4">
         <v>100005</v>
@@ -7581,11 +7258,11 @@
         <v>초회</v>
       </c>
       <c r="E80" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F80,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F80,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G80" s="4">
         <v>100006</v>
@@ -7624,11 +7301,11 @@
         <v>별 보상</v>
       </c>
       <c r="E81" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F81,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F81,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>2</v>
       </c>
       <c r="F81" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G81" s="45">
         <v>30</v>
@@ -7667,11 +7344,11 @@
         <v>통상</v>
       </c>
       <c r="E82" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F82,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>114</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F82,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1000</v>
       </c>
       <c r="F82" s="43" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G82" s="43">
         <v>16</v>
@@ -7710,11 +7387,11 @@
         <v>통상</v>
       </c>
       <c r="E83" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F83,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>102</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F83,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1000</v>
       </c>
       <c r="F83" s="43" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G83" s="43">
         <v>6</v>
@@ -7753,11 +7430,11 @@
         <v>통상</v>
       </c>
       <c r="E84" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F84,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F84,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F84" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G84" s="43">
         <v>100001</v>
@@ -7796,11 +7473,11 @@
         <v>통상</v>
       </c>
       <c r="E85" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F85,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F85,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F85" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G85" s="43">
         <v>100002</v>
@@ -7839,11 +7516,11 @@
         <v>통상</v>
       </c>
       <c r="E86" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F86,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F86,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F86" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G86" s="43">
         <v>100003</v>
@@ -7882,11 +7559,11 @@
         <v>통상</v>
       </c>
       <c r="E87" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F87,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F87,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F87" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G87" s="43">
         <v>100004</v>
@@ -7925,11 +7602,11 @@
         <v>초회</v>
       </c>
       <c r="E88" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F88,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F88,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G88" s="4">
         <v>100003</v>
@@ -7968,11 +7645,11 @@
         <v>초회</v>
       </c>
       <c r="E89" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F89,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F89,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G89" s="4">
         <v>100004</v>
@@ -8011,11 +7688,11 @@
         <v>초회</v>
       </c>
       <c r="E90" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F90,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F90,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G90" s="4">
         <v>100005</v>
@@ -8054,11 +7731,11 @@
         <v>초회</v>
       </c>
       <c r="E91" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F91,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F91,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G91" s="4">
         <v>100006</v>
@@ -8097,11 +7774,11 @@
         <v>별 보상</v>
       </c>
       <c r="E92" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F92,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F92,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>2</v>
       </c>
       <c r="F92" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G92" s="45">
         <v>30</v>
@@ -8140,11 +7817,11 @@
         <v>통상</v>
       </c>
       <c r="E93" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F93,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>114</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F93,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1000</v>
       </c>
       <c r="F93" s="43" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G93" s="43">
         <v>16</v>
@@ -8183,11 +7860,11 @@
         <v>통상</v>
       </c>
       <c r="E94" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F94,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>102</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F94,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1000</v>
       </c>
       <c r="F94" s="43" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G94" s="43">
         <v>6</v>
@@ -8226,11 +7903,11 @@
         <v>통상</v>
       </c>
       <c r="E95" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F95,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F95,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F95" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G95" s="43">
         <v>100001</v>
@@ -8269,11 +7946,11 @@
         <v>통상</v>
       </c>
       <c r="E96" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F96,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F96,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F96" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G96" s="43">
         <v>100002</v>
@@ -8312,11 +7989,11 @@
         <v>통상</v>
       </c>
       <c r="E97" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F97,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F97,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F97" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G97" s="43">
         <v>100003</v>
@@ -8355,11 +8032,11 @@
         <v>통상</v>
       </c>
       <c r="E98" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F98,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F98,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F98" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G98" s="43">
         <v>100004</v>
@@ -8398,11 +8075,11 @@
         <v>초회</v>
       </c>
       <c r="E99" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F99,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F99,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G99" s="4">
         <v>100003</v>
@@ -8441,11 +8118,11 @@
         <v>초회</v>
       </c>
       <c r="E100" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F100,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F100,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G100" s="4">
         <v>100004</v>
@@ -8484,11 +8161,11 @@
         <v>초회</v>
       </c>
       <c r="E101" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F101,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F101,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G101" s="4">
         <v>100005</v>
@@ -8527,11 +8204,11 @@
         <v>초회</v>
       </c>
       <c r="E102" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F102,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F102,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G102" s="4">
         <v>100006</v>
@@ -8570,11 +8247,11 @@
         <v>별 보상</v>
       </c>
       <c r="E103" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F103,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F103,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>2</v>
       </c>
       <c r="F103" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G103" s="45">
         <v>30</v>
@@ -8613,11 +8290,11 @@
         <v>통상</v>
       </c>
       <c r="E104" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F104,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>114</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F104,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1000</v>
       </c>
       <c r="F104" s="43" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G104" s="43">
         <v>16</v>
@@ -8656,11 +8333,11 @@
         <v>통상</v>
       </c>
       <c r="E105" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F105,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>102</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F105,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1000</v>
       </c>
       <c r="F105" s="43" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G105" s="43">
         <v>6</v>
@@ -8699,11 +8376,11 @@
         <v>통상</v>
       </c>
       <c r="E106" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F106,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F106,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F106" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G106" s="43">
         <v>100001</v>
@@ -8742,11 +8419,11 @@
         <v>통상</v>
       </c>
       <c r="E107" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F107,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F107,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F107" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G107" s="43">
         <v>100002</v>
@@ -8785,11 +8462,11 @@
         <v>통상</v>
       </c>
       <c r="E108" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F108,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F108,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F108" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G108" s="43">
         <v>100003</v>
@@ -8828,11 +8505,11 @@
         <v>통상</v>
       </c>
       <c r="E109" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F109,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F109,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F109" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G109" s="43">
         <v>100004</v>
@@ -8871,11 +8548,11 @@
         <v>초회</v>
       </c>
       <c r="E110" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F110,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F110,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G110" s="4">
         <v>100003</v>
@@ -8914,11 +8591,11 @@
         <v>초회</v>
       </c>
       <c r="E111" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F111,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F111,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G111" s="4">
         <v>100004</v>
@@ -8957,11 +8634,11 @@
         <v>초회</v>
       </c>
       <c r="E112" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F112,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F112,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G112" s="4">
         <v>100005</v>
@@ -9000,11 +8677,11 @@
         <v>초회</v>
       </c>
       <c r="E113" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F113,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F113,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G113" s="4">
         <v>100006</v>
@@ -9043,11 +8720,11 @@
         <v>별 보상</v>
       </c>
       <c r="E114" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F114,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F114,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>2</v>
       </c>
       <c r="F114" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G114" s="45">
         <v>30</v>
@@ -9086,11 +8763,11 @@
         <v>통상</v>
       </c>
       <c r="E115" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F115,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>114</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F115,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1000</v>
       </c>
       <c r="F115" s="43" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G115" s="43">
         <v>16</v>
@@ -9129,11 +8806,11 @@
         <v>통상</v>
       </c>
       <c r="E116" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F116,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>102</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F116,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1000</v>
       </c>
       <c r="F116" s="43" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G116" s="43">
         <v>6</v>
@@ -9172,11 +8849,11 @@
         <v>통상</v>
       </c>
       <c r="E117" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F117,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F117,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F117" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G117" s="43">
         <v>100001</v>
@@ -9215,11 +8892,11 @@
         <v>통상</v>
       </c>
       <c r="E118" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F118,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F118,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F118" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G118" s="43">
         <v>100002</v>
@@ -9258,11 +8935,11 @@
         <v>통상</v>
       </c>
       <c r="E119" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F119,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F119,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F119" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G119" s="43">
         <v>100003</v>
@@ -9301,11 +8978,11 @@
         <v>통상</v>
       </c>
       <c r="E120" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F120,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F120,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F120" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G120" s="43">
         <v>100004</v>
@@ -9344,11 +9021,11 @@
         <v>초회</v>
       </c>
       <c r="E121" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F121,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F121,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G121" s="4">
         <v>100003</v>
@@ -9387,11 +9064,11 @@
         <v>초회</v>
       </c>
       <c r="E122" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F122,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F122,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G122" s="4">
         <v>100004</v>
@@ -9430,11 +9107,11 @@
         <v>초회</v>
       </c>
       <c r="E123" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F123,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F123,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G123" s="4">
         <v>100005</v>
@@ -9473,11 +9150,11 @@
         <v>초회</v>
       </c>
       <c r="E124" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F124,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F124,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G124" s="4">
         <v>100006</v>
@@ -9516,11 +9193,11 @@
         <v>별 보상</v>
       </c>
       <c r="E125" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F125,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F125,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>2</v>
       </c>
       <c r="F125" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G125" s="45">
         <v>30</v>
@@ -9559,11 +9236,11 @@
         <v>통상</v>
       </c>
       <c r="E126" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F126,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>114</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F126,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1000</v>
       </c>
       <c r="F126" s="43" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G126" s="43">
         <v>16</v>
@@ -9602,11 +9279,11 @@
         <v>통상</v>
       </c>
       <c r="E127" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F127,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>102</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F127,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1000</v>
       </c>
       <c r="F127" s="43" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G127" s="43">
         <v>6</v>
@@ -9645,11 +9322,11 @@
         <v>통상</v>
       </c>
       <c r="E128" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F128,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F128,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F128" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G128" s="43">
         <v>100001</v>
@@ -9688,11 +9365,11 @@
         <v>통상</v>
       </c>
       <c r="E129" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F129,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F129,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F129" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G129" s="43">
         <v>100002</v>
@@ -9731,11 +9408,11 @@
         <v>통상</v>
       </c>
       <c r="E130" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F130,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F130,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F130" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G130" s="43">
         <v>100003</v>
@@ -9774,11 +9451,11 @@
         <v>통상</v>
       </c>
       <c r="E131" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F131,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F131,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F131" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G131" s="43">
         <v>100004</v>
@@ -9817,11 +9494,11 @@
         <v>초회</v>
       </c>
       <c r="E132" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F132,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F132,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G132" s="4">
         <v>100003</v>
@@ -9860,11 +9537,11 @@
         <v>초회</v>
       </c>
       <c r="E133" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F133,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F133,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G133" s="4">
         <v>100004</v>
@@ -9903,11 +9580,11 @@
         <v>초회</v>
       </c>
       <c r="E134" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F134,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F134,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G134" s="4">
         <v>100005</v>
@@ -9946,11 +9623,11 @@
         <v>초회</v>
       </c>
       <c r="E135" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F135,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F135,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G135" s="4">
         <v>100006</v>
@@ -9989,11 +9666,11 @@
         <v>별 보상</v>
       </c>
       <c r="E136" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F136,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F136,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>2</v>
       </c>
       <c r="F136" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G136" s="45">
         <v>30</v>
@@ -10032,11 +9709,11 @@
         <v>통상</v>
       </c>
       <c r="E137" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F137,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>114</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F137,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1000</v>
       </c>
       <c r="F137" s="43" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G137" s="43">
         <v>16</v>
@@ -10075,11 +9752,11 @@
         <v>통상</v>
       </c>
       <c r="E138" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F138,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>102</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F138,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1000</v>
       </c>
       <c r="F138" s="43" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G138" s="43">
         <v>6</v>
@@ -10118,11 +9795,11 @@
         <v>통상</v>
       </c>
       <c r="E139" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F139,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F139,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F139" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G139" s="43">
         <v>100001</v>
@@ -10161,11 +9838,11 @@
         <v>통상</v>
       </c>
       <c r="E140" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F140,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F140,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F140" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G140" s="43">
         <v>100002</v>
@@ -10204,11 +9881,11 @@
         <v>통상</v>
       </c>
       <c r="E141" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F141,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F141,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F141" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G141" s="43">
         <v>100003</v>
@@ -10247,11 +9924,11 @@
         <v>통상</v>
       </c>
       <c r="E142" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F142,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F142,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F142" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G142" s="43">
         <v>100004</v>
@@ -10290,11 +9967,11 @@
         <v>초회</v>
       </c>
       <c r="E143" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F143,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F143,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G143" s="4">
         <v>100003</v>
@@ -10333,11 +10010,11 @@
         <v>초회</v>
       </c>
       <c r="E144" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F144,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F144,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G144" s="4">
         <v>100004</v>
@@ -10376,11 +10053,11 @@
         <v>초회</v>
       </c>
       <c r="E145" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F145,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F145,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G145" s="4">
         <v>100005</v>
@@ -10419,11 +10096,11 @@
         <v>초회</v>
       </c>
       <c r="E146" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F146,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F146,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G146" s="4">
         <v>100006</v>
@@ -10462,11 +10139,11 @@
         <v>별 보상</v>
       </c>
       <c r="E147" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F147,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F147,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>2</v>
       </c>
       <c r="F147" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G147" s="45">
         <v>30</v>
@@ -10505,11 +10182,11 @@
         <v>통상</v>
       </c>
       <c r="E148" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F148,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>114</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F148,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1000</v>
       </c>
       <c r="F148" s="43" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G148" s="43">
         <v>16</v>
@@ -10548,11 +10225,11 @@
         <v>통상</v>
       </c>
       <c r="E149" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F149,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>102</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F149,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1000</v>
       </c>
       <c r="F149" s="43" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G149" s="43">
         <v>6</v>
@@ -10591,11 +10268,11 @@
         <v>통상</v>
       </c>
       <c r="E150" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F150,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F150,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F150" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G150" s="43">
         <v>100001</v>
@@ -10634,11 +10311,11 @@
         <v>통상</v>
       </c>
       <c r="E151" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F151,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F151,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F151" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G151" s="43">
         <v>100002</v>
@@ -10677,11 +10354,11 @@
         <v>통상</v>
       </c>
       <c r="E152" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F152,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F152,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F152" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G152" s="43">
         <v>100003</v>
@@ -10720,11 +10397,11 @@
         <v>통상</v>
       </c>
       <c r="E153" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F153,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F153,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F153" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G153" s="43">
         <v>100004</v>
@@ -10763,11 +10440,11 @@
         <v>초회</v>
       </c>
       <c r="E154" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F154,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F154,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G154" s="4">
         <v>100003</v>
@@ -10806,11 +10483,11 @@
         <v>초회</v>
       </c>
       <c r="E155" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F155,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F155,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G155" s="4">
         <v>100004</v>
@@ -10849,11 +10526,11 @@
         <v>초회</v>
       </c>
       <c r="E156" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F156,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F156,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G156" s="4">
         <v>100005</v>
@@ -10892,11 +10569,11 @@
         <v>초회</v>
       </c>
       <c r="E157" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F157,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F157,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G157" s="4">
         <v>100006</v>
@@ -10935,11 +10612,11 @@
         <v>별 보상</v>
       </c>
       <c r="E158" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F158,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F158,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>2</v>
       </c>
       <c r="F158" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G158" s="45">
         <v>30</v>
@@ -10978,11 +10655,11 @@
         <v>통상</v>
       </c>
       <c r="E159" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F159,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>114</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F159,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1000</v>
       </c>
       <c r="F159" s="43" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G159" s="43">
         <v>16</v>
@@ -11021,11 +10698,11 @@
         <v>통상</v>
       </c>
       <c r="E160" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F160,'!참조_ENUM'!$G$3:$G$51,0))</f>
-        <v>102</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F160,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1000</v>
       </c>
       <c r="F160" s="43" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G160" s="43">
         <v>6</v>
@@ -11064,11 +10741,11 @@
         <v>통상</v>
       </c>
       <c r="E161" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F161,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F161,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F161" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G161" s="43">
         <v>100001</v>
@@ -11107,11 +10784,11 @@
         <v>통상</v>
       </c>
       <c r="E162" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F162,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F162,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F162" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G162" s="43">
         <v>100002</v>
@@ -11150,11 +10827,11 @@
         <v>통상</v>
       </c>
       <c r="E163" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F163,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F163,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F163" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G163" s="43">
         <v>100003</v>
@@ -11193,11 +10870,11 @@
         <v>통상</v>
       </c>
       <c r="E164" s="43">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F164,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F164,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F164" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G164" s="43">
         <v>100004</v>
@@ -11236,11 +10913,11 @@
         <v>초회</v>
       </c>
       <c r="E165" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F165,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F165,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G165" s="4">
         <v>100003</v>
@@ -11279,11 +10956,11 @@
         <v>초회</v>
       </c>
       <c r="E166" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F166,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F166,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G166" s="4">
         <v>100004</v>
@@ -11322,11 +10999,11 @@
         <v>초회</v>
       </c>
       <c r="E167" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F167,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F167,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G167" s="4">
         <v>100005</v>
@@ -11365,11 +11042,11 @@
         <v>초회</v>
       </c>
       <c r="E168" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F168,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F168,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G168" s="4">
         <v>100006</v>
@@ -11408,11 +11085,11 @@
         <v>별 보상</v>
       </c>
       <c r="E169" s="45">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$51,MATCH(F169,'!참조_ENUM'!$G$3:$G$51,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F169,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>2</v>
       </c>
       <c r="F169" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G169" s="45">
         <v>100</v>
@@ -11444,7 +11121,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BEC3969E-03AC-433B-B57B-D65FFD6FE8AA}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$G$3:$G$51</xm:f>
+            <xm:f>'!참조_ENUM'!$G$3:$G$42</xm:f>
           </x14:formula1>
           <xm:sqref>F5:F169</xm:sqref>
         </x14:dataValidation>

--- a/Android/ExcelData/RewardTable.xlsx
+++ b/Android/ExcelData/RewardTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D0ABB9-FE62-4D31-A4EB-DE523EC7D5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4696945C-9945-42FD-BD2F-735146ED987F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
   </bookViews>
   <sheets>
     <sheet name="!사용 설명" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">reward_set_v2!$A$4:$M$169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">reward_set_v2!$A$4:$N$169</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -411,7 +411,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="80">
   <si>
     <t>Reward_Set_Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -656,6 +656,28 @@
     <t>1000 아이템</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>출현 타입(기획)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#drop_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM:DROP_TYPE:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 개별 드랍 확률로 체크</t>
+  </si>
+  <si>
+    <t>2 ID내에서의 드랍 비중으로 체크</t>
+  </si>
 </sst>
 </file>
 
@@ -782,7 +804,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -888,6 +910,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,7 +1080,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1175,6 +1203,18 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1232,6 +1272,7 @@
       <sheetName val="@effect_count_type"/>
       <sheetName val="@love_level_type"/>
       <sheetName val="@attribute_type"/>
+      <sheetName val="@res_type"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1354,7 +1395,57 @@
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
       <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
+      <sheetData sheetId="26">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DROP_TYPE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>type</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>value</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>comment</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>DROP_EACH</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>1 개별 드랍 확률로 체크</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>DROP_WEIGHT</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>2 ID내에서의 드랍 비중으로 체크</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
       <sheetData sheetId="29">
@@ -1554,6 +1645,7 @@
       <sheetData sheetId="30"/>
       <sheetData sheetId="31"/>
       <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3430,10 +3522,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB92121-343E-422E-B3FA-27D4313C268C}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:G18"/>
+      <selection activeCell="I3" sqref="I3:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3443,9 +3535,12 @@
     <col min="3" max="3" width="31.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="A1" t="str">
         <f>'[1]@tribe'!$A$1</f>
         <v>TRIBE_TYPE</v>
@@ -3454,8 +3549,12 @@
         <f>'[1]@reward_type'!$A$1</f>
         <v>REWARD_TYPE</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="I1" t="str">
+        <f>'[1]@drop_type'!$A$1</f>
+        <v>DROP_TYPE</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="5" t="str">
         <f>'[1]@tribe'!$A3</f>
         <v>type</v>
@@ -3480,8 +3579,20 @@
         <f>'[1]@reward_type'!C3</f>
         <v>comment</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="I2" s="5" t="str">
+        <f>'[1]@drop_type'!$A3</f>
+        <v>type</v>
+      </c>
+      <c r="J2" s="5" t="str">
+        <f>'[1]@drop_type'!$B3</f>
+        <v>value</v>
+      </c>
+      <c r="K2" s="1" t="str">
+        <f>'[1]@drop_type'!$C3</f>
+        <v>comment</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="4" t="str">
         <f>'[1]@tribe'!$A4</f>
         <v>NONE</v>
@@ -3506,8 +3617,20 @@
         <f>'[1]@reward_type'!C4</f>
         <v>NONE</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="I3" s="4" t="str">
+        <f>'[1]@drop_type'!$A4</f>
+        <v>NONE</v>
+      </c>
+      <c r="J3" s="4">
+        <f>'[1]@drop_type'!$B4</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="4" t="str">
+        <f>'[1]@drop_type'!$C4</f>
+        <v>NONE</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="4" t="str">
         <f>'[1]@tribe'!$A5</f>
         <v>HUMAN</v>
@@ -3532,8 +3655,20 @@
         <f>'[1]@reward_type'!C5</f>
         <v>1 금화(게임내 사용되는 재화)</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="I4" s="4" t="str">
+        <f>'[1]@drop_type'!$A5</f>
+        <v>DROP_EACH</v>
+      </c>
+      <c r="J4" s="4">
+        <f>'[1]@drop_type'!$B5</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="4" t="str">
+        <f>'[1]@drop_type'!$C5</f>
+        <v>1 개별 드랍 확률로 체크</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="4" t="str">
         <f>'[1]@tribe'!$A6</f>
         <v>ELF</v>
@@ -3558,8 +3693,20 @@
         <f>'[1]@reward_type'!C6</f>
         <v>2 보석(게임내 사용되는 유료 재화)</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="I5" s="4" t="str">
+        <f>'[1]@drop_type'!$A6</f>
+        <v>DROP_WEIGHT</v>
+      </c>
+      <c r="J5" s="4">
+        <f>'[1]@drop_type'!$B6</f>
+        <v>2</v>
+      </c>
+      <c r="K5" s="4" t="str">
+        <f>'[1]@drop_type'!$C6</f>
+        <v>2 ID내에서의 드랍 비중으로 체크</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="4" t="str">
         <f>'[1]@tribe'!$A7</f>
         <v>WEREBEAST</v>
@@ -3585,7 +3732,7 @@
         <v>3 스태미나</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:11">
       <c r="A7" s="4" t="str">
         <f>'[1]@tribe'!$A8</f>
         <v>ANDROID</v>
@@ -3611,7 +3758,7 @@
         <v>4 호감도</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:11">
       <c r="A8" s="4" t="str">
         <f>'[1]@tribe'!$A9</f>
         <v>DEVIL</v>
@@ -3637,7 +3784,7 @@
         <v>5 플레이어 경험치</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:11">
       <c r="A9" s="4" t="str">
         <f>'[1]@tribe'!$A10</f>
         <v>ANGEL</v>
@@ -3663,7 +3810,7 @@
         <v>6 캐릭터 경험치</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:11">
       <c r="A10" s="4">
         <f>'[1]@tribe'!$A11</f>
         <v>0</v>
@@ -3689,7 +3836,7 @@
         <v>7 캐릭터</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:11">
       <c r="A11" s="4">
         <f>'[1]@tribe'!$A12</f>
         <v>0</v>
@@ -3715,7 +3862,7 @@
         <v>8 장비</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:11">
       <c r="A12" s="4">
         <f>'[1]@tribe'!$A13</f>
         <v>0</v>
@@ -3741,7 +3888,7 @@
         <v>9 근원 전달 횟수(플레이어 보유)</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:11">
       <c r="A13" s="4">
         <f>'[1]@tribe'!$A14</f>
         <v>0</v>
@@ -3767,7 +3914,7 @@
         <v>10 근원 받을 수 있는 횟수(캐릭터 공용 설정)</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:11">
       <c r="A14" s="4">
         <f>'[1]@tribe'!$A15</f>
         <v>0</v>
@@ -3793,7 +3940,7 @@
         <v>106 보스전 입장 횟수</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:11">
       <c r="A15" s="4">
         <f>'[1]@tribe'!$A16</f>
         <v>0</v>
@@ -3819,7 +3966,7 @@
         <v>111 장비 조각</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:11">
       <c r="E16" s="4" t="str">
         <f>'[1]@reward_type'!A17</f>
         <v>PIECE_CHARACTER</v>
@@ -3869,13 +4016,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA56BF33-0599-44CF-8176-19546E225369}">
-  <dimension ref="A1:M169"/>
+  <dimension ref="A1:N169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F132" sqref="F132"/>
+      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3884,17 +4031,20 @@
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="20.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="32.125" customWidth="1"/>
-    <col min="7" max="12" width="13.25" customWidth="1"/>
-    <col min="13" max="13" width="49.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.125" style="58" customWidth="1"/>
+    <col min="7" max="8" width="13.25" customWidth="1"/>
+    <col min="9" max="9" width="13.125" customWidth="1"/>
+    <col min="10" max="10" width="13.125" style="58" customWidth="1"/>
+    <col min="11" max="13" width="13.25" customWidth="1"/>
+    <col min="14" max="14" width="49.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3910,7 +4060,7 @@
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="59" t="s">
         <v>64</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -3922,20 +4072,23 @@
       <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
         <v>68</v>
       </c>
@@ -3951,7 +4104,7 @@
       <c r="E3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="59" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -3961,22 +4114,25 @@
         <v>10</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -3992,7 +4148,7 @@
       <c r="E4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="60" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -4004,20 +4160,23 @@
       <c r="I4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="44" customFormat="1">
+    <row r="5" spans="1:14" s="44" customFormat="1">
       <c r="A5" s="43">
         <v>10001</v>
       </c>
@@ -4036,7 +4195,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F5,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>1000</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="61" t="s">
         <v>72</v>
       </c>
       <c r="G5" s="43">
@@ -4046,21 +4205,25 @@
         <v>5</v>
       </c>
       <c r="I5" s="43">
-        <v>1</v>
-      </c>
-      <c r="J5" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J5,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="43">
         <v>1000000</v>
       </c>
-      <c r="K5" s="43" t="b">
-        <f t="shared" ref="K5:K7" si="2">IF(L5&gt;0,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="43">
-        <v>0</v>
-      </c>
-      <c r="M5" s="43"/>
-    </row>
-    <row r="6" spans="1:13" s="44" customFormat="1">
+      <c r="L5" s="43" t="b">
+        <f t="shared" ref="L5:L7" si="2">IF(M5&gt;0,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="43">
+        <v>0</v>
+      </c>
+      <c r="N5" s="43"/>
+    </row>
+    <row r="6" spans="1:14" s="44" customFormat="1">
       <c r="A6" s="43">
         <v>10002</v>
       </c>
@@ -4079,7 +4242,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F6,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>1000</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="61" t="s">
         <v>72</v>
       </c>
       <c r="G6" s="43">
@@ -4089,21 +4252,25 @@
         <v>10</v>
       </c>
       <c r="I6" s="43">
-        <v>1</v>
-      </c>
-      <c r="J6" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J6,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="43">
         <v>1000000</v>
       </c>
-      <c r="K6" s="43" t="b">
+      <c r="L6" s="43" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L6" s="43">
-        <v>0</v>
-      </c>
-      <c r="M6" s="43"/>
-    </row>
-    <row r="7" spans="1:13" s="44" customFormat="1">
+      <c r="M6" s="43">
+        <v>0</v>
+      </c>
+      <c r="N6" s="43"/>
+    </row>
+    <row r="7" spans="1:14" s="44" customFormat="1">
       <c r="A7" s="43">
         <v>10003</v>
       </c>
@@ -4122,7 +4289,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F7,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G7" s="43">
@@ -4132,21 +4299,25 @@
         <v>1</v>
       </c>
       <c r="I7" s="43">
-        <v>1</v>
-      </c>
-      <c r="J7" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J7,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="43">
         <v>250000</v>
       </c>
-      <c r="K7" s="43" t="b">
+      <c r="L7" s="43" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L7" s="43">
-        <v>1</v>
-      </c>
-      <c r="M7" s="43"/>
-    </row>
-    <row r="8" spans="1:13" s="44" customFormat="1">
+      <c r="M7" s="43">
+        <v>1</v>
+      </c>
+      <c r="N7" s="43"/>
+    </row>
+    <row r="8" spans="1:14" s="44" customFormat="1">
       <c r="A8" s="43">
         <v>10004</v>
       </c>
@@ -4165,7 +4336,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F8,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G8" s="43">
@@ -4175,21 +4346,25 @@
         <v>1</v>
       </c>
       <c r="I8" s="43">
-        <v>1</v>
-      </c>
-      <c r="J8" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J8,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="43">
         <v>250000</v>
       </c>
-      <c r="K8" s="43" t="b">
-        <f>IF(L8&gt;0,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="L8" s="43">
-        <v>2</v>
-      </c>
-      <c r="M8" s="43"/>
-    </row>
-    <row r="9" spans="1:13" s="44" customFormat="1">
+      <c r="L8" s="43" t="b">
+        <f>IF(M8&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M8" s="43">
+        <v>2</v>
+      </c>
+      <c r="N8" s="43"/>
+    </row>
+    <row r="9" spans="1:14" s="44" customFormat="1">
       <c r="A9" s="43">
         <v>10005</v>
       </c>
@@ -4208,7 +4383,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F9,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G9" s="43">
@@ -4218,21 +4393,25 @@
         <v>1</v>
       </c>
       <c r="I9" s="43">
-        <v>1</v>
-      </c>
-      <c r="J9" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J9,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J9" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" s="43">
         <v>250000</v>
       </c>
-      <c r="K9" s="43" t="b">
-        <f t="shared" ref="K9:K18" si="3">IF(L9&gt;0,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="L9" s="43">
+      <c r="L9" s="43" t="b">
+        <f t="shared" ref="L9:L18" si="3">IF(M9&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="43">
         <v>3</v>
       </c>
-      <c r="M9" s="43"/>
-    </row>
-    <row r="10" spans="1:13" s="44" customFormat="1">
+      <c r="N9" s="43"/>
+    </row>
+    <row r="10" spans="1:14" s="44" customFormat="1">
       <c r="A10" s="43">
         <v>10006</v>
       </c>
@@ -4251,7 +4430,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F10,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G10" s="43">
@@ -4261,21 +4440,25 @@
         <v>1</v>
       </c>
       <c r="I10" s="43">
-        <v>1</v>
-      </c>
-      <c r="J10" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J10,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J10" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" s="43">
         <v>250000</v>
       </c>
-      <c r="K10" s="43" t="b">
+      <c r="L10" s="43" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L10" s="43">
-        <v>0</v>
-      </c>
-      <c r="M10" s="43"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="M10" s="43">
+        <v>0</v>
+      </c>
+      <c r="N10" s="43"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="43">
         <v>10007</v>
       </c>
@@ -4294,7 +4477,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F11,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G11" s="4">
@@ -4304,21 +4487,25 @@
         <v>5</v>
       </c>
       <c r="I11" s="4">
-        <v>2</v>
-      </c>
-      <c r="J11" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J11,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J11" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="4">
         <v>250000</v>
       </c>
-      <c r="K11" s="4" t="b">
+      <c r="L11" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L11" s="4">
-        <v>1</v>
-      </c>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="M11" s="4">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="43">
         <v>10008</v>
       </c>
@@ -4337,7 +4524,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F12,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G12" s="4">
@@ -4347,21 +4534,25 @@
         <v>5</v>
       </c>
       <c r="I12" s="4">
-        <v>2</v>
-      </c>
-      <c r="J12" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J12,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J12" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="4">
         <v>250000</v>
       </c>
-      <c r="K12" s="4" t="b">
+      <c r="L12" s="4" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L12" s="4">
-        <v>2</v>
-      </c>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="M12" s="4">
+        <v>2</v>
+      </c>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="43">
         <v>10009</v>
       </c>
@@ -4380,7 +4571,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F13,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G13" s="4">
@@ -4390,21 +4581,25 @@
         <v>5</v>
       </c>
       <c r="I13" s="4">
-        <v>2</v>
-      </c>
-      <c r="J13" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J13,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J13" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="4">
         <v>250000</v>
       </c>
-      <c r="K13" s="4" t="b">
+      <c r="L13" s="4" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L13" s="4">
-        <v>0</v>
-      </c>
-      <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="43">
         <v>10010</v>
       </c>
@@ -4423,7 +4618,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F14,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G14" s="4">
@@ -4433,21 +4628,25 @@
         <v>5</v>
       </c>
       <c r="I14" s="4">
-        <v>2</v>
-      </c>
-      <c r="J14" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J14,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J14" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="4">
         <v>250000</v>
       </c>
-      <c r="K14" s="4" t="b">
+      <c r="L14" s="4" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L14" s="4">
-        <v>0</v>
-      </c>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="1:13" s="46" customFormat="1">
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" s="46" customFormat="1">
       <c r="A15" s="43">
         <v>10011</v>
       </c>
@@ -4466,7 +4665,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F15,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>2</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="61" t="s">
         <v>62</v>
       </c>
       <c r="G15" s="45">
@@ -4476,21 +4675,25 @@
         <v>30</v>
       </c>
       <c r="I15" s="45">
-        <v>1</v>
-      </c>
-      <c r="J15" s="45">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J15,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J15" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="45">
         <v>1000000</v>
       </c>
-      <c r="K15" s="45" t="b">
+      <c r="L15" s="45" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L15" s="45">
-        <v>1</v>
-      </c>
-      <c r="M15" s="45"/>
-    </row>
-    <row r="16" spans="1:13" s="44" customFormat="1">
+      <c r="M15" s="45">
+        <v>1</v>
+      </c>
+      <c r="N15" s="45"/>
+    </row>
+    <row r="16" spans="1:14" s="44" customFormat="1">
       <c r="A16" s="43">
         <v>10012</v>
       </c>
@@ -4509,7 +4712,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F16,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>1000</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="61" t="s">
         <v>72</v>
       </c>
       <c r="G16" s="43">
@@ -4519,21 +4722,25 @@
         <v>5</v>
       </c>
       <c r="I16" s="43">
-        <v>1</v>
-      </c>
-      <c r="J16" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J16,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" s="43">
         <v>1000000</v>
       </c>
-      <c r="K16" s="43" t="b">
+      <c r="L16" s="43" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L16" s="43">
-        <v>0</v>
-      </c>
-      <c r="M16" s="43"/>
-    </row>
-    <row r="17" spans="1:13" s="44" customFormat="1">
+      <c r="M16" s="43">
+        <v>0</v>
+      </c>
+      <c r="N16" s="43"/>
+    </row>
+    <row r="17" spans="1:14" s="44" customFormat="1">
       <c r="A17" s="43">
         <v>10013</v>
       </c>
@@ -4552,7 +4759,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F17,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>1000</v>
       </c>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="61" t="s">
         <v>72</v>
       </c>
       <c r="G17" s="43">
@@ -4562,21 +4769,25 @@
         <v>10</v>
       </c>
       <c r="I17" s="43">
-        <v>1</v>
-      </c>
-      <c r="J17" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J17,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="43">
         <v>1000000</v>
       </c>
-      <c r="K17" s="43" t="b">
+      <c r="L17" s="43" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L17" s="43">
-        <v>0</v>
-      </c>
-      <c r="M17" s="43"/>
-    </row>
-    <row r="18" spans="1:13" s="44" customFormat="1">
+      <c r="M17" s="43">
+        <v>0</v>
+      </c>
+      <c r="N17" s="43"/>
+    </row>
+    <row r="18" spans="1:14" s="44" customFormat="1">
       <c r="A18" s="43">
         <v>10014</v>
       </c>
@@ -4595,7 +4806,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F18,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G18" s="43">
@@ -4605,21 +4816,25 @@
         <v>1</v>
       </c>
       <c r="I18" s="43">
-        <v>1</v>
-      </c>
-      <c r="J18" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J18,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J18" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="43">
         <v>250000</v>
       </c>
-      <c r="K18" s="43" t="b">
+      <c r="L18" s="43" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L18" s="43">
-        <v>1</v>
-      </c>
-      <c r="M18" s="43"/>
-    </row>
-    <row r="19" spans="1:13" s="44" customFormat="1">
+      <c r="M18" s="43">
+        <v>1</v>
+      </c>
+      <c r="N18" s="43"/>
+    </row>
+    <row r="19" spans="1:14" s="44" customFormat="1">
       <c r="A19" s="43">
         <v>10015</v>
       </c>
@@ -4638,7 +4853,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F19,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G19" s="43">
@@ -4648,21 +4863,25 @@
         <v>1</v>
       </c>
       <c r="I19" s="43">
-        <v>1</v>
-      </c>
-      <c r="J19" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J19,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K19" s="43">
         <v>250000</v>
       </c>
-      <c r="K19" s="43" t="b">
-        <f>IF(L19&gt;0,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="L19" s="43">
-        <v>2</v>
-      </c>
-      <c r="M19" s="43"/>
-    </row>
-    <row r="20" spans="1:13" s="44" customFormat="1">
+      <c r="L19" s="43" t="b">
+        <f>IF(M19&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M19" s="43">
+        <v>2</v>
+      </c>
+      <c r="N19" s="43"/>
+    </row>
+    <row r="20" spans="1:14" s="44" customFormat="1">
       <c r="A20" s="43">
         <v>10016</v>
       </c>
@@ -4681,7 +4900,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F20,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F20" s="43" t="s">
+      <c r="F20" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G20" s="43">
@@ -4691,21 +4910,25 @@
         <v>1</v>
       </c>
       <c r="I20" s="43">
-        <v>1</v>
-      </c>
-      <c r="J20" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J20,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K20" s="43">
         <v>250000</v>
       </c>
-      <c r="K20" s="43" t="b">
-        <f t="shared" ref="K20:K29" si="4">IF(L20&gt;0,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="L20" s="43">
+      <c r="L20" s="43" t="b">
+        <f t="shared" ref="L20:L29" si="4">IF(M20&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M20" s="43">
         <v>3</v>
       </c>
-      <c r="M20" s="43"/>
-    </row>
-    <row r="21" spans="1:13" s="44" customFormat="1">
+      <c r="N20" s="43"/>
+    </row>
+    <row r="21" spans="1:14" s="44" customFormat="1">
       <c r="A21" s="43">
         <v>10017</v>
       </c>
@@ -4724,7 +4947,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F21,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G21" s="43">
@@ -4734,21 +4957,25 @@
         <v>1</v>
       </c>
       <c r="I21" s="43">
-        <v>1</v>
-      </c>
-      <c r="J21" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J21,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J21" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K21" s="43">
         <v>250000</v>
       </c>
-      <c r="K21" s="43" t="b">
+      <c r="L21" s="43" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L21" s="43">
-        <v>0</v>
-      </c>
-      <c r="M21" s="43"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="M21" s="43">
+        <v>0</v>
+      </c>
+      <c r="N21" s="43"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="43">
         <v>10018</v>
       </c>
@@ -4767,7 +4994,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F22,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G22" s="4">
@@ -4777,21 +5004,25 @@
         <v>5</v>
       </c>
       <c r="I22" s="4">
-        <v>2</v>
-      </c>
-      <c r="J22" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J22,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J22" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K22" s="4">
         <v>250000</v>
       </c>
-      <c r="K22" s="4" t="b">
+      <c r="L22" s="4" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L22" s="4">
-        <v>1</v>
-      </c>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="M22" s="4">
+        <v>1</v>
+      </c>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="43">
         <v>10019</v>
       </c>
@@ -4810,7 +5041,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F23,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G23" s="4">
@@ -4820,21 +5051,25 @@
         <v>5</v>
       </c>
       <c r="I23" s="4">
-        <v>2</v>
-      </c>
-      <c r="J23" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J23,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J23" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23" s="4">
         <v>250000</v>
       </c>
-      <c r="K23" s="4" t="b">
+      <c r="L23" s="4" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L23" s="4">
-        <v>2</v>
-      </c>
-      <c r="M23" s="4"/>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="M23" s="4">
+        <v>2</v>
+      </c>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="43">
         <v>10020</v>
       </c>
@@ -4853,7 +5088,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F24,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G24" s="4">
@@ -4863,21 +5098,25 @@
         <v>5</v>
       </c>
       <c r="I24" s="4">
-        <v>2</v>
-      </c>
-      <c r="J24" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J24,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J24" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K24" s="4">
         <v>250000</v>
       </c>
-      <c r="K24" s="4" t="b">
+      <c r="L24" s="4" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L24" s="4">
-        <v>0</v>
-      </c>
-      <c r="M24" s="4"/>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="43">
         <v>10021</v>
       </c>
@@ -4896,7 +5135,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F25,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G25" s="4">
@@ -4906,21 +5145,25 @@
         <v>5</v>
       </c>
       <c r="I25" s="4">
-        <v>2</v>
-      </c>
-      <c r="J25" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J25,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J25" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K25" s="4">
         <v>250000</v>
       </c>
-      <c r="K25" s="4" t="b">
+      <c r="L25" s="4" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L25" s="4">
-        <v>0</v>
-      </c>
-      <c r="M25" s="4"/>
-    </row>
-    <row r="26" spans="1:13" s="46" customFormat="1">
+      <c r="M25" s="4">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="1:14" s="46" customFormat="1">
       <c r="A26" s="43">
         <v>10022</v>
       </c>
@@ -4939,7 +5182,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F26,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>2</v>
       </c>
-      <c r="F26" s="45" t="s">
+      <c r="F26" s="61" t="s">
         <v>62</v>
       </c>
       <c r="G26" s="45">
@@ -4949,21 +5192,25 @@
         <v>30</v>
       </c>
       <c r="I26" s="45">
-        <v>1</v>
-      </c>
-      <c r="J26" s="45">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J26,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J26" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K26" s="45">
         <v>1000000</v>
       </c>
-      <c r="K26" s="45" t="b">
+      <c r="L26" s="45" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L26" s="45">
-        <v>1</v>
-      </c>
-      <c r="M26" s="45"/>
-    </row>
-    <row r="27" spans="1:13" s="44" customFormat="1">
+      <c r="M26" s="45">
+        <v>1</v>
+      </c>
+      <c r="N26" s="45"/>
+    </row>
+    <row r="27" spans="1:14" s="44" customFormat="1">
       <c r="A27" s="43">
         <v>10023</v>
       </c>
@@ -4982,7 +5229,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F27,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>1000</v>
       </c>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="61" t="s">
         <v>72</v>
       </c>
       <c r="G27" s="43">
@@ -4992,21 +5239,25 @@
         <v>5</v>
       </c>
       <c r="I27" s="43">
-        <v>1</v>
-      </c>
-      <c r="J27" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J27,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J27" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K27" s="43">
         <v>1000000</v>
       </c>
-      <c r="K27" s="43" t="b">
+      <c r="L27" s="43" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L27" s="43">
-        <v>0</v>
-      </c>
-      <c r="M27" s="43"/>
-    </row>
-    <row r="28" spans="1:13" s="44" customFormat="1">
+      <c r="M27" s="43">
+        <v>0</v>
+      </c>
+      <c r="N27" s="43"/>
+    </row>
+    <row r="28" spans="1:14" s="44" customFormat="1">
       <c r="A28" s="43">
         <v>10024</v>
       </c>
@@ -5025,7 +5276,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F28,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>1000</v>
       </c>
-      <c r="F28" s="43" t="s">
+      <c r="F28" s="61" t="s">
         <v>72</v>
       </c>
       <c r="G28" s="43">
@@ -5035,21 +5286,25 @@
         <v>10</v>
       </c>
       <c r="I28" s="43">
-        <v>1</v>
-      </c>
-      <c r="J28" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J28,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J28" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K28" s="43">
         <v>1000000</v>
       </c>
-      <c r="K28" s="43" t="b">
+      <c r="L28" s="43" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L28" s="43">
-        <v>0</v>
-      </c>
-      <c r="M28" s="43"/>
-    </row>
-    <row r="29" spans="1:13" s="44" customFormat="1">
+      <c r="M28" s="43">
+        <v>0</v>
+      </c>
+      <c r="N28" s="43"/>
+    </row>
+    <row r="29" spans="1:14" s="44" customFormat="1">
       <c r="A29" s="43">
         <v>10025</v>
       </c>
@@ -5068,7 +5323,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F29,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F29" s="43" t="s">
+      <c r="F29" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G29" s="43">
@@ -5078,21 +5333,25 @@
         <v>1</v>
       </c>
       <c r="I29" s="43">
-        <v>1</v>
-      </c>
-      <c r="J29" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J29,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J29" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K29" s="43">
         <v>250000</v>
       </c>
-      <c r="K29" s="43" t="b">
+      <c r="L29" s="43" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L29" s="43">
-        <v>1</v>
-      </c>
-      <c r="M29" s="43"/>
-    </row>
-    <row r="30" spans="1:13" s="44" customFormat="1">
+      <c r="M29" s="43">
+        <v>1</v>
+      </c>
+      <c r="N29" s="43"/>
+    </row>
+    <row r="30" spans="1:14" s="44" customFormat="1">
       <c r="A30" s="43">
         <v>10026</v>
       </c>
@@ -5111,7 +5370,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F30,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F30" s="43" t="s">
+      <c r="F30" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G30" s="43">
@@ -5121,21 +5380,25 @@
         <v>1</v>
       </c>
       <c r="I30" s="43">
-        <v>1</v>
-      </c>
-      <c r="J30" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J30,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J30" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K30" s="43">
         <v>250000</v>
       </c>
-      <c r="K30" s="43" t="b">
-        <f>IF(L30&gt;0,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="L30" s="43">
-        <v>2</v>
-      </c>
-      <c r="M30" s="43"/>
-    </row>
-    <row r="31" spans="1:13" s="44" customFormat="1">
+      <c r="L30" s="43" t="b">
+        <f>IF(M30&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M30" s="43">
+        <v>2</v>
+      </c>
+      <c r="N30" s="43"/>
+    </row>
+    <row r="31" spans="1:14" s="44" customFormat="1">
       <c r="A31" s="43">
         <v>10027</v>
       </c>
@@ -5154,7 +5417,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F31,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F31" s="43" t="s">
+      <c r="F31" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G31" s="43">
@@ -5164,21 +5427,25 @@
         <v>1</v>
       </c>
       <c r="I31" s="43">
-        <v>1</v>
-      </c>
-      <c r="J31" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J31,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J31" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K31" s="43">
         <v>250000</v>
       </c>
-      <c r="K31" s="43" t="b">
-        <f t="shared" ref="K31:K40" si="5">IF(L31&gt;0,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="L31" s="43">
+      <c r="L31" s="43" t="b">
+        <f t="shared" ref="L31:L40" si="5">IF(M31&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M31" s="43">
         <v>3</v>
       </c>
-      <c r="M31" s="43"/>
-    </row>
-    <row r="32" spans="1:13" s="44" customFormat="1">
+      <c r="N31" s="43"/>
+    </row>
+    <row r="32" spans="1:14" s="44" customFormat="1">
       <c r="A32" s="43">
         <v>10028</v>
       </c>
@@ -5197,7 +5464,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F32,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F32" s="43" t="s">
+      <c r="F32" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G32" s="43">
@@ -5207,21 +5474,25 @@
         <v>1</v>
       </c>
       <c r="I32" s="43">
-        <v>1</v>
-      </c>
-      <c r="J32" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J32,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J32" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K32" s="43">
         <v>250000</v>
       </c>
-      <c r="K32" s="43" t="b">
+      <c r="L32" s="43" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L32" s="43">
-        <v>0</v>
-      </c>
-      <c r="M32" s="43"/>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="M32" s="43">
+        <v>0</v>
+      </c>
+      <c r="N32" s="43"/>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="43">
         <v>10029</v>
       </c>
@@ -5240,7 +5511,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F33,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G33" s="4">
@@ -5250,21 +5521,25 @@
         <v>5</v>
       </c>
       <c r="I33" s="4">
-        <v>2</v>
-      </c>
-      <c r="J33" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J33,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J33" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K33" s="4">
         <v>250000</v>
       </c>
-      <c r="K33" s="4" t="b">
+      <c r="L33" s="4" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="L33" s="4">
-        <v>1</v>
-      </c>
-      <c r="M33" s="4"/>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="M33" s="4">
+        <v>1</v>
+      </c>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="43">
         <v>10030</v>
       </c>
@@ -5283,7 +5558,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F34,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G34" s="4">
@@ -5293,21 +5568,25 @@
         <v>5</v>
       </c>
       <c r="I34" s="4">
-        <v>2</v>
-      </c>
-      <c r="J34" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J34,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J34" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K34" s="4">
         <v>250000</v>
       </c>
-      <c r="K34" s="4" t="b">
+      <c r="L34" s="4" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="L34" s="4">
-        <v>2</v>
-      </c>
-      <c r="M34" s="4"/>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="M34" s="4">
+        <v>2</v>
+      </c>
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="43">
         <v>10031</v>
       </c>
@@ -5326,7 +5605,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F35,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G35" s="4">
@@ -5336,21 +5615,25 @@
         <v>5</v>
       </c>
       <c r="I35" s="4">
-        <v>2</v>
-      </c>
-      <c r="J35" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J35,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J35" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K35" s="4">
         <v>250000</v>
       </c>
-      <c r="K35" s="4" t="b">
+      <c r="L35" s="4" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L35" s="4">
-        <v>0</v>
-      </c>
-      <c r="M35" s="4"/>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="M35" s="4">
+        <v>0</v>
+      </c>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="43">
         <v>10032</v>
       </c>
@@ -5369,7 +5652,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F36,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G36" s="4">
@@ -5379,21 +5662,25 @@
         <v>5</v>
       </c>
       <c r="I36" s="4">
-        <v>2</v>
-      </c>
-      <c r="J36" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J36,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J36" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K36" s="4">
         <v>250000</v>
       </c>
-      <c r="K36" s="4" t="b">
+      <c r="L36" s="4" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L36" s="4">
-        <v>0</v>
-      </c>
-      <c r="M36" s="4"/>
-    </row>
-    <row r="37" spans="1:13" s="46" customFormat="1">
+      <c r="M36" s="4">
+        <v>0</v>
+      </c>
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="1:14" s="46" customFormat="1">
       <c r="A37" s="43">
         <v>10033</v>
       </c>
@@ -5412,7 +5699,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F37,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>2</v>
       </c>
-      <c r="F37" s="45" t="s">
+      <c r="F37" s="61" t="s">
         <v>62</v>
       </c>
       <c r="G37" s="45">
@@ -5422,21 +5709,25 @@
         <v>30</v>
       </c>
       <c r="I37" s="45">
-        <v>1</v>
-      </c>
-      <c r="J37" s="45">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J37,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J37" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K37" s="45">
         <v>1000000</v>
       </c>
-      <c r="K37" s="45" t="b">
+      <c r="L37" s="45" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="L37" s="45">
-        <v>1</v>
-      </c>
-      <c r="M37" s="45"/>
-    </row>
-    <row r="38" spans="1:13" s="44" customFormat="1">
+      <c r="M37" s="45">
+        <v>1</v>
+      </c>
+      <c r="N37" s="45"/>
+    </row>
+    <row r="38" spans="1:14" s="44" customFormat="1">
       <c r="A38" s="43">
         <v>10034</v>
       </c>
@@ -5455,7 +5746,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F38,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>1000</v>
       </c>
-      <c r="F38" s="43" t="s">
+      <c r="F38" s="61" t="s">
         <v>72</v>
       </c>
       <c r="G38" s="43">
@@ -5465,21 +5756,25 @@
         <v>5</v>
       </c>
       <c r="I38" s="43">
-        <v>1</v>
-      </c>
-      <c r="J38" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J38,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J38" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K38" s="43">
         <v>1000000</v>
       </c>
-      <c r="K38" s="43" t="b">
+      <c r="L38" s="43" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L38" s="43">
-        <v>0</v>
-      </c>
-      <c r="M38" s="43"/>
-    </row>
-    <row r="39" spans="1:13" s="44" customFormat="1">
+      <c r="M38" s="43">
+        <v>0</v>
+      </c>
+      <c r="N38" s="43"/>
+    </row>
+    <row r="39" spans="1:14" s="44" customFormat="1">
       <c r="A39" s="43">
         <v>10035</v>
       </c>
@@ -5498,7 +5793,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F39,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>1000</v>
       </c>
-      <c r="F39" s="43" t="s">
+      <c r="F39" s="61" t="s">
         <v>72</v>
       </c>
       <c r="G39" s="43">
@@ -5508,21 +5803,25 @@
         <v>10</v>
       </c>
       <c r="I39" s="43">
-        <v>1</v>
-      </c>
-      <c r="J39" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J39,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J39" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K39" s="43">
         <v>1000000</v>
       </c>
-      <c r="K39" s="43" t="b">
+      <c r="L39" s="43" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L39" s="43">
-        <v>0</v>
-      </c>
-      <c r="M39" s="43"/>
-    </row>
-    <row r="40" spans="1:13" s="44" customFormat="1">
+      <c r="M39" s="43">
+        <v>0</v>
+      </c>
+      <c r="N39" s="43"/>
+    </row>
+    <row r="40" spans="1:14" s="44" customFormat="1">
       <c r="A40" s="43">
         <v>10036</v>
       </c>
@@ -5541,7 +5840,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F40,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F40" s="43" t="s">
+      <c r="F40" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G40" s="43">
@@ -5551,21 +5850,25 @@
         <v>1</v>
       </c>
       <c r="I40" s="43">
-        <v>1</v>
-      </c>
-      <c r="J40" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J40,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J40" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K40" s="43">
         <v>250000</v>
       </c>
-      <c r="K40" s="43" t="b">
+      <c r="L40" s="43" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="L40" s="43">
-        <v>1</v>
-      </c>
-      <c r="M40" s="43"/>
-    </row>
-    <row r="41" spans="1:13" s="44" customFormat="1">
+      <c r="M40" s="43">
+        <v>1</v>
+      </c>
+      <c r="N40" s="43"/>
+    </row>
+    <row r="41" spans="1:14" s="44" customFormat="1">
       <c r="A41" s="43">
         <v>10037</v>
       </c>
@@ -5584,7 +5887,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F41,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F41" s="43" t="s">
+      <c r="F41" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G41" s="43">
@@ -5594,21 +5897,25 @@
         <v>1</v>
       </c>
       <c r="I41" s="43">
-        <v>1</v>
-      </c>
-      <c r="J41" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J41,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J41" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K41" s="43">
         <v>250000</v>
       </c>
-      <c r="K41" s="43" t="b">
-        <f>IF(L41&gt;0,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="L41" s="43">
-        <v>2</v>
-      </c>
-      <c r="M41" s="43"/>
-    </row>
-    <row r="42" spans="1:13" s="44" customFormat="1">
+      <c r="L41" s="43" t="b">
+        <f>IF(M41&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M41" s="43">
+        <v>2</v>
+      </c>
+      <c r="N41" s="43"/>
+    </row>
+    <row r="42" spans="1:14" s="44" customFormat="1">
       <c r="A42" s="43">
         <v>10038</v>
       </c>
@@ -5627,7 +5934,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F42,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F42" s="43" t="s">
+      <c r="F42" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G42" s="43">
@@ -5637,21 +5944,25 @@
         <v>1</v>
       </c>
       <c r="I42" s="43">
-        <v>1</v>
-      </c>
-      <c r="J42" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J42,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J42" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K42" s="43">
         <v>250000</v>
       </c>
-      <c r="K42" s="43" t="b">
-        <f t="shared" ref="K42:K51" si="6">IF(L42&gt;0,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="L42" s="43">
+      <c r="L42" s="43" t="b">
+        <f t="shared" ref="L42:L51" si="6">IF(M42&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M42" s="43">
         <v>3</v>
       </c>
-      <c r="M42" s="43"/>
-    </row>
-    <row r="43" spans="1:13" s="44" customFormat="1">
+      <c r="N42" s="43"/>
+    </row>
+    <row r="43" spans="1:14" s="44" customFormat="1">
       <c r="A43" s="43">
         <v>10039</v>
       </c>
@@ -5670,7 +5981,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F43,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F43" s="43" t="s">
+      <c r="F43" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G43" s="43">
@@ -5680,21 +5991,25 @@
         <v>1</v>
       </c>
       <c r="I43" s="43">
-        <v>1</v>
-      </c>
-      <c r="J43" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J43,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J43" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K43" s="43">
         <v>250000</v>
       </c>
-      <c r="K43" s="43" t="b">
+      <c r="L43" s="43" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L43" s="43">
-        <v>0</v>
-      </c>
-      <c r="M43" s="43"/>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="M43" s="43">
+        <v>0</v>
+      </c>
+      <c r="N43" s="43"/>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="43">
         <v>10040</v>
       </c>
@@ -5713,7 +6028,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F44,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G44" s="4">
@@ -5723,21 +6038,25 @@
         <v>5</v>
       </c>
       <c r="I44" s="4">
-        <v>2</v>
-      </c>
-      <c r="J44" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J44,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J44" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K44" s="4">
         <v>250000</v>
       </c>
-      <c r="K44" s="4" t="b">
+      <c r="L44" s="4" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="L44" s="4">
-        <v>1</v>
-      </c>
-      <c r="M44" s="4"/>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="M44" s="4">
+        <v>1</v>
+      </c>
+      <c r="N44" s="4"/>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="43">
         <v>10041</v>
       </c>
@@ -5756,7 +6075,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F45,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G45" s="4">
@@ -5766,21 +6085,25 @@
         <v>5</v>
       </c>
       <c r="I45" s="4">
-        <v>2</v>
-      </c>
-      <c r="J45" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J45,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J45" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K45" s="4">
         <v>250000</v>
       </c>
-      <c r="K45" s="4" t="b">
+      <c r="L45" s="4" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="L45" s="4">
-        <v>2</v>
-      </c>
-      <c r="M45" s="4"/>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="M45" s="4">
+        <v>2</v>
+      </c>
+      <c r="N45" s="4"/>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="43">
         <v>10042</v>
       </c>
@@ -5799,7 +6122,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F46,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G46" s="4">
@@ -5809,21 +6132,25 @@
         <v>5</v>
       </c>
       <c r="I46" s="4">
-        <v>2</v>
-      </c>
-      <c r="J46" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J46,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J46" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K46" s="4">
         <v>250000</v>
       </c>
-      <c r="K46" s="4" t="b">
+      <c r="L46" s="4" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L46" s="4">
-        <v>0</v>
-      </c>
-      <c r="M46" s="4"/>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="M46" s="4">
+        <v>0</v>
+      </c>
+      <c r="N46" s="4"/>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" s="43">
         <v>10043</v>
       </c>
@@ -5842,7 +6169,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F47,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G47" s="4">
@@ -5852,21 +6179,25 @@
         <v>5</v>
       </c>
       <c r="I47" s="4">
-        <v>2</v>
-      </c>
-      <c r="J47" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J47,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J47" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K47" s="4">
         <v>250000</v>
       </c>
-      <c r="K47" s="4" t="b">
+      <c r="L47" s="4" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L47" s="4">
-        <v>0</v>
-      </c>
-      <c r="M47" s="4"/>
-    </row>
-    <row r="48" spans="1:13" s="46" customFormat="1">
+      <c r="M47" s="4">
+        <v>0</v>
+      </c>
+      <c r="N47" s="4"/>
+    </row>
+    <row r="48" spans="1:14" s="46" customFormat="1">
       <c r="A48" s="43">
         <v>10044</v>
       </c>
@@ -5885,7 +6216,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F48,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>2</v>
       </c>
-      <c r="F48" s="45" t="s">
+      <c r="F48" s="61" t="s">
         <v>62</v>
       </c>
       <c r="G48" s="45">
@@ -5895,21 +6226,25 @@
         <v>30</v>
       </c>
       <c r="I48" s="45">
-        <v>1</v>
-      </c>
-      <c r="J48" s="45">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J48,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J48" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K48" s="45">
         <v>1000000</v>
       </c>
-      <c r="K48" s="45" t="b">
+      <c r="L48" s="45" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="L48" s="45">
-        <v>1</v>
-      </c>
-      <c r="M48" s="45"/>
-    </row>
-    <row r="49" spans="1:13" s="44" customFormat="1">
+      <c r="M48" s="45">
+        <v>1</v>
+      </c>
+      <c r="N48" s="45"/>
+    </row>
+    <row r="49" spans="1:14" s="44" customFormat="1">
       <c r="A49" s="43">
         <v>10045</v>
       </c>
@@ -5928,7 +6263,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F49,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>1000</v>
       </c>
-      <c r="F49" s="43" t="s">
+      <c r="F49" s="61" t="s">
         <v>72</v>
       </c>
       <c r="G49" s="43">
@@ -5938,21 +6273,25 @@
         <v>5</v>
       </c>
       <c r="I49" s="43">
-        <v>1</v>
-      </c>
-      <c r="J49" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J49,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J49" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K49" s="43">
         <v>1000000</v>
       </c>
-      <c r="K49" s="43" t="b">
+      <c r="L49" s="43" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L49" s="43">
-        <v>0</v>
-      </c>
-      <c r="M49" s="43"/>
-    </row>
-    <row r="50" spans="1:13" s="44" customFormat="1">
+      <c r="M49" s="43">
+        <v>0</v>
+      </c>
+      <c r="N49" s="43"/>
+    </row>
+    <row r="50" spans="1:14" s="44" customFormat="1">
       <c r="A50" s="43">
         <v>10046</v>
       </c>
@@ -5971,7 +6310,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F50,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>1000</v>
       </c>
-      <c r="F50" s="43" t="s">
+      <c r="F50" s="61" t="s">
         <v>72</v>
       </c>
       <c r="G50" s="43">
@@ -5981,21 +6320,25 @@
         <v>10</v>
       </c>
       <c r="I50" s="43">
-        <v>1</v>
-      </c>
-      <c r="J50" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J50,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J50" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K50" s="43">
         <v>1000000</v>
       </c>
-      <c r="K50" s="43" t="b">
+      <c r="L50" s="43" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L50" s="43">
-        <v>0</v>
-      </c>
-      <c r="M50" s="43"/>
-    </row>
-    <row r="51" spans="1:13" s="44" customFormat="1">
+      <c r="M50" s="43">
+        <v>0</v>
+      </c>
+      <c r="N50" s="43"/>
+    </row>
+    <row r="51" spans="1:14" s="44" customFormat="1">
       <c r="A51" s="43">
         <v>10047</v>
       </c>
@@ -6014,7 +6357,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F51,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F51" s="43" t="s">
+      <c r="F51" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G51" s="43">
@@ -6024,21 +6367,25 @@
         <v>1</v>
       </c>
       <c r="I51" s="43">
-        <v>1</v>
-      </c>
-      <c r="J51" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J51,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J51" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K51" s="43">
         <v>250000</v>
       </c>
-      <c r="K51" s="43" t="b">
+      <c r="L51" s="43" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="L51" s="43">
-        <v>1</v>
-      </c>
-      <c r="M51" s="43"/>
-    </row>
-    <row r="52" spans="1:13" s="44" customFormat="1">
+      <c r="M51" s="43">
+        <v>1</v>
+      </c>
+      <c r="N51" s="43"/>
+    </row>
+    <row r="52" spans="1:14" s="44" customFormat="1">
       <c r="A52" s="43">
         <v>10048</v>
       </c>
@@ -6057,7 +6404,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F52,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F52" s="43" t="s">
+      <c r="F52" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G52" s="43">
@@ -6067,21 +6414,25 @@
         <v>1</v>
       </c>
       <c r="I52" s="43">
-        <v>1</v>
-      </c>
-      <c r="J52" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J52,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J52" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K52" s="43">
         <v>250000</v>
       </c>
-      <c r="K52" s="43" t="b">
-        <f>IF(L52&gt;0,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="L52" s="43">
-        <v>2</v>
-      </c>
-      <c r="M52" s="43"/>
-    </row>
-    <row r="53" spans="1:13" s="44" customFormat="1">
+      <c r="L52" s="43" t="b">
+        <f>IF(M52&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M52" s="43">
+        <v>2</v>
+      </c>
+      <c r="N52" s="43"/>
+    </row>
+    <row r="53" spans="1:14" s="44" customFormat="1">
       <c r="A53" s="43">
         <v>10049</v>
       </c>
@@ -6100,7 +6451,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F53,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F53" s="43" t="s">
+      <c r="F53" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G53" s="43">
@@ -6110,21 +6461,25 @@
         <v>1</v>
       </c>
       <c r="I53" s="43">
-        <v>1</v>
-      </c>
-      <c r="J53" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J53,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J53" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K53" s="43">
         <v>250000</v>
       </c>
-      <c r="K53" s="43" t="b">
-        <f t="shared" ref="K53:K62" si="7">IF(L53&gt;0,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="L53" s="43">
+      <c r="L53" s="43" t="b">
+        <f t="shared" ref="L53:L62" si="7">IF(M53&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M53" s="43">
         <v>3</v>
       </c>
-      <c r="M53" s="43"/>
-    </row>
-    <row r="54" spans="1:13" s="44" customFormat="1">
+      <c r="N53" s="43"/>
+    </row>
+    <row r="54" spans="1:14" s="44" customFormat="1">
       <c r="A54" s="43">
         <v>10050</v>
       </c>
@@ -6143,7 +6498,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F54,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F54" s="43" t="s">
+      <c r="F54" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G54" s="43">
@@ -6153,21 +6508,25 @@
         <v>1</v>
       </c>
       <c r="I54" s="43">
-        <v>1</v>
-      </c>
-      <c r="J54" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J54,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J54" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K54" s="43">
         <v>250000</v>
       </c>
-      <c r="K54" s="43" t="b">
+      <c r="L54" s="43" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L54" s="43">
-        <v>0</v>
-      </c>
-      <c r="M54" s="43"/>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="M54" s="43">
+        <v>0</v>
+      </c>
+      <c r="N54" s="43"/>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="43">
         <v>10051</v>
       </c>
@@ -6186,7 +6545,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F55,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G55" s="4">
@@ -6196,21 +6555,25 @@
         <v>5</v>
       </c>
       <c r="I55" s="4">
-        <v>2</v>
-      </c>
-      <c r="J55" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J55,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J55" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K55" s="4">
         <v>250000</v>
       </c>
-      <c r="K55" s="4" t="b">
+      <c r="L55" s="4" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L55" s="4">
-        <v>1</v>
-      </c>
-      <c r="M55" s="4"/>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="M55" s="4">
+        <v>1</v>
+      </c>
+      <c r="N55" s="4"/>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" s="43">
         <v>10052</v>
       </c>
@@ -6229,7 +6592,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F56,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G56" s="4">
@@ -6239,21 +6602,25 @@
         <v>5</v>
       </c>
       <c r="I56" s="4">
-        <v>2</v>
-      </c>
-      <c r="J56" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J56,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J56" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K56" s="4">
         <v>250000</v>
       </c>
-      <c r="K56" s="4" t="b">
+      <c r="L56" s="4" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L56" s="4">
-        <v>2</v>
-      </c>
-      <c r="M56" s="4"/>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="M56" s="4">
+        <v>2</v>
+      </c>
+      <c r="N56" s="4"/>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" s="43">
         <v>10053</v>
       </c>
@@ -6272,7 +6639,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F57,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G57" s="4">
@@ -6282,21 +6649,25 @@
         <v>5</v>
       </c>
       <c r="I57" s="4">
-        <v>2</v>
-      </c>
-      <c r="J57" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J57,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J57" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K57" s="4">
         <v>250000</v>
       </c>
-      <c r="K57" s="4" t="b">
+      <c r="L57" s="4" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L57" s="4">
-        <v>0</v>
-      </c>
-      <c r="M57" s="4"/>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="M57" s="4">
+        <v>0</v>
+      </c>
+      <c r="N57" s="4"/>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" s="43">
         <v>10054</v>
       </c>
@@ -6315,7 +6686,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F58,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F58" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G58" s="4">
@@ -6325,21 +6696,25 @@
         <v>5</v>
       </c>
       <c r="I58" s="4">
-        <v>2</v>
-      </c>
-      <c r="J58" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J58,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J58" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K58" s="4">
         <v>250000</v>
       </c>
-      <c r="K58" s="4" t="b">
+      <c r="L58" s="4" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L58" s="4">
-        <v>0</v>
-      </c>
-      <c r="M58" s="4"/>
-    </row>
-    <row r="59" spans="1:13" s="46" customFormat="1">
+      <c r="M58" s="4">
+        <v>0</v>
+      </c>
+      <c r="N58" s="4"/>
+    </row>
+    <row r="59" spans="1:14" s="46" customFormat="1">
       <c r="A59" s="43">
         <v>10055</v>
       </c>
@@ -6358,7 +6733,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F59,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>2</v>
       </c>
-      <c r="F59" s="45" t="s">
+      <c r="F59" s="61" t="s">
         <v>62</v>
       </c>
       <c r="G59" s="45">
@@ -6368,21 +6743,25 @@
         <v>30</v>
       </c>
       <c r="I59" s="45">
-        <v>1</v>
-      </c>
-      <c r="J59" s="45">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J59,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J59" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K59" s="45">
         <v>1000000</v>
       </c>
-      <c r="K59" s="45" t="b">
+      <c r="L59" s="45" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L59" s="45">
-        <v>1</v>
-      </c>
-      <c r="M59" s="45"/>
-    </row>
-    <row r="60" spans="1:13" s="44" customFormat="1">
+      <c r="M59" s="45">
+        <v>1</v>
+      </c>
+      <c r="N59" s="45"/>
+    </row>
+    <row r="60" spans="1:14" s="44" customFormat="1">
       <c r="A60" s="43">
         <v>10056</v>
       </c>
@@ -6401,7 +6780,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F60,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>1000</v>
       </c>
-      <c r="F60" s="43" t="s">
+      <c r="F60" s="61" t="s">
         <v>72</v>
       </c>
       <c r="G60" s="43">
@@ -6411,21 +6790,25 @@
         <v>5</v>
       </c>
       <c r="I60" s="43">
-        <v>1</v>
-      </c>
-      <c r="J60" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J60,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J60" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K60" s="43">
         <v>1000000</v>
       </c>
-      <c r="K60" s="43" t="b">
+      <c r="L60" s="43" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L60" s="43">
-        <v>0</v>
-      </c>
-      <c r="M60" s="43"/>
-    </row>
-    <row r="61" spans="1:13" s="44" customFormat="1">
+      <c r="M60" s="43">
+        <v>0</v>
+      </c>
+      <c r="N60" s="43"/>
+    </row>
+    <row r="61" spans="1:14" s="44" customFormat="1">
       <c r="A61" s="43">
         <v>10057</v>
       </c>
@@ -6444,7 +6827,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F61,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>1000</v>
       </c>
-      <c r="F61" s="43" t="s">
+      <c r="F61" s="61" t="s">
         <v>72</v>
       </c>
       <c r="G61" s="43">
@@ -6454,21 +6837,25 @@
         <v>10</v>
       </c>
       <c r="I61" s="43">
-        <v>1</v>
-      </c>
-      <c r="J61" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J61,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J61" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K61" s="43">
         <v>1000000</v>
       </c>
-      <c r="K61" s="43" t="b">
+      <c r="L61" s="43" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L61" s="43">
-        <v>0</v>
-      </c>
-      <c r="M61" s="43"/>
-    </row>
-    <row r="62" spans="1:13" s="44" customFormat="1">
+      <c r="M61" s="43">
+        <v>0</v>
+      </c>
+      <c r="N61" s="43"/>
+    </row>
+    <row r="62" spans="1:14" s="44" customFormat="1">
       <c r="A62" s="43">
         <v>10058</v>
       </c>
@@ -6487,7 +6874,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F62,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F62" s="43" t="s">
+      <c r="F62" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G62" s="43">
@@ -6497,21 +6884,25 @@
         <v>1</v>
       </c>
       <c r="I62" s="43">
-        <v>1</v>
-      </c>
-      <c r="J62" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J62,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J62" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K62" s="43">
         <v>250000</v>
       </c>
-      <c r="K62" s="43" t="b">
+      <c r="L62" s="43" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L62" s="43">
-        <v>1</v>
-      </c>
-      <c r="M62" s="43"/>
-    </row>
-    <row r="63" spans="1:13" s="44" customFormat="1">
+      <c r="M62" s="43">
+        <v>1</v>
+      </c>
+      <c r="N62" s="43"/>
+    </row>
+    <row r="63" spans="1:14" s="44" customFormat="1">
       <c r="A63" s="43">
         <v>10059</v>
       </c>
@@ -6530,7 +6921,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F63,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F63" s="43" t="s">
+      <c r="F63" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G63" s="43">
@@ -6540,21 +6931,25 @@
         <v>1</v>
       </c>
       <c r="I63" s="43">
-        <v>1</v>
-      </c>
-      <c r="J63" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J63,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J63" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K63" s="43">
         <v>250000</v>
       </c>
-      <c r="K63" s="43" t="b">
-        <f>IF(L63&gt;0,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="L63" s="43">
-        <v>2</v>
-      </c>
-      <c r="M63" s="43"/>
-    </row>
-    <row r="64" spans="1:13" s="44" customFormat="1">
+      <c r="L63" s="43" t="b">
+        <f>IF(M63&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M63" s="43">
+        <v>2</v>
+      </c>
+      <c r="N63" s="43"/>
+    </row>
+    <row r="64" spans="1:14" s="44" customFormat="1">
       <c r="A64" s="43">
         <v>10060</v>
       </c>
@@ -6573,7 +6968,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F64,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F64" s="43" t="s">
+      <c r="F64" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G64" s="43">
@@ -6583,21 +6978,25 @@
         <v>1</v>
       </c>
       <c r="I64" s="43">
-        <v>1</v>
-      </c>
-      <c r="J64" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J64,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J64" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K64" s="43">
         <v>250000</v>
       </c>
-      <c r="K64" s="43" t="b">
-        <f t="shared" ref="K64:K73" si="8">IF(L64&gt;0,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="L64" s="43">
+      <c r="L64" s="43" t="b">
+        <f t="shared" ref="L64:L73" si="8">IF(M64&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M64" s="43">
         <v>3</v>
       </c>
-      <c r="M64" s="43"/>
-    </row>
-    <row r="65" spans="1:13" s="44" customFormat="1">
+      <c r="N64" s="43"/>
+    </row>
+    <row r="65" spans="1:14" s="44" customFormat="1">
       <c r="A65" s="43">
         <v>10061</v>
       </c>
@@ -6616,7 +7015,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F65,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F65" s="43" t="s">
+      <c r="F65" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G65" s="43">
@@ -6626,21 +7025,25 @@
         <v>1</v>
       </c>
       <c r="I65" s="43">
-        <v>1</v>
-      </c>
-      <c r="J65" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J65,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J65" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K65" s="43">
         <v>250000</v>
       </c>
-      <c r="K65" s="43" t="b">
+      <c r="L65" s="43" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L65" s="43">
-        <v>0</v>
-      </c>
-      <c r="M65" s="43"/>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="M65" s="43">
+        <v>0</v>
+      </c>
+      <c r="N65" s="43"/>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" s="43">
         <v>10062</v>
       </c>
@@ -6659,7 +7062,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F66,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F66" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G66" s="4">
@@ -6669,21 +7072,25 @@
         <v>5</v>
       </c>
       <c r="I66" s="4">
-        <v>2</v>
-      </c>
-      <c r="J66" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J66,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J66" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K66" s="4">
         <v>250000</v>
       </c>
-      <c r="K66" s="4" t="b">
+      <c r="L66" s="4" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="L66" s="4">
-        <v>1</v>
-      </c>
-      <c r="M66" s="4"/>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="M66" s="4">
+        <v>1</v>
+      </c>
+      <c r="N66" s="4"/>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" s="43">
         <v>10063</v>
       </c>
@@ -6702,7 +7109,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F67,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F67" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G67" s="4">
@@ -6712,21 +7119,25 @@
         <v>5</v>
       </c>
       <c r="I67" s="4">
-        <v>2</v>
-      </c>
-      <c r="J67" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J67,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J67" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K67" s="4">
         <v>250000</v>
       </c>
-      <c r="K67" s="4" t="b">
+      <c r="L67" s="4" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="L67" s="4">
-        <v>2</v>
-      </c>
-      <c r="M67" s="4"/>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="M67" s="4">
+        <v>2</v>
+      </c>
+      <c r="N67" s="4"/>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" s="43">
         <v>10064</v>
       </c>
@@ -6745,7 +7156,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F68,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F68" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G68" s="4">
@@ -6755,21 +7166,25 @@
         <v>5</v>
       </c>
       <c r="I68" s="4">
-        <v>2</v>
-      </c>
-      <c r="J68" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J68,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J68" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K68" s="4">
         <v>250000</v>
       </c>
-      <c r="K68" s="4" t="b">
+      <c r="L68" s="4" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L68" s="4">
-        <v>0</v>
-      </c>
-      <c r="M68" s="4"/>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="M68" s="4">
+        <v>0</v>
+      </c>
+      <c r="N68" s="4"/>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" s="43">
         <v>10065</v>
       </c>
@@ -6788,7 +7203,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F69,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G69" s="4">
@@ -6798,21 +7213,25 @@
         <v>5</v>
       </c>
       <c r="I69" s="4">
-        <v>2</v>
-      </c>
-      <c r="J69" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J69,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J69" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K69" s="4">
         <v>250000</v>
       </c>
-      <c r="K69" s="4" t="b">
+      <c r="L69" s="4" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L69" s="4">
-        <v>0</v>
-      </c>
-      <c r="M69" s="4"/>
-    </row>
-    <row r="70" spans="1:13" s="46" customFormat="1">
+      <c r="M69" s="4">
+        <v>0</v>
+      </c>
+      <c r="N69" s="4"/>
+    </row>
+    <row r="70" spans="1:14" s="46" customFormat="1">
       <c r="A70" s="43">
         <v>10066</v>
       </c>
@@ -6831,7 +7250,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F70,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>2</v>
       </c>
-      <c r="F70" s="45" t="s">
+      <c r="F70" s="61" t="s">
         <v>62</v>
       </c>
       <c r="G70" s="45">
@@ -6841,21 +7260,25 @@
         <v>30</v>
       </c>
       <c r="I70" s="45">
-        <v>1</v>
-      </c>
-      <c r="J70" s="45">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J70,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J70" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K70" s="45">
         <v>1000000</v>
       </c>
-      <c r="K70" s="45" t="b">
+      <c r="L70" s="45" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="L70" s="45">
-        <v>1</v>
-      </c>
-      <c r="M70" s="45"/>
-    </row>
-    <row r="71" spans="1:13" s="44" customFormat="1">
+      <c r="M70" s="45">
+        <v>1</v>
+      </c>
+      <c r="N70" s="45"/>
+    </row>
+    <row r="71" spans="1:14" s="44" customFormat="1">
       <c r="A71" s="43">
         <v>10067</v>
       </c>
@@ -6874,7 +7297,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F71,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>1000</v>
       </c>
-      <c r="F71" s="43" t="s">
+      <c r="F71" s="61" t="s">
         <v>72</v>
       </c>
       <c r="G71" s="43">
@@ -6884,21 +7307,25 @@
         <v>5</v>
       </c>
       <c r="I71" s="43">
-        <v>1</v>
-      </c>
-      <c r="J71" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J71,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J71" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K71" s="43">
         <v>1000000</v>
       </c>
-      <c r="K71" s="43" t="b">
+      <c r="L71" s="43" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L71" s="43">
-        <v>0</v>
-      </c>
-      <c r="M71" s="43"/>
-    </row>
-    <row r="72" spans="1:13" s="44" customFormat="1">
+      <c r="M71" s="43">
+        <v>0</v>
+      </c>
+      <c r="N71" s="43"/>
+    </row>
+    <row r="72" spans="1:14" s="44" customFormat="1">
       <c r="A72" s="43">
         <v>10068</v>
       </c>
@@ -6917,7 +7344,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F72,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>1000</v>
       </c>
-      <c r="F72" s="43" t="s">
+      <c r="F72" s="61" t="s">
         <v>72</v>
       </c>
       <c r="G72" s="43">
@@ -6927,21 +7354,25 @@
         <v>10</v>
       </c>
       <c r="I72" s="43">
-        <v>1</v>
-      </c>
-      <c r="J72" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J72,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J72" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K72" s="43">
         <v>1000000</v>
       </c>
-      <c r="K72" s="43" t="b">
+      <c r="L72" s="43" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L72" s="43">
-        <v>0</v>
-      </c>
-      <c r="M72" s="43"/>
-    </row>
-    <row r="73" spans="1:13" s="44" customFormat="1">
+      <c r="M72" s="43">
+        <v>0</v>
+      </c>
+      <c r="N72" s="43"/>
+    </row>
+    <row r="73" spans="1:14" s="44" customFormat="1">
       <c r="A73" s="43">
         <v>10069</v>
       </c>
@@ -6960,7 +7391,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F73,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F73" s="43" t="s">
+      <c r="F73" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G73" s="43">
@@ -6970,21 +7401,25 @@
         <v>1</v>
       </c>
       <c r="I73" s="43">
-        <v>1</v>
-      </c>
-      <c r="J73" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J73,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J73" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K73" s="43">
         <v>250000</v>
       </c>
-      <c r="K73" s="43" t="b">
+      <c r="L73" s="43" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="L73" s="43">
-        <v>1</v>
-      </c>
-      <c r="M73" s="43"/>
-    </row>
-    <row r="74" spans="1:13" s="44" customFormat="1">
+      <c r="M73" s="43">
+        <v>1</v>
+      </c>
+      <c r="N73" s="43"/>
+    </row>
+    <row r="74" spans="1:14" s="44" customFormat="1">
       <c r="A74" s="43">
         <v>10070</v>
       </c>
@@ -7003,7 +7438,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F74,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F74" s="43" t="s">
+      <c r="F74" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G74" s="43">
@@ -7013,21 +7448,25 @@
         <v>1</v>
       </c>
       <c r="I74" s="43">
-        <v>1</v>
-      </c>
-      <c r="J74" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J74,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J74" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K74" s="43">
         <v>250000</v>
       </c>
-      <c r="K74" s="43" t="b">
-        <f>IF(L74&gt;0,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="L74" s="43">
-        <v>2</v>
-      </c>
-      <c r="M74" s="43"/>
-    </row>
-    <row r="75" spans="1:13" s="44" customFormat="1">
+      <c r="L74" s="43" t="b">
+        <f>IF(M74&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M74" s="43">
+        <v>2</v>
+      </c>
+      <c r="N74" s="43"/>
+    </row>
+    <row r="75" spans="1:14" s="44" customFormat="1">
       <c r="A75" s="43">
         <v>10071</v>
       </c>
@@ -7046,7 +7485,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F75,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F75" s="43" t="s">
+      <c r="F75" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G75" s="43">
@@ -7056,21 +7495,25 @@
         <v>1</v>
       </c>
       <c r="I75" s="43">
-        <v>1</v>
-      </c>
-      <c r="J75" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J75,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J75" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K75" s="43">
         <v>250000</v>
       </c>
-      <c r="K75" s="43" t="b">
-        <f t="shared" ref="K75:K84" si="11">IF(L75&gt;0,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="L75" s="43">
+      <c r="L75" s="43" t="b">
+        <f t="shared" ref="L75:L84" si="11">IF(M75&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M75" s="43">
         <v>3</v>
       </c>
-      <c r="M75" s="43"/>
-    </row>
-    <row r="76" spans="1:13" s="44" customFormat="1">
+      <c r="N75" s="43"/>
+    </row>
+    <row r="76" spans="1:14" s="44" customFormat="1">
       <c r="A76" s="43">
         <v>10072</v>
       </c>
@@ -7089,7 +7532,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F76,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F76" s="43" t="s">
+      <c r="F76" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G76" s="43">
@@ -7099,21 +7542,25 @@
         <v>1</v>
       </c>
       <c r="I76" s="43">
-        <v>1</v>
-      </c>
-      <c r="J76" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J76,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J76" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K76" s="43">
         <v>250000</v>
       </c>
-      <c r="K76" s="43" t="b">
+      <c r="L76" s="43" t="b">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L76" s="43">
-        <v>0</v>
-      </c>
-      <c r="M76" s="43"/>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="M76" s="43">
+        <v>0</v>
+      </c>
+      <c r="N76" s="43"/>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" s="43">
         <v>10073</v>
       </c>
@@ -7132,7 +7579,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F77,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F77" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G77" s="4">
@@ -7142,21 +7589,25 @@
         <v>5</v>
       </c>
       <c r="I77" s="4">
-        <v>2</v>
-      </c>
-      <c r="J77" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J77,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J77" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K77" s="4">
         <v>250000</v>
       </c>
-      <c r="K77" s="4" t="b">
+      <c r="L77" s="4" t="b">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="L77" s="4">
-        <v>1</v>
-      </c>
-      <c r="M77" s="4"/>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="M77" s="4">
+        <v>1</v>
+      </c>
+      <c r="N77" s="4"/>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" s="43">
         <v>10074</v>
       </c>
@@ -7175,7 +7626,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F78,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="F78" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G78" s="4">
@@ -7185,21 +7636,25 @@
         <v>5</v>
       </c>
       <c r="I78" s="4">
-        <v>2</v>
-      </c>
-      <c r="J78" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J78,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J78" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K78" s="4">
         <v>250000</v>
       </c>
-      <c r="K78" s="4" t="b">
+      <c r="L78" s="4" t="b">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="L78" s="4">
-        <v>2</v>
-      </c>
-      <c r="M78" s="4"/>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="M78" s="4">
+        <v>2</v>
+      </c>
+      <c r="N78" s="4"/>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" s="43">
         <v>10075</v>
       </c>
@@ -7218,7 +7673,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F79,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="F79" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G79" s="4">
@@ -7228,21 +7683,25 @@
         <v>5</v>
       </c>
       <c r="I79" s="4">
-        <v>2</v>
-      </c>
-      <c r="J79" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J79,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J79" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K79" s="4">
         <v>250000</v>
       </c>
-      <c r="K79" s="4" t="b">
+      <c r="L79" s="4" t="b">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L79" s="4">
-        <v>0</v>
-      </c>
-      <c r="M79" s="4"/>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="M79" s="4">
+        <v>0</v>
+      </c>
+      <c r="N79" s="4"/>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" s="43">
         <v>10076</v>
       </c>
@@ -7261,7 +7720,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F80,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="F80" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G80" s="4">
@@ -7271,21 +7730,25 @@
         <v>5</v>
       </c>
       <c r="I80" s="4">
-        <v>2</v>
-      </c>
-      <c r="J80" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J80,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J80" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K80" s="4">
         <v>250000</v>
       </c>
-      <c r="K80" s="4" t="b">
+      <c r="L80" s="4" t="b">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L80" s="4">
-        <v>0</v>
-      </c>
-      <c r="M80" s="4"/>
-    </row>
-    <row r="81" spans="1:13" s="46" customFormat="1">
+      <c r="M80" s="4">
+        <v>0</v>
+      </c>
+      <c r="N80" s="4"/>
+    </row>
+    <row r="81" spans="1:14" s="46" customFormat="1">
       <c r="A81" s="43">
         <v>10077</v>
       </c>
@@ -7304,7 +7767,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F81,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>2</v>
       </c>
-      <c r="F81" s="45" t="s">
+      <c r="F81" s="61" t="s">
         <v>62</v>
       </c>
       <c r="G81" s="45">
@@ -7314,21 +7777,25 @@
         <v>30</v>
       </c>
       <c r="I81" s="45">
-        <v>1</v>
-      </c>
-      <c r="J81" s="45">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J81,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J81" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K81" s="45">
         <v>1000000</v>
       </c>
-      <c r="K81" s="45" t="b">
+      <c r="L81" s="45" t="b">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="L81" s="45">
-        <v>1</v>
-      </c>
-      <c r="M81" s="45"/>
-    </row>
-    <row r="82" spans="1:13" s="44" customFormat="1">
+      <c r="M81" s="45">
+        <v>1</v>
+      </c>
+      <c r="N81" s="45"/>
+    </row>
+    <row r="82" spans="1:14" s="44" customFormat="1">
       <c r="A82" s="43">
         <v>10078</v>
       </c>
@@ -7347,7 +7814,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F82,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>1000</v>
       </c>
-      <c r="F82" s="43" t="s">
+      <c r="F82" s="61" t="s">
         <v>72</v>
       </c>
       <c r="G82" s="43">
@@ -7357,21 +7824,25 @@
         <v>5</v>
       </c>
       <c r="I82" s="43">
-        <v>1</v>
-      </c>
-      <c r="J82" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J82,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J82" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K82" s="43">
         <v>1000000</v>
       </c>
-      <c r="K82" s="43" t="b">
+      <c r="L82" s="43" t="b">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L82" s="43">
-        <v>0</v>
-      </c>
-      <c r="M82" s="43"/>
-    </row>
-    <row r="83" spans="1:13" s="44" customFormat="1">
+      <c r="M82" s="43">
+        <v>0</v>
+      </c>
+      <c r="N82" s="43"/>
+    </row>
+    <row r="83" spans="1:14" s="44" customFormat="1">
       <c r="A83" s="43">
         <v>10079</v>
       </c>
@@ -7390,7 +7861,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F83,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>1000</v>
       </c>
-      <c r="F83" s="43" t="s">
+      <c r="F83" s="61" t="s">
         <v>72</v>
       </c>
       <c r="G83" s="43">
@@ -7400,21 +7871,25 @@
         <v>10</v>
       </c>
       <c r="I83" s="43">
-        <v>1</v>
-      </c>
-      <c r="J83" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J83,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J83" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K83" s="43">
         <v>1000000</v>
       </c>
-      <c r="K83" s="43" t="b">
+      <c r="L83" s="43" t="b">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L83" s="43">
-        <v>0</v>
-      </c>
-      <c r="M83" s="43"/>
-    </row>
-    <row r="84" spans="1:13" s="44" customFormat="1">
+      <c r="M83" s="43">
+        <v>0</v>
+      </c>
+      <c r="N83" s="43"/>
+    </row>
+    <row r="84" spans="1:14" s="44" customFormat="1">
       <c r="A84" s="43">
         <v>10080</v>
       </c>
@@ -7433,7 +7908,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F84,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F84" s="43" t="s">
+      <c r="F84" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G84" s="43">
@@ -7443,21 +7918,25 @@
         <v>1</v>
       </c>
       <c r="I84" s="43">
-        <v>1</v>
-      </c>
-      <c r="J84" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J84,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J84" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K84" s="43">
         <v>250000</v>
       </c>
-      <c r="K84" s="43" t="b">
+      <c r="L84" s="43" t="b">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="L84" s="43">
-        <v>1</v>
-      </c>
-      <c r="M84" s="43"/>
-    </row>
-    <row r="85" spans="1:13" s="44" customFormat="1">
+      <c r="M84" s="43">
+        <v>1</v>
+      </c>
+      <c r="N84" s="43"/>
+    </row>
+    <row r="85" spans="1:14" s="44" customFormat="1">
       <c r="A85" s="43">
         <v>10081</v>
       </c>
@@ -7476,7 +7955,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F85,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F85" s="43" t="s">
+      <c r="F85" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G85" s="43">
@@ -7486,21 +7965,25 @@
         <v>1</v>
       </c>
       <c r="I85" s="43">
-        <v>1</v>
-      </c>
-      <c r="J85" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J85,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J85" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K85" s="43">
         <v>250000</v>
       </c>
-      <c r="K85" s="43" t="b">
-        <f>IF(L85&gt;0,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="L85" s="43">
-        <v>2</v>
-      </c>
-      <c r="M85" s="43"/>
-    </row>
-    <row r="86" spans="1:13" s="44" customFormat="1">
+      <c r="L85" s="43" t="b">
+        <f>IF(M85&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M85" s="43">
+        <v>2</v>
+      </c>
+      <c r="N85" s="43"/>
+    </row>
+    <row r="86" spans="1:14" s="44" customFormat="1">
       <c r="A86" s="43">
         <v>10082</v>
       </c>
@@ -7519,7 +8002,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F86,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F86" s="43" t="s">
+      <c r="F86" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G86" s="43">
@@ -7529,21 +8012,25 @@
         <v>1</v>
       </c>
       <c r="I86" s="43">
-        <v>1</v>
-      </c>
-      <c r="J86" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J86,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J86" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K86" s="43">
         <v>250000</v>
       </c>
-      <c r="K86" s="43" t="b">
-        <f t="shared" ref="K86:K95" si="12">IF(L86&gt;0,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="L86" s="43">
+      <c r="L86" s="43" t="b">
+        <f t="shared" ref="L86:L95" si="12">IF(M86&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M86" s="43">
         <v>3</v>
       </c>
-      <c r="M86" s="43"/>
-    </row>
-    <row r="87" spans="1:13" s="44" customFormat="1">
+      <c r="N86" s="43"/>
+    </row>
+    <row r="87" spans="1:14" s="44" customFormat="1">
       <c r="A87" s="43">
         <v>10083</v>
       </c>
@@ -7562,7 +8049,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F87,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F87" s="43" t="s">
+      <c r="F87" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G87" s="43">
@@ -7572,21 +8059,25 @@
         <v>1</v>
       </c>
       <c r="I87" s="43">
-        <v>1</v>
-      </c>
-      <c r="J87" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J87,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J87" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K87" s="43">
         <v>250000</v>
       </c>
-      <c r="K87" s="43" t="b">
+      <c r="L87" s="43" t="b">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L87" s="43">
-        <v>0</v>
-      </c>
-      <c r="M87" s="43"/>
-    </row>
-    <row r="88" spans="1:13">
+      <c r="M87" s="43">
+        <v>0</v>
+      </c>
+      <c r="N87" s="43"/>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" s="43">
         <v>10084</v>
       </c>
@@ -7605,7 +8096,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F88,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="F88" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G88" s="4">
@@ -7615,21 +8106,25 @@
         <v>5</v>
       </c>
       <c r="I88" s="4">
-        <v>2</v>
-      </c>
-      <c r="J88" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J88,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J88" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K88" s="4">
         <v>250000</v>
       </c>
-      <c r="K88" s="4" t="b">
+      <c r="L88" s="4" t="b">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="L88" s="4">
-        <v>1</v>
-      </c>
-      <c r="M88" s="4"/>
-    </row>
-    <row r="89" spans="1:13">
+      <c r="M88" s="4">
+        <v>1</v>
+      </c>
+      <c r="N88" s="4"/>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" s="43">
         <v>10085</v>
       </c>
@@ -7648,7 +8143,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F89,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="F89" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G89" s="4">
@@ -7658,21 +8153,25 @@
         <v>5</v>
       </c>
       <c r="I89" s="4">
-        <v>2</v>
-      </c>
-      <c r="J89" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J89,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J89" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K89" s="4">
         <v>250000</v>
       </c>
-      <c r="K89" s="4" t="b">
+      <c r="L89" s="4" t="b">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="L89" s="4">
-        <v>2</v>
-      </c>
-      <c r="M89" s="4"/>
-    </row>
-    <row r="90" spans="1:13">
+      <c r="M89" s="4">
+        <v>2</v>
+      </c>
+      <c r="N89" s="4"/>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" s="43">
         <v>10086</v>
       </c>
@@ -7691,7 +8190,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F90,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F90" s="4" t="s">
+      <c r="F90" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G90" s="4">
@@ -7701,21 +8200,25 @@
         <v>5</v>
       </c>
       <c r="I90" s="4">
-        <v>2</v>
-      </c>
-      <c r="J90" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J90,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J90" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K90" s="4">
         <v>250000</v>
       </c>
-      <c r="K90" s="4" t="b">
+      <c r="L90" s="4" t="b">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L90" s="4">
-        <v>0</v>
-      </c>
-      <c r="M90" s="4"/>
-    </row>
-    <row r="91" spans="1:13">
+      <c r="M90" s="4">
+        <v>0</v>
+      </c>
+      <c r="N90" s="4"/>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" s="43">
         <v>10087</v>
       </c>
@@ -7734,7 +8237,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F91,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="F91" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G91" s="4">
@@ -7744,21 +8247,25 @@
         <v>5</v>
       </c>
       <c r="I91" s="4">
-        <v>2</v>
-      </c>
-      <c r="J91" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J91,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J91" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K91" s="4">
         <v>250000</v>
       </c>
-      <c r="K91" s="4" t="b">
+      <c r="L91" s="4" t="b">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L91" s="4">
-        <v>0</v>
-      </c>
-      <c r="M91" s="4"/>
-    </row>
-    <row r="92" spans="1:13" s="46" customFormat="1">
+      <c r="M91" s="4">
+        <v>0</v>
+      </c>
+      <c r="N91" s="4"/>
+    </row>
+    <row r="92" spans="1:14" s="46" customFormat="1">
       <c r="A92" s="43">
         <v>10088</v>
       </c>
@@ -7777,7 +8284,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F92,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>2</v>
       </c>
-      <c r="F92" s="45" t="s">
+      <c r="F92" s="61" t="s">
         <v>62</v>
       </c>
       <c r="G92" s="45">
@@ -7787,21 +8294,25 @@
         <v>30</v>
       </c>
       <c r="I92" s="45">
-        <v>1</v>
-      </c>
-      <c r="J92" s="45">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J92,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J92" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K92" s="45">
         <v>1000000</v>
       </c>
-      <c r="K92" s="45" t="b">
+      <c r="L92" s="45" t="b">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="L92" s="45">
-        <v>1</v>
-      </c>
-      <c r="M92" s="45"/>
-    </row>
-    <row r="93" spans="1:13" s="44" customFormat="1">
+      <c r="M92" s="45">
+        <v>1</v>
+      </c>
+      <c r="N92" s="45"/>
+    </row>
+    <row r="93" spans="1:14" s="44" customFormat="1">
       <c r="A93" s="43">
         <v>10089</v>
       </c>
@@ -7820,7 +8331,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F93,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>1000</v>
       </c>
-      <c r="F93" s="43" t="s">
+      <c r="F93" s="61" t="s">
         <v>72</v>
       </c>
       <c r="G93" s="43">
@@ -7830,21 +8341,25 @@
         <v>5</v>
       </c>
       <c r="I93" s="43">
-        <v>1</v>
-      </c>
-      <c r="J93" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J93,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J93" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K93" s="43">
         <v>1000000</v>
       </c>
-      <c r="K93" s="43" t="b">
+      <c r="L93" s="43" t="b">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L93" s="43">
-        <v>0</v>
-      </c>
-      <c r="M93" s="43"/>
-    </row>
-    <row r="94" spans="1:13" s="44" customFormat="1">
+      <c r="M93" s="43">
+        <v>0</v>
+      </c>
+      <c r="N93" s="43"/>
+    </row>
+    <row r="94" spans="1:14" s="44" customFormat="1">
       <c r="A94" s="43">
         <v>10090</v>
       </c>
@@ -7863,7 +8378,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F94,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>1000</v>
       </c>
-      <c r="F94" s="43" t="s">
+      <c r="F94" s="61" t="s">
         <v>72</v>
       </c>
       <c r="G94" s="43">
@@ -7873,21 +8388,25 @@
         <v>10</v>
       </c>
       <c r="I94" s="43">
-        <v>1</v>
-      </c>
-      <c r="J94" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J94,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J94" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K94" s="43">
         <v>1000000</v>
       </c>
-      <c r="K94" s="43" t="b">
+      <c r="L94" s="43" t="b">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L94" s="43">
-        <v>0</v>
-      </c>
-      <c r="M94" s="43"/>
-    </row>
-    <row r="95" spans="1:13" s="44" customFormat="1">
+      <c r="M94" s="43">
+        <v>0</v>
+      </c>
+      <c r="N94" s="43"/>
+    </row>
+    <row r="95" spans="1:14" s="44" customFormat="1">
       <c r="A95" s="43">
         <v>10091</v>
       </c>
@@ -7906,7 +8425,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F95,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F95" s="43" t="s">
+      <c r="F95" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G95" s="43">
@@ -7916,21 +8435,25 @@
         <v>1</v>
       </c>
       <c r="I95" s="43">
-        <v>1</v>
-      </c>
-      <c r="J95" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J95,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J95" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K95" s="43">
         <v>250000</v>
       </c>
-      <c r="K95" s="43" t="b">
+      <c r="L95" s="43" t="b">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="L95" s="43">
-        <v>1</v>
-      </c>
-      <c r="M95" s="43"/>
-    </row>
-    <row r="96" spans="1:13" s="44" customFormat="1">
+      <c r="M95" s="43">
+        <v>1</v>
+      </c>
+      <c r="N95" s="43"/>
+    </row>
+    <row r="96" spans="1:14" s="44" customFormat="1">
       <c r="A96" s="43">
         <v>10092</v>
       </c>
@@ -7949,7 +8472,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F96,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F96" s="43" t="s">
+      <c r="F96" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G96" s="43">
@@ -7959,21 +8482,25 @@
         <v>1</v>
       </c>
       <c r="I96" s="43">
-        <v>1</v>
-      </c>
-      <c r="J96" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J96,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J96" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K96" s="43">
         <v>250000</v>
       </c>
-      <c r="K96" s="43" t="b">
-        <f>IF(L96&gt;0,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="L96" s="43">
-        <v>2</v>
-      </c>
-      <c r="M96" s="43"/>
-    </row>
-    <row r="97" spans="1:13" s="44" customFormat="1">
+      <c r="L96" s="43" t="b">
+        <f>IF(M96&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M96" s="43">
+        <v>2</v>
+      </c>
+      <c r="N96" s="43"/>
+    </row>
+    <row r="97" spans="1:14" s="44" customFormat="1">
       <c r="A97" s="43">
         <v>10093</v>
       </c>
@@ -7992,7 +8519,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F97,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F97" s="43" t="s">
+      <c r="F97" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G97" s="43">
@@ -8002,21 +8529,25 @@
         <v>1</v>
       </c>
       <c r="I97" s="43">
-        <v>1</v>
-      </c>
-      <c r="J97" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J97,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J97" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K97" s="43">
         <v>250000</v>
       </c>
-      <c r="K97" s="43" t="b">
-        <f t="shared" ref="K97:K106" si="13">IF(L97&gt;0,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="L97" s="43">
+      <c r="L97" s="43" t="b">
+        <f t="shared" ref="L97:L106" si="13">IF(M97&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M97" s="43">
         <v>3</v>
       </c>
-      <c r="M97" s="43"/>
-    </row>
-    <row r="98" spans="1:13" s="44" customFormat="1">
+      <c r="N97" s="43"/>
+    </row>
+    <row r="98" spans="1:14" s="44" customFormat="1">
       <c r="A98" s="43">
         <v>10094</v>
       </c>
@@ -8035,7 +8566,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F98,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F98" s="43" t="s">
+      <c r="F98" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G98" s="43">
@@ -8045,21 +8576,25 @@
         <v>1</v>
       </c>
       <c r="I98" s="43">
-        <v>1</v>
-      </c>
-      <c r="J98" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J98,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J98" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K98" s="43">
         <v>250000</v>
       </c>
-      <c r="K98" s="43" t="b">
+      <c r="L98" s="43" t="b">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L98" s="43">
-        <v>0</v>
-      </c>
-      <c r="M98" s="43"/>
-    </row>
-    <row r="99" spans="1:13">
+      <c r="M98" s="43">
+        <v>0</v>
+      </c>
+      <c r="N98" s="43"/>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" s="43">
         <v>10095</v>
       </c>
@@ -8078,7 +8613,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F99,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F99" s="4" t="s">
+      <c r="F99" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G99" s="4">
@@ -8088,21 +8623,25 @@
         <v>5</v>
       </c>
       <c r="I99" s="4">
-        <v>2</v>
-      </c>
-      <c r="J99" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J99,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J99" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K99" s="4">
         <v>250000</v>
       </c>
-      <c r="K99" s="4" t="b">
+      <c r="L99" s="4" t="b">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="L99" s="4">
-        <v>1</v>
-      </c>
-      <c r="M99" s="4"/>
-    </row>
-    <row r="100" spans="1:13">
+      <c r="M99" s="4">
+        <v>1</v>
+      </c>
+      <c r="N99" s="4"/>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" s="43">
         <v>10096</v>
       </c>
@@ -8121,7 +8660,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F100,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F100" s="4" t="s">
+      <c r="F100" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G100" s="4">
@@ -8131,21 +8670,25 @@
         <v>5</v>
       </c>
       <c r="I100" s="4">
-        <v>2</v>
-      </c>
-      <c r="J100" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J100,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J100" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K100" s="4">
         <v>250000</v>
       </c>
-      <c r="K100" s="4" t="b">
+      <c r="L100" s="4" t="b">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="L100" s="4">
-        <v>2</v>
-      </c>
-      <c r="M100" s="4"/>
-    </row>
-    <row r="101" spans="1:13">
+      <c r="M100" s="4">
+        <v>2</v>
+      </c>
+      <c r="N100" s="4"/>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" s="43">
         <v>10097</v>
       </c>
@@ -8164,7 +8707,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F101,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F101" s="4" t="s">
+      <c r="F101" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G101" s="4">
@@ -8174,21 +8717,25 @@
         <v>5</v>
       </c>
       <c r="I101" s="4">
-        <v>2</v>
-      </c>
-      <c r="J101" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J101,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J101" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K101" s="4">
         <v>250000</v>
       </c>
-      <c r="K101" s="4" t="b">
+      <c r="L101" s="4" t="b">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L101" s="4">
-        <v>0</v>
-      </c>
-      <c r="M101" s="4"/>
-    </row>
-    <row r="102" spans="1:13">
+      <c r="M101" s="4">
+        <v>0</v>
+      </c>
+      <c r="N101" s="4"/>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" s="43">
         <v>10098</v>
       </c>
@@ -8207,7 +8754,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F102,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F102" s="4" t="s">
+      <c r="F102" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G102" s="4">
@@ -8217,21 +8764,25 @@
         <v>5</v>
       </c>
       <c r="I102" s="4">
-        <v>2</v>
-      </c>
-      <c r="J102" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J102,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J102" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K102" s="4">
         <v>250000</v>
       </c>
-      <c r="K102" s="4" t="b">
+      <c r="L102" s="4" t="b">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L102" s="4">
-        <v>0</v>
-      </c>
-      <c r="M102" s="4"/>
-    </row>
-    <row r="103" spans="1:13" s="46" customFormat="1">
+      <c r="M102" s="4">
+        <v>0</v>
+      </c>
+      <c r="N102" s="4"/>
+    </row>
+    <row r="103" spans="1:14" s="46" customFormat="1">
       <c r="A103" s="43">
         <v>10099</v>
       </c>
@@ -8250,7 +8801,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F103,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>2</v>
       </c>
-      <c r="F103" s="45" t="s">
+      <c r="F103" s="61" t="s">
         <v>62</v>
       </c>
       <c r="G103" s="45">
@@ -8260,21 +8811,25 @@
         <v>30</v>
       </c>
       <c r="I103" s="45">
-        <v>1</v>
-      </c>
-      <c r="J103" s="45">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J103,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J103" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K103" s="45">
         <v>1000000</v>
       </c>
-      <c r="K103" s="45" t="b">
+      <c r="L103" s="45" t="b">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="L103" s="45">
-        <v>1</v>
-      </c>
-      <c r="M103" s="45"/>
-    </row>
-    <row r="104" spans="1:13" s="44" customFormat="1">
+      <c r="M103" s="45">
+        <v>1</v>
+      </c>
+      <c r="N103" s="45"/>
+    </row>
+    <row r="104" spans="1:14" s="44" customFormat="1">
       <c r="A104" s="43">
         <v>10100</v>
       </c>
@@ -8293,7 +8848,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F104,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>1000</v>
       </c>
-      <c r="F104" s="43" t="s">
+      <c r="F104" s="61" t="s">
         <v>72</v>
       </c>
       <c r="G104" s="43">
@@ -8303,21 +8858,25 @@
         <v>5</v>
       </c>
       <c r="I104" s="43">
-        <v>1</v>
-      </c>
-      <c r="J104" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J104,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J104" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K104" s="43">
         <v>1000000</v>
       </c>
-      <c r="K104" s="43" t="b">
+      <c r="L104" s="43" t="b">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L104" s="43">
-        <v>0</v>
-      </c>
-      <c r="M104" s="43"/>
-    </row>
-    <row r="105" spans="1:13" s="44" customFormat="1">
+      <c r="M104" s="43">
+        <v>0</v>
+      </c>
+      <c r="N104" s="43"/>
+    </row>
+    <row r="105" spans="1:14" s="44" customFormat="1">
       <c r="A105" s="43">
         <v>10101</v>
       </c>
@@ -8336,7 +8895,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F105,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>1000</v>
       </c>
-      <c r="F105" s="43" t="s">
+      <c r="F105" s="61" t="s">
         <v>72</v>
       </c>
       <c r="G105" s="43">
@@ -8346,21 +8905,25 @@
         <v>10</v>
       </c>
       <c r="I105" s="43">
-        <v>1</v>
-      </c>
-      <c r="J105" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J105,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J105" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K105" s="43">
         <v>1000000</v>
       </c>
-      <c r="K105" s="43" t="b">
+      <c r="L105" s="43" t="b">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L105" s="43">
-        <v>0</v>
-      </c>
-      <c r="M105" s="43"/>
-    </row>
-    <row r="106" spans="1:13" s="44" customFormat="1">
+      <c r="M105" s="43">
+        <v>0</v>
+      </c>
+      <c r="N105" s="43"/>
+    </row>
+    <row r="106" spans="1:14" s="44" customFormat="1">
       <c r="A106" s="43">
         <v>10102</v>
       </c>
@@ -8379,7 +8942,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F106,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F106" s="43" t="s">
+      <c r="F106" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G106" s="43">
@@ -8389,21 +8952,25 @@
         <v>1</v>
       </c>
       <c r="I106" s="43">
-        <v>1</v>
-      </c>
-      <c r="J106" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J106,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J106" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K106" s="43">
         <v>250000</v>
       </c>
-      <c r="K106" s="43" t="b">
+      <c r="L106" s="43" t="b">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="L106" s="43">
-        <v>1</v>
-      </c>
-      <c r="M106" s="43"/>
-    </row>
-    <row r="107" spans="1:13" s="44" customFormat="1">
+      <c r="M106" s="43">
+        <v>1</v>
+      </c>
+      <c r="N106" s="43"/>
+    </row>
+    <row r="107" spans="1:14" s="44" customFormat="1">
       <c r="A107" s="43">
         <v>10103</v>
       </c>
@@ -8422,7 +8989,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F107,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F107" s="43" t="s">
+      <c r="F107" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G107" s="43">
@@ -8432,21 +8999,25 @@
         <v>1</v>
       </c>
       <c r="I107" s="43">
-        <v>1</v>
-      </c>
-      <c r="J107" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J107,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J107" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K107" s="43">
         <v>250000</v>
       </c>
-      <c r="K107" s="43" t="b">
-        <f>IF(L107&gt;0,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="L107" s="43">
-        <v>2</v>
-      </c>
-      <c r="M107" s="43"/>
-    </row>
-    <row r="108" spans="1:13" s="44" customFormat="1">
+      <c r="L107" s="43" t="b">
+        <f>IF(M107&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M107" s="43">
+        <v>2</v>
+      </c>
+      <c r="N107" s="43"/>
+    </row>
+    <row r="108" spans="1:14" s="44" customFormat="1">
       <c r="A108" s="43">
         <v>10104</v>
       </c>
@@ -8465,7 +9036,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F108,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F108" s="43" t="s">
+      <c r="F108" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G108" s="43">
@@ -8475,21 +9046,25 @@
         <v>1</v>
       </c>
       <c r="I108" s="43">
-        <v>1</v>
-      </c>
-      <c r="J108" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J108,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J108" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K108" s="43">
         <v>250000</v>
       </c>
-      <c r="K108" s="43" t="b">
-        <f t="shared" ref="K108:K117" si="14">IF(L108&gt;0,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="L108" s="43">
+      <c r="L108" s="43" t="b">
+        <f t="shared" ref="L108:L117" si="14">IF(M108&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M108" s="43">
         <v>3</v>
       </c>
-      <c r="M108" s="43"/>
-    </row>
-    <row r="109" spans="1:13" s="44" customFormat="1">
+      <c r="N108" s="43"/>
+    </row>
+    <row r="109" spans="1:14" s="44" customFormat="1">
       <c r="A109" s="43">
         <v>10105</v>
       </c>
@@ -8508,7 +9083,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F109,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F109" s="43" t="s">
+      <c r="F109" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G109" s="43">
@@ -8518,21 +9093,25 @@
         <v>1</v>
       </c>
       <c r="I109" s="43">
-        <v>1</v>
-      </c>
-      <c r="J109" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J109,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J109" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K109" s="43">
         <v>250000</v>
       </c>
-      <c r="K109" s="43" t="b">
+      <c r="L109" s="43" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="L109" s="43">
-        <v>0</v>
-      </c>
-      <c r="M109" s="43"/>
-    </row>
-    <row r="110" spans="1:13">
+      <c r="M109" s="43">
+        <v>0</v>
+      </c>
+      <c r="N109" s="43"/>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" s="43">
         <v>10106</v>
       </c>
@@ -8551,7 +9130,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F110,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F110" s="4" t="s">
+      <c r="F110" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G110" s="4">
@@ -8561,21 +9140,25 @@
         <v>5</v>
       </c>
       <c r="I110" s="4">
-        <v>2</v>
-      </c>
-      <c r="J110" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J110,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J110" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K110" s="4">
         <v>250000</v>
       </c>
-      <c r="K110" s="4" t="b">
+      <c r="L110" s="4" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="L110" s="4">
-        <v>1</v>
-      </c>
-      <c r="M110" s="4"/>
-    </row>
-    <row r="111" spans="1:13">
+      <c r="M110" s="4">
+        <v>1</v>
+      </c>
+      <c r="N110" s="4"/>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111" s="43">
         <v>10107</v>
       </c>
@@ -8594,7 +9177,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F111,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F111" s="4" t="s">
+      <c r="F111" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G111" s="4">
@@ -8604,21 +9187,25 @@
         <v>5</v>
       </c>
       <c r="I111" s="4">
-        <v>2</v>
-      </c>
-      <c r="J111" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J111,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J111" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K111" s="4">
         <v>250000</v>
       </c>
-      <c r="K111" s="4" t="b">
+      <c r="L111" s="4" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="L111" s="4">
-        <v>2</v>
-      </c>
-      <c r="M111" s="4"/>
-    </row>
-    <row r="112" spans="1:13">
+      <c r="M111" s="4">
+        <v>2</v>
+      </c>
+      <c r="N111" s="4"/>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112" s="43">
         <v>10108</v>
       </c>
@@ -8637,7 +9224,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F112,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F112" s="4" t="s">
+      <c r="F112" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G112" s="4">
@@ -8647,21 +9234,25 @@
         <v>5</v>
       </c>
       <c r="I112" s="4">
-        <v>2</v>
-      </c>
-      <c r="J112" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J112,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J112" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K112" s="4">
         <v>250000</v>
       </c>
-      <c r="K112" s="4" t="b">
+      <c r="L112" s="4" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="L112" s="4">
-        <v>0</v>
-      </c>
-      <c r="M112" s="4"/>
-    </row>
-    <row r="113" spans="1:13">
+      <c r="M112" s="4">
+        <v>0</v>
+      </c>
+      <c r="N112" s="4"/>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" s="43">
         <v>10109</v>
       </c>
@@ -8680,7 +9271,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F113,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F113" s="4" t="s">
+      <c r="F113" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G113" s="4">
@@ -8690,21 +9281,25 @@
         <v>5</v>
       </c>
       <c r="I113" s="4">
-        <v>2</v>
-      </c>
-      <c r="J113" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J113,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J113" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K113" s="4">
         <v>250000</v>
       </c>
-      <c r="K113" s="4" t="b">
+      <c r="L113" s="4" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="L113" s="4">
-        <v>0</v>
-      </c>
-      <c r="M113" s="4"/>
-    </row>
-    <row r="114" spans="1:13" s="46" customFormat="1">
+      <c r="M113" s="4">
+        <v>0</v>
+      </c>
+      <c r="N113" s="4"/>
+    </row>
+    <row r="114" spans="1:14" s="46" customFormat="1">
       <c r="A114" s="43">
         <v>10110</v>
       </c>
@@ -8723,7 +9318,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F114,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>2</v>
       </c>
-      <c r="F114" s="45" t="s">
+      <c r="F114" s="61" t="s">
         <v>62</v>
       </c>
       <c r="G114" s="45">
@@ -8733,21 +9328,25 @@
         <v>30</v>
       </c>
       <c r="I114" s="45">
-        <v>1</v>
-      </c>
-      <c r="J114" s="45">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J114,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J114" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K114" s="45">
         <v>1000000</v>
       </c>
-      <c r="K114" s="45" t="b">
+      <c r="L114" s="45" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="L114" s="45">
-        <v>1</v>
-      </c>
-      <c r="M114" s="45"/>
-    </row>
-    <row r="115" spans="1:13" s="44" customFormat="1">
+      <c r="M114" s="45">
+        <v>1</v>
+      </c>
+      <c r="N114" s="45"/>
+    </row>
+    <row r="115" spans="1:14" s="44" customFormat="1">
       <c r="A115" s="43">
         <v>10111</v>
       </c>
@@ -8766,7 +9365,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F115,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>1000</v>
       </c>
-      <c r="F115" s="43" t="s">
+      <c r="F115" s="61" t="s">
         <v>72</v>
       </c>
       <c r="G115" s="43">
@@ -8776,21 +9375,25 @@
         <v>5</v>
       </c>
       <c r="I115" s="43">
-        <v>1</v>
-      </c>
-      <c r="J115" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J115,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J115" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K115" s="43">
         <v>1000000</v>
       </c>
-      <c r="K115" s="43" t="b">
+      <c r="L115" s="43" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="L115" s="43">
-        <v>0</v>
-      </c>
-      <c r="M115" s="43"/>
-    </row>
-    <row r="116" spans="1:13" s="44" customFormat="1">
+      <c r="M115" s="43">
+        <v>0</v>
+      </c>
+      <c r="N115" s="43"/>
+    </row>
+    <row r="116" spans="1:14" s="44" customFormat="1">
       <c r="A116" s="43">
         <v>10112</v>
       </c>
@@ -8809,7 +9412,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F116,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>1000</v>
       </c>
-      <c r="F116" s="43" t="s">
+      <c r="F116" s="61" t="s">
         <v>72</v>
       </c>
       <c r="G116" s="43">
@@ -8819,21 +9422,25 @@
         <v>10</v>
       </c>
       <c r="I116" s="43">
-        <v>1</v>
-      </c>
-      <c r="J116" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J116,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J116" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K116" s="43">
         <v>1000000</v>
       </c>
-      <c r="K116" s="43" t="b">
+      <c r="L116" s="43" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="L116" s="43">
-        <v>0</v>
-      </c>
-      <c r="M116" s="43"/>
-    </row>
-    <row r="117" spans="1:13" s="44" customFormat="1">
+      <c r="M116" s="43">
+        <v>0</v>
+      </c>
+      <c r="N116" s="43"/>
+    </row>
+    <row r="117" spans="1:14" s="44" customFormat="1">
       <c r="A117" s="43">
         <v>10113</v>
       </c>
@@ -8852,7 +9459,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F117,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F117" s="43" t="s">
+      <c r="F117" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G117" s="43">
@@ -8862,21 +9469,25 @@
         <v>1</v>
       </c>
       <c r="I117" s="43">
-        <v>1</v>
-      </c>
-      <c r="J117" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J117,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J117" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K117" s="43">
         <v>250000</v>
       </c>
-      <c r="K117" s="43" t="b">
+      <c r="L117" s="43" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="L117" s="43">
-        <v>1</v>
-      </c>
-      <c r="M117" s="43"/>
-    </row>
-    <row r="118" spans="1:13" s="44" customFormat="1">
+      <c r="M117" s="43">
+        <v>1</v>
+      </c>
+      <c r="N117" s="43"/>
+    </row>
+    <row r="118" spans="1:14" s="44" customFormat="1">
       <c r="A118" s="43">
         <v>10114</v>
       </c>
@@ -8895,7 +9506,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F118,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F118" s="43" t="s">
+      <c r="F118" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G118" s="43">
@@ -8905,21 +9516,25 @@
         <v>1</v>
       </c>
       <c r="I118" s="43">
-        <v>1</v>
-      </c>
-      <c r="J118" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J118,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J118" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K118" s="43">
         <v>250000</v>
       </c>
-      <c r="K118" s="43" t="b">
-        <f>IF(L118&gt;0,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="L118" s="43">
-        <v>2</v>
-      </c>
-      <c r="M118" s="43"/>
-    </row>
-    <row r="119" spans="1:13" s="44" customFormat="1">
+      <c r="L118" s="43" t="b">
+        <f>IF(M118&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M118" s="43">
+        <v>2</v>
+      </c>
+      <c r="N118" s="43"/>
+    </row>
+    <row r="119" spans="1:14" s="44" customFormat="1">
       <c r="A119" s="43">
         <v>10115</v>
       </c>
@@ -8938,7 +9553,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F119,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F119" s="43" t="s">
+      <c r="F119" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G119" s="43">
@@ -8948,21 +9563,25 @@
         <v>1</v>
       </c>
       <c r="I119" s="43">
-        <v>1</v>
-      </c>
-      <c r="J119" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J119,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J119" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K119" s="43">
         <v>250000</v>
       </c>
-      <c r="K119" s="43" t="b">
-        <f t="shared" ref="K119:K161" si="15">IF(L119&gt;0,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="L119" s="43">
+      <c r="L119" s="43" t="b">
+        <f t="shared" ref="L119:L161" si="15">IF(M119&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M119" s="43">
         <v>3</v>
       </c>
-      <c r="M119" s="43"/>
-    </row>
-    <row r="120" spans="1:13" s="44" customFormat="1">
+      <c r="N119" s="43"/>
+    </row>
+    <row r="120" spans="1:14" s="44" customFormat="1">
       <c r="A120" s="43">
         <v>10116</v>
       </c>
@@ -8981,7 +9600,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F120,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F120" s="43" t="s">
+      <c r="F120" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G120" s="43">
@@ -8991,21 +9610,25 @@
         <v>1</v>
       </c>
       <c r="I120" s="43">
-        <v>1</v>
-      </c>
-      <c r="J120" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J120,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J120" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K120" s="43">
         <v>250000</v>
       </c>
-      <c r="K120" s="43" t="b">
+      <c r="L120" s="43" t="b">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L120" s="43">
-        <v>0</v>
-      </c>
-      <c r="M120" s="43"/>
-    </row>
-    <row r="121" spans="1:13">
+      <c r="M120" s="43">
+        <v>0</v>
+      </c>
+      <c r="N120" s="43"/>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" s="43">
         <v>10117</v>
       </c>
@@ -9024,7 +9647,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F121,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F121" s="4" t="s">
+      <c r="F121" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G121" s="4">
@@ -9034,21 +9657,25 @@
         <v>5</v>
       </c>
       <c r="I121" s="4">
-        <v>2</v>
-      </c>
-      <c r="J121" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J121,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J121" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K121" s="4">
         <v>250000</v>
       </c>
-      <c r="K121" s="4" t="b">
+      <c r="L121" s="4" t="b">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L121" s="4">
-        <v>1</v>
-      </c>
-      <c r="M121" s="4"/>
-    </row>
-    <row r="122" spans="1:13">
+      <c r="M121" s="4">
+        <v>1</v>
+      </c>
+      <c r="N121" s="4"/>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" s="43">
         <v>10118</v>
       </c>
@@ -9067,7 +9694,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F122,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F122" s="4" t="s">
+      <c r="F122" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G122" s="4">
@@ -9077,21 +9704,25 @@
         <v>5</v>
       </c>
       <c r="I122" s="4">
-        <v>2</v>
-      </c>
-      <c r="J122" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J122,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J122" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K122" s="4">
         <v>250000</v>
       </c>
-      <c r="K122" s="4" t="b">
+      <c r="L122" s="4" t="b">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L122" s="4">
-        <v>2</v>
-      </c>
-      <c r="M122" s="4"/>
-    </row>
-    <row r="123" spans="1:13">
+      <c r="M122" s="4">
+        <v>2</v>
+      </c>
+      <c r="N122" s="4"/>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" s="43">
         <v>10119</v>
       </c>
@@ -9110,7 +9741,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F123,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F123" s="4" t="s">
+      <c r="F123" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G123" s="4">
@@ -9120,21 +9751,25 @@
         <v>5</v>
       </c>
       <c r="I123" s="4">
-        <v>2</v>
-      </c>
-      <c r="J123" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J123,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J123" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K123" s="4">
         <v>250000</v>
       </c>
-      <c r="K123" s="4" t="b">
+      <c r="L123" s="4" t="b">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L123" s="4">
-        <v>0</v>
-      </c>
-      <c r="M123" s="4"/>
-    </row>
-    <row r="124" spans="1:13">
+      <c r="M123" s="4">
+        <v>0</v>
+      </c>
+      <c r="N123" s="4"/>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" s="43">
         <v>10120</v>
       </c>
@@ -9153,7 +9788,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F124,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F124" s="4" t="s">
+      <c r="F124" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G124" s="4">
@@ -9163,21 +9798,25 @@
         <v>5</v>
       </c>
       <c r="I124" s="4">
-        <v>2</v>
-      </c>
-      <c r="J124" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J124,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J124" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K124" s="4">
         <v>250000</v>
       </c>
-      <c r="K124" s="4" t="b">
+      <c r="L124" s="4" t="b">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L124" s="4">
-        <v>0</v>
-      </c>
-      <c r="M124" s="4"/>
-    </row>
-    <row r="125" spans="1:13" s="46" customFormat="1">
+      <c r="M124" s="4">
+        <v>0</v>
+      </c>
+      <c r="N124" s="4"/>
+    </row>
+    <row r="125" spans="1:14" s="46" customFormat="1">
       <c r="A125" s="43">
         <v>10121</v>
       </c>
@@ -9196,7 +9835,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F125,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>2</v>
       </c>
-      <c r="F125" s="45" t="s">
+      <c r="F125" s="61" t="s">
         <v>62</v>
       </c>
       <c r="G125" s="45">
@@ -9206,21 +9845,25 @@
         <v>30</v>
       </c>
       <c r="I125" s="45">
-        <v>1</v>
-      </c>
-      <c r="J125" s="45">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J125,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J125" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K125" s="45">
         <v>1000000</v>
       </c>
-      <c r="K125" s="45" t="b">
+      <c r="L125" s="45" t="b">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L125" s="45">
-        <v>1</v>
-      </c>
-      <c r="M125" s="45"/>
-    </row>
-    <row r="126" spans="1:13" s="44" customFormat="1">
+      <c r="M125" s="45">
+        <v>1</v>
+      </c>
+      <c r="N125" s="45"/>
+    </row>
+    <row r="126" spans="1:14" s="44" customFormat="1">
       <c r="A126" s="43">
         <v>10122</v>
       </c>
@@ -9239,7 +9882,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F126,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>1000</v>
       </c>
-      <c r="F126" s="43" t="s">
+      <c r="F126" s="61" t="s">
         <v>73</v>
       </c>
       <c r="G126" s="43">
@@ -9249,21 +9892,25 @@
         <v>5</v>
       </c>
       <c r="I126" s="43">
-        <v>1</v>
-      </c>
-      <c r="J126" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J126,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J126" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K126" s="43">
         <v>1000000</v>
       </c>
-      <c r="K126" s="43" t="b">
-        <f t="shared" ref="K126:K128" si="16">IF(L126&gt;0,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L126" s="43">
-        <v>0</v>
-      </c>
-      <c r="M126" s="43"/>
-    </row>
-    <row r="127" spans="1:13" s="44" customFormat="1">
+      <c r="L126" s="43" t="b">
+        <f t="shared" ref="L126:L128" si="16">IF(M126&gt;0,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M126" s="43">
+        <v>0</v>
+      </c>
+      <c r="N126" s="43"/>
+    </row>
+    <row r="127" spans="1:14" s="44" customFormat="1">
       <c r="A127" s="43">
         <v>10123</v>
       </c>
@@ -9282,7 +9929,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F127,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>1000</v>
       </c>
-      <c r="F127" s="43" t="s">
+      <c r="F127" s="61" t="s">
         <v>72</v>
       </c>
       <c r="G127" s="43">
@@ -9292,21 +9939,25 @@
         <v>10</v>
       </c>
       <c r="I127" s="43">
-        <v>1</v>
-      </c>
-      <c r="J127" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J127,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J127" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K127" s="43">
         <v>1000000</v>
       </c>
-      <c r="K127" s="43" t="b">
+      <c r="L127" s="43" t="b">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L127" s="43">
-        <v>0</v>
-      </c>
-      <c r="M127" s="43"/>
-    </row>
-    <row r="128" spans="1:13" s="44" customFormat="1">
+      <c r="M127" s="43">
+        <v>0</v>
+      </c>
+      <c r="N127" s="43"/>
+    </row>
+    <row r="128" spans="1:14" s="44" customFormat="1">
       <c r="A128" s="43">
         <v>10124</v>
       </c>
@@ -9325,7 +9976,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F128,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F128" s="43" t="s">
+      <c r="F128" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G128" s="43">
@@ -9335,21 +9986,25 @@
         <v>1</v>
       </c>
       <c r="I128" s="43">
-        <v>1</v>
-      </c>
-      <c r="J128" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J128,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J128" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K128" s="43">
         <v>250000</v>
       </c>
-      <c r="K128" s="43" t="b">
+      <c r="L128" s="43" t="b">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="L128" s="43">
-        <v>1</v>
-      </c>
-      <c r="M128" s="43"/>
-    </row>
-    <row r="129" spans="1:13" s="44" customFormat="1">
+      <c r="M128" s="43">
+        <v>1</v>
+      </c>
+      <c r="N128" s="43"/>
+    </row>
+    <row r="129" spans="1:14" s="44" customFormat="1">
       <c r="A129" s="43">
         <v>10125</v>
       </c>
@@ -9368,7 +10023,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F129,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F129" s="43" t="s">
+      <c r="F129" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G129" s="43">
@@ -9378,21 +10033,25 @@
         <v>1</v>
       </c>
       <c r="I129" s="43">
-        <v>1</v>
-      </c>
-      <c r="J129" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J129,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J129" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K129" s="43">
         <v>250000</v>
       </c>
-      <c r="K129" s="43" t="b">
-        <f>IF(L129&gt;0,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="L129" s="43">
-        <v>2</v>
-      </c>
-      <c r="M129" s="43"/>
-    </row>
-    <row r="130" spans="1:13" s="44" customFormat="1">
+      <c r="L129" s="43" t="b">
+        <f>IF(M129&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M129" s="43">
+        <v>2</v>
+      </c>
+      <c r="N129" s="43"/>
+    </row>
+    <row r="130" spans="1:14" s="44" customFormat="1">
       <c r="A130" s="43">
         <v>10126</v>
       </c>
@@ -9411,7 +10070,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F130,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F130" s="43" t="s">
+      <c r="F130" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G130" s="43">
@@ -9421,21 +10080,25 @@
         <v>1</v>
       </c>
       <c r="I130" s="43">
-        <v>1</v>
-      </c>
-      <c r="J130" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J130,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J130" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K130" s="43">
         <v>250000</v>
       </c>
-      <c r="K130" s="43" t="b">
-        <f t="shared" ref="K130:K139" si="17">IF(L130&gt;0,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="L130" s="43">
+      <c r="L130" s="43" t="b">
+        <f t="shared" ref="L130:L139" si="17">IF(M130&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M130" s="43">
         <v>3</v>
       </c>
-      <c r="M130" s="43"/>
-    </row>
-    <row r="131" spans="1:13" s="44" customFormat="1">
+      <c r="N130" s="43"/>
+    </row>
+    <row r="131" spans="1:14" s="44" customFormat="1">
       <c r="A131" s="43">
         <v>10127</v>
       </c>
@@ -9454,7 +10117,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F131,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F131" s="43" t="s">
+      <c r="F131" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G131" s="43">
@@ -9464,21 +10127,25 @@
         <v>1</v>
       </c>
       <c r="I131" s="43">
-        <v>1</v>
-      </c>
-      <c r="J131" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J131,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J131" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K131" s="43">
         <v>250000</v>
       </c>
-      <c r="K131" s="43" t="b">
+      <c r="L131" s="43" t="b">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L131" s="43">
-        <v>0</v>
-      </c>
-      <c r="M131" s="43"/>
-    </row>
-    <row r="132" spans="1:13">
+      <c r="M131" s="43">
+        <v>0</v>
+      </c>
+      <c r="N131" s="43"/>
+    </row>
+    <row r="132" spans="1:14">
       <c r="A132" s="43">
         <v>10128</v>
       </c>
@@ -9497,7 +10164,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F132,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F132" s="4" t="s">
+      <c r="F132" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G132" s="4">
@@ -9507,21 +10174,25 @@
         <v>5</v>
       </c>
       <c r="I132" s="4">
-        <v>2</v>
-      </c>
-      <c r="J132" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J132,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J132" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K132" s="4">
         <v>250000</v>
       </c>
-      <c r="K132" s="4" t="b">
+      <c r="L132" s="4" t="b">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="L132" s="4">
-        <v>1</v>
-      </c>
-      <c r="M132" s="4"/>
-    </row>
-    <row r="133" spans="1:13">
+      <c r="M132" s="4">
+        <v>1</v>
+      </c>
+      <c r="N132" s="4"/>
+    </row>
+    <row r="133" spans="1:14">
       <c r="A133" s="43">
         <v>10129</v>
       </c>
@@ -9540,7 +10211,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F133,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F133" s="4" t="s">
+      <c r="F133" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G133" s="4">
@@ -9550,21 +10221,25 @@
         <v>5</v>
       </c>
       <c r="I133" s="4">
-        <v>2</v>
-      </c>
-      <c r="J133" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J133,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J133" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K133" s="4">
         <v>250000</v>
       </c>
-      <c r="K133" s="4" t="b">
+      <c r="L133" s="4" t="b">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="L133" s="4">
-        <v>2</v>
-      </c>
-      <c r="M133" s="4"/>
-    </row>
-    <row r="134" spans="1:13">
+      <c r="M133" s="4">
+        <v>2</v>
+      </c>
+      <c r="N133" s="4"/>
+    </row>
+    <row r="134" spans="1:14">
       <c r="A134" s="43">
         <v>10130</v>
       </c>
@@ -9583,7 +10258,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F134,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F134" s="4" t="s">
+      <c r="F134" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G134" s="4">
@@ -9593,21 +10268,25 @@
         <v>5</v>
       </c>
       <c r="I134" s="4">
-        <v>2</v>
-      </c>
-      <c r="J134" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J134,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J134" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K134" s="4">
         <v>250000</v>
       </c>
-      <c r="K134" s="4" t="b">
+      <c r="L134" s="4" t="b">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L134" s="4">
-        <v>0</v>
-      </c>
-      <c r="M134" s="4"/>
-    </row>
-    <row r="135" spans="1:13">
+      <c r="M134" s="4">
+        <v>0</v>
+      </c>
+      <c r="N134" s="4"/>
+    </row>
+    <row r="135" spans="1:14">
       <c r="A135" s="43">
         <v>10131</v>
       </c>
@@ -9626,7 +10305,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F135,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F135" s="4" t="s">
+      <c r="F135" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G135" s="4">
@@ -9636,21 +10315,25 @@
         <v>5</v>
       </c>
       <c r="I135" s="4">
-        <v>2</v>
-      </c>
-      <c r="J135" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J135,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J135" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K135" s="4">
         <v>250000</v>
       </c>
-      <c r="K135" s="4" t="b">
+      <c r="L135" s="4" t="b">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L135" s="4">
-        <v>0</v>
-      </c>
-      <c r="M135" s="4"/>
-    </row>
-    <row r="136" spans="1:13" s="46" customFormat="1">
+      <c r="M135" s="4">
+        <v>0</v>
+      </c>
+      <c r="N135" s="4"/>
+    </row>
+    <row r="136" spans="1:14" s="46" customFormat="1">
       <c r="A136" s="43">
         <v>10132</v>
       </c>
@@ -9669,7 +10352,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F136,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>2</v>
       </c>
-      <c r="F136" s="45" t="s">
+      <c r="F136" s="61" t="s">
         <v>62</v>
       </c>
       <c r="G136" s="45">
@@ -9679,21 +10362,25 @@
         <v>30</v>
       </c>
       <c r="I136" s="45">
-        <v>1</v>
-      </c>
-      <c r="J136" s="45">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J136,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J136" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K136" s="45">
         <v>1000000</v>
       </c>
-      <c r="K136" s="45" t="b">
+      <c r="L136" s="45" t="b">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="L136" s="45">
-        <v>1</v>
-      </c>
-      <c r="M136" s="45"/>
-    </row>
-    <row r="137" spans="1:13" s="44" customFormat="1">
+      <c r="M136" s="45">
+        <v>1</v>
+      </c>
+      <c r="N136" s="45"/>
+    </row>
+    <row r="137" spans="1:14" s="44" customFormat="1">
       <c r="A137" s="43">
         <v>10133</v>
       </c>
@@ -9712,7 +10399,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F137,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>1000</v>
       </c>
-      <c r="F137" s="43" t="s">
+      <c r="F137" s="61" t="s">
         <v>72</v>
       </c>
       <c r="G137" s="43">
@@ -9722,21 +10409,25 @@
         <v>5</v>
       </c>
       <c r="I137" s="43">
-        <v>1</v>
-      </c>
-      <c r="J137" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J137,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J137" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K137" s="43">
         <v>1000000</v>
       </c>
-      <c r="K137" s="43" t="b">
+      <c r="L137" s="43" t="b">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L137" s="43">
-        <v>0</v>
-      </c>
-      <c r="M137" s="43"/>
-    </row>
-    <row r="138" spans="1:13" s="44" customFormat="1">
+      <c r="M137" s="43">
+        <v>0</v>
+      </c>
+      <c r="N137" s="43"/>
+    </row>
+    <row r="138" spans="1:14" s="44" customFormat="1">
       <c r="A138" s="43">
         <v>10134</v>
       </c>
@@ -9755,7 +10446,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F138,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>1000</v>
       </c>
-      <c r="F138" s="43" t="s">
+      <c r="F138" s="61" t="s">
         <v>72</v>
       </c>
       <c r="G138" s="43">
@@ -9765,21 +10456,25 @@
         <v>10</v>
       </c>
       <c r="I138" s="43">
-        <v>1</v>
-      </c>
-      <c r="J138" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J138,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J138" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K138" s="43">
         <v>1000000</v>
       </c>
-      <c r="K138" s="43" t="b">
+      <c r="L138" s="43" t="b">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L138" s="43">
-        <v>0</v>
-      </c>
-      <c r="M138" s="43"/>
-    </row>
-    <row r="139" spans="1:13" s="44" customFormat="1">
+      <c r="M138" s="43">
+        <v>0</v>
+      </c>
+      <c r="N138" s="43"/>
+    </row>
+    <row r="139" spans="1:14" s="44" customFormat="1">
       <c r="A139" s="43">
         <v>10135</v>
       </c>
@@ -9798,7 +10493,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F139,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F139" s="43" t="s">
+      <c r="F139" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G139" s="43">
@@ -9808,21 +10503,25 @@
         <v>1</v>
       </c>
       <c r="I139" s="43">
-        <v>1</v>
-      </c>
-      <c r="J139" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J139,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J139" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K139" s="43">
         <v>250000</v>
       </c>
-      <c r="K139" s="43" t="b">
+      <c r="L139" s="43" t="b">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="L139" s="43">
-        <v>1</v>
-      </c>
-      <c r="M139" s="43"/>
-    </row>
-    <row r="140" spans="1:13" s="44" customFormat="1">
+      <c r="M139" s="43">
+        <v>1</v>
+      </c>
+      <c r="N139" s="43"/>
+    </row>
+    <row r="140" spans="1:14" s="44" customFormat="1">
       <c r="A140" s="43">
         <v>10136</v>
       </c>
@@ -9841,7 +10540,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F140,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F140" s="43" t="s">
+      <c r="F140" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G140" s="43">
@@ -9851,21 +10550,25 @@
         <v>1</v>
       </c>
       <c r="I140" s="43">
-        <v>1</v>
-      </c>
-      <c r="J140" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J140,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J140" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K140" s="43">
         <v>250000</v>
       </c>
-      <c r="K140" s="43" t="b">
-        <f>IF(L140&gt;0,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="L140" s="43">
-        <v>2</v>
-      </c>
-      <c r="M140" s="43"/>
-    </row>
-    <row r="141" spans="1:13" s="44" customFormat="1">
+      <c r="L140" s="43" t="b">
+        <f>IF(M140&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M140" s="43">
+        <v>2</v>
+      </c>
+      <c r="N140" s="43"/>
+    </row>
+    <row r="141" spans="1:14" s="44" customFormat="1">
       <c r="A141" s="43">
         <v>10137</v>
       </c>
@@ -9884,7 +10587,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F141,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F141" s="43" t="s">
+      <c r="F141" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G141" s="43">
@@ -9894,21 +10597,25 @@
         <v>1</v>
       </c>
       <c r="I141" s="43">
-        <v>1</v>
-      </c>
-      <c r="J141" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J141,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J141" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K141" s="43">
         <v>250000</v>
       </c>
-      <c r="K141" s="43" t="b">
-        <f t="shared" ref="K141:K150" si="18">IF(L141&gt;0,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="L141" s="43">
+      <c r="L141" s="43" t="b">
+        <f t="shared" ref="L141:L150" si="18">IF(M141&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M141" s="43">
         <v>3</v>
       </c>
-      <c r="M141" s="43"/>
-    </row>
-    <row r="142" spans="1:13" s="44" customFormat="1">
+      <c r="N141" s="43"/>
+    </row>
+    <row r="142" spans="1:14" s="44" customFormat="1">
       <c r="A142" s="43">
         <v>10138</v>
       </c>
@@ -9927,7 +10634,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F142,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F142" s="43" t="s">
+      <c r="F142" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G142" s="43">
@@ -9937,21 +10644,25 @@
         <v>1</v>
       </c>
       <c r="I142" s="43">
-        <v>1</v>
-      </c>
-      <c r="J142" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J142,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J142" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K142" s="43">
         <v>250000</v>
       </c>
-      <c r="K142" s="43" t="b">
+      <c r="L142" s="43" t="b">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="L142" s="43">
-        <v>0</v>
-      </c>
-      <c r="M142" s="43"/>
-    </row>
-    <row r="143" spans="1:13">
+      <c r="M142" s="43">
+        <v>0</v>
+      </c>
+      <c r="N142" s="43"/>
+    </row>
+    <row r="143" spans="1:14">
       <c r="A143" s="43">
         <v>10139</v>
       </c>
@@ -9970,7 +10681,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F143,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F143" s="4" t="s">
+      <c r="F143" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G143" s="4">
@@ -9980,21 +10691,25 @@
         <v>5</v>
       </c>
       <c r="I143" s="4">
-        <v>2</v>
-      </c>
-      <c r="J143" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J143,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J143" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K143" s="4">
         <v>250000</v>
       </c>
-      <c r="K143" s="4" t="b">
+      <c r="L143" s="4" t="b">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="L143" s="4">
-        <v>1</v>
-      </c>
-      <c r="M143" s="4"/>
-    </row>
-    <row r="144" spans="1:13">
+      <c r="M143" s="4">
+        <v>1</v>
+      </c>
+      <c r="N143" s="4"/>
+    </row>
+    <row r="144" spans="1:14">
       <c r="A144" s="43">
         <v>10140</v>
       </c>
@@ -10013,7 +10728,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F144,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F144" s="4" t="s">
+      <c r="F144" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G144" s="4">
@@ -10023,21 +10738,25 @@
         <v>5</v>
       </c>
       <c r="I144" s="4">
-        <v>2</v>
-      </c>
-      <c r="J144" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J144,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J144" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K144" s="4">
         <v>250000</v>
       </c>
-      <c r="K144" s="4" t="b">
+      <c r="L144" s="4" t="b">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="L144" s="4">
-        <v>2</v>
-      </c>
-      <c r="M144" s="4"/>
-    </row>
-    <row r="145" spans="1:13">
+      <c r="M144" s="4">
+        <v>2</v>
+      </c>
+      <c r="N144" s="4"/>
+    </row>
+    <row r="145" spans="1:14">
       <c r="A145" s="43">
         <v>10141</v>
       </c>
@@ -10056,7 +10775,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F145,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F145" s="4" t="s">
+      <c r="F145" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G145" s="4">
@@ -10066,21 +10785,25 @@
         <v>5</v>
       </c>
       <c r="I145" s="4">
-        <v>2</v>
-      </c>
-      <c r="J145" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J145,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J145" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K145" s="4">
         <v>250000</v>
       </c>
-      <c r="K145" s="4" t="b">
+      <c r="L145" s="4" t="b">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="L145" s="4">
-        <v>0</v>
-      </c>
-      <c r="M145" s="4"/>
-    </row>
-    <row r="146" spans="1:13">
+      <c r="M145" s="4">
+        <v>0</v>
+      </c>
+      <c r="N145" s="4"/>
+    </row>
+    <row r="146" spans="1:14">
       <c r="A146" s="43">
         <v>10142</v>
       </c>
@@ -10099,7 +10822,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F146,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F146" s="4" t="s">
+      <c r="F146" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G146" s="4">
@@ -10109,21 +10832,25 @@
         <v>5</v>
       </c>
       <c r="I146" s="4">
-        <v>2</v>
-      </c>
-      <c r="J146" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J146,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J146" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K146" s="4">
         <v>250000</v>
       </c>
-      <c r="K146" s="4" t="b">
+      <c r="L146" s="4" t="b">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="L146" s="4">
-        <v>0</v>
-      </c>
-      <c r="M146" s="4"/>
-    </row>
-    <row r="147" spans="1:13" s="46" customFormat="1">
+      <c r="M146" s="4">
+        <v>0</v>
+      </c>
+      <c r="N146" s="4"/>
+    </row>
+    <row r="147" spans="1:14" s="46" customFormat="1">
       <c r="A147" s="43">
         <v>10143</v>
       </c>
@@ -10142,7 +10869,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F147,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>2</v>
       </c>
-      <c r="F147" s="45" t="s">
+      <c r="F147" s="61" t="s">
         <v>62</v>
       </c>
       <c r="G147" s="45">
@@ -10152,21 +10879,25 @@
         <v>30</v>
       </c>
       <c r="I147" s="45">
-        <v>1</v>
-      </c>
-      <c r="J147" s="45">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J147,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J147" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K147" s="45">
         <v>1000000</v>
       </c>
-      <c r="K147" s="45" t="b">
+      <c r="L147" s="45" t="b">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="L147" s="45">
-        <v>1</v>
-      </c>
-      <c r="M147" s="45"/>
-    </row>
-    <row r="148" spans="1:13" s="44" customFormat="1">
+      <c r="M147" s="45">
+        <v>1</v>
+      </c>
+      <c r="N147" s="45"/>
+    </row>
+    <row r="148" spans="1:14" s="44" customFormat="1">
       <c r="A148" s="43">
         <v>10144</v>
       </c>
@@ -10185,7 +10916,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F148,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>1000</v>
       </c>
-      <c r="F148" s="43" t="s">
+      <c r="F148" s="61" t="s">
         <v>72</v>
       </c>
       <c r="G148" s="43">
@@ -10195,21 +10926,25 @@
         <v>5</v>
       </c>
       <c r="I148" s="43">
-        <v>1</v>
-      </c>
-      <c r="J148" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J148,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J148" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K148" s="43">
         <v>1000000</v>
       </c>
-      <c r="K148" s="43" t="b">
+      <c r="L148" s="43" t="b">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="L148" s="43">
-        <v>0</v>
-      </c>
-      <c r="M148" s="43"/>
-    </row>
-    <row r="149" spans="1:13" s="44" customFormat="1">
+      <c r="M148" s="43">
+        <v>0</v>
+      </c>
+      <c r="N148" s="43"/>
+    </row>
+    <row r="149" spans="1:14" s="44" customFormat="1">
       <c r="A149" s="43">
         <v>10145</v>
       </c>
@@ -10228,7 +10963,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F149,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>1000</v>
       </c>
-      <c r="F149" s="43" t="s">
+      <c r="F149" s="61" t="s">
         <v>72</v>
       </c>
       <c r="G149" s="43">
@@ -10238,21 +10973,25 @@
         <v>10</v>
       </c>
       <c r="I149" s="43">
-        <v>1</v>
-      </c>
-      <c r="J149" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J149,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J149" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K149" s="43">
         <v>1000000</v>
       </c>
-      <c r="K149" s="43" t="b">
+      <c r="L149" s="43" t="b">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="L149" s="43">
-        <v>0</v>
-      </c>
-      <c r="M149" s="43"/>
-    </row>
-    <row r="150" spans="1:13" s="44" customFormat="1">
+      <c r="M149" s="43">
+        <v>0</v>
+      </c>
+      <c r="N149" s="43"/>
+    </row>
+    <row r="150" spans="1:14" s="44" customFormat="1">
       <c r="A150" s="43">
         <v>10146</v>
       </c>
@@ -10271,7 +11010,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F150,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F150" s="43" t="s">
+      <c r="F150" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G150" s="43">
@@ -10281,21 +11020,25 @@
         <v>1</v>
       </c>
       <c r="I150" s="43">
-        <v>1</v>
-      </c>
-      <c r="J150" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J150,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J150" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K150" s="43">
         <v>250000</v>
       </c>
-      <c r="K150" s="43" t="b">
+      <c r="L150" s="43" t="b">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="L150" s="43">
-        <v>1</v>
-      </c>
-      <c r="M150" s="43"/>
-    </row>
-    <row r="151" spans="1:13" s="44" customFormat="1">
+      <c r="M150" s="43">
+        <v>1</v>
+      </c>
+      <c r="N150" s="43"/>
+    </row>
+    <row r="151" spans="1:14" s="44" customFormat="1">
       <c r="A151" s="43">
         <v>10147</v>
       </c>
@@ -10314,7 +11057,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F151,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F151" s="43" t="s">
+      <c r="F151" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G151" s="43">
@@ -10324,21 +11067,25 @@
         <v>1</v>
       </c>
       <c r="I151" s="43">
-        <v>1</v>
-      </c>
-      <c r="J151" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J151,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J151" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K151" s="43">
         <v>250000</v>
       </c>
-      <c r="K151" s="43" t="b">
-        <f>IF(L151&gt;0,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="L151" s="43">
-        <v>2</v>
-      </c>
-      <c r="M151" s="43"/>
-    </row>
-    <row r="152" spans="1:13" s="44" customFormat="1">
+      <c r="L151" s="43" t="b">
+        <f>IF(M151&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M151" s="43">
+        <v>2</v>
+      </c>
+      <c r="N151" s="43"/>
+    </row>
+    <row r="152" spans="1:14" s="44" customFormat="1">
       <c r="A152" s="43">
         <v>10148</v>
       </c>
@@ -10357,7 +11104,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F152,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F152" s="43" t="s">
+      <c r="F152" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G152" s="43">
@@ -10367,21 +11114,25 @@
         <v>1</v>
       </c>
       <c r="I152" s="43">
-        <v>1</v>
-      </c>
-      <c r="J152" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J152,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J152" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K152" s="43">
         <v>250000</v>
       </c>
-      <c r="K152" s="43" t="b">
-        <f t="shared" ref="K152:K158" si="19">IF(L152&gt;0,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="L152" s="43">
+      <c r="L152" s="43" t="b">
+        <f t="shared" ref="L152:L158" si="19">IF(M152&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M152" s="43">
         <v>3</v>
       </c>
-      <c r="M152" s="43"/>
-    </row>
-    <row r="153" spans="1:13" s="44" customFormat="1">
+      <c r="N152" s="43"/>
+    </row>
+    <row r="153" spans="1:14" s="44" customFormat="1">
       <c r="A153" s="43">
         <v>10149</v>
       </c>
@@ -10400,7 +11151,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F153,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F153" s="43" t="s">
+      <c r="F153" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G153" s="43">
@@ -10410,21 +11161,25 @@
         <v>1</v>
       </c>
       <c r="I153" s="43">
-        <v>1</v>
-      </c>
-      <c r="J153" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J153,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J153" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K153" s="43">
         <v>250000</v>
       </c>
-      <c r="K153" s="43" t="b">
+      <c r="L153" s="43" t="b">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="L153" s="43">
-        <v>0</v>
-      </c>
-      <c r="M153" s="43"/>
-    </row>
-    <row r="154" spans="1:13">
+      <c r="M153" s="43">
+        <v>0</v>
+      </c>
+      <c r="N153" s="43"/>
+    </row>
+    <row r="154" spans="1:14">
       <c r="A154" s="43">
         <v>10150</v>
       </c>
@@ -10443,7 +11198,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F154,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F154" s="4" t="s">
+      <c r="F154" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G154" s="4">
@@ -10453,21 +11208,25 @@
         <v>5</v>
       </c>
       <c r="I154" s="4">
-        <v>2</v>
-      </c>
-      <c r="J154" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J154,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J154" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K154" s="4">
         <v>250000</v>
       </c>
-      <c r="K154" s="4" t="b">
+      <c r="L154" s="4" t="b">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="L154" s="4">
-        <v>1</v>
-      </c>
-      <c r="M154" s="4"/>
-    </row>
-    <row r="155" spans="1:13">
+      <c r="M154" s="4">
+        <v>1</v>
+      </c>
+      <c r="N154" s="4"/>
+    </row>
+    <row r="155" spans="1:14">
       <c r="A155" s="43">
         <v>10151</v>
       </c>
@@ -10486,7 +11245,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F155,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F155" s="4" t="s">
+      <c r="F155" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G155" s="4">
@@ -10496,21 +11255,25 @@
         <v>5</v>
       </c>
       <c r="I155" s="4">
-        <v>2</v>
-      </c>
-      <c r="J155" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J155,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J155" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K155" s="4">
         <v>250000</v>
       </c>
-      <c r="K155" s="4" t="b">
+      <c r="L155" s="4" t="b">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="L155" s="4">
-        <v>2</v>
-      </c>
-      <c r="M155" s="4"/>
-    </row>
-    <row r="156" spans="1:13">
+      <c r="M155" s="4">
+        <v>2</v>
+      </c>
+      <c r="N155" s="4"/>
+    </row>
+    <row r="156" spans="1:14">
       <c r="A156" s="43">
         <v>10152</v>
       </c>
@@ -10529,7 +11292,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F156,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F156" s="4" t="s">
+      <c r="F156" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G156" s="4">
@@ -10539,21 +11302,25 @@
         <v>5</v>
       </c>
       <c r="I156" s="4">
-        <v>2</v>
-      </c>
-      <c r="J156" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J156,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J156" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K156" s="4">
         <v>250000</v>
       </c>
-      <c r="K156" s="4" t="b">
+      <c r="L156" s="4" t="b">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="L156" s="4">
-        <v>0</v>
-      </c>
-      <c r="M156" s="4"/>
-    </row>
-    <row r="157" spans="1:13">
+      <c r="M156" s="4">
+        <v>0</v>
+      </c>
+      <c r="N156" s="4"/>
+    </row>
+    <row r="157" spans="1:14">
       <c r="A157" s="43">
         <v>10153</v>
       </c>
@@ -10572,7 +11339,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F157,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F157" s="4" t="s">
+      <c r="F157" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G157" s="4">
@@ -10582,21 +11349,25 @@
         <v>5</v>
       </c>
       <c r="I157" s="4">
-        <v>2</v>
-      </c>
-      <c r="J157" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J157,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J157" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K157" s="4">
         <v>250000</v>
       </c>
-      <c r="K157" s="4" t="b">
+      <c r="L157" s="4" t="b">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="L157" s="4">
-        <v>0</v>
-      </c>
-      <c r="M157" s="4"/>
-    </row>
-    <row r="158" spans="1:13" s="46" customFormat="1">
+      <c r="M157" s="4">
+        <v>0</v>
+      </c>
+      <c r="N157" s="4"/>
+    </row>
+    <row r="158" spans="1:14" s="46" customFormat="1">
       <c r="A158" s="43">
         <v>10154</v>
       </c>
@@ -10615,7 +11386,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F158,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>2</v>
       </c>
-      <c r="F158" s="45" t="s">
+      <c r="F158" s="61" t="s">
         <v>62</v>
       </c>
       <c r="G158" s="45">
@@ -10625,21 +11396,25 @@
         <v>30</v>
       </c>
       <c r="I158" s="45">
-        <v>1</v>
-      </c>
-      <c r="J158" s="45">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J158,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J158" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K158" s="45">
         <v>1000000</v>
       </c>
-      <c r="K158" s="45" t="b">
+      <c r="L158" s="45" t="b">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="L158" s="45">
-        <v>1</v>
-      </c>
-      <c r="M158" s="45"/>
-    </row>
-    <row r="159" spans="1:13" s="44" customFormat="1">
+      <c r="M158" s="45">
+        <v>1</v>
+      </c>
+      <c r="N158" s="45"/>
+    </row>
+    <row r="159" spans="1:14" s="44" customFormat="1">
       <c r="A159" s="43">
         <v>10155</v>
       </c>
@@ -10658,7 +11433,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F159,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>1000</v>
       </c>
-      <c r="F159" s="43" t="s">
+      <c r="F159" s="61" t="s">
         <v>72</v>
       </c>
       <c r="G159" s="43">
@@ -10668,21 +11443,25 @@
         <v>5</v>
       </c>
       <c r="I159" s="43">
-        <v>1</v>
-      </c>
-      <c r="J159" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J159,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J159" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K159" s="43">
         <v>1000000</v>
       </c>
-      <c r="K159" s="43" t="b">
+      <c r="L159" s="43" t="b">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L159" s="43">
-        <v>0</v>
-      </c>
-      <c r="M159" s="43"/>
-    </row>
-    <row r="160" spans="1:13" s="44" customFormat="1">
+      <c r="M159" s="43">
+        <v>0</v>
+      </c>
+      <c r="N159" s="43"/>
+    </row>
+    <row r="160" spans="1:14" s="44" customFormat="1">
       <c r="A160" s="43">
         <v>10156</v>
       </c>
@@ -10701,7 +11480,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F160,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>1000</v>
       </c>
-      <c r="F160" s="43" t="s">
+      <c r="F160" s="61" t="s">
         <v>72</v>
       </c>
       <c r="G160" s="43">
@@ -10711,21 +11490,25 @@
         <v>10</v>
       </c>
       <c r="I160" s="43">
-        <v>1</v>
-      </c>
-      <c r="J160" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J160,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J160" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K160" s="43">
         <v>1000000</v>
       </c>
-      <c r="K160" s="43" t="b">
+      <c r="L160" s="43" t="b">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L160" s="43">
-        <v>0</v>
-      </c>
-      <c r="M160" s="43"/>
-    </row>
-    <row r="161" spans="1:13" s="44" customFormat="1">
+      <c r="M160" s="43">
+        <v>0</v>
+      </c>
+      <c r="N160" s="43"/>
+    </row>
+    <row r="161" spans="1:14" s="44" customFormat="1">
       <c r="A161" s="43">
         <v>10157</v>
       </c>
@@ -10744,7 +11527,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F161,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F161" s="43" t="s">
+      <c r="F161" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G161" s="43">
@@ -10754,21 +11537,25 @@
         <v>1</v>
       </c>
       <c r="I161" s="43">
-        <v>1</v>
-      </c>
-      <c r="J161" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J161,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J161" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K161" s="43">
         <v>250000</v>
       </c>
-      <c r="K161" s="43" t="b">
+      <c r="L161" s="43" t="b">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L161" s="43">
-        <v>1</v>
-      </c>
-      <c r="M161" s="43"/>
-    </row>
-    <row r="162" spans="1:13" s="44" customFormat="1">
+      <c r="M161" s="43">
+        <v>1</v>
+      </c>
+      <c r="N161" s="43"/>
+    </row>
+    <row r="162" spans="1:14" s="44" customFormat="1">
       <c r="A162" s="43">
         <v>10158</v>
       </c>
@@ -10787,7 +11574,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F162,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F162" s="43" t="s">
+      <c r="F162" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G162" s="43">
@@ -10797,21 +11584,25 @@
         <v>1</v>
       </c>
       <c r="I162" s="43">
-        <v>1</v>
-      </c>
-      <c r="J162" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J162,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J162" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K162" s="43">
         <v>250000</v>
       </c>
-      <c r="K162" s="43" t="b">
-        <f>IF(L162&gt;0,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="L162" s="43">
-        <v>2</v>
-      </c>
-      <c r="M162" s="43"/>
-    </row>
-    <row r="163" spans="1:13" s="44" customFormat="1">
+      <c r="L162" s="43" t="b">
+        <f>IF(M162&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M162" s="43">
+        <v>2</v>
+      </c>
+      <c r="N162" s="43"/>
+    </row>
+    <row r="163" spans="1:14" s="44" customFormat="1">
       <c r="A163" s="43">
         <v>10159</v>
       </c>
@@ -10830,7 +11621,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F163,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F163" s="43" t="s">
+      <c r="F163" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G163" s="43">
@@ -10840,21 +11631,25 @@
         <v>1</v>
       </c>
       <c r="I163" s="43">
-        <v>1</v>
-      </c>
-      <c r="J163" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J163,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J163" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K163" s="43">
         <v>250000</v>
       </c>
-      <c r="K163" s="43" t="b">
-        <f t="shared" ref="K163:K169" si="20">IF(L163&gt;0,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="L163" s="43">
+      <c r="L163" s="43" t="b">
+        <f t="shared" ref="L163:L169" si="20">IF(M163&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M163" s="43">
         <v>3</v>
       </c>
-      <c r="M163" s="43"/>
-    </row>
-    <row r="164" spans="1:13" s="44" customFormat="1">
+      <c r="N163" s="43"/>
+    </row>
+    <row r="164" spans="1:14" s="44" customFormat="1">
       <c r="A164" s="43">
         <v>10160</v>
       </c>
@@ -10873,7 +11668,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F164,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F164" s="43" t="s">
+      <c r="F164" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G164" s="43">
@@ -10883,21 +11678,25 @@
         <v>1</v>
       </c>
       <c r="I164" s="43">
-        <v>1</v>
-      </c>
-      <c r="J164" s="43">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J164,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J164" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K164" s="43">
         <v>250000</v>
       </c>
-      <c r="K164" s="43" t="b">
+      <c r="L164" s="43" t="b">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L164" s="43">
-        <v>0</v>
-      </c>
-      <c r="M164" s="43"/>
-    </row>
-    <row r="165" spans="1:13">
+      <c r="M164" s="43">
+        <v>0</v>
+      </c>
+      <c r="N164" s="43"/>
+    </row>
+    <row r="165" spans="1:14">
       <c r="A165" s="43">
         <v>10161</v>
       </c>
@@ -10916,7 +11715,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F165,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F165" s="4" t="s">
+      <c r="F165" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G165" s="4">
@@ -10926,21 +11725,25 @@
         <v>5</v>
       </c>
       <c r="I165" s="4">
-        <v>2</v>
-      </c>
-      <c r="J165" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J165,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J165" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K165" s="4">
         <v>250000</v>
       </c>
-      <c r="K165" s="4" t="b">
+      <c r="L165" s="4" t="b">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="L165" s="4">
-        <v>1</v>
-      </c>
-      <c r="M165" s="4"/>
-    </row>
-    <row r="166" spans="1:13">
+      <c r="M165" s="4">
+        <v>1</v>
+      </c>
+      <c r="N165" s="4"/>
+    </row>
+    <row r="166" spans="1:14">
       <c r="A166" s="43">
         <v>10162</v>
       </c>
@@ -10959,7 +11762,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F166,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F166" s="4" t="s">
+      <c r="F166" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G166" s="4">
@@ -10969,21 +11772,25 @@
         <v>5</v>
       </c>
       <c r="I166" s="4">
-        <v>2</v>
-      </c>
-      <c r="J166" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J166,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J166" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K166" s="4">
         <v>250000</v>
       </c>
-      <c r="K166" s="4" t="b">
+      <c r="L166" s="4" t="b">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="L166" s="4">
-        <v>2</v>
-      </c>
-      <c r="M166" s="4"/>
-    </row>
-    <row r="167" spans="1:13">
+      <c r="M166" s="4">
+        <v>2</v>
+      </c>
+      <c r="N166" s="4"/>
+    </row>
+    <row r="167" spans="1:14">
       <c r="A167" s="43">
         <v>10163</v>
       </c>
@@ -11002,7 +11809,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F167,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F167" s="4" t="s">
+      <c r="F167" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G167" s="4">
@@ -11012,21 +11819,25 @@
         <v>5</v>
       </c>
       <c r="I167" s="4">
-        <v>2</v>
-      </c>
-      <c r="J167" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J167,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J167" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K167" s="4">
         <v>250000</v>
       </c>
-      <c r="K167" s="4" t="b">
+      <c r="L167" s="4" t="b">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L167" s="4">
-        <v>0</v>
-      </c>
-      <c r="M167" s="4"/>
-    </row>
-    <row r="168" spans="1:13">
+      <c r="M167" s="4">
+        <v>0</v>
+      </c>
+      <c r="N167" s="4"/>
+    </row>
+    <row r="168" spans="1:14">
       <c r="A168" s="43">
         <v>10164</v>
       </c>
@@ -11045,7 +11856,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F168,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>112</v>
       </c>
-      <c r="F168" s="4" t="s">
+      <c r="F168" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G168" s="4">
@@ -11055,21 +11866,25 @@
         <v>5</v>
       </c>
       <c r="I168" s="4">
-        <v>2</v>
-      </c>
-      <c r="J168" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J168,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J168" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K168" s="4">
         <v>250000</v>
       </c>
-      <c r="K168" s="4" t="b">
+      <c r="L168" s="4" t="b">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L168" s="4">
-        <v>0</v>
-      </c>
-      <c r="M168" s="4"/>
-    </row>
-    <row r="169" spans="1:13" s="46" customFormat="1">
+      <c r="M168" s="4">
+        <v>0</v>
+      </c>
+      <c r="N168" s="4"/>
+    </row>
+    <row r="169" spans="1:14" s="46" customFormat="1">
       <c r="A169" s="43">
         <v>10165</v>
       </c>
@@ -11088,7 +11903,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F169,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>2</v>
       </c>
-      <c r="F169" s="45" t="s">
+      <c r="F169" s="61" t="s">
         <v>62</v>
       </c>
       <c r="G169" s="45">
@@ -11098,19 +11913,23 @@
         <v>100</v>
       </c>
       <c r="I169" s="45">
-        <v>1</v>
-      </c>
-      <c r="J169" s="45">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(J169,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J169" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K169" s="45">
         <v>1000000</v>
       </c>
-      <c r="K169" s="45" t="b">
+      <c r="L169" s="45" t="b">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="L169" s="45">
-        <v>1</v>
-      </c>
-      <c r="M169" s="45"/>
+      <c r="M169" s="45">
+        <v>1</v>
+      </c>
+      <c r="N169" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -11118,13 +11937,19 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BEC3969E-03AC-433B-B57B-D65FFD6FE8AA}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$G$3:$G$42</xm:f>
           </x14:formula1>
           <xm:sqref>F5:F169</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DBB16A7D-4803-49B0-B5E8-D7E90DB055D9}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$K$3:$K$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>J5:J169</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>

--- a/Android/ExcelData/RewardTable.xlsx
+++ b/Android/ExcelData/RewardTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF78035-E58B-4D52-B4E0-E87E7423E57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55663369-F1A9-4FAB-BB5A-A83101A5FAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="855" windowWidth="37215" windowHeight="19335" activeTab="2" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
+    <workbookView xWindow="38790" yWindow="1035" windowWidth="37215" windowHeight="19335" activeTab="2" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
   </bookViews>
   <sheets>
     <sheet name="!사용 설명" sheetId="6" r:id="rId1"/>
@@ -4603,7 +4603,7 @@
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4812,10 +4812,10 @@
       </c>
       <c r="M5" s="42" t="b">
         <f t="shared" ref="M5:M11" si="2">IF(N5&gt;0,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="42"/>
     </row>
@@ -4863,10 +4863,10 @@
       </c>
       <c r="M6" s="42" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6" s="42"/>
     </row>
@@ -5121,7 +5121,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O11" s="42"/>
     </row>
@@ -5172,7 +5172,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O12" s="42"/>
     </row>
@@ -5223,7 +5223,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O13" s="42"/>
     </row>
@@ -5271,10 +5271,10 @@
       </c>
       <c r="M14" s="42" t="b">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O14" s="42"/>
     </row>
@@ -5526,10 +5526,10 @@
       </c>
       <c r="M19" s="42" t="b">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="42"/>
     </row>
@@ -5577,10 +5577,10 @@
       </c>
       <c r="M20" s="42" t="b">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O20" s="42"/>
     </row>
@@ -5835,7 +5835,7 @@
         <v>1</v>
       </c>
       <c r="N25" s="42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O25" s="42"/>
     </row>
@@ -5886,7 +5886,7 @@
         <v>1</v>
       </c>
       <c r="N26" s="42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O26" s="42"/>
     </row>
@@ -5937,7 +5937,7 @@
         <v>1</v>
       </c>
       <c r="N27" s="42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O27" s="42"/>
     </row>
@@ -5985,10 +5985,10 @@
       </c>
       <c r="M28" s="42" t="b">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O28" s="42"/>
     </row>
@@ -6240,10 +6240,10 @@
       </c>
       <c r="M33" s="42" t="b">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="42"/>
     </row>
@@ -6291,10 +6291,10 @@
       </c>
       <c r="M34" s="42" t="b">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" s="42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O34" s="42"/>
     </row>
@@ -6549,7 +6549,7 @@
         <v>1</v>
       </c>
       <c r="N39" s="42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O39" s="42"/>
     </row>
@@ -6600,7 +6600,7 @@
         <v>1</v>
       </c>
       <c r="N40" s="42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O40" s="42"/>
     </row>
@@ -6651,7 +6651,7 @@
         <v>1</v>
       </c>
       <c r="N41" s="42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O41" s="42"/>
     </row>
@@ -6699,10 +6699,10 @@
       </c>
       <c r="M42" s="42" t="b">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" s="42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O42" s="42"/>
     </row>
@@ -6954,10 +6954,10 @@
       </c>
       <c r="M47" s="42" t="b">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" s="42"/>
     </row>
@@ -7005,10 +7005,10 @@
       </c>
       <c r="M48" s="42" t="b">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48" s="42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O48" s="42"/>
     </row>
@@ -7263,7 +7263,7 @@
         <v>1</v>
       </c>
       <c r="N53" s="42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O53" s="42"/>
     </row>
@@ -7314,7 +7314,7 @@
         <v>1</v>
       </c>
       <c r="N54" s="42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O54" s="42"/>
     </row>
@@ -7365,7 +7365,7 @@
         <v>1</v>
       </c>
       <c r="N55" s="42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O55" s="42"/>
     </row>
@@ -7413,10 +7413,10 @@
       </c>
       <c r="M56" s="42" t="b">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" s="42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O56" s="42"/>
     </row>
@@ -7668,10 +7668,10 @@
       </c>
       <c r="M61" s="42" t="b">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O61" s="42"/>
     </row>
@@ -7719,10 +7719,10 @@
       </c>
       <c r="M62" s="42" t="b">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N62" s="42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O62" s="42"/>
     </row>
@@ -7977,7 +7977,7 @@
         <v>1</v>
       </c>
       <c r="N67" s="42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O67" s="42"/>
     </row>
@@ -8028,7 +8028,7 @@
         <v>1</v>
       </c>
       <c r="N68" s="42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O68" s="42"/>
     </row>
@@ -8079,7 +8079,7 @@
         <v>1</v>
       </c>
       <c r="N69" s="42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O69" s="42"/>
     </row>
@@ -8127,10 +8127,10 @@
       </c>
       <c r="M70" s="42" t="b">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70" s="42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O70" s="42"/>
     </row>
@@ -8382,10 +8382,10 @@
       </c>
       <c r="M75" s="42" t="b">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N75" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O75" s="42"/>
     </row>
@@ -8433,10 +8433,10 @@
       </c>
       <c r="M76" s="42" t="b">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N76" s="42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O76" s="42"/>
     </row>
@@ -8691,7 +8691,7 @@
         <v>1</v>
       </c>
       <c r="N81" s="42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O81" s="42"/>
     </row>
@@ -8742,7 +8742,7 @@
         <v>1</v>
       </c>
       <c r="N82" s="42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O82" s="42"/>
     </row>
@@ -8793,7 +8793,7 @@
         <v>1</v>
       </c>
       <c r="N83" s="42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O83" s="42"/>
     </row>
@@ -8841,10 +8841,10 @@
       </c>
       <c r="M84" s="42" t="b">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N84" s="42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O84" s="42"/>
     </row>
@@ -9096,10 +9096,10 @@
       </c>
       <c r="M89" s="42" t="b">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N89" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O89" s="42"/>
     </row>
@@ -9147,10 +9147,10 @@
       </c>
       <c r="M90" s="42" t="b">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N90" s="42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O90" s="42"/>
     </row>
@@ -9405,7 +9405,7 @@
         <v>1</v>
       </c>
       <c r="N95" s="42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O95" s="42"/>
     </row>
@@ -9456,7 +9456,7 @@
         <v>1</v>
       </c>
       <c r="N96" s="42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O96" s="42"/>
     </row>
@@ -9507,7 +9507,7 @@
         <v>1</v>
       </c>
       <c r="N97" s="42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O97" s="42"/>
     </row>
@@ -9555,10 +9555,10 @@
       </c>
       <c r="M98" s="42" t="b">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N98" s="42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O98" s="42"/>
     </row>
@@ -9810,10 +9810,10 @@
       </c>
       <c r="M103" s="42" t="b">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N103" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O103" s="42"/>
     </row>
@@ -9861,10 +9861,10 @@
       </c>
       <c r="M104" s="42" t="b">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N104" s="42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O104" s="42"/>
     </row>
@@ -10119,7 +10119,7 @@
         <v>1</v>
       </c>
       <c r="N109" s="42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O109" s="42"/>
     </row>
@@ -10170,7 +10170,7 @@
         <v>1</v>
       </c>
       <c r="N110" s="42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O110" s="42"/>
     </row>
@@ -10221,7 +10221,7 @@
         <v>1</v>
       </c>
       <c r="N111" s="42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O111" s="42"/>
     </row>
@@ -10269,10 +10269,10 @@
       </c>
       <c r="M112" s="42" t="b">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N112" s="42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O112" s="42"/>
     </row>
@@ -10524,10 +10524,10 @@
       </c>
       <c r="M117" s="42" t="b">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N117" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O117" s="42"/>
     </row>
@@ -10575,10 +10575,10 @@
       </c>
       <c r="M118" s="42" t="b">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N118" s="42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O118" s="42"/>
     </row>
@@ -10833,7 +10833,7 @@
         <v>1</v>
       </c>
       <c r="N123" s="42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O123" s="42"/>
     </row>
@@ -10884,7 +10884,7 @@
         <v>1</v>
       </c>
       <c r="N124" s="42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O124" s="42"/>
     </row>
@@ -10935,7 +10935,7 @@
         <v>1</v>
       </c>
       <c r="N125" s="42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O125" s="42"/>
     </row>
@@ -10983,10 +10983,10 @@
       </c>
       <c r="M126" s="42" t="b">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N126" s="42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O126" s="42"/>
     </row>
@@ -11238,10 +11238,10 @@
       </c>
       <c r="M131" s="42" t="b">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N131" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O131" s="42"/>
     </row>
@@ -11289,10 +11289,10 @@
       </c>
       <c r="M132" s="42" t="b">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N132" s="42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O132" s="42"/>
     </row>
@@ -11547,7 +11547,7 @@
         <v>1</v>
       </c>
       <c r="N137" s="42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O137" s="42"/>
     </row>
@@ -11598,7 +11598,7 @@
         <v>1</v>
       </c>
       <c r="N138" s="42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O138" s="42"/>
     </row>
@@ -11649,7 +11649,7 @@
         <v>1</v>
       </c>
       <c r="N139" s="42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O139" s="42"/>
     </row>
@@ -11697,10 +11697,10 @@
       </c>
       <c r="M140" s="42" t="b">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N140" s="42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O140" s="42"/>
     </row>
@@ -11952,10 +11952,10 @@
       </c>
       <c r="M145" s="42" t="b">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N145" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O145" s="42"/>
     </row>
@@ -12003,10 +12003,10 @@
       </c>
       <c r="M146" s="42" t="b">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N146" s="42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O146" s="42"/>
     </row>
@@ -12261,7 +12261,7 @@
         <v>1</v>
       </c>
       <c r="N151" s="42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O151" s="42"/>
     </row>
@@ -12312,7 +12312,7 @@
         <v>1</v>
       </c>
       <c r="N152" s="42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O152" s="42"/>
     </row>
@@ -12363,7 +12363,7 @@
         <v>1</v>
       </c>
       <c r="N153" s="42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O153" s="42"/>
     </row>
@@ -12411,10 +12411,10 @@
       </c>
       <c r="M154" s="42" t="b">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N154" s="42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O154" s="42"/>
     </row>
@@ -12666,10 +12666,10 @@
       </c>
       <c r="M159" s="42" t="b">
         <f t="shared" ref="M159:M165" si="22">IF(N159&gt;0,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N159" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O159" s="42"/>
     </row>
@@ -12717,10 +12717,10 @@
       </c>
       <c r="M160" s="42" t="b">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N160" s="42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O160" s="42"/>
     </row>
@@ -12975,7 +12975,7 @@
         <v>1</v>
       </c>
       <c r="N165" s="42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O165" s="42"/>
     </row>
@@ -13026,7 +13026,7 @@
         <v>1</v>
       </c>
       <c r="N166" s="42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O166" s="42"/>
     </row>
@@ -13077,7 +13077,7 @@
         <v>1</v>
       </c>
       <c r="N167" s="42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O167" s="42"/>
     </row>
@@ -13125,10 +13125,10 @@
       </c>
       <c r="M168" s="42" t="b">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N168" s="42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O168" s="42"/>
     </row>
@@ -13380,10 +13380,10 @@
       </c>
       <c r="M173" s="42" t="b">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N173" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O173" s="42"/>
     </row>
@@ -13431,10 +13431,10 @@
       </c>
       <c r="M174" s="42" t="b">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N174" s="42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O174" s="42"/>
     </row>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="N179" s="42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O179" s="42"/>
     </row>
@@ -13740,7 +13740,7 @@
         <v>1</v>
       </c>
       <c r="N180" s="42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O180" s="42"/>
     </row>
@@ -13791,7 +13791,7 @@
         <v>1</v>
       </c>
       <c r="N181" s="42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O181" s="42"/>
     </row>
@@ -13839,10 +13839,10 @@
       </c>
       <c r="M182" s="42" t="b">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N182" s="42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O182" s="42"/>
     </row>
@@ -14094,10 +14094,10 @@
       </c>
       <c r="M187" s="42" t="b">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N187" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O187" s="42"/>
     </row>
@@ -14145,10 +14145,10 @@
       </c>
       <c r="M188" s="42" t="b">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N188" s="42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O188" s="42"/>
     </row>
@@ -14403,7 +14403,7 @@
         <v>1</v>
       </c>
       <c r="N193" s="42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O193" s="42"/>
     </row>
@@ -14454,7 +14454,7 @@
         <v>1</v>
       </c>
       <c r="N194" s="42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O194" s="42"/>
     </row>
@@ -14505,7 +14505,7 @@
         <v>1</v>
       </c>
       <c r="N195" s="42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O195" s="42"/>
     </row>
@@ -14553,10 +14553,10 @@
       </c>
       <c r="M196" s="42" t="b">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N196" s="42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O196" s="42"/>
     </row>
@@ -14808,10 +14808,10 @@
       </c>
       <c r="M201" s="42" t="b">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N201" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O201" s="42"/>
     </row>
@@ -14859,10 +14859,10 @@
       </c>
       <c r="M202" s="42" t="b">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N202" s="42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O202" s="42"/>
     </row>
@@ -15117,7 +15117,7 @@
         <v>1</v>
       </c>
       <c r="N207" s="42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O207" s="42"/>
     </row>
@@ -15168,7 +15168,7 @@
         <v>1</v>
       </c>
       <c r="N208" s="42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O208" s="42"/>
     </row>
@@ -15219,7 +15219,7 @@
         <v>1</v>
       </c>
       <c r="N209" s="42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O209" s="42"/>
     </row>
@@ -15267,10 +15267,10 @@
       </c>
       <c r="M210" s="42" t="b">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N210" s="42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O210" s="42"/>
     </row>

--- a/Android/ExcelData/RewardTable.xlsx
+++ b/Android/ExcelData/RewardTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55663369-F1A9-4FAB-BB5A-A83101A5FAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA99F06E-AD3A-48A4-98C3-B958A195124D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38790" yWindow="1035" windowWidth="37215" windowHeight="19335" activeTab="2" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
+    <workbookView xWindow="40095" yWindow="315" windowWidth="34770" windowHeight="19395" activeTab="2" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
   </bookViews>
   <sheets>
     <sheet name="!사용 설명" sheetId="6" r:id="rId1"/>
@@ -421,7 +421,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="82">
   <si>
     <t>Reward_Set_Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -943,7 +943,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1097,13 +1097,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1249,6 +1277,30 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1411,29 +1463,83 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SECOND_TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>STAT_MULTIPLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
+      <sheetData sheetId="13">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ONETIME_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DURATION_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="16">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>GAME_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="17">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PERSISTENCE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21">
+      <sheetData sheetId="20">
         <row r="1">
           <cell r="A1" t="str">
-            <v>LIMIT_TYPE</v>
+            <v>SKILL_TYPE</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
@@ -1685,9 +1791,21 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="30"/>
+      <sheetData sheetId="30">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_COUNT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
+      <sheetData sheetId="32">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ATTRIBUTE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="33"/>
       <sheetData sheetId="34" refreshError="1"/>
       <sheetData sheetId="35" refreshError="1"/>
@@ -2850,7 +2968,7 @@
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -4597,13 +4715,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA56BF33-0599-44CF-8176-19546E225369}">
-  <dimension ref="A1:O214"/>
+  <dimension ref="A1:O254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="4" topLeftCell="G220" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="D256" sqref="D256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -15384,11 +15502,11 @@
         <v>11001015</v>
       </c>
       <c r="C213" s="4" t="str">
-        <f t="shared" ref="C213:C214" si="29">IF(MID(B213, 1, 1) = "1", "메인 스테이지", IF(MID(B213, 1, 1) = "2", "일일던전", IF(MID(B213, 1, 1) = "3", "보스전", "다른 경우")))</f>
+        <f t="shared" ref="C213:C222" si="29">IF(MID(B213, 1, 1) = "1", "메인 스테이지", IF(MID(B213, 1, 1) = "2", "일일던전", IF(MID(B213, 1, 1) = "3", "보스전", "다른 경우")))</f>
         <v>메인 스테이지</v>
       </c>
       <c r="D213" s="4" t="str">
-        <f t="shared" ref="D213:D214" si="30">IF(MID(B213, 2, 1) = "0", "통상", IF(MID(B213, 2, 1) = "1", "초회", IF(MID(B213, 2, 1) = "2", "별 보상", "다른 경우")))</f>
+        <f t="shared" ref="D213:D222" si="30">IF(MID(B213, 2, 1) = "0", "통상", IF(MID(B213, 2, 1) = "1", "초회", IF(MID(B213, 2, 1) = "2", "별 보상", "다른 경우")))</f>
         <v>초회</v>
       </c>
       <c r="E213" s="4">
@@ -15419,7 +15537,7 @@
         <v>1000000</v>
       </c>
       <c r="M213" s="4" t="b">
-        <f t="shared" ref="M213:M214" si="31">IF(N213&gt;0,TRUE,FALSE)</f>
+        <f t="shared" ref="M213:M221" si="31">IF(N213&gt;0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="N213" s="4">
@@ -15427,56 +15545,2096 @@
       </c>
       <c r="O213" s="4"/>
     </row>
-    <row r="214" spans="1:15">
-      <c r="A214" s="42">
+    <row r="214" spans="1:15" ht="17.25" thickBot="1">
+      <c r="A214" s="68">
         <v>10210</v>
       </c>
-      <c r="B214" s="44">
+      <c r="B214" s="69">
         <v>12001015</v>
       </c>
-      <c r="C214" s="44" t="str">
+      <c r="C214" s="69" t="str">
         <f t="shared" si="29"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="D214" s="44" t="str">
+      <c r="D214" s="69" t="str">
         <f t="shared" si="30"/>
         <v>별 보상</v>
       </c>
-      <c r="E214" s="44">
+      <c r="E214" s="69">
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F214,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>2</v>
       </c>
-      <c r="F214" s="49" t="s">
+      <c r="F214" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="G214" s="44">
+      <c r="G214" s="69">
         <v>100</v>
       </c>
-      <c r="H214" s="53" t="str" cm="1">
+      <c r="H214" s="71" t="str" cm="1">
         <f t="array" ref="H214">IF(E214=1000,VLOOKUP(G214,[2]item!$A$5:$C$10000,3,FALSE),IF(E214=112,VLOOKUP(G214,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E214=1,"골드",IF(E214=2,"보석",IF(E214=3,"스테미나",IF(E214=4,"호감도",IF(E214=5,"플레이어 경험치",IF(E214=6,"캐릭터 경험치",IF(E214=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E214=8,VLOOKUP(G214,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E214=111,VLOOKUP(G214,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E214=113,VLOOKUP(G214,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>보석</v>
       </c>
-      <c r="I214" s="44">
+      <c r="I214" s="69">
         <v>100</v>
       </c>
-      <c r="J214" s="44">
+      <c r="J214" s="69">
         <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K214,'!참조_ENUM'!$K$3:$K$5,0))</f>
         <v>1</v>
       </c>
-      <c r="K214" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="L214" s="44">
-        <v>1000000</v>
-      </c>
-      <c r="M214" s="44" t="b">
+      <c r="K214" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="L214" s="69">
+        <v>1000000</v>
+      </c>
+      <c r="M214" s="69" t="b">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="N214" s="44">
+      <c r="N214" s="69">
         <v>4</v>
       </c>
-      <c r="O214" s="4"/>
+      <c r="O214" s="72"/>
+    </row>
+    <row r="215" spans="1:15">
+      <c r="A215" s="65">
+        <v>10211</v>
+      </c>
+      <c r="B215" s="65">
+        <v>30100101</v>
+      </c>
+      <c r="C215" s="65" t="str">
+        <f t="shared" si="29"/>
+        <v>보스전</v>
+      </c>
+      <c r="D215" s="65" t="str">
+        <f t="shared" si="30"/>
+        <v>통상</v>
+      </c>
+      <c r="E215" s="65">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F215,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1000</v>
+      </c>
+      <c r="F215" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="G215" s="65">
+        <v>16</v>
+      </c>
+      <c r="H215" s="67" t="str" cm="1">
+        <f t="array" ref="H215">IF(E215=1000,VLOOKUP(G215,[2]item!$A$5:$C$10000,3,FALSE),IF(E215=112,VLOOKUP(G215,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E215=1,"골드",IF(E215=2,"보석",IF(E215=3,"스테미나",IF(E215=4,"호감도",IF(E215=5,"플레이어 경험치",IF(E215=6,"캐릭터 경험치",IF(E215=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E215=8,VLOOKUP(G215,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E215=111,VLOOKUP(G215,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E215=113,VLOOKUP(G215,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+        <v>전투 보고서(소)</v>
+      </c>
+      <c r="I215" s="65">
+        <v>20</v>
+      </c>
+      <c r="J215" s="65">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K215,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K215" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="L215" s="65">
+        <v>1000000</v>
+      </c>
+      <c r="M215" s="65" t="b">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="N215" s="65">
+        <v>1</v>
+      </c>
+      <c r="O215" s="65"/>
+    </row>
+    <row r="216" spans="1:15">
+      <c r="A216" s="42">
+        <v>10212</v>
+      </c>
+      <c r="B216" s="42">
+        <v>30100101</v>
+      </c>
+      <c r="C216" s="42" t="str">
+        <f t="shared" si="29"/>
+        <v>보스전</v>
+      </c>
+      <c r="D216" s="42" t="str">
+        <f t="shared" si="30"/>
+        <v>통상</v>
+      </c>
+      <c r="E216" s="42">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F216,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1000</v>
+      </c>
+      <c r="F216" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="G216" s="42">
+        <v>6</v>
+      </c>
+      <c r="H216" s="53" t="str" cm="1">
+        <f t="array" ref="H216">IF(E216=1000,VLOOKUP(G216,[2]item!$A$5:$C$10000,3,FALSE),IF(E216=112,VLOOKUP(G216,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E216=1,"골드",IF(E216=2,"보석",IF(E216=3,"스테미나",IF(E216=4,"호감도",IF(E216=5,"플레이어 경험치",IF(E216=6,"캐릭터 경험치",IF(E216=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E216=8,VLOOKUP(G216,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E216=111,VLOOKUP(G216,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E216=113,VLOOKUP(G216,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+        <v>경험치 물약_C(소)</v>
+      </c>
+      <c r="I216" s="42">
+        <v>20</v>
+      </c>
+      <c r="J216" s="42">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K216,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K216" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L216" s="42">
+        <v>1000000</v>
+      </c>
+      <c r="M216" s="42" t="b">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="N216" s="42">
+        <v>2</v>
+      </c>
+      <c r="O216" s="42"/>
+    </row>
+    <row r="217" spans="1:15">
+      <c r="A217" s="42">
+        <v>10213</v>
+      </c>
+      <c r="B217" s="42">
+        <v>30100101</v>
+      </c>
+      <c r="C217" s="42" t="str">
+        <f t="shared" si="29"/>
+        <v>보스전</v>
+      </c>
+      <c r="D217" s="42" t="str">
+        <f t="shared" si="30"/>
+        <v>통상</v>
+      </c>
+      <c r="E217" s="42">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F217,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>5</v>
+      </c>
+      <c r="F217" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G217" s="42">
+        <v>6</v>
+      </c>
+      <c r="H217" s="53" t="str" cm="1">
+        <f t="array" ref="H217">IF(E217=1000,VLOOKUP(G217,[2]item!$A$5:$C$10000,3,FALSE),IF(E217=112,VLOOKUP(G217,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E217=1,"골드",IF(E217=2,"보석",IF(E217=3,"스테미나",IF(E217=4,"호감도",IF(E217=5,"플레이어 경험치",IF(E217=6,"캐릭터 경험치",IF(E217=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E217=8,VLOOKUP(G217,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E217=111,VLOOKUP(G217,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E217=113,VLOOKUP(G217,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+        <v>플레이어 경험치</v>
+      </c>
+      <c r="I217" s="42">
+        <v>10</v>
+      </c>
+      <c r="J217" s="42">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K217,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K217" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L217" s="42">
+        <v>1000000</v>
+      </c>
+      <c r="M217" s="42" t="b">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N217" s="42">
+        <v>0</v>
+      </c>
+      <c r="O217" s="42"/>
+    </row>
+    <row r="218" spans="1:15">
+      <c r="A218" s="42">
+        <v>10214</v>
+      </c>
+      <c r="B218" s="42">
+        <v>30100101</v>
+      </c>
+      <c r="C218" s="42" t="str">
+        <f t="shared" si="29"/>
+        <v>보스전</v>
+      </c>
+      <c r="D218" s="42" t="str">
+        <f t="shared" si="30"/>
+        <v>통상</v>
+      </c>
+      <c r="E218" s="42">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F218,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>6</v>
+      </c>
+      <c r="F218" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="G218" s="42">
+        <v>6</v>
+      </c>
+      <c r="H218" s="53" t="str" cm="1">
+        <f t="array" ref="H218">IF(E218=1000,VLOOKUP(G218,[2]item!$A$5:$C$10000,3,FALSE),IF(E218=112,VLOOKUP(G218,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E218=1,"골드",IF(E218=2,"보석",IF(E218=3,"스테미나",IF(E218=4,"호감도",IF(E218=5,"플레이어 경험치",IF(E218=6,"캐릭터 경험치",IF(E218=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E218=8,VLOOKUP(G218,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E218=111,VLOOKUP(G218,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E218=113,VLOOKUP(G218,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+        <v>캐릭터 경험치</v>
+      </c>
+      <c r="I218" s="42">
+        <v>12</v>
+      </c>
+      <c r="J218" s="42">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K218,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K218" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L218" s="42">
+        <v>1000000</v>
+      </c>
+      <c r="M218" s="42" t="b">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N218" s="42">
+        <v>0</v>
+      </c>
+      <c r="O218" s="42"/>
+    </row>
+    <row r="219" spans="1:15">
+      <c r="A219" s="42">
+        <v>10215</v>
+      </c>
+      <c r="B219" s="42">
+        <v>30100101</v>
+      </c>
+      <c r="C219" s="42" t="str">
+        <f t="shared" si="29"/>
+        <v>보스전</v>
+      </c>
+      <c r="D219" s="42" t="str">
+        <f t="shared" si="30"/>
+        <v>통상</v>
+      </c>
+      <c r="E219" s="42">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F219,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F219" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="G219" s="42">
+        <v>6</v>
+      </c>
+      <c r="H219" s="53" t="str" cm="1">
+        <f t="array" ref="H219">IF(E219=1000,VLOOKUP(G219,[2]item!$A$5:$C$10000,3,FALSE),IF(E219=112,VLOOKUP(G219,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E219=1,"골드",IF(E219=2,"보석",IF(E219=3,"스테미나",IF(E219=4,"호감도",IF(E219=5,"플레이어 경험치",IF(E219=6,"캐릭터 경험치",IF(E219=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E219=8,VLOOKUP(G219,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E219=111,VLOOKUP(G219,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E219=113,VLOOKUP(G219,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+        <v>골드</v>
+      </c>
+      <c r="I219" s="42">
+        <v>1000</v>
+      </c>
+      <c r="J219" s="42">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K219,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K219" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L219" s="42">
+        <v>1000000</v>
+      </c>
+      <c r="M219" s="42" t="b">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N219" s="42">
+        <v>0</v>
+      </c>
+      <c r="O219" s="42"/>
+    </row>
+    <row r="220" spans="1:15">
+      <c r="A220" s="42">
+        <v>10216</v>
+      </c>
+      <c r="B220" s="42">
+        <v>30100101</v>
+      </c>
+      <c r="C220" s="42" t="str">
+        <f t="shared" si="29"/>
+        <v>보스전</v>
+      </c>
+      <c r="D220" s="42" t="str">
+        <f t="shared" si="30"/>
+        <v>통상</v>
+      </c>
+      <c r="E220" s="42">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F220,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>4</v>
+      </c>
+      <c r="F220" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="G220" s="42">
+        <v>6</v>
+      </c>
+      <c r="H220" s="53" t="str" cm="1">
+        <f t="array" ref="H220">IF(E220=1000,VLOOKUP(G220,[2]item!$A$5:$C$10000,3,FALSE),IF(E220=112,VLOOKUP(G220,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E220=1,"골드",IF(E220=2,"보석",IF(E220=3,"스테미나",IF(E220=4,"호감도",IF(E220=5,"플레이어 경험치",IF(E220=6,"캐릭터 경험치",IF(E220=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E220=8,VLOOKUP(G220,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E220=111,VLOOKUP(G220,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E220=113,VLOOKUP(G220,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+        <v>호감도</v>
+      </c>
+      <c r="I220" s="42">
+        <v>1</v>
+      </c>
+      <c r="J220" s="42">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K220,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K220" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L220" s="42">
+        <v>1000000</v>
+      </c>
+      <c r="M220" s="42" t="b">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N220" s="42">
+        <v>0</v>
+      </c>
+      <c r="O220" s="42"/>
+    </row>
+    <row r="221" spans="1:15">
+      <c r="A221" s="42">
+        <v>10217</v>
+      </c>
+      <c r="B221" s="42">
+        <v>30100101</v>
+      </c>
+      <c r="C221" s="42" t="str">
+        <f t="shared" si="29"/>
+        <v>보스전</v>
+      </c>
+      <c r="D221" s="42" t="str">
+        <f t="shared" si="30"/>
+        <v>통상</v>
+      </c>
+      <c r="E221" s="42">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F221,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>112</v>
+      </c>
+      <c r="F221" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="G221" s="42">
+        <v>100009</v>
+      </c>
+      <c r="H221" s="53" t="str" cm="1">
+        <f t="array" ref="H221">IF(E221=1000,VLOOKUP(G221,[2]item!$A$5:$C$10000,3,FALSE),IF(E221=112,VLOOKUP(G221,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E221=1,"골드",IF(E221=2,"보석",IF(E221=3,"스테미나",IF(E221=4,"호감도",IF(E221=5,"플레이어 경험치",IF(E221=6,"캐릭터 경험치",IF(E221=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E221=8,VLOOKUP(G221,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E221=111,VLOOKUP(G221,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E221=113,VLOOKUP(G221,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+        <v>엘리자베스 조각</v>
+      </c>
+      <c r="I221" s="42">
+        <v>10</v>
+      </c>
+      <c r="J221" s="42">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K221,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K221" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L221" s="42">
+        <v>1000000</v>
+      </c>
+      <c r="M221" s="42" t="b">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="N221" s="42">
+        <v>3</v>
+      </c>
+      <c r="O221" s="42"/>
+    </row>
+    <row r="222" spans="1:15">
+      <c r="A222" s="42">
+        <v>10218</v>
+      </c>
+      <c r="B222" s="4">
+        <v>31100101</v>
+      </c>
+      <c r="C222" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>보스전</v>
+      </c>
+      <c r="D222" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v>초회</v>
+      </c>
+      <c r="E222" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F222,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>112</v>
+      </c>
+      <c r="F222" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="G222" s="4">
+        <v>100009</v>
+      </c>
+      <c r="H222" s="53" t="str" cm="1">
+        <f t="array" ref="H222">IF(E222=1000,VLOOKUP(G222,[2]item!$A$5:$C$10000,3,FALSE),IF(E222=112,VLOOKUP(G222,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E222=1,"골드",IF(E222=2,"보석",IF(E222=3,"스테미나",IF(E222=4,"호감도",IF(E222=5,"플레이어 경험치",IF(E222=6,"캐릭터 경험치",IF(E222=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E222=8,VLOOKUP(G222,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E222=111,VLOOKUP(G222,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E222=113,VLOOKUP(G222,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+        <v>엘리자베스 조각</v>
+      </c>
+      <c r="I222" s="4">
+        <v>50</v>
+      </c>
+      <c r="J222" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K222,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K222" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L222" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="M222" s="4" t="b">
+        <f t="shared" ref="M222:M231" si="32">IF(N222&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="N222" s="4">
+        <v>1</v>
+      </c>
+      <c r="O222" s="4"/>
+    </row>
+    <row r="223" spans="1:15">
+      <c r="A223" s="42">
+        <v>10219</v>
+      </c>
+      <c r="B223" s="4">
+        <v>31100101</v>
+      </c>
+      <c r="C223" s="4" t="str">
+        <f t="shared" ref="C223:C232" si="33">IF(MID(B223, 1, 1) = "1", "메인 스테이지", IF(MID(B223, 1, 1) = "2", "일일던전", IF(MID(B223, 1, 1) = "3", "보스전", "다른 경우")))</f>
+        <v>보스전</v>
+      </c>
+      <c r="D223" s="4" t="str">
+        <f t="shared" ref="D223:D232" si="34">IF(MID(B223, 2, 1) = "0", "통상", IF(MID(B223, 2, 1) = "1", "초회", IF(MID(B223, 2, 1) = "2", "별 보상", "다른 경우")))</f>
+        <v>초회</v>
+      </c>
+      <c r="E223" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F223,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F223" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="G223" s="4">
+        <v>8000</v>
+      </c>
+      <c r="H223" s="53" t="str" cm="1">
+        <f t="array" ref="H223">IF(E223=1000,VLOOKUP(G223,[2]item!$A$5:$C$10000,3,FALSE),IF(E223=112,VLOOKUP(G223,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E223=1,"골드",IF(E223=2,"보석",IF(E223=3,"스테미나",IF(E223=4,"호감도",IF(E223=5,"플레이어 경험치",IF(E223=6,"캐릭터 경험치",IF(E223=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E223=8,VLOOKUP(G223,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E223=111,VLOOKUP(G223,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E223=113,VLOOKUP(G223,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+        <v>골드</v>
+      </c>
+      <c r="I223" s="4">
+        <v>10000</v>
+      </c>
+      <c r="J223" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K223,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K223" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L223" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="M223" s="4" t="b">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="N223" s="4">
+        <v>2</v>
+      </c>
+      <c r="O223" s="4"/>
+    </row>
+    <row r="224" spans="1:15">
+      <c r="A224" s="42">
+        <v>10220</v>
+      </c>
+      <c r="B224" s="4">
+        <v>31100101</v>
+      </c>
+      <c r="C224" s="44" t="str">
+        <f t="shared" si="33"/>
+        <v>보스전</v>
+      </c>
+      <c r="D224" s="44" t="str">
+        <f t="shared" si="34"/>
+        <v>초회</v>
+      </c>
+      <c r="E224" s="44">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F224,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F224" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="G224" s="44">
+        <v>100</v>
+      </c>
+      <c r="H224" s="53" t="str" cm="1">
+        <f t="array" ref="H224">IF(E224=1000,VLOOKUP(G224,[2]item!$A$5:$C$10000,3,FALSE),IF(E224=112,VLOOKUP(G224,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E224=1,"골드",IF(E224=2,"보석",IF(E224=3,"스테미나",IF(E224=4,"호감도",IF(E224=5,"플레이어 경험치",IF(E224=6,"캐릭터 경험치",IF(E224=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E224=8,VLOOKUP(G224,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E224=111,VLOOKUP(G224,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E224=113,VLOOKUP(G224,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+        <v>보석</v>
+      </c>
+      <c r="I224" s="44">
+        <v>100</v>
+      </c>
+      <c r="J224" s="44">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K224,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K224" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L224" s="44">
+        <v>1000000</v>
+      </c>
+      <c r="M224" s="44" t="b">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="N224" s="44">
+        <v>3</v>
+      </c>
+      <c r="O224" s="4"/>
+    </row>
+    <row r="225" spans="1:15">
+      <c r="A225" s="42">
+        <v>10221</v>
+      </c>
+      <c r="B225" s="42">
+        <v>30100102</v>
+      </c>
+      <c r="C225" s="42" t="str">
+        <f t="shared" si="33"/>
+        <v>보스전</v>
+      </c>
+      <c r="D225" s="42" t="str">
+        <f t="shared" si="34"/>
+        <v>통상</v>
+      </c>
+      <c r="E225" s="42">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F225,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1000</v>
+      </c>
+      <c r="F225" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="G225" s="42">
+        <v>16</v>
+      </c>
+      <c r="H225" s="53" t="str" cm="1">
+        <f t="array" ref="H225">IF(E225=1000,VLOOKUP(G225,[2]item!$A$5:$C$10000,3,FALSE),IF(E225=112,VLOOKUP(G225,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E225=1,"골드",IF(E225=2,"보석",IF(E225=3,"스테미나",IF(E225=4,"호감도",IF(E225=5,"플레이어 경험치",IF(E225=6,"캐릭터 경험치",IF(E225=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E225=8,VLOOKUP(G225,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E225=111,VLOOKUP(G225,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E225=113,VLOOKUP(G225,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+        <v>전투 보고서(소)</v>
+      </c>
+      <c r="I225" s="42">
+        <v>20</v>
+      </c>
+      <c r="J225" s="42">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K225,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K225" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L225" s="42">
+        <v>1000000</v>
+      </c>
+      <c r="M225" s="42" t="b">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="N225" s="42">
+        <v>1</v>
+      </c>
+      <c r="O225" s="4"/>
+    </row>
+    <row r="226" spans="1:15">
+      <c r="A226" s="42">
+        <v>10222</v>
+      </c>
+      <c r="B226" s="42">
+        <v>30100102</v>
+      </c>
+      <c r="C226" s="42" t="str">
+        <f t="shared" si="33"/>
+        <v>보스전</v>
+      </c>
+      <c r="D226" s="42" t="str">
+        <f t="shared" si="34"/>
+        <v>통상</v>
+      </c>
+      <c r="E226" s="42">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F226,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1000</v>
+      </c>
+      <c r="F226" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="G226" s="42">
+        <v>6</v>
+      </c>
+      <c r="H226" s="53" t="str" cm="1">
+        <f t="array" ref="H226">IF(E226=1000,VLOOKUP(G226,[2]item!$A$5:$C$10000,3,FALSE),IF(E226=112,VLOOKUP(G226,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E226=1,"골드",IF(E226=2,"보석",IF(E226=3,"스테미나",IF(E226=4,"호감도",IF(E226=5,"플레이어 경험치",IF(E226=6,"캐릭터 경험치",IF(E226=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E226=8,VLOOKUP(G226,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E226=111,VLOOKUP(G226,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E226=113,VLOOKUP(G226,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+        <v>경험치 물약_C(소)</v>
+      </c>
+      <c r="I226" s="42">
+        <v>20</v>
+      </c>
+      <c r="J226" s="42">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K226,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K226" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L226" s="42">
+        <v>1000000</v>
+      </c>
+      <c r="M226" s="42" t="b">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="N226" s="42">
+        <v>2</v>
+      </c>
+      <c r="O226" s="4"/>
+    </row>
+    <row r="227" spans="1:15">
+      <c r="A227" s="42">
+        <v>10223</v>
+      </c>
+      <c r="B227" s="42">
+        <v>30100102</v>
+      </c>
+      <c r="C227" s="42" t="str">
+        <f t="shared" si="33"/>
+        <v>보스전</v>
+      </c>
+      <c r="D227" s="42" t="str">
+        <f t="shared" si="34"/>
+        <v>통상</v>
+      </c>
+      <c r="E227" s="42">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F227,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>5</v>
+      </c>
+      <c r="F227" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G227" s="42">
+        <v>6</v>
+      </c>
+      <c r="H227" s="53" t="str" cm="1">
+        <f t="array" ref="H227">IF(E227=1000,VLOOKUP(G227,[2]item!$A$5:$C$10000,3,FALSE),IF(E227=112,VLOOKUP(G227,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E227=1,"골드",IF(E227=2,"보석",IF(E227=3,"스테미나",IF(E227=4,"호감도",IF(E227=5,"플레이어 경험치",IF(E227=6,"캐릭터 경험치",IF(E227=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E227=8,VLOOKUP(G227,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E227=111,VLOOKUP(G227,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E227=113,VLOOKUP(G227,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+        <v>플레이어 경험치</v>
+      </c>
+      <c r="I227" s="42">
+        <v>10</v>
+      </c>
+      <c r="J227" s="42">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K227,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K227" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L227" s="42">
+        <v>1000000</v>
+      </c>
+      <c r="M227" s="42" t="b">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="N227" s="42">
+        <v>0</v>
+      </c>
+      <c r="O227" s="4"/>
+    </row>
+    <row r="228" spans="1:15">
+      <c r="A228" s="42">
+        <v>10224</v>
+      </c>
+      <c r="B228" s="42">
+        <v>30100102</v>
+      </c>
+      <c r="C228" s="42" t="str">
+        <f t="shared" si="33"/>
+        <v>보스전</v>
+      </c>
+      <c r="D228" s="42" t="str">
+        <f t="shared" si="34"/>
+        <v>통상</v>
+      </c>
+      <c r="E228" s="42">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F228,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>6</v>
+      </c>
+      <c r="F228" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="G228" s="42">
+        <v>6</v>
+      </c>
+      <c r="H228" s="53" t="str" cm="1">
+        <f t="array" ref="H228">IF(E228=1000,VLOOKUP(G228,[2]item!$A$5:$C$10000,3,FALSE),IF(E228=112,VLOOKUP(G228,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E228=1,"골드",IF(E228=2,"보석",IF(E228=3,"스테미나",IF(E228=4,"호감도",IF(E228=5,"플레이어 경험치",IF(E228=6,"캐릭터 경험치",IF(E228=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E228=8,VLOOKUP(G228,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E228=111,VLOOKUP(G228,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E228=113,VLOOKUP(G228,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+        <v>캐릭터 경험치</v>
+      </c>
+      <c r="I228" s="42">
+        <v>12</v>
+      </c>
+      <c r="J228" s="42">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K228,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K228" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L228" s="42">
+        <v>1000000</v>
+      </c>
+      <c r="M228" s="42" t="b">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="N228" s="42">
+        <v>0</v>
+      </c>
+      <c r="O228" s="4"/>
+    </row>
+    <row r="229" spans="1:15">
+      <c r="A229" s="42">
+        <v>10225</v>
+      </c>
+      <c r="B229" s="42">
+        <v>30100102</v>
+      </c>
+      <c r="C229" s="42" t="str">
+        <f t="shared" si="33"/>
+        <v>보스전</v>
+      </c>
+      <c r="D229" s="42" t="str">
+        <f t="shared" si="34"/>
+        <v>통상</v>
+      </c>
+      <c r="E229" s="42">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F229,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F229" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="G229" s="42">
+        <v>6</v>
+      </c>
+      <c r="H229" s="53" t="str" cm="1">
+        <f t="array" ref="H229">IF(E229=1000,VLOOKUP(G229,[2]item!$A$5:$C$10000,3,FALSE),IF(E229=112,VLOOKUP(G229,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E229=1,"골드",IF(E229=2,"보석",IF(E229=3,"스테미나",IF(E229=4,"호감도",IF(E229=5,"플레이어 경험치",IF(E229=6,"캐릭터 경험치",IF(E229=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E229=8,VLOOKUP(G229,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E229=111,VLOOKUP(G229,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E229=113,VLOOKUP(G229,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+        <v>골드</v>
+      </c>
+      <c r="I229" s="42">
+        <v>1500</v>
+      </c>
+      <c r="J229" s="42">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K229,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K229" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L229" s="42">
+        <v>1000000</v>
+      </c>
+      <c r="M229" s="42" t="b">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="N229" s="42">
+        <v>0</v>
+      </c>
+      <c r="O229" s="4"/>
+    </row>
+    <row r="230" spans="1:15">
+      <c r="A230" s="42">
+        <v>10226</v>
+      </c>
+      <c r="B230" s="42">
+        <v>30100102</v>
+      </c>
+      <c r="C230" s="42" t="str">
+        <f t="shared" si="33"/>
+        <v>보스전</v>
+      </c>
+      <c r="D230" s="42" t="str">
+        <f t="shared" si="34"/>
+        <v>통상</v>
+      </c>
+      <c r="E230" s="42">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F230,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>4</v>
+      </c>
+      <c r="F230" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="G230" s="42">
+        <v>6</v>
+      </c>
+      <c r="H230" s="53" t="str" cm="1">
+        <f t="array" ref="H230">IF(E230=1000,VLOOKUP(G230,[2]item!$A$5:$C$10000,3,FALSE),IF(E230=112,VLOOKUP(G230,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E230=1,"골드",IF(E230=2,"보석",IF(E230=3,"스테미나",IF(E230=4,"호감도",IF(E230=5,"플레이어 경험치",IF(E230=6,"캐릭터 경험치",IF(E230=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E230=8,VLOOKUP(G230,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E230=111,VLOOKUP(G230,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E230=113,VLOOKUP(G230,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+        <v>호감도</v>
+      </c>
+      <c r="I230" s="42">
+        <v>1</v>
+      </c>
+      <c r="J230" s="42">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K230,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K230" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L230" s="42">
+        <v>1000000</v>
+      </c>
+      <c r="M230" s="42" t="b">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="N230" s="42">
+        <v>0</v>
+      </c>
+      <c r="O230" s="4"/>
+    </row>
+    <row r="231" spans="1:15">
+      <c r="A231" s="42">
+        <v>10227</v>
+      </c>
+      <c r="B231" s="42">
+        <v>30100102</v>
+      </c>
+      <c r="C231" s="42" t="str">
+        <f t="shared" si="33"/>
+        <v>보스전</v>
+      </c>
+      <c r="D231" s="42" t="str">
+        <f t="shared" si="34"/>
+        <v>통상</v>
+      </c>
+      <c r="E231" s="42">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F231,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>112</v>
+      </c>
+      <c r="F231" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="G231" s="42">
+        <v>100009</v>
+      </c>
+      <c r="H231" s="53" t="str" cm="1">
+        <f t="array" ref="H231">IF(E231=1000,VLOOKUP(G231,[2]item!$A$5:$C$10000,3,FALSE),IF(E231=112,VLOOKUP(G231,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E231=1,"골드",IF(E231=2,"보석",IF(E231=3,"스테미나",IF(E231=4,"호감도",IF(E231=5,"플레이어 경험치",IF(E231=6,"캐릭터 경험치",IF(E231=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E231=8,VLOOKUP(G231,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E231=111,VLOOKUP(G231,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E231=113,VLOOKUP(G231,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+        <v>엘리자베스 조각</v>
+      </c>
+      <c r="I231" s="42">
+        <v>15</v>
+      </c>
+      <c r="J231" s="42">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K231,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K231" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L231" s="42">
+        <v>1000000</v>
+      </c>
+      <c r="M231" s="42" t="b">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="N231" s="42">
+        <v>3</v>
+      </c>
+      <c r="O231" s="4"/>
+    </row>
+    <row r="232" spans="1:15">
+      <c r="A232" s="42">
+        <v>10228</v>
+      </c>
+      <c r="B232" s="4">
+        <v>31100102</v>
+      </c>
+      <c r="C232" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>보스전</v>
+      </c>
+      <c r="D232" s="4" t="str">
+        <f t="shared" si="34"/>
+        <v>초회</v>
+      </c>
+      <c r="E232" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F232,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>112</v>
+      </c>
+      <c r="F232" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="G232" s="4">
+        <v>100009</v>
+      </c>
+      <c r="H232" s="53" t="str" cm="1">
+        <f t="array" ref="H232">IF(E232=1000,VLOOKUP(G232,[2]item!$A$5:$C$10000,3,FALSE),IF(E232=112,VLOOKUP(G232,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E232=1,"골드",IF(E232=2,"보석",IF(E232=3,"스테미나",IF(E232=4,"호감도",IF(E232=5,"플레이어 경험치",IF(E232=6,"캐릭터 경험치",IF(E232=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E232=8,VLOOKUP(G232,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E232=111,VLOOKUP(G232,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E232=113,VLOOKUP(G232,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+        <v>엘리자베스 조각</v>
+      </c>
+      <c r="I232" s="4">
+        <v>50</v>
+      </c>
+      <c r="J232" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K232,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K232" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L232" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="M232" s="4" t="b">
+        <f t="shared" ref="M232:M241" si="35">IF(N232&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="N232" s="4">
+        <v>1</v>
+      </c>
+      <c r="O232" s="4"/>
+    </row>
+    <row r="233" spans="1:15">
+      <c r="A233" s="42">
+        <v>10229</v>
+      </c>
+      <c r="B233" s="4">
+        <v>31100102</v>
+      </c>
+      <c r="C233" s="4" t="str">
+        <f t="shared" ref="C233:C242" si="36">IF(MID(B233, 1, 1) = "1", "메인 스테이지", IF(MID(B233, 1, 1) = "2", "일일던전", IF(MID(B233, 1, 1) = "3", "보스전", "다른 경우")))</f>
+        <v>보스전</v>
+      </c>
+      <c r="D233" s="4" t="str">
+        <f t="shared" ref="D233:D242" si="37">IF(MID(B233, 2, 1) = "0", "통상", IF(MID(B233, 2, 1) = "1", "초회", IF(MID(B233, 2, 1) = "2", "별 보상", "다른 경우")))</f>
+        <v>초회</v>
+      </c>
+      <c r="E233" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F233,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F233" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="G233" s="4">
+        <v>8000</v>
+      </c>
+      <c r="H233" s="53" t="str" cm="1">
+        <f t="array" ref="H233">IF(E233=1000,VLOOKUP(G233,[2]item!$A$5:$C$10000,3,FALSE),IF(E233=112,VLOOKUP(G233,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E233=1,"골드",IF(E233=2,"보석",IF(E233=3,"스테미나",IF(E233=4,"호감도",IF(E233=5,"플레이어 경험치",IF(E233=6,"캐릭터 경험치",IF(E233=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E233=8,VLOOKUP(G233,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E233=111,VLOOKUP(G233,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E233=113,VLOOKUP(G233,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+        <v>골드</v>
+      </c>
+      <c r="I233" s="4">
+        <v>10000</v>
+      </c>
+      <c r="J233" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K233,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K233" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L233" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="M233" s="4" t="b">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="N233" s="4">
+        <v>2</v>
+      </c>
+      <c r="O233" s="4"/>
+    </row>
+    <row r="234" spans="1:15">
+      <c r="A234" s="42">
+        <v>10230</v>
+      </c>
+      <c r="B234" s="4">
+        <v>31100102</v>
+      </c>
+      <c r="C234" s="44" t="str">
+        <f t="shared" si="36"/>
+        <v>보스전</v>
+      </c>
+      <c r="D234" s="44" t="str">
+        <f t="shared" si="37"/>
+        <v>초회</v>
+      </c>
+      <c r="E234" s="44">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F234,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F234" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="G234" s="44">
+        <v>100</v>
+      </c>
+      <c r="H234" s="53" t="str" cm="1">
+        <f t="array" ref="H234">IF(E234=1000,VLOOKUP(G234,[2]item!$A$5:$C$10000,3,FALSE),IF(E234=112,VLOOKUP(G234,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E234=1,"골드",IF(E234=2,"보석",IF(E234=3,"스테미나",IF(E234=4,"호감도",IF(E234=5,"플레이어 경험치",IF(E234=6,"캐릭터 경험치",IF(E234=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E234=8,VLOOKUP(G234,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E234=111,VLOOKUP(G234,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E234=113,VLOOKUP(G234,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+        <v>보석</v>
+      </c>
+      <c r="I234" s="44">
+        <v>100</v>
+      </c>
+      <c r="J234" s="44">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K234,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K234" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L234" s="44">
+        <v>1000000</v>
+      </c>
+      <c r="M234" s="44" t="b">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="N234" s="44">
+        <v>3</v>
+      </c>
+      <c r="O234" s="4"/>
+    </row>
+    <row r="235" spans="1:15">
+      <c r="A235" s="42">
+        <v>10231</v>
+      </c>
+      <c r="B235" s="42">
+        <v>30100103</v>
+      </c>
+      <c r="C235" s="42" t="str">
+        <f t="shared" si="36"/>
+        <v>보스전</v>
+      </c>
+      <c r="D235" s="42" t="str">
+        <f t="shared" si="37"/>
+        <v>통상</v>
+      </c>
+      <c r="E235" s="42">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F235,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1000</v>
+      </c>
+      <c r="F235" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="G235" s="42">
+        <v>16</v>
+      </c>
+      <c r="H235" s="53" t="str" cm="1">
+        <f t="array" ref="H235">IF(E235=1000,VLOOKUP(G235,[2]item!$A$5:$C$10000,3,FALSE),IF(E235=112,VLOOKUP(G235,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E235=1,"골드",IF(E235=2,"보석",IF(E235=3,"스테미나",IF(E235=4,"호감도",IF(E235=5,"플레이어 경험치",IF(E235=6,"캐릭터 경험치",IF(E235=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E235=8,VLOOKUP(G235,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E235=111,VLOOKUP(G235,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E235=113,VLOOKUP(G235,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+        <v>전투 보고서(소)</v>
+      </c>
+      <c r="I235" s="42">
+        <v>20</v>
+      </c>
+      <c r="J235" s="42">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K235,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K235" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L235" s="42">
+        <v>1000000</v>
+      </c>
+      <c r="M235" s="42" t="b">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="N235" s="42">
+        <v>1</v>
+      </c>
+      <c r="O235" s="4"/>
+    </row>
+    <row r="236" spans="1:15">
+      <c r="A236" s="42">
+        <v>10232</v>
+      </c>
+      <c r="B236" s="42">
+        <v>30100103</v>
+      </c>
+      <c r="C236" s="42" t="str">
+        <f t="shared" si="36"/>
+        <v>보스전</v>
+      </c>
+      <c r="D236" s="42" t="str">
+        <f t="shared" si="37"/>
+        <v>통상</v>
+      </c>
+      <c r="E236" s="42">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F236,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1000</v>
+      </c>
+      <c r="F236" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="G236" s="42">
+        <v>6</v>
+      </c>
+      <c r="H236" s="53" t="str" cm="1">
+        <f t="array" ref="H236">IF(E236=1000,VLOOKUP(G236,[2]item!$A$5:$C$10000,3,FALSE),IF(E236=112,VLOOKUP(G236,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E236=1,"골드",IF(E236=2,"보석",IF(E236=3,"스테미나",IF(E236=4,"호감도",IF(E236=5,"플레이어 경험치",IF(E236=6,"캐릭터 경험치",IF(E236=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E236=8,VLOOKUP(G236,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E236=111,VLOOKUP(G236,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E236=113,VLOOKUP(G236,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+        <v>경험치 물약_C(소)</v>
+      </c>
+      <c r="I236" s="42">
+        <v>20</v>
+      </c>
+      <c r="J236" s="42">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K236,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K236" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L236" s="42">
+        <v>1000000</v>
+      </c>
+      <c r="M236" s="42" t="b">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="N236" s="42">
+        <v>2</v>
+      </c>
+      <c r="O236" s="4"/>
+    </row>
+    <row r="237" spans="1:15">
+      <c r="A237" s="42">
+        <v>10233</v>
+      </c>
+      <c r="B237" s="42">
+        <v>30100103</v>
+      </c>
+      <c r="C237" s="42" t="str">
+        <f t="shared" si="36"/>
+        <v>보스전</v>
+      </c>
+      <c r="D237" s="42" t="str">
+        <f t="shared" si="37"/>
+        <v>통상</v>
+      </c>
+      <c r="E237" s="42">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F237,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>5</v>
+      </c>
+      <c r="F237" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G237" s="42">
+        <v>6</v>
+      </c>
+      <c r="H237" s="53" t="str" cm="1">
+        <f t="array" ref="H237">IF(E237=1000,VLOOKUP(G237,[2]item!$A$5:$C$10000,3,FALSE),IF(E237=112,VLOOKUP(G237,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E237=1,"골드",IF(E237=2,"보석",IF(E237=3,"스테미나",IF(E237=4,"호감도",IF(E237=5,"플레이어 경험치",IF(E237=6,"캐릭터 경험치",IF(E237=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E237=8,VLOOKUP(G237,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E237=111,VLOOKUP(G237,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E237=113,VLOOKUP(G237,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+        <v>플레이어 경험치</v>
+      </c>
+      <c r="I237" s="42">
+        <v>10</v>
+      </c>
+      <c r="J237" s="42">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K237,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K237" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L237" s="42">
+        <v>1000000</v>
+      </c>
+      <c r="M237" s="42" t="b">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="N237" s="42">
+        <v>0</v>
+      </c>
+      <c r="O237" s="4"/>
+    </row>
+    <row r="238" spans="1:15">
+      <c r="A238" s="42">
+        <v>10234</v>
+      </c>
+      <c r="B238" s="42">
+        <v>30100103</v>
+      </c>
+      <c r="C238" s="42" t="str">
+        <f t="shared" si="36"/>
+        <v>보스전</v>
+      </c>
+      <c r="D238" s="42" t="str">
+        <f t="shared" si="37"/>
+        <v>통상</v>
+      </c>
+      <c r="E238" s="42">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F238,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>6</v>
+      </c>
+      <c r="F238" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="G238" s="42">
+        <v>6</v>
+      </c>
+      <c r="H238" s="53" t="str" cm="1">
+        <f t="array" ref="H238">IF(E238=1000,VLOOKUP(G238,[2]item!$A$5:$C$10000,3,FALSE),IF(E238=112,VLOOKUP(G238,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E238=1,"골드",IF(E238=2,"보석",IF(E238=3,"스테미나",IF(E238=4,"호감도",IF(E238=5,"플레이어 경험치",IF(E238=6,"캐릭터 경험치",IF(E238=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E238=8,VLOOKUP(G238,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E238=111,VLOOKUP(G238,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E238=113,VLOOKUP(G238,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+        <v>캐릭터 경험치</v>
+      </c>
+      <c r="I238" s="42">
+        <v>12</v>
+      </c>
+      <c r="J238" s="42">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K238,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K238" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L238" s="42">
+        <v>1000000</v>
+      </c>
+      <c r="M238" s="42" t="b">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="N238" s="42">
+        <v>0</v>
+      </c>
+      <c r="O238" s="4"/>
+    </row>
+    <row r="239" spans="1:15">
+      <c r="A239" s="42">
+        <v>10235</v>
+      </c>
+      <c r="B239" s="42">
+        <v>30100103</v>
+      </c>
+      <c r="C239" s="42" t="str">
+        <f t="shared" si="36"/>
+        <v>보스전</v>
+      </c>
+      <c r="D239" s="42" t="str">
+        <f t="shared" si="37"/>
+        <v>통상</v>
+      </c>
+      <c r="E239" s="42">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F239,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F239" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="G239" s="42">
+        <v>6</v>
+      </c>
+      <c r="H239" s="53" t="str" cm="1">
+        <f t="array" ref="H239">IF(E239=1000,VLOOKUP(G239,[2]item!$A$5:$C$10000,3,FALSE),IF(E239=112,VLOOKUP(G239,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E239=1,"골드",IF(E239=2,"보석",IF(E239=3,"스테미나",IF(E239=4,"호감도",IF(E239=5,"플레이어 경험치",IF(E239=6,"캐릭터 경험치",IF(E239=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E239=8,VLOOKUP(G239,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E239=111,VLOOKUP(G239,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E239=113,VLOOKUP(G239,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+        <v>골드</v>
+      </c>
+      <c r="I239" s="42">
+        <v>2000</v>
+      </c>
+      <c r="J239" s="42">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K239,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K239" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L239" s="42">
+        <v>1000000</v>
+      </c>
+      <c r="M239" s="42" t="b">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="N239" s="42">
+        <v>0</v>
+      </c>
+      <c r="O239" s="4"/>
+    </row>
+    <row r="240" spans="1:15">
+      <c r="A240" s="42">
+        <v>10236</v>
+      </c>
+      <c r="B240" s="42">
+        <v>30100103</v>
+      </c>
+      <c r="C240" s="42" t="str">
+        <f t="shared" si="36"/>
+        <v>보스전</v>
+      </c>
+      <c r="D240" s="42" t="str">
+        <f t="shared" si="37"/>
+        <v>통상</v>
+      </c>
+      <c r="E240" s="42">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F240,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>4</v>
+      </c>
+      <c r="F240" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="G240" s="42">
+        <v>6</v>
+      </c>
+      <c r="H240" s="53" t="str" cm="1">
+        <f t="array" ref="H240">IF(E240=1000,VLOOKUP(G240,[2]item!$A$5:$C$10000,3,FALSE),IF(E240=112,VLOOKUP(G240,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E240=1,"골드",IF(E240=2,"보석",IF(E240=3,"스테미나",IF(E240=4,"호감도",IF(E240=5,"플레이어 경험치",IF(E240=6,"캐릭터 경험치",IF(E240=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E240=8,VLOOKUP(G240,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E240=111,VLOOKUP(G240,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E240=113,VLOOKUP(G240,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+        <v>호감도</v>
+      </c>
+      <c r="I240" s="42">
+        <v>1</v>
+      </c>
+      <c r="J240" s="42">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K240,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K240" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L240" s="42">
+        <v>1000000</v>
+      </c>
+      <c r="M240" s="42" t="b">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="N240" s="42">
+        <v>0</v>
+      </c>
+      <c r="O240" s="4"/>
+    </row>
+    <row r="241" spans="1:15">
+      <c r="A241" s="42">
+        <v>10237</v>
+      </c>
+      <c r="B241" s="42">
+        <v>30100103</v>
+      </c>
+      <c r="C241" s="42" t="str">
+        <f t="shared" si="36"/>
+        <v>보스전</v>
+      </c>
+      <c r="D241" s="42" t="str">
+        <f t="shared" si="37"/>
+        <v>통상</v>
+      </c>
+      <c r="E241" s="42">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F241,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>112</v>
+      </c>
+      <c r="F241" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="G241" s="42">
+        <v>100009</v>
+      </c>
+      <c r="H241" s="53" t="str" cm="1">
+        <f t="array" ref="H241">IF(E241=1000,VLOOKUP(G241,[2]item!$A$5:$C$10000,3,FALSE),IF(E241=112,VLOOKUP(G241,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E241=1,"골드",IF(E241=2,"보석",IF(E241=3,"스테미나",IF(E241=4,"호감도",IF(E241=5,"플레이어 경험치",IF(E241=6,"캐릭터 경험치",IF(E241=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E241=8,VLOOKUP(G241,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E241=111,VLOOKUP(G241,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E241=113,VLOOKUP(G241,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+        <v>엘리자베스 조각</v>
+      </c>
+      <c r="I241" s="42">
+        <v>20</v>
+      </c>
+      <c r="J241" s="42">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K241,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K241" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L241" s="42">
+        <v>1000000</v>
+      </c>
+      <c r="M241" s="42" t="b">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="N241" s="42">
+        <v>3</v>
+      </c>
+      <c r="O241" s="4"/>
+    </row>
+    <row r="242" spans="1:15">
+      <c r="A242" s="42">
+        <v>10238</v>
+      </c>
+      <c r="B242" s="4">
+        <v>31100103</v>
+      </c>
+      <c r="C242" s="4" t="str">
+        <f t="shared" si="36"/>
+        <v>보스전</v>
+      </c>
+      <c r="D242" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v>초회</v>
+      </c>
+      <c r="E242" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F242,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>112</v>
+      </c>
+      <c r="F242" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="G242" s="4">
+        <v>100009</v>
+      </c>
+      <c r="H242" s="53" t="str" cm="1">
+        <f t="array" ref="H242">IF(E242=1000,VLOOKUP(G242,[2]item!$A$5:$C$10000,3,FALSE),IF(E242=112,VLOOKUP(G242,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E242=1,"골드",IF(E242=2,"보석",IF(E242=3,"스테미나",IF(E242=4,"호감도",IF(E242=5,"플레이어 경험치",IF(E242=6,"캐릭터 경험치",IF(E242=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E242=8,VLOOKUP(G242,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E242=111,VLOOKUP(G242,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E242=113,VLOOKUP(G242,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+        <v>엘리자베스 조각</v>
+      </c>
+      <c r="I242" s="4">
+        <v>50</v>
+      </c>
+      <c r="J242" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K242,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K242" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L242" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="M242" s="4" t="b">
+        <f t="shared" ref="M242:M251" si="38">IF(N242&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="N242" s="4">
+        <v>1</v>
+      </c>
+      <c r="O242" s="4"/>
+    </row>
+    <row r="243" spans="1:15">
+      <c r="A243" s="42">
+        <v>10239</v>
+      </c>
+      <c r="B243" s="4">
+        <v>31100103</v>
+      </c>
+      <c r="C243" s="4" t="str">
+        <f t="shared" ref="C243:C252" si="39">IF(MID(B243, 1, 1) = "1", "메인 스테이지", IF(MID(B243, 1, 1) = "2", "일일던전", IF(MID(B243, 1, 1) = "3", "보스전", "다른 경우")))</f>
+        <v>보스전</v>
+      </c>
+      <c r="D243" s="4" t="str">
+        <f t="shared" ref="D243:D252" si="40">IF(MID(B243, 2, 1) = "0", "통상", IF(MID(B243, 2, 1) = "1", "초회", IF(MID(B243, 2, 1) = "2", "별 보상", "다른 경우")))</f>
+        <v>초회</v>
+      </c>
+      <c r="E243" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F243,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F243" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="G243" s="4">
+        <v>8000</v>
+      </c>
+      <c r="H243" s="53" t="str" cm="1">
+        <f t="array" ref="H243">IF(E243=1000,VLOOKUP(G243,[2]item!$A$5:$C$10000,3,FALSE),IF(E243=112,VLOOKUP(G243,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E243=1,"골드",IF(E243=2,"보석",IF(E243=3,"스테미나",IF(E243=4,"호감도",IF(E243=5,"플레이어 경험치",IF(E243=6,"캐릭터 경험치",IF(E243=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E243=8,VLOOKUP(G243,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E243=111,VLOOKUP(G243,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E243=113,VLOOKUP(G243,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+        <v>골드</v>
+      </c>
+      <c r="I243" s="4">
+        <v>10000</v>
+      </c>
+      <c r="J243" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K243,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K243" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L243" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="M243" s="4" t="b">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="N243" s="4">
+        <v>2</v>
+      </c>
+      <c r="O243" s="4"/>
+    </row>
+    <row r="244" spans="1:15">
+      <c r="A244" s="42">
+        <v>10240</v>
+      </c>
+      <c r="B244" s="4">
+        <v>31100103</v>
+      </c>
+      <c r="C244" s="44" t="str">
+        <f t="shared" si="39"/>
+        <v>보스전</v>
+      </c>
+      <c r="D244" s="44" t="str">
+        <f t="shared" si="40"/>
+        <v>초회</v>
+      </c>
+      <c r="E244" s="44">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F244,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F244" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="G244" s="44">
+        <v>100</v>
+      </c>
+      <c r="H244" s="53" t="str" cm="1">
+        <f t="array" ref="H244">IF(E244=1000,VLOOKUP(G244,[2]item!$A$5:$C$10000,3,FALSE),IF(E244=112,VLOOKUP(G244,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E244=1,"골드",IF(E244=2,"보석",IF(E244=3,"스테미나",IF(E244=4,"호감도",IF(E244=5,"플레이어 경험치",IF(E244=6,"캐릭터 경험치",IF(E244=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E244=8,VLOOKUP(G244,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E244=111,VLOOKUP(G244,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E244=113,VLOOKUP(G244,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+        <v>보석</v>
+      </c>
+      <c r="I244" s="44">
+        <v>100</v>
+      </c>
+      <c r="J244" s="44">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K244,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K244" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L244" s="44">
+        <v>1000000</v>
+      </c>
+      <c r="M244" s="44" t="b">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="N244" s="44">
+        <v>3</v>
+      </c>
+      <c r="O244" s="4"/>
+    </row>
+    <row r="245" spans="1:15">
+      <c r="A245" s="42">
+        <v>10241</v>
+      </c>
+      <c r="B245" s="42">
+        <v>30100104</v>
+      </c>
+      <c r="C245" s="42" t="str">
+        <f t="shared" si="39"/>
+        <v>보스전</v>
+      </c>
+      <c r="D245" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>통상</v>
+      </c>
+      <c r="E245" s="42">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F245,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1000</v>
+      </c>
+      <c r="F245" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="G245" s="42">
+        <v>16</v>
+      </c>
+      <c r="H245" s="53" t="str" cm="1">
+        <f t="array" ref="H245">IF(E245=1000,VLOOKUP(G245,[2]item!$A$5:$C$10000,3,FALSE),IF(E245=112,VLOOKUP(G245,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E245=1,"골드",IF(E245=2,"보석",IF(E245=3,"스테미나",IF(E245=4,"호감도",IF(E245=5,"플레이어 경험치",IF(E245=6,"캐릭터 경험치",IF(E245=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E245=8,VLOOKUP(G245,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E245=111,VLOOKUP(G245,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E245=113,VLOOKUP(G245,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+        <v>전투 보고서(소)</v>
+      </c>
+      <c r="I245" s="42">
+        <v>20</v>
+      </c>
+      <c r="J245" s="42">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K245,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K245" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L245" s="42">
+        <v>1000000</v>
+      </c>
+      <c r="M245" s="42" t="b">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="N245" s="42">
+        <v>1</v>
+      </c>
+      <c r="O245" s="4"/>
+    </row>
+    <row r="246" spans="1:15">
+      <c r="A246" s="42">
+        <v>10242</v>
+      </c>
+      <c r="B246" s="42">
+        <v>30100104</v>
+      </c>
+      <c r="C246" s="42" t="str">
+        <f t="shared" si="39"/>
+        <v>보스전</v>
+      </c>
+      <c r="D246" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>통상</v>
+      </c>
+      <c r="E246" s="42">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F246,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1000</v>
+      </c>
+      <c r="F246" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="G246" s="42">
+        <v>6</v>
+      </c>
+      <c r="H246" s="53" t="str" cm="1">
+        <f t="array" ref="H246">IF(E246=1000,VLOOKUP(G246,[2]item!$A$5:$C$10000,3,FALSE),IF(E246=112,VLOOKUP(G246,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E246=1,"골드",IF(E246=2,"보석",IF(E246=3,"스테미나",IF(E246=4,"호감도",IF(E246=5,"플레이어 경험치",IF(E246=6,"캐릭터 경험치",IF(E246=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E246=8,VLOOKUP(G246,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E246=111,VLOOKUP(G246,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E246=113,VLOOKUP(G246,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+        <v>경험치 물약_C(소)</v>
+      </c>
+      <c r="I246" s="42">
+        <v>20</v>
+      </c>
+      <c r="J246" s="42">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K246,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K246" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L246" s="42">
+        <v>1000000</v>
+      </c>
+      <c r="M246" s="42" t="b">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="N246" s="42">
+        <v>2</v>
+      </c>
+      <c r="O246" s="4"/>
+    </row>
+    <row r="247" spans="1:15">
+      <c r="A247" s="42">
+        <v>10243</v>
+      </c>
+      <c r="B247" s="42">
+        <v>30100104</v>
+      </c>
+      <c r="C247" s="42" t="str">
+        <f t="shared" si="39"/>
+        <v>보스전</v>
+      </c>
+      <c r="D247" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>통상</v>
+      </c>
+      <c r="E247" s="42">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F247,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>5</v>
+      </c>
+      <c r="F247" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G247" s="42">
+        <v>6</v>
+      </c>
+      <c r="H247" s="53" t="str" cm="1">
+        <f t="array" ref="H247">IF(E247=1000,VLOOKUP(G247,[2]item!$A$5:$C$10000,3,FALSE),IF(E247=112,VLOOKUP(G247,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E247=1,"골드",IF(E247=2,"보석",IF(E247=3,"스테미나",IF(E247=4,"호감도",IF(E247=5,"플레이어 경험치",IF(E247=6,"캐릭터 경험치",IF(E247=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E247=8,VLOOKUP(G247,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E247=111,VLOOKUP(G247,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E247=113,VLOOKUP(G247,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+        <v>플레이어 경험치</v>
+      </c>
+      <c r="I247" s="42">
+        <v>10</v>
+      </c>
+      <c r="J247" s="42">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K247,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K247" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L247" s="42">
+        <v>1000000</v>
+      </c>
+      <c r="M247" s="42" t="b">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="N247" s="42">
+        <v>0</v>
+      </c>
+      <c r="O247" s="4"/>
+    </row>
+    <row r="248" spans="1:15">
+      <c r="A248" s="42">
+        <v>10244</v>
+      </c>
+      <c r="B248" s="42">
+        <v>30100104</v>
+      </c>
+      <c r="C248" s="42" t="str">
+        <f t="shared" si="39"/>
+        <v>보스전</v>
+      </c>
+      <c r="D248" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>통상</v>
+      </c>
+      <c r="E248" s="42">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F248,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>6</v>
+      </c>
+      <c r="F248" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="G248" s="42">
+        <v>6</v>
+      </c>
+      <c r="H248" s="53" t="str" cm="1">
+        <f t="array" ref="H248">IF(E248=1000,VLOOKUP(G248,[2]item!$A$5:$C$10000,3,FALSE),IF(E248=112,VLOOKUP(G248,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E248=1,"골드",IF(E248=2,"보석",IF(E248=3,"스테미나",IF(E248=4,"호감도",IF(E248=5,"플레이어 경험치",IF(E248=6,"캐릭터 경험치",IF(E248=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E248=8,VLOOKUP(G248,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E248=111,VLOOKUP(G248,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E248=113,VLOOKUP(G248,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+        <v>캐릭터 경험치</v>
+      </c>
+      <c r="I248" s="42">
+        <v>12</v>
+      </c>
+      <c r="J248" s="42">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K248,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K248" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L248" s="42">
+        <v>1000000</v>
+      </c>
+      <c r="M248" s="42" t="b">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="N248" s="42">
+        <v>0</v>
+      </c>
+      <c r="O248" s="4"/>
+    </row>
+    <row r="249" spans="1:15">
+      <c r="A249" s="42">
+        <v>10245</v>
+      </c>
+      <c r="B249" s="42">
+        <v>30100104</v>
+      </c>
+      <c r="C249" s="42" t="str">
+        <f t="shared" si="39"/>
+        <v>보스전</v>
+      </c>
+      <c r="D249" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>통상</v>
+      </c>
+      <c r="E249" s="42">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F249,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F249" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="G249" s="42">
+        <v>6</v>
+      </c>
+      <c r="H249" s="53" t="str" cm="1">
+        <f t="array" ref="H249">IF(E249=1000,VLOOKUP(G249,[2]item!$A$5:$C$10000,3,FALSE),IF(E249=112,VLOOKUP(G249,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E249=1,"골드",IF(E249=2,"보석",IF(E249=3,"스테미나",IF(E249=4,"호감도",IF(E249=5,"플레이어 경험치",IF(E249=6,"캐릭터 경험치",IF(E249=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E249=8,VLOOKUP(G249,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E249=111,VLOOKUP(G249,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E249=113,VLOOKUP(G249,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+        <v>골드</v>
+      </c>
+      <c r="I249" s="42">
+        <v>2500</v>
+      </c>
+      <c r="J249" s="42">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K249,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K249" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L249" s="42">
+        <v>1000000</v>
+      </c>
+      <c r="M249" s="42" t="b">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="N249" s="42">
+        <v>0</v>
+      </c>
+      <c r="O249" s="4"/>
+    </row>
+    <row r="250" spans="1:15">
+      <c r="A250" s="42">
+        <v>10246</v>
+      </c>
+      <c r="B250" s="42">
+        <v>30100104</v>
+      </c>
+      <c r="C250" s="42" t="str">
+        <f t="shared" si="39"/>
+        <v>보스전</v>
+      </c>
+      <c r="D250" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>통상</v>
+      </c>
+      <c r="E250" s="42">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F250,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>4</v>
+      </c>
+      <c r="F250" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="G250" s="42">
+        <v>6</v>
+      </c>
+      <c r="H250" s="53" t="str" cm="1">
+        <f t="array" ref="H250">IF(E250=1000,VLOOKUP(G250,[2]item!$A$5:$C$10000,3,FALSE),IF(E250=112,VLOOKUP(G250,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E250=1,"골드",IF(E250=2,"보석",IF(E250=3,"스테미나",IF(E250=4,"호감도",IF(E250=5,"플레이어 경험치",IF(E250=6,"캐릭터 경험치",IF(E250=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E250=8,VLOOKUP(G250,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E250=111,VLOOKUP(G250,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E250=113,VLOOKUP(G250,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+        <v>호감도</v>
+      </c>
+      <c r="I250" s="42">
+        <v>1</v>
+      </c>
+      <c r="J250" s="42">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K250,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K250" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L250" s="42">
+        <v>1000000</v>
+      </c>
+      <c r="M250" s="42" t="b">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="N250" s="42">
+        <v>0</v>
+      </c>
+      <c r="O250" s="4"/>
+    </row>
+    <row r="251" spans="1:15">
+      <c r="A251" s="42">
+        <v>10247</v>
+      </c>
+      <c r="B251" s="42">
+        <v>30100104</v>
+      </c>
+      <c r="C251" s="42" t="str">
+        <f t="shared" si="39"/>
+        <v>보스전</v>
+      </c>
+      <c r="D251" s="42" t="str">
+        <f t="shared" si="40"/>
+        <v>통상</v>
+      </c>
+      <c r="E251" s="42">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F251,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>112</v>
+      </c>
+      <c r="F251" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="G251" s="42">
+        <v>100009</v>
+      </c>
+      <c r="H251" s="53" t="str" cm="1">
+        <f t="array" ref="H251">IF(E251=1000,VLOOKUP(G251,[2]item!$A$5:$C$10000,3,FALSE),IF(E251=112,VLOOKUP(G251,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E251=1,"골드",IF(E251=2,"보석",IF(E251=3,"스테미나",IF(E251=4,"호감도",IF(E251=5,"플레이어 경험치",IF(E251=6,"캐릭터 경험치",IF(E251=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E251=8,VLOOKUP(G251,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E251=111,VLOOKUP(G251,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E251=113,VLOOKUP(G251,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+        <v>엘리자베스 조각</v>
+      </c>
+      <c r="I251" s="42">
+        <v>30</v>
+      </c>
+      <c r="J251" s="42">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K251,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K251" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L251" s="42">
+        <v>1000000</v>
+      </c>
+      <c r="M251" s="42" t="b">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="N251" s="42">
+        <v>3</v>
+      </c>
+      <c r="O251" s="4"/>
+    </row>
+    <row r="252" spans="1:15">
+      <c r="A252" s="42">
+        <v>10248</v>
+      </c>
+      <c r="B252" s="4">
+        <v>31100104</v>
+      </c>
+      <c r="C252" s="4" t="str">
+        <f t="shared" si="39"/>
+        <v>보스전</v>
+      </c>
+      <c r="D252" s="4" t="str">
+        <f t="shared" si="40"/>
+        <v>초회</v>
+      </c>
+      <c r="E252" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F252,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>112</v>
+      </c>
+      <c r="F252" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="G252" s="4">
+        <v>100009</v>
+      </c>
+      <c r="H252" s="53" t="str" cm="1">
+        <f t="array" ref="H252">IF(E252=1000,VLOOKUP(G252,[2]item!$A$5:$C$10000,3,FALSE),IF(E252=112,VLOOKUP(G252,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E252=1,"골드",IF(E252=2,"보석",IF(E252=3,"스테미나",IF(E252=4,"호감도",IF(E252=5,"플레이어 경험치",IF(E252=6,"캐릭터 경험치",IF(E252=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E252=8,VLOOKUP(G252,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E252=111,VLOOKUP(G252,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E252=113,VLOOKUP(G252,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+        <v>엘리자베스 조각</v>
+      </c>
+      <c r="I252" s="4">
+        <v>50</v>
+      </c>
+      <c r="J252" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K252,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K252" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L252" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="M252" s="4" t="b">
+        <f t="shared" ref="M252:M254" si="41">IF(N252&gt;0,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="N252" s="4">
+        <v>1</v>
+      </c>
+      <c r="O252" s="4"/>
+    </row>
+    <row r="253" spans="1:15">
+      <c r="A253" s="42">
+        <v>10249</v>
+      </c>
+      <c r="B253" s="4">
+        <v>31100104</v>
+      </c>
+      <c r="C253" s="4" t="str">
+        <f t="shared" ref="C253:C254" si="42">IF(MID(B253, 1, 1) = "1", "메인 스테이지", IF(MID(B253, 1, 1) = "2", "일일던전", IF(MID(B253, 1, 1) = "3", "보스전", "다른 경우")))</f>
+        <v>보스전</v>
+      </c>
+      <c r="D253" s="4" t="str">
+        <f t="shared" ref="D253:D254" si="43">IF(MID(B253, 2, 1) = "0", "통상", IF(MID(B253, 2, 1) = "1", "초회", IF(MID(B253, 2, 1) = "2", "별 보상", "다른 경우")))</f>
+        <v>초회</v>
+      </c>
+      <c r="E253" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F253,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F253" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="G253" s="4">
+        <v>8000</v>
+      </c>
+      <c r="H253" s="53" t="str" cm="1">
+        <f t="array" ref="H253">IF(E253=1000,VLOOKUP(G253,[2]item!$A$5:$C$10000,3,FALSE),IF(E253=112,VLOOKUP(G253,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E253=1,"골드",IF(E253=2,"보석",IF(E253=3,"스테미나",IF(E253=4,"호감도",IF(E253=5,"플레이어 경험치",IF(E253=6,"캐릭터 경험치",IF(E253=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E253=8,VLOOKUP(G253,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E253=111,VLOOKUP(G253,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E253=113,VLOOKUP(G253,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+        <v>골드</v>
+      </c>
+      <c r="I253" s="4">
+        <v>10000</v>
+      </c>
+      <c r="J253" s="4">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K253,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K253" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L253" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="M253" s="4" t="b">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="N253" s="4">
+        <v>2</v>
+      </c>
+      <c r="O253" s="4"/>
+    </row>
+    <row r="254" spans="1:15">
+      <c r="A254" s="42">
+        <v>10250</v>
+      </c>
+      <c r="B254" s="4">
+        <v>31100104</v>
+      </c>
+      <c r="C254" s="44" t="str">
+        <f t="shared" si="42"/>
+        <v>보스전</v>
+      </c>
+      <c r="D254" s="44" t="str">
+        <f t="shared" si="43"/>
+        <v>초회</v>
+      </c>
+      <c r="E254" s="44">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F254,'!참조_ENUM'!$G$3:$G$42,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F254" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="G254" s="44">
+        <v>100</v>
+      </c>
+      <c r="H254" s="53" t="str" cm="1">
+        <f t="array" ref="H254">IF(E254=1000,VLOOKUP(G254,[2]item!$A$5:$C$10000,3,FALSE),IF(E254=112,VLOOKUP(G254,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E254=1,"골드",IF(E254=2,"보석",IF(E254=3,"스테미나",IF(E254=4,"호감도",IF(E254=5,"플레이어 경험치",IF(E254=6,"캐릭터 경험치",IF(E254=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E254=8,VLOOKUP(G254,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E254=111,VLOOKUP(G254,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E254=113,VLOOKUP(G254,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+        <v>보석</v>
+      </c>
+      <c r="I254" s="44">
+        <v>100</v>
+      </c>
+      <c r="J254" s="44">
+        <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K254,'!참조_ENUM'!$K$3:$K$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K254" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L254" s="44">
+        <v>1000000</v>
+      </c>
+      <c r="M254" s="44" t="b">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="N254" s="44">
+        <v>3</v>
+      </c>
+      <c r="O254" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -15489,13 +17647,13 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$G$3:$G$42</xm:f>
           </x14:formula1>
-          <xm:sqref>F5:F214</xm:sqref>
+          <xm:sqref>F5:F254</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DBB16A7D-4803-49B0-B5E8-D7E90DB055D9}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$K$3:$K$5</xm:f>
           </x14:formula1>
-          <xm:sqref>K5:K214</xm:sqref>
+          <xm:sqref>K5:K254</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Android/ExcelData/RewardTable.xlsx
+++ b/Android/ExcelData/RewardTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA99F06E-AD3A-48A4-98C3-B958A195124D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E13105B-37EA-400C-BD75-F97F1356865D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40095" yWindow="315" windowWidth="34770" windowHeight="19395" activeTab="2" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
+    <workbookView xWindow="40665" yWindow="2205" windowWidth="36135" windowHeight="19395" activeTab="2" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
   </bookViews>
   <sheets>
     <sheet name="!사용 설명" sheetId="6" r:id="rId1"/>
@@ -396,28 +396,6 @@
     </comment>
   </commentList>
 </comments>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1131,7 +1109,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1256,6 +1234,24 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1276,30 +1272,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1362,6 +1334,7 @@
       <sheetName val="@item_type"/>
       <sheetName val="@sd_body_type"/>
       <sheetName val="@stage_common"/>
+      <sheetName val="@reward"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1460,62 +1433,38 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
+      <sheetData sheetId="2">
         <row r="1">
           <cell r="A1" t="str">
-            <v>TARGET_RULE_TYPE</v>
+            <v>POSITION_TYPE</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
+      <sheetData sheetId="3">
         <row r="1">
           <cell r="A1" t="str">
-            <v>SECOND_TARGET_RULE_TYPE</v>
+            <v>ROLE_TYPE</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8">
+      <sheetData sheetId="4">
         <row r="1">
           <cell r="A1" t="str">
-            <v>EFFECT_TYPE</v>
+            <v>NPC_TYPE</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="9">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>STAT_MULTIPLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ONETIME_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="15">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>DURATION_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
       <sheetData sheetId="16">
         <row r="1">
           <cell r="A1" t="str">
@@ -1523,23 +1472,17 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="17">
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21">
         <row r="1">
           <cell r="A1" t="str">
-            <v>PERSISTENCE_TYPE</v>
+            <v>LIMIT_TYPE</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SKILL_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
@@ -1791,13 +1734,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="30">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_COUNT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="30"/>
       <sheetData sheetId="31"/>
       <sheetData sheetId="32">
         <row r="1">
@@ -1810,6 +1747,7 @@
       <sheetData sheetId="34" refreshError="1"/>
       <sheetData sheetId="35" refreshError="1"/>
       <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3022,10 +2960,10 @@
         <f>'!참조_ENUM'!G2</f>
         <v>comment</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="55"/>
+      <c r="E2" s="61"/>
       <c r="F2" s="38"/>
       <c r="G2" s="38"/>
       <c r="H2" s="38"/>
@@ -3582,12 +3520,12 @@
       <c r="F22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H22" s="56" t="s">
+      <c r="H22" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="58"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="64"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="13" t="s">
@@ -3875,11 +3813,11 @@
         <f t="shared" si="1"/>
         <v>5%</v>
       </c>
-      <c r="K31" s="59" t="str">
+      <c r="K31" s="65" t="str">
         <f>SUM(F31:F37)/10000&amp;"%"</f>
         <v>100%</v>
       </c>
-      <c r="L31" s="62" t="s">
+      <c r="L31" s="68" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3913,8 +3851,8 @@
         <f t="shared" si="1"/>
         <v>20%</v>
       </c>
-      <c r="K32" s="60"/>
-      <c r="L32" s="63"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="69"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="21">
@@ -3946,8 +3884,8 @@
         <f t="shared" si="1"/>
         <v>15%</v>
       </c>
-      <c r="K33" s="60"/>
-      <c r="L33" s="63"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="69"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="21">
@@ -3979,8 +3917,8 @@
         <f t="shared" si="1"/>
         <v>15%</v>
       </c>
-      <c r="K34" s="60"/>
-      <c r="L34" s="63"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="69"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="21">
@@ -4012,8 +3950,8 @@
         <f t="shared" si="1"/>
         <v>15%</v>
       </c>
-      <c r="K35" s="60"/>
-      <c r="L35" s="63"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="69"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="21">
@@ -4045,8 +3983,8 @@
         <f t="shared" si="1"/>
         <v>15%</v>
       </c>
-      <c r="K36" s="60"/>
-      <c r="L36" s="63"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="69"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="21">
@@ -4078,8 +4016,8 @@
         <f t="shared" si="1"/>
         <v>15%</v>
       </c>
-      <c r="K37" s="61"/>
-      <c r="L37" s="63"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="69"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="21">
@@ -4110,7 +4048,7 @@
         <f t="shared" si="1"/>
         <v>33%</v>
       </c>
-      <c r="K38" s="64" t="str">
+      <c r="K38" s="70" t="str">
         <f>SUM(F38:F40)/10000&amp;"%"</f>
         <v>100%</v>
       </c>
@@ -4144,7 +4082,7 @@
         <f t="shared" si="1"/>
         <v>33%</v>
       </c>
-      <c r="K39" s="60"/>
+      <c r="K39" s="66"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="21">
@@ -4175,7 +4113,7 @@
         <f t="shared" si="1"/>
         <v>34%</v>
       </c>
-      <c r="K40" s="61"/>
+      <c r="K40" s="67"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="21"/>
@@ -4718,10 +4656,10 @@
   <dimension ref="A1:O254"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G220" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D256" sqref="D256"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4911,8 +4849,8 @@
       <c r="G5" s="42">
         <v>16</v>
       </c>
-      <c r="H5" s="53" t="str" cm="1">
-        <f t="array" ref="H5">IF(E5=1000,VLOOKUP(G5,[2]item!$A$5:$C$10000,3,FALSE),IF(E5=112,VLOOKUP(G5,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E5=1,"골드",IF(E5=2,"보석",IF(E5=3,"스테미나",IF(E5=4,"호감도",IF(E5=5,"플레이어 경험치",IF(E5=6,"캐릭터 경험치",IF(E5=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E5=8,VLOOKUP(G5,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E5=111,VLOOKUP(G5,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E5=113,VLOOKUP(G5,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H5" s="53" t="str">
+        <f>IF(E5=1000,VLOOKUP(G5,[2]item!$A$5:$C$10000,3,FALSE),IF(E5=112,VLOOKUP(G5,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E5=1,"골드",IF(E5=2,"보석",IF(E5=3,"스테미나",IF(E5=4,"호감도",IF(E5=5,"플레이어 경험치",IF(E5=6,"캐릭터 경험치",IF(E5=7,VLOOKUP(G5,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E5=8,VLOOKUP(G5,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E5=111,VLOOKUP(G5,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E5=113,VLOOKUP(G5,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>전투 보고서(소)</v>
       </c>
       <c r="I5" s="42">
@@ -4962,8 +4900,8 @@
       <c r="G6" s="42">
         <v>6</v>
       </c>
-      <c r="H6" s="53" t="str" cm="1">
-        <f t="array" ref="H6">IF(E6=1000,VLOOKUP(G6,[2]item!$A$5:$C$10000,3,FALSE),IF(E6=112,VLOOKUP(G6,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E6=1,"골드",IF(E6=2,"보석",IF(E6=3,"스테미나",IF(E6=4,"호감도",IF(E6=5,"플레이어 경험치",IF(E6=6,"캐릭터 경험치",IF(E6=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E6=8,VLOOKUP(G6,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E6=111,VLOOKUP(G6,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E6=113,VLOOKUP(G6,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H6" s="53" t="str">
+        <f>IF(E6=1000,VLOOKUP(G6,[2]item!$A$5:$C$10000,3,FALSE),IF(E6=112,VLOOKUP(G6,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E6=1,"골드",IF(E6=2,"보석",IF(E6=3,"스테미나",IF(E6=4,"호감도",IF(E6=5,"플레이어 경험치",IF(E6=6,"캐릭터 경험치",IF(E6=7,VLOOKUP(G6,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E6=8,VLOOKUP(G6,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E6=111,VLOOKUP(G6,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E6=113,VLOOKUP(G6,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>경험치 물약_C(소)</v>
       </c>
       <c r="I6" s="42">
@@ -5013,8 +4951,8 @@
       <c r="G7" s="42">
         <v>6</v>
       </c>
-      <c r="H7" s="53" t="str" cm="1">
-        <f t="array" ref="H7">IF(E7=1000,VLOOKUP(G7,[2]item!$A$5:$C$10000,3,FALSE),IF(E7=112,VLOOKUP(G7,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E7=1,"골드",IF(E7=2,"보석",IF(E7=3,"스테미나",IF(E7=4,"호감도",IF(E7=5,"플레이어 경험치",IF(E7=6,"캐릭터 경험치",IF(E7=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E7=8,VLOOKUP(G7,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E7=111,VLOOKUP(G7,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E7=113,VLOOKUP(G7,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H7" s="53" t="str">
+        <f>IF(E7=1000,VLOOKUP(G7,[2]item!$A$5:$C$10000,3,FALSE),IF(E7=112,VLOOKUP(G7,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E7=1,"골드",IF(E7=2,"보석",IF(E7=3,"스테미나",IF(E7=4,"호감도",IF(E7=5,"플레이어 경험치",IF(E7=6,"캐릭터 경험치",IF(E7=7,VLOOKUP(G7,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E7=8,VLOOKUP(G7,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E7=111,VLOOKUP(G7,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E7=113,VLOOKUP(G7,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>플레이어 경험치</v>
       </c>
       <c r="I7" s="42">
@@ -5064,8 +5002,8 @@
       <c r="G8" s="42">
         <v>6</v>
       </c>
-      <c r="H8" s="53" t="str" cm="1">
-        <f t="array" ref="H8">IF(E8=1000,VLOOKUP(G8,[2]item!$A$5:$C$10000,3,FALSE),IF(E8=112,VLOOKUP(G8,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E8=1,"골드",IF(E8=2,"보석",IF(E8=3,"스테미나",IF(E8=4,"호감도",IF(E8=5,"플레이어 경험치",IF(E8=6,"캐릭터 경험치",IF(E8=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E8=8,VLOOKUP(G8,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E8=111,VLOOKUP(G8,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E8=113,VLOOKUP(G8,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H8" s="53" t="str">
+        <f>IF(E8=1000,VLOOKUP(G8,[2]item!$A$5:$C$10000,3,FALSE),IF(E8=112,VLOOKUP(G8,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E8=1,"골드",IF(E8=2,"보석",IF(E8=3,"스테미나",IF(E8=4,"호감도",IF(E8=5,"플레이어 경험치",IF(E8=6,"캐릭터 경험치",IF(E8=7,VLOOKUP(G8,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E8=8,VLOOKUP(G8,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E8=111,VLOOKUP(G8,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E8=113,VLOOKUP(G8,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>캐릭터 경험치</v>
       </c>
       <c r="I8" s="42">
@@ -5115,8 +5053,8 @@
       <c r="G9" s="42">
         <v>6</v>
       </c>
-      <c r="H9" s="53" t="str" cm="1">
-        <f t="array" ref="H9">IF(E9=1000,VLOOKUP(G9,[2]item!$A$5:$C$10000,3,FALSE),IF(E9=112,VLOOKUP(G9,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E9=1,"골드",IF(E9=2,"보석",IF(E9=3,"스테미나",IF(E9=4,"호감도",IF(E9=5,"플레이어 경험치",IF(E9=6,"캐릭터 경험치",IF(E9=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E9=8,VLOOKUP(G9,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E9=111,VLOOKUP(G9,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E9=113,VLOOKUP(G9,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H9" s="53" t="str">
+        <f>IF(E9=1000,VLOOKUP(G9,[2]item!$A$5:$C$10000,3,FALSE),IF(E9=112,VLOOKUP(G9,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E9=1,"골드",IF(E9=2,"보석",IF(E9=3,"스테미나",IF(E9=4,"호감도",IF(E9=5,"플레이어 경험치",IF(E9=6,"캐릭터 경험치",IF(E9=7,VLOOKUP(G9,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E9=8,VLOOKUP(G9,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E9=111,VLOOKUP(G9,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E9=113,VLOOKUP(G9,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>골드</v>
       </c>
       <c r="I9" s="42">
@@ -5166,8 +5104,8 @@
       <c r="G10" s="42">
         <v>6</v>
       </c>
-      <c r="H10" s="53" t="str" cm="1">
-        <f t="array" ref="H10">IF(E10=1000,VLOOKUP(G10,[2]item!$A$5:$C$10000,3,FALSE),IF(E10=112,VLOOKUP(G10,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E10=1,"골드",IF(E10=2,"보석",IF(E10=3,"스테미나",IF(E10=4,"호감도",IF(E10=5,"플레이어 경험치",IF(E10=6,"캐릭터 경험치",IF(E10=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E10=8,VLOOKUP(G10,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E10=111,VLOOKUP(G10,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E10=113,VLOOKUP(G10,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H10" s="53" t="str">
+        <f>IF(E10=1000,VLOOKUP(G10,[2]item!$A$5:$C$10000,3,FALSE),IF(E10=112,VLOOKUP(G10,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E10=1,"골드",IF(E10=2,"보석",IF(E10=3,"스테미나",IF(E10=4,"호감도",IF(E10=5,"플레이어 경험치",IF(E10=6,"캐릭터 경험치",IF(E10=7,VLOOKUP(G10,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E10=8,VLOOKUP(G10,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E10=111,VLOOKUP(G10,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E10=113,VLOOKUP(G10,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>호감도</v>
       </c>
       <c r="I10" s="42">
@@ -5217,8 +5155,8 @@
       <c r="G11" s="42">
         <v>100005</v>
       </c>
-      <c r="H11" s="53" t="str" cm="1">
-        <f t="array" ref="H11">IF(E11=1000,VLOOKUP(G11,[2]item!$A$5:$C$10000,3,FALSE),IF(E11=112,VLOOKUP(G11,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E11=1,"골드",IF(E11=2,"보석",IF(E11=3,"스테미나",IF(E11=4,"호감도",IF(E11=5,"플레이어 경험치",IF(E11=6,"캐릭터 경험치",IF(E11=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E11=8,VLOOKUP(G11,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E11=111,VLOOKUP(G11,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E11=113,VLOOKUP(G11,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H11" s="53" t="str">
+        <f>IF(E11=1000,VLOOKUP(G11,[2]item!$A$5:$C$10000,3,FALSE),IF(E11=112,VLOOKUP(G11,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E11=1,"골드",IF(E11=2,"보석",IF(E11=3,"스테미나",IF(E11=4,"호감도",IF(E11=5,"플레이어 경험치",IF(E11=6,"캐릭터 경험치",IF(E11=7,VLOOKUP(G11,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E11=8,VLOOKUP(G11,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E11=111,VLOOKUP(G11,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E11=113,VLOOKUP(G11,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>클레어 조각</v>
       </c>
       <c r="I11" s="42">
@@ -5268,8 +5206,8 @@
       <c r="G12" s="42">
         <v>100002</v>
       </c>
-      <c r="H12" s="53" t="str" cm="1">
-        <f t="array" ref="H12">IF(E12=1000,VLOOKUP(G12,[2]item!$A$5:$C$10000,3,FALSE),IF(E12=112,VLOOKUP(G12,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E12=1,"골드",IF(E12=2,"보석",IF(E12=3,"스테미나",IF(E12=4,"호감도",IF(E12=5,"플레이어 경험치",IF(E12=6,"캐릭터 경험치",IF(E12=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E12=8,VLOOKUP(G12,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E12=111,VLOOKUP(G12,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E12=113,VLOOKUP(G12,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H12" s="53" t="str">
+        <f>IF(E12=1000,VLOOKUP(G12,[2]item!$A$5:$C$10000,3,FALSE),IF(E12=112,VLOOKUP(G12,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E12=1,"골드",IF(E12=2,"보석",IF(E12=3,"스테미나",IF(E12=4,"호감도",IF(E12=5,"플레이어 경험치",IF(E12=6,"캐릭터 경험치",IF(E12=7,VLOOKUP(G12,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E12=8,VLOOKUP(G12,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E12=111,VLOOKUP(G12,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E12=113,VLOOKUP(G12,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>라일라 조각</v>
       </c>
       <c r="I12" s="42">
@@ -5319,8 +5257,8 @@
       <c r="G13" s="42">
         <v>100003</v>
       </c>
-      <c r="H13" s="53" t="str" cm="1">
-        <f t="array" ref="H13">IF(E13=1000,VLOOKUP(G13,[2]item!$A$5:$C$10000,3,FALSE),IF(E13=112,VLOOKUP(G13,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E13=1,"골드",IF(E13=2,"보석",IF(E13=3,"스테미나",IF(E13=4,"호감도",IF(E13=5,"플레이어 경험치",IF(E13=6,"캐릭터 경험치",IF(E13=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E13=8,VLOOKUP(G13,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E13=111,VLOOKUP(G13,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E13=113,VLOOKUP(G13,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H13" s="53" t="str">
+        <f>IF(E13=1000,VLOOKUP(G13,[2]item!$A$5:$C$10000,3,FALSE),IF(E13=112,VLOOKUP(G13,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E13=1,"골드",IF(E13=2,"보석",IF(E13=3,"스테미나",IF(E13=4,"호감도",IF(E13=5,"플레이어 경험치",IF(E13=6,"캐릭터 경험치",IF(E13=7,VLOOKUP(G13,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E13=8,VLOOKUP(G13,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E13=111,VLOOKUP(G13,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E13=113,VLOOKUP(G13,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>바이올렛 조각</v>
       </c>
       <c r="I13" s="42">
@@ -5370,8 +5308,8 @@
       <c r="G14" s="42">
         <v>100004</v>
       </c>
-      <c r="H14" s="53" t="str" cm="1">
-        <f t="array" ref="H14">IF(E14=1000,VLOOKUP(G14,[2]item!$A$5:$C$10000,3,FALSE),IF(E14=112,VLOOKUP(G14,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E14=1,"골드",IF(E14=2,"보석",IF(E14=3,"스테미나",IF(E14=4,"호감도",IF(E14=5,"플레이어 경험치",IF(E14=6,"캐릭터 경험치",IF(E14=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E14=8,VLOOKUP(G14,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E14=111,VLOOKUP(G14,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E14=113,VLOOKUP(G14,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H14" s="53" t="str">
+        <f>IF(E14=1000,VLOOKUP(G14,[2]item!$A$5:$C$10000,3,FALSE),IF(E14=112,VLOOKUP(G14,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E14=1,"골드",IF(E14=2,"보석",IF(E14=3,"스테미나",IF(E14=4,"호감도",IF(E14=5,"플레이어 경험치",IF(E14=6,"캐릭터 경험치",IF(E14=7,VLOOKUP(G14,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E14=8,VLOOKUP(G14,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E14=111,VLOOKUP(G14,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E14=113,VLOOKUP(G14,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>데이지 조각</v>
       </c>
       <c r="I14" s="42">
@@ -5421,8 +5359,8 @@
       <c r="G15" s="4">
         <v>100005</v>
       </c>
-      <c r="H15" s="53" t="str" cm="1">
-        <f t="array" ref="H15">IF(E15=1000,VLOOKUP(G15,[2]item!$A$5:$C$10000,3,FALSE),IF(E15=112,VLOOKUP(G15,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E15=1,"골드",IF(E15=2,"보석",IF(E15=3,"스테미나",IF(E15=4,"호감도",IF(E15=5,"플레이어 경험치",IF(E15=6,"캐릭터 경험치",IF(E15=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E15=8,VLOOKUP(G15,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E15=111,VLOOKUP(G15,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E15=113,VLOOKUP(G15,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H15" s="53" t="str">
+        <f>IF(E15=1000,VLOOKUP(G15,[2]item!$A$5:$C$10000,3,FALSE),IF(E15=112,VLOOKUP(G15,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E15=1,"골드",IF(E15=2,"보석",IF(E15=3,"스테미나",IF(E15=4,"호감도",IF(E15=5,"플레이어 경험치",IF(E15=6,"캐릭터 경험치",IF(E15=7,VLOOKUP(G15,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E15=8,VLOOKUP(G15,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E15=111,VLOOKUP(G15,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E15=113,VLOOKUP(G15,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>클레어 조각</v>
       </c>
       <c r="I15" s="4">
@@ -5472,8 +5410,8 @@
       <c r="G16" s="4">
         <v>8000</v>
       </c>
-      <c r="H16" s="53" t="str" cm="1">
-        <f t="array" ref="H16">IF(E16=1000,VLOOKUP(G16,[2]item!$A$5:$C$10000,3,FALSE),IF(E16=112,VLOOKUP(G16,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E16=1,"골드",IF(E16=2,"보석",IF(E16=3,"스테미나",IF(E16=4,"호감도",IF(E16=5,"플레이어 경험치",IF(E16=6,"캐릭터 경험치",IF(E16=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E16=8,VLOOKUP(G16,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E16=111,VLOOKUP(G16,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E16=113,VLOOKUP(G16,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H16" s="53" t="str">
+        <f>IF(E16=1000,VLOOKUP(G16,[2]item!$A$5:$C$10000,3,FALSE),IF(E16=112,VLOOKUP(G16,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E16=1,"골드",IF(E16=2,"보석",IF(E16=3,"스테미나",IF(E16=4,"호감도",IF(E16=5,"플레이어 경험치",IF(E16=6,"캐릭터 경험치",IF(E16=7,VLOOKUP(G16,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E16=8,VLOOKUP(G16,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E16=111,VLOOKUP(G16,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E16=113,VLOOKUP(G16,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>골드</v>
       </c>
       <c r="I16" s="4">
@@ -5523,8 +5461,8 @@
       <c r="G17" s="4">
         <v>16</v>
       </c>
-      <c r="H17" s="53" t="str" cm="1">
-        <f t="array" ref="H17">IF(E17=1000,VLOOKUP(G17,[2]item!$A$5:$C$10000,3,FALSE),IF(E17=112,VLOOKUP(G17,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E17=1,"골드",IF(E17=2,"보석",IF(E17=3,"스테미나",IF(E17=4,"호감도",IF(E17=5,"플레이어 경험치",IF(E17=6,"캐릭터 경험치",IF(E17=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E17=8,VLOOKUP(G17,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E17=111,VLOOKUP(G17,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E17=113,VLOOKUP(G17,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H17" s="53" t="str">
+        <f>IF(E17=1000,VLOOKUP(G17,[2]item!$A$5:$C$10000,3,FALSE),IF(E17=112,VLOOKUP(G17,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E17=1,"골드",IF(E17=2,"보석",IF(E17=3,"스테미나",IF(E17=4,"호감도",IF(E17=5,"플레이어 경험치",IF(E17=6,"캐릭터 경험치",IF(E17=7,VLOOKUP(G17,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E17=8,VLOOKUP(G17,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E17=111,VLOOKUP(G17,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E17=113,VLOOKUP(G17,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>전투 보고서(소)</v>
       </c>
       <c r="I17" s="4">
@@ -5574,8 +5512,8 @@
       <c r="G18" s="44">
         <v>30</v>
       </c>
-      <c r="H18" s="53" t="str" cm="1">
-        <f t="array" ref="H18">IF(E18=1000,VLOOKUP(G18,[2]item!$A$5:$C$10000,3,FALSE),IF(E18=112,VLOOKUP(G18,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E18=1,"골드",IF(E18=2,"보석",IF(E18=3,"스테미나",IF(E18=4,"호감도",IF(E18=5,"플레이어 경험치",IF(E18=6,"캐릭터 경험치",IF(E18=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E18=8,VLOOKUP(G18,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E18=111,VLOOKUP(G18,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E18=113,VLOOKUP(G18,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H18" s="53" t="str">
+        <f>IF(E18=1000,VLOOKUP(G18,[2]item!$A$5:$C$10000,3,FALSE),IF(E18=112,VLOOKUP(G18,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E18=1,"골드",IF(E18=2,"보석",IF(E18=3,"스테미나",IF(E18=4,"호감도",IF(E18=5,"플레이어 경험치",IF(E18=6,"캐릭터 경험치",IF(E18=7,VLOOKUP(G18,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E18=8,VLOOKUP(G18,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E18=111,VLOOKUP(G18,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E18=113,VLOOKUP(G18,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>보석</v>
       </c>
       <c r="I18" s="44">
@@ -5625,8 +5563,8 @@
       <c r="G19" s="42">
         <v>16</v>
       </c>
-      <c r="H19" s="53" t="str" cm="1">
-        <f t="array" ref="H19">IF(E19=1000,VLOOKUP(G19,[2]item!$A$5:$C$10000,3,FALSE),IF(E19=112,VLOOKUP(G19,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E19=1,"골드",IF(E19=2,"보석",IF(E19=3,"스테미나",IF(E19=4,"호감도",IF(E19=5,"플레이어 경험치",IF(E19=6,"캐릭터 경험치",IF(E19=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E19=8,VLOOKUP(G19,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E19=111,VLOOKUP(G19,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E19=113,VLOOKUP(G19,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H19" s="53" t="str">
+        <f>IF(E19=1000,VLOOKUP(G19,[2]item!$A$5:$C$10000,3,FALSE),IF(E19=112,VLOOKUP(G19,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E19=1,"골드",IF(E19=2,"보석",IF(E19=3,"스테미나",IF(E19=4,"호감도",IF(E19=5,"플레이어 경험치",IF(E19=6,"캐릭터 경험치",IF(E19=7,VLOOKUP(G19,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E19=8,VLOOKUP(G19,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E19=111,VLOOKUP(G19,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E19=113,VLOOKUP(G19,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>전투 보고서(소)</v>
       </c>
       <c r="I19" s="42">
@@ -5676,8 +5614,8 @@
       <c r="G20" s="42">
         <v>6</v>
       </c>
-      <c r="H20" s="53" t="str" cm="1">
-        <f t="array" ref="H20">IF(E20=1000,VLOOKUP(G20,[2]item!$A$5:$C$10000,3,FALSE),IF(E20=112,VLOOKUP(G20,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E20=1,"골드",IF(E20=2,"보석",IF(E20=3,"스테미나",IF(E20=4,"호감도",IF(E20=5,"플레이어 경험치",IF(E20=6,"캐릭터 경험치",IF(E20=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E20=8,VLOOKUP(G20,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E20=111,VLOOKUP(G20,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E20=113,VLOOKUP(G20,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H20" s="53" t="str">
+        <f>IF(E20=1000,VLOOKUP(G20,[2]item!$A$5:$C$10000,3,FALSE),IF(E20=112,VLOOKUP(G20,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E20=1,"골드",IF(E20=2,"보석",IF(E20=3,"스테미나",IF(E20=4,"호감도",IF(E20=5,"플레이어 경험치",IF(E20=6,"캐릭터 경험치",IF(E20=7,VLOOKUP(G20,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E20=8,VLOOKUP(G20,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E20=111,VLOOKUP(G20,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E20=113,VLOOKUP(G20,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>경험치 물약_C(소)</v>
       </c>
       <c r="I20" s="42">
@@ -5727,8 +5665,8 @@
       <c r="G21" s="42">
         <v>6</v>
       </c>
-      <c r="H21" s="53" t="str" cm="1">
-        <f t="array" ref="H21">IF(E21=1000,VLOOKUP(G21,[2]item!$A$5:$C$10000,3,FALSE),IF(E21=112,VLOOKUP(G21,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E21=1,"골드",IF(E21=2,"보석",IF(E21=3,"스테미나",IF(E21=4,"호감도",IF(E21=5,"플레이어 경험치",IF(E21=6,"캐릭터 경험치",IF(E21=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E21=8,VLOOKUP(G21,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E21=111,VLOOKUP(G21,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E21=113,VLOOKUP(G21,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H21" s="53" t="str">
+        <f>IF(E21=1000,VLOOKUP(G21,[2]item!$A$5:$C$10000,3,FALSE),IF(E21=112,VLOOKUP(G21,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E21=1,"골드",IF(E21=2,"보석",IF(E21=3,"스테미나",IF(E21=4,"호감도",IF(E21=5,"플레이어 경험치",IF(E21=6,"캐릭터 경험치",IF(E21=7,VLOOKUP(G21,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E21=8,VLOOKUP(G21,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E21=111,VLOOKUP(G21,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E21=113,VLOOKUP(G21,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>플레이어 경험치</v>
       </c>
       <c r="I21" s="42">
@@ -5778,8 +5716,8 @@
       <c r="G22" s="42">
         <v>6</v>
       </c>
-      <c r="H22" s="53" t="str" cm="1">
-        <f t="array" ref="H22">IF(E22=1000,VLOOKUP(G22,[2]item!$A$5:$C$10000,3,FALSE),IF(E22=112,VLOOKUP(G22,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E22=1,"골드",IF(E22=2,"보석",IF(E22=3,"스테미나",IF(E22=4,"호감도",IF(E22=5,"플레이어 경험치",IF(E22=6,"캐릭터 경험치",IF(E22=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E22=8,VLOOKUP(G22,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E22=111,VLOOKUP(G22,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E22=113,VLOOKUP(G22,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H22" s="53" t="str">
+        <f>IF(E22=1000,VLOOKUP(G22,[2]item!$A$5:$C$10000,3,FALSE),IF(E22=112,VLOOKUP(G22,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E22=1,"골드",IF(E22=2,"보석",IF(E22=3,"스테미나",IF(E22=4,"호감도",IF(E22=5,"플레이어 경험치",IF(E22=6,"캐릭터 경험치",IF(E22=7,VLOOKUP(G22,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E22=8,VLOOKUP(G22,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E22=111,VLOOKUP(G22,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E22=113,VLOOKUP(G22,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>캐릭터 경험치</v>
       </c>
       <c r="I22" s="42">
@@ -5829,8 +5767,8 @@
       <c r="G23" s="42">
         <v>6</v>
       </c>
-      <c r="H23" s="53" t="str" cm="1">
-        <f t="array" ref="H23">IF(E23=1000,VLOOKUP(G23,[2]item!$A$5:$C$10000,3,FALSE),IF(E23=112,VLOOKUP(G23,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E23=1,"골드",IF(E23=2,"보석",IF(E23=3,"스테미나",IF(E23=4,"호감도",IF(E23=5,"플레이어 경험치",IF(E23=6,"캐릭터 경험치",IF(E23=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E23=8,VLOOKUP(G23,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E23=111,VLOOKUP(G23,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E23=113,VLOOKUP(G23,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H23" s="53" t="str">
+        <f>IF(E23=1000,VLOOKUP(G23,[2]item!$A$5:$C$10000,3,FALSE),IF(E23=112,VLOOKUP(G23,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E23=1,"골드",IF(E23=2,"보석",IF(E23=3,"스테미나",IF(E23=4,"호감도",IF(E23=5,"플레이어 경험치",IF(E23=6,"캐릭터 경험치",IF(E23=7,VLOOKUP(G23,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E23=8,VLOOKUP(G23,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E23=111,VLOOKUP(G23,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E23=113,VLOOKUP(G23,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>골드</v>
       </c>
       <c r="I23" s="42">
@@ -5880,8 +5818,8 @@
       <c r="G24" s="42">
         <v>6</v>
       </c>
-      <c r="H24" s="53" t="str" cm="1">
-        <f t="array" ref="H24">IF(E24=1000,VLOOKUP(G24,[2]item!$A$5:$C$10000,3,FALSE),IF(E24=112,VLOOKUP(G24,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E24=1,"골드",IF(E24=2,"보석",IF(E24=3,"스테미나",IF(E24=4,"호감도",IF(E24=5,"플레이어 경험치",IF(E24=6,"캐릭터 경험치",IF(E24=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E24=8,VLOOKUP(G24,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E24=111,VLOOKUP(G24,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E24=113,VLOOKUP(G24,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H24" s="53" t="str">
+        <f>IF(E24=1000,VLOOKUP(G24,[2]item!$A$5:$C$10000,3,FALSE),IF(E24=112,VLOOKUP(G24,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E24=1,"골드",IF(E24=2,"보석",IF(E24=3,"스테미나",IF(E24=4,"호감도",IF(E24=5,"플레이어 경험치",IF(E24=6,"캐릭터 경험치",IF(E24=7,VLOOKUP(G24,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E24=8,VLOOKUP(G24,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E24=111,VLOOKUP(G24,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E24=113,VLOOKUP(G24,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>호감도</v>
       </c>
       <c r="I24" s="42">
@@ -5931,8 +5869,8 @@
       <c r="G25" s="42">
         <v>100001</v>
       </c>
-      <c r="H25" s="53" t="str" cm="1">
-        <f t="array" ref="H25">IF(E25=1000,VLOOKUP(G25,[2]item!$A$5:$C$10000,3,FALSE),IF(E25=112,VLOOKUP(G25,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E25=1,"골드",IF(E25=2,"보석",IF(E25=3,"스테미나",IF(E25=4,"호감도",IF(E25=5,"플레이어 경험치",IF(E25=6,"캐릭터 경험치",IF(E25=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E25=8,VLOOKUP(G25,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E25=111,VLOOKUP(G25,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E25=113,VLOOKUP(G25,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H25" s="53" t="str">
+        <f>IF(E25=1000,VLOOKUP(G25,[2]item!$A$5:$C$10000,3,FALSE),IF(E25=112,VLOOKUP(G25,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E25=1,"골드",IF(E25=2,"보석",IF(E25=3,"스테미나",IF(E25=4,"호감도",IF(E25=5,"플레이어 경험치",IF(E25=6,"캐릭터 경험치",IF(E25=7,VLOOKUP(G25,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E25=8,VLOOKUP(G25,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E25=111,VLOOKUP(G25,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E25=113,VLOOKUP(G25,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>루시아 조각</v>
       </c>
       <c r="I25" s="42">
@@ -5982,8 +5920,8 @@
       <c r="G26" s="42">
         <v>100002</v>
       </c>
-      <c r="H26" s="53" t="str" cm="1">
-        <f t="array" ref="H26">IF(E26=1000,VLOOKUP(G26,[2]item!$A$5:$C$10000,3,FALSE),IF(E26=112,VLOOKUP(G26,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E26=1,"골드",IF(E26=2,"보석",IF(E26=3,"스테미나",IF(E26=4,"호감도",IF(E26=5,"플레이어 경험치",IF(E26=6,"캐릭터 경험치",IF(E26=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E26=8,VLOOKUP(G26,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E26=111,VLOOKUP(G26,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E26=113,VLOOKUP(G26,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H26" s="53" t="str">
+        <f>IF(E26=1000,VLOOKUP(G26,[2]item!$A$5:$C$10000,3,FALSE),IF(E26=112,VLOOKUP(G26,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E26=1,"골드",IF(E26=2,"보석",IF(E26=3,"스테미나",IF(E26=4,"호감도",IF(E26=5,"플레이어 경험치",IF(E26=6,"캐릭터 경험치",IF(E26=7,VLOOKUP(G26,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E26=8,VLOOKUP(G26,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E26=111,VLOOKUP(G26,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E26=113,VLOOKUP(G26,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>라일라 조각</v>
       </c>
       <c r="I26" s="42">
@@ -6033,8 +5971,8 @@
       <c r="G27" s="42">
         <v>100003</v>
       </c>
-      <c r="H27" s="53" t="str" cm="1">
-        <f t="array" ref="H27">IF(E27=1000,VLOOKUP(G27,[2]item!$A$5:$C$10000,3,FALSE),IF(E27=112,VLOOKUP(G27,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E27=1,"골드",IF(E27=2,"보석",IF(E27=3,"스테미나",IF(E27=4,"호감도",IF(E27=5,"플레이어 경험치",IF(E27=6,"캐릭터 경험치",IF(E27=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E27=8,VLOOKUP(G27,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E27=111,VLOOKUP(G27,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E27=113,VLOOKUP(G27,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H27" s="53" t="str">
+        <f>IF(E27=1000,VLOOKUP(G27,[2]item!$A$5:$C$10000,3,FALSE),IF(E27=112,VLOOKUP(G27,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E27=1,"골드",IF(E27=2,"보석",IF(E27=3,"스테미나",IF(E27=4,"호감도",IF(E27=5,"플레이어 경험치",IF(E27=6,"캐릭터 경험치",IF(E27=7,VLOOKUP(G27,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E27=8,VLOOKUP(G27,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E27=111,VLOOKUP(G27,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E27=113,VLOOKUP(G27,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>바이올렛 조각</v>
       </c>
       <c r="I27" s="42">
@@ -6084,8 +6022,8 @@
       <c r="G28" s="42">
         <v>100004</v>
       </c>
-      <c r="H28" s="53" t="str" cm="1">
-        <f t="array" ref="H28">IF(E28=1000,VLOOKUP(G28,[2]item!$A$5:$C$10000,3,FALSE),IF(E28=112,VLOOKUP(G28,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E28=1,"골드",IF(E28=2,"보석",IF(E28=3,"스테미나",IF(E28=4,"호감도",IF(E28=5,"플레이어 경험치",IF(E28=6,"캐릭터 경험치",IF(E28=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E28=8,VLOOKUP(G28,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E28=111,VLOOKUP(G28,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E28=113,VLOOKUP(G28,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H28" s="53" t="str">
+        <f>IF(E28=1000,VLOOKUP(G28,[2]item!$A$5:$C$10000,3,FALSE),IF(E28=112,VLOOKUP(G28,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E28=1,"골드",IF(E28=2,"보석",IF(E28=3,"스테미나",IF(E28=4,"호감도",IF(E28=5,"플레이어 경험치",IF(E28=6,"캐릭터 경험치",IF(E28=7,VLOOKUP(G28,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E28=8,VLOOKUP(G28,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E28=111,VLOOKUP(G28,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E28=113,VLOOKUP(G28,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>데이지 조각</v>
       </c>
       <c r="I28" s="42">
@@ -6135,8 +6073,8 @@
       <c r="G29" s="4">
         <v>100003</v>
       </c>
-      <c r="H29" s="53" t="str" cm="1">
-        <f t="array" ref="H29">IF(E29=1000,VLOOKUP(G29,[2]item!$A$5:$C$10000,3,FALSE),IF(E29=112,VLOOKUP(G29,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E29=1,"골드",IF(E29=2,"보석",IF(E29=3,"스테미나",IF(E29=4,"호감도",IF(E29=5,"플레이어 경험치",IF(E29=6,"캐릭터 경험치",IF(E29=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E29=8,VLOOKUP(G29,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E29=111,VLOOKUP(G29,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E29=113,VLOOKUP(G29,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H29" s="53" t="str">
+        <f>IF(E29=1000,VLOOKUP(G29,[2]item!$A$5:$C$10000,3,FALSE),IF(E29=112,VLOOKUP(G29,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E29=1,"골드",IF(E29=2,"보석",IF(E29=3,"스테미나",IF(E29=4,"호감도",IF(E29=5,"플레이어 경험치",IF(E29=6,"캐릭터 경험치",IF(E29=7,VLOOKUP(G29,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E29=8,VLOOKUP(G29,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E29=111,VLOOKUP(G29,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E29=113,VLOOKUP(G29,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>바이올렛 조각</v>
       </c>
       <c r="I29" s="4">
@@ -6186,8 +6124,8 @@
       <c r="G30" s="4">
         <v>8000</v>
       </c>
-      <c r="H30" s="53" t="str" cm="1">
-        <f t="array" ref="H30">IF(E30=1000,VLOOKUP(G30,[2]item!$A$5:$C$10000,3,FALSE),IF(E30=112,VLOOKUP(G30,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E30=1,"골드",IF(E30=2,"보석",IF(E30=3,"스테미나",IF(E30=4,"호감도",IF(E30=5,"플레이어 경험치",IF(E30=6,"캐릭터 경험치",IF(E30=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E30=8,VLOOKUP(G30,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E30=111,VLOOKUP(G30,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E30=113,VLOOKUP(G30,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H30" s="53" t="str">
+        <f>IF(E30=1000,VLOOKUP(G30,[2]item!$A$5:$C$10000,3,FALSE),IF(E30=112,VLOOKUP(G30,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E30=1,"골드",IF(E30=2,"보석",IF(E30=3,"스테미나",IF(E30=4,"호감도",IF(E30=5,"플레이어 경험치",IF(E30=6,"캐릭터 경험치",IF(E30=7,VLOOKUP(G30,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E30=8,VLOOKUP(G30,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E30=111,VLOOKUP(G30,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E30=113,VLOOKUP(G30,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>골드</v>
       </c>
       <c r="I30" s="4">
@@ -6237,8 +6175,8 @@
       <c r="G31" s="4">
         <v>16</v>
       </c>
-      <c r="H31" s="53" t="str" cm="1">
-        <f t="array" ref="H31">IF(E31=1000,VLOOKUP(G31,[2]item!$A$5:$C$10000,3,FALSE),IF(E31=112,VLOOKUP(G31,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E31=1,"골드",IF(E31=2,"보석",IF(E31=3,"스테미나",IF(E31=4,"호감도",IF(E31=5,"플레이어 경험치",IF(E31=6,"캐릭터 경험치",IF(E31=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E31=8,VLOOKUP(G31,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E31=111,VLOOKUP(G31,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E31=113,VLOOKUP(G31,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H31" s="53" t="str">
+        <f>IF(E31=1000,VLOOKUP(G31,[2]item!$A$5:$C$10000,3,FALSE),IF(E31=112,VLOOKUP(G31,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E31=1,"골드",IF(E31=2,"보석",IF(E31=3,"스테미나",IF(E31=4,"호감도",IF(E31=5,"플레이어 경험치",IF(E31=6,"캐릭터 경험치",IF(E31=7,VLOOKUP(G31,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E31=8,VLOOKUP(G31,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E31=111,VLOOKUP(G31,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E31=113,VLOOKUP(G31,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>전투 보고서(소)</v>
       </c>
       <c r="I31" s="4">
@@ -6288,8 +6226,8 @@
       <c r="G32" s="44">
         <v>30</v>
       </c>
-      <c r="H32" s="53" t="str" cm="1">
-        <f t="array" ref="H32">IF(E32=1000,VLOOKUP(G32,[2]item!$A$5:$C$10000,3,FALSE),IF(E32=112,VLOOKUP(G32,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E32=1,"골드",IF(E32=2,"보석",IF(E32=3,"스테미나",IF(E32=4,"호감도",IF(E32=5,"플레이어 경험치",IF(E32=6,"캐릭터 경험치",IF(E32=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E32=8,VLOOKUP(G32,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E32=111,VLOOKUP(G32,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E32=113,VLOOKUP(G32,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H32" s="53" t="str">
+        <f>IF(E32=1000,VLOOKUP(G32,[2]item!$A$5:$C$10000,3,FALSE),IF(E32=112,VLOOKUP(G32,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E32=1,"골드",IF(E32=2,"보석",IF(E32=3,"스테미나",IF(E32=4,"호감도",IF(E32=5,"플레이어 경험치",IF(E32=6,"캐릭터 경험치",IF(E32=7,VLOOKUP(G32,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E32=8,VLOOKUP(G32,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E32=111,VLOOKUP(G32,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E32=113,VLOOKUP(G32,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>보석</v>
       </c>
       <c r="I32" s="44">
@@ -6339,8 +6277,8 @@
       <c r="G33" s="42">
         <v>16</v>
       </c>
-      <c r="H33" s="53" t="str" cm="1">
-        <f t="array" ref="H33">IF(E33=1000,VLOOKUP(G33,[2]item!$A$5:$C$10000,3,FALSE),IF(E33=112,VLOOKUP(G33,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E33=1,"골드",IF(E33=2,"보석",IF(E33=3,"스테미나",IF(E33=4,"호감도",IF(E33=5,"플레이어 경험치",IF(E33=6,"캐릭터 경험치",IF(E33=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E33=8,VLOOKUP(G33,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E33=111,VLOOKUP(G33,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E33=113,VLOOKUP(G33,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H33" s="53" t="str">
+        <f>IF(E33=1000,VLOOKUP(G33,[2]item!$A$5:$C$10000,3,FALSE),IF(E33=112,VLOOKUP(G33,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E33=1,"골드",IF(E33=2,"보석",IF(E33=3,"스테미나",IF(E33=4,"호감도",IF(E33=5,"플레이어 경험치",IF(E33=6,"캐릭터 경험치",IF(E33=7,VLOOKUP(G33,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E33=8,VLOOKUP(G33,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E33=111,VLOOKUP(G33,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E33=113,VLOOKUP(G33,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>전투 보고서(소)</v>
       </c>
       <c r="I33" s="42">
@@ -6390,8 +6328,8 @@
       <c r="G34" s="42">
         <v>6</v>
       </c>
-      <c r="H34" s="53" t="str" cm="1">
-        <f t="array" ref="H34">IF(E34=1000,VLOOKUP(G34,[2]item!$A$5:$C$10000,3,FALSE),IF(E34=112,VLOOKUP(G34,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E34=1,"골드",IF(E34=2,"보석",IF(E34=3,"스테미나",IF(E34=4,"호감도",IF(E34=5,"플레이어 경험치",IF(E34=6,"캐릭터 경험치",IF(E34=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E34=8,VLOOKUP(G34,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E34=111,VLOOKUP(G34,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E34=113,VLOOKUP(G34,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H34" s="53" t="str">
+        <f>IF(E34=1000,VLOOKUP(G34,[2]item!$A$5:$C$10000,3,FALSE),IF(E34=112,VLOOKUP(G34,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E34=1,"골드",IF(E34=2,"보석",IF(E34=3,"스테미나",IF(E34=4,"호감도",IF(E34=5,"플레이어 경험치",IF(E34=6,"캐릭터 경험치",IF(E34=7,VLOOKUP(G34,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E34=8,VLOOKUP(G34,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E34=111,VLOOKUP(G34,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E34=113,VLOOKUP(G34,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>경험치 물약_C(소)</v>
       </c>
       <c r="I34" s="42">
@@ -6441,8 +6379,8 @@
       <c r="G35" s="42">
         <v>6</v>
       </c>
-      <c r="H35" s="53" t="str" cm="1">
-        <f t="array" ref="H35">IF(E35=1000,VLOOKUP(G35,[2]item!$A$5:$C$10000,3,FALSE),IF(E35=112,VLOOKUP(G35,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E35=1,"골드",IF(E35=2,"보석",IF(E35=3,"스테미나",IF(E35=4,"호감도",IF(E35=5,"플레이어 경험치",IF(E35=6,"캐릭터 경험치",IF(E35=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E35=8,VLOOKUP(G35,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E35=111,VLOOKUP(G35,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E35=113,VLOOKUP(G35,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H35" s="53" t="str">
+        <f>IF(E35=1000,VLOOKUP(G35,[2]item!$A$5:$C$10000,3,FALSE),IF(E35=112,VLOOKUP(G35,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E35=1,"골드",IF(E35=2,"보석",IF(E35=3,"스테미나",IF(E35=4,"호감도",IF(E35=5,"플레이어 경험치",IF(E35=6,"캐릭터 경험치",IF(E35=7,VLOOKUP(G35,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E35=8,VLOOKUP(G35,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E35=111,VLOOKUP(G35,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E35=113,VLOOKUP(G35,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>플레이어 경험치</v>
       </c>
       <c r="I35" s="42">
@@ -6492,8 +6430,8 @@
       <c r="G36" s="42">
         <v>6</v>
       </c>
-      <c r="H36" s="53" t="str" cm="1">
-        <f t="array" ref="H36">IF(E36=1000,VLOOKUP(G36,[2]item!$A$5:$C$10000,3,FALSE),IF(E36=112,VLOOKUP(G36,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E36=1,"골드",IF(E36=2,"보석",IF(E36=3,"스테미나",IF(E36=4,"호감도",IF(E36=5,"플레이어 경험치",IF(E36=6,"캐릭터 경험치",IF(E36=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E36=8,VLOOKUP(G36,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E36=111,VLOOKUP(G36,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E36=113,VLOOKUP(G36,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H36" s="53" t="str">
+        <f>IF(E36=1000,VLOOKUP(G36,[2]item!$A$5:$C$10000,3,FALSE),IF(E36=112,VLOOKUP(G36,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E36=1,"골드",IF(E36=2,"보석",IF(E36=3,"스테미나",IF(E36=4,"호감도",IF(E36=5,"플레이어 경험치",IF(E36=6,"캐릭터 경험치",IF(E36=7,VLOOKUP(G36,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E36=8,VLOOKUP(G36,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E36=111,VLOOKUP(G36,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E36=113,VLOOKUP(G36,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>캐릭터 경험치</v>
       </c>
       <c r="I36" s="42">
@@ -6543,8 +6481,8 @@
       <c r="G37" s="42">
         <v>6</v>
       </c>
-      <c r="H37" s="53" t="str" cm="1">
-        <f t="array" ref="H37">IF(E37=1000,VLOOKUP(G37,[2]item!$A$5:$C$10000,3,FALSE),IF(E37=112,VLOOKUP(G37,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E37=1,"골드",IF(E37=2,"보석",IF(E37=3,"스테미나",IF(E37=4,"호감도",IF(E37=5,"플레이어 경험치",IF(E37=6,"캐릭터 경험치",IF(E37=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E37=8,VLOOKUP(G37,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E37=111,VLOOKUP(G37,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E37=113,VLOOKUP(G37,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H37" s="53" t="str">
+        <f>IF(E37=1000,VLOOKUP(G37,[2]item!$A$5:$C$10000,3,FALSE),IF(E37=112,VLOOKUP(G37,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E37=1,"골드",IF(E37=2,"보석",IF(E37=3,"스테미나",IF(E37=4,"호감도",IF(E37=5,"플레이어 경험치",IF(E37=6,"캐릭터 경험치",IF(E37=7,VLOOKUP(G37,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E37=8,VLOOKUP(G37,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E37=111,VLOOKUP(G37,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E37=113,VLOOKUP(G37,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>골드</v>
       </c>
       <c r="I37" s="42">
@@ -6594,8 +6532,8 @@
       <c r="G38" s="42">
         <v>6</v>
       </c>
-      <c r="H38" s="53" t="str" cm="1">
-        <f t="array" ref="H38">IF(E38=1000,VLOOKUP(G38,[2]item!$A$5:$C$10000,3,FALSE),IF(E38=112,VLOOKUP(G38,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E38=1,"골드",IF(E38=2,"보석",IF(E38=3,"스테미나",IF(E38=4,"호감도",IF(E38=5,"플레이어 경험치",IF(E38=6,"캐릭터 경험치",IF(E38=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E38=8,VLOOKUP(G38,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E38=111,VLOOKUP(G38,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E38=113,VLOOKUP(G38,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H38" s="53" t="str">
+        <f>IF(E38=1000,VLOOKUP(G38,[2]item!$A$5:$C$10000,3,FALSE),IF(E38=112,VLOOKUP(G38,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E38=1,"골드",IF(E38=2,"보석",IF(E38=3,"스테미나",IF(E38=4,"호감도",IF(E38=5,"플레이어 경험치",IF(E38=6,"캐릭터 경험치",IF(E38=7,VLOOKUP(G38,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E38=8,VLOOKUP(G38,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E38=111,VLOOKUP(G38,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E38=113,VLOOKUP(G38,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>호감도</v>
       </c>
       <c r="I38" s="42">
@@ -6645,8 +6583,8 @@
       <c r="G39" s="42">
         <v>100001</v>
       </c>
-      <c r="H39" s="53" t="str" cm="1">
-        <f t="array" ref="H39">IF(E39=1000,VLOOKUP(G39,[2]item!$A$5:$C$10000,3,FALSE),IF(E39=112,VLOOKUP(G39,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E39=1,"골드",IF(E39=2,"보석",IF(E39=3,"스테미나",IF(E39=4,"호감도",IF(E39=5,"플레이어 경험치",IF(E39=6,"캐릭터 경험치",IF(E39=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E39=8,VLOOKUP(G39,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E39=111,VLOOKUP(G39,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E39=113,VLOOKUP(G39,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H39" s="53" t="str">
+        <f>IF(E39=1000,VLOOKUP(G39,[2]item!$A$5:$C$10000,3,FALSE),IF(E39=112,VLOOKUP(G39,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E39=1,"골드",IF(E39=2,"보석",IF(E39=3,"스테미나",IF(E39=4,"호감도",IF(E39=5,"플레이어 경험치",IF(E39=6,"캐릭터 경험치",IF(E39=7,VLOOKUP(G39,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E39=8,VLOOKUP(G39,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E39=111,VLOOKUP(G39,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E39=113,VLOOKUP(G39,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>루시아 조각</v>
       </c>
       <c r="I39" s="42">
@@ -6696,8 +6634,8 @@
       <c r="G40" s="42">
         <v>100002</v>
       </c>
-      <c r="H40" s="53" t="str" cm="1">
-        <f t="array" ref="H40">IF(E40=1000,VLOOKUP(G40,[2]item!$A$5:$C$10000,3,FALSE),IF(E40=112,VLOOKUP(G40,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E40=1,"골드",IF(E40=2,"보석",IF(E40=3,"스테미나",IF(E40=4,"호감도",IF(E40=5,"플레이어 경험치",IF(E40=6,"캐릭터 경험치",IF(E40=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E40=8,VLOOKUP(G40,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E40=111,VLOOKUP(G40,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E40=113,VLOOKUP(G40,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H40" s="53" t="str">
+        <f>IF(E40=1000,VLOOKUP(G40,[2]item!$A$5:$C$10000,3,FALSE),IF(E40=112,VLOOKUP(G40,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E40=1,"골드",IF(E40=2,"보석",IF(E40=3,"스테미나",IF(E40=4,"호감도",IF(E40=5,"플레이어 경험치",IF(E40=6,"캐릭터 경험치",IF(E40=7,VLOOKUP(G40,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E40=8,VLOOKUP(G40,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E40=111,VLOOKUP(G40,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E40=113,VLOOKUP(G40,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>라일라 조각</v>
       </c>
       <c r="I40" s="42">
@@ -6747,8 +6685,8 @@
       <c r="G41" s="42">
         <v>100003</v>
       </c>
-      <c r="H41" s="53" t="str" cm="1">
-        <f t="array" ref="H41">IF(E41=1000,VLOOKUP(G41,[2]item!$A$5:$C$10000,3,FALSE),IF(E41=112,VLOOKUP(G41,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E41=1,"골드",IF(E41=2,"보석",IF(E41=3,"스테미나",IF(E41=4,"호감도",IF(E41=5,"플레이어 경험치",IF(E41=6,"캐릭터 경험치",IF(E41=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E41=8,VLOOKUP(G41,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E41=111,VLOOKUP(G41,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E41=113,VLOOKUP(G41,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H41" s="53" t="str">
+        <f>IF(E41=1000,VLOOKUP(G41,[2]item!$A$5:$C$10000,3,FALSE),IF(E41=112,VLOOKUP(G41,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E41=1,"골드",IF(E41=2,"보석",IF(E41=3,"스테미나",IF(E41=4,"호감도",IF(E41=5,"플레이어 경험치",IF(E41=6,"캐릭터 경험치",IF(E41=7,VLOOKUP(G41,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E41=8,VLOOKUP(G41,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E41=111,VLOOKUP(G41,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E41=113,VLOOKUP(G41,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>바이올렛 조각</v>
       </c>
       <c r="I41" s="42">
@@ -6798,8 +6736,8 @@
       <c r="G42" s="42">
         <v>100004</v>
       </c>
-      <c r="H42" s="53" t="str" cm="1">
-        <f t="array" ref="H42">IF(E42=1000,VLOOKUP(G42,[2]item!$A$5:$C$10000,3,FALSE),IF(E42=112,VLOOKUP(G42,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E42=1,"골드",IF(E42=2,"보석",IF(E42=3,"스테미나",IF(E42=4,"호감도",IF(E42=5,"플레이어 경험치",IF(E42=6,"캐릭터 경험치",IF(E42=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E42=8,VLOOKUP(G42,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E42=111,VLOOKUP(G42,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E42=113,VLOOKUP(G42,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H42" s="53" t="str">
+        <f>IF(E42=1000,VLOOKUP(G42,[2]item!$A$5:$C$10000,3,FALSE),IF(E42=112,VLOOKUP(G42,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E42=1,"골드",IF(E42=2,"보석",IF(E42=3,"스테미나",IF(E42=4,"호감도",IF(E42=5,"플레이어 경험치",IF(E42=6,"캐릭터 경험치",IF(E42=7,VLOOKUP(G42,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E42=8,VLOOKUP(G42,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E42=111,VLOOKUP(G42,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E42=113,VLOOKUP(G42,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>데이지 조각</v>
       </c>
       <c r="I42" s="42">
@@ -6849,8 +6787,8 @@
       <c r="G43" s="4">
         <v>100004</v>
       </c>
-      <c r="H43" s="53" t="str" cm="1">
-        <f t="array" ref="H43">IF(E43=1000,VLOOKUP(G43,[2]item!$A$5:$C$10000,3,FALSE),IF(E43=112,VLOOKUP(G43,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E43=1,"골드",IF(E43=2,"보석",IF(E43=3,"스테미나",IF(E43=4,"호감도",IF(E43=5,"플레이어 경험치",IF(E43=6,"캐릭터 경험치",IF(E43=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E43=8,VLOOKUP(G43,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E43=111,VLOOKUP(G43,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E43=113,VLOOKUP(G43,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H43" s="53" t="str">
+        <f>IF(E43=1000,VLOOKUP(G43,[2]item!$A$5:$C$10000,3,FALSE),IF(E43=112,VLOOKUP(G43,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E43=1,"골드",IF(E43=2,"보석",IF(E43=3,"스테미나",IF(E43=4,"호감도",IF(E43=5,"플레이어 경험치",IF(E43=6,"캐릭터 경험치",IF(E43=7,VLOOKUP(G43,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E43=8,VLOOKUP(G43,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E43=111,VLOOKUP(G43,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E43=113,VLOOKUP(G43,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>데이지 조각</v>
       </c>
       <c r="I43" s="4">
@@ -6900,8 +6838,8 @@
       <c r="G44" s="4">
         <v>8000</v>
       </c>
-      <c r="H44" s="53" t="str" cm="1">
-        <f t="array" ref="H44">IF(E44=1000,VLOOKUP(G44,[2]item!$A$5:$C$10000,3,FALSE),IF(E44=112,VLOOKUP(G44,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E44=1,"골드",IF(E44=2,"보석",IF(E44=3,"스테미나",IF(E44=4,"호감도",IF(E44=5,"플레이어 경험치",IF(E44=6,"캐릭터 경험치",IF(E44=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E44=8,VLOOKUP(G44,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E44=111,VLOOKUP(G44,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E44=113,VLOOKUP(G44,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H44" s="53" t="str">
+        <f>IF(E44=1000,VLOOKUP(G44,[2]item!$A$5:$C$10000,3,FALSE),IF(E44=112,VLOOKUP(G44,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E44=1,"골드",IF(E44=2,"보석",IF(E44=3,"스테미나",IF(E44=4,"호감도",IF(E44=5,"플레이어 경험치",IF(E44=6,"캐릭터 경험치",IF(E44=7,VLOOKUP(G44,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E44=8,VLOOKUP(G44,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E44=111,VLOOKUP(G44,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E44=113,VLOOKUP(G44,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>골드</v>
       </c>
       <c r="I44" s="4">
@@ -6951,8 +6889,8 @@
       <c r="G45" s="4">
         <v>16</v>
       </c>
-      <c r="H45" s="53" t="str" cm="1">
-        <f t="array" ref="H45">IF(E45=1000,VLOOKUP(G45,[2]item!$A$5:$C$10000,3,FALSE),IF(E45=112,VLOOKUP(G45,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E45=1,"골드",IF(E45=2,"보석",IF(E45=3,"스테미나",IF(E45=4,"호감도",IF(E45=5,"플레이어 경험치",IF(E45=6,"캐릭터 경험치",IF(E45=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E45=8,VLOOKUP(G45,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E45=111,VLOOKUP(G45,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E45=113,VLOOKUP(G45,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H45" s="53" t="str">
+        <f>IF(E45=1000,VLOOKUP(G45,[2]item!$A$5:$C$10000,3,FALSE),IF(E45=112,VLOOKUP(G45,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E45=1,"골드",IF(E45=2,"보석",IF(E45=3,"스테미나",IF(E45=4,"호감도",IF(E45=5,"플레이어 경험치",IF(E45=6,"캐릭터 경험치",IF(E45=7,VLOOKUP(G45,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E45=8,VLOOKUP(G45,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E45=111,VLOOKUP(G45,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E45=113,VLOOKUP(G45,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>전투 보고서(소)</v>
       </c>
       <c r="I45" s="4">
@@ -7002,8 +6940,8 @@
       <c r="G46" s="44">
         <v>30</v>
       </c>
-      <c r="H46" s="53" t="str" cm="1">
-        <f t="array" ref="H46">IF(E46=1000,VLOOKUP(G46,[2]item!$A$5:$C$10000,3,FALSE),IF(E46=112,VLOOKUP(G46,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E46=1,"골드",IF(E46=2,"보석",IF(E46=3,"스테미나",IF(E46=4,"호감도",IF(E46=5,"플레이어 경험치",IF(E46=6,"캐릭터 경험치",IF(E46=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E46=8,VLOOKUP(G46,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E46=111,VLOOKUP(G46,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E46=113,VLOOKUP(G46,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H46" s="53" t="str">
+        <f>IF(E46=1000,VLOOKUP(G46,[2]item!$A$5:$C$10000,3,FALSE),IF(E46=112,VLOOKUP(G46,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E46=1,"골드",IF(E46=2,"보석",IF(E46=3,"스테미나",IF(E46=4,"호감도",IF(E46=5,"플레이어 경험치",IF(E46=6,"캐릭터 경험치",IF(E46=7,VLOOKUP(G46,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E46=8,VLOOKUP(G46,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E46=111,VLOOKUP(G46,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E46=113,VLOOKUP(G46,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>보석</v>
       </c>
       <c r="I46" s="44">
@@ -7053,8 +6991,8 @@
       <c r="G47" s="42">
         <v>16</v>
       </c>
-      <c r="H47" s="53" t="str" cm="1">
-        <f t="array" ref="H47">IF(E47=1000,VLOOKUP(G47,[2]item!$A$5:$C$10000,3,FALSE),IF(E47=112,VLOOKUP(G47,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E47=1,"골드",IF(E47=2,"보석",IF(E47=3,"스테미나",IF(E47=4,"호감도",IF(E47=5,"플레이어 경험치",IF(E47=6,"캐릭터 경험치",IF(E47=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E47=8,VLOOKUP(G47,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E47=111,VLOOKUP(G47,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E47=113,VLOOKUP(G47,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H47" s="53" t="str">
+        <f>IF(E47=1000,VLOOKUP(G47,[2]item!$A$5:$C$10000,3,FALSE),IF(E47=112,VLOOKUP(G47,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E47=1,"골드",IF(E47=2,"보석",IF(E47=3,"스테미나",IF(E47=4,"호감도",IF(E47=5,"플레이어 경험치",IF(E47=6,"캐릭터 경험치",IF(E47=7,VLOOKUP(G47,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E47=8,VLOOKUP(G47,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E47=111,VLOOKUP(G47,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E47=113,VLOOKUP(G47,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>전투 보고서(소)</v>
       </c>
       <c r="I47" s="42">
@@ -7104,8 +7042,8 @@
       <c r="G48" s="42">
         <v>6</v>
       </c>
-      <c r="H48" s="53" t="str" cm="1">
-        <f t="array" ref="H48">IF(E48=1000,VLOOKUP(G48,[2]item!$A$5:$C$10000,3,FALSE),IF(E48=112,VLOOKUP(G48,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E48=1,"골드",IF(E48=2,"보석",IF(E48=3,"스테미나",IF(E48=4,"호감도",IF(E48=5,"플레이어 경험치",IF(E48=6,"캐릭터 경험치",IF(E48=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E48=8,VLOOKUP(G48,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E48=111,VLOOKUP(G48,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E48=113,VLOOKUP(G48,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H48" s="53" t="str">
+        <f>IF(E48=1000,VLOOKUP(G48,[2]item!$A$5:$C$10000,3,FALSE),IF(E48=112,VLOOKUP(G48,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E48=1,"골드",IF(E48=2,"보석",IF(E48=3,"스테미나",IF(E48=4,"호감도",IF(E48=5,"플레이어 경험치",IF(E48=6,"캐릭터 경험치",IF(E48=7,VLOOKUP(G48,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E48=8,VLOOKUP(G48,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E48=111,VLOOKUP(G48,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E48=113,VLOOKUP(G48,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>경험치 물약_C(소)</v>
       </c>
       <c r="I48" s="42">
@@ -7155,8 +7093,8 @@
       <c r="G49" s="42">
         <v>6</v>
       </c>
-      <c r="H49" s="53" t="str" cm="1">
-        <f t="array" ref="H49">IF(E49=1000,VLOOKUP(G49,[2]item!$A$5:$C$10000,3,FALSE),IF(E49=112,VLOOKUP(G49,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E49=1,"골드",IF(E49=2,"보석",IF(E49=3,"스테미나",IF(E49=4,"호감도",IF(E49=5,"플레이어 경험치",IF(E49=6,"캐릭터 경험치",IF(E49=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E49=8,VLOOKUP(G49,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E49=111,VLOOKUP(G49,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E49=113,VLOOKUP(G49,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H49" s="53" t="str">
+        <f>IF(E49=1000,VLOOKUP(G49,[2]item!$A$5:$C$10000,3,FALSE),IF(E49=112,VLOOKUP(G49,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E49=1,"골드",IF(E49=2,"보석",IF(E49=3,"스테미나",IF(E49=4,"호감도",IF(E49=5,"플레이어 경험치",IF(E49=6,"캐릭터 경험치",IF(E49=7,VLOOKUP(G49,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E49=8,VLOOKUP(G49,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E49=111,VLOOKUP(G49,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E49=113,VLOOKUP(G49,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>플레이어 경험치</v>
       </c>
       <c r="I49" s="42">
@@ -7206,8 +7144,8 @@
       <c r="G50" s="42">
         <v>6</v>
       </c>
-      <c r="H50" s="53" t="str" cm="1">
-        <f t="array" ref="H50">IF(E50=1000,VLOOKUP(G50,[2]item!$A$5:$C$10000,3,FALSE),IF(E50=112,VLOOKUP(G50,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E50=1,"골드",IF(E50=2,"보석",IF(E50=3,"스테미나",IF(E50=4,"호감도",IF(E50=5,"플레이어 경험치",IF(E50=6,"캐릭터 경험치",IF(E50=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E50=8,VLOOKUP(G50,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E50=111,VLOOKUP(G50,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E50=113,VLOOKUP(G50,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H50" s="53" t="str">
+        <f>IF(E50=1000,VLOOKUP(G50,[2]item!$A$5:$C$10000,3,FALSE),IF(E50=112,VLOOKUP(G50,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E50=1,"골드",IF(E50=2,"보석",IF(E50=3,"스테미나",IF(E50=4,"호감도",IF(E50=5,"플레이어 경험치",IF(E50=6,"캐릭터 경험치",IF(E50=7,VLOOKUP(G50,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E50=8,VLOOKUP(G50,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E50=111,VLOOKUP(G50,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E50=113,VLOOKUP(G50,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>캐릭터 경험치</v>
       </c>
       <c r="I50" s="42">
@@ -7257,8 +7195,8 @@
       <c r="G51" s="42">
         <v>6</v>
       </c>
-      <c r="H51" s="53" t="str" cm="1">
-        <f t="array" ref="H51">IF(E51=1000,VLOOKUP(G51,[2]item!$A$5:$C$10000,3,FALSE),IF(E51=112,VLOOKUP(G51,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E51=1,"골드",IF(E51=2,"보석",IF(E51=3,"스테미나",IF(E51=4,"호감도",IF(E51=5,"플레이어 경험치",IF(E51=6,"캐릭터 경험치",IF(E51=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E51=8,VLOOKUP(G51,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E51=111,VLOOKUP(G51,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E51=113,VLOOKUP(G51,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H51" s="53" t="str">
+        <f>IF(E51=1000,VLOOKUP(G51,[2]item!$A$5:$C$10000,3,FALSE),IF(E51=112,VLOOKUP(G51,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E51=1,"골드",IF(E51=2,"보석",IF(E51=3,"스테미나",IF(E51=4,"호감도",IF(E51=5,"플레이어 경험치",IF(E51=6,"캐릭터 경험치",IF(E51=7,VLOOKUP(G51,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E51=8,VLOOKUP(G51,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E51=111,VLOOKUP(G51,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E51=113,VLOOKUP(G51,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>골드</v>
       </c>
       <c r="I51" s="42">
@@ -7308,8 +7246,8 @@
       <c r="G52" s="42">
         <v>6</v>
       </c>
-      <c r="H52" s="53" t="str" cm="1">
-        <f t="array" ref="H52">IF(E52=1000,VLOOKUP(G52,[2]item!$A$5:$C$10000,3,FALSE),IF(E52=112,VLOOKUP(G52,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E52=1,"골드",IF(E52=2,"보석",IF(E52=3,"스테미나",IF(E52=4,"호감도",IF(E52=5,"플레이어 경험치",IF(E52=6,"캐릭터 경험치",IF(E52=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E52=8,VLOOKUP(G52,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E52=111,VLOOKUP(G52,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E52=113,VLOOKUP(G52,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H52" s="53" t="str">
+        <f>IF(E52=1000,VLOOKUP(G52,[2]item!$A$5:$C$10000,3,FALSE),IF(E52=112,VLOOKUP(G52,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E52=1,"골드",IF(E52=2,"보석",IF(E52=3,"스테미나",IF(E52=4,"호감도",IF(E52=5,"플레이어 경험치",IF(E52=6,"캐릭터 경험치",IF(E52=7,VLOOKUP(G52,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E52=8,VLOOKUP(G52,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E52=111,VLOOKUP(G52,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E52=113,VLOOKUP(G52,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>호감도</v>
       </c>
       <c r="I52" s="42">
@@ -7359,8 +7297,8 @@
       <c r="G53" s="42">
         <v>100001</v>
       </c>
-      <c r="H53" s="53" t="str" cm="1">
-        <f t="array" ref="H53">IF(E53=1000,VLOOKUP(G53,[2]item!$A$5:$C$10000,3,FALSE),IF(E53=112,VLOOKUP(G53,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E53=1,"골드",IF(E53=2,"보석",IF(E53=3,"스테미나",IF(E53=4,"호감도",IF(E53=5,"플레이어 경험치",IF(E53=6,"캐릭터 경험치",IF(E53=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E53=8,VLOOKUP(G53,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E53=111,VLOOKUP(G53,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E53=113,VLOOKUP(G53,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H53" s="53" t="str">
+        <f>IF(E53=1000,VLOOKUP(G53,[2]item!$A$5:$C$10000,3,FALSE),IF(E53=112,VLOOKUP(G53,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E53=1,"골드",IF(E53=2,"보석",IF(E53=3,"스테미나",IF(E53=4,"호감도",IF(E53=5,"플레이어 경험치",IF(E53=6,"캐릭터 경험치",IF(E53=7,VLOOKUP(G53,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E53=8,VLOOKUP(G53,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E53=111,VLOOKUP(G53,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E53=113,VLOOKUP(G53,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>루시아 조각</v>
       </c>
       <c r="I53" s="42">
@@ -7410,8 +7348,8 @@
       <c r="G54" s="42">
         <v>100002</v>
       </c>
-      <c r="H54" s="53" t="str" cm="1">
-        <f t="array" ref="H54">IF(E54=1000,VLOOKUP(G54,[2]item!$A$5:$C$10000,3,FALSE),IF(E54=112,VLOOKUP(G54,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E54=1,"골드",IF(E54=2,"보석",IF(E54=3,"스테미나",IF(E54=4,"호감도",IF(E54=5,"플레이어 경험치",IF(E54=6,"캐릭터 경험치",IF(E54=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E54=8,VLOOKUP(G54,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E54=111,VLOOKUP(G54,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E54=113,VLOOKUP(G54,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H54" s="53" t="str">
+        <f>IF(E54=1000,VLOOKUP(G54,[2]item!$A$5:$C$10000,3,FALSE),IF(E54=112,VLOOKUP(G54,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E54=1,"골드",IF(E54=2,"보석",IF(E54=3,"스테미나",IF(E54=4,"호감도",IF(E54=5,"플레이어 경험치",IF(E54=6,"캐릭터 경험치",IF(E54=7,VLOOKUP(G54,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E54=8,VLOOKUP(G54,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E54=111,VLOOKUP(G54,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E54=113,VLOOKUP(G54,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>라일라 조각</v>
       </c>
       <c r="I54" s="42">
@@ -7461,8 +7399,8 @@
       <c r="G55" s="42">
         <v>100003</v>
       </c>
-      <c r="H55" s="53" t="str" cm="1">
-        <f t="array" ref="H55">IF(E55=1000,VLOOKUP(G55,[2]item!$A$5:$C$10000,3,FALSE),IF(E55=112,VLOOKUP(G55,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E55=1,"골드",IF(E55=2,"보석",IF(E55=3,"스테미나",IF(E55=4,"호감도",IF(E55=5,"플레이어 경험치",IF(E55=6,"캐릭터 경험치",IF(E55=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E55=8,VLOOKUP(G55,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E55=111,VLOOKUP(G55,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E55=113,VLOOKUP(G55,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H55" s="53" t="str">
+        <f>IF(E55=1000,VLOOKUP(G55,[2]item!$A$5:$C$10000,3,FALSE),IF(E55=112,VLOOKUP(G55,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E55=1,"골드",IF(E55=2,"보석",IF(E55=3,"스테미나",IF(E55=4,"호감도",IF(E55=5,"플레이어 경험치",IF(E55=6,"캐릭터 경험치",IF(E55=7,VLOOKUP(G55,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E55=8,VLOOKUP(G55,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E55=111,VLOOKUP(G55,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E55=113,VLOOKUP(G55,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>바이올렛 조각</v>
       </c>
       <c r="I55" s="42">
@@ -7512,8 +7450,8 @@
       <c r="G56" s="42">
         <v>100004</v>
       </c>
-      <c r="H56" s="53" t="str" cm="1">
-        <f t="array" ref="H56">IF(E56=1000,VLOOKUP(G56,[2]item!$A$5:$C$10000,3,FALSE),IF(E56=112,VLOOKUP(G56,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E56=1,"골드",IF(E56=2,"보석",IF(E56=3,"스테미나",IF(E56=4,"호감도",IF(E56=5,"플레이어 경험치",IF(E56=6,"캐릭터 경험치",IF(E56=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E56=8,VLOOKUP(G56,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E56=111,VLOOKUP(G56,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E56=113,VLOOKUP(G56,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H56" s="53" t="str">
+        <f>IF(E56=1000,VLOOKUP(G56,[2]item!$A$5:$C$10000,3,FALSE),IF(E56=112,VLOOKUP(G56,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E56=1,"골드",IF(E56=2,"보석",IF(E56=3,"스테미나",IF(E56=4,"호감도",IF(E56=5,"플레이어 경험치",IF(E56=6,"캐릭터 경험치",IF(E56=7,VLOOKUP(G56,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E56=8,VLOOKUP(G56,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E56=111,VLOOKUP(G56,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E56=113,VLOOKUP(G56,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>데이지 조각</v>
       </c>
       <c r="I56" s="42">
@@ -7563,8 +7501,8 @@
       <c r="G57" s="4">
         <v>100006</v>
       </c>
-      <c r="H57" s="53" t="str" cm="1">
-        <f t="array" ref="H57">IF(E57=1000,VLOOKUP(G57,[2]item!$A$5:$C$10000,3,FALSE),IF(E57=112,VLOOKUP(G57,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E57=1,"골드",IF(E57=2,"보석",IF(E57=3,"스테미나",IF(E57=4,"호감도",IF(E57=5,"플레이어 경험치",IF(E57=6,"캐릭터 경험치",IF(E57=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E57=8,VLOOKUP(G57,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E57=111,VLOOKUP(G57,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E57=113,VLOOKUP(G57,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H57" s="53" t="str">
+        <f>IF(E57=1000,VLOOKUP(G57,[2]item!$A$5:$C$10000,3,FALSE),IF(E57=112,VLOOKUP(G57,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E57=1,"골드",IF(E57=2,"보석",IF(E57=3,"스테미나",IF(E57=4,"호감도",IF(E57=5,"플레이어 경험치",IF(E57=6,"캐릭터 경험치",IF(E57=7,VLOOKUP(G57,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E57=8,VLOOKUP(G57,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E57=111,VLOOKUP(G57,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E57=113,VLOOKUP(G57,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>에일린 조각</v>
       </c>
       <c r="I57" s="4">
@@ -7614,8 +7552,8 @@
       <c r="G58" s="4">
         <v>8000</v>
       </c>
-      <c r="H58" s="53" t="str" cm="1">
-        <f t="array" ref="H58">IF(E58=1000,VLOOKUP(G58,[2]item!$A$5:$C$10000,3,FALSE),IF(E58=112,VLOOKUP(G58,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E58=1,"골드",IF(E58=2,"보석",IF(E58=3,"스테미나",IF(E58=4,"호감도",IF(E58=5,"플레이어 경험치",IF(E58=6,"캐릭터 경험치",IF(E58=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E58=8,VLOOKUP(G58,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E58=111,VLOOKUP(G58,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E58=113,VLOOKUP(G58,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H58" s="53" t="str">
+        <f>IF(E58=1000,VLOOKUP(G58,[2]item!$A$5:$C$10000,3,FALSE),IF(E58=112,VLOOKUP(G58,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E58=1,"골드",IF(E58=2,"보석",IF(E58=3,"스테미나",IF(E58=4,"호감도",IF(E58=5,"플레이어 경험치",IF(E58=6,"캐릭터 경험치",IF(E58=7,VLOOKUP(G58,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E58=8,VLOOKUP(G58,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E58=111,VLOOKUP(G58,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E58=113,VLOOKUP(G58,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>골드</v>
       </c>
       <c r="I58" s="4">
@@ -7665,8 +7603,8 @@
       <c r="G59" s="4">
         <v>16</v>
       </c>
-      <c r="H59" s="53" t="str" cm="1">
-        <f t="array" ref="H59">IF(E59=1000,VLOOKUP(G59,[2]item!$A$5:$C$10000,3,FALSE),IF(E59=112,VLOOKUP(G59,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E59=1,"골드",IF(E59=2,"보석",IF(E59=3,"스테미나",IF(E59=4,"호감도",IF(E59=5,"플레이어 경험치",IF(E59=6,"캐릭터 경험치",IF(E59=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E59=8,VLOOKUP(G59,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E59=111,VLOOKUP(G59,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E59=113,VLOOKUP(G59,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H59" s="53" t="str">
+        <f>IF(E59=1000,VLOOKUP(G59,[2]item!$A$5:$C$10000,3,FALSE),IF(E59=112,VLOOKUP(G59,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E59=1,"골드",IF(E59=2,"보석",IF(E59=3,"스테미나",IF(E59=4,"호감도",IF(E59=5,"플레이어 경험치",IF(E59=6,"캐릭터 경험치",IF(E59=7,VLOOKUP(G59,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E59=8,VLOOKUP(G59,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E59=111,VLOOKUP(G59,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E59=113,VLOOKUP(G59,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>전투 보고서(소)</v>
       </c>
       <c r="I59" s="4">
@@ -7716,8 +7654,8 @@
       <c r="G60" s="44">
         <v>30</v>
       </c>
-      <c r="H60" s="53" t="str" cm="1">
-        <f t="array" ref="H60">IF(E60=1000,VLOOKUP(G60,[2]item!$A$5:$C$10000,3,FALSE),IF(E60=112,VLOOKUP(G60,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E60=1,"골드",IF(E60=2,"보석",IF(E60=3,"스테미나",IF(E60=4,"호감도",IF(E60=5,"플레이어 경험치",IF(E60=6,"캐릭터 경험치",IF(E60=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E60=8,VLOOKUP(G60,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E60=111,VLOOKUP(G60,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E60=113,VLOOKUP(G60,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H60" s="53" t="str">
+        <f>IF(E60=1000,VLOOKUP(G60,[2]item!$A$5:$C$10000,3,FALSE),IF(E60=112,VLOOKUP(G60,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E60=1,"골드",IF(E60=2,"보석",IF(E60=3,"스테미나",IF(E60=4,"호감도",IF(E60=5,"플레이어 경험치",IF(E60=6,"캐릭터 경험치",IF(E60=7,VLOOKUP(G60,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E60=8,VLOOKUP(G60,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E60=111,VLOOKUP(G60,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E60=113,VLOOKUP(G60,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>보석</v>
       </c>
       <c r="I60" s="44">
@@ -7767,8 +7705,8 @@
       <c r="G61" s="42">
         <v>16</v>
       </c>
-      <c r="H61" s="53" t="str" cm="1">
-        <f t="array" ref="H61">IF(E61=1000,VLOOKUP(G61,[2]item!$A$5:$C$10000,3,FALSE),IF(E61=112,VLOOKUP(G61,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E61=1,"골드",IF(E61=2,"보석",IF(E61=3,"스테미나",IF(E61=4,"호감도",IF(E61=5,"플레이어 경험치",IF(E61=6,"캐릭터 경험치",IF(E61=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E61=8,VLOOKUP(G61,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E61=111,VLOOKUP(G61,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E61=113,VLOOKUP(G61,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H61" s="53" t="str">
+        <f>IF(E61=1000,VLOOKUP(G61,[2]item!$A$5:$C$10000,3,FALSE),IF(E61=112,VLOOKUP(G61,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E61=1,"골드",IF(E61=2,"보석",IF(E61=3,"스테미나",IF(E61=4,"호감도",IF(E61=5,"플레이어 경험치",IF(E61=6,"캐릭터 경험치",IF(E61=7,VLOOKUP(G61,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E61=8,VLOOKUP(G61,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E61=111,VLOOKUP(G61,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E61=113,VLOOKUP(G61,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>전투 보고서(소)</v>
       </c>
       <c r="I61" s="42">
@@ -7818,8 +7756,8 @@
       <c r="G62" s="42">
         <v>6</v>
       </c>
-      <c r="H62" s="53" t="str" cm="1">
-        <f t="array" ref="H62">IF(E62=1000,VLOOKUP(G62,[2]item!$A$5:$C$10000,3,FALSE),IF(E62=112,VLOOKUP(G62,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E62=1,"골드",IF(E62=2,"보석",IF(E62=3,"스테미나",IF(E62=4,"호감도",IF(E62=5,"플레이어 경험치",IF(E62=6,"캐릭터 경험치",IF(E62=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E62=8,VLOOKUP(G62,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E62=111,VLOOKUP(G62,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E62=113,VLOOKUP(G62,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H62" s="53" t="str">
+        <f>IF(E62=1000,VLOOKUP(G62,[2]item!$A$5:$C$10000,3,FALSE),IF(E62=112,VLOOKUP(G62,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E62=1,"골드",IF(E62=2,"보석",IF(E62=3,"스테미나",IF(E62=4,"호감도",IF(E62=5,"플레이어 경험치",IF(E62=6,"캐릭터 경험치",IF(E62=7,VLOOKUP(G62,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E62=8,VLOOKUP(G62,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E62=111,VLOOKUP(G62,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E62=113,VLOOKUP(G62,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>경험치 물약_C(소)</v>
       </c>
       <c r="I62" s="42">
@@ -7869,8 +7807,8 @@
       <c r="G63" s="42">
         <v>6</v>
       </c>
-      <c r="H63" s="53" t="str" cm="1">
-        <f t="array" ref="H63">IF(E63=1000,VLOOKUP(G63,[2]item!$A$5:$C$10000,3,FALSE),IF(E63=112,VLOOKUP(G63,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E63=1,"골드",IF(E63=2,"보석",IF(E63=3,"스테미나",IF(E63=4,"호감도",IF(E63=5,"플레이어 경험치",IF(E63=6,"캐릭터 경험치",IF(E63=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E63=8,VLOOKUP(G63,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E63=111,VLOOKUP(G63,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E63=113,VLOOKUP(G63,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H63" s="53" t="str">
+        <f>IF(E63=1000,VLOOKUP(G63,[2]item!$A$5:$C$10000,3,FALSE),IF(E63=112,VLOOKUP(G63,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E63=1,"골드",IF(E63=2,"보석",IF(E63=3,"스테미나",IF(E63=4,"호감도",IF(E63=5,"플레이어 경험치",IF(E63=6,"캐릭터 경험치",IF(E63=7,VLOOKUP(G63,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E63=8,VLOOKUP(G63,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E63=111,VLOOKUP(G63,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E63=113,VLOOKUP(G63,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>플레이어 경험치</v>
       </c>
       <c r="I63" s="42">
@@ -7920,8 +7858,8 @@
       <c r="G64" s="42">
         <v>6</v>
       </c>
-      <c r="H64" s="53" t="str" cm="1">
-        <f t="array" ref="H64">IF(E64=1000,VLOOKUP(G64,[2]item!$A$5:$C$10000,3,FALSE),IF(E64=112,VLOOKUP(G64,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E64=1,"골드",IF(E64=2,"보석",IF(E64=3,"스테미나",IF(E64=4,"호감도",IF(E64=5,"플레이어 경험치",IF(E64=6,"캐릭터 경험치",IF(E64=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E64=8,VLOOKUP(G64,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E64=111,VLOOKUP(G64,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E64=113,VLOOKUP(G64,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H64" s="53" t="str">
+        <f>IF(E64=1000,VLOOKUP(G64,[2]item!$A$5:$C$10000,3,FALSE),IF(E64=112,VLOOKUP(G64,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E64=1,"골드",IF(E64=2,"보석",IF(E64=3,"스테미나",IF(E64=4,"호감도",IF(E64=5,"플레이어 경험치",IF(E64=6,"캐릭터 경험치",IF(E64=7,VLOOKUP(G64,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E64=8,VLOOKUP(G64,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E64=111,VLOOKUP(G64,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E64=113,VLOOKUP(G64,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>캐릭터 경험치</v>
       </c>
       <c r="I64" s="42">
@@ -7971,8 +7909,8 @@
       <c r="G65" s="42">
         <v>6</v>
       </c>
-      <c r="H65" s="53" t="str" cm="1">
-        <f t="array" ref="H65">IF(E65=1000,VLOOKUP(G65,[2]item!$A$5:$C$10000,3,FALSE),IF(E65=112,VLOOKUP(G65,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E65=1,"골드",IF(E65=2,"보석",IF(E65=3,"스테미나",IF(E65=4,"호감도",IF(E65=5,"플레이어 경험치",IF(E65=6,"캐릭터 경험치",IF(E65=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E65=8,VLOOKUP(G65,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E65=111,VLOOKUP(G65,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E65=113,VLOOKUP(G65,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H65" s="53" t="str">
+        <f>IF(E65=1000,VLOOKUP(G65,[2]item!$A$5:$C$10000,3,FALSE),IF(E65=112,VLOOKUP(G65,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E65=1,"골드",IF(E65=2,"보석",IF(E65=3,"스테미나",IF(E65=4,"호감도",IF(E65=5,"플레이어 경험치",IF(E65=6,"캐릭터 경험치",IF(E65=7,VLOOKUP(G65,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E65=8,VLOOKUP(G65,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E65=111,VLOOKUP(G65,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E65=113,VLOOKUP(G65,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>골드</v>
       </c>
       <c r="I65" s="42">
@@ -8022,8 +7960,8 @@
       <c r="G66" s="42">
         <v>6</v>
       </c>
-      <c r="H66" s="53" t="str" cm="1">
-        <f t="array" ref="H66">IF(E66=1000,VLOOKUP(G66,[2]item!$A$5:$C$10000,3,FALSE),IF(E66=112,VLOOKUP(G66,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E66=1,"골드",IF(E66=2,"보석",IF(E66=3,"스테미나",IF(E66=4,"호감도",IF(E66=5,"플레이어 경험치",IF(E66=6,"캐릭터 경험치",IF(E66=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E66=8,VLOOKUP(G66,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E66=111,VLOOKUP(G66,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E66=113,VLOOKUP(G66,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H66" s="53" t="str">
+        <f>IF(E66=1000,VLOOKUP(G66,[2]item!$A$5:$C$10000,3,FALSE),IF(E66=112,VLOOKUP(G66,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E66=1,"골드",IF(E66=2,"보석",IF(E66=3,"스테미나",IF(E66=4,"호감도",IF(E66=5,"플레이어 경험치",IF(E66=6,"캐릭터 경험치",IF(E66=7,VLOOKUP(G66,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E66=8,VLOOKUP(G66,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E66=111,VLOOKUP(G66,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E66=113,VLOOKUP(G66,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>호감도</v>
       </c>
       <c r="I66" s="42">
@@ -8073,8 +8011,8 @@
       <c r="G67" s="42">
         <v>100001</v>
       </c>
-      <c r="H67" s="53" t="str" cm="1">
-        <f t="array" ref="H67">IF(E67=1000,VLOOKUP(G67,[2]item!$A$5:$C$10000,3,FALSE),IF(E67=112,VLOOKUP(G67,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E67=1,"골드",IF(E67=2,"보석",IF(E67=3,"스테미나",IF(E67=4,"호감도",IF(E67=5,"플레이어 경험치",IF(E67=6,"캐릭터 경험치",IF(E67=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E67=8,VLOOKUP(G67,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E67=111,VLOOKUP(G67,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E67=113,VLOOKUP(G67,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H67" s="53" t="str">
+        <f>IF(E67=1000,VLOOKUP(G67,[2]item!$A$5:$C$10000,3,FALSE),IF(E67=112,VLOOKUP(G67,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E67=1,"골드",IF(E67=2,"보석",IF(E67=3,"스테미나",IF(E67=4,"호감도",IF(E67=5,"플레이어 경험치",IF(E67=6,"캐릭터 경험치",IF(E67=7,VLOOKUP(G67,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E67=8,VLOOKUP(G67,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E67=111,VLOOKUP(G67,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E67=113,VLOOKUP(G67,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>루시아 조각</v>
       </c>
       <c r="I67" s="42">
@@ -8124,8 +8062,8 @@
       <c r="G68" s="42">
         <v>100002</v>
       </c>
-      <c r="H68" s="53" t="str" cm="1">
-        <f t="array" ref="H68">IF(E68=1000,VLOOKUP(G68,[2]item!$A$5:$C$10000,3,FALSE),IF(E68=112,VLOOKUP(G68,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E68=1,"골드",IF(E68=2,"보석",IF(E68=3,"스테미나",IF(E68=4,"호감도",IF(E68=5,"플레이어 경험치",IF(E68=6,"캐릭터 경험치",IF(E68=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E68=8,VLOOKUP(G68,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E68=111,VLOOKUP(G68,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E68=113,VLOOKUP(G68,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H68" s="53" t="str">
+        <f>IF(E68=1000,VLOOKUP(G68,[2]item!$A$5:$C$10000,3,FALSE),IF(E68=112,VLOOKUP(G68,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E68=1,"골드",IF(E68=2,"보석",IF(E68=3,"스테미나",IF(E68=4,"호감도",IF(E68=5,"플레이어 경험치",IF(E68=6,"캐릭터 경험치",IF(E68=7,VLOOKUP(G68,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E68=8,VLOOKUP(G68,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E68=111,VLOOKUP(G68,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E68=113,VLOOKUP(G68,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>라일라 조각</v>
       </c>
       <c r="I68" s="42">
@@ -8175,8 +8113,8 @@
       <c r="G69" s="42">
         <v>100003</v>
       </c>
-      <c r="H69" s="53" t="str" cm="1">
-        <f t="array" ref="H69">IF(E69=1000,VLOOKUP(G69,[2]item!$A$5:$C$10000,3,FALSE),IF(E69=112,VLOOKUP(G69,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E69=1,"골드",IF(E69=2,"보석",IF(E69=3,"스테미나",IF(E69=4,"호감도",IF(E69=5,"플레이어 경험치",IF(E69=6,"캐릭터 경험치",IF(E69=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E69=8,VLOOKUP(G69,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E69=111,VLOOKUP(G69,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E69=113,VLOOKUP(G69,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H69" s="53" t="str">
+        <f>IF(E69=1000,VLOOKUP(G69,[2]item!$A$5:$C$10000,3,FALSE),IF(E69=112,VLOOKUP(G69,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E69=1,"골드",IF(E69=2,"보석",IF(E69=3,"스테미나",IF(E69=4,"호감도",IF(E69=5,"플레이어 경험치",IF(E69=6,"캐릭터 경험치",IF(E69=7,VLOOKUP(G69,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E69=8,VLOOKUP(G69,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E69=111,VLOOKUP(G69,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E69=113,VLOOKUP(G69,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>바이올렛 조각</v>
       </c>
       <c r="I69" s="42">
@@ -8226,8 +8164,8 @@
       <c r="G70" s="42">
         <v>100004</v>
       </c>
-      <c r="H70" s="53" t="str" cm="1">
-        <f t="array" ref="H70">IF(E70=1000,VLOOKUP(G70,[2]item!$A$5:$C$10000,3,FALSE),IF(E70=112,VLOOKUP(G70,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E70=1,"골드",IF(E70=2,"보석",IF(E70=3,"스테미나",IF(E70=4,"호감도",IF(E70=5,"플레이어 경험치",IF(E70=6,"캐릭터 경험치",IF(E70=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E70=8,VLOOKUP(G70,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E70=111,VLOOKUP(G70,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E70=113,VLOOKUP(G70,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H70" s="53" t="str">
+        <f>IF(E70=1000,VLOOKUP(G70,[2]item!$A$5:$C$10000,3,FALSE),IF(E70=112,VLOOKUP(G70,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E70=1,"골드",IF(E70=2,"보석",IF(E70=3,"스테미나",IF(E70=4,"호감도",IF(E70=5,"플레이어 경험치",IF(E70=6,"캐릭터 경험치",IF(E70=7,VLOOKUP(G70,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E70=8,VLOOKUP(G70,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E70=111,VLOOKUP(G70,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E70=113,VLOOKUP(G70,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>데이지 조각</v>
       </c>
       <c r="I70" s="42">
@@ -8277,8 +8215,8 @@
       <c r="G71" s="4">
         <v>100002</v>
       </c>
-      <c r="H71" s="53" t="str" cm="1">
-        <f t="array" ref="H71">IF(E71=1000,VLOOKUP(G71,[2]item!$A$5:$C$10000,3,FALSE),IF(E71=112,VLOOKUP(G71,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E71=1,"골드",IF(E71=2,"보석",IF(E71=3,"스테미나",IF(E71=4,"호감도",IF(E71=5,"플레이어 경험치",IF(E71=6,"캐릭터 경험치",IF(E71=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E71=8,VLOOKUP(G71,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E71=111,VLOOKUP(G71,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E71=113,VLOOKUP(G71,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H71" s="53" t="str">
+        <f>IF(E71=1000,VLOOKUP(G71,[2]item!$A$5:$C$10000,3,FALSE),IF(E71=112,VLOOKUP(G71,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E71=1,"골드",IF(E71=2,"보석",IF(E71=3,"스테미나",IF(E71=4,"호감도",IF(E71=5,"플레이어 경험치",IF(E71=6,"캐릭터 경험치",IF(E71=7,VLOOKUP(G71,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E71=8,VLOOKUP(G71,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E71=111,VLOOKUP(G71,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E71=113,VLOOKUP(G71,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>라일라 조각</v>
       </c>
       <c r="I71" s="4">
@@ -8328,8 +8266,8 @@
       <c r="G72" s="4">
         <v>8000</v>
       </c>
-      <c r="H72" s="53" t="str" cm="1">
-        <f t="array" ref="H72">IF(E72=1000,VLOOKUP(G72,[2]item!$A$5:$C$10000,3,FALSE),IF(E72=112,VLOOKUP(G72,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E72=1,"골드",IF(E72=2,"보석",IF(E72=3,"스테미나",IF(E72=4,"호감도",IF(E72=5,"플레이어 경험치",IF(E72=6,"캐릭터 경험치",IF(E72=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E72=8,VLOOKUP(G72,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E72=111,VLOOKUP(G72,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E72=113,VLOOKUP(G72,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H72" s="53" t="str">
+        <f>IF(E72=1000,VLOOKUP(G72,[2]item!$A$5:$C$10000,3,FALSE),IF(E72=112,VLOOKUP(G72,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E72=1,"골드",IF(E72=2,"보석",IF(E72=3,"스테미나",IF(E72=4,"호감도",IF(E72=5,"플레이어 경험치",IF(E72=6,"캐릭터 경험치",IF(E72=7,VLOOKUP(G72,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E72=8,VLOOKUP(G72,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E72=111,VLOOKUP(G72,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E72=113,VLOOKUP(G72,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>골드</v>
       </c>
       <c r="I72" s="4">
@@ -8379,8 +8317,8 @@
       <c r="G73" s="4">
         <v>16</v>
       </c>
-      <c r="H73" s="53" t="str" cm="1">
-        <f t="array" ref="H73">IF(E73=1000,VLOOKUP(G73,[2]item!$A$5:$C$10000,3,FALSE),IF(E73=112,VLOOKUP(G73,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E73=1,"골드",IF(E73=2,"보석",IF(E73=3,"스테미나",IF(E73=4,"호감도",IF(E73=5,"플레이어 경험치",IF(E73=6,"캐릭터 경험치",IF(E73=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E73=8,VLOOKUP(G73,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E73=111,VLOOKUP(G73,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E73=113,VLOOKUP(G73,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H73" s="53" t="str">
+        <f>IF(E73=1000,VLOOKUP(G73,[2]item!$A$5:$C$10000,3,FALSE),IF(E73=112,VLOOKUP(G73,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E73=1,"골드",IF(E73=2,"보석",IF(E73=3,"스테미나",IF(E73=4,"호감도",IF(E73=5,"플레이어 경험치",IF(E73=6,"캐릭터 경험치",IF(E73=7,VLOOKUP(G73,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E73=8,VLOOKUP(G73,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E73=111,VLOOKUP(G73,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E73=113,VLOOKUP(G73,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>전투 보고서(소)</v>
       </c>
       <c r="I73" s="4">
@@ -8430,8 +8368,8 @@
       <c r="G74" s="44">
         <v>30</v>
       </c>
-      <c r="H74" s="53" t="str" cm="1">
-        <f t="array" ref="H74">IF(E74=1000,VLOOKUP(G74,[2]item!$A$5:$C$10000,3,FALSE),IF(E74=112,VLOOKUP(G74,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E74=1,"골드",IF(E74=2,"보석",IF(E74=3,"스테미나",IF(E74=4,"호감도",IF(E74=5,"플레이어 경험치",IF(E74=6,"캐릭터 경험치",IF(E74=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E74=8,VLOOKUP(G74,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E74=111,VLOOKUP(G74,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E74=113,VLOOKUP(G74,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H74" s="53" t="str">
+        <f>IF(E74=1000,VLOOKUP(G74,[2]item!$A$5:$C$10000,3,FALSE),IF(E74=112,VLOOKUP(G74,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E74=1,"골드",IF(E74=2,"보석",IF(E74=3,"스테미나",IF(E74=4,"호감도",IF(E74=5,"플레이어 경험치",IF(E74=6,"캐릭터 경험치",IF(E74=7,VLOOKUP(G74,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E74=8,VLOOKUP(G74,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E74=111,VLOOKUP(G74,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E74=113,VLOOKUP(G74,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>보석</v>
       </c>
       <c r="I74" s="44">
@@ -8481,8 +8419,8 @@
       <c r="G75" s="42">
         <v>16</v>
       </c>
-      <c r="H75" s="53" t="str" cm="1">
-        <f t="array" ref="H75">IF(E75=1000,VLOOKUP(G75,[2]item!$A$5:$C$10000,3,FALSE),IF(E75=112,VLOOKUP(G75,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E75=1,"골드",IF(E75=2,"보석",IF(E75=3,"스테미나",IF(E75=4,"호감도",IF(E75=5,"플레이어 경험치",IF(E75=6,"캐릭터 경험치",IF(E75=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E75=8,VLOOKUP(G75,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E75=111,VLOOKUP(G75,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E75=113,VLOOKUP(G75,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H75" s="53" t="str">
+        <f>IF(E75=1000,VLOOKUP(G75,[2]item!$A$5:$C$10000,3,FALSE),IF(E75=112,VLOOKUP(G75,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E75=1,"골드",IF(E75=2,"보석",IF(E75=3,"스테미나",IF(E75=4,"호감도",IF(E75=5,"플레이어 경험치",IF(E75=6,"캐릭터 경험치",IF(E75=7,VLOOKUP(G75,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E75=8,VLOOKUP(G75,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E75=111,VLOOKUP(G75,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E75=113,VLOOKUP(G75,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>전투 보고서(소)</v>
       </c>
       <c r="I75" s="42">
@@ -8532,8 +8470,8 @@
       <c r="G76" s="42">
         <v>6</v>
       </c>
-      <c r="H76" s="53" t="str" cm="1">
-        <f t="array" ref="H76">IF(E76=1000,VLOOKUP(G76,[2]item!$A$5:$C$10000,3,FALSE),IF(E76=112,VLOOKUP(G76,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E76=1,"골드",IF(E76=2,"보석",IF(E76=3,"스테미나",IF(E76=4,"호감도",IF(E76=5,"플레이어 경험치",IF(E76=6,"캐릭터 경험치",IF(E76=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E76=8,VLOOKUP(G76,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E76=111,VLOOKUP(G76,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E76=113,VLOOKUP(G76,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H76" s="53" t="str">
+        <f>IF(E76=1000,VLOOKUP(G76,[2]item!$A$5:$C$10000,3,FALSE),IF(E76=112,VLOOKUP(G76,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E76=1,"골드",IF(E76=2,"보석",IF(E76=3,"스테미나",IF(E76=4,"호감도",IF(E76=5,"플레이어 경험치",IF(E76=6,"캐릭터 경험치",IF(E76=7,VLOOKUP(G76,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E76=8,VLOOKUP(G76,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E76=111,VLOOKUP(G76,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E76=113,VLOOKUP(G76,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>경험치 물약_C(소)</v>
       </c>
       <c r="I76" s="42">
@@ -8583,8 +8521,8 @@
       <c r="G77" s="42">
         <v>6</v>
       </c>
-      <c r="H77" s="53" t="str" cm="1">
-        <f t="array" ref="H77">IF(E77=1000,VLOOKUP(G77,[2]item!$A$5:$C$10000,3,FALSE),IF(E77=112,VLOOKUP(G77,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E77=1,"골드",IF(E77=2,"보석",IF(E77=3,"스테미나",IF(E77=4,"호감도",IF(E77=5,"플레이어 경험치",IF(E77=6,"캐릭터 경험치",IF(E77=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E77=8,VLOOKUP(G77,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E77=111,VLOOKUP(G77,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E77=113,VLOOKUP(G77,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H77" s="53" t="str">
+        <f>IF(E77=1000,VLOOKUP(G77,[2]item!$A$5:$C$10000,3,FALSE),IF(E77=112,VLOOKUP(G77,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E77=1,"골드",IF(E77=2,"보석",IF(E77=3,"스테미나",IF(E77=4,"호감도",IF(E77=5,"플레이어 경험치",IF(E77=6,"캐릭터 경험치",IF(E77=7,VLOOKUP(G77,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E77=8,VLOOKUP(G77,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E77=111,VLOOKUP(G77,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E77=113,VLOOKUP(G77,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>플레이어 경험치</v>
       </c>
       <c r="I77" s="42">
@@ -8634,8 +8572,8 @@
       <c r="G78" s="42">
         <v>6</v>
       </c>
-      <c r="H78" s="53" t="str" cm="1">
-        <f t="array" ref="H78">IF(E78=1000,VLOOKUP(G78,[2]item!$A$5:$C$10000,3,FALSE),IF(E78=112,VLOOKUP(G78,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E78=1,"골드",IF(E78=2,"보석",IF(E78=3,"스테미나",IF(E78=4,"호감도",IF(E78=5,"플레이어 경험치",IF(E78=6,"캐릭터 경험치",IF(E78=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E78=8,VLOOKUP(G78,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E78=111,VLOOKUP(G78,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E78=113,VLOOKUP(G78,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H78" s="53" t="str">
+        <f>IF(E78=1000,VLOOKUP(G78,[2]item!$A$5:$C$10000,3,FALSE),IF(E78=112,VLOOKUP(G78,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E78=1,"골드",IF(E78=2,"보석",IF(E78=3,"스테미나",IF(E78=4,"호감도",IF(E78=5,"플레이어 경험치",IF(E78=6,"캐릭터 경험치",IF(E78=7,VLOOKUP(G78,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E78=8,VLOOKUP(G78,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E78=111,VLOOKUP(G78,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E78=113,VLOOKUP(G78,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>캐릭터 경험치</v>
       </c>
       <c r="I78" s="42">
@@ -8685,8 +8623,8 @@
       <c r="G79" s="42">
         <v>6</v>
       </c>
-      <c r="H79" s="53" t="str" cm="1">
-        <f t="array" ref="H79">IF(E79=1000,VLOOKUP(G79,[2]item!$A$5:$C$10000,3,FALSE),IF(E79=112,VLOOKUP(G79,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E79=1,"골드",IF(E79=2,"보석",IF(E79=3,"스테미나",IF(E79=4,"호감도",IF(E79=5,"플레이어 경험치",IF(E79=6,"캐릭터 경험치",IF(E79=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E79=8,VLOOKUP(G79,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E79=111,VLOOKUP(G79,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E79=113,VLOOKUP(G79,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H79" s="53" t="str">
+        <f>IF(E79=1000,VLOOKUP(G79,[2]item!$A$5:$C$10000,3,FALSE),IF(E79=112,VLOOKUP(G79,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E79=1,"골드",IF(E79=2,"보석",IF(E79=3,"스테미나",IF(E79=4,"호감도",IF(E79=5,"플레이어 경험치",IF(E79=6,"캐릭터 경험치",IF(E79=7,VLOOKUP(G79,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E79=8,VLOOKUP(G79,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E79=111,VLOOKUP(G79,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E79=113,VLOOKUP(G79,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>골드</v>
       </c>
       <c r="I79" s="42">
@@ -8736,8 +8674,8 @@
       <c r="G80" s="42">
         <v>6</v>
       </c>
-      <c r="H80" s="53" t="str" cm="1">
-        <f t="array" ref="H80">IF(E80=1000,VLOOKUP(G80,[2]item!$A$5:$C$10000,3,FALSE),IF(E80=112,VLOOKUP(G80,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E80=1,"골드",IF(E80=2,"보석",IF(E80=3,"스테미나",IF(E80=4,"호감도",IF(E80=5,"플레이어 경험치",IF(E80=6,"캐릭터 경험치",IF(E80=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E80=8,VLOOKUP(G80,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E80=111,VLOOKUP(G80,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E80=113,VLOOKUP(G80,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H80" s="53" t="str">
+        <f>IF(E80=1000,VLOOKUP(G80,[2]item!$A$5:$C$10000,3,FALSE),IF(E80=112,VLOOKUP(G80,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E80=1,"골드",IF(E80=2,"보석",IF(E80=3,"스테미나",IF(E80=4,"호감도",IF(E80=5,"플레이어 경험치",IF(E80=6,"캐릭터 경험치",IF(E80=7,VLOOKUP(G80,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E80=8,VLOOKUP(G80,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E80=111,VLOOKUP(G80,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E80=113,VLOOKUP(G80,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>호감도</v>
       </c>
       <c r="I80" s="42">
@@ -8787,8 +8725,8 @@
       <c r="G81" s="42">
         <v>100001</v>
       </c>
-      <c r="H81" s="53" t="str" cm="1">
-        <f t="array" ref="H81">IF(E81=1000,VLOOKUP(G81,[2]item!$A$5:$C$10000,3,FALSE),IF(E81=112,VLOOKUP(G81,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E81=1,"골드",IF(E81=2,"보석",IF(E81=3,"스테미나",IF(E81=4,"호감도",IF(E81=5,"플레이어 경험치",IF(E81=6,"캐릭터 경험치",IF(E81=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E81=8,VLOOKUP(G81,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E81=111,VLOOKUP(G81,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E81=113,VLOOKUP(G81,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H81" s="53" t="str">
+        <f>IF(E81=1000,VLOOKUP(G81,[2]item!$A$5:$C$10000,3,FALSE),IF(E81=112,VLOOKUP(G81,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E81=1,"골드",IF(E81=2,"보석",IF(E81=3,"스테미나",IF(E81=4,"호감도",IF(E81=5,"플레이어 경험치",IF(E81=6,"캐릭터 경험치",IF(E81=7,VLOOKUP(G81,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E81=8,VLOOKUP(G81,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E81=111,VLOOKUP(G81,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E81=113,VLOOKUP(G81,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>루시아 조각</v>
       </c>
       <c r="I81" s="42">
@@ -8838,8 +8776,8 @@
       <c r="G82" s="42">
         <v>100002</v>
       </c>
-      <c r="H82" s="53" t="str" cm="1">
-        <f t="array" ref="H82">IF(E82=1000,VLOOKUP(G82,[2]item!$A$5:$C$10000,3,FALSE),IF(E82=112,VLOOKUP(G82,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E82=1,"골드",IF(E82=2,"보석",IF(E82=3,"스테미나",IF(E82=4,"호감도",IF(E82=5,"플레이어 경험치",IF(E82=6,"캐릭터 경험치",IF(E82=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E82=8,VLOOKUP(G82,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E82=111,VLOOKUP(G82,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E82=113,VLOOKUP(G82,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H82" s="53" t="str">
+        <f>IF(E82=1000,VLOOKUP(G82,[2]item!$A$5:$C$10000,3,FALSE),IF(E82=112,VLOOKUP(G82,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E82=1,"골드",IF(E82=2,"보석",IF(E82=3,"스테미나",IF(E82=4,"호감도",IF(E82=5,"플레이어 경험치",IF(E82=6,"캐릭터 경험치",IF(E82=7,VLOOKUP(G82,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E82=8,VLOOKUP(G82,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E82=111,VLOOKUP(G82,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E82=113,VLOOKUP(G82,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>라일라 조각</v>
       </c>
       <c r="I82" s="42">
@@ -8889,8 +8827,8 @@
       <c r="G83" s="42">
         <v>100003</v>
       </c>
-      <c r="H83" s="53" t="str" cm="1">
-        <f t="array" ref="H83">IF(E83=1000,VLOOKUP(G83,[2]item!$A$5:$C$10000,3,FALSE),IF(E83=112,VLOOKUP(G83,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E83=1,"골드",IF(E83=2,"보석",IF(E83=3,"스테미나",IF(E83=4,"호감도",IF(E83=5,"플레이어 경험치",IF(E83=6,"캐릭터 경험치",IF(E83=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E83=8,VLOOKUP(G83,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E83=111,VLOOKUP(G83,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E83=113,VLOOKUP(G83,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H83" s="53" t="str">
+        <f>IF(E83=1000,VLOOKUP(G83,[2]item!$A$5:$C$10000,3,FALSE),IF(E83=112,VLOOKUP(G83,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E83=1,"골드",IF(E83=2,"보석",IF(E83=3,"스테미나",IF(E83=4,"호감도",IF(E83=5,"플레이어 경험치",IF(E83=6,"캐릭터 경험치",IF(E83=7,VLOOKUP(G83,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E83=8,VLOOKUP(G83,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E83=111,VLOOKUP(G83,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E83=113,VLOOKUP(G83,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>바이올렛 조각</v>
       </c>
       <c r="I83" s="42">
@@ -8940,8 +8878,8 @@
       <c r="G84" s="42">
         <v>100004</v>
       </c>
-      <c r="H84" s="53" t="str" cm="1">
-        <f t="array" ref="H84">IF(E84=1000,VLOOKUP(G84,[2]item!$A$5:$C$10000,3,FALSE),IF(E84=112,VLOOKUP(G84,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E84=1,"골드",IF(E84=2,"보석",IF(E84=3,"스테미나",IF(E84=4,"호감도",IF(E84=5,"플레이어 경험치",IF(E84=6,"캐릭터 경험치",IF(E84=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E84=8,VLOOKUP(G84,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E84=111,VLOOKUP(G84,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E84=113,VLOOKUP(G84,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H84" s="53" t="str">
+        <f>IF(E84=1000,VLOOKUP(G84,[2]item!$A$5:$C$10000,3,FALSE),IF(E84=112,VLOOKUP(G84,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E84=1,"골드",IF(E84=2,"보석",IF(E84=3,"스테미나",IF(E84=4,"호감도",IF(E84=5,"플레이어 경험치",IF(E84=6,"캐릭터 경험치",IF(E84=7,VLOOKUP(G84,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E84=8,VLOOKUP(G84,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E84=111,VLOOKUP(G84,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E84=113,VLOOKUP(G84,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>데이지 조각</v>
       </c>
       <c r="I84" s="42">
@@ -8991,8 +8929,8 @@
       <c r="G85" s="4">
         <v>100001</v>
       </c>
-      <c r="H85" s="53" t="str" cm="1">
-        <f t="array" ref="H85">IF(E85=1000,VLOOKUP(G85,[2]item!$A$5:$C$10000,3,FALSE),IF(E85=112,VLOOKUP(G85,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E85=1,"골드",IF(E85=2,"보석",IF(E85=3,"스테미나",IF(E85=4,"호감도",IF(E85=5,"플레이어 경험치",IF(E85=6,"캐릭터 경험치",IF(E85=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E85=8,VLOOKUP(G85,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E85=111,VLOOKUP(G85,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E85=113,VLOOKUP(G85,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H85" s="53" t="str">
+        <f>IF(E85=1000,VLOOKUP(G85,[2]item!$A$5:$C$10000,3,FALSE),IF(E85=112,VLOOKUP(G85,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E85=1,"골드",IF(E85=2,"보석",IF(E85=3,"스테미나",IF(E85=4,"호감도",IF(E85=5,"플레이어 경험치",IF(E85=6,"캐릭터 경험치",IF(E85=7,VLOOKUP(G85,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E85=8,VLOOKUP(G85,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E85=111,VLOOKUP(G85,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E85=113,VLOOKUP(G85,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>루시아 조각</v>
       </c>
       <c r="I85" s="4">
@@ -9042,8 +8980,8 @@
       <c r="G86" s="4">
         <v>8000</v>
       </c>
-      <c r="H86" s="53" t="str" cm="1">
-        <f t="array" ref="H86">IF(E86=1000,VLOOKUP(G86,[2]item!$A$5:$C$10000,3,FALSE),IF(E86=112,VLOOKUP(G86,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E86=1,"골드",IF(E86=2,"보석",IF(E86=3,"스테미나",IF(E86=4,"호감도",IF(E86=5,"플레이어 경험치",IF(E86=6,"캐릭터 경험치",IF(E86=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E86=8,VLOOKUP(G86,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E86=111,VLOOKUP(G86,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E86=113,VLOOKUP(G86,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H86" s="53" t="str">
+        <f>IF(E86=1000,VLOOKUP(G86,[2]item!$A$5:$C$10000,3,FALSE),IF(E86=112,VLOOKUP(G86,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E86=1,"골드",IF(E86=2,"보석",IF(E86=3,"스테미나",IF(E86=4,"호감도",IF(E86=5,"플레이어 경험치",IF(E86=6,"캐릭터 경험치",IF(E86=7,VLOOKUP(G86,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E86=8,VLOOKUP(G86,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E86=111,VLOOKUP(G86,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E86=113,VLOOKUP(G86,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>골드</v>
       </c>
       <c r="I86" s="4">
@@ -9093,8 +9031,8 @@
       <c r="G87" s="4">
         <v>16</v>
       </c>
-      <c r="H87" s="53" t="str" cm="1">
-        <f t="array" ref="H87">IF(E87=1000,VLOOKUP(G87,[2]item!$A$5:$C$10000,3,FALSE),IF(E87=112,VLOOKUP(G87,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E87=1,"골드",IF(E87=2,"보석",IF(E87=3,"스테미나",IF(E87=4,"호감도",IF(E87=5,"플레이어 경험치",IF(E87=6,"캐릭터 경험치",IF(E87=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E87=8,VLOOKUP(G87,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E87=111,VLOOKUP(G87,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E87=113,VLOOKUP(G87,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H87" s="53" t="str">
+        <f>IF(E87=1000,VLOOKUP(G87,[2]item!$A$5:$C$10000,3,FALSE),IF(E87=112,VLOOKUP(G87,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E87=1,"골드",IF(E87=2,"보석",IF(E87=3,"스테미나",IF(E87=4,"호감도",IF(E87=5,"플레이어 경험치",IF(E87=6,"캐릭터 경험치",IF(E87=7,VLOOKUP(G87,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E87=8,VLOOKUP(G87,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E87=111,VLOOKUP(G87,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E87=113,VLOOKUP(G87,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>전투 보고서(소)</v>
       </c>
       <c r="I87" s="4">
@@ -9144,8 +9082,8 @@
       <c r="G88" s="44">
         <v>30</v>
       </c>
-      <c r="H88" s="53" t="str" cm="1">
-        <f t="array" ref="H88">IF(E88=1000,VLOOKUP(G88,[2]item!$A$5:$C$10000,3,FALSE),IF(E88=112,VLOOKUP(G88,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E88=1,"골드",IF(E88=2,"보석",IF(E88=3,"스테미나",IF(E88=4,"호감도",IF(E88=5,"플레이어 경험치",IF(E88=6,"캐릭터 경험치",IF(E88=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E88=8,VLOOKUP(G88,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E88=111,VLOOKUP(G88,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E88=113,VLOOKUP(G88,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H88" s="53" t="str">
+        <f>IF(E88=1000,VLOOKUP(G88,[2]item!$A$5:$C$10000,3,FALSE),IF(E88=112,VLOOKUP(G88,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E88=1,"골드",IF(E88=2,"보석",IF(E88=3,"스테미나",IF(E88=4,"호감도",IF(E88=5,"플레이어 경험치",IF(E88=6,"캐릭터 경험치",IF(E88=7,VLOOKUP(G88,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E88=8,VLOOKUP(G88,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E88=111,VLOOKUP(G88,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E88=113,VLOOKUP(G88,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>보석</v>
       </c>
       <c r="I88" s="44">
@@ -9195,8 +9133,8 @@
       <c r="G89" s="42">
         <v>16</v>
       </c>
-      <c r="H89" s="53" t="str" cm="1">
-        <f t="array" ref="H89">IF(E89=1000,VLOOKUP(G89,[2]item!$A$5:$C$10000,3,FALSE),IF(E89=112,VLOOKUP(G89,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E89=1,"골드",IF(E89=2,"보석",IF(E89=3,"스테미나",IF(E89=4,"호감도",IF(E89=5,"플레이어 경험치",IF(E89=6,"캐릭터 경험치",IF(E89=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E89=8,VLOOKUP(G89,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E89=111,VLOOKUP(G89,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E89=113,VLOOKUP(G89,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H89" s="53" t="str">
+        <f>IF(E89=1000,VLOOKUP(G89,[2]item!$A$5:$C$10000,3,FALSE),IF(E89=112,VLOOKUP(G89,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E89=1,"골드",IF(E89=2,"보석",IF(E89=3,"스테미나",IF(E89=4,"호감도",IF(E89=5,"플레이어 경험치",IF(E89=6,"캐릭터 경험치",IF(E89=7,VLOOKUP(G89,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E89=8,VLOOKUP(G89,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E89=111,VLOOKUP(G89,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E89=113,VLOOKUP(G89,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>전투 보고서(소)</v>
       </c>
       <c r="I89" s="42">
@@ -9246,8 +9184,8 @@
       <c r="G90" s="42">
         <v>6</v>
       </c>
-      <c r="H90" s="53" t="str" cm="1">
-        <f t="array" ref="H90">IF(E90=1000,VLOOKUP(G90,[2]item!$A$5:$C$10000,3,FALSE),IF(E90=112,VLOOKUP(G90,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E90=1,"골드",IF(E90=2,"보석",IF(E90=3,"스테미나",IF(E90=4,"호감도",IF(E90=5,"플레이어 경험치",IF(E90=6,"캐릭터 경험치",IF(E90=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E90=8,VLOOKUP(G90,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E90=111,VLOOKUP(G90,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E90=113,VLOOKUP(G90,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H90" s="53" t="str">
+        <f>IF(E90=1000,VLOOKUP(G90,[2]item!$A$5:$C$10000,3,FALSE),IF(E90=112,VLOOKUP(G90,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E90=1,"골드",IF(E90=2,"보석",IF(E90=3,"스테미나",IF(E90=4,"호감도",IF(E90=5,"플레이어 경험치",IF(E90=6,"캐릭터 경험치",IF(E90=7,VLOOKUP(G90,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E90=8,VLOOKUP(G90,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E90=111,VLOOKUP(G90,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E90=113,VLOOKUP(G90,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>경험치 물약_C(소)</v>
       </c>
       <c r="I90" s="42">
@@ -9297,8 +9235,8 @@
       <c r="G91" s="42">
         <v>6</v>
       </c>
-      <c r="H91" s="53" t="str" cm="1">
-        <f t="array" ref="H91">IF(E91=1000,VLOOKUP(G91,[2]item!$A$5:$C$10000,3,FALSE),IF(E91=112,VLOOKUP(G91,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E91=1,"골드",IF(E91=2,"보석",IF(E91=3,"스테미나",IF(E91=4,"호감도",IF(E91=5,"플레이어 경험치",IF(E91=6,"캐릭터 경험치",IF(E91=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E91=8,VLOOKUP(G91,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E91=111,VLOOKUP(G91,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E91=113,VLOOKUP(G91,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H91" s="53" t="str">
+        <f>IF(E91=1000,VLOOKUP(G91,[2]item!$A$5:$C$10000,3,FALSE),IF(E91=112,VLOOKUP(G91,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E91=1,"골드",IF(E91=2,"보석",IF(E91=3,"스테미나",IF(E91=4,"호감도",IF(E91=5,"플레이어 경험치",IF(E91=6,"캐릭터 경험치",IF(E91=7,VLOOKUP(G91,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E91=8,VLOOKUP(G91,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E91=111,VLOOKUP(G91,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E91=113,VLOOKUP(G91,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>플레이어 경험치</v>
       </c>
       <c r="I91" s="42">
@@ -9348,8 +9286,8 @@
       <c r="G92" s="42">
         <v>6</v>
       </c>
-      <c r="H92" s="53" t="str" cm="1">
-        <f t="array" ref="H92">IF(E92=1000,VLOOKUP(G92,[2]item!$A$5:$C$10000,3,FALSE),IF(E92=112,VLOOKUP(G92,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E92=1,"골드",IF(E92=2,"보석",IF(E92=3,"스테미나",IF(E92=4,"호감도",IF(E92=5,"플레이어 경험치",IF(E92=6,"캐릭터 경험치",IF(E92=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E92=8,VLOOKUP(G92,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E92=111,VLOOKUP(G92,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E92=113,VLOOKUP(G92,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H92" s="53" t="str">
+        <f>IF(E92=1000,VLOOKUP(G92,[2]item!$A$5:$C$10000,3,FALSE),IF(E92=112,VLOOKUP(G92,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E92=1,"골드",IF(E92=2,"보석",IF(E92=3,"스테미나",IF(E92=4,"호감도",IF(E92=5,"플레이어 경험치",IF(E92=6,"캐릭터 경험치",IF(E92=7,VLOOKUP(G92,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E92=8,VLOOKUP(G92,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E92=111,VLOOKUP(G92,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E92=113,VLOOKUP(G92,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>캐릭터 경험치</v>
       </c>
       <c r="I92" s="42">
@@ -9399,8 +9337,8 @@
       <c r="G93" s="42">
         <v>6</v>
       </c>
-      <c r="H93" s="53" t="str" cm="1">
-        <f t="array" ref="H93">IF(E93=1000,VLOOKUP(G93,[2]item!$A$5:$C$10000,3,FALSE),IF(E93=112,VLOOKUP(G93,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E93=1,"골드",IF(E93=2,"보석",IF(E93=3,"스테미나",IF(E93=4,"호감도",IF(E93=5,"플레이어 경험치",IF(E93=6,"캐릭터 경험치",IF(E93=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E93=8,VLOOKUP(G93,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E93=111,VLOOKUP(G93,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E93=113,VLOOKUP(G93,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H93" s="53" t="str">
+        <f>IF(E93=1000,VLOOKUP(G93,[2]item!$A$5:$C$10000,3,FALSE),IF(E93=112,VLOOKUP(G93,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E93=1,"골드",IF(E93=2,"보석",IF(E93=3,"스테미나",IF(E93=4,"호감도",IF(E93=5,"플레이어 경험치",IF(E93=6,"캐릭터 경험치",IF(E93=7,VLOOKUP(G93,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E93=8,VLOOKUP(G93,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E93=111,VLOOKUP(G93,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E93=113,VLOOKUP(G93,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>골드</v>
       </c>
       <c r="I93" s="42">
@@ -9450,8 +9388,8 @@
       <c r="G94" s="42">
         <v>6</v>
       </c>
-      <c r="H94" s="53" t="str" cm="1">
-        <f t="array" ref="H94">IF(E94=1000,VLOOKUP(G94,[2]item!$A$5:$C$10000,3,FALSE),IF(E94=112,VLOOKUP(G94,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E94=1,"골드",IF(E94=2,"보석",IF(E94=3,"스테미나",IF(E94=4,"호감도",IF(E94=5,"플레이어 경험치",IF(E94=6,"캐릭터 경험치",IF(E94=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E94=8,VLOOKUP(G94,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E94=111,VLOOKUP(G94,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E94=113,VLOOKUP(G94,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H94" s="53" t="str">
+        <f>IF(E94=1000,VLOOKUP(G94,[2]item!$A$5:$C$10000,3,FALSE),IF(E94=112,VLOOKUP(G94,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E94=1,"골드",IF(E94=2,"보석",IF(E94=3,"스테미나",IF(E94=4,"호감도",IF(E94=5,"플레이어 경험치",IF(E94=6,"캐릭터 경험치",IF(E94=7,VLOOKUP(G94,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E94=8,VLOOKUP(G94,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E94=111,VLOOKUP(G94,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E94=113,VLOOKUP(G94,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>호감도</v>
       </c>
       <c r="I94" s="42">
@@ -9501,8 +9439,8 @@
       <c r="G95" s="42">
         <v>100001</v>
       </c>
-      <c r="H95" s="53" t="str" cm="1">
-        <f t="array" ref="H95">IF(E95=1000,VLOOKUP(G95,[2]item!$A$5:$C$10000,3,FALSE),IF(E95=112,VLOOKUP(G95,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E95=1,"골드",IF(E95=2,"보석",IF(E95=3,"스테미나",IF(E95=4,"호감도",IF(E95=5,"플레이어 경험치",IF(E95=6,"캐릭터 경험치",IF(E95=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E95=8,VLOOKUP(G95,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E95=111,VLOOKUP(G95,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E95=113,VLOOKUP(G95,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H95" s="53" t="str">
+        <f>IF(E95=1000,VLOOKUP(G95,[2]item!$A$5:$C$10000,3,FALSE),IF(E95=112,VLOOKUP(G95,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E95=1,"골드",IF(E95=2,"보석",IF(E95=3,"스테미나",IF(E95=4,"호감도",IF(E95=5,"플레이어 경험치",IF(E95=6,"캐릭터 경험치",IF(E95=7,VLOOKUP(G95,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E95=8,VLOOKUP(G95,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E95=111,VLOOKUP(G95,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E95=113,VLOOKUP(G95,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>루시아 조각</v>
       </c>
       <c r="I95" s="42">
@@ -9552,8 +9490,8 @@
       <c r="G96" s="42">
         <v>100002</v>
       </c>
-      <c r="H96" s="53" t="str" cm="1">
-        <f t="array" ref="H96">IF(E96=1000,VLOOKUP(G96,[2]item!$A$5:$C$10000,3,FALSE),IF(E96=112,VLOOKUP(G96,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E96=1,"골드",IF(E96=2,"보석",IF(E96=3,"스테미나",IF(E96=4,"호감도",IF(E96=5,"플레이어 경험치",IF(E96=6,"캐릭터 경험치",IF(E96=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E96=8,VLOOKUP(G96,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E96=111,VLOOKUP(G96,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E96=113,VLOOKUP(G96,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H96" s="53" t="str">
+        <f>IF(E96=1000,VLOOKUP(G96,[2]item!$A$5:$C$10000,3,FALSE),IF(E96=112,VLOOKUP(G96,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E96=1,"골드",IF(E96=2,"보석",IF(E96=3,"스테미나",IF(E96=4,"호감도",IF(E96=5,"플레이어 경험치",IF(E96=6,"캐릭터 경험치",IF(E96=7,VLOOKUP(G96,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E96=8,VLOOKUP(G96,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E96=111,VLOOKUP(G96,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E96=113,VLOOKUP(G96,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>라일라 조각</v>
       </c>
       <c r="I96" s="42">
@@ -9603,8 +9541,8 @@
       <c r="G97" s="42">
         <v>100003</v>
       </c>
-      <c r="H97" s="53" t="str" cm="1">
-        <f t="array" ref="H97">IF(E97=1000,VLOOKUP(G97,[2]item!$A$5:$C$10000,3,FALSE),IF(E97=112,VLOOKUP(G97,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E97=1,"골드",IF(E97=2,"보석",IF(E97=3,"스테미나",IF(E97=4,"호감도",IF(E97=5,"플레이어 경험치",IF(E97=6,"캐릭터 경험치",IF(E97=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E97=8,VLOOKUP(G97,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E97=111,VLOOKUP(G97,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E97=113,VLOOKUP(G97,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H97" s="53" t="str">
+        <f>IF(E97=1000,VLOOKUP(G97,[2]item!$A$5:$C$10000,3,FALSE),IF(E97=112,VLOOKUP(G97,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E97=1,"골드",IF(E97=2,"보석",IF(E97=3,"스테미나",IF(E97=4,"호감도",IF(E97=5,"플레이어 경험치",IF(E97=6,"캐릭터 경험치",IF(E97=7,VLOOKUP(G97,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E97=8,VLOOKUP(G97,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E97=111,VLOOKUP(G97,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E97=113,VLOOKUP(G97,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>바이올렛 조각</v>
       </c>
       <c r="I97" s="42">
@@ -9654,8 +9592,8 @@
       <c r="G98" s="42">
         <v>100004</v>
       </c>
-      <c r="H98" s="53" t="str" cm="1">
-        <f t="array" ref="H98">IF(E98=1000,VLOOKUP(G98,[2]item!$A$5:$C$10000,3,FALSE),IF(E98=112,VLOOKUP(G98,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E98=1,"골드",IF(E98=2,"보석",IF(E98=3,"스테미나",IF(E98=4,"호감도",IF(E98=5,"플레이어 경험치",IF(E98=6,"캐릭터 경험치",IF(E98=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E98=8,VLOOKUP(G98,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E98=111,VLOOKUP(G98,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E98=113,VLOOKUP(G98,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H98" s="53" t="str">
+        <f>IF(E98=1000,VLOOKUP(G98,[2]item!$A$5:$C$10000,3,FALSE),IF(E98=112,VLOOKUP(G98,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E98=1,"골드",IF(E98=2,"보석",IF(E98=3,"스테미나",IF(E98=4,"호감도",IF(E98=5,"플레이어 경험치",IF(E98=6,"캐릭터 경험치",IF(E98=7,VLOOKUP(G98,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E98=8,VLOOKUP(G98,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E98=111,VLOOKUP(G98,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E98=113,VLOOKUP(G98,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>데이지 조각</v>
       </c>
       <c r="I98" s="42">
@@ -9705,8 +9643,8 @@
       <c r="G99" s="4">
         <v>100001</v>
       </c>
-      <c r="H99" s="53" t="str" cm="1">
-        <f t="array" ref="H99">IF(E99=1000,VLOOKUP(G99,[2]item!$A$5:$C$10000,3,FALSE),IF(E99=112,VLOOKUP(G99,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E99=1,"골드",IF(E99=2,"보석",IF(E99=3,"스테미나",IF(E99=4,"호감도",IF(E99=5,"플레이어 경험치",IF(E99=6,"캐릭터 경험치",IF(E99=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E99=8,VLOOKUP(G99,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E99=111,VLOOKUP(G99,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E99=113,VLOOKUP(G99,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H99" s="53" t="str">
+        <f>IF(E99=1000,VLOOKUP(G99,[2]item!$A$5:$C$10000,3,FALSE),IF(E99=112,VLOOKUP(G99,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E99=1,"골드",IF(E99=2,"보석",IF(E99=3,"스테미나",IF(E99=4,"호감도",IF(E99=5,"플레이어 경험치",IF(E99=6,"캐릭터 경험치",IF(E99=7,VLOOKUP(G99,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E99=8,VLOOKUP(G99,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E99=111,VLOOKUP(G99,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E99=113,VLOOKUP(G99,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>루시아 조각</v>
       </c>
       <c r="I99" s="4">
@@ -9756,8 +9694,8 @@
       <c r="G100" s="4">
         <v>8000</v>
       </c>
-      <c r="H100" s="53" t="str" cm="1">
-        <f t="array" ref="H100">IF(E100=1000,VLOOKUP(G100,[2]item!$A$5:$C$10000,3,FALSE),IF(E100=112,VLOOKUP(G100,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E100=1,"골드",IF(E100=2,"보석",IF(E100=3,"스테미나",IF(E100=4,"호감도",IF(E100=5,"플레이어 경험치",IF(E100=6,"캐릭터 경험치",IF(E100=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E100=8,VLOOKUP(G100,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E100=111,VLOOKUP(G100,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E100=113,VLOOKUP(G100,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H100" s="53" t="str">
+        <f>IF(E100=1000,VLOOKUP(G100,[2]item!$A$5:$C$10000,3,FALSE),IF(E100=112,VLOOKUP(G100,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E100=1,"골드",IF(E100=2,"보석",IF(E100=3,"스테미나",IF(E100=4,"호감도",IF(E100=5,"플레이어 경험치",IF(E100=6,"캐릭터 경험치",IF(E100=7,VLOOKUP(G100,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E100=8,VLOOKUP(G100,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E100=111,VLOOKUP(G100,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E100=113,VLOOKUP(G100,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>골드</v>
       </c>
       <c r="I100" s="4">
@@ -9807,8 +9745,8 @@
       <c r="G101" s="4">
         <v>16</v>
       </c>
-      <c r="H101" s="53" t="str" cm="1">
-        <f t="array" ref="H101">IF(E101=1000,VLOOKUP(G101,[2]item!$A$5:$C$10000,3,FALSE),IF(E101=112,VLOOKUP(G101,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E101=1,"골드",IF(E101=2,"보석",IF(E101=3,"스테미나",IF(E101=4,"호감도",IF(E101=5,"플레이어 경험치",IF(E101=6,"캐릭터 경험치",IF(E101=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E101=8,VLOOKUP(G101,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E101=111,VLOOKUP(G101,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E101=113,VLOOKUP(G101,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H101" s="53" t="str">
+        <f>IF(E101=1000,VLOOKUP(G101,[2]item!$A$5:$C$10000,3,FALSE),IF(E101=112,VLOOKUP(G101,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E101=1,"골드",IF(E101=2,"보석",IF(E101=3,"스테미나",IF(E101=4,"호감도",IF(E101=5,"플레이어 경험치",IF(E101=6,"캐릭터 경험치",IF(E101=7,VLOOKUP(G101,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E101=8,VLOOKUP(G101,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E101=111,VLOOKUP(G101,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E101=113,VLOOKUP(G101,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>전투 보고서(소)</v>
       </c>
       <c r="I101" s="4">
@@ -9858,8 +9796,8 @@
       <c r="G102" s="44">
         <v>30</v>
       </c>
-      <c r="H102" s="53" t="str" cm="1">
-        <f t="array" ref="H102">IF(E102=1000,VLOOKUP(G102,[2]item!$A$5:$C$10000,3,FALSE),IF(E102=112,VLOOKUP(G102,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E102=1,"골드",IF(E102=2,"보석",IF(E102=3,"스테미나",IF(E102=4,"호감도",IF(E102=5,"플레이어 경험치",IF(E102=6,"캐릭터 경험치",IF(E102=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E102=8,VLOOKUP(G102,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E102=111,VLOOKUP(G102,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E102=113,VLOOKUP(G102,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H102" s="53" t="str">
+        <f>IF(E102=1000,VLOOKUP(G102,[2]item!$A$5:$C$10000,3,FALSE),IF(E102=112,VLOOKUP(G102,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E102=1,"골드",IF(E102=2,"보석",IF(E102=3,"스테미나",IF(E102=4,"호감도",IF(E102=5,"플레이어 경험치",IF(E102=6,"캐릭터 경험치",IF(E102=7,VLOOKUP(G102,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E102=8,VLOOKUP(G102,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E102=111,VLOOKUP(G102,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E102=113,VLOOKUP(G102,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>보석</v>
       </c>
       <c r="I102" s="44">
@@ -9909,8 +9847,8 @@
       <c r="G103" s="42">
         <v>16</v>
       </c>
-      <c r="H103" s="53" t="str" cm="1">
-        <f t="array" ref="H103">IF(E103=1000,VLOOKUP(G103,[2]item!$A$5:$C$10000,3,FALSE),IF(E103=112,VLOOKUP(G103,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E103=1,"골드",IF(E103=2,"보석",IF(E103=3,"스테미나",IF(E103=4,"호감도",IF(E103=5,"플레이어 경험치",IF(E103=6,"캐릭터 경험치",IF(E103=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E103=8,VLOOKUP(G103,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E103=111,VLOOKUP(G103,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E103=113,VLOOKUP(G103,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H103" s="53" t="str">
+        <f>IF(E103=1000,VLOOKUP(G103,[2]item!$A$5:$C$10000,3,FALSE),IF(E103=112,VLOOKUP(G103,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E103=1,"골드",IF(E103=2,"보석",IF(E103=3,"스테미나",IF(E103=4,"호감도",IF(E103=5,"플레이어 경험치",IF(E103=6,"캐릭터 경험치",IF(E103=7,VLOOKUP(G103,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E103=8,VLOOKUP(G103,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E103=111,VLOOKUP(G103,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E103=113,VLOOKUP(G103,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>전투 보고서(소)</v>
       </c>
       <c r="I103" s="42">
@@ -9960,8 +9898,8 @@
       <c r="G104" s="42">
         <v>6</v>
       </c>
-      <c r="H104" s="53" t="str" cm="1">
-        <f t="array" ref="H104">IF(E104=1000,VLOOKUP(G104,[2]item!$A$5:$C$10000,3,FALSE),IF(E104=112,VLOOKUP(G104,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E104=1,"골드",IF(E104=2,"보석",IF(E104=3,"스테미나",IF(E104=4,"호감도",IF(E104=5,"플레이어 경험치",IF(E104=6,"캐릭터 경험치",IF(E104=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E104=8,VLOOKUP(G104,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E104=111,VLOOKUP(G104,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E104=113,VLOOKUP(G104,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H104" s="53" t="str">
+        <f>IF(E104=1000,VLOOKUP(G104,[2]item!$A$5:$C$10000,3,FALSE),IF(E104=112,VLOOKUP(G104,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E104=1,"골드",IF(E104=2,"보석",IF(E104=3,"스테미나",IF(E104=4,"호감도",IF(E104=5,"플레이어 경험치",IF(E104=6,"캐릭터 경험치",IF(E104=7,VLOOKUP(G104,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E104=8,VLOOKUP(G104,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E104=111,VLOOKUP(G104,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E104=113,VLOOKUP(G104,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>경험치 물약_C(소)</v>
       </c>
       <c r="I104" s="42">
@@ -10011,8 +9949,8 @@
       <c r="G105" s="42">
         <v>6</v>
       </c>
-      <c r="H105" s="53" t="str" cm="1">
-        <f t="array" ref="H105">IF(E105=1000,VLOOKUP(G105,[2]item!$A$5:$C$10000,3,FALSE),IF(E105=112,VLOOKUP(G105,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E105=1,"골드",IF(E105=2,"보석",IF(E105=3,"스테미나",IF(E105=4,"호감도",IF(E105=5,"플레이어 경험치",IF(E105=6,"캐릭터 경험치",IF(E105=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E105=8,VLOOKUP(G105,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E105=111,VLOOKUP(G105,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E105=113,VLOOKUP(G105,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H105" s="53" t="str">
+        <f>IF(E105=1000,VLOOKUP(G105,[2]item!$A$5:$C$10000,3,FALSE),IF(E105=112,VLOOKUP(G105,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E105=1,"골드",IF(E105=2,"보석",IF(E105=3,"스테미나",IF(E105=4,"호감도",IF(E105=5,"플레이어 경험치",IF(E105=6,"캐릭터 경험치",IF(E105=7,VLOOKUP(G105,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E105=8,VLOOKUP(G105,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E105=111,VLOOKUP(G105,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E105=113,VLOOKUP(G105,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>플레이어 경험치</v>
       </c>
       <c r="I105" s="42">
@@ -10062,8 +10000,8 @@
       <c r="G106" s="42">
         <v>6</v>
       </c>
-      <c r="H106" s="53" t="str" cm="1">
-        <f t="array" ref="H106">IF(E106=1000,VLOOKUP(G106,[2]item!$A$5:$C$10000,3,FALSE),IF(E106=112,VLOOKUP(G106,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E106=1,"골드",IF(E106=2,"보석",IF(E106=3,"스테미나",IF(E106=4,"호감도",IF(E106=5,"플레이어 경험치",IF(E106=6,"캐릭터 경험치",IF(E106=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E106=8,VLOOKUP(G106,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E106=111,VLOOKUP(G106,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E106=113,VLOOKUP(G106,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H106" s="53" t="str">
+        <f>IF(E106=1000,VLOOKUP(G106,[2]item!$A$5:$C$10000,3,FALSE),IF(E106=112,VLOOKUP(G106,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E106=1,"골드",IF(E106=2,"보석",IF(E106=3,"스테미나",IF(E106=4,"호감도",IF(E106=5,"플레이어 경험치",IF(E106=6,"캐릭터 경험치",IF(E106=7,VLOOKUP(G106,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E106=8,VLOOKUP(G106,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E106=111,VLOOKUP(G106,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E106=113,VLOOKUP(G106,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>캐릭터 경험치</v>
       </c>
       <c r="I106" s="42">
@@ -10113,8 +10051,8 @@
       <c r="G107" s="42">
         <v>6</v>
       </c>
-      <c r="H107" s="53" t="str" cm="1">
-        <f t="array" ref="H107">IF(E107=1000,VLOOKUP(G107,[2]item!$A$5:$C$10000,3,FALSE),IF(E107=112,VLOOKUP(G107,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E107=1,"골드",IF(E107=2,"보석",IF(E107=3,"스테미나",IF(E107=4,"호감도",IF(E107=5,"플레이어 경험치",IF(E107=6,"캐릭터 경험치",IF(E107=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E107=8,VLOOKUP(G107,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E107=111,VLOOKUP(G107,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E107=113,VLOOKUP(G107,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H107" s="53" t="str">
+        <f>IF(E107=1000,VLOOKUP(G107,[2]item!$A$5:$C$10000,3,FALSE),IF(E107=112,VLOOKUP(G107,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E107=1,"골드",IF(E107=2,"보석",IF(E107=3,"스테미나",IF(E107=4,"호감도",IF(E107=5,"플레이어 경험치",IF(E107=6,"캐릭터 경험치",IF(E107=7,VLOOKUP(G107,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E107=8,VLOOKUP(G107,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E107=111,VLOOKUP(G107,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E107=113,VLOOKUP(G107,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>골드</v>
       </c>
       <c r="I107" s="42">
@@ -10164,8 +10102,8 @@
       <c r="G108" s="42">
         <v>6</v>
       </c>
-      <c r="H108" s="53" t="str" cm="1">
-        <f t="array" ref="H108">IF(E108=1000,VLOOKUP(G108,[2]item!$A$5:$C$10000,3,FALSE),IF(E108=112,VLOOKUP(G108,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E108=1,"골드",IF(E108=2,"보석",IF(E108=3,"스테미나",IF(E108=4,"호감도",IF(E108=5,"플레이어 경험치",IF(E108=6,"캐릭터 경험치",IF(E108=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E108=8,VLOOKUP(G108,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E108=111,VLOOKUP(G108,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E108=113,VLOOKUP(G108,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H108" s="53" t="str">
+        <f>IF(E108=1000,VLOOKUP(G108,[2]item!$A$5:$C$10000,3,FALSE),IF(E108=112,VLOOKUP(G108,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E108=1,"골드",IF(E108=2,"보석",IF(E108=3,"스테미나",IF(E108=4,"호감도",IF(E108=5,"플레이어 경험치",IF(E108=6,"캐릭터 경험치",IF(E108=7,VLOOKUP(G108,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E108=8,VLOOKUP(G108,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E108=111,VLOOKUP(G108,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E108=113,VLOOKUP(G108,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>호감도</v>
       </c>
       <c r="I108" s="42">
@@ -10215,8 +10153,8 @@
       <c r="G109" s="42">
         <v>100001</v>
       </c>
-      <c r="H109" s="53" t="str" cm="1">
-        <f t="array" ref="H109">IF(E109=1000,VLOOKUP(G109,[2]item!$A$5:$C$10000,3,FALSE),IF(E109=112,VLOOKUP(G109,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E109=1,"골드",IF(E109=2,"보석",IF(E109=3,"스테미나",IF(E109=4,"호감도",IF(E109=5,"플레이어 경험치",IF(E109=6,"캐릭터 경험치",IF(E109=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E109=8,VLOOKUP(G109,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E109=111,VLOOKUP(G109,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E109=113,VLOOKUP(G109,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H109" s="53" t="str">
+        <f>IF(E109=1000,VLOOKUP(G109,[2]item!$A$5:$C$10000,3,FALSE),IF(E109=112,VLOOKUP(G109,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E109=1,"골드",IF(E109=2,"보석",IF(E109=3,"스테미나",IF(E109=4,"호감도",IF(E109=5,"플레이어 경험치",IF(E109=6,"캐릭터 경험치",IF(E109=7,VLOOKUP(G109,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E109=8,VLOOKUP(G109,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E109=111,VLOOKUP(G109,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E109=113,VLOOKUP(G109,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>루시아 조각</v>
       </c>
       <c r="I109" s="42">
@@ -10266,8 +10204,8 @@
       <c r="G110" s="42">
         <v>100002</v>
       </c>
-      <c r="H110" s="53" t="str" cm="1">
-        <f t="array" ref="H110">IF(E110=1000,VLOOKUP(G110,[2]item!$A$5:$C$10000,3,FALSE),IF(E110=112,VLOOKUP(G110,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E110=1,"골드",IF(E110=2,"보석",IF(E110=3,"스테미나",IF(E110=4,"호감도",IF(E110=5,"플레이어 경험치",IF(E110=6,"캐릭터 경험치",IF(E110=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E110=8,VLOOKUP(G110,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E110=111,VLOOKUP(G110,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E110=113,VLOOKUP(G110,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H110" s="53" t="str">
+        <f>IF(E110=1000,VLOOKUP(G110,[2]item!$A$5:$C$10000,3,FALSE),IF(E110=112,VLOOKUP(G110,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E110=1,"골드",IF(E110=2,"보석",IF(E110=3,"스테미나",IF(E110=4,"호감도",IF(E110=5,"플레이어 경험치",IF(E110=6,"캐릭터 경험치",IF(E110=7,VLOOKUP(G110,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E110=8,VLOOKUP(G110,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E110=111,VLOOKUP(G110,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E110=113,VLOOKUP(G110,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>라일라 조각</v>
       </c>
       <c r="I110" s="42">
@@ -10317,8 +10255,8 @@
       <c r="G111" s="42">
         <v>100003</v>
       </c>
-      <c r="H111" s="53" t="str" cm="1">
-        <f t="array" ref="H111">IF(E111=1000,VLOOKUP(G111,[2]item!$A$5:$C$10000,3,FALSE),IF(E111=112,VLOOKUP(G111,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E111=1,"골드",IF(E111=2,"보석",IF(E111=3,"스테미나",IF(E111=4,"호감도",IF(E111=5,"플레이어 경험치",IF(E111=6,"캐릭터 경험치",IF(E111=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E111=8,VLOOKUP(G111,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E111=111,VLOOKUP(G111,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E111=113,VLOOKUP(G111,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H111" s="53" t="str">
+        <f>IF(E111=1000,VLOOKUP(G111,[2]item!$A$5:$C$10000,3,FALSE),IF(E111=112,VLOOKUP(G111,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E111=1,"골드",IF(E111=2,"보석",IF(E111=3,"스테미나",IF(E111=4,"호감도",IF(E111=5,"플레이어 경험치",IF(E111=6,"캐릭터 경험치",IF(E111=7,VLOOKUP(G111,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E111=8,VLOOKUP(G111,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E111=111,VLOOKUP(G111,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E111=113,VLOOKUP(G111,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>바이올렛 조각</v>
       </c>
       <c r="I111" s="42">
@@ -10368,8 +10306,8 @@
       <c r="G112" s="42">
         <v>100004</v>
       </c>
-      <c r="H112" s="53" t="str" cm="1">
-        <f t="array" ref="H112">IF(E112=1000,VLOOKUP(G112,[2]item!$A$5:$C$10000,3,FALSE),IF(E112=112,VLOOKUP(G112,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E112=1,"골드",IF(E112=2,"보석",IF(E112=3,"스테미나",IF(E112=4,"호감도",IF(E112=5,"플레이어 경험치",IF(E112=6,"캐릭터 경험치",IF(E112=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E112=8,VLOOKUP(G112,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E112=111,VLOOKUP(G112,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E112=113,VLOOKUP(G112,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H112" s="53" t="str">
+        <f>IF(E112=1000,VLOOKUP(G112,[2]item!$A$5:$C$10000,3,FALSE),IF(E112=112,VLOOKUP(G112,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E112=1,"골드",IF(E112=2,"보석",IF(E112=3,"스테미나",IF(E112=4,"호감도",IF(E112=5,"플레이어 경험치",IF(E112=6,"캐릭터 경험치",IF(E112=7,VLOOKUP(G112,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E112=8,VLOOKUP(G112,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E112=111,VLOOKUP(G112,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E112=113,VLOOKUP(G112,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>데이지 조각</v>
       </c>
       <c r="I112" s="42">
@@ -10419,8 +10357,8 @@
       <c r="G113" s="4">
         <v>100002</v>
       </c>
-      <c r="H113" s="53" t="str" cm="1">
-        <f t="array" ref="H113">IF(E113=1000,VLOOKUP(G113,[2]item!$A$5:$C$10000,3,FALSE),IF(E113=112,VLOOKUP(G113,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E113=1,"골드",IF(E113=2,"보석",IF(E113=3,"스테미나",IF(E113=4,"호감도",IF(E113=5,"플레이어 경험치",IF(E113=6,"캐릭터 경험치",IF(E113=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E113=8,VLOOKUP(G113,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E113=111,VLOOKUP(G113,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E113=113,VLOOKUP(G113,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H113" s="53" t="str">
+        <f>IF(E113=1000,VLOOKUP(G113,[2]item!$A$5:$C$10000,3,FALSE),IF(E113=112,VLOOKUP(G113,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E113=1,"골드",IF(E113=2,"보석",IF(E113=3,"스테미나",IF(E113=4,"호감도",IF(E113=5,"플레이어 경험치",IF(E113=6,"캐릭터 경험치",IF(E113=7,VLOOKUP(G113,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E113=8,VLOOKUP(G113,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E113=111,VLOOKUP(G113,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E113=113,VLOOKUP(G113,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>라일라 조각</v>
       </c>
       <c r="I113" s="4">
@@ -10470,8 +10408,8 @@
       <c r="G114" s="4">
         <v>8000</v>
       </c>
-      <c r="H114" s="53" t="str" cm="1">
-        <f t="array" ref="H114">IF(E114=1000,VLOOKUP(G114,[2]item!$A$5:$C$10000,3,FALSE),IF(E114=112,VLOOKUP(G114,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E114=1,"골드",IF(E114=2,"보석",IF(E114=3,"스테미나",IF(E114=4,"호감도",IF(E114=5,"플레이어 경험치",IF(E114=6,"캐릭터 경험치",IF(E114=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E114=8,VLOOKUP(G114,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E114=111,VLOOKUP(G114,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E114=113,VLOOKUP(G114,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H114" s="53" t="str">
+        <f>IF(E114=1000,VLOOKUP(G114,[2]item!$A$5:$C$10000,3,FALSE),IF(E114=112,VLOOKUP(G114,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E114=1,"골드",IF(E114=2,"보석",IF(E114=3,"스테미나",IF(E114=4,"호감도",IF(E114=5,"플레이어 경험치",IF(E114=6,"캐릭터 경험치",IF(E114=7,VLOOKUP(G114,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E114=8,VLOOKUP(G114,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E114=111,VLOOKUP(G114,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E114=113,VLOOKUP(G114,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>골드</v>
       </c>
       <c r="I114" s="4">
@@ -10521,8 +10459,8 @@
       <c r="G115" s="4">
         <v>16</v>
       </c>
-      <c r="H115" s="53" t="str" cm="1">
-        <f t="array" ref="H115">IF(E115=1000,VLOOKUP(G115,[2]item!$A$5:$C$10000,3,FALSE),IF(E115=112,VLOOKUP(G115,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E115=1,"골드",IF(E115=2,"보석",IF(E115=3,"스테미나",IF(E115=4,"호감도",IF(E115=5,"플레이어 경험치",IF(E115=6,"캐릭터 경험치",IF(E115=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E115=8,VLOOKUP(G115,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E115=111,VLOOKUP(G115,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E115=113,VLOOKUP(G115,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H115" s="53" t="str">
+        <f>IF(E115=1000,VLOOKUP(G115,[2]item!$A$5:$C$10000,3,FALSE),IF(E115=112,VLOOKUP(G115,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E115=1,"골드",IF(E115=2,"보석",IF(E115=3,"스테미나",IF(E115=4,"호감도",IF(E115=5,"플레이어 경험치",IF(E115=6,"캐릭터 경험치",IF(E115=7,VLOOKUP(G115,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E115=8,VLOOKUP(G115,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E115=111,VLOOKUP(G115,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E115=113,VLOOKUP(G115,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>전투 보고서(소)</v>
       </c>
       <c r="I115" s="4">
@@ -10572,8 +10510,8 @@
       <c r="G116" s="44">
         <v>30</v>
       </c>
-      <c r="H116" s="53" t="str" cm="1">
-        <f t="array" ref="H116">IF(E116=1000,VLOOKUP(G116,[2]item!$A$5:$C$10000,3,FALSE),IF(E116=112,VLOOKUP(G116,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E116=1,"골드",IF(E116=2,"보석",IF(E116=3,"스테미나",IF(E116=4,"호감도",IF(E116=5,"플레이어 경험치",IF(E116=6,"캐릭터 경험치",IF(E116=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E116=8,VLOOKUP(G116,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E116=111,VLOOKUP(G116,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E116=113,VLOOKUP(G116,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H116" s="53" t="str">
+        <f>IF(E116=1000,VLOOKUP(G116,[2]item!$A$5:$C$10000,3,FALSE),IF(E116=112,VLOOKUP(G116,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E116=1,"골드",IF(E116=2,"보석",IF(E116=3,"스테미나",IF(E116=4,"호감도",IF(E116=5,"플레이어 경험치",IF(E116=6,"캐릭터 경험치",IF(E116=7,VLOOKUP(G116,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E116=8,VLOOKUP(G116,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E116=111,VLOOKUP(G116,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E116=113,VLOOKUP(G116,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>보석</v>
       </c>
       <c r="I116" s="44">
@@ -10623,8 +10561,8 @@
       <c r="G117" s="42">
         <v>16</v>
       </c>
-      <c r="H117" s="53" t="str" cm="1">
-        <f t="array" ref="H117">IF(E117=1000,VLOOKUP(G117,[2]item!$A$5:$C$10000,3,FALSE),IF(E117=112,VLOOKUP(G117,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E117=1,"골드",IF(E117=2,"보석",IF(E117=3,"스테미나",IF(E117=4,"호감도",IF(E117=5,"플레이어 경험치",IF(E117=6,"캐릭터 경험치",IF(E117=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E117=8,VLOOKUP(G117,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E117=111,VLOOKUP(G117,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E117=113,VLOOKUP(G117,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H117" s="53" t="str">
+        <f>IF(E117=1000,VLOOKUP(G117,[2]item!$A$5:$C$10000,3,FALSE),IF(E117=112,VLOOKUP(G117,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E117=1,"골드",IF(E117=2,"보석",IF(E117=3,"스테미나",IF(E117=4,"호감도",IF(E117=5,"플레이어 경험치",IF(E117=6,"캐릭터 경험치",IF(E117=7,VLOOKUP(G117,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E117=8,VLOOKUP(G117,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E117=111,VLOOKUP(G117,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E117=113,VLOOKUP(G117,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>전투 보고서(소)</v>
       </c>
       <c r="I117" s="42">
@@ -10674,8 +10612,8 @@
       <c r="G118" s="42">
         <v>6</v>
       </c>
-      <c r="H118" s="53" t="str" cm="1">
-        <f t="array" ref="H118">IF(E118=1000,VLOOKUP(G118,[2]item!$A$5:$C$10000,3,FALSE),IF(E118=112,VLOOKUP(G118,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E118=1,"골드",IF(E118=2,"보석",IF(E118=3,"스테미나",IF(E118=4,"호감도",IF(E118=5,"플레이어 경험치",IF(E118=6,"캐릭터 경험치",IF(E118=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E118=8,VLOOKUP(G118,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E118=111,VLOOKUP(G118,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E118=113,VLOOKUP(G118,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H118" s="53" t="str">
+        <f>IF(E118=1000,VLOOKUP(G118,[2]item!$A$5:$C$10000,3,FALSE),IF(E118=112,VLOOKUP(G118,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E118=1,"골드",IF(E118=2,"보석",IF(E118=3,"스테미나",IF(E118=4,"호감도",IF(E118=5,"플레이어 경험치",IF(E118=6,"캐릭터 경험치",IF(E118=7,VLOOKUP(G118,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E118=8,VLOOKUP(G118,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E118=111,VLOOKUP(G118,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E118=113,VLOOKUP(G118,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>경험치 물약_C(소)</v>
       </c>
       <c r="I118" s="42">
@@ -10725,8 +10663,8 @@
       <c r="G119" s="42">
         <v>6</v>
       </c>
-      <c r="H119" s="53" t="str" cm="1">
-        <f t="array" ref="H119">IF(E119=1000,VLOOKUP(G119,[2]item!$A$5:$C$10000,3,FALSE),IF(E119=112,VLOOKUP(G119,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E119=1,"골드",IF(E119=2,"보석",IF(E119=3,"스테미나",IF(E119=4,"호감도",IF(E119=5,"플레이어 경험치",IF(E119=6,"캐릭터 경험치",IF(E119=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E119=8,VLOOKUP(G119,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E119=111,VLOOKUP(G119,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E119=113,VLOOKUP(G119,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H119" s="53" t="str">
+        <f>IF(E119=1000,VLOOKUP(G119,[2]item!$A$5:$C$10000,3,FALSE),IF(E119=112,VLOOKUP(G119,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E119=1,"골드",IF(E119=2,"보석",IF(E119=3,"스테미나",IF(E119=4,"호감도",IF(E119=5,"플레이어 경험치",IF(E119=6,"캐릭터 경험치",IF(E119=7,VLOOKUP(G119,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E119=8,VLOOKUP(G119,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E119=111,VLOOKUP(G119,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E119=113,VLOOKUP(G119,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>플레이어 경험치</v>
       </c>
       <c r="I119" s="42">
@@ -10776,8 +10714,8 @@
       <c r="G120" s="42">
         <v>6</v>
       </c>
-      <c r="H120" s="53" t="str" cm="1">
-        <f t="array" ref="H120">IF(E120=1000,VLOOKUP(G120,[2]item!$A$5:$C$10000,3,FALSE),IF(E120=112,VLOOKUP(G120,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E120=1,"골드",IF(E120=2,"보석",IF(E120=3,"스테미나",IF(E120=4,"호감도",IF(E120=5,"플레이어 경험치",IF(E120=6,"캐릭터 경험치",IF(E120=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E120=8,VLOOKUP(G120,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E120=111,VLOOKUP(G120,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E120=113,VLOOKUP(G120,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H120" s="53" t="str">
+        <f>IF(E120=1000,VLOOKUP(G120,[2]item!$A$5:$C$10000,3,FALSE),IF(E120=112,VLOOKUP(G120,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E120=1,"골드",IF(E120=2,"보석",IF(E120=3,"스테미나",IF(E120=4,"호감도",IF(E120=5,"플레이어 경험치",IF(E120=6,"캐릭터 경험치",IF(E120=7,VLOOKUP(G120,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E120=8,VLOOKUP(G120,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E120=111,VLOOKUP(G120,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E120=113,VLOOKUP(G120,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>캐릭터 경험치</v>
       </c>
       <c r="I120" s="42">
@@ -10827,8 +10765,8 @@
       <c r="G121" s="42">
         <v>6</v>
       </c>
-      <c r="H121" s="53" t="str" cm="1">
-        <f t="array" ref="H121">IF(E121=1000,VLOOKUP(G121,[2]item!$A$5:$C$10000,3,FALSE),IF(E121=112,VLOOKUP(G121,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E121=1,"골드",IF(E121=2,"보석",IF(E121=3,"스테미나",IF(E121=4,"호감도",IF(E121=5,"플레이어 경험치",IF(E121=6,"캐릭터 경험치",IF(E121=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E121=8,VLOOKUP(G121,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E121=111,VLOOKUP(G121,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E121=113,VLOOKUP(G121,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H121" s="53" t="str">
+        <f>IF(E121=1000,VLOOKUP(G121,[2]item!$A$5:$C$10000,3,FALSE),IF(E121=112,VLOOKUP(G121,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E121=1,"골드",IF(E121=2,"보석",IF(E121=3,"스테미나",IF(E121=4,"호감도",IF(E121=5,"플레이어 경험치",IF(E121=6,"캐릭터 경험치",IF(E121=7,VLOOKUP(G121,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E121=8,VLOOKUP(G121,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E121=111,VLOOKUP(G121,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E121=113,VLOOKUP(G121,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>골드</v>
       </c>
       <c r="I121" s="42">
@@ -10878,8 +10816,8 @@
       <c r="G122" s="42">
         <v>6</v>
       </c>
-      <c r="H122" s="53" t="str" cm="1">
-        <f t="array" ref="H122">IF(E122=1000,VLOOKUP(G122,[2]item!$A$5:$C$10000,3,FALSE),IF(E122=112,VLOOKUP(G122,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E122=1,"골드",IF(E122=2,"보석",IF(E122=3,"스테미나",IF(E122=4,"호감도",IF(E122=5,"플레이어 경험치",IF(E122=6,"캐릭터 경험치",IF(E122=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E122=8,VLOOKUP(G122,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E122=111,VLOOKUP(G122,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E122=113,VLOOKUP(G122,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H122" s="53" t="str">
+        <f>IF(E122=1000,VLOOKUP(G122,[2]item!$A$5:$C$10000,3,FALSE),IF(E122=112,VLOOKUP(G122,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E122=1,"골드",IF(E122=2,"보석",IF(E122=3,"스테미나",IF(E122=4,"호감도",IF(E122=5,"플레이어 경험치",IF(E122=6,"캐릭터 경험치",IF(E122=7,VLOOKUP(G122,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E122=8,VLOOKUP(G122,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E122=111,VLOOKUP(G122,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E122=113,VLOOKUP(G122,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>호감도</v>
       </c>
       <c r="I122" s="42">
@@ -10929,8 +10867,8 @@
       <c r="G123" s="42">
         <v>100001</v>
       </c>
-      <c r="H123" s="53" t="str" cm="1">
-        <f t="array" ref="H123">IF(E123=1000,VLOOKUP(G123,[2]item!$A$5:$C$10000,3,FALSE),IF(E123=112,VLOOKUP(G123,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E123=1,"골드",IF(E123=2,"보석",IF(E123=3,"스테미나",IF(E123=4,"호감도",IF(E123=5,"플레이어 경험치",IF(E123=6,"캐릭터 경험치",IF(E123=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E123=8,VLOOKUP(G123,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E123=111,VLOOKUP(G123,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E123=113,VLOOKUP(G123,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H123" s="53" t="str">
+        <f>IF(E123=1000,VLOOKUP(G123,[2]item!$A$5:$C$10000,3,FALSE),IF(E123=112,VLOOKUP(G123,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E123=1,"골드",IF(E123=2,"보석",IF(E123=3,"스테미나",IF(E123=4,"호감도",IF(E123=5,"플레이어 경험치",IF(E123=6,"캐릭터 경험치",IF(E123=7,VLOOKUP(G123,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E123=8,VLOOKUP(G123,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E123=111,VLOOKUP(G123,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E123=113,VLOOKUP(G123,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>루시아 조각</v>
       </c>
       <c r="I123" s="42">
@@ -10980,8 +10918,8 @@
       <c r="G124" s="42">
         <v>100002</v>
       </c>
-      <c r="H124" s="53" t="str" cm="1">
-        <f t="array" ref="H124">IF(E124=1000,VLOOKUP(G124,[2]item!$A$5:$C$10000,3,FALSE),IF(E124=112,VLOOKUP(G124,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E124=1,"골드",IF(E124=2,"보석",IF(E124=3,"스테미나",IF(E124=4,"호감도",IF(E124=5,"플레이어 경험치",IF(E124=6,"캐릭터 경험치",IF(E124=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E124=8,VLOOKUP(G124,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E124=111,VLOOKUP(G124,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E124=113,VLOOKUP(G124,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H124" s="53" t="str">
+        <f>IF(E124=1000,VLOOKUP(G124,[2]item!$A$5:$C$10000,3,FALSE),IF(E124=112,VLOOKUP(G124,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E124=1,"골드",IF(E124=2,"보석",IF(E124=3,"스테미나",IF(E124=4,"호감도",IF(E124=5,"플레이어 경험치",IF(E124=6,"캐릭터 경험치",IF(E124=7,VLOOKUP(G124,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E124=8,VLOOKUP(G124,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E124=111,VLOOKUP(G124,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E124=113,VLOOKUP(G124,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>라일라 조각</v>
       </c>
       <c r="I124" s="42">
@@ -11031,8 +10969,8 @@
       <c r="G125" s="42">
         <v>100003</v>
       </c>
-      <c r="H125" s="53" t="str" cm="1">
-        <f t="array" ref="H125">IF(E125=1000,VLOOKUP(G125,[2]item!$A$5:$C$10000,3,FALSE),IF(E125=112,VLOOKUP(G125,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E125=1,"골드",IF(E125=2,"보석",IF(E125=3,"스테미나",IF(E125=4,"호감도",IF(E125=5,"플레이어 경험치",IF(E125=6,"캐릭터 경험치",IF(E125=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E125=8,VLOOKUP(G125,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E125=111,VLOOKUP(G125,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E125=113,VLOOKUP(G125,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H125" s="53" t="str">
+        <f>IF(E125=1000,VLOOKUP(G125,[2]item!$A$5:$C$10000,3,FALSE),IF(E125=112,VLOOKUP(G125,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E125=1,"골드",IF(E125=2,"보석",IF(E125=3,"스테미나",IF(E125=4,"호감도",IF(E125=5,"플레이어 경험치",IF(E125=6,"캐릭터 경험치",IF(E125=7,VLOOKUP(G125,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E125=8,VLOOKUP(G125,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E125=111,VLOOKUP(G125,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E125=113,VLOOKUP(G125,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>바이올렛 조각</v>
       </c>
       <c r="I125" s="42">
@@ -11082,8 +11020,8 @@
       <c r="G126" s="42">
         <v>100004</v>
       </c>
-      <c r="H126" s="53" t="str" cm="1">
-        <f t="array" ref="H126">IF(E126=1000,VLOOKUP(G126,[2]item!$A$5:$C$10000,3,FALSE),IF(E126=112,VLOOKUP(G126,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E126=1,"골드",IF(E126=2,"보석",IF(E126=3,"스테미나",IF(E126=4,"호감도",IF(E126=5,"플레이어 경험치",IF(E126=6,"캐릭터 경험치",IF(E126=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E126=8,VLOOKUP(G126,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E126=111,VLOOKUP(G126,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E126=113,VLOOKUP(G126,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H126" s="53" t="str">
+        <f>IF(E126=1000,VLOOKUP(G126,[2]item!$A$5:$C$10000,3,FALSE),IF(E126=112,VLOOKUP(G126,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E126=1,"골드",IF(E126=2,"보석",IF(E126=3,"스테미나",IF(E126=4,"호감도",IF(E126=5,"플레이어 경험치",IF(E126=6,"캐릭터 경험치",IF(E126=7,VLOOKUP(G126,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E126=8,VLOOKUP(G126,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E126=111,VLOOKUP(G126,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E126=113,VLOOKUP(G126,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>데이지 조각</v>
       </c>
       <c r="I126" s="42">
@@ -11133,8 +11071,8 @@
       <c r="G127" s="4">
         <v>100003</v>
       </c>
-      <c r="H127" s="53" t="str" cm="1">
-        <f t="array" ref="H127">IF(E127=1000,VLOOKUP(G127,[2]item!$A$5:$C$10000,3,FALSE),IF(E127=112,VLOOKUP(G127,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E127=1,"골드",IF(E127=2,"보석",IF(E127=3,"스테미나",IF(E127=4,"호감도",IF(E127=5,"플레이어 경험치",IF(E127=6,"캐릭터 경험치",IF(E127=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E127=8,VLOOKUP(G127,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E127=111,VLOOKUP(G127,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E127=113,VLOOKUP(G127,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H127" s="53" t="str">
+        <f>IF(E127=1000,VLOOKUP(G127,[2]item!$A$5:$C$10000,3,FALSE),IF(E127=112,VLOOKUP(G127,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E127=1,"골드",IF(E127=2,"보석",IF(E127=3,"스테미나",IF(E127=4,"호감도",IF(E127=5,"플레이어 경험치",IF(E127=6,"캐릭터 경험치",IF(E127=7,VLOOKUP(G127,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E127=8,VLOOKUP(G127,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E127=111,VLOOKUP(G127,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E127=113,VLOOKUP(G127,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>바이올렛 조각</v>
       </c>
       <c r="I127" s="4">
@@ -11184,8 +11122,8 @@
       <c r="G128" s="4">
         <v>8000</v>
       </c>
-      <c r="H128" s="53" t="str" cm="1">
-        <f t="array" ref="H128">IF(E128=1000,VLOOKUP(G128,[2]item!$A$5:$C$10000,3,FALSE),IF(E128=112,VLOOKUP(G128,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E128=1,"골드",IF(E128=2,"보석",IF(E128=3,"스테미나",IF(E128=4,"호감도",IF(E128=5,"플레이어 경험치",IF(E128=6,"캐릭터 경험치",IF(E128=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E128=8,VLOOKUP(G128,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E128=111,VLOOKUP(G128,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E128=113,VLOOKUP(G128,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H128" s="53" t="str">
+        <f>IF(E128=1000,VLOOKUP(G128,[2]item!$A$5:$C$10000,3,FALSE),IF(E128=112,VLOOKUP(G128,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E128=1,"골드",IF(E128=2,"보석",IF(E128=3,"스테미나",IF(E128=4,"호감도",IF(E128=5,"플레이어 경험치",IF(E128=6,"캐릭터 경험치",IF(E128=7,VLOOKUP(G128,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E128=8,VLOOKUP(G128,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E128=111,VLOOKUP(G128,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E128=113,VLOOKUP(G128,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>골드</v>
       </c>
       <c r="I128" s="4">
@@ -11235,8 +11173,8 @@
       <c r="G129" s="4">
         <v>16</v>
       </c>
-      <c r="H129" s="53" t="str" cm="1">
-        <f t="array" ref="H129">IF(E129=1000,VLOOKUP(G129,[2]item!$A$5:$C$10000,3,FALSE),IF(E129=112,VLOOKUP(G129,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E129=1,"골드",IF(E129=2,"보석",IF(E129=3,"스테미나",IF(E129=4,"호감도",IF(E129=5,"플레이어 경험치",IF(E129=6,"캐릭터 경험치",IF(E129=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E129=8,VLOOKUP(G129,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E129=111,VLOOKUP(G129,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E129=113,VLOOKUP(G129,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H129" s="53" t="str">
+        <f>IF(E129=1000,VLOOKUP(G129,[2]item!$A$5:$C$10000,3,FALSE),IF(E129=112,VLOOKUP(G129,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E129=1,"골드",IF(E129=2,"보석",IF(E129=3,"스테미나",IF(E129=4,"호감도",IF(E129=5,"플레이어 경험치",IF(E129=6,"캐릭터 경험치",IF(E129=7,VLOOKUP(G129,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E129=8,VLOOKUP(G129,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E129=111,VLOOKUP(G129,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E129=113,VLOOKUP(G129,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>전투 보고서(소)</v>
       </c>
       <c r="I129" s="4">
@@ -11286,8 +11224,8 @@
       <c r="G130" s="44">
         <v>30</v>
       </c>
-      <c r="H130" s="53" t="str" cm="1">
-        <f t="array" ref="H130">IF(E130=1000,VLOOKUP(G130,[2]item!$A$5:$C$10000,3,FALSE),IF(E130=112,VLOOKUP(G130,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E130=1,"골드",IF(E130=2,"보석",IF(E130=3,"스테미나",IF(E130=4,"호감도",IF(E130=5,"플레이어 경험치",IF(E130=6,"캐릭터 경험치",IF(E130=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E130=8,VLOOKUP(G130,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E130=111,VLOOKUP(G130,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E130=113,VLOOKUP(G130,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H130" s="53" t="str">
+        <f>IF(E130=1000,VLOOKUP(G130,[2]item!$A$5:$C$10000,3,FALSE),IF(E130=112,VLOOKUP(G130,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E130=1,"골드",IF(E130=2,"보석",IF(E130=3,"스테미나",IF(E130=4,"호감도",IF(E130=5,"플레이어 경험치",IF(E130=6,"캐릭터 경험치",IF(E130=7,VLOOKUP(G130,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E130=8,VLOOKUP(G130,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E130=111,VLOOKUP(G130,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E130=113,VLOOKUP(G130,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>보석</v>
       </c>
       <c r="I130" s="44">
@@ -11337,8 +11275,8 @@
       <c r="G131" s="42">
         <v>16</v>
       </c>
-      <c r="H131" s="53" t="str" cm="1">
-        <f t="array" ref="H131">IF(E131=1000,VLOOKUP(G131,[2]item!$A$5:$C$10000,3,FALSE),IF(E131=112,VLOOKUP(G131,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E131=1,"골드",IF(E131=2,"보석",IF(E131=3,"스테미나",IF(E131=4,"호감도",IF(E131=5,"플레이어 경험치",IF(E131=6,"캐릭터 경험치",IF(E131=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E131=8,VLOOKUP(G131,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E131=111,VLOOKUP(G131,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E131=113,VLOOKUP(G131,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H131" s="53" t="str">
+        <f>IF(E131=1000,VLOOKUP(G131,[2]item!$A$5:$C$10000,3,FALSE),IF(E131=112,VLOOKUP(G131,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E131=1,"골드",IF(E131=2,"보석",IF(E131=3,"스테미나",IF(E131=4,"호감도",IF(E131=5,"플레이어 경험치",IF(E131=6,"캐릭터 경험치",IF(E131=7,VLOOKUP(G131,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E131=8,VLOOKUP(G131,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E131=111,VLOOKUP(G131,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E131=113,VLOOKUP(G131,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>전투 보고서(소)</v>
       </c>
       <c r="I131" s="42">
@@ -11388,8 +11326,8 @@
       <c r="G132" s="42">
         <v>6</v>
       </c>
-      <c r="H132" s="53" t="str" cm="1">
-        <f t="array" ref="H132">IF(E132=1000,VLOOKUP(G132,[2]item!$A$5:$C$10000,3,FALSE),IF(E132=112,VLOOKUP(G132,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E132=1,"골드",IF(E132=2,"보석",IF(E132=3,"스테미나",IF(E132=4,"호감도",IF(E132=5,"플레이어 경험치",IF(E132=6,"캐릭터 경험치",IF(E132=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E132=8,VLOOKUP(G132,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E132=111,VLOOKUP(G132,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E132=113,VLOOKUP(G132,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H132" s="53" t="str">
+        <f>IF(E132=1000,VLOOKUP(G132,[2]item!$A$5:$C$10000,3,FALSE),IF(E132=112,VLOOKUP(G132,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E132=1,"골드",IF(E132=2,"보석",IF(E132=3,"스테미나",IF(E132=4,"호감도",IF(E132=5,"플레이어 경험치",IF(E132=6,"캐릭터 경험치",IF(E132=7,VLOOKUP(G132,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E132=8,VLOOKUP(G132,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E132=111,VLOOKUP(G132,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E132=113,VLOOKUP(G132,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>경험치 물약_C(소)</v>
       </c>
       <c r="I132" s="42">
@@ -11439,8 +11377,8 @@
       <c r="G133" s="42">
         <v>6</v>
       </c>
-      <c r="H133" s="53" t="str" cm="1">
-        <f t="array" ref="H133">IF(E133=1000,VLOOKUP(G133,[2]item!$A$5:$C$10000,3,FALSE),IF(E133=112,VLOOKUP(G133,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E133=1,"골드",IF(E133=2,"보석",IF(E133=3,"스테미나",IF(E133=4,"호감도",IF(E133=5,"플레이어 경험치",IF(E133=6,"캐릭터 경험치",IF(E133=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E133=8,VLOOKUP(G133,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E133=111,VLOOKUP(G133,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E133=113,VLOOKUP(G133,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H133" s="53" t="str">
+        <f>IF(E133=1000,VLOOKUP(G133,[2]item!$A$5:$C$10000,3,FALSE),IF(E133=112,VLOOKUP(G133,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E133=1,"골드",IF(E133=2,"보석",IF(E133=3,"스테미나",IF(E133=4,"호감도",IF(E133=5,"플레이어 경험치",IF(E133=6,"캐릭터 경험치",IF(E133=7,VLOOKUP(G133,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E133=8,VLOOKUP(G133,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E133=111,VLOOKUP(G133,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E133=113,VLOOKUP(G133,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>플레이어 경험치</v>
       </c>
       <c r="I133" s="42">
@@ -11490,8 +11428,8 @@
       <c r="G134" s="42">
         <v>6</v>
       </c>
-      <c r="H134" s="53" t="str" cm="1">
-        <f t="array" ref="H134">IF(E134=1000,VLOOKUP(G134,[2]item!$A$5:$C$10000,3,FALSE),IF(E134=112,VLOOKUP(G134,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E134=1,"골드",IF(E134=2,"보석",IF(E134=3,"스테미나",IF(E134=4,"호감도",IF(E134=5,"플레이어 경험치",IF(E134=6,"캐릭터 경험치",IF(E134=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E134=8,VLOOKUP(G134,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E134=111,VLOOKUP(G134,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E134=113,VLOOKUP(G134,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H134" s="53" t="str">
+        <f>IF(E134=1000,VLOOKUP(G134,[2]item!$A$5:$C$10000,3,FALSE),IF(E134=112,VLOOKUP(G134,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E134=1,"골드",IF(E134=2,"보석",IF(E134=3,"스테미나",IF(E134=4,"호감도",IF(E134=5,"플레이어 경험치",IF(E134=6,"캐릭터 경험치",IF(E134=7,VLOOKUP(G134,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E134=8,VLOOKUP(G134,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E134=111,VLOOKUP(G134,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E134=113,VLOOKUP(G134,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>캐릭터 경험치</v>
       </c>
       <c r="I134" s="42">
@@ -11541,8 +11479,8 @@
       <c r="G135" s="42">
         <v>6</v>
       </c>
-      <c r="H135" s="53" t="str" cm="1">
-        <f t="array" ref="H135">IF(E135=1000,VLOOKUP(G135,[2]item!$A$5:$C$10000,3,FALSE),IF(E135=112,VLOOKUP(G135,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E135=1,"골드",IF(E135=2,"보석",IF(E135=3,"스테미나",IF(E135=4,"호감도",IF(E135=5,"플레이어 경험치",IF(E135=6,"캐릭터 경험치",IF(E135=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E135=8,VLOOKUP(G135,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E135=111,VLOOKUP(G135,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E135=113,VLOOKUP(G135,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H135" s="53" t="str">
+        <f>IF(E135=1000,VLOOKUP(G135,[2]item!$A$5:$C$10000,3,FALSE),IF(E135=112,VLOOKUP(G135,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E135=1,"골드",IF(E135=2,"보석",IF(E135=3,"스테미나",IF(E135=4,"호감도",IF(E135=5,"플레이어 경험치",IF(E135=6,"캐릭터 경험치",IF(E135=7,VLOOKUP(G135,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E135=8,VLOOKUP(G135,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E135=111,VLOOKUP(G135,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E135=113,VLOOKUP(G135,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>골드</v>
       </c>
       <c r="I135" s="42">
@@ -11592,8 +11530,8 @@
       <c r="G136" s="42">
         <v>6</v>
       </c>
-      <c r="H136" s="53" t="str" cm="1">
-        <f t="array" ref="H136">IF(E136=1000,VLOOKUP(G136,[2]item!$A$5:$C$10000,3,FALSE),IF(E136=112,VLOOKUP(G136,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E136=1,"골드",IF(E136=2,"보석",IF(E136=3,"스테미나",IF(E136=4,"호감도",IF(E136=5,"플레이어 경험치",IF(E136=6,"캐릭터 경험치",IF(E136=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E136=8,VLOOKUP(G136,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E136=111,VLOOKUP(G136,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E136=113,VLOOKUP(G136,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H136" s="53" t="str">
+        <f>IF(E136=1000,VLOOKUP(G136,[2]item!$A$5:$C$10000,3,FALSE),IF(E136=112,VLOOKUP(G136,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E136=1,"골드",IF(E136=2,"보석",IF(E136=3,"스테미나",IF(E136=4,"호감도",IF(E136=5,"플레이어 경험치",IF(E136=6,"캐릭터 경험치",IF(E136=7,VLOOKUP(G136,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E136=8,VLOOKUP(G136,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E136=111,VLOOKUP(G136,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E136=113,VLOOKUP(G136,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>호감도</v>
       </c>
       <c r="I136" s="42">
@@ -11643,8 +11581,8 @@
       <c r="G137" s="42">
         <v>100001</v>
       </c>
-      <c r="H137" s="53" t="str" cm="1">
-        <f t="array" ref="H137">IF(E137=1000,VLOOKUP(G137,[2]item!$A$5:$C$10000,3,FALSE),IF(E137=112,VLOOKUP(G137,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E137=1,"골드",IF(E137=2,"보석",IF(E137=3,"스테미나",IF(E137=4,"호감도",IF(E137=5,"플레이어 경험치",IF(E137=6,"캐릭터 경험치",IF(E137=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E137=8,VLOOKUP(G137,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E137=111,VLOOKUP(G137,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E137=113,VLOOKUP(G137,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H137" s="53" t="str">
+        <f>IF(E137=1000,VLOOKUP(G137,[2]item!$A$5:$C$10000,3,FALSE),IF(E137=112,VLOOKUP(G137,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E137=1,"골드",IF(E137=2,"보석",IF(E137=3,"스테미나",IF(E137=4,"호감도",IF(E137=5,"플레이어 경험치",IF(E137=6,"캐릭터 경험치",IF(E137=7,VLOOKUP(G137,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E137=8,VLOOKUP(G137,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E137=111,VLOOKUP(G137,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E137=113,VLOOKUP(G137,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>루시아 조각</v>
       </c>
       <c r="I137" s="42">
@@ -11694,8 +11632,8 @@
       <c r="G138" s="42">
         <v>100002</v>
       </c>
-      <c r="H138" s="53" t="str" cm="1">
-        <f t="array" ref="H138">IF(E138=1000,VLOOKUP(G138,[2]item!$A$5:$C$10000,3,FALSE),IF(E138=112,VLOOKUP(G138,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E138=1,"골드",IF(E138=2,"보석",IF(E138=3,"스테미나",IF(E138=4,"호감도",IF(E138=5,"플레이어 경험치",IF(E138=6,"캐릭터 경험치",IF(E138=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E138=8,VLOOKUP(G138,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E138=111,VLOOKUP(G138,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E138=113,VLOOKUP(G138,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H138" s="53" t="str">
+        <f>IF(E138=1000,VLOOKUP(G138,[2]item!$A$5:$C$10000,3,FALSE),IF(E138=112,VLOOKUP(G138,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E138=1,"골드",IF(E138=2,"보석",IF(E138=3,"스테미나",IF(E138=4,"호감도",IF(E138=5,"플레이어 경험치",IF(E138=6,"캐릭터 경험치",IF(E138=7,VLOOKUP(G138,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E138=8,VLOOKUP(G138,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E138=111,VLOOKUP(G138,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E138=113,VLOOKUP(G138,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>라일라 조각</v>
       </c>
       <c r="I138" s="42">
@@ -11745,8 +11683,8 @@
       <c r="G139" s="42">
         <v>100003</v>
       </c>
-      <c r="H139" s="53" t="str" cm="1">
-        <f t="array" ref="H139">IF(E139=1000,VLOOKUP(G139,[2]item!$A$5:$C$10000,3,FALSE),IF(E139=112,VLOOKUP(G139,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E139=1,"골드",IF(E139=2,"보석",IF(E139=3,"스테미나",IF(E139=4,"호감도",IF(E139=5,"플레이어 경험치",IF(E139=6,"캐릭터 경험치",IF(E139=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E139=8,VLOOKUP(G139,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E139=111,VLOOKUP(G139,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E139=113,VLOOKUP(G139,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H139" s="53" t="str">
+        <f>IF(E139=1000,VLOOKUP(G139,[2]item!$A$5:$C$10000,3,FALSE),IF(E139=112,VLOOKUP(G139,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E139=1,"골드",IF(E139=2,"보석",IF(E139=3,"스테미나",IF(E139=4,"호감도",IF(E139=5,"플레이어 경험치",IF(E139=6,"캐릭터 경험치",IF(E139=7,VLOOKUP(G139,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E139=8,VLOOKUP(G139,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E139=111,VLOOKUP(G139,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E139=113,VLOOKUP(G139,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>바이올렛 조각</v>
       </c>
       <c r="I139" s="42">
@@ -11796,8 +11734,8 @@
       <c r="G140" s="42">
         <v>100004</v>
       </c>
-      <c r="H140" s="53" t="str" cm="1">
-        <f t="array" ref="H140">IF(E140=1000,VLOOKUP(G140,[2]item!$A$5:$C$10000,3,FALSE),IF(E140=112,VLOOKUP(G140,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E140=1,"골드",IF(E140=2,"보석",IF(E140=3,"스테미나",IF(E140=4,"호감도",IF(E140=5,"플레이어 경험치",IF(E140=6,"캐릭터 경험치",IF(E140=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E140=8,VLOOKUP(G140,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E140=111,VLOOKUP(G140,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E140=113,VLOOKUP(G140,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H140" s="53" t="str">
+        <f>IF(E140=1000,VLOOKUP(G140,[2]item!$A$5:$C$10000,3,FALSE),IF(E140=112,VLOOKUP(G140,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E140=1,"골드",IF(E140=2,"보석",IF(E140=3,"스테미나",IF(E140=4,"호감도",IF(E140=5,"플레이어 경험치",IF(E140=6,"캐릭터 경험치",IF(E140=7,VLOOKUP(G140,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E140=8,VLOOKUP(G140,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E140=111,VLOOKUP(G140,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E140=113,VLOOKUP(G140,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>데이지 조각</v>
       </c>
       <c r="I140" s="42">
@@ -11847,8 +11785,8 @@
       <c r="G141" s="4">
         <v>100004</v>
       </c>
-      <c r="H141" s="53" t="str" cm="1">
-        <f t="array" ref="H141">IF(E141=1000,VLOOKUP(G141,[2]item!$A$5:$C$10000,3,FALSE),IF(E141=112,VLOOKUP(G141,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E141=1,"골드",IF(E141=2,"보석",IF(E141=3,"스테미나",IF(E141=4,"호감도",IF(E141=5,"플레이어 경험치",IF(E141=6,"캐릭터 경험치",IF(E141=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E141=8,VLOOKUP(G141,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E141=111,VLOOKUP(G141,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E141=113,VLOOKUP(G141,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H141" s="53" t="str">
+        <f>IF(E141=1000,VLOOKUP(G141,[2]item!$A$5:$C$10000,3,FALSE),IF(E141=112,VLOOKUP(G141,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E141=1,"골드",IF(E141=2,"보석",IF(E141=3,"스테미나",IF(E141=4,"호감도",IF(E141=5,"플레이어 경험치",IF(E141=6,"캐릭터 경험치",IF(E141=7,VLOOKUP(G141,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E141=8,VLOOKUP(G141,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E141=111,VLOOKUP(G141,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E141=113,VLOOKUP(G141,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>데이지 조각</v>
       </c>
       <c r="I141" s="4">
@@ -11898,8 +11836,8 @@
       <c r="G142" s="4">
         <v>8000</v>
       </c>
-      <c r="H142" s="53" t="str" cm="1">
-        <f t="array" ref="H142">IF(E142=1000,VLOOKUP(G142,[2]item!$A$5:$C$10000,3,FALSE),IF(E142=112,VLOOKUP(G142,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E142=1,"골드",IF(E142=2,"보석",IF(E142=3,"스테미나",IF(E142=4,"호감도",IF(E142=5,"플레이어 경험치",IF(E142=6,"캐릭터 경험치",IF(E142=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E142=8,VLOOKUP(G142,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E142=111,VLOOKUP(G142,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E142=113,VLOOKUP(G142,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H142" s="53" t="str">
+        <f>IF(E142=1000,VLOOKUP(G142,[2]item!$A$5:$C$10000,3,FALSE),IF(E142=112,VLOOKUP(G142,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E142=1,"골드",IF(E142=2,"보석",IF(E142=3,"스테미나",IF(E142=4,"호감도",IF(E142=5,"플레이어 경험치",IF(E142=6,"캐릭터 경험치",IF(E142=7,VLOOKUP(G142,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E142=8,VLOOKUP(G142,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E142=111,VLOOKUP(G142,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E142=113,VLOOKUP(G142,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>골드</v>
       </c>
       <c r="I142" s="4">
@@ -11949,8 +11887,8 @@
       <c r="G143" s="4">
         <v>16</v>
       </c>
-      <c r="H143" s="53" t="str" cm="1">
-        <f t="array" ref="H143">IF(E143=1000,VLOOKUP(G143,[2]item!$A$5:$C$10000,3,FALSE),IF(E143=112,VLOOKUP(G143,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E143=1,"골드",IF(E143=2,"보석",IF(E143=3,"스테미나",IF(E143=4,"호감도",IF(E143=5,"플레이어 경험치",IF(E143=6,"캐릭터 경험치",IF(E143=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E143=8,VLOOKUP(G143,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E143=111,VLOOKUP(G143,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E143=113,VLOOKUP(G143,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H143" s="53" t="str">
+        <f>IF(E143=1000,VLOOKUP(G143,[2]item!$A$5:$C$10000,3,FALSE),IF(E143=112,VLOOKUP(G143,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E143=1,"골드",IF(E143=2,"보석",IF(E143=3,"스테미나",IF(E143=4,"호감도",IF(E143=5,"플레이어 경험치",IF(E143=6,"캐릭터 경험치",IF(E143=7,VLOOKUP(G143,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E143=8,VLOOKUP(G143,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E143=111,VLOOKUP(G143,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E143=113,VLOOKUP(G143,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>전투 보고서(소)</v>
       </c>
       <c r="I143" s="4">
@@ -12000,8 +11938,8 @@
       <c r="G144" s="44">
         <v>30</v>
       </c>
-      <c r="H144" s="53" t="str" cm="1">
-        <f t="array" ref="H144">IF(E144=1000,VLOOKUP(G144,[2]item!$A$5:$C$10000,3,FALSE),IF(E144=112,VLOOKUP(G144,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E144=1,"골드",IF(E144=2,"보석",IF(E144=3,"스테미나",IF(E144=4,"호감도",IF(E144=5,"플레이어 경험치",IF(E144=6,"캐릭터 경험치",IF(E144=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E144=8,VLOOKUP(G144,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E144=111,VLOOKUP(G144,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E144=113,VLOOKUP(G144,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H144" s="53" t="str">
+        <f>IF(E144=1000,VLOOKUP(G144,[2]item!$A$5:$C$10000,3,FALSE),IF(E144=112,VLOOKUP(G144,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E144=1,"골드",IF(E144=2,"보석",IF(E144=3,"스테미나",IF(E144=4,"호감도",IF(E144=5,"플레이어 경험치",IF(E144=6,"캐릭터 경험치",IF(E144=7,VLOOKUP(G144,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E144=8,VLOOKUP(G144,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E144=111,VLOOKUP(G144,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E144=113,VLOOKUP(G144,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>보석</v>
       </c>
       <c r="I144" s="44">
@@ -12051,8 +11989,8 @@
       <c r="G145" s="42">
         <v>16</v>
       </c>
-      <c r="H145" s="53" t="str" cm="1">
-        <f t="array" ref="H145">IF(E145=1000,VLOOKUP(G145,[2]item!$A$5:$C$10000,3,FALSE),IF(E145=112,VLOOKUP(G145,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E145=1,"골드",IF(E145=2,"보석",IF(E145=3,"스테미나",IF(E145=4,"호감도",IF(E145=5,"플레이어 경험치",IF(E145=6,"캐릭터 경험치",IF(E145=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E145=8,VLOOKUP(G145,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E145=111,VLOOKUP(G145,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E145=113,VLOOKUP(G145,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H145" s="53" t="str">
+        <f>IF(E145=1000,VLOOKUP(G145,[2]item!$A$5:$C$10000,3,FALSE),IF(E145=112,VLOOKUP(G145,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E145=1,"골드",IF(E145=2,"보석",IF(E145=3,"스테미나",IF(E145=4,"호감도",IF(E145=5,"플레이어 경험치",IF(E145=6,"캐릭터 경험치",IF(E145=7,VLOOKUP(G145,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E145=8,VLOOKUP(G145,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E145=111,VLOOKUP(G145,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E145=113,VLOOKUP(G145,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>전투 보고서(소)</v>
       </c>
       <c r="I145" s="42">
@@ -12102,8 +12040,8 @@
       <c r="G146" s="42">
         <v>6</v>
       </c>
-      <c r="H146" s="53" t="str" cm="1">
-        <f t="array" ref="H146">IF(E146=1000,VLOOKUP(G146,[2]item!$A$5:$C$10000,3,FALSE),IF(E146=112,VLOOKUP(G146,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E146=1,"골드",IF(E146=2,"보석",IF(E146=3,"스테미나",IF(E146=4,"호감도",IF(E146=5,"플레이어 경험치",IF(E146=6,"캐릭터 경험치",IF(E146=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E146=8,VLOOKUP(G146,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E146=111,VLOOKUP(G146,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E146=113,VLOOKUP(G146,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H146" s="53" t="str">
+        <f>IF(E146=1000,VLOOKUP(G146,[2]item!$A$5:$C$10000,3,FALSE),IF(E146=112,VLOOKUP(G146,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E146=1,"골드",IF(E146=2,"보석",IF(E146=3,"스테미나",IF(E146=4,"호감도",IF(E146=5,"플레이어 경험치",IF(E146=6,"캐릭터 경험치",IF(E146=7,VLOOKUP(G146,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E146=8,VLOOKUP(G146,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E146=111,VLOOKUP(G146,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E146=113,VLOOKUP(G146,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>경험치 물약_C(소)</v>
       </c>
       <c r="I146" s="42">
@@ -12153,8 +12091,8 @@
       <c r="G147" s="42">
         <v>6</v>
       </c>
-      <c r="H147" s="53" t="str" cm="1">
-        <f t="array" ref="H147">IF(E147=1000,VLOOKUP(G147,[2]item!$A$5:$C$10000,3,FALSE),IF(E147=112,VLOOKUP(G147,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E147=1,"골드",IF(E147=2,"보석",IF(E147=3,"스테미나",IF(E147=4,"호감도",IF(E147=5,"플레이어 경험치",IF(E147=6,"캐릭터 경험치",IF(E147=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E147=8,VLOOKUP(G147,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E147=111,VLOOKUP(G147,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E147=113,VLOOKUP(G147,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H147" s="53" t="str">
+        <f>IF(E147=1000,VLOOKUP(G147,[2]item!$A$5:$C$10000,3,FALSE),IF(E147=112,VLOOKUP(G147,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E147=1,"골드",IF(E147=2,"보석",IF(E147=3,"스테미나",IF(E147=4,"호감도",IF(E147=5,"플레이어 경험치",IF(E147=6,"캐릭터 경험치",IF(E147=7,VLOOKUP(G147,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E147=8,VLOOKUP(G147,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E147=111,VLOOKUP(G147,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E147=113,VLOOKUP(G147,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>플레이어 경험치</v>
       </c>
       <c r="I147" s="42">
@@ -12204,8 +12142,8 @@
       <c r="G148" s="42">
         <v>6</v>
       </c>
-      <c r="H148" s="53" t="str" cm="1">
-        <f t="array" ref="H148">IF(E148=1000,VLOOKUP(G148,[2]item!$A$5:$C$10000,3,FALSE),IF(E148=112,VLOOKUP(G148,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E148=1,"골드",IF(E148=2,"보석",IF(E148=3,"스테미나",IF(E148=4,"호감도",IF(E148=5,"플레이어 경험치",IF(E148=6,"캐릭터 경험치",IF(E148=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E148=8,VLOOKUP(G148,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E148=111,VLOOKUP(G148,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E148=113,VLOOKUP(G148,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H148" s="53" t="str">
+        <f>IF(E148=1000,VLOOKUP(G148,[2]item!$A$5:$C$10000,3,FALSE),IF(E148=112,VLOOKUP(G148,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E148=1,"골드",IF(E148=2,"보석",IF(E148=3,"스테미나",IF(E148=4,"호감도",IF(E148=5,"플레이어 경험치",IF(E148=6,"캐릭터 경험치",IF(E148=7,VLOOKUP(G148,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E148=8,VLOOKUP(G148,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E148=111,VLOOKUP(G148,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E148=113,VLOOKUP(G148,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>캐릭터 경험치</v>
       </c>
       <c r="I148" s="42">
@@ -12255,8 +12193,8 @@
       <c r="G149" s="42">
         <v>6</v>
       </c>
-      <c r="H149" s="53" t="str" cm="1">
-        <f t="array" ref="H149">IF(E149=1000,VLOOKUP(G149,[2]item!$A$5:$C$10000,3,FALSE),IF(E149=112,VLOOKUP(G149,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E149=1,"골드",IF(E149=2,"보석",IF(E149=3,"스테미나",IF(E149=4,"호감도",IF(E149=5,"플레이어 경험치",IF(E149=6,"캐릭터 경험치",IF(E149=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E149=8,VLOOKUP(G149,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E149=111,VLOOKUP(G149,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E149=113,VLOOKUP(G149,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H149" s="53" t="str">
+        <f>IF(E149=1000,VLOOKUP(G149,[2]item!$A$5:$C$10000,3,FALSE),IF(E149=112,VLOOKUP(G149,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E149=1,"골드",IF(E149=2,"보석",IF(E149=3,"스테미나",IF(E149=4,"호감도",IF(E149=5,"플레이어 경험치",IF(E149=6,"캐릭터 경험치",IF(E149=7,VLOOKUP(G149,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E149=8,VLOOKUP(G149,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E149=111,VLOOKUP(G149,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E149=113,VLOOKUP(G149,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>골드</v>
       </c>
       <c r="I149" s="42">
@@ -12306,8 +12244,8 @@
       <c r="G150" s="42">
         <v>6</v>
       </c>
-      <c r="H150" s="53" t="str" cm="1">
-        <f t="array" ref="H150">IF(E150=1000,VLOOKUP(G150,[2]item!$A$5:$C$10000,3,FALSE),IF(E150=112,VLOOKUP(G150,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E150=1,"골드",IF(E150=2,"보석",IF(E150=3,"스테미나",IF(E150=4,"호감도",IF(E150=5,"플레이어 경험치",IF(E150=6,"캐릭터 경험치",IF(E150=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E150=8,VLOOKUP(G150,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E150=111,VLOOKUP(G150,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E150=113,VLOOKUP(G150,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H150" s="53" t="str">
+        <f>IF(E150=1000,VLOOKUP(G150,[2]item!$A$5:$C$10000,3,FALSE),IF(E150=112,VLOOKUP(G150,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E150=1,"골드",IF(E150=2,"보석",IF(E150=3,"스테미나",IF(E150=4,"호감도",IF(E150=5,"플레이어 경험치",IF(E150=6,"캐릭터 경험치",IF(E150=7,VLOOKUP(G150,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E150=8,VLOOKUP(G150,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E150=111,VLOOKUP(G150,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E150=113,VLOOKUP(G150,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>호감도</v>
       </c>
       <c r="I150" s="42">
@@ -12357,8 +12295,8 @@
       <c r="G151" s="42">
         <v>100001</v>
       </c>
-      <c r="H151" s="53" t="str" cm="1">
-        <f t="array" ref="H151">IF(E151=1000,VLOOKUP(G151,[2]item!$A$5:$C$10000,3,FALSE),IF(E151=112,VLOOKUP(G151,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E151=1,"골드",IF(E151=2,"보석",IF(E151=3,"스테미나",IF(E151=4,"호감도",IF(E151=5,"플레이어 경험치",IF(E151=6,"캐릭터 경험치",IF(E151=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E151=8,VLOOKUP(G151,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E151=111,VLOOKUP(G151,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E151=113,VLOOKUP(G151,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H151" s="53" t="str">
+        <f>IF(E151=1000,VLOOKUP(G151,[2]item!$A$5:$C$10000,3,FALSE),IF(E151=112,VLOOKUP(G151,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E151=1,"골드",IF(E151=2,"보석",IF(E151=3,"스테미나",IF(E151=4,"호감도",IF(E151=5,"플레이어 경험치",IF(E151=6,"캐릭터 경험치",IF(E151=7,VLOOKUP(G151,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E151=8,VLOOKUP(G151,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E151=111,VLOOKUP(G151,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E151=113,VLOOKUP(G151,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>루시아 조각</v>
       </c>
       <c r="I151" s="42">
@@ -12408,8 +12346,8 @@
       <c r="G152" s="42">
         <v>100002</v>
       </c>
-      <c r="H152" s="53" t="str" cm="1">
-        <f t="array" ref="H152">IF(E152=1000,VLOOKUP(G152,[2]item!$A$5:$C$10000,3,FALSE),IF(E152=112,VLOOKUP(G152,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E152=1,"골드",IF(E152=2,"보석",IF(E152=3,"스테미나",IF(E152=4,"호감도",IF(E152=5,"플레이어 경험치",IF(E152=6,"캐릭터 경험치",IF(E152=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E152=8,VLOOKUP(G152,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E152=111,VLOOKUP(G152,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E152=113,VLOOKUP(G152,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H152" s="53" t="str">
+        <f>IF(E152=1000,VLOOKUP(G152,[2]item!$A$5:$C$10000,3,FALSE),IF(E152=112,VLOOKUP(G152,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E152=1,"골드",IF(E152=2,"보석",IF(E152=3,"스테미나",IF(E152=4,"호감도",IF(E152=5,"플레이어 경험치",IF(E152=6,"캐릭터 경험치",IF(E152=7,VLOOKUP(G152,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E152=8,VLOOKUP(G152,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E152=111,VLOOKUP(G152,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E152=113,VLOOKUP(G152,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>라일라 조각</v>
       </c>
       <c r="I152" s="42">
@@ -12459,8 +12397,8 @@
       <c r="G153" s="42">
         <v>100003</v>
       </c>
-      <c r="H153" s="53" t="str" cm="1">
-        <f t="array" ref="H153">IF(E153=1000,VLOOKUP(G153,[2]item!$A$5:$C$10000,3,FALSE),IF(E153=112,VLOOKUP(G153,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E153=1,"골드",IF(E153=2,"보석",IF(E153=3,"스테미나",IF(E153=4,"호감도",IF(E153=5,"플레이어 경험치",IF(E153=6,"캐릭터 경험치",IF(E153=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E153=8,VLOOKUP(G153,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E153=111,VLOOKUP(G153,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E153=113,VLOOKUP(G153,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H153" s="53" t="str">
+        <f>IF(E153=1000,VLOOKUP(G153,[2]item!$A$5:$C$10000,3,FALSE),IF(E153=112,VLOOKUP(G153,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E153=1,"골드",IF(E153=2,"보석",IF(E153=3,"스테미나",IF(E153=4,"호감도",IF(E153=5,"플레이어 경험치",IF(E153=6,"캐릭터 경험치",IF(E153=7,VLOOKUP(G153,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E153=8,VLOOKUP(G153,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E153=111,VLOOKUP(G153,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E153=113,VLOOKUP(G153,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>바이올렛 조각</v>
       </c>
       <c r="I153" s="42">
@@ -12510,8 +12448,8 @@
       <c r="G154" s="42">
         <v>100004</v>
       </c>
-      <c r="H154" s="53" t="str" cm="1">
-        <f t="array" ref="H154">IF(E154=1000,VLOOKUP(G154,[2]item!$A$5:$C$10000,3,FALSE),IF(E154=112,VLOOKUP(G154,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E154=1,"골드",IF(E154=2,"보석",IF(E154=3,"스테미나",IF(E154=4,"호감도",IF(E154=5,"플레이어 경험치",IF(E154=6,"캐릭터 경험치",IF(E154=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E154=8,VLOOKUP(G154,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E154=111,VLOOKUP(G154,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E154=113,VLOOKUP(G154,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H154" s="53" t="str">
+        <f>IF(E154=1000,VLOOKUP(G154,[2]item!$A$5:$C$10000,3,FALSE),IF(E154=112,VLOOKUP(G154,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E154=1,"골드",IF(E154=2,"보석",IF(E154=3,"스테미나",IF(E154=4,"호감도",IF(E154=5,"플레이어 경험치",IF(E154=6,"캐릭터 경험치",IF(E154=7,VLOOKUP(G154,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E154=8,VLOOKUP(G154,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E154=111,VLOOKUP(G154,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E154=113,VLOOKUP(G154,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>데이지 조각</v>
       </c>
       <c r="I154" s="42">
@@ -12561,8 +12499,8 @@
       <c r="G155" s="4">
         <v>100005</v>
       </c>
-      <c r="H155" s="53" t="str" cm="1">
-        <f t="array" ref="H155">IF(E155=1000,VLOOKUP(G155,[2]item!$A$5:$C$10000,3,FALSE),IF(E155=112,VLOOKUP(G155,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E155=1,"골드",IF(E155=2,"보석",IF(E155=3,"스테미나",IF(E155=4,"호감도",IF(E155=5,"플레이어 경험치",IF(E155=6,"캐릭터 경험치",IF(E155=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E155=8,VLOOKUP(G155,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E155=111,VLOOKUP(G155,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E155=113,VLOOKUP(G155,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H155" s="53" t="str">
+        <f>IF(E155=1000,VLOOKUP(G155,[2]item!$A$5:$C$10000,3,FALSE),IF(E155=112,VLOOKUP(G155,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E155=1,"골드",IF(E155=2,"보석",IF(E155=3,"스테미나",IF(E155=4,"호감도",IF(E155=5,"플레이어 경험치",IF(E155=6,"캐릭터 경험치",IF(E155=7,VLOOKUP(G155,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E155=8,VLOOKUP(G155,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E155=111,VLOOKUP(G155,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E155=113,VLOOKUP(G155,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>클레어 조각</v>
       </c>
       <c r="I155" s="4">
@@ -12612,8 +12550,8 @@
       <c r="G156" s="4">
         <v>8000</v>
       </c>
-      <c r="H156" s="53" t="str" cm="1">
-        <f t="array" ref="H156">IF(E156=1000,VLOOKUP(G156,[2]item!$A$5:$C$10000,3,FALSE),IF(E156=112,VLOOKUP(G156,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E156=1,"골드",IF(E156=2,"보석",IF(E156=3,"스테미나",IF(E156=4,"호감도",IF(E156=5,"플레이어 경험치",IF(E156=6,"캐릭터 경험치",IF(E156=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E156=8,VLOOKUP(G156,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E156=111,VLOOKUP(G156,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E156=113,VLOOKUP(G156,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H156" s="53" t="str">
+        <f>IF(E156=1000,VLOOKUP(G156,[2]item!$A$5:$C$10000,3,FALSE),IF(E156=112,VLOOKUP(G156,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E156=1,"골드",IF(E156=2,"보석",IF(E156=3,"스테미나",IF(E156=4,"호감도",IF(E156=5,"플레이어 경험치",IF(E156=6,"캐릭터 경험치",IF(E156=7,VLOOKUP(G156,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E156=8,VLOOKUP(G156,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E156=111,VLOOKUP(G156,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E156=113,VLOOKUP(G156,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>골드</v>
       </c>
       <c r="I156" s="4">
@@ -12663,8 +12601,8 @@
       <c r="G157" s="4">
         <v>16</v>
       </c>
-      <c r="H157" s="53" t="str" cm="1">
-        <f t="array" ref="H157">IF(E157=1000,VLOOKUP(G157,[2]item!$A$5:$C$10000,3,FALSE),IF(E157=112,VLOOKUP(G157,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E157=1,"골드",IF(E157=2,"보석",IF(E157=3,"스테미나",IF(E157=4,"호감도",IF(E157=5,"플레이어 경험치",IF(E157=6,"캐릭터 경험치",IF(E157=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E157=8,VLOOKUP(G157,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E157=111,VLOOKUP(G157,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E157=113,VLOOKUP(G157,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H157" s="53" t="str">
+        <f>IF(E157=1000,VLOOKUP(G157,[2]item!$A$5:$C$10000,3,FALSE),IF(E157=112,VLOOKUP(G157,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E157=1,"골드",IF(E157=2,"보석",IF(E157=3,"스테미나",IF(E157=4,"호감도",IF(E157=5,"플레이어 경험치",IF(E157=6,"캐릭터 경험치",IF(E157=7,VLOOKUP(G157,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E157=8,VLOOKUP(G157,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E157=111,VLOOKUP(G157,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E157=113,VLOOKUP(G157,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>전투 보고서(소)</v>
       </c>
       <c r="I157" s="4">
@@ -12714,8 +12652,8 @@
       <c r="G158" s="44">
         <v>30</v>
       </c>
-      <c r="H158" s="53" t="str" cm="1">
-        <f t="array" ref="H158">IF(E158=1000,VLOOKUP(G158,[2]item!$A$5:$C$10000,3,FALSE),IF(E158=112,VLOOKUP(G158,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E158=1,"골드",IF(E158=2,"보석",IF(E158=3,"스테미나",IF(E158=4,"호감도",IF(E158=5,"플레이어 경험치",IF(E158=6,"캐릭터 경험치",IF(E158=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E158=8,VLOOKUP(G158,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E158=111,VLOOKUP(G158,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E158=113,VLOOKUP(G158,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H158" s="53" t="str">
+        <f>IF(E158=1000,VLOOKUP(G158,[2]item!$A$5:$C$10000,3,FALSE),IF(E158=112,VLOOKUP(G158,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E158=1,"골드",IF(E158=2,"보석",IF(E158=3,"스테미나",IF(E158=4,"호감도",IF(E158=5,"플레이어 경험치",IF(E158=6,"캐릭터 경험치",IF(E158=7,VLOOKUP(G158,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E158=8,VLOOKUP(G158,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E158=111,VLOOKUP(G158,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E158=113,VLOOKUP(G158,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>보석</v>
       </c>
       <c r="I158" s="44">
@@ -12765,8 +12703,8 @@
       <c r="G159" s="42">
         <v>16</v>
       </c>
-      <c r="H159" s="53" t="str" cm="1">
-        <f t="array" ref="H159">IF(E159=1000,VLOOKUP(G159,[2]item!$A$5:$C$10000,3,FALSE),IF(E159=112,VLOOKUP(G159,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E159=1,"골드",IF(E159=2,"보석",IF(E159=3,"스테미나",IF(E159=4,"호감도",IF(E159=5,"플레이어 경험치",IF(E159=6,"캐릭터 경험치",IF(E159=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E159=8,VLOOKUP(G159,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E159=111,VLOOKUP(G159,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E159=113,VLOOKUP(G159,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H159" s="53" t="str">
+        <f>IF(E159=1000,VLOOKUP(G159,[2]item!$A$5:$C$10000,3,FALSE),IF(E159=112,VLOOKUP(G159,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E159=1,"골드",IF(E159=2,"보석",IF(E159=3,"스테미나",IF(E159=4,"호감도",IF(E159=5,"플레이어 경험치",IF(E159=6,"캐릭터 경험치",IF(E159=7,VLOOKUP(G159,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E159=8,VLOOKUP(G159,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E159=111,VLOOKUP(G159,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E159=113,VLOOKUP(G159,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>전투 보고서(소)</v>
       </c>
       <c r="I159" s="42">
@@ -12816,8 +12754,8 @@
       <c r="G160" s="42">
         <v>6</v>
       </c>
-      <c r="H160" s="53" t="str" cm="1">
-        <f t="array" ref="H160">IF(E160=1000,VLOOKUP(G160,[2]item!$A$5:$C$10000,3,FALSE),IF(E160=112,VLOOKUP(G160,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E160=1,"골드",IF(E160=2,"보석",IF(E160=3,"스테미나",IF(E160=4,"호감도",IF(E160=5,"플레이어 경험치",IF(E160=6,"캐릭터 경험치",IF(E160=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E160=8,VLOOKUP(G160,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E160=111,VLOOKUP(G160,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E160=113,VLOOKUP(G160,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H160" s="53" t="str">
+        <f>IF(E160=1000,VLOOKUP(G160,[2]item!$A$5:$C$10000,3,FALSE),IF(E160=112,VLOOKUP(G160,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E160=1,"골드",IF(E160=2,"보석",IF(E160=3,"스테미나",IF(E160=4,"호감도",IF(E160=5,"플레이어 경험치",IF(E160=6,"캐릭터 경험치",IF(E160=7,VLOOKUP(G160,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E160=8,VLOOKUP(G160,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E160=111,VLOOKUP(G160,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E160=113,VLOOKUP(G160,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>경험치 물약_C(소)</v>
       </c>
       <c r="I160" s="42">
@@ -12867,8 +12805,8 @@
       <c r="G161" s="42">
         <v>6</v>
       </c>
-      <c r="H161" s="53" t="str" cm="1">
-        <f t="array" ref="H161">IF(E161=1000,VLOOKUP(G161,[2]item!$A$5:$C$10000,3,FALSE),IF(E161=112,VLOOKUP(G161,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E161=1,"골드",IF(E161=2,"보석",IF(E161=3,"스테미나",IF(E161=4,"호감도",IF(E161=5,"플레이어 경험치",IF(E161=6,"캐릭터 경험치",IF(E161=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E161=8,VLOOKUP(G161,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E161=111,VLOOKUP(G161,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E161=113,VLOOKUP(G161,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H161" s="53" t="str">
+        <f>IF(E161=1000,VLOOKUP(G161,[2]item!$A$5:$C$10000,3,FALSE),IF(E161=112,VLOOKUP(G161,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E161=1,"골드",IF(E161=2,"보석",IF(E161=3,"스테미나",IF(E161=4,"호감도",IF(E161=5,"플레이어 경험치",IF(E161=6,"캐릭터 경험치",IF(E161=7,VLOOKUP(G161,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E161=8,VLOOKUP(G161,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E161=111,VLOOKUP(G161,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E161=113,VLOOKUP(G161,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>플레이어 경험치</v>
       </c>
       <c r="I161" s="42">
@@ -12918,8 +12856,8 @@
       <c r="G162" s="42">
         <v>6</v>
       </c>
-      <c r="H162" s="53" t="str" cm="1">
-        <f t="array" ref="H162">IF(E162=1000,VLOOKUP(G162,[2]item!$A$5:$C$10000,3,FALSE),IF(E162=112,VLOOKUP(G162,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E162=1,"골드",IF(E162=2,"보석",IF(E162=3,"스테미나",IF(E162=4,"호감도",IF(E162=5,"플레이어 경험치",IF(E162=6,"캐릭터 경험치",IF(E162=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E162=8,VLOOKUP(G162,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E162=111,VLOOKUP(G162,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E162=113,VLOOKUP(G162,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H162" s="53" t="str">
+        <f>IF(E162=1000,VLOOKUP(G162,[2]item!$A$5:$C$10000,3,FALSE),IF(E162=112,VLOOKUP(G162,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E162=1,"골드",IF(E162=2,"보석",IF(E162=3,"스테미나",IF(E162=4,"호감도",IF(E162=5,"플레이어 경험치",IF(E162=6,"캐릭터 경험치",IF(E162=7,VLOOKUP(G162,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E162=8,VLOOKUP(G162,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E162=111,VLOOKUP(G162,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E162=113,VLOOKUP(G162,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>캐릭터 경험치</v>
       </c>
       <c r="I162" s="42">
@@ -12969,8 +12907,8 @@
       <c r="G163" s="42">
         <v>6</v>
       </c>
-      <c r="H163" s="53" t="str" cm="1">
-        <f t="array" ref="H163">IF(E163=1000,VLOOKUP(G163,[2]item!$A$5:$C$10000,3,FALSE),IF(E163=112,VLOOKUP(G163,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E163=1,"골드",IF(E163=2,"보석",IF(E163=3,"스테미나",IF(E163=4,"호감도",IF(E163=5,"플레이어 경험치",IF(E163=6,"캐릭터 경험치",IF(E163=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E163=8,VLOOKUP(G163,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E163=111,VLOOKUP(G163,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E163=113,VLOOKUP(G163,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H163" s="53" t="str">
+        <f>IF(E163=1000,VLOOKUP(G163,[2]item!$A$5:$C$10000,3,FALSE),IF(E163=112,VLOOKUP(G163,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E163=1,"골드",IF(E163=2,"보석",IF(E163=3,"스테미나",IF(E163=4,"호감도",IF(E163=5,"플레이어 경험치",IF(E163=6,"캐릭터 경험치",IF(E163=7,VLOOKUP(G163,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E163=8,VLOOKUP(G163,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E163=111,VLOOKUP(G163,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E163=113,VLOOKUP(G163,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>골드</v>
       </c>
       <c r="I163" s="42">
@@ -13020,8 +12958,8 @@
       <c r="G164" s="42">
         <v>6</v>
       </c>
-      <c r="H164" s="53" t="str" cm="1">
-        <f t="array" ref="H164">IF(E164=1000,VLOOKUP(G164,[2]item!$A$5:$C$10000,3,FALSE),IF(E164=112,VLOOKUP(G164,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E164=1,"골드",IF(E164=2,"보석",IF(E164=3,"스테미나",IF(E164=4,"호감도",IF(E164=5,"플레이어 경험치",IF(E164=6,"캐릭터 경험치",IF(E164=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E164=8,VLOOKUP(G164,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E164=111,VLOOKUP(G164,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E164=113,VLOOKUP(G164,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H164" s="53" t="str">
+        <f>IF(E164=1000,VLOOKUP(G164,[2]item!$A$5:$C$10000,3,FALSE),IF(E164=112,VLOOKUP(G164,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E164=1,"골드",IF(E164=2,"보석",IF(E164=3,"스테미나",IF(E164=4,"호감도",IF(E164=5,"플레이어 경험치",IF(E164=6,"캐릭터 경험치",IF(E164=7,VLOOKUP(G164,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E164=8,VLOOKUP(G164,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E164=111,VLOOKUP(G164,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E164=113,VLOOKUP(G164,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>호감도</v>
       </c>
       <c r="I164" s="42">
@@ -13071,8 +13009,8 @@
       <c r="G165" s="42">
         <v>100001</v>
       </c>
-      <c r="H165" s="53" t="str" cm="1">
-        <f t="array" ref="H165">IF(E165=1000,VLOOKUP(G165,[2]item!$A$5:$C$10000,3,FALSE),IF(E165=112,VLOOKUP(G165,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E165=1,"골드",IF(E165=2,"보석",IF(E165=3,"스테미나",IF(E165=4,"호감도",IF(E165=5,"플레이어 경험치",IF(E165=6,"캐릭터 경험치",IF(E165=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E165=8,VLOOKUP(G165,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E165=111,VLOOKUP(G165,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E165=113,VLOOKUP(G165,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H165" s="53" t="str">
+        <f>IF(E165=1000,VLOOKUP(G165,[2]item!$A$5:$C$10000,3,FALSE),IF(E165=112,VLOOKUP(G165,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E165=1,"골드",IF(E165=2,"보석",IF(E165=3,"스테미나",IF(E165=4,"호감도",IF(E165=5,"플레이어 경험치",IF(E165=6,"캐릭터 경험치",IF(E165=7,VLOOKUP(G165,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E165=8,VLOOKUP(G165,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E165=111,VLOOKUP(G165,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E165=113,VLOOKUP(G165,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>루시아 조각</v>
       </c>
       <c r="I165" s="42">
@@ -13122,8 +13060,8 @@
       <c r="G166" s="42">
         <v>100002</v>
       </c>
-      <c r="H166" s="53" t="str" cm="1">
-        <f t="array" ref="H166">IF(E166=1000,VLOOKUP(G166,[2]item!$A$5:$C$10000,3,FALSE),IF(E166=112,VLOOKUP(G166,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E166=1,"골드",IF(E166=2,"보석",IF(E166=3,"스테미나",IF(E166=4,"호감도",IF(E166=5,"플레이어 경험치",IF(E166=6,"캐릭터 경험치",IF(E166=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E166=8,VLOOKUP(G166,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E166=111,VLOOKUP(G166,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E166=113,VLOOKUP(G166,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H166" s="53" t="str">
+        <f>IF(E166=1000,VLOOKUP(G166,[2]item!$A$5:$C$10000,3,FALSE),IF(E166=112,VLOOKUP(G166,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E166=1,"골드",IF(E166=2,"보석",IF(E166=3,"스테미나",IF(E166=4,"호감도",IF(E166=5,"플레이어 경험치",IF(E166=6,"캐릭터 경험치",IF(E166=7,VLOOKUP(G166,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E166=8,VLOOKUP(G166,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E166=111,VLOOKUP(G166,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E166=113,VLOOKUP(G166,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>라일라 조각</v>
       </c>
       <c r="I166" s="42">
@@ -13173,8 +13111,8 @@
       <c r="G167" s="42">
         <v>100003</v>
       </c>
-      <c r="H167" s="53" t="str" cm="1">
-        <f t="array" ref="H167">IF(E167=1000,VLOOKUP(G167,[2]item!$A$5:$C$10000,3,FALSE),IF(E167=112,VLOOKUP(G167,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E167=1,"골드",IF(E167=2,"보석",IF(E167=3,"스테미나",IF(E167=4,"호감도",IF(E167=5,"플레이어 경험치",IF(E167=6,"캐릭터 경험치",IF(E167=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E167=8,VLOOKUP(G167,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E167=111,VLOOKUP(G167,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E167=113,VLOOKUP(G167,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H167" s="53" t="str">
+        <f>IF(E167=1000,VLOOKUP(G167,[2]item!$A$5:$C$10000,3,FALSE),IF(E167=112,VLOOKUP(G167,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E167=1,"골드",IF(E167=2,"보석",IF(E167=3,"스테미나",IF(E167=4,"호감도",IF(E167=5,"플레이어 경험치",IF(E167=6,"캐릭터 경험치",IF(E167=7,VLOOKUP(G167,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E167=8,VLOOKUP(G167,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E167=111,VLOOKUP(G167,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E167=113,VLOOKUP(G167,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>바이올렛 조각</v>
       </c>
       <c r="I167" s="42">
@@ -13224,8 +13162,8 @@
       <c r="G168" s="42">
         <v>100004</v>
       </c>
-      <c r="H168" s="53" t="str" cm="1">
-        <f t="array" ref="H168">IF(E168=1000,VLOOKUP(G168,[2]item!$A$5:$C$10000,3,FALSE),IF(E168=112,VLOOKUP(G168,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E168=1,"골드",IF(E168=2,"보석",IF(E168=3,"스테미나",IF(E168=4,"호감도",IF(E168=5,"플레이어 경험치",IF(E168=6,"캐릭터 경험치",IF(E168=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E168=8,VLOOKUP(G168,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E168=111,VLOOKUP(G168,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E168=113,VLOOKUP(G168,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H168" s="53" t="str">
+        <f>IF(E168=1000,VLOOKUP(G168,[2]item!$A$5:$C$10000,3,FALSE),IF(E168=112,VLOOKUP(G168,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E168=1,"골드",IF(E168=2,"보석",IF(E168=3,"스테미나",IF(E168=4,"호감도",IF(E168=5,"플레이어 경험치",IF(E168=6,"캐릭터 경험치",IF(E168=7,VLOOKUP(G168,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E168=8,VLOOKUP(G168,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E168=111,VLOOKUP(G168,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E168=113,VLOOKUP(G168,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>데이지 조각</v>
       </c>
       <c r="I168" s="42">
@@ -13275,8 +13213,8 @@
       <c r="G169" s="4">
         <v>100006</v>
       </c>
-      <c r="H169" s="53" t="str" cm="1">
-        <f t="array" ref="H169">IF(E169=1000,VLOOKUP(G169,[2]item!$A$5:$C$10000,3,FALSE),IF(E169=112,VLOOKUP(G169,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E169=1,"골드",IF(E169=2,"보석",IF(E169=3,"스테미나",IF(E169=4,"호감도",IF(E169=5,"플레이어 경험치",IF(E169=6,"캐릭터 경험치",IF(E169=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E169=8,VLOOKUP(G169,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E169=111,VLOOKUP(G169,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E169=113,VLOOKUP(G169,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H169" s="53" t="str">
+        <f>IF(E169=1000,VLOOKUP(G169,[2]item!$A$5:$C$10000,3,FALSE),IF(E169=112,VLOOKUP(G169,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E169=1,"골드",IF(E169=2,"보석",IF(E169=3,"스테미나",IF(E169=4,"호감도",IF(E169=5,"플레이어 경험치",IF(E169=6,"캐릭터 경험치",IF(E169=7,VLOOKUP(G169,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E169=8,VLOOKUP(G169,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E169=111,VLOOKUP(G169,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E169=113,VLOOKUP(G169,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>에일린 조각</v>
       </c>
       <c r="I169" s="4">
@@ -13326,8 +13264,8 @@
       <c r="G170" s="4">
         <v>8000</v>
       </c>
-      <c r="H170" s="53" t="str" cm="1">
-        <f t="array" ref="H170">IF(E170=1000,VLOOKUP(G170,[2]item!$A$5:$C$10000,3,FALSE),IF(E170=112,VLOOKUP(G170,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E170=1,"골드",IF(E170=2,"보석",IF(E170=3,"스테미나",IF(E170=4,"호감도",IF(E170=5,"플레이어 경험치",IF(E170=6,"캐릭터 경험치",IF(E170=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E170=8,VLOOKUP(G170,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E170=111,VLOOKUP(G170,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E170=113,VLOOKUP(G170,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H170" s="53" t="str">
+        <f>IF(E170=1000,VLOOKUP(G170,[2]item!$A$5:$C$10000,3,FALSE),IF(E170=112,VLOOKUP(G170,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E170=1,"골드",IF(E170=2,"보석",IF(E170=3,"스테미나",IF(E170=4,"호감도",IF(E170=5,"플레이어 경험치",IF(E170=6,"캐릭터 경험치",IF(E170=7,VLOOKUP(G170,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E170=8,VLOOKUP(G170,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E170=111,VLOOKUP(G170,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E170=113,VLOOKUP(G170,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>골드</v>
       </c>
       <c r="I170" s="4">
@@ -13377,8 +13315,8 @@
       <c r="G171" s="4">
         <v>16</v>
       </c>
-      <c r="H171" s="53" t="str" cm="1">
-        <f t="array" ref="H171">IF(E171=1000,VLOOKUP(G171,[2]item!$A$5:$C$10000,3,FALSE),IF(E171=112,VLOOKUP(G171,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E171=1,"골드",IF(E171=2,"보석",IF(E171=3,"스테미나",IF(E171=4,"호감도",IF(E171=5,"플레이어 경험치",IF(E171=6,"캐릭터 경험치",IF(E171=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E171=8,VLOOKUP(G171,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E171=111,VLOOKUP(G171,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E171=113,VLOOKUP(G171,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H171" s="53" t="str">
+        <f>IF(E171=1000,VLOOKUP(G171,[2]item!$A$5:$C$10000,3,FALSE),IF(E171=112,VLOOKUP(G171,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E171=1,"골드",IF(E171=2,"보석",IF(E171=3,"스테미나",IF(E171=4,"호감도",IF(E171=5,"플레이어 경험치",IF(E171=6,"캐릭터 경험치",IF(E171=7,VLOOKUP(G171,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E171=8,VLOOKUP(G171,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E171=111,VLOOKUP(G171,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E171=113,VLOOKUP(G171,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>전투 보고서(소)</v>
       </c>
       <c r="I171" s="4">
@@ -13428,8 +13366,8 @@
       <c r="G172" s="44">
         <v>30</v>
       </c>
-      <c r="H172" s="53" t="str" cm="1">
-        <f t="array" ref="H172">IF(E172=1000,VLOOKUP(G172,[2]item!$A$5:$C$10000,3,FALSE),IF(E172=112,VLOOKUP(G172,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E172=1,"골드",IF(E172=2,"보석",IF(E172=3,"스테미나",IF(E172=4,"호감도",IF(E172=5,"플레이어 경험치",IF(E172=6,"캐릭터 경험치",IF(E172=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E172=8,VLOOKUP(G172,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E172=111,VLOOKUP(G172,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E172=113,VLOOKUP(G172,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H172" s="53" t="str">
+        <f>IF(E172=1000,VLOOKUP(G172,[2]item!$A$5:$C$10000,3,FALSE),IF(E172=112,VLOOKUP(G172,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E172=1,"골드",IF(E172=2,"보석",IF(E172=3,"스테미나",IF(E172=4,"호감도",IF(E172=5,"플레이어 경험치",IF(E172=6,"캐릭터 경험치",IF(E172=7,VLOOKUP(G172,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E172=8,VLOOKUP(G172,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E172=111,VLOOKUP(G172,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E172=113,VLOOKUP(G172,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>보석</v>
       </c>
       <c r="I172" s="44">
@@ -13479,8 +13417,8 @@
       <c r="G173" s="42">
         <v>16</v>
       </c>
-      <c r="H173" s="53" t="str" cm="1">
-        <f t="array" ref="H173">IF(E173=1000,VLOOKUP(G173,[2]item!$A$5:$C$10000,3,FALSE),IF(E173=112,VLOOKUP(G173,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E173=1,"골드",IF(E173=2,"보석",IF(E173=3,"스테미나",IF(E173=4,"호감도",IF(E173=5,"플레이어 경험치",IF(E173=6,"캐릭터 경험치",IF(E173=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E173=8,VLOOKUP(G173,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E173=111,VLOOKUP(G173,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E173=113,VLOOKUP(G173,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H173" s="53" t="str">
+        <f>IF(E173=1000,VLOOKUP(G173,[2]item!$A$5:$C$10000,3,FALSE),IF(E173=112,VLOOKUP(G173,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E173=1,"골드",IF(E173=2,"보석",IF(E173=3,"스테미나",IF(E173=4,"호감도",IF(E173=5,"플레이어 경험치",IF(E173=6,"캐릭터 경험치",IF(E173=7,VLOOKUP(G173,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E173=8,VLOOKUP(G173,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E173=111,VLOOKUP(G173,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E173=113,VLOOKUP(G173,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>전투 보고서(소)</v>
       </c>
       <c r="I173" s="42">
@@ -13530,8 +13468,8 @@
       <c r="G174" s="42">
         <v>6</v>
       </c>
-      <c r="H174" s="53" t="str" cm="1">
-        <f t="array" ref="H174">IF(E174=1000,VLOOKUP(G174,[2]item!$A$5:$C$10000,3,FALSE),IF(E174=112,VLOOKUP(G174,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E174=1,"골드",IF(E174=2,"보석",IF(E174=3,"스테미나",IF(E174=4,"호감도",IF(E174=5,"플레이어 경험치",IF(E174=6,"캐릭터 경험치",IF(E174=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E174=8,VLOOKUP(G174,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E174=111,VLOOKUP(G174,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E174=113,VLOOKUP(G174,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H174" s="53" t="str">
+        <f>IF(E174=1000,VLOOKUP(G174,[2]item!$A$5:$C$10000,3,FALSE),IF(E174=112,VLOOKUP(G174,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E174=1,"골드",IF(E174=2,"보석",IF(E174=3,"스테미나",IF(E174=4,"호감도",IF(E174=5,"플레이어 경험치",IF(E174=6,"캐릭터 경험치",IF(E174=7,VLOOKUP(G174,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E174=8,VLOOKUP(G174,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E174=111,VLOOKUP(G174,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E174=113,VLOOKUP(G174,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>경험치 물약_C(소)</v>
       </c>
       <c r="I174" s="42">
@@ -13581,8 +13519,8 @@
       <c r="G175" s="42">
         <v>6</v>
       </c>
-      <c r="H175" s="53" t="str" cm="1">
-        <f t="array" ref="H175">IF(E175=1000,VLOOKUP(G175,[2]item!$A$5:$C$10000,3,FALSE),IF(E175=112,VLOOKUP(G175,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E175=1,"골드",IF(E175=2,"보석",IF(E175=3,"스테미나",IF(E175=4,"호감도",IF(E175=5,"플레이어 경험치",IF(E175=6,"캐릭터 경험치",IF(E175=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E175=8,VLOOKUP(G175,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E175=111,VLOOKUP(G175,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E175=113,VLOOKUP(G175,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H175" s="53" t="str">
+        <f>IF(E175=1000,VLOOKUP(G175,[2]item!$A$5:$C$10000,3,FALSE),IF(E175=112,VLOOKUP(G175,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E175=1,"골드",IF(E175=2,"보석",IF(E175=3,"스테미나",IF(E175=4,"호감도",IF(E175=5,"플레이어 경험치",IF(E175=6,"캐릭터 경험치",IF(E175=7,VLOOKUP(G175,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E175=8,VLOOKUP(G175,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E175=111,VLOOKUP(G175,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E175=113,VLOOKUP(G175,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>플레이어 경험치</v>
       </c>
       <c r="I175" s="42">
@@ -13632,8 +13570,8 @@
       <c r="G176" s="42">
         <v>6</v>
       </c>
-      <c r="H176" s="53" t="str" cm="1">
-        <f t="array" ref="H176">IF(E176=1000,VLOOKUP(G176,[2]item!$A$5:$C$10000,3,FALSE),IF(E176=112,VLOOKUP(G176,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E176=1,"골드",IF(E176=2,"보석",IF(E176=3,"스테미나",IF(E176=4,"호감도",IF(E176=5,"플레이어 경험치",IF(E176=6,"캐릭터 경험치",IF(E176=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E176=8,VLOOKUP(G176,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E176=111,VLOOKUP(G176,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E176=113,VLOOKUP(G176,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H176" s="53" t="str">
+        <f>IF(E176=1000,VLOOKUP(G176,[2]item!$A$5:$C$10000,3,FALSE),IF(E176=112,VLOOKUP(G176,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E176=1,"골드",IF(E176=2,"보석",IF(E176=3,"스테미나",IF(E176=4,"호감도",IF(E176=5,"플레이어 경험치",IF(E176=6,"캐릭터 경험치",IF(E176=7,VLOOKUP(G176,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E176=8,VLOOKUP(G176,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E176=111,VLOOKUP(G176,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E176=113,VLOOKUP(G176,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>캐릭터 경험치</v>
       </c>
       <c r="I176" s="42">
@@ -13683,8 +13621,8 @@
       <c r="G177" s="42">
         <v>6</v>
       </c>
-      <c r="H177" s="53" t="str" cm="1">
-        <f t="array" ref="H177">IF(E177=1000,VLOOKUP(G177,[2]item!$A$5:$C$10000,3,FALSE),IF(E177=112,VLOOKUP(G177,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E177=1,"골드",IF(E177=2,"보석",IF(E177=3,"스테미나",IF(E177=4,"호감도",IF(E177=5,"플레이어 경험치",IF(E177=6,"캐릭터 경험치",IF(E177=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E177=8,VLOOKUP(G177,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E177=111,VLOOKUP(G177,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E177=113,VLOOKUP(G177,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H177" s="53" t="str">
+        <f>IF(E177=1000,VLOOKUP(G177,[2]item!$A$5:$C$10000,3,FALSE),IF(E177=112,VLOOKUP(G177,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E177=1,"골드",IF(E177=2,"보석",IF(E177=3,"스테미나",IF(E177=4,"호감도",IF(E177=5,"플레이어 경험치",IF(E177=6,"캐릭터 경험치",IF(E177=7,VLOOKUP(G177,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E177=8,VLOOKUP(G177,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E177=111,VLOOKUP(G177,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E177=113,VLOOKUP(G177,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>골드</v>
       </c>
       <c r="I177" s="42">
@@ -13734,8 +13672,8 @@
       <c r="G178" s="42">
         <v>6</v>
       </c>
-      <c r="H178" s="53" t="str" cm="1">
-        <f t="array" ref="H178">IF(E178=1000,VLOOKUP(G178,[2]item!$A$5:$C$10000,3,FALSE),IF(E178=112,VLOOKUP(G178,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E178=1,"골드",IF(E178=2,"보석",IF(E178=3,"스테미나",IF(E178=4,"호감도",IF(E178=5,"플레이어 경험치",IF(E178=6,"캐릭터 경험치",IF(E178=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E178=8,VLOOKUP(G178,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E178=111,VLOOKUP(G178,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E178=113,VLOOKUP(G178,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H178" s="53" t="str">
+        <f>IF(E178=1000,VLOOKUP(G178,[2]item!$A$5:$C$10000,3,FALSE),IF(E178=112,VLOOKUP(G178,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E178=1,"골드",IF(E178=2,"보석",IF(E178=3,"스테미나",IF(E178=4,"호감도",IF(E178=5,"플레이어 경험치",IF(E178=6,"캐릭터 경험치",IF(E178=7,VLOOKUP(G178,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E178=8,VLOOKUP(G178,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E178=111,VLOOKUP(G178,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E178=113,VLOOKUP(G178,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>호감도</v>
       </c>
       <c r="I178" s="42">
@@ -13785,8 +13723,8 @@
       <c r="G179" s="42">
         <v>100001</v>
       </c>
-      <c r="H179" s="53" t="str" cm="1">
-        <f t="array" ref="H179">IF(E179=1000,VLOOKUP(G179,[2]item!$A$5:$C$10000,3,FALSE),IF(E179=112,VLOOKUP(G179,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E179=1,"골드",IF(E179=2,"보석",IF(E179=3,"스테미나",IF(E179=4,"호감도",IF(E179=5,"플레이어 경험치",IF(E179=6,"캐릭터 경험치",IF(E179=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E179=8,VLOOKUP(G179,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E179=111,VLOOKUP(G179,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E179=113,VLOOKUP(G179,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H179" s="53" t="str">
+        <f>IF(E179=1000,VLOOKUP(G179,[2]item!$A$5:$C$10000,3,FALSE),IF(E179=112,VLOOKUP(G179,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E179=1,"골드",IF(E179=2,"보석",IF(E179=3,"스테미나",IF(E179=4,"호감도",IF(E179=5,"플레이어 경험치",IF(E179=6,"캐릭터 경험치",IF(E179=7,VLOOKUP(G179,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E179=8,VLOOKUP(G179,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E179=111,VLOOKUP(G179,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E179=113,VLOOKUP(G179,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>루시아 조각</v>
       </c>
       <c r="I179" s="42">
@@ -13836,8 +13774,8 @@
       <c r="G180" s="42">
         <v>100002</v>
       </c>
-      <c r="H180" s="53" t="str" cm="1">
-        <f t="array" ref="H180">IF(E180=1000,VLOOKUP(G180,[2]item!$A$5:$C$10000,3,FALSE),IF(E180=112,VLOOKUP(G180,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E180=1,"골드",IF(E180=2,"보석",IF(E180=3,"스테미나",IF(E180=4,"호감도",IF(E180=5,"플레이어 경험치",IF(E180=6,"캐릭터 경험치",IF(E180=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E180=8,VLOOKUP(G180,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E180=111,VLOOKUP(G180,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E180=113,VLOOKUP(G180,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H180" s="53" t="str">
+        <f>IF(E180=1000,VLOOKUP(G180,[2]item!$A$5:$C$10000,3,FALSE),IF(E180=112,VLOOKUP(G180,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E180=1,"골드",IF(E180=2,"보석",IF(E180=3,"스테미나",IF(E180=4,"호감도",IF(E180=5,"플레이어 경험치",IF(E180=6,"캐릭터 경험치",IF(E180=7,VLOOKUP(G180,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E180=8,VLOOKUP(G180,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E180=111,VLOOKUP(G180,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E180=113,VLOOKUP(G180,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>라일라 조각</v>
       </c>
       <c r="I180" s="42">
@@ -13887,8 +13825,8 @@
       <c r="G181" s="42">
         <v>100003</v>
       </c>
-      <c r="H181" s="53" t="str" cm="1">
-        <f t="array" ref="H181">IF(E181=1000,VLOOKUP(G181,[2]item!$A$5:$C$10000,3,FALSE),IF(E181=112,VLOOKUP(G181,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E181=1,"골드",IF(E181=2,"보석",IF(E181=3,"스테미나",IF(E181=4,"호감도",IF(E181=5,"플레이어 경험치",IF(E181=6,"캐릭터 경험치",IF(E181=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E181=8,VLOOKUP(G181,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E181=111,VLOOKUP(G181,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E181=113,VLOOKUP(G181,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H181" s="53" t="str">
+        <f>IF(E181=1000,VLOOKUP(G181,[2]item!$A$5:$C$10000,3,FALSE),IF(E181=112,VLOOKUP(G181,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E181=1,"골드",IF(E181=2,"보석",IF(E181=3,"스테미나",IF(E181=4,"호감도",IF(E181=5,"플레이어 경험치",IF(E181=6,"캐릭터 경험치",IF(E181=7,VLOOKUP(G181,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E181=8,VLOOKUP(G181,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E181=111,VLOOKUP(G181,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E181=113,VLOOKUP(G181,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>바이올렛 조각</v>
       </c>
       <c r="I181" s="42">
@@ -13938,8 +13876,8 @@
       <c r="G182" s="42">
         <v>100004</v>
       </c>
-      <c r="H182" s="53" t="str" cm="1">
-        <f t="array" ref="H182">IF(E182=1000,VLOOKUP(G182,[2]item!$A$5:$C$10000,3,FALSE),IF(E182=112,VLOOKUP(G182,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E182=1,"골드",IF(E182=2,"보석",IF(E182=3,"스테미나",IF(E182=4,"호감도",IF(E182=5,"플레이어 경험치",IF(E182=6,"캐릭터 경험치",IF(E182=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E182=8,VLOOKUP(G182,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E182=111,VLOOKUP(G182,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E182=113,VLOOKUP(G182,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H182" s="53" t="str">
+        <f>IF(E182=1000,VLOOKUP(G182,[2]item!$A$5:$C$10000,3,FALSE),IF(E182=112,VLOOKUP(G182,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E182=1,"골드",IF(E182=2,"보석",IF(E182=3,"스테미나",IF(E182=4,"호감도",IF(E182=5,"플레이어 경험치",IF(E182=6,"캐릭터 경험치",IF(E182=7,VLOOKUP(G182,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E182=8,VLOOKUP(G182,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E182=111,VLOOKUP(G182,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E182=113,VLOOKUP(G182,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>데이지 조각</v>
       </c>
       <c r="I182" s="42">
@@ -13989,8 +13927,8 @@
       <c r="G183" s="4">
         <v>100001</v>
       </c>
-      <c r="H183" s="53" t="str" cm="1">
-        <f t="array" ref="H183">IF(E183=1000,VLOOKUP(G183,[2]item!$A$5:$C$10000,3,FALSE),IF(E183=112,VLOOKUP(G183,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E183=1,"골드",IF(E183=2,"보석",IF(E183=3,"스테미나",IF(E183=4,"호감도",IF(E183=5,"플레이어 경험치",IF(E183=6,"캐릭터 경험치",IF(E183=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E183=8,VLOOKUP(G183,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E183=111,VLOOKUP(G183,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E183=113,VLOOKUP(G183,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H183" s="53" t="str">
+        <f>IF(E183=1000,VLOOKUP(G183,[2]item!$A$5:$C$10000,3,FALSE),IF(E183=112,VLOOKUP(G183,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E183=1,"골드",IF(E183=2,"보석",IF(E183=3,"스테미나",IF(E183=4,"호감도",IF(E183=5,"플레이어 경험치",IF(E183=6,"캐릭터 경험치",IF(E183=7,VLOOKUP(G183,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E183=8,VLOOKUP(G183,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E183=111,VLOOKUP(G183,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E183=113,VLOOKUP(G183,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>루시아 조각</v>
       </c>
       <c r="I183" s="4">
@@ -14040,8 +13978,8 @@
       <c r="G184" s="4">
         <v>100002</v>
       </c>
-      <c r="H184" s="53" t="str" cm="1">
-        <f t="array" ref="H184">IF(E184=1000,VLOOKUP(G184,[2]item!$A$5:$C$10000,3,FALSE),IF(E184=112,VLOOKUP(G184,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E184=1,"골드",IF(E184=2,"보석",IF(E184=3,"스테미나",IF(E184=4,"호감도",IF(E184=5,"플레이어 경험치",IF(E184=6,"캐릭터 경험치",IF(E184=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E184=8,VLOOKUP(G184,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E184=111,VLOOKUP(G184,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E184=113,VLOOKUP(G184,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H184" s="53" t="str">
+        <f>IF(E184=1000,VLOOKUP(G184,[2]item!$A$5:$C$10000,3,FALSE),IF(E184=112,VLOOKUP(G184,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E184=1,"골드",IF(E184=2,"보석",IF(E184=3,"스테미나",IF(E184=4,"호감도",IF(E184=5,"플레이어 경험치",IF(E184=6,"캐릭터 경험치",IF(E184=7,VLOOKUP(G184,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E184=8,VLOOKUP(G184,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E184=111,VLOOKUP(G184,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E184=113,VLOOKUP(G184,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>라일라 조각</v>
       </c>
       <c r="I184" s="4">
@@ -14091,8 +14029,8 @@
       <c r="G185" s="4">
         <v>8000</v>
       </c>
-      <c r="H185" s="53" t="str" cm="1">
-        <f t="array" ref="H185">IF(E185=1000,VLOOKUP(G185,[2]item!$A$5:$C$10000,3,FALSE),IF(E185=112,VLOOKUP(G185,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E185=1,"골드",IF(E185=2,"보석",IF(E185=3,"스테미나",IF(E185=4,"호감도",IF(E185=5,"플레이어 경험치",IF(E185=6,"캐릭터 경험치",IF(E185=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E185=8,VLOOKUP(G185,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E185=111,VLOOKUP(G185,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E185=113,VLOOKUP(G185,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H185" s="53" t="str">
+        <f>IF(E185=1000,VLOOKUP(G185,[2]item!$A$5:$C$10000,3,FALSE),IF(E185=112,VLOOKUP(G185,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E185=1,"골드",IF(E185=2,"보석",IF(E185=3,"스테미나",IF(E185=4,"호감도",IF(E185=5,"플레이어 경험치",IF(E185=6,"캐릭터 경험치",IF(E185=7,VLOOKUP(G185,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E185=8,VLOOKUP(G185,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E185=111,VLOOKUP(G185,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E185=113,VLOOKUP(G185,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>골드</v>
       </c>
       <c r="I185" s="4">
@@ -14142,8 +14080,8 @@
       <c r="G186" s="44">
         <v>30</v>
       </c>
-      <c r="H186" s="53" t="str" cm="1">
-        <f t="array" ref="H186">IF(E186=1000,VLOOKUP(G186,[2]item!$A$5:$C$10000,3,FALSE),IF(E186=112,VLOOKUP(G186,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E186=1,"골드",IF(E186=2,"보석",IF(E186=3,"스테미나",IF(E186=4,"호감도",IF(E186=5,"플레이어 경험치",IF(E186=6,"캐릭터 경험치",IF(E186=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E186=8,VLOOKUP(G186,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E186=111,VLOOKUP(G186,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E186=113,VLOOKUP(G186,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H186" s="53" t="str">
+        <f>IF(E186=1000,VLOOKUP(G186,[2]item!$A$5:$C$10000,3,FALSE),IF(E186=112,VLOOKUP(G186,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E186=1,"골드",IF(E186=2,"보석",IF(E186=3,"스테미나",IF(E186=4,"호감도",IF(E186=5,"플레이어 경험치",IF(E186=6,"캐릭터 경험치",IF(E186=7,VLOOKUP(G186,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E186=8,VLOOKUP(G186,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E186=111,VLOOKUP(G186,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E186=113,VLOOKUP(G186,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>보석</v>
       </c>
       <c r="I186" s="44">
@@ -14193,8 +14131,8 @@
       <c r="G187" s="42">
         <v>16</v>
       </c>
-      <c r="H187" s="53" t="str" cm="1">
-        <f t="array" ref="H187">IF(E187=1000,VLOOKUP(G187,[2]item!$A$5:$C$10000,3,FALSE),IF(E187=112,VLOOKUP(G187,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E187=1,"골드",IF(E187=2,"보석",IF(E187=3,"스테미나",IF(E187=4,"호감도",IF(E187=5,"플레이어 경험치",IF(E187=6,"캐릭터 경험치",IF(E187=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E187=8,VLOOKUP(G187,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E187=111,VLOOKUP(G187,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E187=113,VLOOKUP(G187,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H187" s="53" t="str">
+        <f>IF(E187=1000,VLOOKUP(G187,[2]item!$A$5:$C$10000,3,FALSE),IF(E187=112,VLOOKUP(G187,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E187=1,"골드",IF(E187=2,"보석",IF(E187=3,"스테미나",IF(E187=4,"호감도",IF(E187=5,"플레이어 경험치",IF(E187=6,"캐릭터 경험치",IF(E187=7,VLOOKUP(G187,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E187=8,VLOOKUP(G187,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E187=111,VLOOKUP(G187,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E187=113,VLOOKUP(G187,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>전투 보고서(소)</v>
       </c>
       <c r="I187" s="42">
@@ -14244,8 +14182,8 @@
       <c r="G188" s="42">
         <v>6</v>
       </c>
-      <c r="H188" s="53" t="str" cm="1">
-        <f t="array" ref="H188">IF(E188=1000,VLOOKUP(G188,[2]item!$A$5:$C$10000,3,FALSE),IF(E188=112,VLOOKUP(G188,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E188=1,"골드",IF(E188=2,"보석",IF(E188=3,"스테미나",IF(E188=4,"호감도",IF(E188=5,"플레이어 경험치",IF(E188=6,"캐릭터 경험치",IF(E188=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E188=8,VLOOKUP(G188,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E188=111,VLOOKUP(G188,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E188=113,VLOOKUP(G188,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H188" s="53" t="str">
+        <f>IF(E188=1000,VLOOKUP(G188,[2]item!$A$5:$C$10000,3,FALSE),IF(E188=112,VLOOKUP(G188,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E188=1,"골드",IF(E188=2,"보석",IF(E188=3,"스테미나",IF(E188=4,"호감도",IF(E188=5,"플레이어 경험치",IF(E188=6,"캐릭터 경험치",IF(E188=7,VLOOKUP(G188,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E188=8,VLOOKUP(G188,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E188=111,VLOOKUP(G188,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E188=113,VLOOKUP(G188,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>경험치 물약_C(소)</v>
       </c>
       <c r="I188" s="42">
@@ -14295,8 +14233,8 @@
       <c r="G189" s="42">
         <v>6</v>
       </c>
-      <c r="H189" s="53" t="str" cm="1">
-        <f t="array" ref="H189">IF(E189=1000,VLOOKUP(G189,[2]item!$A$5:$C$10000,3,FALSE),IF(E189=112,VLOOKUP(G189,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E189=1,"골드",IF(E189=2,"보석",IF(E189=3,"스테미나",IF(E189=4,"호감도",IF(E189=5,"플레이어 경험치",IF(E189=6,"캐릭터 경험치",IF(E189=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E189=8,VLOOKUP(G189,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E189=111,VLOOKUP(G189,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E189=113,VLOOKUP(G189,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H189" s="53" t="str">
+        <f>IF(E189=1000,VLOOKUP(G189,[2]item!$A$5:$C$10000,3,FALSE),IF(E189=112,VLOOKUP(G189,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E189=1,"골드",IF(E189=2,"보석",IF(E189=3,"스테미나",IF(E189=4,"호감도",IF(E189=5,"플레이어 경험치",IF(E189=6,"캐릭터 경험치",IF(E189=7,VLOOKUP(G189,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E189=8,VLOOKUP(G189,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E189=111,VLOOKUP(G189,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E189=113,VLOOKUP(G189,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>플레이어 경험치</v>
       </c>
       <c r="I189" s="42">
@@ -14346,8 +14284,8 @@
       <c r="G190" s="42">
         <v>6</v>
       </c>
-      <c r="H190" s="53" t="str" cm="1">
-        <f t="array" ref="H190">IF(E190=1000,VLOOKUP(G190,[2]item!$A$5:$C$10000,3,FALSE),IF(E190=112,VLOOKUP(G190,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E190=1,"골드",IF(E190=2,"보석",IF(E190=3,"스테미나",IF(E190=4,"호감도",IF(E190=5,"플레이어 경험치",IF(E190=6,"캐릭터 경험치",IF(E190=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E190=8,VLOOKUP(G190,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E190=111,VLOOKUP(G190,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E190=113,VLOOKUP(G190,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H190" s="53" t="str">
+        <f>IF(E190=1000,VLOOKUP(G190,[2]item!$A$5:$C$10000,3,FALSE),IF(E190=112,VLOOKUP(G190,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E190=1,"골드",IF(E190=2,"보석",IF(E190=3,"스테미나",IF(E190=4,"호감도",IF(E190=5,"플레이어 경험치",IF(E190=6,"캐릭터 경험치",IF(E190=7,VLOOKUP(G190,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E190=8,VLOOKUP(G190,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E190=111,VLOOKUP(G190,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E190=113,VLOOKUP(G190,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>캐릭터 경험치</v>
       </c>
       <c r="I190" s="42">
@@ -14397,8 +14335,8 @@
       <c r="G191" s="42">
         <v>6</v>
       </c>
-      <c r="H191" s="53" t="str" cm="1">
-        <f t="array" ref="H191">IF(E191=1000,VLOOKUP(G191,[2]item!$A$5:$C$10000,3,FALSE),IF(E191=112,VLOOKUP(G191,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E191=1,"골드",IF(E191=2,"보석",IF(E191=3,"스테미나",IF(E191=4,"호감도",IF(E191=5,"플레이어 경험치",IF(E191=6,"캐릭터 경험치",IF(E191=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E191=8,VLOOKUP(G191,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E191=111,VLOOKUP(G191,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E191=113,VLOOKUP(G191,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H191" s="53" t="str">
+        <f>IF(E191=1000,VLOOKUP(G191,[2]item!$A$5:$C$10000,3,FALSE),IF(E191=112,VLOOKUP(G191,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E191=1,"골드",IF(E191=2,"보석",IF(E191=3,"스테미나",IF(E191=4,"호감도",IF(E191=5,"플레이어 경험치",IF(E191=6,"캐릭터 경험치",IF(E191=7,VLOOKUP(G191,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E191=8,VLOOKUP(G191,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E191=111,VLOOKUP(G191,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E191=113,VLOOKUP(G191,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>골드</v>
       </c>
       <c r="I191" s="42">
@@ -14448,8 +14386,8 @@
       <c r="G192" s="42">
         <v>6</v>
       </c>
-      <c r="H192" s="53" t="str" cm="1">
-        <f t="array" ref="H192">IF(E192=1000,VLOOKUP(G192,[2]item!$A$5:$C$10000,3,FALSE),IF(E192=112,VLOOKUP(G192,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E192=1,"골드",IF(E192=2,"보석",IF(E192=3,"스테미나",IF(E192=4,"호감도",IF(E192=5,"플레이어 경험치",IF(E192=6,"캐릭터 경험치",IF(E192=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E192=8,VLOOKUP(G192,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E192=111,VLOOKUP(G192,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E192=113,VLOOKUP(G192,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H192" s="53" t="str">
+        <f>IF(E192=1000,VLOOKUP(G192,[2]item!$A$5:$C$10000,3,FALSE),IF(E192=112,VLOOKUP(G192,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E192=1,"골드",IF(E192=2,"보석",IF(E192=3,"스테미나",IF(E192=4,"호감도",IF(E192=5,"플레이어 경험치",IF(E192=6,"캐릭터 경험치",IF(E192=7,VLOOKUP(G192,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E192=8,VLOOKUP(G192,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E192=111,VLOOKUP(G192,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E192=113,VLOOKUP(G192,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>호감도</v>
       </c>
       <c r="I192" s="42">
@@ -14499,8 +14437,8 @@
       <c r="G193" s="42">
         <v>100001</v>
       </c>
-      <c r="H193" s="53" t="str" cm="1">
-        <f t="array" ref="H193">IF(E193=1000,VLOOKUP(G193,[2]item!$A$5:$C$10000,3,FALSE),IF(E193=112,VLOOKUP(G193,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E193=1,"골드",IF(E193=2,"보석",IF(E193=3,"스테미나",IF(E193=4,"호감도",IF(E193=5,"플레이어 경험치",IF(E193=6,"캐릭터 경험치",IF(E193=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E193=8,VLOOKUP(G193,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E193=111,VLOOKUP(G193,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E193=113,VLOOKUP(G193,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H193" s="53" t="str">
+        <f>IF(E193=1000,VLOOKUP(G193,[2]item!$A$5:$C$10000,3,FALSE),IF(E193=112,VLOOKUP(G193,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E193=1,"골드",IF(E193=2,"보석",IF(E193=3,"스테미나",IF(E193=4,"호감도",IF(E193=5,"플레이어 경험치",IF(E193=6,"캐릭터 경험치",IF(E193=7,VLOOKUP(G193,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E193=8,VLOOKUP(G193,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E193=111,VLOOKUP(G193,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E193=113,VLOOKUP(G193,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>루시아 조각</v>
       </c>
       <c r="I193" s="42">
@@ -14550,8 +14488,8 @@
       <c r="G194" s="42">
         <v>100002</v>
       </c>
-      <c r="H194" s="53" t="str" cm="1">
-        <f t="array" ref="H194">IF(E194=1000,VLOOKUP(G194,[2]item!$A$5:$C$10000,3,FALSE),IF(E194=112,VLOOKUP(G194,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E194=1,"골드",IF(E194=2,"보석",IF(E194=3,"스테미나",IF(E194=4,"호감도",IF(E194=5,"플레이어 경험치",IF(E194=6,"캐릭터 경험치",IF(E194=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E194=8,VLOOKUP(G194,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E194=111,VLOOKUP(G194,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E194=113,VLOOKUP(G194,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H194" s="53" t="str">
+        <f>IF(E194=1000,VLOOKUP(G194,[2]item!$A$5:$C$10000,3,FALSE),IF(E194=112,VLOOKUP(G194,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E194=1,"골드",IF(E194=2,"보석",IF(E194=3,"스테미나",IF(E194=4,"호감도",IF(E194=5,"플레이어 경험치",IF(E194=6,"캐릭터 경험치",IF(E194=7,VLOOKUP(G194,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E194=8,VLOOKUP(G194,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E194=111,VLOOKUP(G194,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E194=113,VLOOKUP(G194,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>라일라 조각</v>
       </c>
       <c r="I194" s="42">
@@ -14601,8 +14539,8 @@
       <c r="G195" s="42">
         <v>100003</v>
       </c>
-      <c r="H195" s="53" t="str" cm="1">
-        <f t="array" ref="H195">IF(E195=1000,VLOOKUP(G195,[2]item!$A$5:$C$10000,3,FALSE),IF(E195=112,VLOOKUP(G195,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E195=1,"골드",IF(E195=2,"보석",IF(E195=3,"스테미나",IF(E195=4,"호감도",IF(E195=5,"플레이어 경험치",IF(E195=6,"캐릭터 경험치",IF(E195=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E195=8,VLOOKUP(G195,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E195=111,VLOOKUP(G195,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E195=113,VLOOKUP(G195,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H195" s="53" t="str">
+        <f>IF(E195=1000,VLOOKUP(G195,[2]item!$A$5:$C$10000,3,FALSE),IF(E195=112,VLOOKUP(G195,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E195=1,"골드",IF(E195=2,"보석",IF(E195=3,"스테미나",IF(E195=4,"호감도",IF(E195=5,"플레이어 경험치",IF(E195=6,"캐릭터 경험치",IF(E195=7,VLOOKUP(G195,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E195=8,VLOOKUP(G195,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E195=111,VLOOKUP(G195,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E195=113,VLOOKUP(G195,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>바이올렛 조각</v>
       </c>
       <c r="I195" s="42">
@@ -14652,8 +14590,8 @@
       <c r="G196" s="42">
         <v>100004</v>
       </c>
-      <c r="H196" s="53" t="str" cm="1">
-        <f t="array" ref="H196">IF(E196=1000,VLOOKUP(G196,[2]item!$A$5:$C$10000,3,FALSE),IF(E196=112,VLOOKUP(G196,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E196=1,"골드",IF(E196=2,"보석",IF(E196=3,"스테미나",IF(E196=4,"호감도",IF(E196=5,"플레이어 경험치",IF(E196=6,"캐릭터 경험치",IF(E196=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E196=8,VLOOKUP(G196,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E196=111,VLOOKUP(G196,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E196=113,VLOOKUP(G196,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H196" s="53" t="str">
+        <f>IF(E196=1000,VLOOKUP(G196,[2]item!$A$5:$C$10000,3,FALSE),IF(E196=112,VLOOKUP(G196,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E196=1,"골드",IF(E196=2,"보석",IF(E196=3,"스테미나",IF(E196=4,"호감도",IF(E196=5,"플레이어 경험치",IF(E196=6,"캐릭터 경험치",IF(E196=7,VLOOKUP(G196,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E196=8,VLOOKUP(G196,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E196=111,VLOOKUP(G196,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E196=113,VLOOKUP(G196,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>데이지 조각</v>
       </c>
       <c r="I196" s="42">
@@ -14703,8 +14641,8 @@
       <c r="G197" s="4">
         <v>100003</v>
       </c>
-      <c r="H197" s="53" t="str" cm="1">
-        <f t="array" ref="H197">IF(E197=1000,VLOOKUP(G197,[2]item!$A$5:$C$10000,3,FALSE),IF(E197=112,VLOOKUP(G197,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E197=1,"골드",IF(E197=2,"보석",IF(E197=3,"스테미나",IF(E197=4,"호감도",IF(E197=5,"플레이어 경험치",IF(E197=6,"캐릭터 경험치",IF(E197=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E197=8,VLOOKUP(G197,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E197=111,VLOOKUP(G197,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E197=113,VLOOKUP(G197,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H197" s="53" t="str">
+        <f>IF(E197=1000,VLOOKUP(G197,[2]item!$A$5:$C$10000,3,FALSE),IF(E197=112,VLOOKUP(G197,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E197=1,"골드",IF(E197=2,"보석",IF(E197=3,"스테미나",IF(E197=4,"호감도",IF(E197=5,"플레이어 경험치",IF(E197=6,"캐릭터 경험치",IF(E197=7,VLOOKUP(G197,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E197=8,VLOOKUP(G197,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E197=111,VLOOKUP(G197,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E197=113,VLOOKUP(G197,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>바이올렛 조각</v>
       </c>
       <c r="I197" s="4">
@@ -14754,8 +14692,8 @@
       <c r="G198" s="4">
         <v>100004</v>
       </c>
-      <c r="H198" s="53" t="str" cm="1">
-        <f t="array" ref="H198">IF(E198=1000,VLOOKUP(G198,[2]item!$A$5:$C$10000,3,FALSE),IF(E198=112,VLOOKUP(G198,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E198=1,"골드",IF(E198=2,"보석",IF(E198=3,"스테미나",IF(E198=4,"호감도",IF(E198=5,"플레이어 경험치",IF(E198=6,"캐릭터 경험치",IF(E198=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E198=8,VLOOKUP(G198,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E198=111,VLOOKUP(G198,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E198=113,VLOOKUP(G198,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H198" s="53" t="str">
+        <f>IF(E198=1000,VLOOKUP(G198,[2]item!$A$5:$C$10000,3,FALSE),IF(E198=112,VLOOKUP(G198,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E198=1,"골드",IF(E198=2,"보석",IF(E198=3,"스테미나",IF(E198=4,"호감도",IF(E198=5,"플레이어 경험치",IF(E198=6,"캐릭터 경험치",IF(E198=7,VLOOKUP(G198,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E198=8,VLOOKUP(G198,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E198=111,VLOOKUP(G198,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E198=113,VLOOKUP(G198,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>데이지 조각</v>
       </c>
       <c r="I198" s="4">
@@ -14805,8 +14743,8 @@
       <c r="G199" s="4">
         <v>8000</v>
       </c>
-      <c r="H199" s="53" t="str" cm="1">
-        <f t="array" ref="H199">IF(E199=1000,VLOOKUP(G199,[2]item!$A$5:$C$10000,3,FALSE),IF(E199=112,VLOOKUP(G199,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E199=1,"골드",IF(E199=2,"보석",IF(E199=3,"스테미나",IF(E199=4,"호감도",IF(E199=5,"플레이어 경험치",IF(E199=6,"캐릭터 경험치",IF(E199=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E199=8,VLOOKUP(G199,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E199=111,VLOOKUP(G199,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E199=113,VLOOKUP(G199,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H199" s="53" t="str">
+        <f>IF(E199=1000,VLOOKUP(G199,[2]item!$A$5:$C$10000,3,FALSE),IF(E199=112,VLOOKUP(G199,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E199=1,"골드",IF(E199=2,"보석",IF(E199=3,"스테미나",IF(E199=4,"호감도",IF(E199=5,"플레이어 경험치",IF(E199=6,"캐릭터 경험치",IF(E199=7,VLOOKUP(G199,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E199=8,VLOOKUP(G199,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E199=111,VLOOKUP(G199,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E199=113,VLOOKUP(G199,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>골드</v>
       </c>
       <c r="I199" s="4">
@@ -14856,8 +14794,8 @@
       <c r="G200" s="44">
         <v>30</v>
       </c>
-      <c r="H200" s="53" t="str" cm="1">
-        <f t="array" ref="H200">IF(E200=1000,VLOOKUP(G200,[2]item!$A$5:$C$10000,3,FALSE),IF(E200=112,VLOOKUP(G200,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E200=1,"골드",IF(E200=2,"보석",IF(E200=3,"스테미나",IF(E200=4,"호감도",IF(E200=5,"플레이어 경험치",IF(E200=6,"캐릭터 경험치",IF(E200=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E200=8,VLOOKUP(G200,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E200=111,VLOOKUP(G200,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E200=113,VLOOKUP(G200,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H200" s="53" t="str">
+        <f>IF(E200=1000,VLOOKUP(G200,[2]item!$A$5:$C$10000,3,FALSE),IF(E200=112,VLOOKUP(G200,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E200=1,"골드",IF(E200=2,"보석",IF(E200=3,"스테미나",IF(E200=4,"호감도",IF(E200=5,"플레이어 경험치",IF(E200=6,"캐릭터 경험치",IF(E200=7,VLOOKUP(G200,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E200=8,VLOOKUP(G200,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E200=111,VLOOKUP(G200,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E200=113,VLOOKUP(G200,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>보석</v>
       </c>
       <c r="I200" s="44">
@@ -14907,8 +14845,8 @@
       <c r="G201" s="42">
         <v>16</v>
       </c>
-      <c r="H201" s="53" t="str" cm="1">
-        <f t="array" ref="H201">IF(E201=1000,VLOOKUP(G201,[2]item!$A$5:$C$10000,3,FALSE),IF(E201=112,VLOOKUP(G201,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E201=1,"골드",IF(E201=2,"보석",IF(E201=3,"스테미나",IF(E201=4,"호감도",IF(E201=5,"플레이어 경험치",IF(E201=6,"캐릭터 경험치",IF(E201=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E201=8,VLOOKUP(G201,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E201=111,VLOOKUP(G201,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E201=113,VLOOKUP(G201,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H201" s="53" t="str">
+        <f>IF(E201=1000,VLOOKUP(G201,[2]item!$A$5:$C$10000,3,FALSE),IF(E201=112,VLOOKUP(G201,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E201=1,"골드",IF(E201=2,"보석",IF(E201=3,"스테미나",IF(E201=4,"호감도",IF(E201=5,"플레이어 경험치",IF(E201=6,"캐릭터 경험치",IF(E201=7,VLOOKUP(G201,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E201=8,VLOOKUP(G201,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E201=111,VLOOKUP(G201,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E201=113,VLOOKUP(G201,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>전투 보고서(소)</v>
       </c>
       <c r="I201" s="42">
@@ -14958,8 +14896,8 @@
       <c r="G202" s="42">
         <v>6</v>
       </c>
-      <c r="H202" s="53" t="str" cm="1">
-        <f t="array" ref="H202">IF(E202=1000,VLOOKUP(G202,[2]item!$A$5:$C$10000,3,FALSE),IF(E202=112,VLOOKUP(G202,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E202=1,"골드",IF(E202=2,"보석",IF(E202=3,"스테미나",IF(E202=4,"호감도",IF(E202=5,"플레이어 경험치",IF(E202=6,"캐릭터 경험치",IF(E202=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E202=8,VLOOKUP(G202,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E202=111,VLOOKUP(G202,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E202=113,VLOOKUP(G202,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H202" s="53" t="str">
+        <f>IF(E202=1000,VLOOKUP(G202,[2]item!$A$5:$C$10000,3,FALSE),IF(E202=112,VLOOKUP(G202,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E202=1,"골드",IF(E202=2,"보석",IF(E202=3,"스테미나",IF(E202=4,"호감도",IF(E202=5,"플레이어 경험치",IF(E202=6,"캐릭터 경험치",IF(E202=7,VLOOKUP(G202,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E202=8,VLOOKUP(G202,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E202=111,VLOOKUP(G202,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E202=113,VLOOKUP(G202,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>경험치 물약_C(소)</v>
       </c>
       <c r="I202" s="42">
@@ -15009,8 +14947,8 @@
       <c r="G203" s="42">
         <v>6</v>
       </c>
-      <c r="H203" s="53" t="str" cm="1">
-        <f t="array" ref="H203">IF(E203=1000,VLOOKUP(G203,[2]item!$A$5:$C$10000,3,FALSE),IF(E203=112,VLOOKUP(G203,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E203=1,"골드",IF(E203=2,"보석",IF(E203=3,"스테미나",IF(E203=4,"호감도",IF(E203=5,"플레이어 경험치",IF(E203=6,"캐릭터 경험치",IF(E203=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E203=8,VLOOKUP(G203,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E203=111,VLOOKUP(G203,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E203=113,VLOOKUP(G203,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H203" s="53" t="str">
+        <f>IF(E203=1000,VLOOKUP(G203,[2]item!$A$5:$C$10000,3,FALSE),IF(E203=112,VLOOKUP(G203,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E203=1,"골드",IF(E203=2,"보석",IF(E203=3,"스테미나",IF(E203=4,"호감도",IF(E203=5,"플레이어 경험치",IF(E203=6,"캐릭터 경험치",IF(E203=7,VLOOKUP(G203,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E203=8,VLOOKUP(G203,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E203=111,VLOOKUP(G203,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E203=113,VLOOKUP(G203,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>플레이어 경험치</v>
       </c>
       <c r="I203" s="42">
@@ -15060,8 +14998,8 @@
       <c r="G204" s="42">
         <v>6</v>
       </c>
-      <c r="H204" s="53" t="str" cm="1">
-        <f t="array" ref="H204">IF(E204=1000,VLOOKUP(G204,[2]item!$A$5:$C$10000,3,FALSE),IF(E204=112,VLOOKUP(G204,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E204=1,"골드",IF(E204=2,"보석",IF(E204=3,"스테미나",IF(E204=4,"호감도",IF(E204=5,"플레이어 경험치",IF(E204=6,"캐릭터 경험치",IF(E204=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E204=8,VLOOKUP(G204,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E204=111,VLOOKUP(G204,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E204=113,VLOOKUP(G204,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H204" s="53" t="str">
+        <f>IF(E204=1000,VLOOKUP(G204,[2]item!$A$5:$C$10000,3,FALSE),IF(E204=112,VLOOKUP(G204,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E204=1,"골드",IF(E204=2,"보석",IF(E204=3,"스테미나",IF(E204=4,"호감도",IF(E204=5,"플레이어 경험치",IF(E204=6,"캐릭터 경험치",IF(E204=7,VLOOKUP(G204,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E204=8,VLOOKUP(G204,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E204=111,VLOOKUP(G204,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E204=113,VLOOKUP(G204,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>캐릭터 경험치</v>
       </c>
       <c r="I204" s="42">
@@ -15111,8 +15049,8 @@
       <c r="G205" s="42">
         <v>6</v>
       </c>
-      <c r="H205" s="53" t="str" cm="1">
-        <f t="array" ref="H205">IF(E205=1000,VLOOKUP(G205,[2]item!$A$5:$C$10000,3,FALSE),IF(E205=112,VLOOKUP(G205,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E205=1,"골드",IF(E205=2,"보석",IF(E205=3,"스테미나",IF(E205=4,"호감도",IF(E205=5,"플레이어 경험치",IF(E205=6,"캐릭터 경험치",IF(E205=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E205=8,VLOOKUP(G205,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E205=111,VLOOKUP(G205,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E205=113,VLOOKUP(G205,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H205" s="53" t="str">
+        <f>IF(E205=1000,VLOOKUP(G205,[2]item!$A$5:$C$10000,3,FALSE),IF(E205=112,VLOOKUP(G205,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E205=1,"골드",IF(E205=2,"보석",IF(E205=3,"스테미나",IF(E205=4,"호감도",IF(E205=5,"플레이어 경험치",IF(E205=6,"캐릭터 경험치",IF(E205=7,VLOOKUP(G205,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E205=8,VLOOKUP(G205,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E205=111,VLOOKUP(G205,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E205=113,VLOOKUP(G205,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>골드</v>
       </c>
       <c r="I205" s="42">
@@ -15162,8 +15100,8 @@
       <c r="G206" s="42">
         <v>6</v>
       </c>
-      <c r="H206" s="53" t="str" cm="1">
-        <f t="array" ref="H206">IF(E206=1000,VLOOKUP(G206,[2]item!$A$5:$C$10000,3,FALSE),IF(E206=112,VLOOKUP(G206,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E206=1,"골드",IF(E206=2,"보석",IF(E206=3,"스테미나",IF(E206=4,"호감도",IF(E206=5,"플레이어 경험치",IF(E206=6,"캐릭터 경험치",IF(E206=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E206=8,VLOOKUP(G206,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E206=111,VLOOKUP(G206,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E206=113,VLOOKUP(G206,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H206" s="53" t="str">
+        <f>IF(E206=1000,VLOOKUP(G206,[2]item!$A$5:$C$10000,3,FALSE),IF(E206=112,VLOOKUP(G206,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E206=1,"골드",IF(E206=2,"보석",IF(E206=3,"스테미나",IF(E206=4,"호감도",IF(E206=5,"플레이어 경험치",IF(E206=6,"캐릭터 경험치",IF(E206=7,VLOOKUP(G206,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E206=8,VLOOKUP(G206,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E206=111,VLOOKUP(G206,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E206=113,VLOOKUP(G206,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>호감도</v>
       </c>
       <c r="I206" s="42">
@@ -15213,8 +15151,8 @@
       <c r="G207" s="42">
         <v>100001</v>
       </c>
-      <c r="H207" s="53" t="str" cm="1">
-        <f t="array" ref="H207">IF(E207=1000,VLOOKUP(G207,[2]item!$A$5:$C$10000,3,FALSE),IF(E207=112,VLOOKUP(G207,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E207=1,"골드",IF(E207=2,"보석",IF(E207=3,"스테미나",IF(E207=4,"호감도",IF(E207=5,"플레이어 경험치",IF(E207=6,"캐릭터 경험치",IF(E207=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E207=8,VLOOKUP(G207,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E207=111,VLOOKUP(G207,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E207=113,VLOOKUP(G207,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H207" s="53" t="str">
+        <f>IF(E207=1000,VLOOKUP(G207,[2]item!$A$5:$C$10000,3,FALSE),IF(E207=112,VLOOKUP(G207,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E207=1,"골드",IF(E207=2,"보석",IF(E207=3,"스테미나",IF(E207=4,"호감도",IF(E207=5,"플레이어 경험치",IF(E207=6,"캐릭터 경험치",IF(E207=7,VLOOKUP(G207,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E207=8,VLOOKUP(G207,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E207=111,VLOOKUP(G207,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E207=113,VLOOKUP(G207,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>루시아 조각</v>
       </c>
       <c r="I207" s="42">
@@ -15264,8 +15202,8 @@
       <c r="G208" s="42">
         <v>100002</v>
       </c>
-      <c r="H208" s="53" t="str" cm="1">
-        <f t="array" ref="H208">IF(E208=1000,VLOOKUP(G208,[2]item!$A$5:$C$10000,3,FALSE),IF(E208=112,VLOOKUP(G208,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E208=1,"골드",IF(E208=2,"보석",IF(E208=3,"스테미나",IF(E208=4,"호감도",IF(E208=5,"플레이어 경험치",IF(E208=6,"캐릭터 경험치",IF(E208=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E208=8,VLOOKUP(G208,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E208=111,VLOOKUP(G208,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E208=113,VLOOKUP(G208,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H208" s="53" t="str">
+        <f>IF(E208=1000,VLOOKUP(G208,[2]item!$A$5:$C$10000,3,FALSE),IF(E208=112,VLOOKUP(G208,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E208=1,"골드",IF(E208=2,"보석",IF(E208=3,"스테미나",IF(E208=4,"호감도",IF(E208=5,"플레이어 경험치",IF(E208=6,"캐릭터 경험치",IF(E208=7,VLOOKUP(G208,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E208=8,VLOOKUP(G208,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E208=111,VLOOKUP(G208,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E208=113,VLOOKUP(G208,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>라일라 조각</v>
       </c>
       <c r="I208" s="42">
@@ -15315,8 +15253,8 @@
       <c r="G209" s="42">
         <v>100003</v>
       </c>
-      <c r="H209" s="53" t="str" cm="1">
-        <f t="array" ref="H209">IF(E209=1000,VLOOKUP(G209,[2]item!$A$5:$C$10000,3,FALSE),IF(E209=112,VLOOKUP(G209,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E209=1,"골드",IF(E209=2,"보석",IF(E209=3,"스테미나",IF(E209=4,"호감도",IF(E209=5,"플레이어 경험치",IF(E209=6,"캐릭터 경험치",IF(E209=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E209=8,VLOOKUP(G209,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E209=111,VLOOKUP(G209,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E209=113,VLOOKUP(G209,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H209" s="53" t="str">
+        <f>IF(E209=1000,VLOOKUP(G209,[2]item!$A$5:$C$10000,3,FALSE),IF(E209=112,VLOOKUP(G209,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E209=1,"골드",IF(E209=2,"보석",IF(E209=3,"스테미나",IF(E209=4,"호감도",IF(E209=5,"플레이어 경험치",IF(E209=6,"캐릭터 경험치",IF(E209=7,VLOOKUP(G209,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E209=8,VLOOKUP(G209,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E209=111,VLOOKUP(G209,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E209=113,VLOOKUP(G209,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>바이올렛 조각</v>
       </c>
       <c r="I209" s="42">
@@ -15366,8 +15304,8 @@
       <c r="G210" s="42">
         <v>100004</v>
       </c>
-      <c r="H210" s="53" t="str" cm="1">
-        <f t="array" ref="H210">IF(E210=1000,VLOOKUP(G210,[2]item!$A$5:$C$10000,3,FALSE),IF(E210=112,VLOOKUP(G210,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E210=1,"골드",IF(E210=2,"보석",IF(E210=3,"스테미나",IF(E210=4,"호감도",IF(E210=5,"플레이어 경험치",IF(E210=6,"캐릭터 경험치",IF(E210=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E210=8,VLOOKUP(G210,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E210=111,VLOOKUP(G210,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E210=113,VLOOKUP(G210,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H210" s="53" t="str">
+        <f>IF(E210=1000,VLOOKUP(G210,[2]item!$A$5:$C$10000,3,FALSE),IF(E210=112,VLOOKUP(G210,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E210=1,"골드",IF(E210=2,"보석",IF(E210=3,"스테미나",IF(E210=4,"호감도",IF(E210=5,"플레이어 경험치",IF(E210=6,"캐릭터 경험치",IF(E210=7,VLOOKUP(G210,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E210=8,VLOOKUP(G210,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E210=111,VLOOKUP(G210,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E210=113,VLOOKUP(G210,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>데이지 조각</v>
       </c>
       <c r="I210" s="42">
@@ -15417,8 +15355,8 @@
       <c r="G211" s="4">
         <v>100005</v>
       </c>
-      <c r="H211" s="53" t="str" cm="1">
-        <f t="array" ref="H211">IF(E211=1000,VLOOKUP(G211,[2]item!$A$5:$C$10000,3,FALSE),IF(E211=112,VLOOKUP(G211,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E211=1,"골드",IF(E211=2,"보석",IF(E211=3,"스테미나",IF(E211=4,"호감도",IF(E211=5,"플레이어 경험치",IF(E211=6,"캐릭터 경험치",IF(E211=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E211=8,VLOOKUP(G211,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E211=111,VLOOKUP(G211,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E211=113,VLOOKUP(G211,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H211" s="53" t="str">
+        <f>IF(E211=1000,VLOOKUP(G211,[2]item!$A$5:$C$10000,3,FALSE),IF(E211=112,VLOOKUP(G211,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E211=1,"골드",IF(E211=2,"보석",IF(E211=3,"스테미나",IF(E211=4,"호감도",IF(E211=5,"플레이어 경험치",IF(E211=6,"캐릭터 경험치",IF(E211=7,VLOOKUP(G211,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E211=8,VLOOKUP(G211,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E211=111,VLOOKUP(G211,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E211=113,VLOOKUP(G211,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>클레어 조각</v>
       </c>
       <c r="I211" s="4">
@@ -15468,8 +15406,8 @@
       <c r="G212" s="4">
         <v>100006</v>
       </c>
-      <c r="H212" s="53" t="str" cm="1">
-        <f t="array" ref="H212">IF(E212=1000,VLOOKUP(G212,[2]item!$A$5:$C$10000,3,FALSE),IF(E212=112,VLOOKUP(G212,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E212=1,"골드",IF(E212=2,"보석",IF(E212=3,"스테미나",IF(E212=4,"호감도",IF(E212=5,"플레이어 경험치",IF(E212=6,"캐릭터 경험치",IF(E212=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E212=8,VLOOKUP(G212,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E212=111,VLOOKUP(G212,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E212=113,VLOOKUP(G212,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H212" s="53" t="str">
+        <f>IF(E212=1000,VLOOKUP(G212,[2]item!$A$5:$C$10000,3,FALSE),IF(E212=112,VLOOKUP(G212,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E212=1,"골드",IF(E212=2,"보석",IF(E212=3,"스테미나",IF(E212=4,"호감도",IF(E212=5,"플레이어 경험치",IF(E212=6,"캐릭터 경험치",IF(E212=7,VLOOKUP(G212,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E212=8,VLOOKUP(G212,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E212=111,VLOOKUP(G212,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E212=113,VLOOKUP(G212,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>에일린 조각</v>
       </c>
       <c r="I212" s="4">
@@ -15519,8 +15457,8 @@
       <c r="G213" s="4">
         <v>8000</v>
       </c>
-      <c r="H213" s="53" t="str" cm="1">
-        <f t="array" ref="H213">IF(E213=1000,VLOOKUP(G213,[2]item!$A$5:$C$10000,3,FALSE),IF(E213=112,VLOOKUP(G213,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E213=1,"골드",IF(E213=2,"보석",IF(E213=3,"스테미나",IF(E213=4,"호감도",IF(E213=5,"플레이어 경험치",IF(E213=6,"캐릭터 경험치",IF(E213=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E213=8,VLOOKUP(G213,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E213=111,VLOOKUP(G213,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E213=113,VLOOKUP(G213,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H213" s="53" t="str">
+        <f>IF(E213=1000,VLOOKUP(G213,[2]item!$A$5:$C$10000,3,FALSE),IF(E213=112,VLOOKUP(G213,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E213=1,"골드",IF(E213=2,"보석",IF(E213=3,"스테미나",IF(E213=4,"호감도",IF(E213=5,"플레이어 경험치",IF(E213=6,"캐릭터 경험치",IF(E213=7,VLOOKUP(G213,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E213=8,VLOOKUP(G213,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E213=111,VLOOKUP(G213,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E213=113,VLOOKUP(G213,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>골드</v>
       </c>
       <c r="I213" s="4">
@@ -15546,106 +15484,106 @@
       <c r="O213" s="4"/>
     </row>
     <row r="214" spans="1:15" ht="17.25" thickBot="1">
-      <c r="A214" s="68">
+      <c r="A214" s="56">
         <v>10210</v>
       </c>
-      <c r="B214" s="69">
+      <c r="B214" s="57">
         <v>12001015</v>
       </c>
-      <c r="C214" s="69" t="str">
+      <c r="C214" s="57" t="str">
         <f t="shared" si="29"/>
         <v>메인 스테이지</v>
       </c>
-      <c r="D214" s="69" t="str">
+      <c r="D214" s="57" t="str">
         <f t="shared" si="30"/>
         <v>별 보상</v>
       </c>
-      <c r="E214" s="69">
+      <c r="E214" s="57">
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F214,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>2</v>
       </c>
-      <c r="F214" s="70" t="s">
+      <c r="F214" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="G214" s="69">
+      <c r="G214" s="57">
         <v>100</v>
       </c>
-      <c r="H214" s="71" t="str" cm="1">
-        <f t="array" ref="H214">IF(E214=1000,VLOOKUP(G214,[2]item!$A$5:$C$10000,3,FALSE),IF(E214=112,VLOOKUP(G214,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E214=1,"골드",IF(E214=2,"보석",IF(E214=3,"스테미나",IF(E214=4,"호감도",IF(E214=5,"플레이어 경험치",IF(E214=6,"캐릭터 경험치",IF(E214=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E214=8,VLOOKUP(G214,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E214=111,VLOOKUP(G214,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E214=113,VLOOKUP(G214,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H214" s="53" t="str">
+        <f>IF(E214=1000,VLOOKUP(G214,[2]item!$A$5:$C$10000,3,FALSE),IF(E214=112,VLOOKUP(G214,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E214=1,"골드",IF(E214=2,"보석",IF(E214=3,"스테미나",IF(E214=4,"호감도",IF(E214=5,"플레이어 경험치",IF(E214=6,"캐릭터 경험치",IF(E214=7,VLOOKUP(G214,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E214=8,VLOOKUP(G214,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E214=111,VLOOKUP(G214,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E214=113,VLOOKUP(G214,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>보석</v>
       </c>
-      <c r="I214" s="69">
+      <c r="I214" s="57">
         <v>100</v>
       </c>
-      <c r="J214" s="69">
+      <c r="J214" s="57">
         <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K214,'!참조_ENUM'!$K$3:$K$5,0))</f>
         <v>1</v>
       </c>
-      <c r="K214" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="L214" s="69">
-        <v>1000000</v>
-      </c>
-      <c r="M214" s="69" t="b">
+      <c r="K214" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="L214" s="57">
+        <v>1000000</v>
+      </c>
+      <c r="M214" s="57" t="b">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="N214" s="69">
+      <c r="N214" s="57">
         <v>4</v>
       </c>
-      <c r="O214" s="72"/>
+      <c r="O214" s="59"/>
     </row>
     <row r="215" spans="1:15">
-      <c r="A215" s="65">
+      <c r="A215" s="54">
         <v>10211</v>
       </c>
-      <c r="B215" s="65">
+      <c r="B215" s="54">
         <v>30100101</v>
       </c>
-      <c r="C215" s="65" t="str">
+      <c r="C215" s="54" t="str">
         <f t="shared" si="29"/>
         <v>보스전</v>
       </c>
-      <c r="D215" s="65" t="str">
+      <c r="D215" s="54" t="str">
         <f t="shared" si="30"/>
         <v>통상</v>
       </c>
-      <c r="E215" s="65">
+      <c r="E215" s="54">
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F215,'!참조_ENUM'!$G$3:$G$42,0))</f>
         <v>1000</v>
       </c>
-      <c r="F215" s="66" t="s">
+      <c r="F215" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="G215" s="65">
+      <c r="G215" s="54">
         <v>16</v>
       </c>
-      <c r="H215" s="67" t="str" cm="1">
-        <f t="array" ref="H215">IF(E215=1000,VLOOKUP(G215,[2]item!$A$5:$C$10000,3,FALSE),IF(E215=112,VLOOKUP(G215,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E215=1,"골드",IF(E215=2,"보석",IF(E215=3,"스테미나",IF(E215=4,"호감도",IF(E215=5,"플레이어 경험치",IF(E215=6,"캐릭터 경험치",IF(E215=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E215=8,VLOOKUP(G215,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E215=111,VLOOKUP(G215,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E215=113,VLOOKUP(G215,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H215" s="53" t="str">
+        <f>IF(E215=1000,VLOOKUP(G215,[2]item!$A$5:$C$10000,3,FALSE),IF(E215=112,VLOOKUP(G215,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E215=1,"골드",IF(E215=2,"보석",IF(E215=3,"스테미나",IF(E215=4,"호감도",IF(E215=5,"플레이어 경험치",IF(E215=6,"캐릭터 경험치",IF(E215=7,VLOOKUP(G215,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E215=8,VLOOKUP(G215,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E215=111,VLOOKUP(G215,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E215=113,VLOOKUP(G215,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>전투 보고서(소)</v>
       </c>
-      <c r="I215" s="65">
+      <c r="I215" s="54">
         <v>20</v>
       </c>
-      <c r="J215" s="65">
+      <c r="J215" s="54">
         <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K215,'!참조_ENUM'!$K$3:$K$5,0))</f>
         <v>1</v>
       </c>
-      <c r="K215" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="L215" s="65">
-        <v>1000000</v>
-      </c>
-      <c r="M215" s="65" t="b">
+      <c r="K215" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="L215" s="54">
+        <v>1000000</v>
+      </c>
+      <c r="M215" s="54" t="b">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="N215" s="65">
-        <v>1</v>
-      </c>
-      <c r="O215" s="65"/>
+      <c r="N215" s="54">
+        <v>1</v>
+      </c>
+      <c r="O215" s="54"/>
     </row>
     <row r="216" spans="1:15">
       <c r="A216" s="42">
@@ -15672,8 +15610,8 @@
       <c r="G216" s="42">
         <v>6</v>
       </c>
-      <c r="H216" s="53" t="str" cm="1">
-        <f t="array" ref="H216">IF(E216=1000,VLOOKUP(G216,[2]item!$A$5:$C$10000,3,FALSE),IF(E216=112,VLOOKUP(G216,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E216=1,"골드",IF(E216=2,"보석",IF(E216=3,"스테미나",IF(E216=4,"호감도",IF(E216=5,"플레이어 경험치",IF(E216=6,"캐릭터 경험치",IF(E216=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E216=8,VLOOKUP(G216,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E216=111,VLOOKUP(G216,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E216=113,VLOOKUP(G216,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H216" s="53" t="str">
+        <f>IF(E216=1000,VLOOKUP(G216,[2]item!$A$5:$C$10000,3,FALSE),IF(E216=112,VLOOKUP(G216,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E216=1,"골드",IF(E216=2,"보석",IF(E216=3,"스테미나",IF(E216=4,"호감도",IF(E216=5,"플레이어 경험치",IF(E216=6,"캐릭터 경험치",IF(E216=7,VLOOKUP(G216,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E216=8,VLOOKUP(G216,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E216=111,VLOOKUP(G216,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E216=113,VLOOKUP(G216,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>경험치 물약_C(소)</v>
       </c>
       <c r="I216" s="42">
@@ -15723,8 +15661,8 @@
       <c r="G217" s="42">
         <v>6</v>
       </c>
-      <c r="H217" s="53" t="str" cm="1">
-        <f t="array" ref="H217">IF(E217=1000,VLOOKUP(G217,[2]item!$A$5:$C$10000,3,FALSE),IF(E217=112,VLOOKUP(G217,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E217=1,"골드",IF(E217=2,"보석",IF(E217=3,"스테미나",IF(E217=4,"호감도",IF(E217=5,"플레이어 경험치",IF(E217=6,"캐릭터 경험치",IF(E217=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E217=8,VLOOKUP(G217,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E217=111,VLOOKUP(G217,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E217=113,VLOOKUP(G217,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H217" s="53" t="str">
+        <f>IF(E217=1000,VLOOKUP(G217,[2]item!$A$5:$C$10000,3,FALSE),IF(E217=112,VLOOKUP(G217,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E217=1,"골드",IF(E217=2,"보석",IF(E217=3,"스테미나",IF(E217=4,"호감도",IF(E217=5,"플레이어 경험치",IF(E217=6,"캐릭터 경험치",IF(E217=7,VLOOKUP(G217,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E217=8,VLOOKUP(G217,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E217=111,VLOOKUP(G217,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E217=113,VLOOKUP(G217,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>플레이어 경험치</v>
       </c>
       <c r="I217" s="42">
@@ -15774,8 +15712,8 @@
       <c r="G218" s="42">
         <v>6</v>
       </c>
-      <c r="H218" s="53" t="str" cm="1">
-        <f t="array" ref="H218">IF(E218=1000,VLOOKUP(G218,[2]item!$A$5:$C$10000,3,FALSE),IF(E218=112,VLOOKUP(G218,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E218=1,"골드",IF(E218=2,"보석",IF(E218=3,"스테미나",IF(E218=4,"호감도",IF(E218=5,"플레이어 경험치",IF(E218=6,"캐릭터 경험치",IF(E218=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E218=8,VLOOKUP(G218,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E218=111,VLOOKUP(G218,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E218=113,VLOOKUP(G218,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H218" s="53" t="str">
+        <f>IF(E218=1000,VLOOKUP(G218,[2]item!$A$5:$C$10000,3,FALSE),IF(E218=112,VLOOKUP(G218,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E218=1,"골드",IF(E218=2,"보석",IF(E218=3,"스테미나",IF(E218=4,"호감도",IF(E218=5,"플레이어 경험치",IF(E218=6,"캐릭터 경험치",IF(E218=7,VLOOKUP(G218,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E218=8,VLOOKUP(G218,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E218=111,VLOOKUP(G218,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E218=113,VLOOKUP(G218,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>캐릭터 경험치</v>
       </c>
       <c r="I218" s="42">
@@ -15825,8 +15763,8 @@
       <c r="G219" s="42">
         <v>6</v>
       </c>
-      <c r="H219" s="53" t="str" cm="1">
-        <f t="array" ref="H219">IF(E219=1000,VLOOKUP(G219,[2]item!$A$5:$C$10000,3,FALSE),IF(E219=112,VLOOKUP(G219,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E219=1,"골드",IF(E219=2,"보석",IF(E219=3,"스테미나",IF(E219=4,"호감도",IF(E219=5,"플레이어 경험치",IF(E219=6,"캐릭터 경험치",IF(E219=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E219=8,VLOOKUP(G219,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E219=111,VLOOKUP(G219,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E219=113,VLOOKUP(G219,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H219" s="53" t="str">
+        <f>IF(E219=1000,VLOOKUP(G219,[2]item!$A$5:$C$10000,3,FALSE),IF(E219=112,VLOOKUP(G219,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E219=1,"골드",IF(E219=2,"보석",IF(E219=3,"스테미나",IF(E219=4,"호감도",IF(E219=5,"플레이어 경험치",IF(E219=6,"캐릭터 경험치",IF(E219=7,VLOOKUP(G219,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E219=8,VLOOKUP(G219,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E219=111,VLOOKUP(G219,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E219=113,VLOOKUP(G219,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>골드</v>
       </c>
       <c r="I219" s="42">
@@ -15876,8 +15814,8 @@
       <c r="G220" s="42">
         <v>6</v>
       </c>
-      <c r="H220" s="53" t="str" cm="1">
-        <f t="array" ref="H220">IF(E220=1000,VLOOKUP(G220,[2]item!$A$5:$C$10000,3,FALSE),IF(E220=112,VLOOKUP(G220,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E220=1,"골드",IF(E220=2,"보석",IF(E220=3,"스테미나",IF(E220=4,"호감도",IF(E220=5,"플레이어 경험치",IF(E220=6,"캐릭터 경험치",IF(E220=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E220=8,VLOOKUP(G220,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E220=111,VLOOKUP(G220,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E220=113,VLOOKUP(G220,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H220" s="53" t="str">
+        <f>IF(E220=1000,VLOOKUP(G220,[2]item!$A$5:$C$10000,3,FALSE),IF(E220=112,VLOOKUP(G220,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E220=1,"골드",IF(E220=2,"보석",IF(E220=3,"스테미나",IF(E220=4,"호감도",IF(E220=5,"플레이어 경험치",IF(E220=6,"캐릭터 경험치",IF(E220=7,VLOOKUP(G220,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E220=8,VLOOKUP(G220,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E220=111,VLOOKUP(G220,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E220=113,VLOOKUP(G220,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>호감도</v>
       </c>
       <c r="I220" s="42">
@@ -15927,8 +15865,8 @@
       <c r="G221" s="42">
         <v>100009</v>
       </c>
-      <c r="H221" s="53" t="str" cm="1">
-        <f t="array" ref="H221">IF(E221=1000,VLOOKUP(G221,[2]item!$A$5:$C$10000,3,FALSE),IF(E221=112,VLOOKUP(G221,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E221=1,"골드",IF(E221=2,"보석",IF(E221=3,"스테미나",IF(E221=4,"호감도",IF(E221=5,"플레이어 경험치",IF(E221=6,"캐릭터 경험치",IF(E221=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E221=8,VLOOKUP(G221,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E221=111,VLOOKUP(G221,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E221=113,VLOOKUP(G221,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H221" s="53" t="str">
+        <f>IF(E221=1000,VLOOKUP(G221,[2]item!$A$5:$C$10000,3,FALSE),IF(E221=112,VLOOKUP(G221,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E221=1,"골드",IF(E221=2,"보석",IF(E221=3,"스테미나",IF(E221=4,"호감도",IF(E221=5,"플레이어 경험치",IF(E221=6,"캐릭터 경험치",IF(E221=7,VLOOKUP(G221,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E221=8,VLOOKUP(G221,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E221=111,VLOOKUP(G221,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E221=113,VLOOKUP(G221,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>엘리자베스 조각</v>
       </c>
       <c r="I221" s="42">
@@ -15978,8 +15916,8 @@
       <c r="G222" s="4">
         <v>100009</v>
       </c>
-      <c r="H222" s="53" t="str" cm="1">
-        <f t="array" ref="H222">IF(E222=1000,VLOOKUP(G222,[2]item!$A$5:$C$10000,3,FALSE),IF(E222=112,VLOOKUP(G222,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E222=1,"골드",IF(E222=2,"보석",IF(E222=3,"스테미나",IF(E222=4,"호감도",IF(E222=5,"플레이어 경험치",IF(E222=6,"캐릭터 경험치",IF(E222=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E222=8,VLOOKUP(G222,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E222=111,VLOOKUP(G222,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E222=113,VLOOKUP(G222,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H222" s="53" t="str">
+        <f>IF(E222=1000,VLOOKUP(G222,[2]item!$A$5:$C$10000,3,FALSE),IF(E222=112,VLOOKUP(G222,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E222=1,"골드",IF(E222=2,"보석",IF(E222=3,"스테미나",IF(E222=4,"호감도",IF(E222=5,"플레이어 경험치",IF(E222=6,"캐릭터 경험치",IF(E222=7,VLOOKUP(G222,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E222=8,VLOOKUP(G222,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E222=111,VLOOKUP(G222,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E222=113,VLOOKUP(G222,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>엘리자베스 조각</v>
       </c>
       <c r="I222" s="4">
@@ -16029,8 +15967,8 @@
       <c r="G223" s="4">
         <v>8000</v>
       </c>
-      <c r="H223" s="53" t="str" cm="1">
-        <f t="array" ref="H223">IF(E223=1000,VLOOKUP(G223,[2]item!$A$5:$C$10000,3,FALSE),IF(E223=112,VLOOKUP(G223,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E223=1,"골드",IF(E223=2,"보석",IF(E223=3,"스테미나",IF(E223=4,"호감도",IF(E223=5,"플레이어 경험치",IF(E223=6,"캐릭터 경험치",IF(E223=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E223=8,VLOOKUP(G223,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E223=111,VLOOKUP(G223,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E223=113,VLOOKUP(G223,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H223" s="53" t="str">
+        <f>IF(E223=1000,VLOOKUP(G223,[2]item!$A$5:$C$10000,3,FALSE),IF(E223=112,VLOOKUP(G223,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E223=1,"골드",IF(E223=2,"보석",IF(E223=3,"스테미나",IF(E223=4,"호감도",IF(E223=5,"플레이어 경험치",IF(E223=6,"캐릭터 경험치",IF(E223=7,VLOOKUP(G223,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E223=8,VLOOKUP(G223,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E223=111,VLOOKUP(G223,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E223=113,VLOOKUP(G223,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>골드</v>
       </c>
       <c r="I223" s="4">
@@ -16080,8 +16018,8 @@
       <c r="G224" s="44">
         <v>100</v>
       </c>
-      <c r="H224" s="53" t="str" cm="1">
-        <f t="array" ref="H224">IF(E224=1000,VLOOKUP(G224,[2]item!$A$5:$C$10000,3,FALSE),IF(E224=112,VLOOKUP(G224,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E224=1,"골드",IF(E224=2,"보석",IF(E224=3,"스테미나",IF(E224=4,"호감도",IF(E224=5,"플레이어 경험치",IF(E224=6,"캐릭터 경험치",IF(E224=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E224=8,VLOOKUP(G224,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E224=111,VLOOKUP(G224,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E224=113,VLOOKUP(G224,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H224" s="53" t="str">
+        <f>IF(E224=1000,VLOOKUP(G224,[2]item!$A$5:$C$10000,3,FALSE),IF(E224=112,VLOOKUP(G224,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E224=1,"골드",IF(E224=2,"보석",IF(E224=3,"스테미나",IF(E224=4,"호감도",IF(E224=5,"플레이어 경험치",IF(E224=6,"캐릭터 경험치",IF(E224=7,VLOOKUP(G224,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E224=8,VLOOKUP(G224,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E224=111,VLOOKUP(G224,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E224=113,VLOOKUP(G224,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>보석</v>
       </c>
       <c r="I224" s="44">
@@ -16131,8 +16069,8 @@
       <c r="G225" s="42">
         <v>16</v>
       </c>
-      <c r="H225" s="53" t="str" cm="1">
-        <f t="array" ref="H225">IF(E225=1000,VLOOKUP(G225,[2]item!$A$5:$C$10000,3,FALSE),IF(E225=112,VLOOKUP(G225,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E225=1,"골드",IF(E225=2,"보석",IF(E225=3,"스테미나",IF(E225=4,"호감도",IF(E225=5,"플레이어 경험치",IF(E225=6,"캐릭터 경험치",IF(E225=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E225=8,VLOOKUP(G225,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E225=111,VLOOKUP(G225,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E225=113,VLOOKUP(G225,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H225" s="53" t="str">
+        <f>IF(E225=1000,VLOOKUP(G225,[2]item!$A$5:$C$10000,3,FALSE),IF(E225=112,VLOOKUP(G225,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E225=1,"골드",IF(E225=2,"보석",IF(E225=3,"스테미나",IF(E225=4,"호감도",IF(E225=5,"플레이어 경험치",IF(E225=6,"캐릭터 경험치",IF(E225=7,VLOOKUP(G225,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E225=8,VLOOKUP(G225,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E225=111,VLOOKUP(G225,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E225=113,VLOOKUP(G225,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>전투 보고서(소)</v>
       </c>
       <c r="I225" s="42">
@@ -16182,8 +16120,8 @@
       <c r="G226" s="42">
         <v>6</v>
       </c>
-      <c r="H226" s="53" t="str" cm="1">
-        <f t="array" ref="H226">IF(E226=1000,VLOOKUP(G226,[2]item!$A$5:$C$10000,3,FALSE),IF(E226=112,VLOOKUP(G226,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E226=1,"골드",IF(E226=2,"보석",IF(E226=3,"스테미나",IF(E226=4,"호감도",IF(E226=5,"플레이어 경험치",IF(E226=6,"캐릭터 경험치",IF(E226=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E226=8,VLOOKUP(G226,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E226=111,VLOOKUP(G226,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E226=113,VLOOKUP(G226,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H226" s="53" t="str">
+        <f>IF(E226=1000,VLOOKUP(G226,[2]item!$A$5:$C$10000,3,FALSE),IF(E226=112,VLOOKUP(G226,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E226=1,"골드",IF(E226=2,"보석",IF(E226=3,"스테미나",IF(E226=4,"호감도",IF(E226=5,"플레이어 경험치",IF(E226=6,"캐릭터 경험치",IF(E226=7,VLOOKUP(G226,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E226=8,VLOOKUP(G226,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E226=111,VLOOKUP(G226,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E226=113,VLOOKUP(G226,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>경험치 물약_C(소)</v>
       </c>
       <c r="I226" s="42">
@@ -16233,8 +16171,8 @@
       <c r="G227" s="42">
         <v>6</v>
       </c>
-      <c r="H227" s="53" t="str" cm="1">
-        <f t="array" ref="H227">IF(E227=1000,VLOOKUP(G227,[2]item!$A$5:$C$10000,3,FALSE),IF(E227=112,VLOOKUP(G227,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E227=1,"골드",IF(E227=2,"보석",IF(E227=3,"스테미나",IF(E227=4,"호감도",IF(E227=5,"플레이어 경험치",IF(E227=6,"캐릭터 경험치",IF(E227=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E227=8,VLOOKUP(G227,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E227=111,VLOOKUP(G227,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E227=113,VLOOKUP(G227,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H227" s="53" t="str">
+        <f>IF(E227=1000,VLOOKUP(G227,[2]item!$A$5:$C$10000,3,FALSE),IF(E227=112,VLOOKUP(G227,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E227=1,"골드",IF(E227=2,"보석",IF(E227=3,"스테미나",IF(E227=4,"호감도",IF(E227=5,"플레이어 경험치",IF(E227=6,"캐릭터 경험치",IF(E227=7,VLOOKUP(G227,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E227=8,VLOOKUP(G227,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E227=111,VLOOKUP(G227,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E227=113,VLOOKUP(G227,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>플레이어 경험치</v>
       </c>
       <c r="I227" s="42">
@@ -16284,8 +16222,8 @@
       <c r="G228" s="42">
         <v>6</v>
       </c>
-      <c r="H228" s="53" t="str" cm="1">
-        <f t="array" ref="H228">IF(E228=1000,VLOOKUP(G228,[2]item!$A$5:$C$10000,3,FALSE),IF(E228=112,VLOOKUP(G228,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E228=1,"골드",IF(E228=2,"보석",IF(E228=3,"스테미나",IF(E228=4,"호감도",IF(E228=5,"플레이어 경험치",IF(E228=6,"캐릭터 경험치",IF(E228=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E228=8,VLOOKUP(G228,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E228=111,VLOOKUP(G228,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E228=113,VLOOKUP(G228,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H228" s="53" t="str">
+        <f>IF(E228=1000,VLOOKUP(G228,[2]item!$A$5:$C$10000,3,FALSE),IF(E228=112,VLOOKUP(G228,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E228=1,"골드",IF(E228=2,"보석",IF(E228=3,"스테미나",IF(E228=4,"호감도",IF(E228=5,"플레이어 경험치",IF(E228=6,"캐릭터 경험치",IF(E228=7,VLOOKUP(G228,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E228=8,VLOOKUP(G228,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E228=111,VLOOKUP(G228,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E228=113,VLOOKUP(G228,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>캐릭터 경험치</v>
       </c>
       <c r="I228" s="42">
@@ -16335,8 +16273,8 @@
       <c r="G229" s="42">
         <v>6</v>
       </c>
-      <c r="H229" s="53" t="str" cm="1">
-        <f t="array" ref="H229">IF(E229=1000,VLOOKUP(G229,[2]item!$A$5:$C$10000,3,FALSE),IF(E229=112,VLOOKUP(G229,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E229=1,"골드",IF(E229=2,"보석",IF(E229=3,"스테미나",IF(E229=4,"호감도",IF(E229=5,"플레이어 경험치",IF(E229=6,"캐릭터 경험치",IF(E229=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E229=8,VLOOKUP(G229,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E229=111,VLOOKUP(G229,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E229=113,VLOOKUP(G229,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H229" s="53" t="str">
+        <f>IF(E229=1000,VLOOKUP(G229,[2]item!$A$5:$C$10000,3,FALSE),IF(E229=112,VLOOKUP(G229,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E229=1,"골드",IF(E229=2,"보석",IF(E229=3,"스테미나",IF(E229=4,"호감도",IF(E229=5,"플레이어 경험치",IF(E229=6,"캐릭터 경험치",IF(E229=7,VLOOKUP(G229,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E229=8,VLOOKUP(G229,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E229=111,VLOOKUP(G229,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E229=113,VLOOKUP(G229,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>골드</v>
       </c>
       <c r="I229" s="42">
@@ -16386,8 +16324,8 @@
       <c r="G230" s="42">
         <v>6</v>
       </c>
-      <c r="H230" s="53" t="str" cm="1">
-        <f t="array" ref="H230">IF(E230=1000,VLOOKUP(G230,[2]item!$A$5:$C$10000,3,FALSE),IF(E230=112,VLOOKUP(G230,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E230=1,"골드",IF(E230=2,"보석",IF(E230=3,"스테미나",IF(E230=4,"호감도",IF(E230=5,"플레이어 경험치",IF(E230=6,"캐릭터 경험치",IF(E230=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E230=8,VLOOKUP(G230,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E230=111,VLOOKUP(G230,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E230=113,VLOOKUP(G230,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H230" s="53" t="str">
+        <f>IF(E230=1000,VLOOKUP(G230,[2]item!$A$5:$C$10000,3,FALSE),IF(E230=112,VLOOKUP(G230,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E230=1,"골드",IF(E230=2,"보석",IF(E230=3,"스테미나",IF(E230=4,"호감도",IF(E230=5,"플레이어 경험치",IF(E230=6,"캐릭터 경험치",IF(E230=7,VLOOKUP(G230,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E230=8,VLOOKUP(G230,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E230=111,VLOOKUP(G230,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E230=113,VLOOKUP(G230,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>호감도</v>
       </c>
       <c r="I230" s="42">
@@ -16437,8 +16375,8 @@
       <c r="G231" s="42">
         <v>100009</v>
       </c>
-      <c r="H231" s="53" t="str" cm="1">
-        <f t="array" ref="H231">IF(E231=1000,VLOOKUP(G231,[2]item!$A$5:$C$10000,3,FALSE),IF(E231=112,VLOOKUP(G231,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E231=1,"골드",IF(E231=2,"보석",IF(E231=3,"스테미나",IF(E231=4,"호감도",IF(E231=5,"플레이어 경험치",IF(E231=6,"캐릭터 경험치",IF(E231=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E231=8,VLOOKUP(G231,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E231=111,VLOOKUP(G231,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E231=113,VLOOKUP(G231,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H231" s="53" t="str">
+        <f>IF(E231=1000,VLOOKUP(G231,[2]item!$A$5:$C$10000,3,FALSE),IF(E231=112,VLOOKUP(G231,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E231=1,"골드",IF(E231=2,"보석",IF(E231=3,"스테미나",IF(E231=4,"호감도",IF(E231=5,"플레이어 경험치",IF(E231=6,"캐릭터 경험치",IF(E231=7,VLOOKUP(G231,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E231=8,VLOOKUP(G231,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E231=111,VLOOKUP(G231,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E231=113,VLOOKUP(G231,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>엘리자베스 조각</v>
       </c>
       <c r="I231" s="42">
@@ -16488,8 +16426,8 @@
       <c r="G232" s="4">
         <v>100009</v>
       </c>
-      <c r="H232" s="53" t="str" cm="1">
-        <f t="array" ref="H232">IF(E232=1000,VLOOKUP(G232,[2]item!$A$5:$C$10000,3,FALSE),IF(E232=112,VLOOKUP(G232,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E232=1,"골드",IF(E232=2,"보석",IF(E232=3,"스테미나",IF(E232=4,"호감도",IF(E232=5,"플레이어 경험치",IF(E232=6,"캐릭터 경험치",IF(E232=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E232=8,VLOOKUP(G232,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E232=111,VLOOKUP(G232,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E232=113,VLOOKUP(G232,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H232" s="53" t="str">
+        <f>IF(E232=1000,VLOOKUP(G232,[2]item!$A$5:$C$10000,3,FALSE),IF(E232=112,VLOOKUP(G232,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E232=1,"골드",IF(E232=2,"보석",IF(E232=3,"스테미나",IF(E232=4,"호감도",IF(E232=5,"플레이어 경험치",IF(E232=6,"캐릭터 경험치",IF(E232=7,VLOOKUP(G232,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E232=8,VLOOKUP(G232,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E232=111,VLOOKUP(G232,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E232=113,VLOOKUP(G232,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>엘리자베스 조각</v>
       </c>
       <c r="I232" s="4">
@@ -16539,8 +16477,8 @@
       <c r="G233" s="4">
         <v>8000</v>
       </c>
-      <c r="H233" s="53" t="str" cm="1">
-        <f t="array" ref="H233">IF(E233=1000,VLOOKUP(G233,[2]item!$A$5:$C$10000,3,FALSE),IF(E233=112,VLOOKUP(G233,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E233=1,"골드",IF(E233=2,"보석",IF(E233=3,"스테미나",IF(E233=4,"호감도",IF(E233=5,"플레이어 경험치",IF(E233=6,"캐릭터 경험치",IF(E233=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E233=8,VLOOKUP(G233,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E233=111,VLOOKUP(G233,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E233=113,VLOOKUP(G233,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H233" s="53" t="str">
+        <f>IF(E233=1000,VLOOKUP(G233,[2]item!$A$5:$C$10000,3,FALSE),IF(E233=112,VLOOKUP(G233,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E233=1,"골드",IF(E233=2,"보석",IF(E233=3,"스테미나",IF(E233=4,"호감도",IF(E233=5,"플레이어 경험치",IF(E233=6,"캐릭터 경험치",IF(E233=7,VLOOKUP(G233,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E233=8,VLOOKUP(G233,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E233=111,VLOOKUP(G233,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E233=113,VLOOKUP(G233,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>골드</v>
       </c>
       <c r="I233" s="4">
@@ -16590,8 +16528,8 @@
       <c r="G234" s="44">
         <v>100</v>
       </c>
-      <c r="H234" s="53" t="str" cm="1">
-        <f t="array" ref="H234">IF(E234=1000,VLOOKUP(G234,[2]item!$A$5:$C$10000,3,FALSE),IF(E234=112,VLOOKUP(G234,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E234=1,"골드",IF(E234=2,"보석",IF(E234=3,"스테미나",IF(E234=4,"호감도",IF(E234=5,"플레이어 경험치",IF(E234=6,"캐릭터 경험치",IF(E234=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E234=8,VLOOKUP(G234,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E234=111,VLOOKUP(G234,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E234=113,VLOOKUP(G234,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H234" s="53" t="str">
+        <f>IF(E234=1000,VLOOKUP(G234,[2]item!$A$5:$C$10000,3,FALSE),IF(E234=112,VLOOKUP(G234,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E234=1,"골드",IF(E234=2,"보석",IF(E234=3,"스테미나",IF(E234=4,"호감도",IF(E234=5,"플레이어 경험치",IF(E234=6,"캐릭터 경험치",IF(E234=7,VLOOKUP(G234,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E234=8,VLOOKUP(G234,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E234=111,VLOOKUP(G234,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E234=113,VLOOKUP(G234,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>보석</v>
       </c>
       <c r="I234" s="44">
@@ -16641,8 +16579,8 @@
       <c r="G235" s="42">
         <v>16</v>
       </c>
-      <c r="H235" s="53" t="str" cm="1">
-        <f t="array" ref="H235">IF(E235=1000,VLOOKUP(G235,[2]item!$A$5:$C$10000,3,FALSE),IF(E235=112,VLOOKUP(G235,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E235=1,"골드",IF(E235=2,"보석",IF(E235=3,"스테미나",IF(E235=4,"호감도",IF(E235=5,"플레이어 경험치",IF(E235=6,"캐릭터 경험치",IF(E235=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E235=8,VLOOKUP(G235,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E235=111,VLOOKUP(G235,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E235=113,VLOOKUP(G235,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H235" s="53" t="str">
+        <f>IF(E235=1000,VLOOKUP(G235,[2]item!$A$5:$C$10000,3,FALSE),IF(E235=112,VLOOKUP(G235,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E235=1,"골드",IF(E235=2,"보석",IF(E235=3,"스테미나",IF(E235=4,"호감도",IF(E235=5,"플레이어 경험치",IF(E235=6,"캐릭터 경험치",IF(E235=7,VLOOKUP(G235,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E235=8,VLOOKUP(G235,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E235=111,VLOOKUP(G235,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E235=113,VLOOKUP(G235,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>전투 보고서(소)</v>
       </c>
       <c r="I235" s="42">
@@ -16692,8 +16630,8 @@
       <c r="G236" s="42">
         <v>6</v>
       </c>
-      <c r="H236" s="53" t="str" cm="1">
-        <f t="array" ref="H236">IF(E236=1000,VLOOKUP(G236,[2]item!$A$5:$C$10000,3,FALSE),IF(E236=112,VLOOKUP(G236,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E236=1,"골드",IF(E236=2,"보석",IF(E236=3,"스테미나",IF(E236=4,"호감도",IF(E236=5,"플레이어 경험치",IF(E236=6,"캐릭터 경험치",IF(E236=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E236=8,VLOOKUP(G236,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E236=111,VLOOKUP(G236,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E236=113,VLOOKUP(G236,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H236" s="53" t="str">
+        <f>IF(E236=1000,VLOOKUP(G236,[2]item!$A$5:$C$10000,3,FALSE),IF(E236=112,VLOOKUP(G236,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E236=1,"골드",IF(E236=2,"보석",IF(E236=3,"스테미나",IF(E236=4,"호감도",IF(E236=5,"플레이어 경험치",IF(E236=6,"캐릭터 경험치",IF(E236=7,VLOOKUP(G236,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E236=8,VLOOKUP(G236,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E236=111,VLOOKUP(G236,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E236=113,VLOOKUP(G236,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>경험치 물약_C(소)</v>
       </c>
       <c r="I236" s="42">
@@ -16743,8 +16681,8 @@
       <c r="G237" s="42">
         <v>6</v>
       </c>
-      <c r="H237" s="53" t="str" cm="1">
-        <f t="array" ref="H237">IF(E237=1000,VLOOKUP(G237,[2]item!$A$5:$C$10000,3,FALSE),IF(E237=112,VLOOKUP(G237,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E237=1,"골드",IF(E237=2,"보석",IF(E237=3,"스테미나",IF(E237=4,"호감도",IF(E237=5,"플레이어 경험치",IF(E237=6,"캐릭터 경험치",IF(E237=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E237=8,VLOOKUP(G237,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E237=111,VLOOKUP(G237,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E237=113,VLOOKUP(G237,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H237" s="53" t="str">
+        <f>IF(E237=1000,VLOOKUP(G237,[2]item!$A$5:$C$10000,3,FALSE),IF(E237=112,VLOOKUP(G237,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E237=1,"골드",IF(E237=2,"보석",IF(E237=3,"스테미나",IF(E237=4,"호감도",IF(E237=5,"플레이어 경험치",IF(E237=6,"캐릭터 경험치",IF(E237=7,VLOOKUP(G237,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E237=8,VLOOKUP(G237,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E237=111,VLOOKUP(G237,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E237=113,VLOOKUP(G237,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>플레이어 경험치</v>
       </c>
       <c r="I237" s="42">
@@ -16794,8 +16732,8 @@
       <c r="G238" s="42">
         <v>6</v>
       </c>
-      <c r="H238" s="53" t="str" cm="1">
-        <f t="array" ref="H238">IF(E238=1000,VLOOKUP(G238,[2]item!$A$5:$C$10000,3,FALSE),IF(E238=112,VLOOKUP(G238,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E238=1,"골드",IF(E238=2,"보석",IF(E238=3,"스테미나",IF(E238=4,"호감도",IF(E238=5,"플레이어 경험치",IF(E238=6,"캐릭터 경험치",IF(E238=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E238=8,VLOOKUP(G238,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E238=111,VLOOKUP(G238,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E238=113,VLOOKUP(G238,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H238" s="53" t="str">
+        <f>IF(E238=1000,VLOOKUP(G238,[2]item!$A$5:$C$10000,3,FALSE),IF(E238=112,VLOOKUP(G238,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E238=1,"골드",IF(E238=2,"보석",IF(E238=3,"스테미나",IF(E238=4,"호감도",IF(E238=5,"플레이어 경험치",IF(E238=6,"캐릭터 경험치",IF(E238=7,VLOOKUP(G238,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E238=8,VLOOKUP(G238,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E238=111,VLOOKUP(G238,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E238=113,VLOOKUP(G238,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>캐릭터 경험치</v>
       </c>
       <c r="I238" s="42">
@@ -16845,8 +16783,8 @@
       <c r="G239" s="42">
         <v>6</v>
       </c>
-      <c r="H239" s="53" t="str" cm="1">
-        <f t="array" ref="H239">IF(E239=1000,VLOOKUP(G239,[2]item!$A$5:$C$10000,3,FALSE),IF(E239=112,VLOOKUP(G239,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E239=1,"골드",IF(E239=2,"보석",IF(E239=3,"스테미나",IF(E239=4,"호감도",IF(E239=5,"플레이어 경험치",IF(E239=6,"캐릭터 경험치",IF(E239=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E239=8,VLOOKUP(G239,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E239=111,VLOOKUP(G239,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E239=113,VLOOKUP(G239,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H239" s="53" t="str">
+        <f>IF(E239=1000,VLOOKUP(G239,[2]item!$A$5:$C$10000,3,FALSE),IF(E239=112,VLOOKUP(G239,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E239=1,"골드",IF(E239=2,"보석",IF(E239=3,"스테미나",IF(E239=4,"호감도",IF(E239=5,"플레이어 경험치",IF(E239=6,"캐릭터 경험치",IF(E239=7,VLOOKUP(G239,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E239=8,VLOOKUP(G239,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E239=111,VLOOKUP(G239,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E239=113,VLOOKUP(G239,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>골드</v>
       </c>
       <c r="I239" s="42">
@@ -16896,8 +16834,8 @@
       <c r="G240" s="42">
         <v>6</v>
       </c>
-      <c r="H240" s="53" t="str" cm="1">
-        <f t="array" ref="H240">IF(E240=1000,VLOOKUP(G240,[2]item!$A$5:$C$10000,3,FALSE),IF(E240=112,VLOOKUP(G240,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E240=1,"골드",IF(E240=2,"보석",IF(E240=3,"스테미나",IF(E240=4,"호감도",IF(E240=5,"플레이어 경험치",IF(E240=6,"캐릭터 경험치",IF(E240=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E240=8,VLOOKUP(G240,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E240=111,VLOOKUP(G240,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E240=113,VLOOKUP(G240,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H240" s="53" t="str">
+        <f>IF(E240=1000,VLOOKUP(G240,[2]item!$A$5:$C$10000,3,FALSE),IF(E240=112,VLOOKUP(G240,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E240=1,"골드",IF(E240=2,"보석",IF(E240=3,"스테미나",IF(E240=4,"호감도",IF(E240=5,"플레이어 경험치",IF(E240=6,"캐릭터 경험치",IF(E240=7,VLOOKUP(G240,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E240=8,VLOOKUP(G240,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E240=111,VLOOKUP(G240,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E240=113,VLOOKUP(G240,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>호감도</v>
       </c>
       <c r="I240" s="42">
@@ -16947,8 +16885,8 @@
       <c r="G241" s="42">
         <v>100009</v>
       </c>
-      <c r="H241" s="53" t="str" cm="1">
-        <f t="array" ref="H241">IF(E241=1000,VLOOKUP(G241,[2]item!$A$5:$C$10000,3,FALSE),IF(E241=112,VLOOKUP(G241,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E241=1,"골드",IF(E241=2,"보석",IF(E241=3,"스테미나",IF(E241=4,"호감도",IF(E241=5,"플레이어 경험치",IF(E241=6,"캐릭터 경험치",IF(E241=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E241=8,VLOOKUP(G241,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E241=111,VLOOKUP(G241,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E241=113,VLOOKUP(G241,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H241" s="53" t="str">
+        <f>IF(E241=1000,VLOOKUP(G241,[2]item!$A$5:$C$10000,3,FALSE),IF(E241=112,VLOOKUP(G241,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E241=1,"골드",IF(E241=2,"보석",IF(E241=3,"스테미나",IF(E241=4,"호감도",IF(E241=5,"플레이어 경험치",IF(E241=6,"캐릭터 경험치",IF(E241=7,VLOOKUP(G241,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E241=8,VLOOKUP(G241,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E241=111,VLOOKUP(G241,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E241=113,VLOOKUP(G241,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>엘리자베스 조각</v>
       </c>
       <c r="I241" s="42">
@@ -16998,8 +16936,8 @@
       <c r="G242" s="4">
         <v>100009</v>
       </c>
-      <c r="H242" s="53" t="str" cm="1">
-        <f t="array" ref="H242">IF(E242=1000,VLOOKUP(G242,[2]item!$A$5:$C$10000,3,FALSE),IF(E242=112,VLOOKUP(G242,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E242=1,"골드",IF(E242=2,"보석",IF(E242=3,"스테미나",IF(E242=4,"호감도",IF(E242=5,"플레이어 경험치",IF(E242=6,"캐릭터 경험치",IF(E242=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E242=8,VLOOKUP(G242,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E242=111,VLOOKUP(G242,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E242=113,VLOOKUP(G242,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H242" s="53" t="str">
+        <f>IF(E242=1000,VLOOKUP(G242,[2]item!$A$5:$C$10000,3,FALSE),IF(E242=112,VLOOKUP(G242,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E242=1,"골드",IF(E242=2,"보석",IF(E242=3,"스테미나",IF(E242=4,"호감도",IF(E242=5,"플레이어 경험치",IF(E242=6,"캐릭터 경험치",IF(E242=7,VLOOKUP(G242,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E242=8,VLOOKUP(G242,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E242=111,VLOOKUP(G242,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E242=113,VLOOKUP(G242,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>엘리자베스 조각</v>
       </c>
       <c r="I242" s="4">
@@ -17049,8 +16987,8 @@
       <c r="G243" s="4">
         <v>8000</v>
       </c>
-      <c r="H243" s="53" t="str" cm="1">
-        <f t="array" ref="H243">IF(E243=1000,VLOOKUP(G243,[2]item!$A$5:$C$10000,3,FALSE),IF(E243=112,VLOOKUP(G243,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E243=1,"골드",IF(E243=2,"보석",IF(E243=3,"스테미나",IF(E243=4,"호감도",IF(E243=5,"플레이어 경험치",IF(E243=6,"캐릭터 경험치",IF(E243=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E243=8,VLOOKUP(G243,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E243=111,VLOOKUP(G243,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E243=113,VLOOKUP(G243,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H243" s="53" t="str">
+        <f>IF(E243=1000,VLOOKUP(G243,[2]item!$A$5:$C$10000,3,FALSE),IF(E243=112,VLOOKUP(G243,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E243=1,"골드",IF(E243=2,"보석",IF(E243=3,"스테미나",IF(E243=4,"호감도",IF(E243=5,"플레이어 경험치",IF(E243=6,"캐릭터 경험치",IF(E243=7,VLOOKUP(G243,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E243=8,VLOOKUP(G243,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E243=111,VLOOKUP(G243,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E243=113,VLOOKUP(G243,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>골드</v>
       </c>
       <c r="I243" s="4">
@@ -17100,8 +17038,8 @@
       <c r="G244" s="44">
         <v>100</v>
       </c>
-      <c r="H244" s="53" t="str" cm="1">
-        <f t="array" ref="H244">IF(E244=1000,VLOOKUP(G244,[2]item!$A$5:$C$10000,3,FALSE),IF(E244=112,VLOOKUP(G244,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E244=1,"골드",IF(E244=2,"보석",IF(E244=3,"스테미나",IF(E244=4,"호감도",IF(E244=5,"플레이어 경험치",IF(E244=6,"캐릭터 경험치",IF(E244=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E244=8,VLOOKUP(G244,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E244=111,VLOOKUP(G244,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E244=113,VLOOKUP(G244,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H244" s="53" t="str">
+        <f>IF(E244=1000,VLOOKUP(G244,[2]item!$A$5:$C$10000,3,FALSE),IF(E244=112,VLOOKUP(G244,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E244=1,"골드",IF(E244=2,"보석",IF(E244=3,"스테미나",IF(E244=4,"호감도",IF(E244=5,"플레이어 경험치",IF(E244=6,"캐릭터 경험치",IF(E244=7,VLOOKUP(G244,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E244=8,VLOOKUP(G244,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E244=111,VLOOKUP(G244,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E244=113,VLOOKUP(G244,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>보석</v>
       </c>
       <c r="I244" s="44">
@@ -17151,8 +17089,8 @@
       <c r="G245" s="42">
         <v>16</v>
       </c>
-      <c r="H245" s="53" t="str" cm="1">
-        <f t="array" ref="H245">IF(E245=1000,VLOOKUP(G245,[2]item!$A$5:$C$10000,3,FALSE),IF(E245=112,VLOOKUP(G245,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E245=1,"골드",IF(E245=2,"보석",IF(E245=3,"스테미나",IF(E245=4,"호감도",IF(E245=5,"플레이어 경험치",IF(E245=6,"캐릭터 경험치",IF(E245=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E245=8,VLOOKUP(G245,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E245=111,VLOOKUP(G245,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E245=113,VLOOKUP(G245,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H245" s="53" t="str">
+        <f>IF(E245=1000,VLOOKUP(G245,[2]item!$A$5:$C$10000,3,FALSE),IF(E245=112,VLOOKUP(G245,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E245=1,"골드",IF(E245=2,"보석",IF(E245=3,"스테미나",IF(E245=4,"호감도",IF(E245=5,"플레이어 경험치",IF(E245=6,"캐릭터 경험치",IF(E245=7,VLOOKUP(G245,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E245=8,VLOOKUP(G245,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E245=111,VLOOKUP(G245,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E245=113,VLOOKUP(G245,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>전투 보고서(소)</v>
       </c>
       <c r="I245" s="42">
@@ -17202,8 +17140,8 @@
       <c r="G246" s="42">
         <v>6</v>
       </c>
-      <c r="H246" s="53" t="str" cm="1">
-        <f t="array" ref="H246">IF(E246=1000,VLOOKUP(G246,[2]item!$A$5:$C$10000,3,FALSE),IF(E246=112,VLOOKUP(G246,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E246=1,"골드",IF(E246=2,"보석",IF(E246=3,"스테미나",IF(E246=4,"호감도",IF(E246=5,"플레이어 경험치",IF(E246=6,"캐릭터 경험치",IF(E246=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E246=8,VLOOKUP(G246,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E246=111,VLOOKUP(G246,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E246=113,VLOOKUP(G246,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H246" s="53" t="str">
+        <f>IF(E246=1000,VLOOKUP(G246,[2]item!$A$5:$C$10000,3,FALSE),IF(E246=112,VLOOKUP(G246,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E246=1,"골드",IF(E246=2,"보석",IF(E246=3,"스테미나",IF(E246=4,"호감도",IF(E246=5,"플레이어 경험치",IF(E246=6,"캐릭터 경험치",IF(E246=7,VLOOKUP(G246,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E246=8,VLOOKUP(G246,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E246=111,VLOOKUP(G246,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E246=113,VLOOKUP(G246,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>경험치 물약_C(소)</v>
       </c>
       <c r="I246" s="42">
@@ -17253,8 +17191,8 @@
       <c r="G247" s="42">
         <v>6</v>
       </c>
-      <c r="H247" s="53" t="str" cm="1">
-        <f t="array" ref="H247">IF(E247=1000,VLOOKUP(G247,[2]item!$A$5:$C$10000,3,FALSE),IF(E247=112,VLOOKUP(G247,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E247=1,"골드",IF(E247=2,"보석",IF(E247=3,"스테미나",IF(E247=4,"호감도",IF(E247=5,"플레이어 경험치",IF(E247=6,"캐릭터 경험치",IF(E247=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E247=8,VLOOKUP(G247,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E247=111,VLOOKUP(G247,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E247=113,VLOOKUP(G247,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H247" s="53" t="str">
+        <f>IF(E247=1000,VLOOKUP(G247,[2]item!$A$5:$C$10000,3,FALSE),IF(E247=112,VLOOKUP(G247,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E247=1,"골드",IF(E247=2,"보석",IF(E247=3,"스테미나",IF(E247=4,"호감도",IF(E247=5,"플레이어 경험치",IF(E247=6,"캐릭터 경험치",IF(E247=7,VLOOKUP(G247,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E247=8,VLOOKUP(G247,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E247=111,VLOOKUP(G247,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E247=113,VLOOKUP(G247,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>플레이어 경험치</v>
       </c>
       <c r="I247" s="42">
@@ -17304,8 +17242,8 @@
       <c r="G248" s="42">
         <v>6</v>
       </c>
-      <c r="H248" s="53" t="str" cm="1">
-        <f t="array" ref="H248">IF(E248=1000,VLOOKUP(G248,[2]item!$A$5:$C$10000,3,FALSE),IF(E248=112,VLOOKUP(G248,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E248=1,"골드",IF(E248=2,"보석",IF(E248=3,"스테미나",IF(E248=4,"호감도",IF(E248=5,"플레이어 경험치",IF(E248=6,"캐릭터 경험치",IF(E248=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E248=8,VLOOKUP(G248,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E248=111,VLOOKUP(G248,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E248=113,VLOOKUP(G248,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H248" s="53" t="str">
+        <f>IF(E248=1000,VLOOKUP(G248,[2]item!$A$5:$C$10000,3,FALSE),IF(E248=112,VLOOKUP(G248,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E248=1,"골드",IF(E248=2,"보석",IF(E248=3,"스테미나",IF(E248=4,"호감도",IF(E248=5,"플레이어 경험치",IF(E248=6,"캐릭터 경험치",IF(E248=7,VLOOKUP(G248,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E248=8,VLOOKUP(G248,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E248=111,VLOOKUP(G248,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E248=113,VLOOKUP(G248,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>캐릭터 경험치</v>
       </c>
       <c r="I248" s="42">
@@ -17355,8 +17293,8 @@
       <c r="G249" s="42">
         <v>6</v>
       </c>
-      <c r="H249" s="53" t="str" cm="1">
-        <f t="array" ref="H249">IF(E249=1000,VLOOKUP(G249,[2]item!$A$5:$C$10000,3,FALSE),IF(E249=112,VLOOKUP(G249,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E249=1,"골드",IF(E249=2,"보석",IF(E249=3,"스테미나",IF(E249=4,"호감도",IF(E249=5,"플레이어 경험치",IF(E249=6,"캐릭터 경험치",IF(E249=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E249=8,VLOOKUP(G249,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E249=111,VLOOKUP(G249,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E249=113,VLOOKUP(G249,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H249" s="53" t="str">
+        <f>IF(E249=1000,VLOOKUP(G249,[2]item!$A$5:$C$10000,3,FALSE),IF(E249=112,VLOOKUP(G249,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E249=1,"골드",IF(E249=2,"보석",IF(E249=3,"스테미나",IF(E249=4,"호감도",IF(E249=5,"플레이어 경험치",IF(E249=6,"캐릭터 경험치",IF(E249=7,VLOOKUP(G249,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E249=8,VLOOKUP(G249,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E249=111,VLOOKUP(G249,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E249=113,VLOOKUP(G249,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>골드</v>
       </c>
       <c r="I249" s="42">
@@ -17406,8 +17344,8 @@
       <c r="G250" s="42">
         <v>6</v>
       </c>
-      <c r="H250" s="53" t="str" cm="1">
-        <f t="array" ref="H250">IF(E250=1000,VLOOKUP(G250,[2]item!$A$5:$C$10000,3,FALSE),IF(E250=112,VLOOKUP(G250,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E250=1,"골드",IF(E250=2,"보석",IF(E250=3,"스테미나",IF(E250=4,"호감도",IF(E250=5,"플레이어 경험치",IF(E250=6,"캐릭터 경험치",IF(E250=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E250=8,VLOOKUP(G250,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E250=111,VLOOKUP(G250,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E250=113,VLOOKUP(G250,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H250" s="53" t="str">
+        <f>IF(E250=1000,VLOOKUP(G250,[2]item!$A$5:$C$10000,3,FALSE),IF(E250=112,VLOOKUP(G250,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E250=1,"골드",IF(E250=2,"보석",IF(E250=3,"스테미나",IF(E250=4,"호감도",IF(E250=5,"플레이어 경험치",IF(E250=6,"캐릭터 경험치",IF(E250=7,VLOOKUP(G250,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E250=8,VLOOKUP(G250,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E250=111,VLOOKUP(G250,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E250=113,VLOOKUP(G250,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>호감도</v>
       </c>
       <c r="I250" s="42">
@@ -17457,8 +17395,8 @@
       <c r="G251" s="42">
         <v>100009</v>
       </c>
-      <c r="H251" s="53" t="str" cm="1">
-        <f t="array" ref="H251">IF(E251=1000,VLOOKUP(G251,[2]item!$A$5:$C$10000,3,FALSE),IF(E251=112,VLOOKUP(G251,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E251=1,"골드",IF(E251=2,"보석",IF(E251=3,"스테미나",IF(E251=4,"호감도",IF(E251=5,"플레이어 경험치",IF(E251=6,"캐릭터 경험치",IF(E251=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E251=8,VLOOKUP(G251,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E251=111,VLOOKUP(G251,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E251=113,VLOOKUP(G251,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H251" s="53" t="str">
+        <f>IF(E251=1000,VLOOKUP(G251,[2]item!$A$5:$C$10000,3,FALSE),IF(E251=112,VLOOKUP(G251,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E251=1,"골드",IF(E251=2,"보석",IF(E251=3,"스테미나",IF(E251=4,"호감도",IF(E251=5,"플레이어 경험치",IF(E251=6,"캐릭터 경험치",IF(E251=7,VLOOKUP(G251,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E251=8,VLOOKUP(G251,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E251=111,VLOOKUP(G251,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E251=113,VLOOKUP(G251,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>엘리자베스 조각</v>
       </c>
       <c r="I251" s="42">
@@ -17508,8 +17446,8 @@
       <c r="G252" s="4">
         <v>100009</v>
       </c>
-      <c r="H252" s="53" t="str" cm="1">
-        <f t="array" ref="H252">IF(E252=1000,VLOOKUP(G252,[2]item!$A$5:$C$10000,3,FALSE),IF(E252=112,VLOOKUP(G252,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E252=1,"골드",IF(E252=2,"보석",IF(E252=3,"스테미나",IF(E252=4,"호감도",IF(E252=5,"플레이어 경험치",IF(E252=6,"캐릭터 경험치",IF(E252=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E252=8,VLOOKUP(G252,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E252=111,VLOOKUP(G252,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E252=113,VLOOKUP(G252,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H252" s="53" t="str">
+        <f>IF(E252=1000,VLOOKUP(G252,[2]item!$A$5:$C$10000,3,FALSE),IF(E252=112,VLOOKUP(G252,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E252=1,"골드",IF(E252=2,"보석",IF(E252=3,"스테미나",IF(E252=4,"호감도",IF(E252=5,"플레이어 경험치",IF(E252=6,"캐릭터 경험치",IF(E252=7,VLOOKUP(G252,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E252=8,VLOOKUP(G252,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E252=111,VLOOKUP(G252,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E252=113,VLOOKUP(G252,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>엘리자베스 조각</v>
       </c>
       <c r="I252" s="4">
@@ -17559,8 +17497,8 @@
       <c r="G253" s="4">
         <v>8000</v>
       </c>
-      <c r="H253" s="53" t="str" cm="1">
-        <f t="array" ref="H253">IF(E253=1000,VLOOKUP(G253,[2]item!$A$5:$C$10000,3,FALSE),IF(E253=112,VLOOKUP(G253,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E253=1,"골드",IF(E253=2,"보석",IF(E253=3,"스테미나",IF(E253=4,"호감도",IF(E253=5,"플레이어 경험치",IF(E253=6,"캐릭터 경험치",IF(E253=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E253=8,VLOOKUP(G253,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E253=111,VLOOKUP(G253,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E253=113,VLOOKUP(G253,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H253" s="53" t="str">
+        <f>IF(E253=1000,VLOOKUP(G253,[2]item!$A$5:$C$10000,3,FALSE),IF(E253=112,VLOOKUP(G253,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E253=1,"골드",IF(E253=2,"보석",IF(E253=3,"스테미나",IF(E253=4,"호감도",IF(E253=5,"플레이어 경험치",IF(E253=6,"캐릭터 경험치",IF(E253=7,VLOOKUP(G253,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E253=8,VLOOKUP(G253,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E253=111,VLOOKUP(G253,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E253=113,VLOOKUP(G253,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>골드</v>
       </c>
       <c r="I253" s="4">
@@ -17610,8 +17548,8 @@
       <c r="G254" s="44">
         <v>100</v>
       </c>
-      <c r="H254" s="53" t="str" cm="1">
-        <f t="array" ref="H254">IF(E254=1000,VLOOKUP(G254,[2]item!$A$5:$C$10000,3,FALSE),IF(E254=112,VLOOKUP(G254,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E254=1,"골드",IF(E254=2,"보석",IF(E254=3,"스테미나",IF(E254=4,"호감도",IF(E254=5,"플레이어 경험치",IF(E254=6,"캐릭터 경험치",IF(E254=7,VLOOKUP([3]pc_data!$A$5:$C$10000,3,FALSE),IF(E254=8,VLOOKUP(G254,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E254=111,VLOOKUP(G254,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E254=113,VLOOKUP(G254,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
+      <c r="H254" s="53" t="str">
+        <f>IF(E254=1000,VLOOKUP(G254,[2]item!$A$5:$C$10000,3,FALSE),IF(E254=112,VLOOKUP(G254,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E254=1,"골드",IF(E254=2,"보석",IF(E254=3,"스테미나",IF(E254=4,"호감도",IF(E254=5,"플레이어 경험치",IF(E254=6,"캐릭터 경험치",IF(E254=7,VLOOKUP(G254,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E254=8,VLOOKUP(G254,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E254=111,VLOOKUP(G254,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E254=113,VLOOKUP(G254,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>보석</v>
       </c>
       <c r="I254" s="44">

--- a/Android/ExcelData/RewardTable.xlsx
+++ b/Android/ExcelData/RewardTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E13105B-37EA-400C-BD75-F97F1356865D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06827E46-5508-4816-ABF2-FC6ED8BA7634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40665" yWindow="2205" windowWidth="36135" windowHeight="19395" activeTab="2" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
+    <workbookView xWindow="1515" yWindow="1260" windowWidth="36135" windowHeight="19395" activeTab="2" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
   </bookViews>
   <sheets>
     <sheet name="!사용 설명" sheetId="6" r:id="rId1"/>
@@ -399,7 +399,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="83">
   <si>
     <t>Reward_Set_Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -672,6 +672,9 @@
   </si>
   <si>
     <t>4 호감도</t>
+  </si>
+  <si>
+    <t>7 캐릭터</t>
   </si>
 </sst>
 </file>
@@ -1433,45 +1436,33 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>POSITION_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ROLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>NPC_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
+      <sheetData sheetId="11">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>GAME_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
@@ -1735,14 +1726,14 @@
         </row>
       </sheetData>
       <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ATTRIBUTE_TYPE</v>
+      <sheetData sheetId="31">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="32"/>
       <sheetData sheetId="33"/>
       <sheetData sheetId="34" refreshError="1"/>
       <sheetData sheetId="35" refreshError="1"/>
@@ -4656,10 +4647,10 @@
   <dimension ref="A1:O254"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="G80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4949,7 +4940,7 @@
         <v>79</v>
       </c>
       <c r="G7" s="42">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H7" s="53" t="str">
         <f>IF(E7=1000,VLOOKUP(G7,[2]item!$A$5:$C$10000,3,FALSE),IF(E7=112,VLOOKUP(G7,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E7=1,"골드",IF(E7=2,"보석",IF(E7=3,"스테미나",IF(E7=4,"호감도",IF(E7=5,"플레이어 경험치",IF(E7=6,"캐릭터 경험치",IF(E7=7,VLOOKUP(G7,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E7=8,VLOOKUP(G7,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E7=111,VLOOKUP(G7,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E7=113,VLOOKUP(G7,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -5000,7 +4991,7 @@
         <v>80</v>
       </c>
       <c r="G8" s="42">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H8" s="53" t="str">
         <f>IF(E8=1000,VLOOKUP(G8,[2]item!$A$5:$C$10000,3,FALSE),IF(E8=112,VLOOKUP(G8,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E8=1,"골드",IF(E8=2,"보석",IF(E8=3,"스테미나",IF(E8=4,"호감도",IF(E8=5,"플레이어 경험치",IF(E8=6,"캐릭터 경험치",IF(E8=7,VLOOKUP(G8,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E8=8,VLOOKUP(G8,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E8=111,VLOOKUP(G8,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E8=113,VLOOKUP(G8,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -5051,7 +5042,7 @@
         <v>78</v>
       </c>
       <c r="G9" s="42">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="H9" s="53" t="str">
         <f>IF(E9=1000,VLOOKUP(G9,[2]item!$A$5:$C$10000,3,FALSE),IF(E9=112,VLOOKUP(G9,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E9=1,"골드",IF(E9=2,"보석",IF(E9=3,"스테미나",IF(E9=4,"호감도",IF(E9=5,"플레이어 경험치",IF(E9=6,"캐릭터 경험치",IF(E9=7,VLOOKUP(G9,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E9=8,VLOOKUP(G9,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E9=111,VLOOKUP(G9,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E9=113,VLOOKUP(G9,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -5102,7 +5093,7 @@
         <v>81</v>
       </c>
       <c r="G10" s="42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H10" s="53" t="str">
         <f>IF(E10=1000,VLOOKUP(G10,[2]item!$A$5:$C$10000,3,FALSE),IF(E10=112,VLOOKUP(G10,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E10=1,"골드",IF(E10=2,"보석",IF(E10=3,"스테미나",IF(E10=4,"호감도",IF(E10=5,"플레이어 경험치",IF(E10=6,"캐릭터 경험치",IF(E10=7,VLOOKUP(G10,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E10=8,VLOOKUP(G10,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E10=111,VLOOKUP(G10,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E10=113,VLOOKUP(G10,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -5663,7 +5654,7 @@
         <v>79</v>
       </c>
       <c r="G21" s="42">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H21" s="53" t="str">
         <f>IF(E21=1000,VLOOKUP(G21,[2]item!$A$5:$C$10000,3,FALSE),IF(E21=112,VLOOKUP(G21,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E21=1,"골드",IF(E21=2,"보석",IF(E21=3,"스테미나",IF(E21=4,"호감도",IF(E21=5,"플레이어 경험치",IF(E21=6,"캐릭터 경험치",IF(E21=7,VLOOKUP(G21,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E21=8,VLOOKUP(G21,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E21=111,VLOOKUP(G21,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E21=113,VLOOKUP(G21,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -5714,7 +5705,7 @@
         <v>80</v>
       </c>
       <c r="G22" s="42">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H22" s="53" t="str">
         <f>IF(E22=1000,VLOOKUP(G22,[2]item!$A$5:$C$10000,3,FALSE),IF(E22=112,VLOOKUP(G22,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E22=1,"골드",IF(E22=2,"보석",IF(E22=3,"스테미나",IF(E22=4,"호감도",IF(E22=5,"플레이어 경험치",IF(E22=6,"캐릭터 경험치",IF(E22=7,VLOOKUP(G22,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E22=8,VLOOKUP(G22,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E22=111,VLOOKUP(G22,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E22=113,VLOOKUP(G22,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -5765,7 +5756,7 @@
         <v>78</v>
       </c>
       <c r="G23" s="42">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="H23" s="53" t="str">
         <f>IF(E23=1000,VLOOKUP(G23,[2]item!$A$5:$C$10000,3,FALSE),IF(E23=112,VLOOKUP(G23,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E23=1,"골드",IF(E23=2,"보석",IF(E23=3,"스테미나",IF(E23=4,"호감도",IF(E23=5,"플레이어 경험치",IF(E23=6,"캐릭터 경험치",IF(E23=7,VLOOKUP(G23,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E23=8,VLOOKUP(G23,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E23=111,VLOOKUP(G23,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E23=113,VLOOKUP(G23,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -5816,7 +5807,7 @@
         <v>81</v>
       </c>
       <c r="G24" s="42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H24" s="53" t="str">
         <f>IF(E24=1000,VLOOKUP(G24,[2]item!$A$5:$C$10000,3,FALSE),IF(E24=112,VLOOKUP(G24,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E24=1,"골드",IF(E24=2,"보석",IF(E24=3,"스테미나",IF(E24=4,"호감도",IF(E24=5,"플레이어 경험치",IF(E24=6,"캐릭터 경험치",IF(E24=7,VLOOKUP(G24,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E24=8,VLOOKUP(G24,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E24=111,VLOOKUP(G24,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E24=113,VLOOKUP(G24,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -6377,7 +6368,7 @@
         <v>79</v>
       </c>
       <c r="G35" s="42">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H35" s="53" t="str">
         <f>IF(E35=1000,VLOOKUP(G35,[2]item!$A$5:$C$10000,3,FALSE),IF(E35=112,VLOOKUP(G35,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E35=1,"골드",IF(E35=2,"보석",IF(E35=3,"스테미나",IF(E35=4,"호감도",IF(E35=5,"플레이어 경험치",IF(E35=6,"캐릭터 경험치",IF(E35=7,VLOOKUP(G35,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E35=8,VLOOKUP(G35,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E35=111,VLOOKUP(G35,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E35=113,VLOOKUP(G35,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -6428,7 +6419,7 @@
         <v>80</v>
       </c>
       <c r="G36" s="42">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H36" s="53" t="str">
         <f>IF(E36=1000,VLOOKUP(G36,[2]item!$A$5:$C$10000,3,FALSE),IF(E36=112,VLOOKUP(G36,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E36=1,"골드",IF(E36=2,"보석",IF(E36=3,"스테미나",IF(E36=4,"호감도",IF(E36=5,"플레이어 경험치",IF(E36=6,"캐릭터 경험치",IF(E36=7,VLOOKUP(G36,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E36=8,VLOOKUP(G36,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E36=111,VLOOKUP(G36,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E36=113,VLOOKUP(G36,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -6479,7 +6470,7 @@
         <v>78</v>
       </c>
       <c r="G37" s="42">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="H37" s="53" t="str">
         <f>IF(E37=1000,VLOOKUP(G37,[2]item!$A$5:$C$10000,3,FALSE),IF(E37=112,VLOOKUP(G37,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E37=1,"골드",IF(E37=2,"보석",IF(E37=3,"스테미나",IF(E37=4,"호감도",IF(E37=5,"플레이어 경험치",IF(E37=6,"캐릭터 경험치",IF(E37=7,VLOOKUP(G37,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E37=8,VLOOKUP(G37,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E37=111,VLOOKUP(G37,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E37=113,VLOOKUP(G37,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -6530,7 +6521,7 @@
         <v>81</v>
       </c>
       <c r="G38" s="42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H38" s="53" t="str">
         <f>IF(E38=1000,VLOOKUP(G38,[2]item!$A$5:$C$10000,3,FALSE),IF(E38=112,VLOOKUP(G38,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E38=1,"골드",IF(E38=2,"보석",IF(E38=3,"스테미나",IF(E38=4,"호감도",IF(E38=5,"플레이어 경험치",IF(E38=6,"캐릭터 경험치",IF(E38=7,VLOOKUP(G38,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E38=8,VLOOKUP(G38,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E38=111,VLOOKUP(G38,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E38=113,VLOOKUP(G38,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -7091,7 +7082,7 @@
         <v>79</v>
       </c>
       <c r="G49" s="42">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H49" s="53" t="str">
         <f>IF(E49=1000,VLOOKUP(G49,[2]item!$A$5:$C$10000,3,FALSE),IF(E49=112,VLOOKUP(G49,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E49=1,"골드",IF(E49=2,"보석",IF(E49=3,"스테미나",IF(E49=4,"호감도",IF(E49=5,"플레이어 경험치",IF(E49=6,"캐릭터 경험치",IF(E49=7,VLOOKUP(G49,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E49=8,VLOOKUP(G49,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E49=111,VLOOKUP(G49,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E49=113,VLOOKUP(G49,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -7142,7 +7133,7 @@
         <v>80</v>
       </c>
       <c r="G50" s="42">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H50" s="53" t="str">
         <f>IF(E50=1000,VLOOKUP(G50,[2]item!$A$5:$C$10000,3,FALSE),IF(E50=112,VLOOKUP(G50,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E50=1,"골드",IF(E50=2,"보석",IF(E50=3,"스테미나",IF(E50=4,"호감도",IF(E50=5,"플레이어 경험치",IF(E50=6,"캐릭터 경험치",IF(E50=7,VLOOKUP(G50,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E50=8,VLOOKUP(G50,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E50=111,VLOOKUP(G50,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E50=113,VLOOKUP(G50,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -7193,7 +7184,7 @@
         <v>78</v>
       </c>
       <c r="G51" s="42">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="H51" s="53" t="str">
         <f>IF(E51=1000,VLOOKUP(G51,[2]item!$A$5:$C$10000,3,FALSE),IF(E51=112,VLOOKUP(G51,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E51=1,"골드",IF(E51=2,"보석",IF(E51=3,"스테미나",IF(E51=4,"호감도",IF(E51=5,"플레이어 경험치",IF(E51=6,"캐릭터 경험치",IF(E51=7,VLOOKUP(G51,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E51=8,VLOOKUP(G51,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E51=111,VLOOKUP(G51,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E51=113,VLOOKUP(G51,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -7244,7 +7235,7 @@
         <v>81</v>
       </c>
       <c r="G52" s="42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H52" s="53" t="str">
         <f>IF(E52=1000,VLOOKUP(G52,[2]item!$A$5:$C$10000,3,FALSE),IF(E52=112,VLOOKUP(G52,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E52=1,"골드",IF(E52=2,"보석",IF(E52=3,"스테미나",IF(E52=4,"호감도",IF(E52=5,"플레이어 경험치",IF(E52=6,"캐릭터 경험치",IF(E52=7,VLOOKUP(G52,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E52=8,VLOOKUP(G52,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E52=111,VLOOKUP(G52,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E52=113,VLOOKUP(G52,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -7805,7 +7796,7 @@
         <v>79</v>
       </c>
       <c r="G63" s="42">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H63" s="53" t="str">
         <f>IF(E63=1000,VLOOKUP(G63,[2]item!$A$5:$C$10000,3,FALSE),IF(E63=112,VLOOKUP(G63,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E63=1,"골드",IF(E63=2,"보석",IF(E63=3,"스테미나",IF(E63=4,"호감도",IF(E63=5,"플레이어 경험치",IF(E63=6,"캐릭터 경험치",IF(E63=7,VLOOKUP(G63,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E63=8,VLOOKUP(G63,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E63=111,VLOOKUP(G63,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E63=113,VLOOKUP(G63,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -7856,7 +7847,7 @@
         <v>80</v>
       </c>
       <c r="G64" s="42">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H64" s="53" t="str">
         <f>IF(E64=1000,VLOOKUP(G64,[2]item!$A$5:$C$10000,3,FALSE),IF(E64=112,VLOOKUP(G64,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E64=1,"골드",IF(E64=2,"보석",IF(E64=3,"스테미나",IF(E64=4,"호감도",IF(E64=5,"플레이어 경험치",IF(E64=6,"캐릭터 경험치",IF(E64=7,VLOOKUP(G64,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E64=8,VLOOKUP(G64,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E64=111,VLOOKUP(G64,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E64=113,VLOOKUP(G64,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -7907,7 +7898,7 @@
         <v>78</v>
       </c>
       <c r="G65" s="42">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="H65" s="53" t="str">
         <f>IF(E65=1000,VLOOKUP(G65,[2]item!$A$5:$C$10000,3,FALSE),IF(E65=112,VLOOKUP(G65,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E65=1,"골드",IF(E65=2,"보석",IF(E65=3,"스테미나",IF(E65=4,"호감도",IF(E65=5,"플레이어 경험치",IF(E65=6,"캐릭터 경험치",IF(E65=7,VLOOKUP(G65,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E65=8,VLOOKUP(G65,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E65=111,VLOOKUP(G65,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E65=113,VLOOKUP(G65,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -7958,7 +7949,7 @@
         <v>81</v>
       </c>
       <c r="G66" s="42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H66" s="53" t="str">
         <f>IF(E66=1000,VLOOKUP(G66,[2]item!$A$5:$C$10000,3,FALSE),IF(E66=112,VLOOKUP(G66,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E66=1,"골드",IF(E66=2,"보석",IF(E66=3,"스테미나",IF(E66=4,"호감도",IF(E66=5,"플레이어 경험치",IF(E66=6,"캐릭터 경험치",IF(E66=7,VLOOKUP(G66,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E66=8,VLOOKUP(G66,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E66=111,VLOOKUP(G66,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E66=113,VLOOKUP(G66,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -8519,7 +8510,7 @@
         <v>79</v>
       </c>
       <c r="G77" s="42">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H77" s="53" t="str">
         <f>IF(E77=1000,VLOOKUP(G77,[2]item!$A$5:$C$10000,3,FALSE),IF(E77=112,VLOOKUP(G77,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E77=1,"골드",IF(E77=2,"보석",IF(E77=3,"스테미나",IF(E77=4,"호감도",IF(E77=5,"플레이어 경험치",IF(E77=6,"캐릭터 경험치",IF(E77=7,VLOOKUP(G77,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E77=8,VLOOKUP(G77,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E77=111,VLOOKUP(G77,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E77=113,VLOOKUP(G77,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -8570,7 +8561,7 @@
         <v>80</v>
       </c>
       <c r="G78" s="42">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H78" s="53" t="str">
         <f>IF(E78=1000,VLOOKUP(G78,[2]item!$A$5:$C$10000,3,FALSE),IF(E78=112,VLOOKUP(G78,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E78=1,"골드",IF(E78=2,"보석",IF(E78=3,"스테미나",IF(E78=4,"호감도",IF(E78=5,"플레이어 경험치",IF(E78=6,"캐릭터 경험치",IF(E78=7,VLOOKUP(G78,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E78=8,VLOOKUP(G78,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E78=111,VLOOKUP(G78,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E78=113,VLOOKUP(G78,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -8621,7 +8612,7 @@
         <v>78</v>
       </c>
       <c r="G79" s="42">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="H79" s="53" t="str">
         <f>IF(E79=1000,VLOOKUP(G79,[2]item!$A$5:$C$10000,3,FALSE),IF(E79=112,VLOOKUP(G79,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E79=1,"골드",IF(E79=2,"보석",IF(E79=3,"스테미나",IF(E79=4,"호감도",IF(E79=5,"플레이어 경험치",IF(E79=6,"캐릭터 경험치",IF(E79=7,VLOOKUP(G79,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E79=8,VLOOKUP(G79,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E79=111,VLOOKUP(G79,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E79=113,VLOOKUP(G79,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -8672,7 +8663,7 @@
         <v>81</v>
       </c>
       <c r="G80" s="42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H80" s="53" t="str">
         <f>IF(E80=1000,VLOOKUP(G80,[2]item!$A$5:$C$10000,3,FALSE),IF(E80=112,VLOOKUP(G80,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E80=1,"골드",IF(E80=2,"보석",IF(E80=3,"스테미나",IF(E80=4,"호감도",IF(E80=5,"플레이어 경험치",IF(E80=6,"캐릭터 경험치",IF(E80=7,VLOOKUP(G80,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E80=8,VLOOKUP(G80,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E80=111,VLOOKUP(G80,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E80=113,VLOOKUP(G80,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -9233,7 +9224,7 @@
         <v>79</v>
       </c>
       <c r="G91" s="42">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H91" s="53" t="str">
         <f>IF(E91=1000,VLOOKUP(G91,[2]item!$A$5:$C$10000,3,FALSE),IF(E91=112,VLOOKUP(G91,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E91=1,"골드",IF(E91=2,"보석",IF(E91=3,"스테미나",IF(E91=4,"호감도",IF(E91=5,"플레이어 경험치",IF(E91=6,"캐릭터 경험치",IF(E91=7,VLOOKUP(G91,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E91=8,VLOOKUP(G91,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E91=111,VLOOKUP(G91,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E91=113,VLOOKUP(G91,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -9284,7 +9275,7 @@
         <v>80</v>
       </c>
       <c r="G92" s="42">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H92" s="53" t="str">
         <f>IF(E92=1000,VLOOKUP(G92,[2]item!$A$5:$C$10000,3,FALSE),IF(E92=112,VLOOKUP(G92,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E92=1,"골드",IF(E92=2,"보석",IF(E92=3,"스테미나",IF(E92=4,"호감도",IF(E92=5,"플레이어 경험치",IF(E92=6,"캐릭터 경험치",IF(E92=7,VLOOKUP(G92,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E92=8,VLOOKUP(G92,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E92=111,VLOOKUP(G92,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E92=113,VLOOKUP(G92,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -9335,7 +9326,7 @@
         <v>78</v>
       </c>
       <c r="G93" s="42">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="H93" s="53" t="str">
         <f>IF(E93=1000,VLOOKUP(G93,[2]item!$A$5:$C$10000,3,FALSE),IF(E93=112,VLOOKUP(G93,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E93=1,"골드",IF(E93=2,"보석",IF(E93=3,"스테미나",IF(E93=4,"호감도",IF(E93=5,"플레이어 경험치",IF(E93=6,"캐릭터 경험치",IF(E93=7,VLOOKUP(G93,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E93=8,VLOOKUP(G93,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E93=111,VLOOKUP(G93,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E93=113,VLOOKUP(G93,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -9386,7 +9377,7 @@
         <v>81</v>
       </c>
       <c r="G94" s="42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H94" s="53" t="str">
         <f>IF(E94=1000,VLOOKUP(G94,[2]item!$A$5:$C$10000,3,FALSE),IF(E94=112,VLOOKUP(G94,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E94=1,"골드",IF(E94=2,"보석",IF(E94=3,"스테미나",IF(E94=4,"호감도",IF(E94=5,"플레이어 경험치",IF(E94=6,"캐릭터 경험치",IF(E94=7,VLOOKUP(G94,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E94=8,VLOOKUP(G94,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E94=111,VLOOKUP(G94,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E94=113,VLOOKUP(G94,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -9947,7 +9938,7 @@
         <v>79</v>
       </c>
       <c r="G105" s="42">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H105" s="53" t="str">
         <f>IF(E105=1000,VLOOKUP(G105,[2]item!$A$5:$C$10000,3,FALSE),IF(E105=112,VLOOKUP(G105,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E105=1,"골드",IF(E105=2,"보석",IF(E105=3,"스테미나",IF(E105=4,"호감도",IF(E105=5,"플레이어 경험치",IF(E105=6,"캐릭터 경험치",IF(E105=7,VLOOKUP(G105,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E105=8,VLOOKUP(G105,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E105=111,VLOOKUP(G105,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E105=113,VLOOKUP(G105,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -9998,7 +9989,7 @@
         <v>80</v>
       </c>
       <c r="G106" s="42">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H106" s="53" t="str">
         <f>IF(E106=1000,VLOOKUP(G106,[2]item!$A$5:$C$10000,3,FALSE),IF(E106=112,VLOOKUP(G106,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E106=1,"골드",IF(E106=2,"보석",IF(E106=3,"스테미나",IF(E106=4,"호감도",IF(E106=5,"플레이어 경험치",IF(E106=6,"캐릭터 경험치",IF(E106=7,VLOOKUP(G106,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E106=8,VLOOKUP(G106,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E106=111,VLOOKUP(G106,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E106=113,VLOOKUP(G106,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -10049,7 +10040,7 @@
         <v>78</v>
       </c>
       <c r="G107" s="42">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="H107" s="53" t="str">
         <f>IF(E107=1000,VLOOKUP(G107,[2]item!$A$5:$C$10000,3,FALSE),IF(E107=112,VLOOKUP(G107,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E107=1,"골드",IF(E107=2,"보석",IF(E107=3,"스테미나",IF(E107=4,"호감도",IF(E107=5,"플레이어 경험치",IF(E107=6,"캐릭터 경험치",IF(E107=7,VLOOKUP(G107,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E107=8,VLOOKUP(G107,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E107=111,VLOOKUP(G107,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E107=113,VLOOKUP(G107,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -10100,7 +10091,7 @@
         <v>81</v>
       </c>
       <c r="G108" s="42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H108" s="53" t="str">
         <f>IF(E108=1000,VLOOKUP(G108,[2]item!$A$5:$C$10000,3,FALSE),IF(E108=112,VLOOKUP(G108,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E108=1,"골드",IF(E108=2,"보석",IF(E108=3,"스테미나",IF(E108=4,"호감도",IF(E108=5,"플레이어 경험치",IF(E108=6,"캐릭터 경험치",IF(E108=7,VLOOKUP(G108,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E108=8,VLOOKUP(G108,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E108=111,VLOOKUP(G108,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E108=113,VLOOKUP(G108,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -10661,7 +10652,7 @@
         <v>79</v>
       </c>
       <c r="G119" s="42">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H119" s="53" t="str">
         <f>IF(E119=1000,VLOOKUP(G119,[2]item!$A$5:$C$10000,3,FALSE),IF(E119=112,VLOOKUP(G119,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E119=1,"골드",IF(E119=2,"보석",IF(E119=3,"스테미나",IF(E119=4,"호감도",IF(E119=5,"플레이어 경험치",IF(E119=6,"캐릭터 경험치",IF(E119=7,VLOOKUP(G119,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E119=8,VLOOKUP(G119,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E119=111,VLOOKUP(G119,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E119=113,VLOOKUP(G119,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -10712,7 +10703,7 @@
         <v>80</v>
       </c>
       <c r="G120" s="42">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H120" s="53" t="str">
         <f>IF(E120=1000,VLOOKUP(G120,[2]item!$A$5:$C$10000,3,FALSE),IF(E120=112,VLOOKUP(G120,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E120=1,"골드",IF(E120=2,"보석",IF(E120=3,"스테미나",IF(E120=4,"호감도",IF(E120=5,"플레이어 경험치",IF(E120=6,"캐릭터 경험치",IF(E120=7,VLOOKUP(G120,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E120=8,VLOOKUP(G120,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E120=111,VLOOKUP(G120,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E120=113,VLOOKUP(G120,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -10763,7 +10754,7 @@
         <v>78</v>
       </c>
       <c r="G121" s="42">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="H121" s="53" t="str">
         <f>IF(E121=1000,VLOOKUP(G121,[2]item!$A$5:$C$10000,3,FALSE),IF(E121=112,VLOOKUP(G121,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E121=1,"골드",IF(E121=2,"보석",IF(E121=3,"스테미나",IF(E121=4,"호감도",IF(E121=5,"플레이어 경험치",IF(E121=6,"캐릭터 경험치",IF(E121=7,VLOOKUP(G121,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E121=8,VLOOKUP(G121,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E121=111,VLOOKUP(G121,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E121=113,VLOOKUP(G121,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -10814,7 +10805,7 @@
         <v>81</v>
       </c>
       <c r="G122" s="42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H122" s="53" t="str">
         <f>IF(E122=1000,VLOOKUP(G122,[2]item!$A$5:$C$10000,3,FALSE),IF(E122=112,VLOOKUP(G122,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E122=1,"골드",IF(E122=2,"보석",IF(E122=3,"스테미나",IF(E122=4,"호감도",IF(E122=5,"플레이어 경험치",IF(E122=6,"캐릭터 경험치",IF(E122=7,VLOOKUP(G122,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E122=8,VLOOKUP(G122,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E122=111,VLOOKUP(G122,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E122=113,VLOOKUP(G122,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -11375,7 +11366,7 @@
         <v>79</v>
       </c>
       <c r="G133" s="42">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H133" s="53" t="str">
         <f>IF(E133=1000,VLOOKUP(G133,[2]item!$A$5:$C$10000,3,FALSE),IF(E133=112,VLOOKUP(G133,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E133=1,"골드",IF(E133=2,"보석",IF(E133=3,"스테미나",IF(E133=4,"호감도",IF(E133=5,"플레이어 경험치",IF(E133=6,"캐릭터 경험치",IF(E133=7,VLOOKUP(G133,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E133=8,VLOOKUP(G133,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E133=111,VLOOKUP(G133,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E133=113,VLOOKUP(G133,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -11426,7 +11417,7 @@
         <v>80</v>
       </c>
       <c r="G134" s="42">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H134" s="53" t="str">
         <f>IF(E134=1000,VLOOKUP(G134,[2]item!$A$5:$C$10000,3,FALSE),IF(E134=112,VLOOKUP(G134,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E134=1,"골드",IF(E134=2,"보석",IF(E134=3,"스테미나",IF(E134=4,"호감도",IF(E134=5,"플레이어 경험치",IF(E134=6,"캐릭터 경험치",IF(E134=7,VLOOKUP(G134,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E134=8,VLOOKUP(G134,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E134=111,VLOOKUP(G134,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E134=113,VLOOKUP(G134,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -11477,7 +11468,7 @@
         <v>78</v>
       </c>
       <c r="G135" s="42">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="H135" s="53" t="str">
         <f>IF(E135=1000,VLOOKUP(G135,[2]item!$A$5:$C$10000,3,FALSE),IF(E135=112,VLOOKUP(G135,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E135=1,"골드",IF(E135=2,"보석",IF(E135=3,"스테미나",IF(E135=4,"호감도",IF(E135=5,"플레이어 경험치",IF(E135=6,"캐릭터 경험치",IF(E135=7,VLOOKUP(G135,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E135=8,VLOOKUP(G135,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E135=111,VLOOKUP(G135,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E135=113,VLOOKUP(G135,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -11528,7 +11519,7 @@
         <v>81</v>
       </c>
       <c r="G136" s="42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H136" s="53" t="str">
         <f>IF(E136=1000,VLOOKUP(G136,[2]item!$A$5:$C$10000,3,FALSE),IF(E136=112,VLOOKUP(G136,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E136=1,"골드",IF(E136=2,"보석",IF(E136=3,"스테미나",IF(E136=4,"호감도",IF(E136=5,"플레이어 경험치",IF(E136=6,"캐릭터 경험치",IF(E136=7,VLOOKUP(G136,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E136=8,VLOOKUP(G136,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E136=111,VLOOKUP(G136,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E136=113,VLOOKUP(G136,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -12089,7 +12080,7 @@
         <v>79</v>
       </c>
       <c r="G147" s="42">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H147" s="53" t="str">
         <f>IF(E147=1000,VLOOKUP(G147,[2]item!$A$5:$C$10000,3,FALSE),IF(E147=112,VLOOKUP(G147,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E147=1,"골드",IF(E147=2,"보석",IF(E147=3,"스테미나",IF(E147=4,"호감도",IF(E147=5,"플레이어 경험치",IF(E147=6,"캐릭터 경험치",IF(E147=7,VLOOKUP(G147,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E147=8,VLOOKUP(G147,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E147=111,VLOOKUP(G147,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E147=113,VLOOKUP(G147,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -12140,7 +12131,7 @@
         <v>80</v>
       </c>
       <c r="G148" s="42">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H148" s="53" t="str">
         <f>IF(E148=1000,VLOOKUP(G148,[2]item!$A$5:$C$10000,3,FALSE),IF(E148=112,VLOOKUP(G148,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E148=1,"골드",IF(E148=2,"보석",IF(E148=3,"스테미나",IF(E148=4,"호감도",IF(E148=5,"플레이어 경험치",IF(E148=6,"캐릭터 경험치",IF(E148=7,VLOOKUP(G148,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E148=8,VLOOKUP(G148,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E148=111,VLOOKUP(G148,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E148=113,VLOOKUP(G148,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -12191,7 +12182,7 @@
         <v>78</v>
       </c>
       <c r="G149" s="42">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="H149" s="53" t="str">
         <f>IF(E149=1000,VLOOKUP(G149,[2]item!$A$5:$C$10000,3,FALSE),IF(E149=112,VLOOKUP(G149,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E149=1,"골드",IF(E149=2,"보석",IF(E149=3,"스테미나",IF(E149=4,"호감도",IF(E149=5,"플레이어 경험치",IF(E149=6,"캐릭터 경험치",IF(E149=7,VLOOKUP(G149,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E149=8,VLOOKUP(G149,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E149=111,VLOOKUP(G149,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E149=113,VLOOKUP(G149,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -12242,7 +12233,7 @@
         <v>81</v>
       </c>
       <c r="G150" s="42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H150" s="53" t="str">
         <f>IF(E150=1000,VLOOKUP(G150,[2]item!$A$5:$C$10000,3,FALSE),IF(E150=112,VLOOKUP(G150,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E150=1,"골드",IF(E150=2,"보석",IF(E150=3,"스테미나",IF(E150=4,"호감도",IF(E150=5,"플레이어 경험치",IF(E150=6,"캐릭터 경험치",IF(E150=7,VLOOKUP(G150,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E150=8,VLOOKUP(G150,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E150=111,VLOOKUP(G150,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E150=113,VLOOKUP(G150,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -12803,7 +12794,7 @@
         <v>79</v>
       </c>
       <c r="G161" s="42">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H161" s="53" t="str">
         <f>IF(E161=1000,VLOOKUP(G161,[2]item!$A$5:$C$10000,3,FALSE),IF(E161=112,VLOOKUP(G161,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E161=1,"골드",IF(E161=2,"보석",IF(E161=3,"스테미나",IF(E161=4,"호감도",IF(E161=5,"플레이어 경험치",IF(E161=6,"캐릭터 경험치",IF(E161=7,VLOOKUP(G161,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E161=8,VLOOKUP(G161,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E161=111,VLOOKUP(G161,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E161=113,VLOOKUP(G161,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -12854,7 +12845,7 @@
         <v>80</v>
       </c>
       <c r="G162" s="42">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H162" s="53" t="str">
         <f>IF(E162=1000,VLOOKUP(G162,[2]item!$A$5:$C$10000,3,FALSE),IF(E162=112,VLOOKUP(G162,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E162=1,"골드",IF(E162=2,"보석",IF(E162=3,"스테미나",IF(E162=4,"호감도",IF(E162=5,"플레이어 경험치",IF(E162=6,"캐릭터 경험치",IF(E162=7,VLOOKUP(G162,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E162=8,VLOOKUP(G162,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E162=111,VLOOKUP(G162,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E162=113,VLOOKUP(G162,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -12905,7 +12896,7 @@
         <v>78</v>
       </c>
       <c r="G163" s="42">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="H163" s="53" t="str">
         <f>IF(E163=1000,VLOOKUP(G163,[2]item!$A$5:$C$10000,3,FALSE),IF(E163=112,VLOOKUP(G163,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E163=1,"골드",IF(E163=2,"보석",IF(E163=3,"스테미나",IF(E163=4,"호감도",IF(E163=5,"플레이어 경험치",IF(E163=6,"캐릭터 경험치",IF(E163=7,VLOOKUP(G163,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E163=8,VLOOKUP(G163,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E163=111,VLOOKUP(G163,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E163=113,VLOOKUP(G163,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -12956,7 +12947,7 @@
         <v>81</v>
       </c>
       <c r="G164" s="42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H164" s="53" t="str">
         <f>IF(E164=1000,VLOOKUP(G164,[2]item!$A$5:$C$10000,3,FALSE),IF(E164=112,VLOOKUP(G164,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E164=1,"골드",IF(E164=2,"보석",IF(E164=3,"스테미나",IF(E164=4,"호감도",IF(E164=5,"플레이어 경험치",IF(E164=6,"캐릭터 경험치",IF(E164=7,VLOOKUP(G164,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E164=8,VLOOKUP(G164,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E164=111,VLOOKUP(G164,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E164=113,VLOOKUP(G164,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -13517,7 +13508,7 @@
         <v>79</v>
       </c>
       <c r="G175" s="42">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H175" s="53" t="str">
         <f>IF(E175=1000,VLOOKUP(G175,[2]item!$A$5:$C$10000,3,FALSE),IF(E175=112,VLOOKUP(G175,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E175=1,"골드",IF(E175=2,"보석",IF(E175=3,"스테미나",IF(E175=4,"호감도",IF(E175=5,"플레이어 경험치",IF(E175=6,"캐릭터 경험치",IF(E175=7,VLOOKUP(G175,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E175=8,VLOOKUP(G175,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E175=111,VLOOKUP(G175,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E175=113,VLOOKUP(G175,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -13568,7 +13559,7 @@
         <v>80</v>
       </c>
       <c r="G176" s="42">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H176" s="53" t="str">
         <f>IF(E176=1000,VLOOKUP(G176,[2]item!$A$5:$C$10000,3,FALSE),IF(E176=112,VLOOKUP(G176,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E176=1,"골드",IF(E176=2,"보석",IF(E176=3,"스테미나",IF(E176=4,"호감도",IF(E176=5,"플레이어 경험치",IF(E176=6,"캐릭터 경험치",IF(E176=7,VLOOKUP(G176,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E176=8,VLOOKUP(G176,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E176=111,VLOOKUP(G176,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E176=113,VLOOKUP(G176,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -13619,7 +13610,7 @@
         <v>78</v>
       </c>
       <c r="G177" s="42">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="H177" s="53" t="str">
         <f>IF(E177=1000,VLOOKUP(G177,[2]item!$A$5:$C$10000,3,FALSE),IF(E177=112,VLOOKUP(G177,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E177=1,"골드",IF(E177=2,"보석",IF(E177=3,"스테미나",IF(E177=4,"호감도",IF(E177=5,"플레이어 경험치",IF(E177=6,"캐릭터 경험치",IF(E177=7,VLOOKUP(G177,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E177=8,VLOOKUP(G177,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E177=111,VLOOKUP(G177,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E177=113,VLOOKUP(G177,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -13670,7 +13661,7 @@
         <v>81</v>
       </c>
       <c r="G178" s="42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H178" s="53" t="str">
         <f>IF(E178=1000,VLOOKUP(G178,[2]item!$A$5:$C$10000,3,FALSE),IF(E178=112,VLOOKUP(G178,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E178=1,"골드",IF(E178=2,"보석",IF(E178=3,"스테미나",IF(E178=4,"호감도",IF(E178=5,"플레이어 경험치",IF(E178=6,"캐릭터 경험치",IF(E178=7,VLOOKUP(G178,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E178=8,VLOOKUP(G178,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E178=111,VLOOKUP(G178,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E178=113,VLOOKUP(G178,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -14231,7 +14222,7 @@
         <v>79</v>
       </c>
       <c r="G189" s="42">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H189" s="53" t="str">
         <f>IF(E189=1000,VLOOKUP(G189,[2]item!$A$5:$C$10000,3,FALSE),IF(E189=112,VLOOKUP(G189,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E189=1,"골드",IF(E189=2,"보석",IF(E189=3,"스테미나",IF(E189=4,"호감도",IF(E189=5,"플레이어 경험치",IF(E189=6,"캐릭터 경험치",IF(E189=7,VLOOKUP(G189,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E189=8,VLOOKUP(G189,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E189=111,VLOOKUP(G189,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E189=113,VLOOKUP(G189,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -14282,7 +14273,7 @@
         <v>80</v>
       </c>
       <c r="G190" s="42">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H190" s="53" t="str">
         <f>IF(E190=1000,VLOOKUP(G190,[2]item!$A$5:$C$10000,3,FALSE),IF(E190=112,VLOOKUP(G190,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E190=1,"골드",IF(E190=2,"보석",IF(E190=3,"스테미나",IF(E190=4,"호감도",IF(E190=5,"플레이어 경험치",IF(E190=6,"캐릭터 경험치",IF(E190=7,VLOOKUP(G190,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E190=8,VLOOKUP(G190,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E190=111,VLOOKUP(G190,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E190=113,VLOOKUP(G190,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -14333,7 +14324,7 @@
         <v>78</v>
       </c>
       <c r="G191" s="42">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="H191" s="53" t="str">
         <f>IF(E191=1000,VLOOKUP(G191,[2]item!$A$5:$C$10000,3,FALSE),IF(E191=112,VLOOKUP(G191,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E191=1,"골드",IF(E191=2,"보석",IF(E191=3,"스테미나",IF(E191=4,"호감도",IF(E191=5,"플레이어 경험치",IF(E191=6,"캐릭터 경험치",IF(E191=7,VLOOKUP(G191,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E191=8,VLOOKUP(G191,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E191=111,VLOOKUP(G191,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E191=113,VLOOKUP(G191,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -14384,7 +14375,7 @@
         <v>81</v>
       </c>
       <c r="G192" s="42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H192" s="53" t="str">
         <f>IF(E192=1000,VLOOKUP(G192,[2]item!$A$5:$C$10000,3,FALSE),IF(E192=112,VLOOKUP(G192,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E192=1,"골드",IF(E192=2,"보석",IF(E192=3,"스테미나",IF(E192=4,"호감도",IF(E192=5,"플레이어 경험치",IF(E192=6,"캐릭터 경험치",IF(E192=7,VLOOKUP(G192,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E192=8,VLOOKUP(G192,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E192=111,VLOOKUP(G192,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E192=113,VLOOKUP(G192,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -14945,7 +14936,7 @@
         <v>79</v>
       </c>
       <c r="G203" s="42">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H203" s="53" t="str">
         <f>IF(E203=1000,VLOOKUP(G203,[2]item!$A$5:$C$10000,3,FALSE),IF(E203=112,VLOOKUP(G203,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E203=1,"골드",IF(E203=2,"보석",IF(E203=3,"스테미나",IF(E203=4,"호감도",IF(E203=5,"플레이어 경험치",IF(E203=6,"캐릭터 경험치",IF(E203=7,VLOOKUP(G203,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E203=8,VLOOKUP(G203,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E203=111,VLOOKUP(G203,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E203=113,VLOOKUP(G203,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -14996,7 +14987,7 @@
         <v>80</v>
       </c>
       <c r="G204" s="42">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H204" s="53" t="str">
         <f>IF(E204=1000,VLOOKUP(G204,[2]item!$A$5:$C$10000,3,FALSE),IF(E204=112,VLOOKUP(G204,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E204=1,"골드",IF(E204=2,"보석",IF(E204=3,"스테미나",IF(E204=4,"호감도",IF(E204=5,"플레이어 경험치",IF(E204=6,"캐릭터 경험치",IF(E204=7,VLOOKUP(G204,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E204=8,VLOOKUP(G204,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E204=111,VLOOKUP(G204,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E204=113,VLOOKUP(G204,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -15047,7 +15038,7 @@
         <v>78</v>
       </c>
       <c r="G205" s="42">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="H205" s="53" t="str">
         <f>IF(E205=1000,VLOOKUP(G205,[2]item!$A$5:$C$10000,3,FALSE),IF(E205=112,VLOOKUP(G205,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E205=1,"골드",IF(E205=2,"보석",IF(E205=3,"스테미나",IF(E205=4,"호감도",IF(E205=5,"플레이어 경험치",IF(E205=6,"캐릭터 경험치",IF(E205=7,VLOOKUP(G205,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E205=8,VLOOKUP(G205,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E205=111,VLOOKUP(G205,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E205=113,VLOOKUP(G205,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -15098,7 +15089,7 @@
         <v>81</v>
       </c>
       <c r="G206" s="42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H206" s="53" t="str">
         <f>IF(E206=1000,VLOOKUP(G206,[2]item!$A$5:$C$10000,3,FALSE),IF(E206=112,VLOOKUP(G206,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E206=1,"골드",IF(E206=2,"보석",IF(E206=3,"스테미나",IF(E206=4,"호감도",IF(E206=5,"플레이어 경험치",IF(E206=6,"캐릭터 경험치",IF(E206=7,VLOOKUP(G206,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E206=8,VLOOKUP(G206,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E206=111,VLOOKUP(G206,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E206=113,VLOOKUP(G206,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -15659,7 +15650,7 @@
         <v>79</v>
       </c>
       <c r="G217" s="42">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H217" s="53" t="str">
         <f>IF(E217=1000,VLOOKUP(G217,[2]item!$A$5:$C$10000,3,FALSE),IF(E217=112,VLOOKUP(G217,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E217=1,"골드",IF(E217=2,"보석",IF(E217=3,"스테미나",IF(E217=4,"호감도",IF(E217=5,"플레이어 경험치",IF(E217=6,"캐릭터 경험치",IF(E217=7,VLOOKUP(G217,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E217=8,VLOOKUP(G217,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E217=111,VLOOKUP(G217,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E217=113,VLOOKUP(G217,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -15710,7 +15701,7 @@
         <v>80</v>
       </c>
       <c r="G218" s="42">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H218" s="53" t="str">
         <f>IF(E218=1000,VLOOKUP(G218,[2]item!$A$5:$C$10000,3,FALSE),IF(E218=112,VLOOKUP(G218,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E218=1,"골드",IF(E218=2,"보석",IF(E218=3,"스테미나",IF(E218=4,"호감도",IF(E218=5,"플레이어 경험치",IF(E218=6,"캐릭터 경험치",IF(E218=7,VLOOKUP(G218,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E218=8,VLOOKUP(G218,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E218=111,VLOOKUP(G218,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E218=113,VLOOKUP(G218,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -15761,7 +15752,7 @@
         <v>78</v>
       </c>
       <c r="G219" s="42">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="H219" s="53" t="str">
         <f>IF(E219=1000,VLOOKUP(G219,[2]item!$A$5:$C$10000,3,FALSE),IF(E219=112,VLOOKUP(G219,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E219=1,"골드",IF(E219=2,"보석",IF(E219=3,"스테미나",IF(E219=4,"호감도",IF(E219=5,"플레이어 경험치",IF(E219=6,"캐릭터 경험치",IF(E219=7,VLOOKUP(G219,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E219=8,VLOOKUP(G219,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E219=111,VLOOKUP(G219,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E219=113,VLOOKUP(G219,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -15812,7 +15803,7 @@
         <v>81</v>
       </c>
       <c r="G220" s="42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H220" s="53" t="str">
         <f>IF(E220=1000,VLOOKUP(G220,[2]item!$A$5:$C$10000,3,FALSE),IF(E220=112,VLOOKUP(G220,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E220=1,"골드",IF(E220=2,"보석",IF(E220=3,"스테미나",IF(E220=4,"호감도",IF(E220=5,"플레이어 경험치",IF(E220=6,"캐릭터 경험치",IF(E220=7,VLOOKUP(G220,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E220=8,VLOOKUP(G220,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E220=111,VLOOKUP(G220,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E220=113,VLOOKUP(G220,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -16169,7 +16160,7 @@
         <v>79</v>
       </c>
       <c r="G227" s="42">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H227" s="53" t="str">
         <f>IF(E227=1000,VLOOKUP(G227,[2]item!$A$5:$C$10000,3,FALSE),IF(E227=112,VLOOKUP(G227,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E227=1,"골드",IF(E227=2,"보석",IF(E227=3,"스테미나",IF(E227=4,"호감도",IF(E227=5,"플레이어 경험치",IF(E227=6,"캐릭터 경험치",IF(E227=7,VLOOKUP(G227,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E227=8,VLOOKUP(G227,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E227=111,VLOOKUP(G227,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E227=113,VLOOKUP(G227,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -16220,7 +16211,7 @@
         <v>80</v>
       </c>
       <c r="G228" s="42">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H228" s="53" t="str">
         <f>IF(E228=1000,VLOOKUP(G228,[2]item!$A$5:$C$10000,3,FALSE),IF(E228=112,VLOOKUP(G228,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E228=1,"골드",IF(E228=2,"보석",IF(E228=3,"스테미나",IF(E228=4,"호감도",IF(E228=5,"플레이어 경험치",IF(E228=6,"캐릭터 경험치",IF(E228=7,VLOOKUP(G228,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E228=8,VLOOKUP(G228,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E228=111,VLOOKUP(G228,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E228=113,VLOOKUP(G228,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -16271,7 +16262,7 @@
         <v>78</v>
       </c>
       <c r="G229" s="42">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="H229" s="53" t="str">
         <f>IF(E229=1000,VLOOKUP(G229,[2]item!$A$5:$C$10000,3,FALSE),IF(E229=112,VLOOKUP(G229,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E229=1,"골드",IF(E229=2,"보석",IF(E229=3,"스테미나",IF(E229=4,"호감도",IF(E229=5,"플레이어 경험치",IF(E229=6,"캐릭터 경험치",IF(E229=7,VLOOKUP(G229,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E229=8,VLOOKUP(G229,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E229=111,VLOOKUP(G229,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E229=113,VLOOKUP(G229,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -16322,7 +16313,7 @@
         <v>81</v>
       </c>
       <c r="G230" s="42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H230" s="53" t="str">
         <f>IF(E230=1000,VLOOKUP(G230,[2]item!$A$5:$C$10000,3,FALSE),IF(E230=112,VLOOKUP(G230,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E230=1,"골드",IF(E230=2,"보석",IF(E230=3,"스테미나",IF(E230=4,"호감도",IF(E230=5,"플레이어 경험치",IF(E230=6,"캐릭터 경험치",IF(E230=7,VLOOKUP(G230,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E230=8,VLOOKUP(G230,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E230=111,VLOOKUP(G230,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E230=113,VLOOKUP(G230,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -16679,7 +16670,7 @@
         <v>79</v>
       </c>
       <c r="G237" s="42">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H237" s="53" t="str">
         <f>IF(E237=1000,VLOOKUP(G237,[2]item!$A$5:$C$10000,3,FALSE),IF(E237=112,VLOOKUP(G237,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E237=1,"골드",IF(E237=2,"보석",IF(E237=3,"스테미나",IF(E237=4,"호감도",IF(E237=5,"플레이어 경험치",IF(E237=6,"캐릭터 경험치",IF(E237=7,VLOOKUP(G237,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E237=8,VLOOKUP(G237,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E237=111,VLOOKUP(G237,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E237=113,VLOOKUP(G237,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -16730,7 +16721,7 @@
         <v>80</v>
       </c>
       <c r="G238" s="42">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H238" s="53" t="str">
         <f>IF(E238=1000,VLOOKUP(G238,[2]item!$A$5:$C$10000,3,FALSE),IF(E238=112,VLOOKUP(G238,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E238=1,"골드",IF(E238=2,"보석",IF(E238=3,"스테미나",IF(E238=4,"호감도",IF(E238=5,"플레이어 경험치",IF(E238=6,"캐릭터 경험치",IF(E238=7,VLOOKUP(G238,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E238=8,VLOOKUP(G238,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E238=111,VLOOKUP(G238,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E238=113,VLOOKUP(G238,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -16781,7 +16772,7 @@
         <v>78</v>
       </c>
       <c r="G239" s="42">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="H239" s="53" t="str">
         <f>IF(E239=1000,VLOOKUP(G239,[2]item!$A$5:$C$10000,3,FALSE),IF(E239=112,VLOOKUP(G239,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E239=1,"골드",IF(E239=2,"보석",IF(E239=3,"스테미나",IF(E239=4,"호감도",IF(E239=5,"플레이어 경험치",IF(E239=6,"캐릭터 경험치",IF(E239=7,VLOOKUP(G239,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E239=8,VLOOKUP(G239,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E239=111,VLOOKUP(G239,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E239=113,VLOOKUP(G239,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -16832,7 +16823,7 @@
         <v>81</v>
       </c>
       <c r="G240" s="42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H240" s="53" t="str">
         <f>IF(E240=1000,VLOOKUP(G240,[2]item!$A$5:$C$10000,3,FALSE),IF(E240=112,VLOOKUP(G240,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E240=1,"골드",IF(E240=2,"보석",IF(E240=3,"스테미나",IF(E240=4,"호감도",IF(E240=5,"플레이어 경험치",IF(E240=6,"캐릭터 경험치",IF(E240=7,VLOOKUP(G240,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E240=8,VLOOKUP(G240,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E240=111,VLOOKUP(G240,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E240=113,VLOOKUP(G240,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -17189,7 +17180,7 @@
         <v>79</v>
       </c>
       <c r="G247" s="42">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H247" s="53" t="str">
         <f>IF(E247=1000,VLOOKUP(G247,[2]item!$A$5:$C$10000,3,FALSE),IF(E247=112,VLOOKUP(G247,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E247=1,"골드",IF(E247=2,"보석",IF(E247=3,"스테미나",IF(E247=4,"호감도",IF(E247=5,"플레이어 경험치",IF(E247=6,"캐릭터 경험치",IF(E247=7,VLOOKUP(G247,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E247=8,VLOOKUP(G247,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E247=111,VLOOKUP(G247,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E247=113,VLOOKUP(G247,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -17240,7 +17231,7 @@
         <v>80</v>
       </c>
       <c r="G248" s="42">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H248" s="53" t="str">
         <f>IF(E248=1000,VLOOKUP(G248,[2]item!$A$5:$C$10000,3,FALSE),IF(E248=112,VLOOKUP(G248,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E248=1,"골드",IF(E248=2,"보석",IF(E248=3,"스테미나",IF(E248=4,"호감도",IF(E248=5,"플레이어 경험치",IF(E248=6,"캐릭터 경험치",IF(E248=7,VLOOKUP(G248,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E248=8,VLOOKUP(G248,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E248=111,VLOOKUP(G248,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E248=113,VLOOKUP(G248,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -17291,7 +17282,7 @@
         <v>78</v>
       </c>
       <c r="G249" s="42">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="H249" s="53" t="str">
         <f>IF(E249=1000,VLOOKUP(G249,[2]item!$A$5:$C$10000,3,FALSE),IF(E249=112,VLOOKUP(G249,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E249=1,"골드",IF(E249=2,"보석",IF(E249=3,"스테미나",IF(E249=4,"호감도",IF(E249=5,"플레이어 경험치",IF(E249=6,"캐릭터 경험치",IF(E249=7,VLOOKUP(G249,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E249=8,VLOOKUP(G249,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E249=111,VLOOKUP(G249,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E249=113,VLOOKUP(G249,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -17342,7 +17333,7 @@
         <v>81</v>
       </c>
       <c r="G250" s="42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H250" s="53" t="str">
         <f>IF(E250=1000,VLOOKUP(G250,[2]item!$A$5:$C$10000,3,FALSE),IF(E250=112,VLOOKUP(G250,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E250=1,"골드",IF(E250=2,"보석",IF(E250=3,"스테미나",IF(E250=4,"호감도",IF(E250=5,"플레이어 경험치",IF(E250=6,"캐릭터 경험치",IF(E250=7,VLOOKUP(G250,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E250=8,VLOOKUP(G250,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E250=111,VLOOKUP(G250,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E250=113,VLOOKUP(G250,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
@@ -17438,20 +17429,20 @@
       </c>
       <c r="E252" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F252,'!참조_ENUM'!$G$3:$G$42,0))</f>
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="F252" s="49" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="G252" s="4">
         <v>100009</v>
       </c>
       <c r="H252" s="53" t="str">
         <f>IF(E252=1000,VLOOKUP(G252,[2]item!$A$5:$C$10000,3,FALSE),IF(E252=112,VLOOKUP(G252,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E252=1,"골드",IF(E252=2,"보석",IF(E252=3,"스테미나",IF(E252=4,"호감도",IF(E252=5,"플레이어 경험치",IF(E252=6,"캐릭터 경험치",IF(E252=7,VLOOKUP(G252,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E252=8,VLOOKUP(G252,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E252=111,VLOOKUP(G252,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E252=113,VLOOKUP(G252,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
-        <v>엘리자베스 조각</v>
+        <v>엘리자베스</v>
       </c>
       <c r="I252" s="4">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="J252" s="4">
         <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K252,'!참조_ENUM'!$K$3:$K$5,0))</f>

--- a/Android/ExcelData/RewardTable.xlsx
+++ b/Android/ExcelData/RewardTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC648FC-2E11-4315-907C-2E172740771A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFE2028-1DDF-4203-98D8-6FA76D1CCE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="1335" windowWidth="31875" windowHeight="19920" activeTab="2" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
+    <workbookView xWindow="9720" yWindow="1320" windowWidth="27510" windowHeight="19140" activeTab="2" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
   </bookViews>
   <sheets>
     <sheet name="!사용 설명" sheetId="6" r:id="rId1"/>
@@ -1255,6 +1255,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1275,12 +1281,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1447,83 +1447,23 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SECOND_TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>STAT_MULTIPLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ONETIME_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="15">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>DURATION_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PERSISTENCE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SKILL_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="21">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>LIMIT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
@@ -1775,21 +1715,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="30">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_COUNT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="30"/>
       <sheetData sheetId="31"/>
-      <sheetData sheetId="32">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ATTRIBUTE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="32"/>
       <sheetData sheetId="33"/>
       <sheetData sheetId="34"/>
       <sheetData sheetId="35" refreshError="1"/>
@@ -2613,6 +2541,127 @@
           </cell>
           <cell r="C13" t="str">
             <v>엘리자베스</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>100010</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>character_name_0010</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>국장</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>100011</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>character_name_0011</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>에일린(스킨)</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>100012</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>character_name_0012</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>엘리자베스(스킨)</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>100013</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>character_name_0013</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>마네(스킨)</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>100014</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>character_name_0014</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>녹는 악마</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>100015</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>character_name_0015</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>유미 (구)</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>100016</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>character_name_0016</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>유미 (신)</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>100017</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>character_name_0017</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>모리나</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>100018</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>character_name_0018</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>모리나(스킨)</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>100019</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>character_name_0019</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>소피아</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>100020</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>character_name_0020</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>라미</v>
           </cell>
         </row>
       </sheetData>
@@ -3009,10 +3058,10 @@
         <f>'!참조_ENUM'!G2</f>
         <v>comment</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="61"/>
+      <c r="E2" s="63"/>
       <c r="F2" s="38"/>
       <c r="G2" s="38"/>
       <c r="H2" s="38"/>
@@ -3569,12 +3618,12 @@
       <c r="F22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H22" s="62" t="s">
+      <c r="H22" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="64"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="66"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="13" t="s">
@@ -3862,11 +3911,11 @@
         <f t="shared" si="1"/>
         <v>5%</v>
       </c>
-      <c r="K31" s="65" t="str">
+      <c r="K31" s="67" t="str">
         <f>SUM(F31:F37)/10000&amp;"%"</f>
         <v>100%</v>
       </c>
-      <c r="L31" s="68" t="s">
+      <c r="L31" s="70" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3900,8 +3949,8 @@
         <f t="shared" si="1"/>
         <v>20%</v>
       </c>
-      <c r="K32" s="66"/>
-      <c r="L32" s="69"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="71"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="21">
@@ -3933,8 +3982,8 @@
         <f t="shared" si="1"/>
         <v>15%</v>
       </c>
-      <c r="K33" s="66"/>
-      <c r="L33" s="69"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="71"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="21">
@@ -3966,8 +4015,8 @@
         <f t="shared" si="1"/>
         <v>15%</v>
       </c>
-      <c r="K34" s="66"/>
-      <c r="L34" s="69"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="71"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="21">
@@ -3999,8 +4048,8 @@
         <f t="shared" si="1"/>
         <v>15%</v>
       </c>
-      <c r="K35" s="66"/>
-      <c r="L35" s="69"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="71"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="21">
@@ -4032,8 +4081,8 @@
         <f t="shared" si="1"/>
         <v>15%</v>
       </c>
-      <c r="K36" s="66"/>
-      <c r="L36" s="69"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="71"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="21">
@@ -4065,8 +4114,8 @@
         <f t="shared" si="1"/>
         <v>15%</v>
       </c>
-      <c r="K37" s="67"/>
-      <c r="L37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="71"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="21">
@@ -4097,7 +4146,7 @@
         <f t="shared" si="1"/>
         <v>33%</v>
       </c>
-      <c r="K38" s="70" t="str">
+      <c r="K38" s="72" t="str">
         <f>SUM(F38:F40)/10000&amp;"%"</f>
         <v>100%</v>
       </c>
@@ -4131,7 +4180,7 @@
         <f t="shared" si="1"/>
         <v>33%</v>
       </c>
-      <c r="K39" s="66"/>
+      <c r="K39" s="68"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="21">
@@ -4162,7 +4211,7 @@
         <f t="shared" si="1"/>
         <v>34%</v>
       </c>
-      <c r="K40" s="67"/>
+      <c r="K40" s="69"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="21"/>
@@ -4705,10 +4754,10 @@
   <dimension ref="A1:O395"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G326" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="G29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D349" sqref="D349"/>
+      <selection pane="bottomRight" activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7542,20 +7591,20 @@
       </c>
       <c r="E57" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F57,'!참조_ENUM'!$G$3:$G$42,0))</f>
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="F57" s="49" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="G57" s="4">
         <v>100006</v>
       </c>
       <c r="H57" s="53" t="str">
         <f>IF(E57=1000,VLOOKUP(G57,[2]item!$A$5:$C$10000,3,FALSE),IF(E57=112,VLOOKUP(G57,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E57=1,"골드",IF(E57=2,"보석",IF(E57=3,"스테미나",IF(E57=4,"호감도",IF(E57=5,"플레이어 경험치",IF(E57=6,"캐릭터 경험치",IF(E57=7,VLOOKUP(G57,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E57=8,VLOOKUP(G57,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E57=111,VLOOKUP(G57,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E57=113,VLOOKUP(G57,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
-        <v>에일린 조각</v>
+        <v>에일린</v>
       </c>
       <c r="I57" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J57" s="4">
         <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K57,'!참조_ENUM'!$K$3:$K$5,0))</f>
@@ -22748,7 +22797,7 @@
       <c r="G355" s="57">
         <v>30</v>
       </c>
-      <c r="H355" s="72" t="str">
+      <c r="H355" s="61" t="str">
         <f>IF(E355=1000,VLOOKUP(G355,[2]item!$A$5:$C$10000,3,FALSE),IF(E355=112,VLOOKUP(G355,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E355=1,"골드",IF(E355=2,"보석",IF(E355=3,"스테미나",IF(E355=4,"호감도",IF(E355=5,"플레이어 경험치",IF(E355=6,"캐릭터 경험치",IF(E355=7,VLOOKUP(G355,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E355=8,VLOOKUP(G355,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E355=111,VLOOKUP(G355,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E355=113,VLOOKUP(G355,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>보석</v>
       </c>
@@ -22799,7 +22848,7 @@
       <c r="G356" s="54">
         <v>16</v>
       </c>
-      <c r="H356" s="71" t="str">
+      <c r="H356" s="60" t="str">
         <f>IF(E356=1000,VLOOKUP(G356,[2]item!$A$5:$C$10000,3,FALSE),IF(E356=112,VLOOKUP(G356,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E356=1,"골드",IF(E356=2,"보석",IF(E356=3,"스테미나",IF(E356=4,"호감도",IF(E356=5,"플레이어 경험치",IF(E356=6,"캐릭터 경험치",IF(E356=7,VLOOKUP(G356,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E356=8,VLOOKUP(G356,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E356=111,VLOOKUP(G356,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E356=113,VLOOKUP(G356,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
         <v>전투 보고서(소)</v>
       </c>

--- a/Android/ExcelData/RewardTable.xlsx
+++ b/Android/ExcelData/RewardTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFE2028-1DDF-4203-98D8-6FA76D1CCE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7552A5C-EDF5-40C7-A478-82EFB0126B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9720" yWindow="1320" windowWidth="27510" windowHeight="19140" activeTab="2" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
+    <workbookView xWindow="780" yWindow="885" windowWidth="27510" windowHeight="19140" activeTab="2" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
   </bookViews>
   <sheets>
     <sheet name="!사용 설명" sheetId="6" r:id="rId1"/>
@@ -399,7 +399,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="82">
   <si>
     <t>Reward_Set_Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -672,9 +672,6 @@
   </si>
   <si>
     <t>4 호감도</t>
-  </si>
-  <si>
-    <t>7 캐릭터</t>
   </si>
 </sst>
 </file>
@@ -1346,6 +1343,7 @@
       <sheetName val="@stage_common"/>
       <sheetName val="@story_type"/>
       <sheetName val="@reward"/>
+      <sheetName val="Enums_01"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1447,22 +1445,76 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SECOND_TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>STAT_MULTIPLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
+      <sheetData sheetId="13">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ONETIME_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DURATION_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
+      <sheetData sheetId="17">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PERSISTENCE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
+      <sheetData sheetId="20">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SKILL_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
@@ -1715,9 +1767,21 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="30"/>
+      <sheetData sheetId="30">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_COUNT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
+      <sheetData sheetId="32">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ATTRIBUTE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="33"/>
       <sheetData sheetId="34"/>
       <sheetData sheetId="35" refreshError="1"/>
@@ -1725,6 +1789,7 @@
       <sheetData sheetId="37" refreshError="1"/>
       <sheetData sheetId="38" refreshError="1"/>
       <sheetData sheetId="39" refreshError="1"/>
+      <sheetData sheetId="40" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2440,9 +2505,9 @@
       <sheetName val="attribute_icon_data"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="5">
           <cell r="A5">
@@ -2665,10 +2730,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4754,10 +4819,10 @@
   <dimension ref="A1:O395"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="G35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I57" sqref="I57"/>
+      <selection pane="bottomRight" activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7591,20 +7656,20 @@
       </c>
       <c r="E57" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F57,'!참조_ENUM'!$G$3:$G$42,0))</f>
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="F57" s="49" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="G57" s="4">
         <v>100006</v>
       </c>
       <c r="H57" s="53" t="str">
         <f>IF(E57=1000,VLOOKUP(G57,[2]item!$A$5:$C$10000,3,FALSE),IF(E57=112,VLOOKUP(G57,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E57=1,"골드",IF(E57=2,"보석",IF(E57=3,"스테미나",IF(E57=4,"호감도",IF(E57=5,"플레이어 경험치",IF(E57=6,"캐릭터 경험치",IF(E57=7,VLOOKUP(G57,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E57=8,VLOOKUP(G57,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E57=111,VLOOKUP(G57,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E57=113,VLOOKUP(G57,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
-        <v>에일린</v>
+        <v>에일린 조각</v>
       </c>
       <c r="I57" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J57" s="4">
         <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K57,'!참조_ENUM'!$K$3:$K$5,0))</f>
@@ -15181,7 +15246,7 @@
         <v>10000015</v>
       </c>
       <c r="C206" s="42" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(MID(B206,1,1)="1","메인 스테이지",IF(MID(B206,1,1)="2","일일던전",IF(MID(B206,1,1)="3","보스전","다른 경우")))&amp;(IF(MID(B206,5,1)="0","_노멀",IF(MID(B206,1,1)="1","_하드",IF(MID(B206,1,1)="2","_베리하드","_다른 분류"))))</f>
         <v>메인 스테이지_노멀</v>
       </c>
       <c r="D206" s="42" t="str">
@@ -22636,20 +22701,20 @@
       </c>
       <c r="E352" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$42,MATCH(F352,'!참조_ENUM'!$G$3:$G$42,0))</f>
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="F352" s="49" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="G352" s="4">
         <v>100009</v>
       </c>
       <c r="H352" s="53" t="str">
         <f>IF(E352=1000,VLOOKUP(G352,[2]item!$A$5:$C$10000,3,FALSE),IF(E352=112,VLOOKUP(G352,[3]pc_data!$A$5:$C$10000,3,FALSE)&amp;" 조각",IF(E352=1,"골드",IF(E352=2,"보석",IF(E352=3,"스테미나",IF(E352=4,"호감도",IF(E352=5,"플레이어 경험치",IF(E352=6,"캐릭터 경험치",IF(E352=7,VLOOKUP(G352,[3]pc_data!$A$5:$C$10000,3,FALSE),IF(E352=8,VLOOKUP(G352,[2]equipment!$A$5:$D$10000,3,FALSE),IF(E352=111,VLOOKUP(G352,[2]equipment!$A$5:$D$10000,3,FALSE)&amp;" 조각",IF(E352=113,VLOOKUP(G352,[2]item_piece!$A$5:$C$10000,3,FALSE),"기타"))))))))))))</f>
-        <v>엘리자베스</v>
+        <v>엘리자베스 조각</v>
       </c>
       <c r="I352" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J352" s="4">
         <f>INDEX('!참조_ENUM'!$J$3:$J$5,MATCH(K352,'!참조_ENUM'!$K$3:$K$5,0))</f>

--- a/Android/ExcelData/RewardTable.xlsx
+++ b/Android/ExcelData/RewardTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7552A5C-EDF5-40C7-A478-82EFB0126B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EB24A0-D867-4CF3-8965-585D7A1B2846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="885" windowWidth="27510" windowHeight="19140" activeTab="2" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
+    <workbookView xWindow="43470" yWindow="2460" windowWidth="25680" windowHeight="19140" activeTab="2" xr2:uid="{E56C55A8-A958-4CE0-BCE8-622E48D30F85}"/>
   </bookViews>
   <sheets>
     <sheet name="!사용 설명" sheetId="6" r:id="rId1"/>
@@ -1445,76 +1445,22 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SECOND_TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>STAT_MULTIPLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ONETIME_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="15">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>DURATION_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PERSISTENCE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SKILL_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
@@ -1767,21 +1713,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="30">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_COUNT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="30"/>
       <sheetData sheetId="31"/>
-      <sheetData sheetId="32">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ATTRIBUTE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="32"/>
       <sheetData sheetId="33"/>
       <sheetData sheetId="34"/>
       <sheetData sheetId="35" refreshError="1"/>
@@ -2505,9 +2439,9 @@
       <sheetName val="attribute_icon_data"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
         <row r="5">
           <cell r="A5">
@@ -2730,10 +2664,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4819,10 +4753,10 @@
   <dimension ref="A1:O395"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="G26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I62" sqref="I62"/>
+      <selection pane="bottomRight" activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
